--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F92194-3DBF-4770-A02F-D09CD2B931BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAD900F-A879-4DCA-A1CD-EE8A7AD5D56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Målinger" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
-  <si>
-    <t>Setup 1.1</t>
-  </si>
-  <si>
-    <t># batterier</t>
-  </si>
-  <si>
-    <t>Vægtstangsforhold:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>Volt</t>
   </si>
@@ -58,15 +49,6 @@
   </si>
   <si>
     <t>Ampere</t>
-  </si>
-  <si>
-    <t>Setup 1.2</t>
-  </si>
-  <si>
-    <t>Setup 2.1</t>
-  </si>
-  <si>
-    <t>Setup 2.2</t>
   </si>
   <si>
     <t>B</t>
@@ -92,12 +74,48 @@
   <si>
     <t>forskel</t>
   </si>
+  <si>
+    <t>10 batterier</t>
+  </si>
+  <si>
+    <t>Vægtstangsforhold: 1:1</t>
+  </si>
+  <si>
+    <t>8 batterier</t>
+  </si>
+  <si>
+    <t>6 batterier</t>
+  </si>
+  <si>
+    <t>Setup 1</t>
+  </si>
+  <si>
+    <t>Setup 2</t>
+  </si>
+  <si>
+    <t>Setup 3</t>
+  </si>
+  <si>
+    <t>Setup 4</t>
+  </si>
+  <si>
+    <t>Setup 5</t>
+  </si>
+  <si>
+    <t>Setup 6</t>
+  </si>
+  <si>
+    <t>Vægtstangsforhold: 2:1</t>
+  </si>
+  <si>
+    <t>MÅLINGER AF DREJEMOMENT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +123,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +142,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,23 +239,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,127 +537,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" customWidth="1"/>
-    <col min="16" max="16" width="10.86328125" customWidth="1"/>
-    <col min="18" max="18" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
+      <c r="B3" s="1">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3830</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3865</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>130</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3577</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>128</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3917</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="G4" s="1">
+        <v>144</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3820</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>126</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3603</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>118</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>6.02</v>
+      </c>
+      <c r="B5" s="1">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3900</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>135</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3759</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>115</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3525</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>114</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1"/>
@@ -637,8 +742,8 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="F7" s="1"/>
@@ -651,8 +756,8 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="F8" s="1"/>
@@ -665,8 +770,8 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
@@ -679,13 +784,13 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="V9" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
@@ -698,15 +803,14 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="V10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="F11" s="1"/>
@@ -721,14 +825,13 @@
       <c r="V11" s="5">
         <v>454</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <f>V14+V11</f>
         <v>605.6</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" s="1"/>
@@ -741,11 +844,10 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="F13" s="1"/>
@@ -758,15 +860,14 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="V13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="F14" s="1"/>
@@ -781,14 +882,13 @@
       <c r="V14" s="5">
         <v>151.6</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <f>X11-V17</f>
         <v>5.6000000000000227</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="F15" s="1"/>
@@ -801,11 +901,10 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="7"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" s="1"/>
@@ -818,13 +917,12 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="V16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="7"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="F17" s="1"/>
@@ -839,11 +937,10 @@
       <c r="V17" s="5">
         <v>600</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="18" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="1"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="F18" s="1"/>
@@ -855,12 +952,12 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="1"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="F19" s="1"/>
@@ -873,8 +970,8 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="F20" s="1"/>
@@ -887,159 +984,224 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="V20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="X21" s="6" t="str">
         <f>X10</f>
         <v>diffrence</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V22" s="5">
         <v>303.5</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="7">
+      <c r="X22" s="6">
         <f>V22+V25</f>
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
+      <c r="H24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="7" t="str">
+      <c r="X24" s="6" t="str">
         <f>X13</f>
         <v>forskel</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3065</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="G25" s="1">
+        <v>88</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3045</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>384</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3612</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>360</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3566</v>
+      </c>
       <c r="V25" s="5">
         <v>311.5</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <f>X22-V28</f>
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3062</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="G26" s="1">
+        <v>86</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2995</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>370</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3552</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>345</v>
+      </c>
+      <c r="R26" s="1">
+        <v>3471</v>
+      </c>
       <c r="V26" s="5"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="7"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="B27" s="1">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3035</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>87</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3011</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="L27" s="1">
+        <v>360</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3563</v>
+      </c>
+      <c r="P27" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>352</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3499</v>
+      </c>
       <c r="V27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="7"/>
-    </row>
-    <row r="28" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1052,13 +1214,13 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="V28" s="8">
+      <c r="V28" s="7">
         <v>600</v>
       </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="W28" s="8"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1072,7 +1234,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1086,7 +1248,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1100,7 +1262,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1114,7 +1276,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1128,7 +1290,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1142,7 +1304,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1156,7 +1318,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1170,7 +1332,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1184,7 +1346,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1198,7 +1360,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1212,7 +1374,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1226,7 +1388,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1240,7 +1402,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1254,8 +1416,1002 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="B48" s="1">
+        <v>320</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3377</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="G48" s="1">
+        <v>320</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3405</v>
+      </c>
+      <c r="K48" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L48" s="1">
+        <v>260</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2940</v>
+      </c>
+      <c r="P48" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>235</v>
+      </c>
+      <c r="R48" s="1">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="B49" s="1">
+        <v>315</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3282</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G49" s="1">
+        <v>304</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3317</v>
+      </c>
+      <c r="K49" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="L49" s="1">
+        <v>245</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2949</v>
+      </c>
+      <c r="P49" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>225</v>
+      </c>
+      <c r="R49" s="1">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="B50" s="1">
+        <v>310</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3295</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="G50" s="1">
+        <v>296</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3286</v>
+      </c>
+      <c r="K50" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="L50" s="1">
+        <v>250</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2914</v>
+      </c>
+      <c r="P50" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>220</v>
+      </c>
+      <c r="R50" s="1">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="F51" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="G51" s="1">
+        <v>300</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3236</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="B71" s="10">
+        <v>41.5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3400</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1">
+        <v>38</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3409</v>
+      </c>
+      <c r="K71" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L71" s="10">
+        <v>25</v>
+      </c>
+      <c r="M71" s="1">
+        <v>3250</v>
+      </c>
+      <c r="P71" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="R71" s="1">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="B72" s="10">
+        <v>39.4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3350</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="G72" s="1">
+        <v>35</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3325</v>
+      </c>
+      <c r="K72" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L72" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="M72" s="1">
+        <v>3209</v>
+      </c>
+      <c r="P72" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="R72" s="1">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B73" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3355</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G73" s="1">
+        <v>34</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3280</v>
+      </c>
+      <c r="K73" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="L73" s="10">
+        <v>21.5</v>
+      </c>
+      <c r="M73" s="1">
+        <v>3170</v>
+      </c>
+      <c r="P73" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>28</v>
+      </c>
+      <c r="R73" s="1">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="B94" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2909</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G94" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="B95" s="10">
+        <v>21.3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2835</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="G95" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="B96" s="10">
+        <v>20</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2805</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="G96" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1265,11 +2421,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B6DC951-B409-4ED5-8276-80BB78A047FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E662C-C35E-40FE-9360-1A8CB6C4D7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t>Volt</t>
   </si>
@@ -177,13 +177,22 @@
   <si>
     <t>Effekt [W]</t>
   </si>
+  <si>
+    <t>Mekanisk effekt [W]</t>
+  </si>
+  <si>
+    <t>Elektrisk effekt [W]</t>
+  </si>
+  <si>
+    <t>Mekanisk virkningsgrad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -457,7 +466,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9"/>
-    <xf numFmtId="166" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="9" applyNumberFormat="1"/>
@@ -10143,8 +10152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH28" workbookViewId="0">
-      <selection activeCell="BE53" sqref="BE53"/>
+    <sheetView tabSelected="1" topLeftCell="AS46" workbookViewId="0">
+      <selection activeCell="BF58" sqref="BF58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10166,6 +10175,7 @@
     <col min="52" max="52" width="20.109375" customWidth="1"/>
     <col min="53" max="53" width="13.77734375" customWidth="1"/>
     <col min="54" max="54" width="11.44140625" customWidth="1"/>
+    <col min="56" max="56" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.3">
@@ -10225,6 +10235,20 @@
       <c r="BD1" s="14"/>
       <c r="BE1" s="14"/>
       <c r="BF1" s="14"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
     </row>
     <row r="2" spans="1:80" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -10307,6 +10331,20 @@
       <c r="BD2" s="14"/>
       <c r="BE2" s="14"/>
       <c r="BF2" s="14"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
     </row>
     <row r="3" spans="1:80" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
@@ -10393,6 +10431,20 @@
       <c r="BD3" s="14"/>
       <c r="BE3" s="14"/>
       <c r="BF3" s="14"/>
+      <c r="BG3" s="25"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="25"/>
+      <c r="BJ3" s="25"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" s="25"/>
+      <c r="BM3" s="25"/>
+      <c r="BN3" s="25"/>
+      <c r="BO3" s="25"/>
+      <c r="BP3" s="25"/>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="25"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -10495,6 +10547,20 @@
       <c r="BD4" s="14"/>
       <c r="BE4" s="14"/>
       <c r="BF4" s="14"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -10587,11 +10653,11 @@
         <v>-7.7386199999999981E-3</v>
       </c>
       <c r="AY5" s="30">
-        <f>0.0019*AU5-1.403</f>
+        <f t="shared" ref="AY5:AY36" si="0">0.0019*AU5-1.403</f>
         <v>0.49699999999999989</v>
       </c>
       <c r="AZ5" s="30">
-        <f>0.0014*AU5-1.5792</f>
+        <f t="shared" ref="AZ5:AZ36" si="1">0.0014*AU5-1.5792</f>
         <v>-0.17920000000000003</v>
       </c>
       <c r="BA5" s="26">
@@ -10603,6 +10669,20 @@
       <c r="BD5" s="14"/>
       <c r="BE5" s="14"/>
       <c r="BF5" s="14"/>
+      <c r="BG5" s="25"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="25"/>
+      <c r="BK5" s="25"/>
+      <c r="BL5" s="25"/>
+      <c r="BM5" s="25"/>
+      <c r="BN5" s="25"/>
+      <c r="BO5" s="25"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25"/>
+      <c r="BR5" s="25"/>
+      <c r="BS5" s="25"/>
+      <c r="BT5" s="25"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
@@ -10656,31 +10736,31 @@
       <c r="AS6" s="14"/>
       <c r="AT6" s="14"/>
       <c r="AU6" s="29">
-        <f>AU5+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" ref="AU6:AU35" si="2">AU5+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
         <v>1096.7741935483871</v>
       </c>
       <c r="AV6" s="28">
-        <f t="shared" ref="AV6:AV37" si="0">0.002*AU6-1.9899</f>
+        <f t="shared" ref="AV6:AV36" si="3">0.002*AU6-1.9899</f>
         <v>0.20364838709677402</v>
       </c>
       <c r="AW6" s="28">
-        <f t="shared" ref="AW6:AW36" si="1">0.0015*AU6-2.2662</f>
+        <f t="shared" ref="AW6:AW36" si="4">0.0015*AU6-2.2662</f>
         <v>-0.62103870967741925</v>
       </c>
       <c r="AX6" s="20">
-        <f t="shared" ref="AX6:AX36" si="2">AV6*AW6</f>
+        <f t="shared" ref="AX6:AX36" si="5">AV6*AW6</f>
         <v>-0.12647353155046814</v>
       </c>
       <c r="AY6" s="30">
-        <f>0.0019*AU6-1.403</f>
+        <f t="shared" si="0"/>
         <v>0.68087096774193556</v>
       </c>
       <c r="AZ6" s="30">
-        <f>0.0014*AU6-1.5792</f>
+        <f t="shared" si="1"/>
         <v>-4.3716129032258078E-2</v>
       </c>
       <c r="BA6" s="26">
-        <f t="shared" ref="BA6:BA36" si="3">AY6*AZ6</f>
+        <f t="shared" ref="BA6:BA36" si="6">AY6*AZ6</f>
         <v>-2.9765043080124884E-2</v>
       </c>
       <c r="BB6" s="14"/>
@@ -10688,6 +10768,20 @@
       <c r="BD6" s="14"/>
       <c r="BE6" s="14"/>
       <c r="BF6" s="14"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="25"/>
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="25"/>
+      <c r="BQ6" s="25"/>
+      <c r="BR6" s="25"/>
+      <c r="BS6" s="25"/>
+      <c r="BT6" s="25"/>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
@@ -10741,31 +10835,31 @@
       <c r="AS7" s="14"/>
       <c r="AT7" s="14"/>
       <c r="AU7" s="29">
-        <f>AU6+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1193.5483870967741</v>
       </c>
       <c r="AV7" s="28">
+        <f t="shared" si="3"/>
+        <v>0.39719677419354849</v>
+      </c>
+      <c r="AW7" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.47587741935483874</v>
+      </c>
+      <c r="AX7" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.18901697587929245</v>
+      </c>
+      <c r="AY7" s="30">
         <f t="shared" si="0"/>
-        <v>0.39719677419354849</v>
-      </c>
-      <c r="AW7" s="28">
+        <v>0.86474193548387079</v>
+      </c>
+      <c r="AZ7" s="30">
         <f t="shared" si="1"/>
-        <v>-0.47587741935483874</v>
-      </c>
-      <c r="AX7" s="20">
-        <f t="shared" si="2"/>
-        <v>-0.18901697587929245</v>
-      </c>
-      <c r="AY7" s="30">
-        <f>0.0019*AU7-1.403</f>
-        <v>0.86474193548387079</v>
-      </c>
-      <c r="AZ7" s="30">
-        <f>0.0014*AU7-1.5792</f>
         <v>9.1767741935483871E-2</v>
       </c>
       <c r="BA7" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.9355414776274696E-2</v>
       </c>
       <c r="BB7" s="14"/>
@@ -10773,6 +10867,20 @@
       <c r="BD7" s="14"/>
       <c r="BE7" s="14"/>
       <c r="BF7" s="14"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="25"/>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="25"/>
+      <c r="BS7" s="25"/>
+      <c r="BT7" s="25"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
@@ -10826,31 +10934,31 @@
       <c r="AS8" s="14"/>
       <c r="AT8" s="14"/>
       <c r="AU8" s="29">
-        <f>AU7+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1290.3225806451612</v>
       </c>
       <c r="AV8" s="28">
+        <f t="shared" si="3"/>
+        <v>0.59074516129032251</v>
+      </c>
+      <c r="AW8" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.33071612903225822</v>
+      </c>
+      <c r="AX8" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.1953689529864725</v>
+      </c>
+      <c r="AY8" s="30">
         <f t="shared" si="0"/>
-        <v>0.59074516129032251</v>
-      </c>
-      <c r="AW8" s="28">
+        <v>1.0486129032258065</v>
+      </c>
+      <c r="AZ8" s="30">
         <f t="shared" si="1"/>
-        <v>-0.33071612903225822</v>
-      </c>
-      <c r="AX8" s="20">
-        <f t="shared" si="2"/>
-        <v>-0.1953689529864725</v>
-      </c>
-      <c r="AY8" s="30">
-        <f>0.0019*AU8-1.403</f>
-        <v>1.0486129032258065</v>
-      </c>
-      <c r="AZ8" s="30">
-        <f>0.0014*AU8-1.5792</f>
         <v>0.22725161290322582</v>
       </c>
       <c r="BA8" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.23829897356919877</v>
       </c>
       <c r="BB8" s="14"/>
@@ -10858,6 +10966,20 @@
       <c r="BD8" s="14"/>
       <c r="BE8" s="14"/>
       <c r="BF8" s="14"/>
+      <c r="BG8" s="25"/>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="25"/>
+      <c r="BJ8" s="25"/>
+      <c r="BK8" s="25"/>
+      <c r="BL8" s="25"/>
+      <c r="BM8" s="25"/>
+      <c r="BN8" s="25"/>
+      <c r="BO8" s="25"/>
+      <c r="BP8" s="25"/>
+      <c r="BQ8" s="25"/>
+      <c r="BR8" s="25"/>
+      <c r="BS8" s="25"/>
+      <c r="BT8" s="25"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -10911,31 +11033,31 @@
       <c r="AS9" s="14"/>
       <c r="AT9" s="14"/>
       <c r="AU9" s="29">
-        <f>AU8+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1387.0967741935483</v>
       </c>
       <c r="AV9" s="28">
+        <f t="shared" si="3"/>
+        <v>0.78429354838709653</v>
+      </c>
+      <c r="AW9" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.18555483870967748</v>
+      </c>
+      <c r="AX9" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.14552946287200832</v>
+      </c>
+      <c r="AY9" s="30">
         <f t="shared" si="0"/>
-        <v>0.78429354838709653</v>
-      </c>
-      <c r="AW9" s="28">
+        <v>1.2324838709677417</v>
+      </c>
+      <c r="AZ9" s="30">
         <f t="shared" si="1"/>
-        <v>-0.18555483870967748</v>
-      </c>
-      <c r="AX9" s="20">
-        <f t="shared" si="2"/>
-        <v>-0.14552946287200832</v>
-      </c>
-      <c r="AY9" s="30">
-        <f>0.0019*AU9-1.403</f>
-        <v>1.2324838709677417</v>
-      </c>
-      <c r="AZ9" s="30">
-        <f>0.0014*AU9-1.5792</f>
         <v>0.36273548387096777</v>
       </c>
       <c r="BA9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.44706563329864718</v>
       </c>
       <c r="BB9" s="14"/>
@@ -10943,6 +11065,20 @@
       <c r="BD9" s="14"/>
       <c r="BE9" s="14"/>
       <c r="BF9" s="14"/>
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25"/>
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25"/>
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
@@ -10996,31 +11132,31 @@
       <c r="AS10" s="14"/>
       <c r="AT10" s="14"/>
       <c r="AU10" s="29">
-        <f>AU9+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1483.8709677419354</v>
       </c>
       <c r="AV10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.97784193548387099</v>
+      </c>
+      <c r="AW10" s="28">
+        <f t="shared" si="4"/>
+        <v>-4.0393548387096967E-2</v>
+      </c>
+      <c r="AX10" s="20">
+        <f t="shared" si="5"/>
+        <v>-3.9498505535900293E-2</v>
+      </c>
+      <c r="AY10" s="30">
         <f t="shared" si="0"/>
-        <v>0.97784193548387099</v>
-      </c>
-      <c r="AW10" s="28">
+        <v>1.4163548387096774</v>
+      </c>
+      <c r="AZ10" s="30">
         <f t="shared" si="1"/>
-        <v>-4.0393548387096967E-2</v>
-      </c>
-      <c r="AX10" s="20">
-        <f t="shared" si="2"/>
-        <v>-3.9498505535900293E-2</v>
-      </c>
-      <c r="AY10" s="30">
-        <f>0.0019*AU10-1.403</f>
-        <v>1.4163548387096774</v>
-      </c>
-      <c r="AZ10" s="30">
-        <f>0.0014*AU10-1.5792</f>
         <v>0.49821935483870949</v>
       </c>
       <c r="BA10" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.70565539396461996</v>
       </c>
       <c r="BB10" s="14"/>
@@ -11028,6 +11164,20 @@
       <c r="BD10" s="14"/>
       <c r="BE10" s="14"/>
       <c r="BF10" s="14"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
+      <c r="BM10" s="25"/>
+      <c r="BN10" s="25"/>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
       <c r="CB10" t="s">
         <v>29</v>
       </c>
@@ -11084,31 +11234,31 @@
       <c r="AS11" s="14"/>
       <c r="AT11" s="14"/>
       <c r="AU11" s="29">
-        <f>AU10+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1580.6451612903224</v>
       </c>
       <c r="AV11" s="28">
+        <f t="shared" si="3"/>
+        <v>1.171390322580645</v>
+      </c>
+      <c r="AW11" s="28">
+        <f t="shared" si="4"/>
+        <v>0.10476774193548355</v>
+      </c>
+      <c r="AX11" s="20">
+        <f t="shared" si="5"/>
+        <v>0.12272391902185184</v>
+      </c>
+      <c r="AY11" s="30">
         <f t="shared" si="0"/>
-        <v>1.171390322580645</v>
-      </c>
-      <c r="AW11" s="28">
+        <v>1.6002258064516126</v>
+      </c>
+      <c r="AZ11" s="30">
         <f t="shared" si="1"/>
-        <v>0.10476774193548355</v>
-      </c>
-      <c r="AX11" s="20">
-        <f t="shared" si="2"/>
-        <v>0.12272391902185184</v>
-      </c>
-      <c r="AY11" s="30">
-        <f>0.0019*AU11-1.403</f>
-        <v>1.6002258064516126</v>
-      </c>
-      <c r="AZ11" s="30">
-        <f>0.0014*AU11-1.5792</f>
         <v>0.63370322580645166</v>
       </c>
       <c r="BA11" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0140682555671174</v>
       </c>
       <c r="BB11" s="14"/>
@@ -11116,6 +11266,20 @@
       <c r="BD11" s="14"/>
       <c r="BE11" s="14"/>
       <c r="BF11" s="14"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="25"/>
+      <c r="BS11" s="25"/>
+      <c r="BT11" s="25"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
@@ -11169,31 +11333,31 @@
       <c r="AS12" s="14"/>
       <c r="AT12" s="14"/>
       <c r="AU12" s="29">
-        <f>AU11+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1677.4193548387095</v>
       </c>
       <c r="AV12" s="28">
+        <f t="shared" si="3"/>
+        <v>1.364938709677419</v>
+      </c>
+      <c r="AW12" s="28">
+        <f t="shared" si="4"/>
+        <v>0.24992903225806451</v>
+      </c>
+      <c r="AX12" s="20">
+        <f t="shared" si="5"/>
+        <v>0.34113781080124861</v>
+      </c>
+      <c r="AY12" s="30">
         <f t="shared" si="0"/>
-        <v>1.364938709677419</v>
-      </c>
-      <c r="AW12" s="28">
+        <v>1.7840967741935483</v>
+      </c>
+      <c r="AZ12" s="30">
         <f t="shared" si="1"/>
-        <v>0.24992903225806451</v>
-      </c>
-      <c r="AX12" s="20">
-        <f t="shared" si="2"/>
-        <v>0.34113781080124861</v>
-      </c>
-      <c r="AY12" s="30">
-        <f>0.0019*AU12-1.403</f>
-        <v>1.7840967741935483</v>
-      </c>
-      <c r="AZ12" s="30">
-        <f>0.0014*AU12-1.5792</f>
         <v>0.76918709677419339</v>
       </c>
       <c r="BA12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3723042181061391</v>
       </c>
       <c r="BB12" s="14"/>
@@ -11201,6 +11365,20 @@
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
       <c r="BF12" s="14"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
+      <c r="BT12" s="25"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -11254,31 +11432,31 @@
       <c r="AS13" s="14"/>
       <c r="AT13" s="14"/>
       <c r="AU13" s="29">
-        <f>AU12+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1774.1935483870966</v>
       </c>
       <c r="AV13" s="28">
+        <f t="shared" si="3"/>
+        <v>1.5584870967741931</v>
+      </c>
+      <c r="AW13" s="28">
+        <f t="shared" si="4"/>
+        <v>0.39509032258064503</v>
+      </c>
+      <c r="AX13" s="20">
+        <f t="shared" si="5"/>
+        <v>0.61574316980228883</v>
+      </c>
+      <c r="AY13" s="30">
         <f t="shared" si="0"/>
-        <v>1.5584870967741931</v>
-      </c>
-      <c r="AW13" s="28">
+        <v>1.9679677419354835</v>
+      </c>
+      <c r="AZ13" s="30">
         <f t="shared" si="1"/>
-        <v>0.39509032258064503</v>
-      </c>
-      <c r="AX13" s="20">
-        <f t="shared" si="2"/>
-        <v>0.61574316980228883</v>
-      </c>
-      <c r="AY13" s="30">
-        <f>0.0019*AU13-1.403</f>
-        <v>1.9679677419354835</v>
-      </c>
-      <c r="AZ13" s="30">
-        <f>0.0014*AU13-1.5792</f>
         <v>0.90467096774193512</v>
       </c>
       <c r="BA13" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7803632815816848</v>
       </c>
       <c r="BB13" s="14"/>
@@ -11286,6 +11464,20 @@
       <c r="BD13" s="14"/>
       <c r="BE13" s="14"/>
       <c r="BF13" s="14"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BS13" s="25"/>
+      <c r="BT13" s="25"/>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
@@ -11327,31 +11519,31 @@
       <c r="AS14" s="14"/>
       <c r="AT14" s="14"/>
       <c r="AU14" s="29">
-        <f>AU13+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1870.9677419354837</v>
       </c>
       <c r="AV14" s="28">
+        <f t="shared" si="3"/>
+        <v>1.7520354838709675</v>
+      </c>
+      <c r="AW14" s="28">
+        <f t="shared" si="4"/>
+        <v>0.54025161290322554</v>
+      </c>
+      <c r="AX14" s="20">
+        <f t="shared" si="5"/>
+        <v>0.94653999602497341</v>
+      </c>
+      <c r="AY14" s="30">
         <f t="shared" si="0"/>
-        <v>1.7520354838709675</v>
-      </c>
-      <c r="AW14" s="28">
+        <v>2.1518387096774187</v>
+      </c>
+      <c r="AZ14" s="30">
         <f t="shared" si="1"/>
-        <v>0.54025161290322554</v>
-      </c>
-      <c r="AX14" s="20">
-        <f t="shared" si="2"/>
-        <v>0.94653999602497341</v>
-      </c>
-      <c r="AY14" s="30">
-        <f>0.0019*AU14-1.403</f>
-        <v>2.1518387096774187</v>
-      </c>
-      <c r="AZ14" s="30">
-        <f>0.0014*AU14-1.5792</f>
         <v>1.0401548387096773</v>
       </c>
       <c r="BA14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2382454459937557</v>
       </c>
       <c r="BB14" s="14"/>
@@ -11359,6 +11551,20 @@
       <c r="BD14" s="14"/>
       <c r="BE14" s="14"/>
       <c r="BF14" s="14"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BS14" s="25"/>
+      <c r="BT14" s="25"/>
     </row>
     <row r="15" spans="1:80" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
@@ -11402,31 +11608,31 @@
       <c r="AS15" s="14"/>
       <c r="AT15" s="14"/>
       <c r="AU15" s="29">
-        <f>AU14+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>1967.7419354838707</v>
       </c>
       <c r="AV15" s="28">
+        <f t="shared" si="3"/>
+        <v>1.9455838709677415</v>
+      </c>
+      <c r="AW15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.68541290322580606</v>
+      </c>
+      <c r="AX15" s="20">
+        <f t="shared" si="5"/>
+        <v>1.3335282894693017</v>
+      </c>
+      <c r="AY15" s="30">
         <f t="shared" si="0"/>
-        <v>1.9455838709677415</v>
-      </c>
-      <c r="AW15" s="28">
+        <v>2.3357096774193544</v>
+      </c>
+      <c r="AZ15" s="30">
         <f t="shared" si="1"/>
-        <v>0.68541290322580606</v>
-      </c>
-      <c r="AX15" s="20">
-        <f t="shared" si="2"/>
-        <v>1.3335282894693017</v>
-      </c>
-      <c r="AY15" s="30">
-        <f>0.0019*AU15-1.403</f>
-        <v>2.3357096774193544</v>
-      </c>
-      <c r="AZ15" s="30">
-        <f>0.0014*AU15-1.5792</f>
         <v>1.175638709677419</v>
       </c>
       <c r="BA15" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7459507113423505</v>
       </c>
       <c r="BB15" s="14"/>
@@ -11434,6 +11640,20 @@
       <c r="BD15" s="14"/>
       <c r="BE15" s="14"/>
       <c r="BF15" s="14"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BQ15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BS15" s="25"/>
+      <c r="BT15" s="25"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
@@ -11487,31 +11707,31 @@
       <c r="AS16" s="14"/>
       <c r="AT16" s="14"/>
       <c r="AU16" s="29">
-        <f>AU15+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2064.516129032258</v>
       </c>
       <c r="AV16" s="28">
+        <f t="shared" si="3"/>
+        <v>2.139132258064516</v>
+      </c>
+      <c r="AW16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.83057419354838702</v>
+      </c>
+      <c r="AX16" s="20">
+        <f t="shared" si="5"/>
+        <v>1.7767080501352754</v>
+      </c>
+      <c r="AY16" s="30">
         <f t="shared" si="0"/>
-        <v>2.139132258064516</v>
-      </c>
-      <c r="AW16" s="28">
+        <v>2.5195806451612901</v>
+      </c>
+      <c r="AZ16" s="30">
         <f t="shared" si="1"/>
-        <v>0.83057419354838702</v>
-      </c>
-      <c r="AX16" s="20">
-        <f t="shared" si="2"/>
-        <v>1.7767080501352754</v>
-      </c>
-      <c r="AY16" s="30">
-        <f>0.0019*AU16-1.403</f>
-        <v>2.5195806451612901</v>
-      </c>
-      <c r="AZ16" s="30">
-        <f>0.0014*AU16-1.5792</f>
         <v>1.3111225806451612</v>
       </c>
       <c r="BA16" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.303479077627471</v>
       </c>
       <c r="BB16" s="14"/>
@@ -11519,8 +11739,22 @@
       <c r="BD16" s="14"/>
       <c r="BE16" s="14"/>
       <c r="BF16" s="14"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="25"/>
+      <c r="BS16" s="25"/>
+      <c r="BT16" s="25"/>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11572,31 +11806,31 @@
       <c r="AS17" s="14"/>
       <c r="AT17" s="14"/>
       <c r="AU17" s="29">
-        <f>AU16+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2161.2903225806454</v>
       </c>
       <c r="AV17" s="28">
+        <f t="shared" si="3"/>
+        <v>2.3326806451612909</v>
+      </c>
+      <c r="AW17" s="28">
+        <f t="shared" si="4"/>
+        <v>0.97573548387096798</v>
+      </c>
+      <c r="AX17" s="20">
+        <f t="shared" si="5"/>
+        <v>2.2760792780228938</v>
+      </c>
+      <c r="AY17" s="30">
         <f t="shared" si="0"/>
-        <v>2.3326806451612909</v>
-      </c>
-      <c r="AW17" s="28">
+        <v>2.7034516129032258</v>
+      </c>
+      <c r="AZ17" s="30">
         <f t="shared" si="1"/>
-        <v>0.97573548387096798</v>
-      </c>
-      <c r="AX17" s="20">
-        <f t="shared" si="2"/>
-        <v>2.2760792780228938</v>
-      </c>
-      <c r="AY17" s="30">
-        <f>0.0019*AU17-1.403</f>
-        <v>2.7034516129032258</v>
-      </c>
-      <c r="AZ17" s="30">
-        <f>0.0014*AU17-1.5792</f>
         <v>1.4466064516129034</v>
       </c>
       <c r="BA17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9108305448491159</v>
       </c>
       <c r="BB17" s="14"/>
@@ -11604,8 +11838,22 @@
       <c r="BD17" s="14"/>
       <c r="BE17" s="14"/>
       <c r="BF17" s="14"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
+      <c r="BT17" s="25"/>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -11657,31 +11905,31 @@
       <c r="AS18" s="14"/>
       <c r="AT18" s="14"/>
       <c r="AU18" s="29">
-        <f>AU17+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2258.0645161290327</v>
       </c>
       <c r="AV18" s="28">
+        <f t="shared" si="3"/>
+        <v>2.5262290322580658</v>
+      </c>
+      <c r="AW18" s="28">
+        <f t="shared" si="4"/>
+        <v>1.1208967741935489</v>
+      </c>
+      <c r="AX18" s="20">
+        <f t="shared" si="5"/>
+        <v>2.8316419731321569</v>
+      </c>
+      <c r="AY18" s="30">
         <f t="shared" si="0"/>
-        <v>2.5262290322580658</v>
-      </c>
-      <c r="AW18" s="28">
+        <v>2.8873225806451619</v>
+      </c>
+      <c r="AZ18" s="30">
         <f t="shared" si="1"/>
-        <v>1.1208967741935489</v>
-      </c>
-      <c r="AX18" s="20">
-        <f t="shared" si="2"/>
-        <v>2.8316419731321569</v>
-      </c>
-      <c r="AY18" s="30">
-        <f>0.0019*AU18-1.403</f>
-        <v>2.8873225806451619</v>
-      </c>
-      <c r="AZ18" s="30">
-        <f>0.0014*AU18-1.5792</f>
         <v>1.5820903225806455</v>
       </c>
       <c r="BA18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.5680051130072865</v>
       </c>
       <c r="BB18" s="14"/>
@@ -11689,8 +11937,22 @@
       <c r="BD18" s="14"/>
       <c r="BE18" s="14"/>
       <c r="BF18" s="14"/>
+      <c r="BG18" s="25"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" s="25"/>
+      <c r="BM18" s="25"/>
+      <c r="BN18" s="25"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="25"/>
+      <c r="BQ18" s="25"/>
+      <c r="BR18" s="25"/>
+      <c r="BS18" s="25"/>
+      <c r="BT18" s="25"/>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -11742,31 +12004,31 @@
       <c r="AS19" s="14"/>
       <c r="AT19" s="14"/>
       <c r="AU19" s="29">
-        <f>AU18+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2354.83870967742</v>
       </c>
       <c r="AV19" s="28">
+        <f t="shared" si="3"/>
+        <v>2.7197774193548399</v>
+      </c>
+      <c r="AW19" s="28">
+        <f t="shared" si="4"/>
+        <v>1.2660580645161299</v>
+      </c>
+      <c r="AX19" s="20">
+        <f t="shared" si="5"/>
+        <v>3.4433961354630633</v>
+      </c>
+      <c r="AY19" s="30">
         <f t="shared" si="0"/>
-        <v>2.7197774193548399</v>
-      </c>
-      <c r="AW19" s="28">
+        <v>3.071193548387098</v>
+      </c>
+      <c r="AZ19" s="30">
         <f t="shared" si="1"/>
-        <v>1.2660580645161299</v>
-      </c>
-      <c r="AX19" s="20">
-        <f t="shared" si="2"/>
-        <v>3.4433961354630633</v>
-      </c>
-      <c r="AY19" s="30">
-        <f>0.0019*AU19-1.403</f>
-        <v>3.071193548387098</v>
-      </c>
-      <c r="AZ19" s="30">
-        <f>0.0014*AU19-1.5792</f>
         <v>1.7175741935483881</v>
       </c>
       <c r="BA19" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.275002782101982</v>
       </c>
       <c r="BB19" s="14"/>
@@ -11774,8 +12036,22 @@
       <c r="BD19" s="14"/>
       <c r="BE19" s="14"/>
       <c r="BF19" s="14"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="25"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" s="25"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="25"/>
+      <c r="BO19" s="25"/>
+      <c r="BP19" s="25"/>
+      <c r="BQ19" s="25"/>
+      <c r="BR19" s="25"/>
+      <c r="BS19" s="25"/>
+      <c r="BT19" s="25"/>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11827,31 +12103,31 @@
       <c r="AS20" s="14"/>
       <c r="AT20" s="14"/>
       <c r="AU20" s="29">
-        <f>AU19+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2451.6129032258073</v>
       </c>
       <c r="AV20" s="28">
+        <f t="shared" si="3"/>
+        <v>2.9133258064516148</v>
+      </c>
+      <c r="AW20" s="28">
+        <f t="shared" si="4"/>
+        <v>1.4112193548387109</v>
+      </c>
+      <c r="AX20" s="20">
+        <f t="shared" si="5"/>
+        <v>4.1113417650156148</v>
+      </c>
+      <c r="AY20" s="30">
         <f t="shared" si="0"/>
-        <v>2.9133258064516148</v>
-      </c>
-      <c r="AW20" s="28">
+        <v>3.2550645161290341</v>
+      </c>
+      <c r="AZ20" s="30">
         <f t="shared" si="1"/>
-        <v>1.4112193548387109</v>
-      </c>
-      <c r="AX20" s="20">
-        <f t="shared" si="2"/>
-        <v>4.1113417650156148</v>
-      </c>
-      <c r="AY20" s="30">
-        <f>0.0019*AU20-1.403</f>
-        <v>3.2550645161290341</v>
-      </c>
-      <c r="AZ20" s="30">
-        <f>0.0014*AU20-1.5792</f>
         <v>1.8530580645161303</v>
       </c>
       <c r="BA20" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.0318235521332024</v>
       </c>
       <c r="BB20" s="14"/>
@@ -11859,8 +12135,22 @@
       <c r="BD20" s="14"/>
       <c r="BE20" s="14"/>
       <c r="BF20" s="14"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" s="25"/>
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="25"/>
+      <c r="BO20" s="25"/>
+      <c r="BP20" s="25"/>
+      <c r="BQ20" s="25"/>
+      <c r="BR20" s="25"/>
+      <c r="BS20" s="25"/>
+      <c r="BT20" s="25"/>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="U21" s="20">
         <v>4.84</v>
       </c>
@@ -11900,31 +12190,31 @@
       <c r="AS21" s="14"/>
       <c r="AT21" s="14"/>
       <c r="AU21" s="29">
-        <f>AU20+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2548.3870967741946</v>
       </c>
       <c r="AV21" s="28">
+        <f t="shared" si="3"/>
+        <v>3.1068741935483888</v>
+      </c>
+      <c r="AW21" s="28">
+        <f t="shared" si="4"/>
+        <v>1.5563806451612918</v>
+      </c>
+      <c r="AX21" s="20">
+        <f t="shared" si="5"/>
+        <v>4.8354788617898095</v>
+      </c>
+      <c r="AY21" s="30">
         <f t="shared" si="0"/>
-        <v>3.1068741935483888</v>
-      </c>
-      <c r="AW21" s="28">
+        <v>3.4389354838709694</v>
+      </c>
+      <c r="AZ21" s="30">
         <f t="shared" si="1"/>
-        <v>1.5563806451612918</v>
-      </c>
-      <c r="AX21" s="20">
-        <f t="shared" si="2"/>
-        <v>4.8354788617898095</v>
-      </c>
-      <c r="AY21" s="30">
-        <f>0.0019*AU21-1.403</f>
-        <v>3.4389354838709694</v>
-      </c>
-      <c r="AZ21" s="30">
-        <f>0.0014*AU21-1.5792</f>
         <v>1.9885419354838725</v>
       </c>
       <c r="BA21" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.838467423100945</v>
       </c>
       <c r="BB21" s="14"/>
@@ -11932,8 +12222,22 @@
       <c r="BD21" s="14"/>
       <c r="BE21" s="14"/>
       <c r="BF21" s="14"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="25"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="25"/>
+      <c r="BM21" s="25"/>
+      <c r="BN21" s="25"/>
+      <c r="BO21" s="25"/>
+      <c r="BP21" s="25"/>
+      <c r="BQ21" s="25"/>
+      <c r="BR21" s="25"/>
+      <c r="BS21" s="25"/>
+      <c r="BT21" s="25"/>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="U22" s="20">
         <v>4.84</v>
       </c>
@@ -11973,31 +12277,31 @@
       <c r="AS22" s="14"/>
       <c r="AT22" s="14"/>
       <c r="AU22" s="29">
-        <f>AU21+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2645.1612903225819</v>
       </c>
       <c r="AV22" s="28">
+        <f t="shared" si="3"/>
+        <v>3.3004225806451637</v>
+      </c>
+      <c r="AW22" s="28">
+        <f t="shared" si="4"/>
+        <v>1.7015419354838728</v>
+      </c>
+      <c r="AX22" s="20">
+        <f t="shared" si="5"/>
+        <v>5.6158074257856496</v>
+      </c>
+      <c r="AY22" s="30">
         <f t="shared" si="0"/>
-        <v>3.3004225806451637</v>
-      </c>
-      <c r="AW22" s="28">
+        <v>3.6228064516129055</v>
+      </c>
+      <c r="AZ22" s="30">
         <f t="shared" si="1"/>
-        <v>1.7015419354838728</v>
-      </c>
-      <c r="AX22" s="20">
-        <f t="shared" si="2"/>
-        <v>5.6158074257856496</v>
-      </c>
-      <c r="AY22" s="30">
-        <f>0.0019*AU22-1.403</f>
-        <v>3.6228064516129055</v>
-      </c>
-      <c r="AZ22" s="30">
-        <f>0.0014*AU22-1.5792</f>
         <v>2.1240258064516144</v>
       </c>
       <c r="BA22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.6949343950052134</v>
       </c>
       <c r="BB22" s="14"/>
@@ -12005,8 +12309,22 @@
       <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>
       <c r="BF22" s="14"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="25"/>
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="25"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="25"/>
+      <c r="BQ22" s="25"/>
+      <c r="BR22" s="25"/>
+      <c r="BS22" s="25"/>
+      <c r="BT22" s="25"/>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -12064,31 +12382,31 @@
       <c r="AS23" s="14"/>
       <c r="AT23" s="14"/>
       <c r="AU23" s="29">
-        <f>AU22+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2741.9354838709692</v>
       </c>
       <c r="AV23" s="28">
+        <f t="shared" si="3"/>
+        <v>3.4939709677419386</v>
+      </c>
+      <c r="AW23" s="28">
+        <f t="shared" si="4"/>
+        <v>1.8467032258064537</v>
+      </c>
+      <c r="AX23" s="20">
+        <f t="shared" si="5"/>
+        <v>6.4523274570031353</v>
+      </c>
+      <c r="AY23" s="30">
         <f t="shared" si="0"/>
-        <v>3.4939709677419386</v>
-      </c>
-      <c r="AW23" s="28">
+        <v>3.8066774193548416</v>
+      </c>
+      <c r="AZ23" s="30">
         <f t="shared" si="1"/>
-        <v>1.8467032258064537</v>
-      </c>
-      <c r="AX23" s="20">
-        <f t="shared" si="2"/>
-        <v>6.4523274570031353</v>
-      </c>
-      <c r="AY23" s="30">
-        <f>0.0019*AU23-1.403</f>
-        <v>3.8066774193548416</v>
-      </c>
-      <c r="AZ23" s="30">
-        <f>0.0014*AU23-1.5792</f>
         <v>2.2595096774193566</v>
       </c>
       <c r="BA23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.6012244678460075</v>
       </c>
       <c r="BB23" s="14"/>
@@ -12096,8 +12414,22 @@
       <c r="BD23" s="14"/>
       <c r="BE23" s="14"/>
       <c r="BF23" s="14"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="25"/>
+      <c r="BL23" s="25"/>
+      <c r="BM23" s="25"/>
+      <c r="BN23" s="25"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="25"/>
+      <c r="BS23" s="25"/>
+      <c r="BT23" s="25"/>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12173,31 +12505,31 @@
       <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
       <c r="AU24" s="29">
-        <f>AU23+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2838.7096774193565</v>
       </c>
       <c r="AV24" s="28">
+        <f t="shared" si="3"/>
+        <v>3.6875193548387126</v>
+      </c>
+      <c r="AW24" s="28">
+        <f t="shared" si="4"/>
+        <v>1.9918645161290347</v>
+      </c>
+      <c r="AX24" s="20">
+        <f t="shared" si="5"/>
+        <v>7.3450389554422628</v>
+      </c>
+      <c r="AY24" s="30">
         <f t="shared" si="0"/>
-        <v>3.6875193548387126</v>
-      </c>
-      <c r="AW24" s="28">
+        <v>3.9905483870967768</v>
+      </c>
+      <c r="AZ24" s="30">
         <f t="shared" si="1"/>
-        <v>1.9918645161290347</v>
-      </c>
-      <c r="AX24" s="20">
-        <f t="shared" si="2"/>
-        <v>7.3450389554422628</v>
-      </c>
-      <c r="AY24" s="30">
-        <f>0.0019*AU24-1.403</f>
-        <v>3.9905483870967768</v>
-      </c>
-      <c r="AZ24" s="30">
-        <f>0.0014*AU24-1.5792</f>
         <v>2.3949935483870988</v>
       </c>
       <c r="BA24" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.5573376416233238</v>
       </c>
       <c r="BB24" s="14"/>
@@ -12205,8 +12537,22 @@
       <c r="BD24" s="14"/>
       <c r="BE24" s="14"/>
       <c r="BF24" s="14"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="25"/>
+      <c r="BO24" s="25"/>
+      <c r="BP24" s="25"/>
+      <c r="BQ24" s="25"/>
+      <c r="BR24" s="25"/>
+      <c r="BS24" s="25"/>
+      <c r="BT24" s="25"/>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -12282,31 +12628,31 @@
       <c r="AS25" s="14"/>
       <c r="AT25" s="14"/>
       <c r="AU25" s="29">
-        <f>AU24+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>2935.4838709677438</v>
       </c>
       <c r="AV25" s="28">
+        <f t="shared" si="3"/>
+        <v>3.8810677419354875</v>
+      </c>
+      <c r="AW25" s="28">
+        <f t="shared" si="4"/>
+        <v>2.1370258064516157</v>
+      </c>
+      <c r="AX25" s="20">
+        <f t="shared" si="5"/>
+        <v>8.2939419211030359</v>
+      </c>
+      <c r="AY25" s="30">
         <f t="shared" si="0"/>
-        <v>3.8810677419354875</v>
-      </c>
-      <c r="AW25" s="28">
+        <v>4.1744193548387134</v>
+      </c>
+      <c r="AZ25" s="30">
         <f t="shared" si="1"/>
-        <v>2.1370258064516157</v>
-      </c>
-      <c r="AX25" s="20">
-        <f t="shared" si="2"/>
-        <v>8.2939419211030359</v>
-      </c>
-      <c r="AY25" s="30">
-        <f>0.0019*AU25-1.403</f>
-        <v>4.1744193548387134</v>
-      </c>
-      <c r="AZ25" s="30">
-        <f>0.0014*AU25-1.5792</f>
         <v>2.5304774193548409</v>
       </c>
       <c r="BA25" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.563273916337167</v>
       </c>
       <c r="BB25" s="14"/>
@@ -12314,8 +12660,22 @@
       <c r="BD25" s="14"/>
       <c r="BE25" s="14"/>
       <c r="BF25" s="14"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="25"/>
+      <c r="BO25" s="25"/>
+      <c r="BP25" s="25"/>
+      <c r="BQ25" s="25"/>
+      <c r="BR25" s="25"/>
+      <c r="BS25" s="25"/>
+      <c r="BT25" s="25"/>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -12385,31 +12745,31 @@
       <c r="AS26" s="14"/>
       <c r="AT26" s="14"/>
       <c r="AU26" s="29">
-        <f>AU25+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3032.2580645161311</v>
       </c>
       <c r="AV26" s="28">
+        <f t="shared" si="3"/>
+        <v>4.0746161290322629</v>
+      </c>
+      <c r="AW26" s="28">
+        <f t="shared" si="4"/>
+        <v>2.2821870967741966</v>
+      </c>
+      <c r="AX26" s="20">
+        <f t="shared" si="5"/>
+        <v>9.2990363539854552</v>
+      </c>
+      <c r="AY26" s="30">
         <f t="shared" si="0"/>
-        <v>4.0746161290322629</v>
-      </c>
-      <c r="AW26" s="28">
+        <v>4.3582903225806486</v>
+      </c>
+      <c r="AZ26" s="30">
         <f t="shared" si="1"/>
-        <v>2.2821870967741966</v>
-      </c>
-      <c r="AX26" s="20">
-        <f t="shared" si="2"/>
-        <v>9.2990363539854552</v>
-      </c>
-      <c r="AY26" s="30">
-        <f>0.0019*AU26-1.403</f>
-        <v>4.3582903225806486</v>
-      </c>
-      <c r="AZ26" s="30">
-        <f>0.0014*AU26-1.5792</f>
         <v>2.6659612903225831</v>
       </c>
       <c r="BA26" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.619033291987533</v>
       </c>
       <c r="BB26" s="14"/>
@@ -12417,8 +12777,22 @@
       <c r="BD26" s="14"/>
       <c r="BE26" s="14"/>
       <c r="BF26" s="14"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="25"/>
+      <c r="BM26" s="25"/>
+      <c r="BN26" s="25"/>
+      <c r="BO26" s="25"/>
+      <c r="BP26" s="25"/>
+      <c r="BQ26" s="25"/>
+      <c r="BR26" s="25"/>
+      <c r="BS26" s="25"/>
+      <c r="BT26" s="25"/>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -12482,31 +12856,31 @@
       <c r="AS27" s="14"/>
       <c r="AT27" s="14"/>
       <c r="AU27" s="29">
-        <f>AU26+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3129.0322580645184</v>
       </c>
       <c r="AV27" s="28">
+        <f t="shared" si="3"/>
+        <v>4.2681645161290369</v>
+      </c>
+      <c r="AW27" s="28">
+        <f t="shared" si="4"/>
+        <v>2.4273483870967776</v>
+      </c>
+      <c r="AX27" s="20">
+        <f t="shared" si="5"/>
+        <v>10.360322254089516</v>
+      </c>
+      <c r="AY27" s="30">
         <f t="shared" si="0"/>
-        <v>4.2681645161290369</v>
-      </c>
-      <c r="AW27" s="28">
+        <v>4.5421612903225856</v>
+      </c>
+      <c r="AZ27" s="30">
         <f t="shared" si="1"/>
-        <v>2.4273483870967776</v>
-      </c>
-      <c r="AX27" s="20">
-        <f t="shared" si="2"/>
-        <v>10.360322254089516</v>
-      </c>
-      <c r="AY27" s="30">
-        <f>0.0019*AU27-1.403</f>
-        <v>4.5421612903225856</v>
-      </c>
-      <c r="AZ27" s="30">
-        <f>0.0014*AU27-1.5792</f>
         <v>2.8014451612903253</v>
       </c>
       <c r="BA27" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12.724615768574427</v>
       </c>
       <c r="BB27" s="14"/>
@@ -12514,8 +12888,22 @@
       <c r="BD27" s="14"/>
       <c r="BE27" s="14"/>
       <c r="BF27" s="14"/>
+      <c r="BG27" s="25"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="25"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" s="25"/>
+      <c r="BM27" s="25"/>
+      <c r="BN27" s="25"/>
+      <c r="BO27" s="25"/>
+      <c r="BP27" s="25"/>
+      <c r="BQ27" s="25"/>
+      <c r="BR27" s="25"/>
+      <c r="BS27" s="25"/>
+      <c r="BT27" s="25"/>
     </row>
-    <row r="28" spans="1:58" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:72" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12557,31 +12945,31 @@
       <c r="AS28" s="14"/>
       <c r="AT28" s="14"/>
       <c r="AU28" s="29">
-        <f>AU27+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3225.8064516129057</v>
       </c>
       <c r="AV28" s="28">
+        <f t="shared" si="3"/>
+        <v>4.4617129032258109</v>
+      </c>
+      <c r="AW28" s="28">
+        <f t="shared" si="4"/>
+        <v>2.5725096774193585</v>
+      </c>
+      <c r="AX28" s="20">
+        <f t="shared" si="5"/>
+        <v>11.477799621415221</v>
+      </c>
+      <c r="AY28" s="30">
         <f t="shared" si="0"/>
-        <v>4.4617129032258109</v>
-      </c>
-      <c r="AW28" s="28">
+        <v>4.7260322580645209</v>
+      </c>
+      <c r="AZ28" s="30">
         <f t="shared" si="1"/>
-        <v>2.5725096774193585</v>
-      </c>
-      <c r="AX28" s="20">
-        <f t="shared" si="2"/>
-        <v>11.477799621415221</v>
-      </c>
-      <c r="AY28" s="30">
-        <f>0.0019*AU28-1.403</f>
-        <v>4.7260322580645209</v>
-      </c>
-      <c r="AZ28" s="30">
-        <f>0.0014*AU28-1.5792</f>
         <v>2.9369290322580675</v>
       </c>
       <c r="BA28" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.880021346097843</v>
       </c>
       <c r="BB28" s="14"/>
@@ -12589,8 +12977,22 @@
       <c r="BD28" s="14"/>
       <c r="BE28" s="14"/>
       <c r="BF28" s="14"/>
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="25"/>
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="25"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="25"/>
+      <c r="BO28" s="25"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
+      <c r="BR28" s="25"/>
+      <c r="BS28" s="25"/>
+      <c r="BT28" s="25"/>
     </row>
-    <row r="29" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12632,31 +13034,31 @@
       <c r="AS29" s="14"/>
       <c r="AT29" s="14"/>
       <c r="AU29" s="29">
-        <f>AU28+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3322.580645161293</v>
       </c>
       <c r="AV29" s="28">
+        <f t="shared" si="3"/>
+        <v>4.6552612903225867</v>
+      </c>
+      <c r="AW29" s="28">
+        <f t="shared" si="4"/>
+        <v>2.7176709677419395</v>
+      </c>
+      <c r="AX29" s="20">
+        <f t="shared" si="5"/>
+        <v>12.651468455962574</v>
+      </c>
+      <c r="AY29" s="30">
         <f t="shared" si="0"/>
-        <v>4.6552612903225867</v>
-      </c>
-      <c r="AW29" s="28">
+        <v>4.9099032258064561</v>
+      </c>
+      <c r="AZ29" s="30">
         <f t="shared" si="1"/>
-        <v>2.7176709677419395</v>
-      </c>
-      <c r="AX29" s="20">
-        <f t="shared" si="2"/>
-        <v>12.651468455962574</v>
-      </c>
-      <c r="AY29" s="30">
-        <f>0.0019*AU29-1.403</f>
-        <v>4.9099032258064561</v>
-      </c>
-      <c r="AZ29" s="30">
-        <f>0.0014*AU29-1.5792</f>
         <v>3.0724129032258096</v>
       </c>
       <c r="BA29" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.085250024557782</v>
       </c>
       <c r="BB29" s="14"/>
@@ -12664,8 +13066,22 @@
       <c r="BD29" s="14"/>
       <c r="BE29" s="14"/>
       <c r="BF29" s="14"/>
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="25"/>
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="25"/>
+      <c r="BM29" s="25"/>
+      <c r="BN29" s="25"/>
+      <c r="BO29" s="25"/>
+      <c r="BP29" s="25"/>
+      <c r="BQ29" s="25"/>
+      <c r="BR29" s="25"/>
+      <c r="BS29" s="25"/>
+      <c r="BT29" s="25"/>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -12717,31 +13133,31 @@
       <c r="AS30" s="14"/>
       <c r="AT30" s="14"/>
       <c r="AU30" s="29">
-        <f>AU29+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3419.3548387096803</v>
       </c>
       <c r="AV30" s="28">
+        <f t="shared" si="3"/>
+        <v>4.8488096774193608</v>
+      </c>
+      <c r="AW30" s="28">
+        <f t="shared" si="4"/>
+        <v>2.8628322580645205</v>
+      </c>
+      <c r="AX30" s="20">
+        <f t="shared" si="5"/>
+        <v>13.881328757731568</v>
+      </c>
+      <c r="AY30" s="30">
         <f t="shared" si="0"/>
-        <v>4.8488096774193608</v>
-      </c>
-      <c r="AW30" s="28">
+        <v>5.0937741935483931</v>
+      </c>
+      <c r="AZ30" s="30">
         <f t="shared" si="1"/>
-        <v>2.8628322580645205</v>
-      </c>
-      <c r="AX30" s="20">
-        <f t="shared" si="2"/>
-        <v>13.881328757731568</v>
-      </c>
-      <c r="AY30" s="30">
-        <f>0.0019*AU30-1.403</f>
-        <v>5.0937741935483931</v>
-      </c>
-      <c r="AZ30" s="30">
-        <f>0.0014*AU30-1.5792</f>
         <v>3.2078967741935518</v>
       </c>
       <c r="BA30" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.340301803954251</v>
       </c>
       <c r="BB30" s="14"/>
@@ -12749,8 +13165,22 @@
       <c r="BD30" s="14"/>
       <c r="BE30" s="14"/>
       <c r="BF30" s="14"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="25"/>
+      <c r="BI30" s="25"/>
+      <c r="BJ30" s="25"/>
+      <c r="BK30" s="25"/>
+      <c r="BL30" s="25"/>
+      <c r="BM30" s="25"/>
+      <c r="BN30" s="25"/>
+      <c r="BO30" s="25"/>
+      <c r="BP30" s="25"/>
+      <c r="BQ30" s="25"/>
+      <c r="BR30" s="25"/>
+      <c r="BS30" s="25"/>
+      <c r="BT30" s="25"/>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -12802,31 +13232,31 @@
       <c r="AS31" s="14"/>
       <c r="AT31" s="14"/>
       <c r="AU31" s="29">
-        <f>AU30+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3516.1290322580676</v>
       </c>
       <c r="AV31" s="28">
+        <f t="shared" si="3"/>
+        <v>5.0423580645161348</v>
+      </c>
+      <c r="AW31" s="28">
+        <f t="shared" si="4"/>
+        <v>3.0079935483871014</v>
+      </c>
+      <c r="AX31" s="20">
+        <f t="shared" si="5"/>
+        <v>15.167380526722205</v>
+      </c>
+      <c r="AY31" s="30">
         <f t="shared" si="0"/>
-        <v>5.0423580645161348</v>
-      </c>
-      <c r="AW31" s="28">
+        <v>5.2776451612903283</v>
+      </c>
+      <c r="AZ31" s="30">
         <f t="shared" si="1"/>
-        <v>3.0079935483871014</v>
-      </c>
-      <c r="AX31" s="20">
-        <f t="shared" si="2"/>
-        <v>15.167380526722205</v>
-      </c>
-      <c r="AY31" s="30">
-        <f>0.0019*AU31-1.403</f>
-        <v>5.2776451612903283</v>
-      </c>
-      <c r="AZ31" s="30">
-        <f>0.0014*AU31-1.5792</f>
         <v>3.343380645161294</v>
       </c>
       <c r="BA31" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17.64517668428724</v>
       </c>
       <c r="BB31" s="14"/>
@@ -12834,8 +13264,22 @@
       <c r="BD31" s="14"/>
       <c r="BE31" s="14"/>
       <c r="BF31" s="14"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="25"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="25"/>
+      <c r="BK31" s="25"/>
+      <c r="BL31" s="25"/>
+      <c r="BM31" s="25"/>
+      <c r="BN31" s="25"/>
+      <c r="BO31" s="25"/>
+      <c r="BP31" s="25"/>
+      <c r="BQ31" s="25"/>
+      <c r="BR31" s="25"/>
+      <c r="BS31" s="25"/>
+      <c r="BT31" s="25"/>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -12887,31 +13331,31 @@
       <c r="AS32" s="14"/>
       <c r="AT32" s="14"/>
       <c r="AU32" s="29">
-        <f>AU31+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3612.9032258064549</v>
       </c>
       <c r="AV32" s="28">
+        <f t="shared" si="3"/>
+        <v>5.2359064516129106</v>
+      </c>
+      <c r="AW32" s="28">
+        <f t="shared" si="4"/>
+        <v>3.1531548387096824</v>
+      </c>
+      <c r="AX32" s="20">
+        <f t="shared" si="5"/>
+        <v>16.509623762934492</v>
+      </c>
+      <c r="AY32" s="30">
         <f t="shared" si="0"/>
-        <v>5.2359064516129106</v>
-      </c>
-      <c r="AW32" s="28">
+        <v>5.4615161290322636</v>
+      </c>
+      <c r="AZ32" s="30">
         <f t="shared" si="1"/>
-        <v>3.1531548387096824</v>
-      </c>
-      <c r="AX32" s="20">
-        <f t="shared" si="2"/>
-        <v>16.509623762934492</v>
-      </c>
-      <c r="AY32" s="30">
-        <f>0.0019*AU32-1.403</f>
-        <v>5.4615161290322636</v>
-      </c>
-      <c r="AZ32" s="30">
-        <f>0.0014*AU32-1.5792</f>
         <v>3.478864516129037</v>
       </c>
       <c r="BA32" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18.999874665556757</v>
       </c>
       <c r="BB32" s="14"/>
@@ -12919,8 +13363,22 @@
       <c r="BD32" s="14"/>
       <c r="BE32" s="14"/>
       <c r="BF32" s="14"/>
+      <c r="BG32" s="25"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="25"/>
+      <c r="BK32" s="25"/>
+      <c r="BL32" s="25"/>
+      <c r="BM32" s="25"/>
+      <c r="BN32" s="25"/>
+      <c r="BO32" s="25"/>
+      <c r="BP32" s="25"/>
+      <c r="BQ32" s="25"/>
+      <c r="BR32" s="25"/>
+      <c r="BS32" s="25"/>
+      <c r="BT32" s="25"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -12972,31 +13430,31 @@
       <c r="AS33" s="14"/>
       <c r="AT33" s="14"/>
       <c r="AU33" s="29">
-        <f>AU32+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3709.6774193548422</v>
       </c>
       <c r="AV33" s="28">
+        <f t="shared" si="3"/>
+        <v>5.4294548387096846</v>
+      </c>
+      <c r="AW33" s="28">
+        <f t="shared" si="4"/>
+        <v>3.2983161290322633</v>
+      </c>
+      <c r="AX33" s="20">
+        <f t="shared" si="5"/>
+        <v>17.90805846636842</v>
+      </c>
+      <c r="AY33" s="30">
         <f t="shared" si="0"/>
-        <v>5.4294548387096846</v>
-      </c>
-      <c r="AW33" s="28">
+        <v>5.6453870967742006</v>
+      </c>
+      <c r="AZ33" s="30">
         <f t="shared" si="1"/>
-        <v>3.2983161290322633</v>
-      </c>
-      <c r="AX33" s="20">
-        <f t="shared" si="2"/>
-        <v>17.90805846636842</v>
-      </c>
-      <c r="AY33" s="30">
-        <f>0.0019*AU33-1.403</f>
-        <v>5.6453870967742006</v>
-      </c>
-      <c r="AZ33" s="30">
-        <f>0.0014*AU33-1.5792</f>
         <v>3.6143483870967792</v>
       </c>
       <c r="BA33" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.404395747762802</v>
       </c>
       <c r="BB33" s="14"/>
@@ -13004,8 +13462,22 @@
       <c r="BD33" s="14"/>
       <c r="BE33" s="14"/>
       <c r="BF33" s="14"/>
+      <c r="BG33" s="25"/>
+      <c r="BH33" s="25"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="25"/>
+      <c r="BK33" s="25"/>
+      <c r="BL33" s="25"/>
+      <c r="BM33" s="25"/>
+      <c r="BN33" s="25"/>
+      <c r="BO33" s="25"/>
+      <c r="BP33" s="25"/>
+      <c r="BQ33" s="25"/>
+      <c r="BR33" s="25"/>
+      <c r="BS33" s="25"/>
+      <c r="BT33" s="25"/>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -13057,31 +13529,31 @@
       <c r="AS34" s="14"/>
       <c r="AT34" s="14"/>
       <c r="AU34" s="29">
-        <f>AU33+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3806.4516129032295</v>
       </c>
       <c r="AV34" s="28">
+        <f t="shared" si="3"/>
+        <v>5.6230032258064586</v>
+      </c>
+      <c r="AW34" s="28">
+        <f t="shared" si="4"/>
+        <v>3.4434774193548443</v>
+      </c>
+      <c r="AX34" s="20">
+        <f t="shared" si="5"/>
+        <v>19.362684637023989</v>
+      </c>
+      <c r="AY34" s="30">
         <f t="shared" si="0"/>
-        <v>5.6230032258064586</v>
-      </c>
-      <c r="AW34" s="28">
+        <v>5.8292580645161358</v>
+      </c>
+      <c r="AZ34" s="30">
         <f t="shared" si="1"/>
-        <v>3.4434774193548443</v>
-      </c>
-      <c r="AX34" s="20">
-        <f t="shared" si="2"/>
-        <v>19.362684637023989</v>
-      </c>
-      <c r="AY34" s="30">
-        <f>0.0019*AU34-1.403</f>
-        <v>5.8292580645161358</v>
-      </c>
-      <c r="AZ34" s="30">
-        <f>0.0014*AU34-1.5792</f>
         <v>3.7498322580645214</v>
       </c>
       <c r="BA34" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21.858739930905362</v>
       </c>
       <c r="BB34" s="14"/>
@@ -13089,8 +13561,22 @@
       <c r="BD34" s="14"/>
       <c r="BE34" s="14"/>
       <c r="BF34" s="14"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="25"/>
+      <c r="BK34" s="25"/>
+      <c r="BL34" s="25"/>
+      <c r="BM34" s="25"/>
+      <c r="BN34" s="25"/>
+      <c r="BO34" s="25"/>
+      <c r="BP34" s="25"/>
+      <c r="BQ34" s="25"/>
+      <c r="BR34" s="25"/>
+      <c r="BS34" s="25"/>
+      <c r="BT34" s="25"/>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -13142,31 +13628,31 @@
       <c r="AS35" s="14"/>
       <c r="AT35" s="14"/>
       <c r="AU35" s="29">
-        <f>AU34+($AU$36-$AU$5)/(ROW($AU$36)-ROW($AU$5))</f>
+        <f t="shared" si="2"/>
         <v>3903.2258064516168</v>
       </c>
       <c r="AV35" s="28">
+        <f t="shared" si="3"/>
+        <v>5.8165516129032344</v>
+      </c>
+      <c r="AW35" s="28">
+        <f t="shared" si="4"/>
+        <v>3.5886387096774253</v>
+      </c>
+      <c r="AX35" s="20">
+        <f t="shared" si="5"/>
+        <v>20.87350227490121</v>
+      </c>
+      <c r="AY35" s="30">
         <f t="shared" si="0"/>
-        <v>5.8165516129032344</v>
-      </c>
-      <c r="AW35" s="28">
+        <v>6.013129032258071</v>
+      </c>
+      <c r="AZ35" s="30">
         <f t="shared" si="1"/>
-        <v>3.5886387096774253</v>
-      </c>
-      <c r="AX35" s="20">
-        <f t="shared" si="2"/>
-        <v>20.87350227490121</v>
-      </c>
-      <c r="AY35" s="30">
-        <f>0.0019*AU35-1.403</f>
-        <v>6.013129032258071</v>
-      </c>
-      <c r="AZ35" s="30">
-        <f>0.0014*AU35-1.5792</f>
         <v>3.8853161290322635</v>
       </c>
       <c r="BA35" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.36290721498445</v>
       </c>
       <c r="BB35" s="14"/>
@@ -13174,8 +13660,22 @@
       <c r="BD35" s="14"/>
       <c r="BE35" s="14"/>
       <c r="BF35" s="14"/>
+      <c r="BG35" s="25"/>
+      <c r="BH35" s="25"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="25"/>
+      <c r="BK35" s="25"/>
+      <c r="BL35" s="25"/>
+      <c r="BM35" s="25"/>
+      <c r="BN35" s="25"/>
+      <c r="BO35" s="25"/>
+      <c r="BP35" s="25"/>
+      <c r="BQ35" s="25"/>
+      <c r="BR35" s="25"/>
+      <c r="BS35" s="25"/>
+      <c r="BT35" s="25"/>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -13230,27 +13730,27 @@
         <v>4000</v>
       </c>
       <c r="AV36" s="28">
+        <f t="shared" si="3"/>
+        <v>6.0100999999999996</v>
+      </c>
+      <c r="AW36" s="28">
+        <f t="shared" si="4"/>
+        <v>3.7338</v>
+      </c>
+      <c r="AX36" s="20">
+        <f t="shared" si="5"/>
+        <v>22.440511379999997</v>
+      </c>
+      <c r="AY36" s="30">
         <f t="shared" si="0"/>
-        <v>6.0100999999999996</v>
-      </c>
-      <c r="AW36" s="28">
+        <v>6.1969999999999992</v>
+      </c>
+      <c r="AZ36" s="30">
         <f t="shared" si="1"/>
-        <v>3.7338</v>
-      </c>
-      <c r="AX36" s="20">
-        <f t="shared" si="2"/>
-        <v>22.440511379999997</v>
-      </c>
-      <c r="AY36" s="30">
-        <f>0.0019*AU36-1.403</f>
-        <v>6.1969999999999992</v>
-      </c>
-      <c r="AZ36" s="30">
-        <f>0.0014*AU36-1.5792</f>
         <v>4.0207999999999995</v>
       </c>
       <c r="BA36" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.916897599999995</v>
       </c>
       <c r="BB36" s="14"/>
@@ -13258,8 +13758,22 @@
       <c r="BD36" s="14"/>
       <c r="BE36" s="14"/>
       <c r="BF36" s="14"/>
+      <c r="BG36" s="25"/>
+      <c r="BH36" s="25"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="25"/>
+      <c r="BK36" s="25"/>
+      <c r="BL36" s="25"/>
+      <c r="BM36" s="25"/>
+      <c r="BN36" s="25"/>
+      <c r="BO36" s="25"/>
+      <c r="BP36" s="25"/>
+      <c r="BQ36" s="25"/>
+      <c r="BR36" s="25"/>
+      <c r="BS36" s="25"/>
+      <c r="BT36" s="25"/>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13322,8 +13836,22 @@
       <c r="BD37" s="14"/>
       <c r="BE37" s="14"/>
       <c r="BF37" s="14"/>
+      <c r="BG37" s="25"/>
+      <c r="BH37" s="25"/>
+      <c r="BI37" s="25"/>
+      <c r="BJ37" s="25"/>
+      <c r="BK37" s="25"/>
+      <c r="BL37" s="25"/>
+      <c r="BM37" s="25"/>
+      <c r="BN37" s="25"/>
+      <c r="BO37" s="25"/>
+      <c r="BP37" s="25"/>
+      <c r="BQ37" s="25"/>
+      <c r="BR37" s="25"/>
+      <c r="BS37" s="25"/>
+      <c r="BT37" s="25"/>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -13386,8 +13914,22 @@
       <c r="BD38" s="14"/>
       <c r="BE38" s="14"/>
       <c r="BF38" s="14"/>
+      <c r="BG38" s="25"/>
+      <c r="BH38" s="25"/>
+      <c r="BI38" s="25"/>
+      <c r="BJ38" s="25"/>
+      <c r="BK38" s="25"/>
+      <c r="BL38" s="25"/>
+      <c r="BM38" s="25"/>
+      <c r="BN38" s="25"/>
+      <c r="BO38" s="25"/>
+      <c r="BP38" s="25"/>
+      <c r="BQ38" s="25"/>
+      <c r="BR38" s="25"/>
+      <c r="BS38" s="25"/>
+      <c r="BT38" s="25"/>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -13451,7 +13993,7 @@
       <c r="BE39" s="16"/>
       <c r="BF39" s="16"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13503,7 +14045,7 @@
       <c r="BE40" s="16"/>
       <c r="BF40" s="16"/>
     </row>
-    <row r="41" spans="1:58" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:72" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -13557,7 +14099,7 @@
       <c r="BE41" s="16"/>
       <c r="BF41" s="16"/>
     </row>
-    <row r="42" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13615,7 +14157,7 @@
       <c r="BE42" s="16"/>
       <c r="BF42" s="16"/>
     </row>
-    <row r="43" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:72" ht="43.2" x14ac:dyDescent="0.3">
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
@@ -13664,14 +14206,18 @@
         <v>45</v>
       </c>
       <c r="BB43" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC43" s="16"/>
-      <c r="BD43" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="BC43" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD43" s="33" t="s">
+        <v>49</v>
+      </c>
       <c r="BE43" s="16"/>
       <c r="BF43" s="16"/>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
       <c r="U44" s="16"/>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
@@ -13722,19 +14268,25 @@
         <v>-0.22003829999999999</v>
       </c>
       <c r="BA44" s="27">
-        <f t="shared" ref="BA44:BA81" si="4">AZ44*3/4*256/1000</f>
+        <f t="shared" ref="BA44:BA81" si="7">AZ44*3/4*256/1000</f>
         <v>-4.2247353599999996E-2</v>
       </c>
       <c r="BB44" s="29">
-        <f t="shared" ref="BB44:BB81" si="5">BA44*AU44*(180/3.1415926535)</f>
+        <f t="shared" ref="BB44:BB81" si="8">BA44*AU44*(180/3.1415926535)</f>
         <v>-2420.5950569460101</v>
       </c>
-      <c r="BC44" s="16"/>
-      <c r="BD44" s="16"/>
+      <c r="BC44" s="20">
+        <f>AV44*AW44</f>
+        <v>0.16131780000000004</v>
+      </c>
+      <c r="BD44" s="20">
+        <f>BC44/BB44</f>
+        <v>-6.6643860788317773E-5</v>
+      </c>
       <c r="BE44" s="16"/>
       <c r="BF44" s="16"/>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
@@ -13766,39 +14318,45 @@
         <v>1078.9473684210527</v>
       </c>
       <c r="AV45" s="28">
-        <f t="shared" ref="AV45:AV82" si="6">0.0024*AU45-3.226</f>
+        <f t="shared" ref="AV45:AV82" si="9">0.0024*AU45-3.226</f>
         <v>-0.63652631578947361</v>
       </c>
       <c r="AW45" s="28">
-        <f t="shared" ref="AW45:AW82" si="7">0.0014*AU45-1.5953</f>
+        <f t="shared" ref="AW45:AW82" si="10">0.0014*AU45-1.5953</f>
         <v>-8.4773684210526223E-2</v>
       </c>
       <c r="AX45" s="27">
-        <f t="shared" ref="AX45:AX82" si="8">0.0436*AU45-110.89</f>
+        <f t="shared" ref="AX45:AX82" si="11">0.0436*AU45-110.89</f>
         <v>-63.8478947368421</v>
       </c>
       <c r="AY45" s="27">
-        <f t="shared" ref="AY45:AY82" si="9">9.81*AX45/1000</f>
+        <f t="shared" ref="AY45:AY82" si="12">9.81*AX45/1000</f>
         <v>-0.62634784736842108</v>
       </c>
       <c r="AZ45" s="27">
-        <f t="shared" ref="AZ45:AZ81" si="10">(AY45/4*256)/(3/4*256)</f>
+        <f t="shared" ref="AZ45:AZ81" si="13">(AY45/4*256)/(3/4*256)</f>
         <v>-0.20878261578947369</v>
       </c>
       <c r="BA45" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.0086262231578948E-2</v>
       </c>
       <c r="BB45" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2478.0978773153033</v>
       </c>
-      <c r="BC45" s="16"/>
-      <c r="BD45" s="16"/>
+      <c r="BC45" s="20">
+        <f t="shared" ref="BC45:BC82" si="14">AV45*AW45</f>
+        <v>5.3960680886426526E-2</v>
+      </c>
+      <c r="BD45" s="20">
+        <f t="shared" ref="BD45:BD82" si="15">BC45/BB45</f>
+        <v>-2.1775040195299269E-5</v>
+      </c>
       <c r="BE45" s="16"/>
       <c r="BF45" s="16"/>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -13836,43 +14394,49 @@
       <c r="AS46" s="16"/>
       <c r="AT46" s="16"/>
       <c r="AU46" s="29">
-        <f t="shared" ref="AU46:AU81" si="11">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
+        <f t="shared" ref="AU46:AU81" si="16">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
         <v>1157.8947368421054</v>
       </c>
       <c r="AV46" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.44705263157894715</v>
       </c>
       <c r="AW46" s="28">
+        <f t="shared" si="10"/>
+        <v>2.5752631578947582E-2</v>
+      </c>
+      <c r="AX46" s="27">
+        <f t="shared" si="11"/>
+        <v>-60.405789473684202</v>
+      </c>
+      <c r="AY46" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.592580794736842</v>
+      </c>
+      <c r="AZ46" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.19752693157894732</v>
+      </c>
+      <c r="BA46" s="27">
         <f t="shared" si="7"/>
-        <v>2.5752631578947582E-2</v>
-      </c>
-      <c r="AX46" s="27">
+        <v>-3.7925170863157887E-2</v>
+      </c>
+      <c r="BB46" s="29">
         <f t="shared" si="8"/>
-        <v>-60.405789473684202</v>
-      </c>
-      <c r="AY46" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.592580794736842</v>
-      </c>
-      <c r="AZ46" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.19752693157894732</v>
-      </c>
-      <c r="BA46" s="27">
-        <f t="shared" si="4"/>
-        <v>-3.7925170863157887E-2</v>
-      </c>
-      <c r="BB46" s="29">
-        <f t="shared" si="5"/>
         <v>-2516.0499480178246</v>
       </c>
-      <c r="BC46" s="16"/>
-      <c r="BD46" s="16"/>
+      <c r="BC46" s="20">
+        <f t="shared" si="14"/>
+        <v>-1.1512781717451613E-2</v>
+      </c>
+      <c r="BD46" s="20">
+        <f t="shared" si="15"/>
+        <v>4.5757365534501912E-6</v>
+      </c>
       <c r="BE46" s="16"/>
       <c r="BF46" s="16"/>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -13928,43 +14492,49 @@
       <c r="AS47" s="16"/>
       <c r="AT47" s="16"/>
       <c r="AU47" s="29">
+        <f t="shared" si="16"/>
+        <v>1236.8421052631581</v>
+      </c>
+      <c r="AV47" s="28">
+        <f t="shared" si="9"/>
+        <v>-0.25757894736842069</v>
+      </c>
+      <c r="AW47" s="28">
+        <f t="shared" si="10"/>
+        <v>0.13627894736842139</v>
+      </c>
+      <c r="AX47" s="27">
         <f t="shared" si="11"/>
-        <v>1236.8421052631581</v>
-      </c>
-      <c r="AV47" s="28">
-        <f t="shared" si="6"/>
-        <v>-0.25757894736842069</v>
-      </c>
-      <c r="AW47" s="28">
+        <v>-56.963684210526303</v>
+      </c>
+      <c r="AY47" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.55881374210526302</v>
+      </c>
+      <c r="AZ47" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.18627124736842102</v>
+      </c>
+      <c r="BA47" s="27">
         <f t="shared" si="7"/>
-        <v>0.13627894736842139</v>
-      </c>
-      <c r="AX47" s="27">
+        <v>-3.5764079494736832E-2</v>
+      </c>
+      <c r="BB47" s="29">
         <f t="shared" si="8"/>
-        <v>-56.963684210526303</v>
-      </c>
-      <c r="AY47" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.55881374210526302</v>
-      </c>
-      <c r="AZ47" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.18627124736842102</v>
-      </c>
-      <c r="BA47" s="27">
-        <f t="shared" si="4"/>
-        <v>-3.5764079494736832E-2</v>
-      </c>
-      <c r="BB47" s="29">
-        <f t="shared" si="5"/>
         <v>-2534.4512690535753</v>
       </c>
-      <c r="BC47" s="16"/>
-      <c r="BD47" s="16"/>
+      <c r="BC47" s="20">
+        <f t="shared" si="14"/>
+        <v>-3.5102587811634382E-2</v>
+      </c>
+      <c r="BD47" s="20">
+        <f t="shared" si="15"/>
+        <v>1.3850172714010213E-5</v>
+      </c>
       <c r="BE47" s="16"/>
       <c r="BF47" s="16"/>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -14020,39 +14590,45 @@
       <c r="AS48" s="16"/>
       <c r="AT48" s="16"/>
       <c r="AU48" s="29">
+        <f t="shared" si="16"/>
+        <v>1315.7894736842109</v>
+      </c>
+      <c r="AV48" s="28">
+        <f t="shared" si="9"/>
+        <v>-6.8105263157894225E-2</v>
+      </c>
+      <c r="AW48" s="28">
+        <f t="shared" si="10"/>
+        <v>0.24680526315789519</v>
+      </c>
+      <c r="AX48" s="27">
         <f t="shared" si="11"/>
-        <v>1315.7894736842109</v>
-      </c>
-      <c r="AV48" s="28">
-        <f t="shared" si="6"/>
-        <v>-6.8105263157894225E-2</v>
-      </c>
-      <c r="AW48" s="28">
+        <v>-53.521578947368404</v>
+      </c>
+      <c r="AY48" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.52504668947368405</v>
+      </c>
+      <c r="AZ48" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.17501556315789468</v>
+      </c>
+      <c r="BA48" s="27">
         <f t="shared" si="7"/>
-        <v>0.24680526315789519</v>
-      </c>
-      <c r="AX48" s="27">
+        <v>-3.3602988126315778E-2</v>
+      </c>
+      <c r="BB48" s="29">
         <f t="shared" si="8"/>
-        <v>-53.521578947368404</v>
-      </c>
-      <c r="AY48" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.52504668947368405</v>
-      </c>
-      <c r="AZ48" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.17501556315789468</v>
-      </c>
-      <c r="BA48" s="27">
-        <f t="shared" si="4"/>
-        <v>-3.3602988126315778E-2</v>
-      </c>
-      <c r="BB48" s="29">
-        <f t="shared" si="5"/>
         <v>-2533.301840422555</v>
       </c>
-      <c r="BC48" s="16"/>
-      <c r="BD48" s="16"/>
+      <c r="BC48" s="20">
+        <f t="shared" si="14"/>
+        <v>-1.6808737396121789E-2</v>
+      </c>
+      <c r="BD48" s="20">
+        <f t="shared" si="15"/>
+        <v>6.6351104033138392E-6</v>
+      </c>
       <c r="BE48" s="16"/>
       <c r="BF48" s="16"/>
     </row>
@@ -14112,39 +14688,45 @@
       <c r="AS49" s="16"/>
       <c r="AT49" s="16"/>
       <c r="AU49" s="29">
+        <f t="shared" si="16"/>
+        <v>1394.7368421052636</v>
+      </c>
+      <c r="AV49" s="28">
+        <f t="shared" si="9"/>
+        <v>0.12136842105263224</v>
+      </c>
+      <c r="AW49" s="28">
+        <f t="shared" si="10"/>
+        <v>0.357331578947369</v>
+      </c>
+      <c r="AX49" s="27">
         <f t="shared" si="11"/>
-        <v>1394.7368421052636</v>
-      </c>
-      <c r="AV49" s="28">
-        <f t="shared" si="6"/>
-        <v>0.12136842105263224</v>
-      </c>
-      <c r="AW49" s="28">
+        <v>-50.079473684210505</v>
+      </c>
+      <c r="AY49" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.49127963684210513</v>
+      </c>
+      <c r="AZ49" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.16375987894736838</v>
+      </c>
+      <c r="BA49" s="27">
         <f t="shared" si="7"/>
-        <v>0.357331578947369</v>
-      </c>
-      <c r="AX49" s="27">
+        <v>-3.144189675789473E-2</v>
+      </c>
+      <c r="BB49" s="29">
         <f t="shared" si="8"/>
-        <v>-50.079473684210505</v>
-      </c>
-      <c r="AY49" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.49127963684210513</v>
-      </c>
-      <c r="AZ49" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.16375987894736838</v>
-      </c>
-      <c r="BA49" s="27">
-        <f t="shared" si="4"/>
-        <v>-3.144189675789473E-2</v>
-      </c>
-      <c r="BB49" s="29">
-        <f t="shared" si="5"/>
         <v>-2512.6016621247641</v>
       </c>
-      <c r="BC49" s="16"/>
-      <c r="BD49" s="16"/>
+      <c r="BC49" s="20">
+        <f t="shared" si="14"/>
+        <v>4.3368769529086179E-2</v>
+      </c>
+      <c r="BD49" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.7260503398860161E-5</v>
+      </c>
       <c r="BE49" s="16"/>
       <c r="BF49" s="16"/>
     </row>
@@ -14204,39 +14786,45 @@
       <c r="AS50" s="16"/>
       <c r="AT50" s="16"/>
       <c r="AU50" s="29">
+        <f t="shared" si="16"/>
+        <v>1473.6842105263163</v>
+      </c>
+      <c r="AV50" s="28">
+        <f t="shared" si="9"/>
+        <v>0.3108421052631587</v>
+      </c>
+      <c r="AW50" s="28">
+        <f t="shared" si="10"/>
+        <v>0.46785789473684281</v>
+      </c>
+      <c r="AX50" s="27">
         <f t="shared" si="11"/>
-        <v>1473.6842105263163</v>
-      </c>
-      <c r="AV50" s="28">
-        <f t="shared" si="6"/>
-        <v>0.3108421052631587</v>
-      </c>
-      <c r="AW50" s="28">
+        <v>-46.637368421052614</v>
+      </c>
+      <c r="AY50" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.45751258421052615</v>
+      </c>
+      <c r="AZ50" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.15250419473684204</v>
+      </c>
+      <c r="BA50" s="27">
         <f t="shared" si="7"/>
-        <v>0.46785789473684281</v>
-      </c>
-      <c r="AX50" s="27">
+        <v>-2.9280805389473669E-2</v>
+      </c>
+      <c r="BB50" s="29">
         <f t="shared" si="8"/>
-        <v>-46.637368421052614</v>
-      </c>
-      <c r="AY50" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.45751258421052615</v>
-      </c>
-      <c r="AZ50" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.15250419473684204</v>
-      </c>
-      <c r="BA50" s="27">
-        <f t="shared" si="4"/>
-        <v>-2.9280805389473669E-2</v>
-      </c>
-      <c r="BB50" s="29">
-        <f t="shared" si="5"/>
         <v>-2472.3507341602008</v>
       </c>
-      <c r="BC50" s="16"/>
-      <c r="BD50" s="16"/>
+      <c r="BC50" s="20">
+        <f t="shared" si="14"/>
+        <v>0.14542993296398951</v>
+      </c>
+      <c r="BD50" s="20">
+        <f t="shared" si="15"/>
+        <v>-5.8822533127925568E-5</v>
+      </c>
       <c r="BE50" s="16"/>
       <c r="BF50" s="16"/>
     </row>
@@ -14278,39 +14866,45 @@
       <c r="AS51" s="16"/>
       <c r="AT51" s="16"/>
       <c r="AU51" s="29">
+        <f t="shared" si="16"/>
+        <v>1552.631578947369</v>
+      </c>
+      <c r="AV51" s="28">
+        <f t="shared" si="9"/>
+        <v>0.50031578947368516</v>
+      </c>
+      <c r="AW51" s="28">
+        <f t="shared" si="10"/>
+        <v>0.57838421052631661</v>
+      </c>
+      <c r="AX51" s="27">
         <f t="shared" si="11"/>
-        <v>1552.631578947369</v>
-      </c>
-      <c r="AV51" s="28">
-        <f t="shared" si="6"/>
-        <v>0.50031578947368516</v>
-      </c>
-      <c r="AW51" s="28">
+        <v>-43.195263157894715</v>
+      </c>
+      <c r="AY51" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.42374553157894718</v>
+      </c>
+      <c r="AZ51" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.14124851052631573</v>
+      </c>
+      <c r="BA51" s="27">
         <f t="shared" si="7"/>
-        <v>0.57838421052631661</v>
-      </c>
-      <c r="AX51" s="27">
+        <v>-2.7119714021052625E-2</v>
+      </c>
+      <c r="BB51" s="29">
         <f t="shared" si="8"/>
-        <v>-43.195263157894715</v>
-      </c>
-      <c r="AY51" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.42374553157894718</v>
-      </c>
-      <c r="AZ51" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.14124851052631573</v>
-      </c>
-      <c r="BA51" s="27">
-        <f t="shared" si="4"/>
-        <v>-2.7119714021052625E-2</v>
-      </c>
-      <c r="BB51" s="29">
-        <f t="shared" si="5"/>
         <v>-2412.5490565288678</v>
       </c>
-      <c r="BC51" s="16"/>
-      <c r="BD51" s="16"/>
+      <c r="BC51" s="20">
+        <f t="shared" si="14"/>
+        <v>0.28937475290858822</v>
+      </c>
+      <c r="BD51" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.1994564509495836E-4</v>
+      </c>
       <c r="BE51" s="16"/>
       <c r="BF51" s="16"/>
     </row>
@@ -14346,39 +14940,45 @@
       <c r="AS52" s="16"/>
       <c r="AT52" s="16"/>
       <c r="AU52" s="29">
+        <f t="shared" si="16"/>
+        <v>1631.5789473684217</v>
+      </c>
+      <c r="AV52" s="28">
+        <f t="shared" si="9"/>
+        <v>0.68978947368421162</v>
+      </c>
+      <c r="AW52" s="28">
+        <f t="shared" si="10"/>
+        <v>0.68891052631579042</v>
+      </c>
+      <c r="AX52" s="27">
         <f t="shared" si="11"/>
-        <v>1631.5789473684217</v>
-      </c>
-      <c r="AV52" s="28">
-        <f t="shared" si="6"/>
-        <v>0.68978947368421162</v>
-      </c>
-      <c r="AW52" s="28">
+        <v>-39.753157894736816</v>
+      </c>
+      <c r="AY52" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.38997847894736815</v>
+      </c>
+      <c r="AZ52" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.12999282631578937</v>
+      </c>
+      <c r="BA52" s="27">
         <f t="shared" si="7"/>
-        <v>0.68891052631579042</v>
-      </c>
-      <c r="AX52" s="27">
+        <v>-2.495862265263156E-2</v>
+      </c>
+      <c r="BB52" s="29">
         <f t="shared" si="8"/>
-        <v>-39.753157894736816</v>
-      </c>
-      <c r="AY52" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.38997847894736815</v>
-      </c>
-      <c r="AZ52" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.12999282631578937</v>
-      </c>
-      <c r="BA52" s="27">
-        <f t="shared" si="4"/>
-        <v>-2.495862265263156E-2</v>
-      </c>
-      <c r="BB52" s="29">
-        <f t="shared" si="5"/>
         <v>-2333.1966292307616</v>
       </c>
-      <c r="BC52" s="16"/>
-      <c r="BD52" s="16"/>
+      <c r="BC52" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47520322936288228</v>
+      </c>
+      <c r="BD52" s="20">
+        <f t="shared" si="15"/>
+        <v>-2.0367045940725254E-4</v>
+      </c>
       <c r="BE52" s="16"/>
       <c r="BF52" s="16"/>
     </row>
@@ -14414,39 +15014,45 @@
       <c r="AS53" s="16"/>
       <c r="AT53" s="16"/>
       <c r="AU53" s="29">
+        <f t="shared" si="16"/>
+        <v>1710.5263157894744</v>
+      </c>
+      <c r="AV53" s="28">
+        <f t="shared" si="9"/>
+        <v>0.87926315789473808</v>
+      </c>
+      <c r="AW53" s="28">
+        <f t="shared" si="10"/>
+        <v>0.79943684210526422</v>
+      </c>
+      <c r="AX53" s="27">
         <f t="shared" si="11"/>
-        <v>1710.5263157894744</v>
-      </c>
-      <c r="AV53" s="28">
-        <f t="shared" si="6"/>
-        <v>0.87926315789473808</v>
-      </c>
-      <c r="AW53" s="28">
+        <v>-36.311052631578917</v>
+      </c>
+      <c r="AY53" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.35621142631578917</v>
+      </c>
+      <c r="AZ53" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.11873714210526305</v>
+      </c>
+      <c r="BA53" s="27">
         <f t="shared" si="7"/>
-        <v>0.79943684210526422</v>
-      </c>
-      <c r="AX53" s="27">
+        <v>-2.2797531284210505E-2</v>
+      </c>
+      <c r="BB53" s="29">
         <f t="shared" si="8"/>
-        <v>-36.311052631578917</v>
-      </c>
-      <c r="AY53" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.35621142631578917</v>
-      </c>
-      <c r="AZ53" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.11873714210526305</v>
-      </c>
-      <c r="BA53" s="27">
-        <f t="shared" si="4"/>
-        <v>-2.2797531284210505E-2</v>
-      </c>
-      <c r="BB53" s="29">
-        <f t="shared" si="5"/>
         <v>-2234.2934522658857</v>
       </c>
-      <c r="BC53" s="16"/>
-      <c r="BD53" s="16"/>
+      <c r="BC53" s="20">
+        <f t="shared" si="14"/>
+        <v>0.70291536232687168</v>
+      </c>
+      <c r="BD53" s="20">
+        <f t="shared" si="15"/>
+        <v>-3.1460297286107038E-4</v>
+      </c>
       <c r="BE53" s="16"/>
       <c r="BF53" s="16"/>
     </row>
@@ -14482,39 +15088,45 @@
       <c r="AS54" s="16"/>
       <c r="AT54" s="16"/>
       <c r="AU54" s="29">
+        <f t="shared" si="16"/>
+        <v>1789.4736842105272</v>
+      </c>
+      <c r="AV54" s="28">
+        <f t="shared" si="9"/>
+        <v>1.068736842105265</v>
+      </c>
+      <c r="AW54" s="28">
+        <f t="shared" si="10"/>
+        <v>0.90996315789473803</v>
+      </c>
+      <c r="AX54" s="27">
         <f t="shared" si="11"/>
-        <v>1789.4736842105272</v>
-      </c>
-      <c r="AV54" s="28">
-        <f t="shared" si="6"/>
-        <v>1.068736842105265</v>
-      </c>
-      <c r="AW54" s="28">
+        <v>-32.868947368421018</v>
+      </c>
+      <c r="AY54" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.32244437368421025</v>
+      </c>
+      <c r="AZ54" s="27">
+        <f t="shared" si="13"/>
+        <v>-0.10748145789473675</v>
+      </c>
+      <c r="BA54" s="27">
         <f t="shared" si="7"/>
-        <v>0.90996315789473803</v>
-      </c>
-      <c r="AX54" s="27">
+        <v>-2.0636439915789458E-2</v>
+      </c>
+      <c r="BB54" s="29">
         <f t="shared" si="8"/>
-        <v>-32.868947368421018</v>
-      </c>
-      <c r="AY54" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.32244437368421025</v>
-      </c>
-      <c r="AZ54" s="27">
-        <f t="shared" si="10"/>
-        <v>-0.10748145789473675</v>
-      </c>
-      <c r="BA54" s="27">
-        <f t="shared" si="4"/>
-        <v>-2.0636439915789458E-2</v>
-      </c>
-      <c r="BB54" s="29">
-        <f t="shared" si="5"/>
         <v>-2115.8395256342387</v>
       </c>
-      <c r="BC54" s="16"/>
-      <c r="BD54" s="16"/>
+      <c r="BC54" s="20">
+        <f t="shared" si="14"/>
+        <v>0.97251115180055692</v>
+      </c>
+      <c r="BD54" s="20">
+        <f t="shared" si="15"/>
+        <v>-4.5963370095803433E-4</v>
+      </c>
       <c r="BE54" s="16"/>
       <c r="BF54" s="16"/>
     </row>
@@ -14550,39 +15162,45 @@
       <c r="AS55" s="16"/>
       <c r="AT55" s="16"/>
       <c r="AU55" s="29">
+        <f t="shared" si="16"/>
+        <v>1868.4210526315799</v>
+      </c>
+      <c r="AV55" s="28">
+        <f t="shared" si="9"/>
+        <v>1.258210526315791</v>
+      </c>
+      <c r="AW55" s="28">
+        <f t="shared" si="10"/>
+        <v>1.0204894736842118</v>
+      </c>
+      <c r="AX55" s="27">
         <f t="shared" si="11"/>
-        <v>1868.4210526315799</v>
-      </c>
-      <c r="AV55" s="28">
-        <f t="shared" si="6"/>
-        <v>1.258210526315791</v>
-      </c>
-      <c r="AW55" s="28">
+        <v>-29.42684210526312</v>
+      </c>
+      <c r="AY55" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.28867732105263122</v>
+      </c>
+      <c r="AZ55" s="27">
+        <f t="shared" si="13"/>
+        <v>-9.6225773684210411E-2</v>
+      </c>
+      <c r="BA55" s="27">
         <f t="shared" si="7"/>
-        <v>1.0204894736842118</v>
-      </c>
-      <c r="AX55" s="27">
+        <v>-1.84753485473684E-2</v>
+      </c>
+      <c r="BB55" s="29">
         <f t="shared" si="8"/>
-        <v>-29.42684210526312</v>
-      </c>
-      <c r="AY55" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.28867732105263122</v>
-      </c>
-      <c r="AZ55" s="27">
-        <f t="shared" si="10"/>
-        <v>-9.6225773684210411E-2</v>
-      </c>
-      <c r="BA55" s="27">
-        <f t="shared" si="4"/>
-        <v>-1.84753485473684E-2</v>
-      </c>
-      <c r="BB55" s="29">
-        <f t="shared" si="5"/>
         <v>-1977.8348493358199</v>
       </c>
-      <c r="BC55" s="16"/>
-      <c r="BD55" s="16"/>
+      <c r="BC55" s="20">
+        <f t="shared" si="14"/>
+        <v>1.2839905977839368</v>
+      </c>
+      <c r="BD55" s="20">
+        <f t="shared" si="15"/>
+        <v>-6.4918999592666492E-4</v>
+      </c>
       <c r="BE55" s="16"/>
       <c r="BF55" s="16"/>
     </row>
@@ -14618,39 +15236,45 @@
       <c r="AS56" s="16"/>
       <c r="AT56" s="16"/>
       <c r="AU56" s="29">
+        <f t="shared" si="16"/>
+        <v>1947.3684210526326</v>
+      </c>
+      <c r="AV56" s="28">
+        <f t="shared" si="9"/>
+        <v>1.4476842105263179</v>
+      </c>
+      <c r="AW56" s="28">
+        <f t="shared" si="10"/>
+        <v>1.1310157894736856</v>
+      </c>
+      <c r="AX56" s="27">
         <f t="shared" si="11"/>
-        <v>1947.3684210526326</v>
-      </c>
-      <c r="AV56" s="28">
-        <f t="shared" si="6"/>
-        <v>1.4476842105263179</v>
-      </c>
-      <c r="AW56" s="28">
+        <v>-25.984736842105221</v>
+      </c>
+      <c r="AY56" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.25491026842105224</v>
+      </c>
+      <c r="AZ56" s="27">
+        <f t="shared" si="13"/>
+        <v>-8.4970089473684077E-2</v>
+      </c>
+      <c r="BA56" s="27">
         <f t="shared" si="7"/>
-        <v>1.1310157894736856</v>
-      </c>
-      <c r="AX56" s="27">
+        <v>-1.6314257178947345E-2</v>
+      </c>
+      <c r="BB56" s="29">
         <f t="shared" si="8"/>
-        <v>-25.984736842105221</v>
-      </c>
-      <c r="AY56" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.25491026842105224</v>
-      </c>
-      <c r="AZ56" s="27">
-        <f t="shared" si="10"/>
-        <v>-8.4970089473684077E-2</v>
-      </c>
-      <c r="BA56" s="27">
-        <f t="shared" si="4"/>
-        <v>-1.6314257178947345E-2</v>
-      </c>
-      <c r="BB56" s="29">
-        <f t="shared" si="5"/>
         <v>-1820.2794233706302</v>
       </c>
-      <c r="BC56" s="16"/>
-      <c r="BD56" s="16"/>
+      <c r="BC56" s="20">
+        <f t="shared" si="14"/>
+        <v>1.6373537002770129</v>
+      </c>
+      <c r="BD56" s="20">
+        <f t="shared" si="15"/>
+        <v>-8.9950678959228587E-4</v>
+      </c>
       <c r="BE56" s="16"/>
       <c r="BF56" s="16"/>
     </row>
@@ -14686,39 +15310,45 @@
       <c r="AS57" s="16"/>
       <c r="AT57" s="16"/>
       <c r="AU57" s="29">
+        <f t="shared" si="16"/>
+        <v>2026.3157894736853</v>
+      </c>
+      <c r="AV57" s="28">
+        <f t="shared" si="9"/>
+        <v>1.6371578947368439</v>
+      </c>
+      <c r="AW57" s="28">
+        <f t="shared" si="10"/>
+        <v>1.2415421052631594</v>
+      </c>
+      <c r="AX57" s="27">
         <f t="shared" si="11"/>
-        <v>2026.3157894736853</v>
-      </c>
-      <c r="AV57" s="28">
-        <f t="shared" si="6"/>
-        <v>1.6371578947368439</v>
-      </c>
-      <c r="AW57" s="28">
+        <v>-22.542631578947322</v>
+      </c>
+      <c r="AY57" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.22114321578947324</v>
+      </c>
+      <c r="AZ57" s="27">
+        <f t="shared" si="13"/>
+        <v>-7.3714405263157742E-2</v>
+      </c>
+      <c r="BA57" s="27">
         <f t="shared" si="7"/>
-        <v>1.2415421052631594</v>
-      </c>
-      <c r="AX57" s="27">
+        <v>-1.4153165810526286E-2</v>
+      </c>
+      <c r="BB57" s="29">
         <f t="shared" si="8"/>
-        <v>-22.542631578947322</v>
-      </c>
-      <c r="AY57" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.22114321578947324</v>
-      </c>
-      <c r="AZ57" s="27">
-        <f t="shared" si="10"/>
-        <v>-7.3714405263157742E-2</v>
-      </c>
-      <c r="BA57" s="27">
-        <f t="shared" si="4"/>
-        <v>-1.4153165810526286E-2</v>
-      </c>
-      <c r="BB57" s="29">
-        <f t="shared" si="5"/>
         <v>-1643.1732477386688</v>
       </c>
-      <c r="BC57" s="16"/>
-      <c r="BD57" s="16"/>
+      <c r="BC57" s="20">
+        <f t="shared" si="14"/>
+        <v>2.0326004592797831</v>
+      </c>
+      <c r="BD57" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.2369970495059136E-3</v>
+      </c>
       <c r="BE57" s="16"/>
       <c r="BF57" s="16"/>
     </row>
@@ -14754,39 +15384,45 @@
       <c r="AS58" s="16"/>
       <c r="AT58" s="16"/>
       <c r="AU58" s="29">
+        <f t="shared" si="16"/>
+        <v>2105.263157894738</v>
+      </c>
+      <c r="AV58" s="28">
+        <f t="shared" si="9"/>
+        <v>1.8266315789473708</v>
+      </c>
+      <c r="AW58" s="28">
+        <f t="shared" si="10"/>
+        <v>1.3520684210526333</v>
+      </c>
+      <c r="AX58" s="27">
         <f t="shared" si="11"/>
-        <v>2105.263157894738</v>
-      </c>
-      <c r="AV58" s="28">
-        <f t="shared" si="6"/>
-        <v>1.8266315789473708</v>
-      </c>
-      <c r="AW58" s="28">
+        <v>-19.100526315789423</v>
+      </c>
+      <c r="AY58" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.18737616315789424</v>
+      </c>
+      <c r="AZ58" s="27">
+        <f t="shared" si="13"/>
+        <v>-6.2458721052631415E-2</v>
+      </c>
+      <c r="BA58" s="27">
         <f t="shared" si="7"/>
-        <v>1.3520684210526333</v>
-      </c>
-      <c r="AX58" s="27">
+        <v>-1.1992074442105231E-2</v>
+      </c>
+      <c r="BB58" s="29">
         <f t="shared" si="8"/>
-        <v>-19.100526315789423</v>
-      </c>
-      <c r="AY58" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.18737616315789424</v>
-      </c>
-      <c r="AZ58" s="27">
-        <f t="shared" si="10"/>
-        <v>-6.2458721052631415E-2</v>
-      </c>
-      <c r="BA58" s="27">
-        <f t="shared" si="4"/>
-        <v>-1.1992074442105231E-2</v>
-      </c>
-      <c r="BB58" s="29">
-        <f t="shared" si="5"/>
         <v>-1446.5163224399369</v>
       </c>
-      <c r="BC58" s="16"/>
-      <c r="BD58" s="16"/>
+      <c r="BC58" s="20">
+        <f t="shared" si="14"/>
+        <v>2.46973087479225</v>
+      </c>
+      <c r="BD58" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.7073646777980272E-3</v>
+      </c>
       <c r="BE58" s="16"/>
       <c r="BF58" s="16"/>
     </row>
@@ -14822,39 +15458,45 @@
       <c r="AS59" s="16"/>
       <c r="AT59" s="16"/>
       <c r="AU59" s="29">
+        <f t="shared" si="16"/>
+        <v>2184.2105263157905</v>
+      </c>
+      <c r="AV59" s="28">
+        <f t="shared" si="9"/>
+        <v>2.0161052631578968</v>
+      </c>
+      <c r="AW59" s="28">
+        <f t="shared" si="10"/>
+        <v>1.4625947368421066</v>
+      </c>
+      <c r="AX59" s="27">
         <f t="shared" si="11"/>
-        <v>2184.2105263157905</v>
-      </c>
-      <c r="AV59" s="28">
-        <f t="shared" si="6"/>
-        <v>2.0161052631578968</v>
-      </c>
-      <c r="AW59" s="28">
+        <v>-15.658421052631539</v>
+      </c>
+      <c r="AY59" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.1536091105263154</v>
+      </c>
+      <c r="AZ59" s="27">
+        <f t="shared" si="13"/>
+        <v>-5.1203036842105136E-2</v>
+      </c>
+      <c r="BA59" s="27">
         <f t="shared" si="7"/>
-        <v>1.4625947368421066</v>
-      </c>
-      <c r="AX59" s="27">
+        <v>-9.8309830736841852E-3</v>
+      </c>
+      <c r="BB59" s="29">
         <f t="shared" si="8"/>
-        <v>-15.658421052631539</v>
-      </c>
-      <c r="AY59" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.1536091105263154</v>
-      </c>
-      <c r="AZ59" s="27">
-        <f t="shared" si="10"/>
-        <v>-5.1203036842105136E-2</v>
-      </c>
-      <c r="BA59" s="27">
-        <f t="shared" si="4"/>
-        <v>-9.8309830736841852E-3</v>
-      </c>
-      <c r="BB59" s="29">
-        <f t="shared" si="5"/>
         <v>-1230.3086474744346</v>
       </c>
-      <c r="BC59" s="16"/>
-      <c r="BD59" s="16"/>
+      <c r="BC59" s="20">
+        <f t="shared" si="14"/>
+        <v>2.94874494681441</v>
+      </c>
+      <c r="BD59" s="20">
+        <f t="shared" si="15"/>
+        <v>-2.3967521913038363E-3</v>
+      </c>
       <c r="BE59" s="16"/>
       <c r="BF59" s="16"/>
     </row>
@@ -14890,39 +15532,45 @@
       <c r="AS60" s="16"/>
       <c r="AT60" s="16"/>
       <c r="AU60" s="29">
+        <f t="shared" si="16"/>
+        <v>2263.157894736843</v>
+      </c>
+      <c r="AV60" s="28">
+        <f t="shared" si="9"/>
+        <v>2.2055789473684229</v>
+      </c>
+      <c r="AW60" s="28">
+        <f t="shared" si="10"/>
+        <v>1.5731210526315804</v>
+      </c>
+      <c r="AX60" s="27">
         <f t="shared" si="11"/>
-        <v>2263.157894736843</v>
-      </c>
-      <c r="AV60" s="28">
-        <f t="shared" si="6"/>
-        <v>2.2055789473684229</v>
-      </c>
-      <c r="AW60" s="28">
+        <v>-12.21631578947364</v>
+      </c>
+      <c r="AY60" s="27">
+        <f t="shared" si="12"/>
+        <v>-0.11984205789473641</v>
+      </c>
+      <c r="AZ60" s="27">
+        <f t="shared" si="13"/>
+        <v>-3.9947352631578802E-2</v>
+      </c>
+      <c r="BA60" s="27">
         <f t="shared" si="7"/>
-        <v>1.5731210526315804</v>
-      </c>
-      <c r="AX60" s="27">
+        <v>-7.6698917052631299E-3</v>
+      </c>
+      <c r="BB60" s="29">
         <f t="shared" si="8"/>
-        <v>-12.21631578947364</v>
-      </c>
-      <c r="AY60" s="27">
-        <f t="shared" si="9"/>
-        <v>-0.11984205789473641</v>
-      </c>
-      <c r="AZ60" s="27">
-        <f t="shared" si="10"/>
-        <v>-3.9947352631578802E-2</v>
-      </c>
-      <c r="BA60" s="27">
-        <f t="shared" si="4"/>
-        <v>-7.6698917052631299E-3</v>
-      </c>
-      <c r="BB60" s="29">
-        <f t="shared" si="5"/>
         <v>-994.55022284216022</v>
       </c>
-      <c r="BC60" s="16"/>
-      <c r="BD60" s="16"/>
+      <c r="BC60" s="20">
+        <f t="shared" si="14"/>
+        <v>3.4696426753462664</v>
+      </c>
+      <c r="BD60" s="20">
+        <f t="shared" si="15"/>
+        <v>-3.4886550680476944E-3</v>
+      </c>
       <c r="BE60" s="16"/>
       <c r="BF60" s="16"/>
     </row>
@@ -14958,39 +15606,45 @@
       <c r="AS61" s="16"/>
       <c r="AT61" s="16"/>
       <c r="AU61" s="29">
+        <f t="shared" si="16"/>
+        <v>2342.1052631578955</v>
+      </c>
+      <c r="AV61" s="28">
+        <f t="shared" si="9"/>
+        <v>2.3950526315789489</v>
+      </c>
+      <c r="AW61" s="28">
+        <f t="shared" si="10"/>
+        <v>1.6836473684210538</v>
+      </c>
+      <c r="AX61" s="27">
         <f t="shared" si="11"/>
-        <v>2342.1052631578955</v>
-      </c>
-      <c r="AV61" s="28">
-        <f t="shared" si="6"/>
-        <v>2.3950526315789489</v>
-      </c>
-      <c r="AW61" s="28">
+        <v>-8.7742105263157555</v>
+      </c>
+      <c r="AY61" s="27">
+        <f t="shared" si="12"/>
+        <v>-8.6075005263157561E-2</v>
+      </c>
+      <c r="AZ61" s="27">
+        <f t="shared" si="13"/>
+        <v>-2.8691668421052519E-2</v>
+      </c>
+      <c r="BA61" s="27">
         <f t="shared" si="7"/>
-        <v>1.6836473684210538</v>
-      </c>
-      <c r="AX61" s="27">
+        <v>-5.5088003368420841E-3</v>
+      </c>
+      <c r="BB61" s="29">
         <f t="shared" si="8"/>
-        <v>-8.7742105263157555</v>
-      </c>
-      <c r="AY61" s="27">
-        <f t="shared" si="9"/>
-        <v>-8.6075005263157561E-2</v>
-      </c>
-      <c r="AZ61" s="27">
-        <f t="shared" si="10"/>
-        <v>-2.8691668421052519E-2</v>
-      </c>
-      <c r="BA61" s="27">
-        <f t="shared" si="4"/>
-        <v>-5.5088003368420841E-3</v>
-      </c>
-      <c r="BB61" s="29">
-        <f t="shared" si="5"/>
         <v>-739.24104854311599</v>
       </c>
-      <c r="BC61" s="16"/>
-      <c r="BD61" s="16"/>
+      <c r="BC61" s="20">
+        <f t="shared" si="14"/>
+        <v>4.0324240603878172</v>
+      </c>
+      <c r="BD61" s="20">
+        <f t="shared" si="15"/>
+        <v>-5.4548162177071357E-3</v>
+      </c>
       <c r="BE61" s="16"/>
       <c r="BF61" s="16"/>
     </row>
@@ -15026,39 +15680,45 @@
       <c r="AS62" s="16"/>
       <c r="AT62" s="16"/>
       <c r="AU62" s="29">
+        <f t="shared" si="16"/>
+        <v>2421.052631578948</v>
+      </c>
+      <c r="AV62" s="28">
+        <f t="shared" si="9"/>
+        <v>2.5845263157894749</v>
+      </c>
+      <c r="AW62" s="28">
+        <f t="shared" si="10"/>
+        <v>1.7941736842105271</v>
+      </c>
+      <c r="AX62" s="27">
         <f t="shared" si="11"/>
-        <v>2421.052631578948</v>
-      </c>
-      <c r="AV62" s="28">
-        <f t="shared" si="6"/>
-        <v>2.5845263157894749</v>
-      </c>
-      <c r="AW62" s="28">
+        <v>-5.3321052631578709</v>
+      </c>
+      <c r="AY62" s="27">
+        <f t="shared" si="12"/>
+        <v>-5.2307952631578718E-2</v>
+      </c>
+      <c r="AZ62" s="27">
+        <f t="shared" si="13"/>
+        <v>-1.743598421052624E-2</v>
+      </c>
+      <c r="BA62" s="27">
         <f t="shared" si="7"/>
-        <v>1.7941736842105271</v>
-      </c>
-      <c r="AX62" s="27">
+        <v>-3.3477089684210383E-3</v>
+      </c>
+      <c r="BB62" s="29">
         <f t="shared" si="8"/>
-        <v>-5.3321052631578709</v>
-      </c>
-      <c r="AY62" s="27">
-        <f t="shared" si="9"/>
-        <v>-5.2307952631578718E-2</v>
-      </c>
-      <c r="AZ62" s="27">
-        <f t="shared" si="10"/>
-        <v>-1.743598421052624E-2</v>
-      </c>
-      <c r="BA62" s="27">
-        <f t="shared" si="4"/>
-        <v>-3.3477089684210383E-3</v>
-      </c>
-      <c r="BB62" s="29">
-        <f t="shared" si="5"/>
         <v>-464.38112457730062</v>
       </c>
-      <c r="BC62" s="16"/>
-      <c r="BD62" s="16"/>
+      <c r="BC62" s="20">
+        <f t="shared" si="14"/>
+        <v>4.6370891019390621</v>
+      </c>
+      <c r="BD62" s="20">
+        <f t="shared" si="15"/>
+        <v>-9.9855245110574576E-3</v>
+      </c>
       <c r="BE62" s="16"/>
       <c r="BF62" s="16"/>
     </row>
@@ -15094,39 +15754,45 @@
       <c r="AS63" s="16"/>
       <c r="AT63" s="16"/>
       <c r="AU63" s="29">
+        <f t="shared" si="16"/>
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="AV63" s="28">
+        <f t="shared" si="9"/>
+        <v>2.7740000000000009</v>
+      </c>
+      <c r="AW63" s="28">
+        <f t="shared" si="10"/>
+        <v>1.9047000000000005</v>
+      </c>
+      <c r="AX63" s="27">
         <f t="shared" si="11"/>
-        <v>2500.0000000000005</v>
-      </c>
-      <c r="AV63" s="28">
-        <f t="shared" si="6"/>
-        <v>2.7740000000000009</v>
-      </c>
-      <c r="AW63" s="28">
+        <v>-1.8899999999999864</v>
+      </c>
+      <c r="AY63" s="27">
+        <f t="shared" si="12"/>
+        <v>-1.8540899999999867E-2</v>
+      </c>
+      <c r="AZ63" s="27">
+        <f t="shared" si="13"/>
+        <v>-6.1802999999999554E-3</v>
+      </c>
+      <c r="BA63" s="27">
         <f t="shared" si="7"/>
-        <v>1.9047000000000005</v>
-      </c>
-      <c r="AX63" s="27">
+        <v>-1.1866175999999916E-3</v>
+      </c>
+      <c r="BB63" s="29">
         <f t="shared" si="8"/>
-        <v>-1.8899999999999864</v>
-      </c>
-      <c r="AY63" s="27">
-        <f t="shared" si="9"/>
-        <v>-1.8540899999999867E-2</v>
-      </c>
-      <c r="AZ63" s="27">
-        <f t="shared" si="10"/>
-        <v>-6.1802999999999554E-3</v>
-      </c>
-      <c r="BA63" s="27">
-        <f t="shared" si="4"/>
-        <v>-1.1866175999999916E-3</v>
-      </c>
-      <c r="BB63" s="29">
-        <f t="shared" si="5"/>
         <v>-169.9704509447142</v>
       </c>
-      <c r="BC63" s="16"/>
-      <c r="BD63" s="16"/>
+      <c r="BC63" s="20">
+        <f t="shared" si="14"/>
+        <v>5.2836378000000028</v>
+      </c>
+      <c r="BD63" s="20">
+        <f t="shared" si="15"/>
+        <v>-3.1085625593348556E-2</v>
+      </c>
       <c r="BE63" s="16"/>
       <c r="BF63" s="16"/>
     </row>
@@ -15162,39 +15828,45 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
       <c r="AU64" s="29">
+        <f t="shared" si="16"/>
+        <v>2578.9473684210529</v>
+      </c>
+      <c r="AV64" s="28">
+        <f t="shared" si="9"/>
+        <v>2.9634736842105269</v>
+      </c>
+      <c r="AW64" s="28">
+        <f t="shared" si="10"/>
+        <v>2.0152263157894743</v>
+      </c>
+      <c r="AX64" s="27">
         <f t="shared" si="11"/>
-        <v>2578.9473684210529</v>
-      </c>
-      <c r="AV64" s="28">
-        <f t="shared" si="6"/>
-        <v>2.9634736842105269</v>
-      </c>
-      <c r="AW64" s="28">
+        <v>1.5521052631579124</v>
+      </c>
+      <c r="AY64" s="27">
+        <f t="shared" si="12"/>
+        <v>1.5226152631579122E-2</v>
+      </c>
+      <c r="AZ64" s="27">
+        <f t="shared" si="13"/>
+        <v>5.0753842105263737E-3</v>
+      </c>
+      <c r="BA64" s="27">
         <f t="shared" si="7"/>
-        <v>2.0152263157894743</v>
-      </c>
-      <c r="AX64" s="27">
+        <v>9.7447376842106376E-4</v>
+      </c>
+      <c r="BB64" s="29">
         <f t="shared" si="8"/>
-        <v>1.5521052631579124</v>
-      </c>
-      <c r="AY64" s="27">
-        <f t="shared" si="9"/>
-        <v>1.5226152631579122E-2</v>
-      </c>
-      <c r="AZ64" s="27">
-        <f t="shared" si="10"/>
-        <v>5.0753842105263737E-3</v>
-      </c>
-      <c r="BA64" s="27">
-        <f t="shared" si="4"/>
-        <v>9.7447376842106376E-4</v>
-      </c>
-      <c r="BB64" s="29">
-        <f t="shared" si="5"/>
         <v>143.99097235464453</v>
       </c>
-      <c r="BC64" s="16"/>
-      <c r="BD64" s="16"/>
+      <c r="BC64" s="20">
+        <f t="shared" si="14"/>
+        <v>5.9720701545706403</v>
+      </c>
+      <c r="BD64" s="20">
+        <f t="shared" si="15"/>
+        <v>4.1475309576086819E-2</v>
+      </c>
       <c r="BE64" s="16"/>
       <c r="BF64" s="16"/>
     </row>
@@ -15230,39 +15902,45 @@
       <c r="AS65" s="16"/>
       <c r="AT65" s="16"/>
       <c r="AU65" s="29">
+        <f t="shared" si="16"/>
+        <v>2657.8947368421054</v>
+      </c>
+      <c r="AV65" s="28">
+        <f t="shared" si="9"/>
+        <v>3.1529473684210521</v>
+      </c>
+      <c r="AW65" s="28">
+        <f t="shared" si="10"/>
+        <v>2.1257526315789477</v>
+      </c>
+      <c r="AX65" s="27">
         <f t="shared" si="11"/>
-        <v>2657.8947368421054</v>
-      </c>
-      <c r="AV65" s="28">
-        <f t="shared" si="6"/>
-        <v>3.1529473684210521</v>
-      </c>
-      <c r="AW65" s="28">
+        <v>4.994210526315797</v>
+      </c>
+      <c r="AY65" s="27">
+        <f t="shared" si="12"/>
+        <v>4.8993205263157966E-2</v>
+      </c>
+      <c r="AZ65" s="27">
+        <f t="shared" si="13"/>
+        <v>1.6331068421052655E-2</v>
+      </c>
+      <c r="BA65" s="27">
         <f t="shared" si="7"/>
-        <v>2.1257526315789477</v>
-      </c>
-      <c r="AX65" s="27">
+        <v>3.13556513684211E-3</v>
+      </c>
+      <c r="BB65" s="29">
         <f t="shared" si="8"/>
-        <v>4.994210526315797</v>
-      </c>
-      <c r="AY65" s="27">
-        <f t="shared" si="9"/>
-        <v>4.8993205263157966E-2</v>
-      </c>
-      <c r="AZ65" s="27">
-        <f t="shared" si="10"/>
-        <v>1.6331068421052655E-2</v>
-      </c>
-      <c r="BA65" s="27">
-        <f t="shared" si="4"/>
-        <v>3.13556513684211E-3</v>
-      </c>
-      <c r="BB65" s="29">
-        <f t="shared" si="5"/>
         <v>477.50314532077294</v>
       </c>
-      <c r="BC65" s="16"/>
-      <c r="BD65" s="16"/>
+      <c r="BC65" s="20">
+        <f t="shared" si="14"/>
+        <v>6.7023861656509691</v>
+      </c>
+      <c r="BD65" s="20">
+        <f t="shared" si="15"/>
+        <v>1.403631836005708E-2</v>
+      </c>
       <c r="BE65" s="16"/>
       <c r="BF65" s="16"/>
     </row>
@@ -15286,39 +15964,45 @@
       <c r="AS66" s="16"/>
       <c r="AT66" s="16"/>
       <c r="AU66" s="29">
+        <f t="shared" si="16"/>
+        <v>2736.8421052631579</v>
+      </c>
+      <c r="AV66" s="28">
+        <f t="shared" si="9"/>
+        <v>3.3424210526315781</v>
+      </c>
+      <c r="AW66" s="28">
+        <f t="shared" si="10"/>
+        <v>2.236278947368421</v>
+      </c>
+      <c r="AX66" s="27">
         <f t="shared" si="11"/>
-        <v>2736.8421052631579</v>
-      </c>
-      <c r="AV66" s="28">
-        <f t="shared" si="6"/>
-        <v>3.3424210526315781</v>
-      </c>
-      <c r="AW66" s="28">
+        <v>8.4363157894736815</v>
+      </c>
+      <c r="AY66" s="27">
+        <f t="shared" si="12"/>
+        <v>8.276025789473683E-2</v>
+      </c>
+      <c r="AZ66" s="27">
+        <f t="shared" si="13"/>
+        <v>2.7586752631578945E-2</v>
+      </c>
+      <c r="BA66" s="27">
         <f t="shared" si="7"/>
-        <v>2.236278947368421</v>
-      </c>
-      <c r="AX66" s="27">
+        <v>5.2966565052631571E-3</v>
+      </c>
+      <c r="BB66" s="29">
         <f t="shared" si="8"/>
-        <v>8.4363157894736815</v>
-      </c>
-      <c r="AY66" s="27">
-        <f t="shared" si="9"/>
-        <v>8.276025789473683E-2</v>
-      </c>
-      <c r="AZ66" s="27">
-        <f t="shared" si="10"/>
-        <v>2.7586752631578945E-2</v>
-      </c>
-      <c r="BA66" s="27">
-        <f t="shared" si="4"/>
-        <v>5.2966565052631571E-3</v>
-      </c>
-      <c r="BB66" s="29">
-        <f t="shared" si="5"/>
         <v>830.56606795367259</v>
       </c>
-      <c r="BC66" s="16"/>
-      <c r="BD66" s="16"/>
+      <c r="BC66" s="20">
+        <f t="shared" si="14"/>
+        <v>7.4745858332409956</v>
+      </c>
+      <c r="BD66" s="20">
+        <f t="shared" si="15"/>
+        <v>8.9993874318230801E-3</v>
+      </c>
       <c r="BE66" s="16"/>
       <c r="BF66" s="16"/>
     </row>
@@ -15352,39 +16036,45 @@
       <c r="AS67" s="16"/>
       <c r="AT67" s="16"/>
       <c r="AU67" s="29">
+        <f t="shared" si="16"/>
+        <v>2815.7894736842104</v>
+      </c>
+      <c r="AV67" s="28">
+        <f t="shared" si="9"/>
+        <v>3.5318947368421041</v>
+      </c>
+      <c r="AW67" s="28">
+        <f t="shared" si="10"/>
+        <v>2.3468052631578944</v>
+      </c>
+      <c r="AX67" s="27">
         <f t="shared" si="11"/>
-        <v>2815.7894736842104</v>
-      </c>
-      <c r="AV67" s="28">
-        <f t="shared" si="6"/>
-        <v>3.5318947368421041</v>
-      </c>
-      <c r="AW67" s="28">
+        <v>11.878421052631566</v>
+      </c>
+      <c r="AY67" s="27">
+        <f t="shared" si="12"/>
+        <v>0.11652731052631568</v>
+      </c>
+      <c r="AZ67" s="27">
+        <f t="shared" si="13"/>
+        <v>3.8842436842105227E-2</v>
+      </c>
+      <c r="BA67" s="27">
         <f t="shared" si="7"/>
-        <v>2.3468052631578944</v>
-      </c>
-      <c r="AX67" s="27">
+        <v>7.4577478736842038E-3</v>
+      </c>
+      <c r="BB67" s="29">
         <f t="shared" si="8"/>
-        <v>11.878421052631566</v>
-      </c>
-      <c r="AY67" s="27">
-        <f t="shared" si="9"/>
-        <v>0.11652731052631568</v>
-      </c>
-      <c r="AZ67" s="27">
-        <f t="shared" si="10"/>
-        <v>3.8842436842105227E-2</v>
-      </c>
-      <c r="BA67" s="27">
-        <f t="shared" si="4"/>
-        <v>7.4577478736842038E-3</v>
-      </c>
-      <c r="BB67" s="29">
-        <f t="shared" si="5"/>
         <v>1203.179740253343</v>
       </c>
-      <c r="BC67" s="16"/>
-      <c r="BD67" s="16"/>
+      <c r="BC67" s="20">
+        <f t="shared" si="14"/>
+        <v>8.288669157340717</v>
+      </c>
+      <c r="BD67" s="20">
+        <f t="shared" si="15"/>
+        <v>6.8889700183909722E-3</v>
+      </c>
       <c r="BE67" s="16"/>
       <c r="BF67" s="16"/>
     </row>
@@ -15408,39 +16098,45 @@
       <c r="AS68" s="16"/>
       <c r="AT68" s="16"/>
       <c r="AU68" s="29">
+        <f t="shared" si="16"/>
+        <v>2894.7368421052629</v>
+      </c>
+      <c r="AV68" s="28">
+        <f t="shared" si="9"/>
+        <v>3.7213684210526301</v>
+      </c>
+      <c r="AW68" s="28">
+        <f t="shared" si="10"/>
+        <v>2.4573315789473682</v>
+      </c>
+      <c r="AX68" s="27">
         <f t="shared" si="11"/>
-        <v>2894.7368421052629</v>
-      </c>
-      <c r="AV68" s="28">
-        <f t="shared" si="6"/>
-        <v>3.7213684210526301</v>
-      </c>
-      <c r="AW68" s="28">
+        <v>15.320526315789465</v>
+      </c>
+      <c r="AY68" s="27">
+        <f t="shared" si="12"/>
+        <v>0.15029436315789466</v>
+      </c>
+      <c r="AZ68" s="27">
+        <f t="shared" si="13"/>
+        <v>5.0098121052631554E-2</v>
+      </c>
+      <c r="BA68" s="27">
         <f t="shared" si="7"/>
-        <v>2.4573315789473682</v>
-      </c>
-      <c r="AX68" s="27">
+        <v>9.6188392421052583E-3</v>
+      </c>
+      <c r="BB68" s="29">
         <f t="shared" si="8"/>
-        <v>15.320526315789465</v>
-      </c>
-      <c r="AY68" s="27">
-        <f t="shared" si="9"/>
-        <v>0.15029436315789466</v>
-      </c>
-      <c r="AZ68" s="27">
-        <f t="shared" si="10"/>
-        <v>5.0098121052631554E-2</v>
-      </c>
-      <c r="BA68" s="27">
-        <f t="shared" si="4"/>
-        <v>9.6188392421052583E-3</v>
-      </c>
-      <c r="BB68" s="29">
-        <f t="shared" si="5"/>
         <v>1595.3441622197861</v>
       </c>
-      <c r="BC68" s="16"/>
-      <c r="BD68" s="16"/>
+      <c r="BC68" s="20">
+        <f t="shared" si="14"/>
+        <v>9.1446361379501333</v>
+      </c>
+      <c r="BD68" s="20">
+        <f t="shared" si="15"/>
+        <v>5.7320773501475363E-3</v>
+      </c>
       <c r="BE68" s="16"/>
       <c r="BF68" s="16"/>
     </row>
@@ -15482,39 +16178,45 @@
       <c r="AS69" s="16"/>
       <c r="AT69" s="16"/>
       <c r="AU69" s="29">
+        <f t="shared" si="16"/>
+        <v>2973.6842105263154</v>
+      </c>
+      <c r="AV69" s="28">
+        <f t="shared" si="9"/>
+        <v>3.9108421052631561</v>
+      </c>
+      <c r="AW69" s="28">
+        <f t="shared" si="10"/>
+        <v>2.5678578947368411</v>
+      </c>
+      <c r="AX69" s="27">
         <f t="shared" si="11"/>
-        <v>2973.6842105263154</v>
-      </c>
-      <c r="AV69" s="28">
-        <f t="shared" si="6"/>
-        <v>3.9108421052631561</v>
-      </c>
-      <c r="AW69" s="28">
+        <v>18.762631578947364</v>
+      </c>
+      <c r="AY69" s="27">
+        <f t="shared" si="12"/>
+        <v>0.18406141578947363</v>
+      </c>
+      <c r="AZ69" s="27">
+        <f t="shared" si="13"/>
+        <v>6.1353805263157875E-2</v>
+      </c>
+      <c r="BA69" s="27">
         <f t="shared" si="7"/>
-        <v>2.5678578947368411</v>
-      </c>
-      <c r="AX69" s="27">
+        <v>1.1779930610526313E-2</v>
+      </c>
+      <c r="BB69" s="29">
         <f t="shared" si="8"/>
-        <v>18.762631578947364</v>
-      </c>
-      <c r="AY69" s="27">
-        <f t="shared" si="9"/>
-        <v>0.18406141578947363</v>
-      </c>
-      <c r="AZ69" s="27">
-        <f t="shared" si="10"/>
-        <v>6.1353805263157875E-2</v>
-      </c>
-      <c r="BA69" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1779930610526313E-2</v>
-      </c>
-      <c r="BB69" s="29">
-        <f t="shared" si="5"/>
         <v>2007.059333853</v>
       </c>
-      <c r="BC69" s="16"/>
-      <c r="BD69" s="16"/>
+      <c r="BC69" s="20">
+        <f t="shared" si="14"/>
+        <v>10.042486775069243</v>
+      </c>
+      <c r="BD69" s="20">
+        <f t="shared" si="15"/>
+        <v>5.0035824081944005E-3</v>
+      </c>
       <c r="BE69" s="16"/>
       <c r="BF69" s="16"/>
     </row>
@@ -15574,39 +16276,45 @@
       <c r="AS70" s="16"/>
       <c r="AT70" s="16"/>
       <c r="AU70" s="29">
+        <f t="shared" si="16"/>
+        <v>3052.6315789473679</v>
+      </c>
+      <c r="AV70" s="28">
+        <f t="shared" si="9"/>
+        <v>4.1003157894736821</v>
+      </c>
+      <c r="AW70" s="28">
+        <f t="shared" si="10"/>
+        <v>2.6783842105263149</v>
+      </c>
+      <c r="AX70" s="27">
         <f t="shared" si="11"/>
-        <v>3052.6315789473679</v>
-      </c>
-      <c r="AV70" s="28">
-        <f t="shared" si="6"/>
-        <v>4.1003157894736821</v>
-      </c>
-      <c r="AW70" s="28">
+        <v>22.204736842105248</v>
+      </c>
+      <c r="AY70" s="27">
+        <f t="shared" si="12"/>
+        <v>0.2178284684210525</v>
+      </c>
+      <c r="AZ70" s="27">
+        <f t="shared" si="13"/>
+        <v>7.2609489473684161E-2</v>
+      </c>
+      <c r="BA70" s="27">
         <f t="shared" si="7"/>
-        <v>2.6783842105263149</v>
-      </c>
-      <c r="AX70" s="27">
+        <v>1.3941021978947359E-2</v>
+      </c>
+      <c r="BB70" s="29">
         <f t="shared" si="8"/>
-        <v>22.204736842105248</v>
-      </c>
-      <c r="AY70" s="27">
-        <f t="shared" si="9"/>
-        <v>0.2178284684210525</v>
-      </c>
-      <c r="AZ70" s="27">
-        <f t="shared" si="10"/>
-        <v>7.2609489473684161E-2</v>
-      </c>
-      <c r="BA70" s="27">
-        <f t="shared" si="4"/>
-        <v>1.3941021978947359E-2</v>
-      </c>
-      <c r="BB70" s="29">
-        <f t="shared" si="5"/>
         <v>2438.3252551529836</v>
       </c>
-      <c r="BC70" s="16"/>
-      <c r="BD70" s="16"/>
+      <c r="BC70" s="20">
+        <f t="shared" si="14"/>
+        <v>10.982221068698053</v>
+      </c>
+      <c r="BD70" s="20">
+        <f t="shared" si="15"/>
+        <v>4.5040016894747764E-3</v>
+      </c>
       <c r="BE70" s="16"/>
       <c r="BF70" s="16"/>
     </row>
@@ -15666,39 +16374,45 @@
       <c r="AS71" s="16"/>
       <c r="AT71" s="16"/>
       <c r="AU71" s="29">
+        <f t="shared" si="16"/>
+        <v>3131.5789473684204</v>
+      </c>
+      <c r="AV71" s="28">
+        <f t="shared" si="9"/>
+        <v>4.2897894736842082</v>
+      </c>
+      <c r="AW71" s="28">
+        <f t="shared" si="10"/>
+        <v>2.7889105263157887</v>
+      </c>
+      <c r="AX71" s="27">
         <f t="shared" si="11"/>
-        <v>3131.5789473684204</v>
-      </c>
-      <c r="AV71" s="28">
-        <f t="shared" si="6"/>
-        <v>4.2897894736842082</v>
-      </c>
-      <c r="AW71" s="28">
+        <v>25.646842105263133</v>
+      </c>
+      <c r="AY71" s="27">
+        <f t="shared" si="12"/>
+        <v>0.25159552105263133</v>
+      </c>
+      <c r="AZ71" s="27">
+        <f t="shared" si="13"/>
+        <v>8.3865173684210439E-2</v>
+      </c>
+      <c r="BA71" s="27">
         <f t="shared" si="7"/>
-        <v>2.7889105263157887</v>
-      </c>
-      <c r="AX71" s="27">
+        <v>1.6102113347368406E-2</v>
+      </c>
+      <c r="BB71" s="29">
         <f t="shared" si="8"/>
-        <v>25.646842105263133</v>
-      </c>
-      <c r="AY71" s="27">
-        <f t="shared" si="9"/>
-        <v>0.25159552105263133</v>
-      </c>
-      <c r="AZ71" s="27">
-        <f t="shared" si="10"/>
-        <v>8.3865173684210439E-2</v>
-      </c>
-      <c r="BA71" s="27">
-        <f t="shared" si="4"/>
-        <v>1.6102113347368406E-2</v>
-      </c>
-      <c r="BB71" s="29">
-        <f t="shared" si="5"/>
         <v>2889.1419261197384</v>
       </c>
-      <c r="BC71" s="16"/>
-      <c r="BD71" s="16"/>
+      <c r="BC71" s="20">
+        <f t="shared" si="14"/>
+        <v>11.963839018836556</v>
+      </c>
+      <c r="BD71" s="20">
+        <f t="shared" si="15"/>
+        <v>4.1409661846915869E-3</v>
+      </c>
       <c r="BE71" s="16"/>
       <c r="BF71" s="16"/>
     </row>
@@ -15758,39 +16472,45 @@
       <c r="AS72" s="16"/>
       <c r="AT72" s="16"/>
       <c r="AU72" s="29">
+        <f t="shared" si="16"/>
+        <v>3210.5263157894728</v>
+      </c>
+      <c r="AV72" s="28">
+        <f t="shared" si="9"/>
+        <v>4.4792631578947342</v>
+      </c>
+      <c r="AW72" s="28">
+        <f t="shared" si="10"/>
+        <v>2.8994368421052616</v>
+      </c>
+      <c r="AX72" s="27">
         <f t="shared" si="11"/>
-        <v>3210.5263157894728</v>
-      </c>
-      <c r="AV72" s="28">
-        <f t="shared" si="6"/>
-        <v>4.4792631578947342</v>
-      </c>
-      <c r="AW72" s="28">
+        <v>29.088947368421017</v>
+      </c>
+      <c r="AY72" s="27">
+        <f t="shared" si="12"/>
+        <v>0.2853625736842102</v>
+      </c>
+      <c r="AZ72" s="27">
+        <f t="shared" si="13"/>
+        <v>9.5120857894736732E-2</v>
+      </c>
+      <c r="BA72" s="27">
         <f t="shared" si="7"/>
-        <v>2.8994368421052616</v>
-      </c>
-      <c r="AX72" s="27">
+        <v>1.8263204715789454E-2</v>
+      </c>
+      <c r="BB72" s="29">
         <f t="shared" si="8"/>
-        <v>29.088947368421017</v>
-      </c>
-      <c r="AY72" s="27">
-        <f t="shared" si="9"/>
-        <v>0.2853625736842102</v>
-      </c>
-      <c r="AZ72" s="27">
-        <f t="shared" si="10"/>
-        <v>9.5120857894736732E-2</v>
-      </c>
-      <c r="BA72" s="27">
-        <f t="shared" si="4"/>
-        <v>1.8263204715789454E-2</v>
-      </c>
-      <c r="BB72" s="29">
-        <f t="shared" si="5"/>
         <v>3359.5093467532647</v>
       </c>
-      <c r="BC72" s="16"/>
-      <c r="BD72" s="16"/>
+      <c r="BC72" s="20">
+        <f t="shared" si="14"/>
+        <v>12.98734062548475</v>
+      </c>
+      <c r="BD72" s="20">
+        <f t="shared" si="15"/>
+        <v>3.865844468638292E-3</v>
+      </c>
       <c r="BE72" s="16"/>
       <c r="BF72" s="16"/>
     </row>
@@ -15850,39 +16570,45 @@
       <c r="AS73" s="16"/>
       <c r="AT73" s="16"/>
       <c r="AU73" s="29">
+        <f t="shared" si="16"/>
+        <v>3289.4736842105253</v>
+      </c>
+      <c r="AV73" s="28">
+        <f t="shared" si="9"/>
+        <v>4.6687368421052602</v>
+      </c>
+      <c r="AW73" s="28">
+        <f t="shared" si="10"/>
+        <v>3.0099631578947355</v>
+      </c>
+      <c r="AX73" s="27">
         <f t="shared" si="11"/>
-        <v>3289.4736842105253</v>
-      </c>
-      <c r="AV73" s="28">
-        <f t="shared" si="6"/>
-        <v>4.6687368421052602</v>
-      </c>
-      <c r="AW73" s="28">
+        <v>32.531052631578902</v>
+      </c>
+      <c r="AY73" s="27">
+        <f t="shared" si="12"/>
+        <v>0.31912962631578906</v>
+      </c>
+      <c r="AZ73" s="27">
+        <f t="shared" si="13"/>
+        <v>0.10637654210526303</v>
+      </c>
+      <c r="BA73" s="27">
         <f t="shared" si="7"/>
-        <v>3.0099631578947355</v>
-      </c>
-      <c r="AX73" s="27">
+        <v>2.0424296084210501E-2</v>
+      </c>
+      <c r="BB73" s="29">
         <f t="shared" si="8"/>
-        <v>32.531052631578902</v>
-      </c>
-      <c r="AY73" s="27">
-        <f t="shared" si="9"/>
-        <v>0.31912962631578906</v>
-      </c>
-      <c r="AZ73" s="27">
-        <f t="shared" si="10"/>
-        <v>0.10637654210526303</v>
-      </c>
-      <c r="BA73" s="27">
-        <f t="shared" si="4"/>
-        <v>2.0424296084210501E-2</v>
-      </c>
-      <c r="BB73" s="29">
-        <f t="shared" si="5"/>
         <v>3849.4275170535616</v>
       </c>
-      <c r="BC73" s="16"/>
-      <c r="BD73" s="16"/>
+      <c r="BC73" s="20">
+        <f t="shared" si="14"/>
+        <v>14.052725888642644</v>
+      </c>
+      <c r="BD73" s="20">
+        <f t="shared" si="15"/>
+        <v>3.6506015053892784E-3</v>
+      </c>
       <c r="BE73" s="16"/>
       <c r="BF73" s="16"/>
     </row>
@@ -15918,39 +16644,45 @@
       <c r="AS74" s="16"/>
       <c r="AT74" s="16"/>
       <c r="AU74" s="29">
+        <f t="shared" si="16"/>
+        <v>3368.4210526315778</v>
+      </c>
+      <c r="AV74" s="28">
+        <f t="shared" si="9"/>
+        <v>4.8582105263157862</v>
+      </c>
+      <c r="AW74" s="28">
+        <f t="shared" si="10"/>
+        <v>3.1204894736842093</v>
+      </c>
+      <c r="AX74" s="27">
         <f t="shared" si="11"/>
-        <v>3368.4210526315778</v>
-      </c>
-      <c r="AV74" s="28">
-        <f t="shared" si="6"/>
-        <v>4.8582105263157862</v>
-      </c>
-      <c r="AW74" s="28">
+        <v>35.973157894736786</v>
+      </c>
+      <c r="AY74" s="27">
+        <f t="shared" si="12"/>
+        <v>0.35289667894736787</v>
+      </c>
+      <c r="AZ74" s="27">
+        <f t="shared" si="13"/>
+        <v>0.11763222631578929</v>
+      </c>
+      <c r="BA74" s="27">
         <f t="shared" si="7"/>
-        <v>3.1204894736842093</v>
-      </c>
-      <c r="AX74" s="27">
+        <v>2.2585387452631545E-2</v>
+      </c>
+      <c r="BB74" s="29">
         <f t="shared" si="8"/>
-        <v>35.973157894736786</v>
-      </c>
-      <c r="AY74" s="27">
-        <f t="shared" si="9"/>
-        <v>0.35289667894736787</v>
-      </c>
-      <c r="AZ74" s="27">
-        <f t="shared" si="10"/>
-        <v>0.11763222631578929</v>
-      </c>
-      <c r="BA74" s="27">
-        <f t="shared" si="4"/>
-        <v>2.2585387452631545E-2</v>
-      </c>
-      <c r="BB74" s="29">
-        <f t="shared" si="5"/>
         <v>4358.8964370206286</v>
       </c>
-      <c r="BC74" s="16"/>
-      <c r="BD74" s="16"/>
+      <c r="BC74" s="20">
+        <f t="shared" si="14"/>
+        <v>15.159994808310232</v>
+      </c>
+      <c r="BD74" s="20">
+        <f t="shared" si="15"/>
+        <v>3.4779433343620149E-3</v>
+      </c>
       <c r="BE74" s="16"/>
       <c r="BF74" s="16"/>
     </row>
@@ -15986,39 +16718,45 @@
       <c r="AS75" s="16"/>
       <c r="AT75" s="16"/>
       <c r="AU75" s="29">
+        <f t="shared" si="16"/>
+        <v>3447.3684210526303</v>
+      </c>
+      <c r="AV75" s="28">
+        <f t="shared" si="9"/>
+        <v>5.0476842105263122</v>
+      </c>
+      <c r="AW75" s="28">
+        <f t="shared" si="10"/>
+        <v>3.2310157894736822</v>
+      </c>
+      <c r="AX75" s="27">
         <f t="shared" si="11"/>
-        <v>3447.3684210526303</v>
-      </c>
-      <c r="AV75" s="28">
-        <f t="shared" si="6"/>
-        <v>5.0476842105263122</v>
-      </c>
-      <c r="AW75" s="28">
+        <v>39.415263157894671</v>
+      </c>
+      <c r="AY75" s="27">
+        <f t="shared" si="12"/>
+        <v>0.38666373157894673</v>
+      </c>
+      <c r="AZ75" s="27">
+        <f t="shared" si="13"/>
+        <v>0.12888791052631557</v>
+      </c>
+      <c r="BA75" s="27">
         <f t="shared" si="7"/>
-        <v>3.2310157894736822</v>
-      </c>
-      <c r="AX75" s="27">
+        <v>2.4746478821052589E-2</v>
+      </c>
+      <c r="BB75" s="29">
         <f t="shared" si="8"/>
-        <v>39.415263157894671</v>
-      </c>
-      <c r="AY75" s="27">
-        <f t="shared" si="9"/>
-        <v>0.38666373157894673</v>
-      </c>
-      <c r="AZ75" s="27">
-        <f t="shared" si="10"/>
-        <v>0.12888791052631557</v>
-      </c>
-      <c r="BA75" s="27">
-        <f t="shared" si="4"/>
-        <v>2.4746478821052589E-2</v>
-      </c>
-      <c r="BB75" s="29">
-        <f t="shared" si="5"/>
         <v>4887.9161066544666</v>
       </c>
-      <c r="BC75" s="16"/>
-      <c r="BD75" s="16"/>
+      <c r="BC75" s="20">
+        <f t="shared" si="14"/>
+        <v>16.309147384487513</v>
+      </c>
+      <c r="BD75" s="20">
+        <f t="shared" si="15"/>
+        <v>3.3366258807682988E-3</v>
+      </c>
       <c r="BE75" s="16"/>
       <c r="BF75" s="16"/>
     </row>
@@ -16054,39 +16792,45 @@
       <c r="AS76" s="16"/>
       <c r="AT76" s="16"/>
       <c r="AU76" s="29">
+        <f t="shared" si="16"/>
+        <v>3526.3157894736828</v>
+      </c>
+      <c r="AV76" s="28">
+        <f t="shared" si="9"/>
+        <v>5.2371578947368382</v>
+      </c>
+      <c r="AW76" s="28">
+        <f t="shared" si="10"/>
+        <v>3.341542105263156</v>
+      </c>
+      <c r="AX76" s="27">
         <f t="shared" si="11"/>
-        <v>3526.3157894736828</v>
-      </c>
-      <c r="AV76" s="28">
-        <f t="shared" si="6"/>
-        <v>5.2371578947368382</v>
-      </c>
-      <c r="AW76" s="28">
+        <v>42.857368421052556</v>
+      </c>
+      <c r="AY76" s="27">
+        <f t="shared" si="12"/>
+        <v>0.4204307842105256</v>
+      </c>
+      <c r="AZ76" s="27">
+        <f t="shared" si="13"/>
+        <v>0.14014359473684188</v>
+      </c>
+      <c r="BA76" s="27">
         <f t="shared" si="7"/>
-        <v>3.341542105263156</v>
-      </c>
-      <c r="AX76" s="27">
+        <v>2.6907570189473637E-2</v>
+      </c>
+      <c r="BB76" s="29">
         <f t="shared" si="8"/>
-        <v>42.857368421052556</v>
-      </c>
-      <c r="AY76" s="27">
-        <f t="shared" si="9"/>
-        <v>0.4204307842105256</v>
-      </c>
-      <c r="AZ76" s="27">
-        <f t="shared" si="10"/>
-        <v>0.14014359473684188</v>
-      </c>
-      <c r="BA76" s="27">
-        <f t="shared" si="4"/>
-        <v>2.6907570189473637E-2</v>
-      </c>
-      <c r="BB76" s="29">
-        <f t="shared" si="5"/>
         <v>5436.486525955077</v>
       </c>
-      <c r="BC76" s="16"/>
-      <c r="BD76" s="16"/>
+      <c r="BC76" s="20">
+        <f t="shared" si="14"/>
+        <v>17.500183617174493</v>
+      </c>
+      <c r="BD76" s="20">
+        <f t="shared" si="15"/>
+        <v>3.2190245544846774E-3</v>
+      </c>
       <c r="BE76" s="16"/>
       <c r="BF76" s="16"/>
     </row>
@@ -16122,39 +16866,45 @@
       <c r="AS77" s="16"/>
       <c r="AT77" s="16"/>
       <c r="AU77" s="29">
+        <f t="shared" si="16"/>
+        <v>3605.2631578947353</v>
+      </c>
+      <c r="AV77" s="28">
+        <f t="shared" si="9"/>
+        <v>5.4266315789473643</v>
+      </c>
+      <c r="AW77" s="28">
+        <f t="shared" si="10"/>
+        <v>3.4520684210526298</v>
+      </c>
+      <c r="AX77" s="27">
         <f t="shared" si="11"/>
-        <v>3605.2631578947353</v>
-      </c>
-      <c r="AV77" s="28">
-        <f t="shared" si="6"/>
-        <v>5.4266315789473643</v>
-      </c>
-      <c r="AW77" s="28">
+        <v>46.299473684210469</v>
+      </c>
+      <c r="AY77" s="27">
+        <f t="shared" si="12"/>
+        <v>0.45419783684210474</v>
+      </c>
+      <c r="AZ77" s="27">
+        <f t="shared" si="13"/>
+        <v>0.15139927894736824</v>
+      </c>
+      <c r="BA77" s="27">
         <f t="shared" si="7"/>
-        <v>3.4520684210526298</v>
-      </c>
-      <c r="AX77" s="27">
+        <v>2.9068661557894698E-2</v>
+      </c>
+      <c r="BB77" s="29">
         <f t="shared" si="8"/>
-        <v>46.299473684210469</v>
-      </c>
-      <c r="AY77" s="27">
-        <f t="shared" si="9"/>
-        <v>0.45419783684210474</v>
-      </c>
-      <c r="AZ77" s="27">
-        <f t="shared" si="10"/>
-        <v>0.15139927894736824</v>
-      </c>
-      <c r="BA77" s="27">
-        <f t="shared" si="4"/>
-        <v>2.9068661557894698E-2</v>
-      </c>
-      <c r="BB77" s="29">
-        <f t="shared" si="5"/>
         <v>6004.6076949224607</v>
       </c>
-      <c r="BC77" s="16"/>
-      <c r="BD77" s="16"/>
+      <c r="BC77" s="20">
+        <f t="shared" si="14"/>
+        <v>18.733103506371165</v>
+      </c>
+      <c r="BD77" s="20">
+        <f t="shared" si="15"/>
+        <v>3.1197880791133136E-3</v>
+      </c>
       <c r="BE77" s="16"/>
       <c r="BF77" s="16"/>
     </row>
@@ -16190,39 +16940,45 @@
       <c r="AS78" s="16"/>
       <c r="AT78" s="16"/>
       <c r="AU78" s="29">
+        <f t="shared" si="16"/>
+        <v>3684.2105263157878</v>
+      </c>
+      <c r="AV78" s="28">
+        <f t="shared" si="9"/>
+        <v>5.6161052631578903</v>
+      </c>
+      <c r="AW78" s="28">
+        <f t="shared" si="10"/>
+        <v>3.5625947368421027</v>
+      </c>
+      <c r="AX78" s="27">
         <f t="shared" si="11"/>
-        <v>3684.2105263157878</v>
-      </c>
-      <c r="AV78" s="28">
-        <f t="shared" si="6"/>
-        <v>5.6161052631578903</v>
-      </c>
-      <c r="AW78" s="28">
+        <v>49.741578947368353</v>
+      </c>
+      <c r="AY78" s="27">
+        <f t="shared" si="12"/>
+        <v>0.48796488947368355</v>
+      </c>
+      <c r="AZ78" s="27">
+        <f t="shared" si="13"/>
+        <v>0.16265496315789452</v>
+      </c>
+      <c r="BA78" s="27">
         <f t="shared" si="7"/>
-        <v>3.5625947368421027</v>
-      </c>
-      <c r="AX78" s="27">
+        <v>3.1229752926315746E-2</v>
+      </c>
+      <c r="BB78" s="29">
         <f t="shared" si="8"/>
-        <v>49.741578947368353</v>
-      </c>
-      <c r="AY78" s="27">
-        <f t="shared" si="9"/>
-        <v>0.48796488947368355</v>
-      </c>
-      <c r="AZ78" s="27">
-        <f t="shared" si="10"/>
-        <v>0.16265496315789452</v>
-      </c>
-      <c r="BA78" s="27">
-        <f t="shared" si="4"/>
-        <v>3.1229752926315746E-2</v>
-      </c>
-      <c r="BB78" s="29">
-        <f t="shared" si="5"/>
         <v>6592.2796135566132</v>
       </c>
-      <c r="BC78" s="16"/>
-      <c r="BD78" s="16"/>
+      <c r="BC78" s="20">
+        <f t="shared" si="14"/>
+        <v>20.007907052077531</v>
+      </c>
+      <c r="BD78" s="20">
+        <f t="shared" si="15"/>
+        <v>3.035051336556252E-3</v>
+      </c>
       <c r="BE78" s="16"/>
       <c r="BF78" s="16"/>
     </row>
@@ -16258,39 +17014,45 @@
       <c r="AS79" s="16"/>
       <c r="AT79" s="16"/>
       <c r="AU79" s="29">
+        <f t="shared" si="16"/>
+        <v>3763.1578947368403</v>
+      </c>
+      <c r="AV79" s="28">
+        <f t="shared" si="9"/>
+        <v>5.8055789473684163</v>
+      </c>
+      <c r="AW79" s="28">
+        <f t="shared" si="10"/>
+        <v>3.6731210526315765</v>
+      </c>
+      <c r="AX79" s="27">
         <f t="shared" si="11"/>
-        <v>3763.1578947368403</v>
-      </c>
-      <c r="AV79" s="28">
-        <f t="shared" si="6"/>
-        <v>5.8055789473684163</v>
-      </c>
-      <c r="AW79" s="28">
+        <v>53.183684210526238</v>
+      </c>
+      <c r="AY79" s="27">
+        <f t="shared" si="12"/>
+        <v>0.52173194210526241</v>
+      </c>
+      <c r="AZ79" s="27">
+        <f t="shared" si="13"/>
+        <v>0.1739106473684208</v>
+      </c>
+      <c r="BA79" s="27">
         <f t="shared" si="7"/>
-        <v>3.6731210526315765</v>
-      </c>
-      <c r="AX79" s="27">
+        <v>3.3390844294736793E-2</v>
+      </c>
+      <c r="BB79" s="29">
         <f t="shared" si="8"/>
-        <v>53.183684210526238</v>
-      </c>
-      <c r="AY79" s="27">
-        <f t="shared" si="9"/>
-        <v>0.52173194210526241</v>
-      </c>
-      <c r="AZ79" s="27">
-        <f t="shared" si="10"/>
-        <v>0.1739106473684208</v>
-      </c>
-      <c r="BA79" s="27">
-        <f t="shared" si="4"/>
-        <v>3.3390844294736793E-2</v>
-      </c>
-      <c r="BB79" s="29">
-        <f t="shared" si="5"/>
         <v>7199.5022818575362</v>
       </c>
-      <c r="BC79" s="16"/>
-      <c r="BD79" s="16"/>
+      <c r="BC79" s="20">
+        <f t="shared" si="14"/>
+        <v>21.324594254293597</v>
+      </c>
+      <c r="BD79" s="20">
+        <f t="shared" si="15"/>
+        <v>2.9619539545158199E-3</v>
+      </c>
       <c r="BE79" s="16"/>
       <c r="BF79" s="16"/>
     </row>
@@ -16326,39 +17088,45 @@
       <c r="AS80" s="16"/>
       <c r="AT80" s="16"/>
       <c r="AU80" s="29">
+        <f t="shared" si="16"/>
+        <v>3842.1052631578928</v>
+      </c>
+      <c r="AV80" s="28">
+        <f t="shared" si="9"/>
+        <v>5.9950526315789423</v>
+      </c>
+      <c r="AW80" s="28">
+        <f t="shared" si="10"/>
+        <v>3.7836473684210494</v>
+      </c>
+      <c r="AX80" s="27">
         <f t="shared" si="11"/>
-        <v>3842.1052631578928</v>
-      </c>
-      <c r="AV80" s="28">
-        <f t="shared" si="6"/>
-        <v>5.9950526315789423</v>
-      </c>
-      <c r="AW80" s="28">
+        <v>56.625789473684122</v>
+      </c>
+      <c r="AY80" s="27">
+        <f t="shared" si="12"/>
+        <v>0.55549899473684128</v>
+      </c>
+      <c r="AZ80" s="27">
+        <f t="shared" si="13"/>
+        <v>0.1851663315789471</v>
+      </c>
+      <c r="BA80" s="27">
         <f t="shared" si="7"/>
-        <v>3.7836473684210494</v>
-      </c>
-      <c r="AX80" s="27">
+        <v>3.5551935663157841E-2</v>
+      </c>
+      <c r="BB80" s="29">
         <f t="shared" si="8"/>
-        <v>56.625789473684122</v>
-      </c>
-      <c r="AY80" s="27">
-        <f t="shared" si="9"/>
-        <v>0.55549899473684128</v>
-      </c>
-      <c r="AZ80" s="27">
-        <f t="shared" si="10"/>
-        <v>0.1851663315789471</v>
-      </c>
-      <c r="BA80" s="27">
-        <f t="shared" si="4"/>
-        <v>3.5551935663157841E-2</v>
-      </c>
-      <c r="BB80" s="29">
-        <f t="shared" si="5"/>
         <v>7826.2756998252307</v>
       </c>
-      <c r="BC80" s="16"/>
-      <c r="BD80" s="16"/>
+      <c r="BC80" s="20">
+        <f t="shared" si="14"/>
+        <v>22.683165113019353</v>
+      </c>
+      <c r="BD80" s="20">
+        <f t="shared" si="15"/>
+        <v>2.8983345313947848E-3</v>
+      </c>
       <c r="BE80" s="16"/>
       <c r="BF80" s="16"/>
     </row>
@@ -16394,39 +17162,45 @@
       <c r="AS81" s="16"/>
       <c r="AT81" s="16"/>
       <c r="AU81" s="29">
+        <f t="shared" si="16"/>
+        <v>3921.0526315789452</v>
+      </c>
+      <c r="AV81" s="28">
+        <f t="shared" si="9"/>
+        <v>6.1845263157894683</v>
+      </c>
+      <c r="AW81" s="28">
+        <f t="shared" si="10"/>
+        <v>3.8941736842105232</v>
+      </c>
+      <c r="AX81" s="27">
         <f t="shared" si="11"/>
-        <v>3921.0526315789452</v>
-      </c>
-      <c r="AV81" s="28">
-        <f t="shared" si="6"/>
-        <v>6.1845263157894683</v>
-      </c>
-      <c r="AW81" s="28">
+        <v>60.067894736842007</v>
+      </c>
+      <c r="AY81" s="27">
+        <f t="shared" si="12"/>
+        <v>0.58926604736842014</v>
+      </c>
+      <c r="AZ81" s="27">
+        <f t="shared" si="13"/>
+        <v>0.19642201578947338</v>
+      </c>
+      <c r="BA81" s="27">
         <f t="shared" si="7"/>
-        <v>3.8941736842105232</v>
-      </c>
-      <c r="AX81" s="27">
+        <v>3.7713027031578888E-2</v>
+      </c>
+      <c r="BB81" s="29">
         <f t="shared" si="8"/>
-        <v>60.067894736842007</v>
-      </c>
-      <c r="AY81" s="27">
-        <f t="shared" si="9"/>
-        <v>0.58926604736842014</v>
-      </c>
-      <c r="AZ81" s="27">
-        <f t="shared" si="10"/>
-        <v>0.19642201578947338</v>
-      </c>
-      <c r="BA81" s="27">
-        <f t="shared" si="4"/>
-        <v>3.7713027031578888E-2</v>
-      </c>
-      <c r="BB81" s="29">
-        <f t="shared" si="5"/>
         <v>8472.5998674596958</v>
       </c>
-      <c r="BC81" s="16"/>
-      <c r="BD81" s="16"/>
+      <c r="BC81" s="20">
+        <f t="shared" si="14"/>
+        <v>24.083619628254809</v>
+      </c>
+      <c r="BD81" s="20">
+        <f t="shared" si="15"/>
+        <v>2.8425300385955437E-3</v>
+      </c>
       <c r="BE81" s="16"/>
       <c r="BF81" s="16"/>
     </row>
@@ -16465,19 +17239,19 @@
         <v>4000</v>
       </c>
       <c r="AV82" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.3739999999999997</v>
       </c>
       <c r="AW82" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0046999999999997</v>
       </c>
       <c r="AX82" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>63.510000000000005</v>
       </c>
       <c r="AY82" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.62303310000000012</v>
       </c>
       <c r="AZ82" s="27">
@@ -16492,8 +17266,14 @@
         <f>BA82*AU82*(180/3.1415926535)</f>
         <v>9138.4747847609542</v>
       </c>
-      <c r="BC82" s="16"/>
-      <c r="BD82" s="16"/>
+      <c r="BC82" s="20">
+        <f t="shared" si="14"/>
+        <v>25.525957799999997</v>
+      </c>
+      <c r="BD82" s="20">
+        <f t="shared" si="15"/>
+        <v>2.7932404915715602E-3</v>
+      </c>
       <c r="BE82" s="16"/>
       <c r="BF82" s="16"/>
     </row>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D446EF8-4079-4A14-9EFD-E0082E278C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB26EB-F7E5-4181-866B-F44A010963A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,8 +250,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -563,17 +563,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="10" applyAlignment="1">
@@ -584,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -19599,8 +19599,8 @@
   </sheetPr>
   <dimension ref="A1:CB159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BX4" sqref="BX4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19806,7 +19806,7 @@
       <c r="BK2" s="20"/>
       <c r="BL2" s="20"/>
       <c r="BM2" s="20"/>
-      <c r="BN2" s="42"/>
+      <c r="BN2" s="41"/>
       <c r="BO2" s="38" t="s">
         <v>32</v>
       </c>
@@ -19924,7 +19924,7 @@
       <c r="BM3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BN3" s="42"/>
+      <c r="BN3" s="41"/>
       <c r="BO3" s="32"/>
       <c r="BP3" s="33" t="s">
         <v>45</v>
@@ -19950,7 +19950,7 @@
       <c r="BW3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="BX3" s="44"/>
+      <c r="BX3" s="43"/>
       <c r="BY3" s="13"/>
       <c r="BZ3" s="13"/>
     </row>
@@ -20068,7 +20068,7 @@
       <c r="BM4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="BN4" s="43"/>
+      <c r="BN4" s="42"/>
       <c r="BO4" s="27" t="s">
         <v>58</v>
       </c>
@@ -20096,7 +20096,7 @@
       <c r="BW4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="BX4" s="45"/>
+      <c r="BX4" s="44"/>
       <c r="BY4" s="13"/>
       <c r="BZ4" s="13"/>
     </row>
@@ -20188,15 +20188,15 @@
         <v>1000</v>
       </c>
       <c r="BE5" s="23">
-        <f>0.00205*BD5-1.9899</f>
+        <f t="shared" ref="BE5:BE36" si="0">0.00205*BD5-1.9899</f>
         <v>6.0100000000000264E-2</v>
       </c>
       <c r="BF5" s="23">
-        <f>0.00155*BD5-2.26616</f>
+        <f t="shared" ref="BF5:BF36" si="1">0.00155*BD5-2.26616</f>
         <v>-0.71616000000000013</v>
       </c>
       <c r="BG5" s="34">
-        <f>BE5*BF5</f>
+        <f t="shared" ref="BG5:BG36" si="2">BE5*BF5</f>
         <v>-4.3041216000000194E-2</v>
       </c>
       <c r="BH5" s="13">
@@ -20208,7 +20208,7 @@
         <v>-0.50484300479999999</v>
       </c>
       <c r="BJ5" s="13">
-        <f t="shared" ref="BJ5:BJ35" si="0">BI5*128/1000</f>
+        <f t="shared" ref="BJ5:BJ35" si="3">BI5*128/1000</f>
         <v>-6.4619904614399995E-2</v>
       </c>
       <c r="BK5" s="13">
@@ -20223,7 +20223,7 @@
         <f>BK5/BL5</f>
         <v>157.22131110840215</v>
       </c>
-      <c r="BN5" s="42"/>
+      <c r="BN5" s="41"/>
       <c r="BO5" s="19">
         <v>1000</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>-141.48670000000001</v>
       </c>
       <c r="BS5" s="19">
-        <f>9.81*BR5/1000</f>
+        <f t="shared" ref="BS5:BS36" si="4">9.81*BR5/1000</f>
         <v>-1.3879845270000002</v>
       </c>
       <c r="BT5" s="19">
@@ -20248,11 +20248,11 @@
         <v>-0.46266150900000003</v>
       </c>
       <c r="BU5" s="19">
-        <f>BT5*BO5*0.10472</f>
+        <f t="shared" ref="BU5:BU36" si="5">BT5*BO5*0.10472</f>
         <v>-48.449913222479999</v>
       </c>
       <c r="BV5" s="19">
-        <f>BP5*BQ5</f>
+        <f t="shared" ref="BV5:BV36" si="6">BP5*BQ5</f>
         <v>-0.10701771999999987</v>
       </c>
       <c r="BW5" s="19">
@@ -20324,80 +20324,80 @@
       <c r="BB6" s="13"/>
       <c r="BC6" s="13"/>
       <c r="BD6" s="24">
-        <f>BD5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" ref="BD6:BD35" si="7">BD5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
         <v>1096.7741935483871</v>
       </c>
       <c r="BE6" s="23">
-        <f>0.00205*BD6-1.9899</f>
+        <f t="shared" si="0"/>
         <v>0.25848709677419368</v>
       </c>
       <c r="BF6" s="23">
-        <f>0.00155*BD6-2.26616</f>
+        <f t="shared" si="1"/>
         <v>-0.56616000000000022</v>
       </c>
       <c r="BG6" s="34">
-        <f>BE6*BF6</f>
+        <f t="shared" si="2"/>
         <v>-0.14634505470967754</v>
       </c>
       <c r="BH6" s="13">
-        <f t="shared" ref="BH6:BH36" si="1">0.06841*BD6-119.87208</f>
+        <f t="shared" ref="BH6:BH36" si="8">0.06841*BD6-119.87208</f>
         <v>-44.841757419354835</v>
       </c>
       <c r="BI6" s="13">
-        <f t="shared" ref="BI6:BI36" si="2">9.81*BH6/1000</f>
+        <f t="shared" ref="BI6:BI36" si="9">9.81*BH6/1000</f>
         <v>-0.43989764028387096</v>
       </c>
       <c r="BJ6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5.6306897956335485E-2</v>
       </c>
       <c r="BK6" s="13">
-        <f t="shared" ref="BK6:BK36" si="3">BJ6*BD6*0.10472</f>
+        <f t="shared" ref="BK6:BK36" si="10">BJ6*BD6*0.10472</f>
         <v>-6.4670833559862375</v>
       </c>
       <c r="BL6" s="13">
-        <f t="shared" ref="BL6:BL36" si="4">BE6*BF6</f>
+        <f t="shared" ref="BL6:BL36" si="11">BE6*BF6</f>
         <v>-0.14634505470967754</v>
       </c>
       <c r="BM6" s="13">
-        <f t="shared" ref="BM6:BM36" si="5">BK6/BL6</f>
+        <f t="shared" ref="BM6:BM36" si="12">BK6/BL6</f>
         <v>44.190651804502558</v>
       </c>
-      <c r="BN6" s="42"/>
+      <c r="BN6" s="41"/>
       <c r="BO6" s="24">
-        <f>BO5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" ref="BO6:BO35" si="13">BO5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
         <v>1096.7741935483871</v>
       </c>
       <c r="BP6" s="23">
-        <f t="shared" ref="BP6:BP36" si="6">0.00187*BO6-1.403</f>
+        <f t="shared" ref="BP6:BP36" si="14">0.00187*BO6-1.403</f>
         <v>0.64796774193548368</v>
       </c>
       <c r="BQ6" s="23">
-        <f t="shared" ref="BQ6:BQ36" si="7">0.00135*BO6-1.57916</f>
+        <f t="shared" ref="BQ6:BQ36" si="15">0.00135*BO6-1.57916</f>
         <v>-9.8514838709677255E-2</v>
       </c>
       <c r="BR6" s="19">
-        <f t="shared" ref="BR6:BR36" si="8">0.19489*BO6-336.3767</f>
+        <f t="shared" ref="BR6:BR36" si="16">0.19489*BO6-336.3767</f>
         <v>-122.62637741935487</v>
       </c>
       <c r="BS6" s="19">
-        <f>9.81*BR6/1000</f>
+        <f t="shared" si="4"/>
         <v>-1.2029647624838713</v>
       </c>
       <c r="BT6" s="19">
-        <f t="shared" ref="BT6:BT36" si="9">BS6*(64/192)</f>
+        <f t="shared" ref="BT6:BT36" si="17">BS6*(64/192)</f>
         <v>-0.40098825416129041</v>
       </c>
       <c r="BU6" s="19">
-        <f>BT6*BO6*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-46.055182554070683</v>
       </c>
       <c r="BV6" s="19">
-        <f>BP6*BQ6</f>
+        <f t="shared" si="6"/>
         <v>-6.3834437585847947E-2</v>
       </c>
       <c r="BW6" s="19">
-        <f t="shared" ref="BW6:BW36" si="10">BU6/BV6</f>
+        <f t="shared" ref="BW6:BW36" si="18">BU6/BV6</f>
         <v>721.47862965242268</v>
       </c>
       <c r="BX6" s="13"/>
@@ -20465,80 +20465,80 @@
       <c r="BB7" s="13"/>
       <c r="BC7" s="13"/>
       <c r="BD7" s="24">
-        <f>BD6+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1193.5483870967741</v>
       </c>
       <c r="BE7" s="23">
-        <f>0.00205*BD7-1.9899</f>
+        <f t="shared" si="0"/>
         <v>0.4568741935483871</v>
       </c>
       <c r="BF7" s="23">
-        <f>0.00155*BD7-2.26616</f>
+        <f t="shared" si="1"/>
         <v>-0.41616000000000031</v>
       </c>
       <c r="BG7" s="34">
-        <f>BE7*BF7</f>
+        <f t="shared" si="2"/>
         <v>-0.19013276438709692</v>
       </c>
       <c r="BH7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-38.221434838709683</v>
       </c>
       <c r="BI7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.37495227576774204</v>
       </c>
       <c r="BJ7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4.7993891298270981E-2</v>
       </c>
       <c r="BK7" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-5.9986790638687957</v>
       </c>
       <c r="BL7" s="13">
+        <f t="shared" si="11"/>
+        <v>-0.19013276438709692</v>
+      </c>
+      <c r="BM7" s="13">
+        <f t="shared" si="12"/>
+        <v>31.549949232610469</v>
+      </c>
+      <c r="BN7" s="41"/>
+      <c r="BO7" s="24">
+        <f t="shared" si="13"/>
+        <v>1193.5483870967741</v>
+      </c>
+      <c r="BP7" s="23">
+        <f t="shared" si="14"/>
+        <v>0.82893548387096772</v>
+      </c>
+      <c r="BQ7" s="23">
+        <f t="shared" si="15"/>
+        <v>3.2130322580645299E-2</v>
+      </c>
+      <c r="BR7" s="19">
+        <f t="shared" si="16"/>
+        <v>-103.76605483870969</v>
+      </c>
+      <c r="BS7" s="19">
         <f t="shared" si="4"/>
-        <v>-0.19013276438709692</v>
-      </c>
-      <c r="BM7" s="13">
+        <v>-1.0179449979677422</v>
+      </c>
+      <c r="BT7" s="19">
+        <f t="shared" si="17"/>
+        <v>-0.33931499932258069</v>
+      </c>
+      <c r="BU7" s="19">
         <f t="shared" si="5"/>
-        <v>31.549949232610469</v>
-      </c>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="24">
-        <f>BO6+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1193.5483870967741</v>
-      </c>
-      <c r="BP7" s="23">
+        <v>-42.410434483072379</v>
+      </c>
+      <c r="BV7" s="19">
         <f t="shared" si="6"/>
-        <v>0.82893548387096772</v>
-      </c>
-      <c r="BQ7" s="23">
-        <f t="shared" si="7"/>
-        <v>3.2130322580645299E-2</v>
-      </c>
-      <c r="BR7" s="19">
-        <f t="shared" si="8"/>
-        <v>-103.76605483870969</v>
-      </c>
-      <c r="BS7" s="19">
-        <f>9.81*BR7/1000</f>
-        <v>-1.0179449979677422</v>
-      </c>
-      <c r="BT7" s="19">
-        <f t="shared" si="9"/>
-        <v>-0.33931499932258069</v>
-      </c>
-      <c r="BU7" s="19">
-        <f>BT7*BO7*0.10472</f>
-        <v>-42.410434483072379</v>
-      </c>
-      <c r="BV7" s="19">
-        <f>BP7*BQ7</f>
         <v>2.6633964495317491E-2</v>
       </c>
       <c r="BW7" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1592.3440346452569</v>
       </c>
       <c r="BX7" s="13"/>
@@ -20606,80 +20606,80 @@
       <c r="BB8" s="13"/>
       <c r="BC8" s="13"/>
       <c r="BD8" s="24">
-        <f>BD7+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1290.3225806451612</v>
       </c>
       <c r="BE8" s="23">
-        <f>0.00205*BD8-1.9899</f>
+        <f t="shared" si="0"/>
         <v>0.65526129032258051</v>
       </c>
       <c r="BF8" s="23">
-        <f>0.00155*BD8-2.26616</f>
+        <f t="shared" si="1"/>
         <v>-0.2661600000000004</v>
       </c>
       <c r="BG8" s="34">
-        <f>BE8*BF8</f>
+        <f t="shared" si="2"/>
         <v>-0.1744043450322583</v>
       </c>
       <c r="BH8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-31.601112258064518</v>
       </c>
       <c r="BI8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.31000691125161295</v>
       </c>
       <c r="BJ8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.9680884640206457E-2</v>
       </c>
       <c r="BK8" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-5.3617835348676381</v>
       </c>
       <c r="BL8" s="13">
+        <f t="shared" si="11"/>
+        <v>-0.1744043450322583</v>
+      </c>
+      <c r="BM8" s="13">
+        <f t="shared" si="12"/>
+        <v>30.743405698269203</v>
+      </c>
+      <c r="BN8" s="41"/>
+      <c r="BO8" s="24">
+        <f t="shared" si="13"/>
+        <v>1290.3225806451612</v>
+      </c>
+      <c r="BP8" s="23">
+        <f t="shared" si="14"/>
+        <v>1.0099032258064513</v>
+      </c>
+      <c r="BQ8" s="23">
+        <f t="shared" si="15"/>
+        <v>0.16277548387096785</v>
+      </c>
+      <c r="BR8" s="19">
+        <f t="shared" si="16"/>
+        <v>-84.905732258064546</v>
+      </c>
+      <c r="BS8" s="19">
         <f t="shared" si="4"/>
-        <v>-0.1744043450322583</v>
-      </c>
-      <c r="BM8" s="13">
+        <v>-0.83292523345161329</v>
+      </c>
+      <c r="BT8" s="19">
+        <f t="shared" si="17"/>
+        <v>-0.27764174448387108</v>
+      </c>
+      <c r="BU8" s="19">
         <f t="shared" si="5"/>
-        <v>30.743405698269203</v>
-      </c>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="24">
-        <f>BO7+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1290.3225806451612</v>
-      </c>
-      <c r="BP8" s="23">
+        <v>-37.51566900948513</v>
+      </c>
+      <c r="BV8" s="19">
         <f t="shared" si="6"/>
-        <v>1.0099032258064513</v>
-      </c>
-      <c r="BQ8" s="23">
-        <f t="shared" si="7"/>
-        <v>0.16277548387096785</v>
-      </c>
-      <c r="BR8" s="19">
-        <f t="shared" si="8"/>
-        <v>-84.905732258064546</v>
-      </c>
-      <c r="BS8" s="19">
-        <f>9.81*BR8/1000</f>
-        <v>-0.83292523345161329</v>
-      </c>
-      <c r="BT8" s="19">
-        <f t="shared" si="9"/>
-        <v>-0.27764174448387108</v>
-      </c>
-      <c r="BU8" s="19">
-        <f>BT8*BO8*0.10472</f>
-        <v>-37.51566900948513</v>
-      </c>
-      <c r="BV8" s="19">
-        <f>BP8*BQ8</f>
         <v>0.16438748624349642</v>
       </c>
       <c r="BW8" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-228.21487125799604</v>
       </c>
       <c r="BX8" s="13"/>
@@ -20747,80 +20747,80 @@
       <c r="BB9" s="13"/>
       <c r="BC9" s="13"/>
       <c r="BD9" s="24">
-        <f>BD8+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1387.0967741935483</v>
       </c>
       <c r="BE9" s="23">
-        <f>0.00205*BD9-1.9899</f>
+        <f t="shared" si="0"/>
         <v>0.85364838709677437</v>
       </c>
       <c r="BF9" s="23">
-        <f>0.00155*BD9-2.26616</f>
+        <f t="shared" si="1"/>
         <v>-0.11616000000000026</v>
       </c>
       <c r="BG9" s="34">
-        <f>BE9*BF9</f>
+        <f t="shared" si="2"/>
         <v>-9.915979664516153E-2</v>
       </c>
       <c r="BH9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-24.980789677419367</v>
       </c>
       <c r="BI9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.245061546735484</v>
       </c>
       <c r="BJ9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.1367877982141953E-2</v>
       </c>
       <c r="BK9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-4.5563967689827711</v>
       </c>
       <c r="BL9" s="13">
+        <f t="shared" si="11"/>
+        <v>-9.915979664516153E-2</v>
+      </c>
+      <c r="BM9" s="13">
+        <f t="shared" si="12"/>
+        <v>45.950041479891425</v>
+      </c>
+      <c r="BN9" s="41"/>
+      <c r="BO9" s="24">
+        <f t="shared" si="13"/>
+        <v>1387.0967741935483</v>
+      </c>
+      <c r="BP9" s="23">
+        <f t="shared" si="14"/>
+        <v>1.1908709677419353</v>
+      </c>
+      <c r="BQ9" s="23">
+        <f t="shared" si="15"/>
+        <v>0.29342064516129041</v>
+      </c>
+      <c r="BR9" s="19">
+        <f t="shared" si="16"/>
+        <v>-66.0454096774194</v>
+      </c>
+      <c r="BS9" s="19">
         <f t="shared" si="4"/>
-        <v>-9.915979664516153E-2</v>
-      </c>
-      <c r="BM9" s="13">
+        <v>-0.6479054689354844</v>
+      </c>
+      <c r="BT9" s="19">
+        <f t="shared" si="17"/>
+        <v>-0.21596848964516147</v>
+      </c>
+      <c r="BU9" s="19">
         <f t="shared" si="5"/>
-        <v>45.950041479891425</v>
-      </c>
-      <c r="BN9" s="42"/>
-      <c r="BO9" s="24">
-        <f>BO8+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1387.0967741935483</v>
-      </c>
-      <c r="BP9" s="23">
+        <v>-31.370886133308908</v>
+      </c>
+      <c r="BV9" s="19">
         <f t="shared" si="6"/>
-        <v>1.1908709677419353</v>
-      </c>
-      <c r="BQ9" s="23">
-        <f t="shared" si="7"/>
-        <v>0.29342064516129041</v>
-      </c>
-      <c r="BR9" s="19">
-        <f t="shared" si="8"/>
-        <v>-66.0454096774194</v>
-      </c>
-      <c r="BS9" s="19">
-        <f>9.81*BR9/1000</f>
-        <v>-0.6479054689354844</v>
-      </c>
-      <c r="BT9" s="19">
-        <f t="shared" si="9"/>
-        <v>-0.21596848964516147</v>
-      </c>
-      <c r="BU9" s="19">
-        <f>BT9*BO9*0.10472</f>
-        <v>-31.370886133308908</v>
-      </c>
-      <c r="BV9" s="19">
-        <f>BP9*BQ9</f>
         <v>0.34942612765868891</v>
       </c>
       <c r="BW9" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-89.778306915707347</v>
       </c>
       <c r="BX9" s="13"/>
@@ -20888,80 +20888,80 @@
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
       <c r="BD10" s="24">
-        <f>BD9+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1483.8709677419354</v>
       </c>
       <c r="BE10" s="23">
-        <f>0.00205*BD10-1.9899</f>
+        <f t="shared" si="0"/>
         <v>1.0520354838709678</v>
       </c>
       <c r="BF10" s="23">
-        <f>0.00155*BD10-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.3839999999999648E-2</v>
       </c>
       <c r="BG10" s="34">
-        <f>BE10*BF10</f>
+        <f t="shared" si="2"/>
         <v>3.5600880774193183E-2</v>
       </c>
       <c r="BH10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-18.360467096774201</v>
       </c>
       <c r="BI10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.18011618221935494</v>
       </c>
       <c r="BJ10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.3054871324077433E-2</v>
       </c>
       <c r="BK10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-3.5825187662141893</v>
       </c>
       <c r="BL10" s="13">
+        <f t="shared" si="11"/>
+        <v>3.5600880774193183E-2</v>
+      </c>
+      <c r="BM10" s="13">
+        <f t="shared" si="12"/>
+        <v>-100.63005993972854</v>
+      </c>
+      <c r="BN10" s="41"/>
+      <c r="BO10" s="24">
+        <f t="shared" si="13"/>
+        <v>1483.8709677419354</v>
+      </c>
+      <c r="BP10" s="23">
+        <f t="shared" si="14"/>
+        <v>1.3718387096774189</v>
+      </c>
+      <c r="BQ10" s="23">
+        <f t="shared" si="15"/>
+        <v>0.42406580645161318</v>
+      </c>
+      <c r="BR10" s="19">
+        <f t="shared" si="16"/>
+        <v>-47.185087096774225</v>
+      </c>
+      <c r="BS10" s="19">
         <f t="shared" si="4"/>
-        <v>3.5600880774193183E-2</v>
-      </c>
-      <c r="BM10" s="13">
+        <v>-0.46288570441935517</v>
+      </c>
+      <c r="BT10" s="19">
+        <f t="shared" si="17"/>
+        <v>-0.15429523480645171</v>
+      </c>
+      <c r="BU10" s="19">
         <f t="shared" si="5"/>
-        <v>-100.63005993972854</v>
-      </c>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="24">
-        <f>BO9+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1483.8709677419354</v>
-      </c>
-      <c r="BP10" s="23">
+        <v>-23.976085854543697</v>
+      </c>
+      <c r="BV10" s="19">
         <f t="shared" si="6"/>
-        <v>1.3718387096774189</v>
-      </c>
-      <c r="BQ10" s="23">
-        <f t="shared" si="7"/>
-        <v>0.42406580645161318</v>
-      </c>
-      <c r="BR10" s="19">
-        <f t="shared" si="8"/>
-        <v>-47.185087096774225</v>
-      </c>
-      <c r="BS10" s="19">
-        <f>9.81*BR10/1000</f>
-        <v>-0.46288570441935517</v>
-      </c>
-      <c r="BT10" s="19">
-        <f t="shared" si="9"/>
-        <v>-0.15429523480645171</v>
-      </c>
-      <c r="BU10" s="19">
-        <f>BT10*BO10*0.10472</f>
-        <v>-23.976085854543697</v>
-      </c>
-      <c r="BV10" s="19">
-        <f>BP10*BQ10</f>
         <v>0.58174988874089506</v>
       </c>
       <c r="BW10" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-41.213735178250083</v>
       </c>
       <c r="BX10" s="13"/>
@@ -21032,80 +21032,80 @@
       <c r="BB11" s="13"/>
       <c r="BC11" s="13"/>
       <c r="BD11" s="24">
-        <f>BD10+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1580.6451612903224</v>
       </c>
       <c r="BE11" s="23">
-        <f>0.00205*BD11-1.9899</f>
+        <f t="shared" si="0"/>
         <v>1.2504225806451612</v>
       </c>
       <c r="BF11" s="23">
-        <f>0.00155*BD11-2.26616</f>
+        <f t="shared" si="1"/>
         <v>0.18383999999999956</v>
       </c>
       <c r="BG11" s="34">
-        <f>BE11*BF11</f>
+        <f t="shared" si="2"/>
         <v>0.2298776872258059</v>
       </c>
       <c r="BH11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-11.740144516129035</v>
       </c>
       <c r="BI11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.11517081770322585</v>
       </c>
       <c r="BJ11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.4741864666012908E-2</v>
       </c>
       <c r="BK11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-2.4401495265618935</v>
       </c>
       <c r="BL11" s="13">
+        <f t="shared" si="11"/>
+        <v>0.2298776872258059</v>
+      </c>
+      <c r="BM11" s="13">
+        <f t="shared" si="12"/>
+        <v>-10.614990763174704</v>
+      </c>
+      <c r="BN11" s="41"/>
+      <c r="BO11" s="24">
+        <f t="shared" si="13"/>
+        <v>1580.6451612903224</v>
+      </c>
+      <c r="BP11" s="23">
+        <f t="shared" si="14"/>
+        <v>1.552806451612903</v>
+      </c>
+      <c r="BQ11" s="23">
+        <f t="shared" si="15"/>
+        <v>0.55471096774193551</v>
+      </c>
+      <c r="BR11" s="19">
+        <f t="shared" si="16"/>
+        <v>-28.324764516129051</v>
+      </c>
+      <c r="BS11" s="19">
         <f t="shared" si="4"/>
-        <v>0.2298776872258059</v>
-      </c>
-      <c r="BM11" s="13">
+        <v>-0.277865939903226</v>
+      </c>
+      <c r="BT11" s="19">
+        <f t="shared" si="17"/>
+        <v>-9.2621979967741991E-2</v>
+      </c>
+      <c r="BU11" s="19">
         <f t="shared" si="5"/>
-        <v>-10.614990763174704</v>
-      </c>
-      <c r="BN11" s="42"/>
-      <c r="BO11" s="24">
-        <f>BO10+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1580.6451612903224</v>
-      </c>
-      <c r="BP11" s="23">
+        <v>-15.331268173189519</v>
+      </c>
+      <c r="BV11" s="19">
         <f t="shared" si="6"/>
-        <v>1.552806451612903</v>
-      </c>
-      <c r="BQ11" s="23">
-        <f t="shared" si="7"/>
-        <v>0.55471096774193551</v>
-      </c>
-      <c r="BR11" s="19">
-        <f t="shared" si="8"/>
-        <v>-28.324764516129051</v>
-      </c>
-      <c r="BS11" s="19">
-        <f>9.81*BR11/1000</f>
-        <v>-0.277865939903226</v>
-      </c>
-      <c r="BT11" s="19">
-        <f t="shared" si="9"/>
-        <v>-9.2621979967741991E-2</v>
-      </c>
-      <c r="BU11" s="19">
-        <f>BT11*BO11*0.10472</f>
-        <v>-15.331268173189519</v>
-      </c>
-      <c r="BV11" s="19">
-        <f>BP11*BQ11</f>
         <v>0.86135876949011436</v>
       </c>
       <c r="BW11" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-17.79893433054027</v>
       </c>
       <c r="BX11" s="13"/>
@@ -21173,80 +21173,80 @@
       <c r="BB12" s="13"/>
       <c r="BC12" s="13"/>
       <c r="BD12" s="24">
-        <f>BD11+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1677.4193548387095</v>
       </c>
       <c r="BE12" s="23">
-        <f>0.00205*BD12-1.9899</f>
+        <f t="shared" si="0"/>
         <v>1.4488096774193546</v>
       </c>
       <c r="BF12" s="23">
-        <f>0.00155*BD12-2.26616</f>
+        <f t="shared" si="1"/>
         <v>0.33383999999999947</v>
       </c>
       <c r="BG12" s="34">
-        <f>BE12*BF12</f>
+        <f t="shared" si="2"/>
         <v>0.48367062270967659</v>
       </c>
       <c r="BH12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-5.1198219354838841</v>
       </c>
       <c r="BI12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-5.0225453187096904E-2</v>
       </c>
       <c r="BJ12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6.4288580079484041E-3</v>
       </c>
       <c r="BK12" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-1.129289050025889</v>
       </c>
       <c r="BL12" s="13">
+        <f t="shared" si="11"/>
+        <v>0.48367062270967659</v>
+      </c>
+      <c r="BM12" s="13">
+        <f t="shared" si="12"/>
+        <v>-2.3348307649930291</v>
+      </c>
+      <c r="BN12" s="41"/>
+      <c r="BO12" s="24">
+        <f t="shared" si="13"/>
+        <v>1677.4193548387095</v>
+      </c>
+      <c r="BP12" s="23">
+        <f t="shared" si="14"/>
+        <v>1.7337741935483866</v>
+      </c>
+      <c r="BQ12" s="23">
+        <f t="shared" si="15"/>
+        <v>0.68535612903225829</v>
+      </c>
+      <c r="BR12" s="19">
+        <f t="shared" si="16"/>
+        <v>-9.4644419354839329</v>
+      </c>
+      <c r="BS12" s="19">
         <f t="shared" si="4"/>
-        <v>0.48367062270967659</v>
-      </c>
-      <c r="BM12" s="13">
+        <v>-9.2846175387097385E-2</v>
+      </c>
+      <c r="BT12" s="19">
+        <f t="shared" si="17"/>
+        <v>-3.0948725129032462E-2</v>
+      </c>
+      <c r="BU12" s="19">
         <f t="shared" si="5"/>
-        <v>-2.3348307649930291</v>
-      </c>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="24">
-        <f>BO11+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1677.4193548387095</v>
-      </c>
-      <c r="BP12" s="23">
+        <v>-5.4364330892464032</v>
+      </c>
+      <c r="BV12" s="19">
         <f t="shared" si="6"/>
-        <v>1.7337741935483866</v>
-      </c>
-      <c r="BQ12" s="23">
-        <f t="shared" si="7"/>
-        <v>0.68535612903225829</v>
-      </c>
-      <c r="BR12" s="19">
-        <f t="shared" si="8"/>
-        <v>-9.4644419354839329</v>
-      </c>
-      <c r="BS12" s="19">
-        <f>9.81*BR12/1000</f>
-        <v>-9.2846175387097385E-2</v>
-      </c>
-      <c r="BT12" s="19">
-        <f t="shared" si="9"/>
-        <v>-3.0948725129032462E-2</v>
-      </c>
-      <c r="BU12" s="19">
-        <f>BT12*BO12*0.10472</f>
-        <v>-5.4364330892464032</v>
-      </c>
-      <c r="BV12" s="19">
-        <f>BP12*BQ12</f>
         <v>1.1882527699063477</v>
       </c>
       <c r="BW12" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-4.575148677898623</v>
       </c>
       <c r="BX12" s="13"/>
@@ -21314,80 +21314,80 @@
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
       <c r="BD13" s="24">
-        <f>BD12+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1774.1935483870966</v>
       </c>
       <c r="BE13" s="23">
-        <f>0.00205*BD13-1.9899</f>
+        <f t="shared" si="0"/>
         <v>1.6471967741935485</v>
       </c>
       <c r="BF13" s="23">
-        <f>0.00155*BD13-2.26616</f>
+        <f t="shared" si="1"/>
         <v>0.48383999999999938</v>
       </c>
       <c r="BG13" s="34">
-        <f>BE13*BF13</f>
+        <f t="shared" si="2"/>
         <v>0.79697968722580548</v>
       </c>
       <c r="BH13" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.5005006451612815</v>
       </c>
       <c r="BI13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4719911329032172E-2</v>
       </c>
       <c r="BJ13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.884148650116118E-3</v>
       </c>
       <c r="BK13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.35006266339383196</v>
       </c>
       <c r="BL13" s="13">
+        <f t="shared" si="11"/>
+        <v>0.79697968722580548</v>
+      </c>
+      <c r="BM13" s="13">
+        <f t="shared" si="12"/>
+        <v>0.43923661920714663</v>
+      </c>
+      <c r="BN13" s="41"/>
+      <c r="BO13" s="24">
+        <f t="shared" si="13"/>
+        <v>1774.1935483870966</v>
+      </c>
+      <c r="BP13" s="23">
+        <f t="shared" si="14"/>
+        <v>1.9147419354838706</v>
+      </c>
+      <c r="BQ13" s="23">
+        <f t="shared" si="15"/>
+        <v>0.81600129032258062</v>
+      </c>
+      <c r="BR13" s="19">
+        <f t="shared" si="16"/>
+        <v>9.3958806451612418</v>
+      </c>
+      <c r="BS13" s="19">
         <f t="shared" si="4"/>
-        <v>0.79697968722580548</v>
-      </c>
-      <c r="BM13" s="13">
+        <v>9.2173589129031785E-2</v>
+      </c>
+      <c r="BT13" s="19">
+        <f t="shared" si="17"/>
+        <v>3.0724529709677262E-2</v>
+      </c>
+      <c r="BU13" s="19">
         <f t="shared" si="5"/>
-        <v>0.43923661920714663</v>
-      </c>
-      <c r="BN13" s="42"/>
-      <c r="BO13" s="24">
-        <f>BO12+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1774.1935483870966</v>
-      </c>
-      <c r="BP13" s="23">
+        <v>5.7084193972857138</v>
+      </c>
+      <c r="BV13" s="19">
         <f t="shared" si="6"/>
-        <v>1.9147419354838706</v>
-      </c>
-      <c r="BQ13" s="23">
-        <f t="shared" si="7"/>
-        <v>0.81600129032258062</v>
-      </c>
-      <c r="BR13" s="19">
-        <f t="shared" si="8"/>
-        <v>9.3958806451612418</v>
-      </c>
-      <c r="BS13" s="19">
-        <f>9.81*BR13/1000</f>
-        <v>9.2173589129031785E-2</v>
-      </c>
-      <c r="BT13" s="19">
-        <f t="shared" si="9"/>
-        <v>3.0724529709677262E-2</v>
-      </c>
-      <c r="BU13" s="19">
-        <f>BT13*BO13*0.10472</f>
-        <v>5.7084193972857138</v>
-      </c>
-      <c r="BV13" s="19">
-        <f>BP13*BQ13</f>
         <v>1.5624318899895939</v>
       </c>
       <c r="BW13" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.6535476738917132</v>
       </c>
       <c r="BX13" s="13"/>
@@ -21443,80 +21443,80 @@
       <c r="BB14" s="13"/>
       <c r="BC14" s="13"/>
       <c r="BD14" s="24">
-        <f>BD13+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1870.9677419354837</v>
       </c>
       <c r="BE14" s="23">
-        <f>0.00205*BD14-1.9899</f>
+        <f t="shared" si="0"/>
         <v>1.8455838709677419</v>
       </c>
       <c r="BF14" s="23">
-        <f>0.00155*BD14-2.26616</f>
+        <f t="shared" si="1"/>
         <v>0.63383999999999929</v>
       </c>
       <c r="BG14" s="34">
-        <f>BE14*BF14</f>
+        <f t="shared" si="2"/>
         <v>1.1698048807741923</v>
       </c>
       <c r="BH14" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8.1208232258064328</v>
       </c>
       <c r="BI14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7.9665275845161101E-2</v>
       </c>
       <c r="BJ14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0197155308180621E-2</v>
       </c>
       <c r="BK14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.9979056136972619</v>
       </c>
       <c r="BL14" s="13">
+        <f t="shared" si="11"/>
+        <v>1.1698048807741923</v>
+      </c>
+      <c r="BM14" s="13">
+        <f t="shared" si="12"/>
+        <v>1.7078964590872809</v>
+      </c>
+      <c r="BN14" s="41"/>
+      <c r="BO14" s="24">
+        <f t="shared" si="13"/>
+        <v>1870.9677419354837</v>
+      </c>
+      <c r="BP14" s="23">
+        <f t="shared" si="14"/>
+        <v>2.0957096774193542</v>
+      </c>
+      <c r="BQ14" s="23">
+        <f t="shared" si="15"/>
+        <v>0.94664645161290339</v>
+      </c>
+      <c r="BR14" s="19">
+        <f t="shared" si="16"/>
+        <v>28.256203225806416</v>
+      </c>
+      <c r="BS14" s="19">
         <f t="shared" si="4"/>
-        <v>1.1698048807741923</v>
-      </c>
-      <c r="BM14" s="13">
+        <v>0.27719335364516096</v>
+      </c>
+      <c r="BT14" s="19">
+        <f t="shared" si="17"/>
+        <v>9.2397784548386985E-2</v>
+      </c>
+      <c r="BU14" s="19">
         <f t="shared" si="5"/>
-        <v>1.7078964590872809</v>
-      </c>
-      <c r="BN14" s="42"/>
-      <c r="BO14" s="24">
-        <f>BO13+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1870.9677419354837</v>
-      </c>
-      <c r="BP14" s="23">
+        <v>18.103289286406802</v>
+      </c>
+      <c r="BV14" s="19">
         <f t="shared" si="6"/>
-        <v>2.0957096774193542</v>
-      </c>
-      <c r="BQ14" s="23">
-        <f t="shared" si="7"/>
-        <v>0.94664645161290339</v>
-      </c>
-      <c r="BR14" s="19">
-        <f t="shared" si="8"/>
-        <v>28.256203225806416</v>
-      </c>
-      <c r="BS14" s="19">
-        <f>9.81*BR14/1000</f>
-        <v>0.27719335364516096</v>
-      </c>
-      <c r="BT14" s="19">
-        <f t="shared" si="9"/>
-        <v>9.2397784548386985E-2</v>
-      </c>
-      <c r="BU14" s="19">
-        <f>BT14*BO14*0.10472</f>
-        <v>18.103289286406802</v>
-      </c>
-      <c r="BV14" s="19">
-        <f>BP14*BQ14</f>
         <v>1.9838961297398541</v>
       </c>
       <c r="BW14" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9.125119513580918</v>
       </c>
       <c r="BX14" s="13"/>
@@ -21574,80 +21574,80 @@
       <c r="BB15" s="13"/>
       <c r="BC15" s="13"/>
       <c r="BD15" s="24">
-        <f>BD14+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>1967.7419354838707</v>
       </c>
       <c r="BE15" s="23">
-        <f>0.00205*BD15-1.9899</f>
+        <f t="shared" si="0"/>
         <v>2.0439709677419358</v>
       </c>
       <c r="BF15" s="23">
-        <f>0.00155*BD15-2.26616</f>
+        <f t="shared" si="1"/>
         <v>0.7838399999999992</v>
       </c>
       <c r="BG15" s="34">
-        <f>BE15*BF15</f>
+        <f t="shared" si="2"/>
         <v>1.6021462033548373</v>
       </c>
       <c r="BH15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14.741145806451598</v>
       </c>
       <c r="BI15" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1446106403612902</v>
       </c>
       <c r="BJ15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.8510161966245147E-2</v>
       </c>
       <c r="BK15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.8142398008844092</v>
       </c>
       <c r="BL15" s="13">
+        <f t="shared" si="11"/>
+        <v>1.6021462033548373</v>
+      </c>
+      <c r="BM15" s="13">
+        <f t="shared" si="12"/>
+        <v>2.3807064504459872</v>
+      </c>
+      <c r="BN15" s="41"/>
+      <c r="BO15" s="24">
+        <f t="shared" si="13"/>
+        <v>1967.7419354838707</v>
+      </c>
+      <c r="BP15" s="23">
+        <f t="shared" si="14"/>
+        <v>2.2766774193548382</v>
+      </c>
+      <c r="BQ15" s="23">
+        <f t="shared" si="15"/>
+        <v>1.0772916129032257</v>
+      </c>
+      <c r="BR15" s="19">
+        <f t="shared" si="16"/>
+        <v>47.116525806451534</v>
+      </c>
+      <c r="BS15" s="19">
         <f t="shared" si="4"/>
-        <v>1.6021462033548373</v>
-      </c>
-      <c r="BM15" s="13">
+        <v>0.46221311816128957</v>
+      </c>
+      <c r="BT15" s="19">
+        <f t="shared" si="17"/>
+        <v>0.15407103938709651</v>
+      </c>
+      <c r="BU15" s="19">
         <f t="shared" si="5"/>
-        <v>2.3807064504459872</v>
-      </c>
-      <c r="BN15" s="42"/>
-      <c r="BO15" s="24">
-        <f>BO14+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>1967.7419354838707</v>
-      </c>
-      <c r="BP15" s="23">
+        <v>31.748176578116816</v>
+      </c>
+      <c r="BV15" s="19">
         <f t="shared" si="6"/>
-        <v>2.2766774193548382</v>
-      </c>
-      <c r="BQ15" s="23">
-        <f t="shared" si="7"/>
-        <v>1.0772916129032257</v>
-      </c>
-      <c r="BR15" s="19">
-        <f t="shared" si="8"/>
-        <v>47.116525806451534</v>
-      </c>
-      <c r="BS15" s="19">
-        <f>9.81*BR15/1000</f>
-        <v>0.46221311816128957</v>
-      </c>
-      <c r="BT15" s="19">
-        <f t="shared" si="9"/>
-        <v>0.15407103938709651</v>
-      </c>
-      <c r="BU15" s="19">
-        <f>BT15*BO15*0.10472</f>
-        <v>31.748176578116816</v>
-      </c>
-      <c r="BV15" s="19">
-        <f>BP15*BQ15</f>
         <v>2.4526454891571272</v>
       </c>
       <c r="BW15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>12.94446209958674</v>
       </c>
       <c r="BX15" s="13"/>
@@ -21715,80 +21715,80 @@
       <c r="BB16" s="13"/>
       <c r="BC16" s="13"/>
       <c r="BD16" s="24">
-        <f>BD15+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2064.516129032258</v>
       </c>
       <c r="BE16" s="23">
-        <f>0.00205*BD16-1.9899</f>
+        <f t="shared" si="0"/>
         <v>2.2423580645161292</v>
       </c>
       <c r="BF16" s="23">
-        <f>0.00155*BD16-2.26616</f>
+        <f t="shared" si="1"/>
         <v>0.93383999999999956</v>
       </c>
       <c r="BG16" s="34">
-        <f>BE16*BF16</f>
+        <f t="shared" si="2"/>
         <v>2.0940036549677412</v>
       </c>
       <c r="BH16" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>21.361468387096764</v>
       </c>
       <c r="BI16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.20955600487741927</v>
       </c>
       <c r="BJ16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.6823168624309664E-2</v>
       </c>
       <c r="BK16" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>5.7990652249552683</v>
       </c>
       <c r="BL16" s="13">
+        <f t="shared" si="11"/>
+        <v>2.0940036549677412</v>
+      </c>
+      <c r="BM16" s="13">
+        <f t="shared" si="12"/>
+        <v>2.7693672889241467</v>
+      </c>
+      <c r="BN16" s="41"/>
+      <c r="BO16" s="24">
+        <f t="shared" si="13"/>
+        <v>2064.516129032258</v>
+      </c>
+      <c r="BP16" s="23">
+        <f t="shared" si="14"/>
+        <v>2.4576451612903223</v>
+      </c>
+      <c r="BQ16" s="23">
+        <f t="shared" si="15"/>
+        <v>1.2079367741935485</v>
+      </c>
+      <c r="BR16" s="19">
+        <f t="shared" si="16"/>
+        <v>65.976848387096766</v>
+      </c>
+      <c r="BS16" s="19">
         <f t="shared" si="4"/>
-        <v>2.0940036549677412</v>
-      </c>
-      <c r="BM16" s="13">
+        <v>0.6472328826774193</v>
+      </c>
+      <c r="BT16" s="19">
+        <f t="shared" si="17"/>
+        <v>0.21574429422580643</v>
+      </c>
+      <c r="BU16" s="19">
         <f t="shared" si="5"/>
-        <v>2.7693672889241467</v>
-      </c>
-      <c r="BN16" s="42"/>
-      <c r="BO16" s="24">
-        <f>BO15+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2064.516129032258</v>
-      </c>
-      <c r="BP16" s="23">
+        <v>46.643081272415891</v>
+      </c>
+      <c r="BV16" s="19">
         <f t="shared" si="6"/>
-        <v>2.4576451612903223</v>
-      </c>
-      <c r="BQ16" s="23">
-        <f t="shared" si="7"/>
-        <v>1.2079367741935485</v>
-      </c>
-      <c r="BR16" s="19">
-        <f t="shared" si="8"/>
-        <v>65.976848387096766</v>
-      </c>
-      <c r="BS16" s="19">
-        <f>9.81*BR16/1000</f>
-        <v>0.6472328826774193</v>
-      </c>
-      <c r="BT16" s="19">
-        <f t="shared" si="9"/>
-        <v>0.21574429422580643</v>
-      </c>
-      <c r="BU16" s="19">
-        <f>BT16*BO16*0.10472</f>
-        <v>46.643081272415891</v>
-      </c>
-      <c r="BV16" s="19">
-        <f>BP16*BQ16</f>
         <v>2.9686799682414153</v>
       </c>
       <c r="BW16" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>15.711724325760276</v>
       </c>
       <c r="BX16" s="13"/>
@@ -21856,80 +21856,80 @@
       <c r="BB17" s="13"/>
       <c r="BC17" s="13"/>
       <c r="BD17" s="24">
-        <f>BD16+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2161.2903225806454</v>
       </c>
       <c r="BE17" s="23">
-        <f>0.00205*BD17-1.9899</f>
+        <f t="shared" si="0"/>
         <v>2.4407451612903235</v>
       </c>
       <c r="BF17" s="23">
-        <f>0.00155*BD17-2.26616</f>
+        <f t="shared" si="1"/>
         <v>1.0838399999999999</v>
       </c>
       <c r="BG17" s="34">
-        <f>BE17*BF17</f>
+        <f t="shared" si="2"/>
         <v>2.6453772356129042</v>
       </c>
       <c r="BH17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>27.981790967741958</v>
       </c>
       <c r="BI17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.27450136939354858</v>
       </c>
       <c r="BJ17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.513617528237422E-2</v>
       </c>
       <c r="BK17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>7.9523818859098485</v>
       </c>
       <c r="BL17" s="13">
+        <f t="shared" si="11"/>
+        <v>2.6453772356129042</v>
+      </c>
+      <c r="BM17" s="13">
+        <f t="shared" si="12"/>
+        <v>3.0061428588907364</v>
+      </c>
+      <c r="BN17" s="41"/>
+      <c r="BO17" s="24">
+        <f t="shared" si="13"/>
+        <v>2161.2903225806454</v>
+      </c>
+      <c r="BP17" s="23">
+        <f t="shared" si="14"/>
+        <v>2.6386129032258068</v>
+      </c>
+      <c r="BQ17" s="23">
+        <f t="shared" si="15"/>
+        <v>1.3385819354838713</v>
+      </c>
+      <c r="BR17" s="19">
+        <f t="shared" si="16"/>
+        <v>84.83717096774194</v>
+      </c>
+      <c r="BS17" s="19">
         <f t="shared" si="4"/>
-        <v>2.6453772356129042</v>
-      </c>
-      <c r="BM17" s="13">
+        <v>0.83225264719354841</v>
+      </c>
+      <c r="BT17" s="19">
+        <f t="shared" si="17"/>
+        <v>0.2774175490645161</v>
+      </c>
+      <c r="BU17" s="19">
         <f t="shared" si="5"/>
-        <v>3.0061428588907364</v>
-      </c>
-      <c r="BN17" s="42"/>
-      <c r="BO17" s="24">
-        <f>BO16+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2161.2903225806454</v>
-      </c>
-      <c r="BP17" s="23">
+        <v>62.788003369303887</v>
+      </c>
+      <c r="BV17" s="19">
         <f t="shared" si="6"/>
-        <v>2.6386129032258068</v>
-      </c>
-      <c r="BQ17" s="23">
-        <f t="shared" si="7"/>
-        <v>1.3385819354838713</v>
-      </c>
-      <c r="BR17" s="19">
-        <f t="shared" si="8"/>
-        <v>84.83717096774194</v>
-      </c>
-      <c r="BS17" s="19">
-        <f>9.81*BR17/1000</f>
-        <v>0.83225264719354841</v>
-      </c>
-      <c r="BT17" s="19">
-        <f t="shared" si="9"/>
-        <v>0.2774175490645161</v>
-      </c>
-      <c r="BU17" s="19">
-        <f>BT17*BO17*0.10472</f>
-        <v>62.788003369303887</v>
-      </c>
-      <c r="BV17" s="19">
-        <f>BP17*BQ17</f>
         <v>3.5319995669927171</v>
       </c>
       <c r="BW17" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>17.776900075546742</v>
       </c>
       <c r="BX17" s="13"/>
@@ -21997,80 +21997,80 @@
       <c r="BB18" s="13"/>
       <c r="BC18" s="13"/>
       <c r="BD18" s="24">
-        <f>BD17+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2258.0645161290327</v>
       </c>
       <c r="BE18" s="23">
-        <f>0.00205*BD18-1.9899</f>
+        <f t="shared" si="0"/>
         <v>2.6391322580645169</v>
       </c>
       <c r="BF18" s="23">
-        <f>0.00155*BD18-2.26616</f>
+        <f t="shared" si="1"/>
         <v>1.2338400000000003</v>
       </c>
       <c r="BG18" s="34">
-        <f>BE18*BF18</f>
+        <f t="shared" si="2"/>
         <v>3.2562669452903243</v>
       </c>
       <c r="BH18" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>34.602113548387123</v>
       </c>
       <c r="BI18" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.33944673390967767</v>
       </c>
       <c r="BJ18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3449181940438744E-2</v>
       </c>
       <c r="BK18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>10.274189783748135</v>
       </c>
       <c r="BL18" s="13">
+        <f t="shared" si="11"/>
+        <v>3.2562669452903243</v>
+      </c>
+      <c r="BM18" s="13">
+        <f t="shared" si="12"/>
+        <v>3.1552050112501147</v>
+      </c>
+      <c r="BN18" s="41"/>
+      <c r="BO18" s="24">
+        <f t="shared" si="13"/>
+        <v>2258.0645161290327</v>
+      </c>
+      <c r="BP18" s="23">
+        <f t="shared" si="14"/>
+        <v>2.8195806451612913</v>
+      </c>
+      <c r="BQ18" s="23">
+        <f t="shared" si="15"/>
+        <v>1.4692270967741945</v>
+      </c>
+      <c r="BR18" s="19">
+        <f t="shared" si="16"/>
+        <v>103.69749354838717</v>
+      </c>
+      <c r="BS18" s="19">
         <f t="shared" si="4"/>
-        <v>3.2562669452903243</v>
-      </c>
-      <c r="BM18" s="13">
+        <v>1.0172724117096781</v>
+      </c>
+      <c r="BT18" s="19">
+        <f t="shared" si="17"/>
+        <v>0.33909080390322599</v>
+      </c>
+      <c r="BU18" s="19">
         <f t="shared" si="5"/>
-        <v>3.1552050112501147</v>
-      </c>
-      <c r="BN18" s="42"/>
-      <c r="BO18" s="24">
-        <f>BO17+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2258.0645161290327</v>
-      </c>
-      <c r="BP18" s="23">
+        <v>80.182942868780913</v>
+      </c>
+      <c r="BV18" s="19">
         <f t="shared" si="6"/>
-        <v>2.8195806451612913</v>
-      </c>
-      <c r="BQ18" s="23">
-        <f t="shared" si="7"/>
-        <v>1.4692270967741945</v>
-      </c>
-      <c r="BR18" s="19">
-        <f t="shared" si="8"/>
-        <v>103.69749354838717</v>
-      </c>
-      <c r="BS18" s="19">
-        <f>9.81*BR18/1000</f>
-        <v>1.0172724117096781</v>
-      </c>
-      <c r="BT18" s="19">
-        <f t="shared" si="9"/>
-        <v>0.33909080390322599</v>
-      </c>
-      <c r="BU18" s="19">
-        <f>BT18*BO18*0.10472</f>
-        <v>80.182942868780913</v>
-      </c>
-      <c r="BV18" s="19">
-        <f>BP18*BQ18</f>
         <v>4.1426042854110339</v>
       </c>
       <c r="BW18" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>19.355684816713087</v>
       </c>
       <c r="BX18" s="13"/>
@@ -22138,80 +22138,80 @@
       <c r="BB19" s="13"/>
       <c r="BC19" s="13"/>
       <c r="BD19" s="24">
-        <f>BD18+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2354.83870967742</v>
       </c>
       <c r="BE19" s="23">
-        <f>0.00205*BD19-1.9899</f>
+        <f t="shared" si="0"/>
         <v>2.8375193548387112</v>
       </c>
       <c r="BF19" s="23">
-        <f>0.00155*BD19-2.26616</f>
+        <f t="shared" si="1"/>
         <v>1.3838400000000006</v>
       </c>
       <c r="BG19" s="34">
-        <f>BE19*BF19</f>
+        <f t="shared" si="2"/>
         <v>3.926672784000004</v>
       </c>
       <c r="BH19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>41.222436129032289</v>
       </c>
       <c r="BI19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.40439209842580676</v>
       </c>
       <c r="BJ19" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.1762188598503261E-2</v>
       </c>
       <c r="BK19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>12.764488918470136</v>
       </c>
       <c r="BL19" s="13">
+        <f t="shared" si="11"/>
+        <v>3.926672784000004</v>
+      </c>
+      <c r="BM19" s="13">
+        <f t="shared" si="12"/>
+        <v>3.2507136755783526</v>
+      </c>
+      <c r="BN19" s="41"/>
+      <c r="BO19" s="24">
+        <f t="shared" si="13"/>
+        <v>2354.83870967742</v>
+      </c>
+      <c r="BP19" s="23">
+        <f t="shared" si="14"/>
+        <v>3.0005483870967748</v>
+      </c>
+      <c r="BQ19" s="23">
+        <f t="shared" si="15"/>
+        <v>1.5998722580645173</v>
+      </c>
+      <c r="BR19" s="19">
+        <f t="shared" si="16"/>
+        <v>122.55781612903235</v>
+      </c>
+      <c r="BS19" s="19">
         <f t="shared" si="4"/>
-        <v>3.926672784000004</v>
-      </c>
-      <c r="BM19" s="13">
+        <v>1.2022921762258074</v>
+      </c>
+      <c r="BT19" s="19">
+        <f t="shared" si="17"/>
+        <v>0.40076405874193577</v>
+      </c>
+      <c r="BU19" s="19">
         <f t="shared" si="5"/>
-        <v>3.2507136755783526</v>
-      </c>
-      <c r="BN19" s="42"/>
-      <c r="BO19" s="24">
-        <f>BO18+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2354.83870967742</v>
-      </c>
-      <c r="BP19" s="23">
+        <v>98.827899770846869</v>
+      </c>
+      <c r="BV19" s="19">
         <f t="shared" si="6"/>
-        <v>3.0005483870967748</v>
-      </c>
-      <c r="BQ19" s="23">
-        <f t="shared" si="7"/>
-        <v>1.5998722580645173</v>
-      </c>
-      <c r="BR19" s="19">
-        <f t="shared" si="8"/>
-        <v>122.55781612903235</v>
-      </c>
-      <c r="BS19" s="19">
-        <f>9.81*BR19/1000</f>
-        <v>1.2022921762258074</v>
-      </c>
-      <c r="BT19" s="19">
-        <f t="shared" si="9"/>
-        <v>0.40076405874193577</v>
-      </c>
-      <c r="BU19" s="19">
-        <f>BT19*BO19*0.10472</f>
-        <v>98.827899770846869</v>
-      </c>
-      <c r="BV19" s="19">
-        <f>BP19*BQ19</f>
         <v>4.8004941234963621</v>
       </c>
       <c r="BW19" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>20.587026507776905</v>
       </c>
       <c r="BX19" s="13"/>
@@ -22279,80 +22279,80 @@
       <c r="BB20" s="13"/>
       <c r="BC20" s="13"/>
       <c r="BD20" s="24">
-        <f>BD19+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2451.6129032258073</v>
       </c>
       <c r="BE20" s="23">
-        <f>0.00205*BD20-1.9899</f>
+        <f t="shared" si="0"/>
         <v>3.0359064516129055</v>
       </c>
       <c r="BF20" s="23">
-        <f>0.00155*BD20-2.26616</f>
+        <f t="shared" si="1"/>
         <v>1.533840000000001</v>
       </c>
       <c r="BG20" s="34">
-        <f>BE20*BF20</f>
+        <f t="shared" si="2"/>
         <v>4.6565947517419417</v>
       </c>
       <c r="BH20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>47.842758709677483</v>
       </c>
       <c r="BI20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.46933746294193612</v>
       </c>
       <c r="BJ20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.007519525656782E-2</v>
       </c>
       <c r="BK20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>15.423279290075858</v>
       </c>
       <c r="BL20" s="13">
+        <f t="shared" si="11"/>
+        <v>4.6565947517419417</v>
+      </c>
+      <c r="BM20" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3121368966681732</v>
+      </c>
+      <c r="BN20" s="41"/>
+      <c r="BO20" s="24">
+        <f t="shared" si="13"/>
+        <v>2451.6129032258073</v>
+      </c>
+      <c r="BP20" s="23">
+        <f t="shared" si="14"/>
+        <v>3.1815161290322593</v>
+      </c>
+      <c r="BQ20" s="23">
+        <f t="shared" si="15"/>
+        <v>1.73051741935484</v>
+      </c>
+      <c r="BR20" s="19">
+        <f t="shared" si="16"/>
+        <v>141.41813870967758</v>
+      </c>
+      <c r="BS20" s="19">
         <f t="shared" si="4"/>
-        <v>4.6565947517419417</v>
-      </c>
-      <c r="BM20" s="13">
+        <v>1.3873119407419372</v>
+      </c>
+      <c r="BT20" s="19">
+        <f t="shared" si="17"/>
+        <v>0.46243731358064571</v>
+      </c>
+      <c r="BU20" s="19">
         <f t="shared" si="5"/>
-        <v>3.3121368966681732</v>
-      </c>
-      <c r="BN20" s="42"/>
-      <c r="BO20" s="24">
-        <f>BO19+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2451.6129032258073</v>
-      </c>
-      <c r="BP20" s="23">
+        <v>118.72287407550186</v>
+      </c>
+      <c r="BV20" s="19">
         <f t="shared" si="6"/>
-        <v>3.1815161290322593</v>
-      </c>
-      <c r="BQ20" s="23">
-        <f t="shared" si="7"/>
-        <v>1.73051741935484</v>
-      </c>
-      <c r="BR20" s="19">
-        <f t="shared" si="8"/>
-        <v>141.41813870967758</v>
-      </c>
-      <c r="BS20" s="19">
-        <f>9.81*BR20/1000</f>
-        <v>1.3873119407419372</v>
-      </c>
-      <c r="BT20" s="19">
-        <f t="shared" si="9"/>
-        <v>0.46243731358064571</v>
-      </c>
-      <c r="BU20" s="19">
-        <f>BT20*BO20*0.10472</f>
-        <v>118.72287407550186</v>
-      </c>
-      <c r="BV20" s="19">
-        <f>BP20*BQ20</f>
         <v>5.5056690812487057</v>
       </c>
       <c r="BW20" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>21.563750440405162</v>
       </c>
       <c r="BX20" s="13"/>
@@ -22408,80 +22408,80 @@
       <c r="BB21" s="13"/>
       <c r="BC21" s="13"/>
       <c r="BD21" s="24">
-        <f>BD20+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2548.3870967741946</v>
       </c>
       <c r="BE21" s="23">
-        <f>0.00205*BD21-1.9899</f>
+        <f t="shared" si="0"/>
         <v>3.2342935483870989</v>
       </c>
       <c r="BF21" s="23">
-        <f>0.00155*BD21-2.26616</f>
+        <f t="shared" si="1"/>
         <v>1.6838400000000013</v>
       </c>
       <c r="BG21" s="34">
-        <f>BE21*BF21</f>
+        <f t="shared" si="2"/>
         <v>5.4460328485161371</v>
       </c>
       <c r="BH21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>54.463081290322648</v>
       </c>
       <c r="BI21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.53428282745806521</v>
       </c>
       <c r="BJ21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8388201914632352E-2</v>
       </c>
       <c r="BK21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>18.250560898565286</v>
       </c>
       <c r="BL21" s="13">
+        <f t="shared" si="11"/>
+        <v>5.4460328485161371</v>
+      </c>
+      <c r="BM21" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3511661435420752</v>
+      </c>
+      <c r="BN21" s="41"/>
+      <c r="BO21" s="24">
+        <f t="shared" si="13"/>
+        <v>2548.3870967741946</v>
+      </c>
+      <c r="BP21" s="23">
+        <f t="shared" si="14"/>
+        <v>3.3624838709677438</v>
+      </c>
+      <c r="BQ21" s="23">
+        <f t="shared" si="15"/>
+        <v>1.8611625806451628</v>
+      </c>
+      <c r="BR21" s="19">
+        <f t="shared" si="16"/>
+        <v>160.27846129032275</v>
+      </c>
+      <c r="BS21" s="19">
         <f t="shared" si="4"/>
-        <v>5.4460328485161371</v>
-      </c>
-      <c r="BM21" s="13">
+        <v>1.5723317052580663</v>
+      </c>
+      <c r="BT21" s="19">
+        <f t="shared" si="17"/>
+        <v>0.52411056841935544</v>
+      </c>
+      <c r="BU21" s="19">
         <f t="shared" si="5"/>
-        <v>3.3511661435420752</v>
-      </c>
-      <c r="BN21" s="42"/>
-      <c r="BO21" s="24">
-        <f>BO20+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2548.3870967741946</v>
-      </c>
-      <c r="BP21" s="23">
+        <v>139.86786578274578</v>
+      </c>
+      <c r="BV21" s="19">
         <f t="shared" si="6"/>
-        <v>3.3624838709677438</v>
-      </c>
-      <c r="BQ21" s="23">
-        <f t="shared" si="7"/>
-        <v>1.8611625806451628</v>
-      </c>
-      <c r="BR21" s="19">
-        <f t="shared" si="8"/>
-        <v>160.27846129032275</v>
-      </c>
-      <c r="BS21" s="19">
-        <f>9.81*BR21/1000</f>
-        <v>1.5723317052580663</v>
-      </c>
-      <c r="BT21" s="19">
-        <f t="shared" si="9"/>
-        <v>0.52411056841935544</v>
-      </c>
-      <c r="BU21" s="19">
-        <f>BT21*BO21*0.10472</f>
-        <v>139.86786578274578</v>
-      </c>
-      <c r="BV21" s="19">
-        <f>BP21*BQ21</f>
         <v>6.258129158668063</v>
       </c>
       <c r="BW21" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>22.349788928375887</v>
       </c>
       <c r="BX21" s="13"/>
@@ -22537,80 +22537,80 @@
       <c r="BB22" s="13"/>
       <c r="BC22" s="13"/>
       <c r="BD22" s="24">
-        <f>BD21+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2645.1612903225819</v>
       </c>
       <c r="BE22" s="23">
-        <f>0.00205*BD22-1.9899</f>
+        <f t="shared" si="0"/>
         <v>3.4326806451612932</v>
       </c>
       <c r="BF22" s="23">
-        <f>0.00155*BD22-2.26616</f>
+        <f t="shared" si="1"/>
         <v>1.8338400000000012</v>
       </c>
       <c r="BG22" s="34">
-        <f>BE22*BF22</f>
+        <f t="shared" si="2"/>
         <v>6.2949870743225906</v>
       </c>
       <c r="BH22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>61.083403870967814</v>
       </c>
       <c r="BI22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.5992281919741943</v>
       </c>
       <c r="BJ22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6701208572696869E-2</v>
       </c>
       <c r="BK22" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>21.246333743938425</v>
       </c>
       <c r="BL22" s="13">
+        <f t="shared" si="11"/>
+        <v>6.2949870743225906</v>
+      </c>
+      <c r="BM22" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3751195186091407</v>
+      </c>
+      <c r="BN22" s="41"/>
+      <c r="BO22" s="24">
+        <f t="shared" si="13"/>
+        <v>2645.1612903225819</v>
+      </c>
+      <c r="BP22" s="23">
+        <f t="shared" si="14"/>
+        <v>3.5434516129032274</v>
+      </c>
+      <c r="BQ22" s="23">
+        <f t="shared" si="15"/>
+        <v>1.9918077419354856</v>
+      </c>
+      <c r="BR22" s="19">
+        <f t="shared" si="16"/>
+        <v>179.13878387096793</v>
+      </c>
+      <c r="BS22" s="19">
         <f t="shared" si="4"/>
-        <v>6.2949870743225906</v>
-      </c>
-      <c r="BM22" s="13">
+        <v>1.7573514697741954</v>
+      </c>
+      <c r="BT22" s="19">
+        <f t="shared" si="17"/>
+        <v>0.58578382325806511</v>
+      </c>
+      <c r="BU22" s="19">
         <f t="shared" si="5"/>
-        <v>3.3751195186091407</v>
-      </c>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="24">
-        <f>BO21+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2645.1612903225819</v>
-      </c>
-      <c r="BP22" s="23">
+        <v>162.26287489257862</v>
+      </c>
+      <c r="BV22" s="19">
         <f t="shared" si="6"/>
-        <v>3.5434516129032274</v>
-      </c>
-      <c r="BQ22" s="23">
-        <f t="shared" si="7"/>
-        <v>1.9918077419354856</v>
-      </c>
-      <c r="BR22" s="19">
-        <f t="shared" si="8"/>
-        <v>179.13878387096793</v>
-      </c>
-      <c r="BS22" s="19">
-        <f>9.81*BR22/1000</f>
-        <v>1.7573514697741954</v>
-      </c>
-      <c r="BT22" s="19">
-        <f t="shared" si="9"/>
-        <v>0.58578382325806511</v>
-      </c>
-      <c r="BU22" s="19">
-        <f>BT22*BO22*0.10472</f>
-        <v>162.26287489257862</v>
-      </c>
-      <c r="BV22" s="19">
-        <f>BP22*BQ22</f>
         <v>7.0578743557544321</v>
       </c>
       <c r="BW22" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>22.990332033933463</v>
       </c>
       <c r="BX22" s="13"/>
@@ -22684,80 +22684,80 @@
       <c r="BB23" s="13"/>
       <c r="BC23" s="13"/>
       <c r="BD23" s="24">
-        <f>BD22+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2741.9354838709692</v>
       </c>
       <c r="BE23" s="23">
-        <f>0.00205*BD23-1.9899</f>
+        <f t="shared" si="0"/>
         <v>3.6310677419354875</v>
       </c>
       <c r="BF23" s="23">
-        <f>0.00155*BD23-2.26616</f>
+        <f t="shared" si="1"/>
         <v>1.9838400000000016</v>
       </c>
       <c r="BG23" s="34">
-        <f>BE23*BF23</f>
+        <f t="shared" si="2"/>
         <v>7.2034574291613032</v>
       </c>
       <c r="BH23" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>67.703726451613008</v>
       </c>
       <c r="BI23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.66417355649032372</v>
       </c>
       <c r="BJ23" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.5014215230761442E-2</v>
       </c>
       <c r="BK23" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.410597826195296</v>
       </c>
       <c r="BL23" s="13">
+        <f t="shared" si="11"/>
+        <v>7.2034574291613032</v>
+      </c>
+      <c r="BM23" s="13">
+        <f t="shared" si="12"/>
+        <v>3.388733544447061</v>
+      </c>
+      <c r="BN23" s="41"/>
+      <c r="BO23" s="24">
+        <f t="shared" si="13"/>
+        <v>2741.9354838709692</v>
+      </c>
+      <c r="BP23" s="23">
+        <f t="shared" si="14"/>
+        <v>3.7244193548387119</v>
+      </c>
+      <c r="BQ23" s="23">
+        <f t="shared" si="15"/>
+        <v>2.1224529032258088</v>
+      </c>
+      <c r="BR23" s="19">
+        <f t="shared" si="16"/>
+        <v>197.99910645161322</v>
+      </c>
+      <c r="BS23" s="19">
         <f t="shared" si="4"/>
-        <v>7.2034574291613032</v>
-      </c>
-      <c r="BM23" s="13">
+        <v>1.9423712342903257</v>
+      </c>
+      <c r="BT23" s="19">
+        <f t="shared" si="17"/>
+        <v>0.64745707809677522</v>
+      </c>
+      <c r="BU23" s="19">
         <f t="shared" si="5"/>
-        <v>3.388733544447061</v>
-      </c>
-      <c r="BN23" s="42"/>
-      <c r="BO23" s="24">
-        <f>BO22+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2741.9354838709692</v>
-      </c>
-      <c r="BP23" s="23">
+        <v>185.90790140500059</v>
+      </c>
+      <c r="BV23" s="19">
         <f t="shared" si="6"/>
-        <v>3.7244193548387119</v>
-      </c>
-      <c r="BQ23" s="23">
-        <f t="shared" si="7"/>
-        <v>2.1224529032258088</v>
-      </c>
-      <c r="BR23" s="19">
-        <f t="shared" si="8"/>
-        <v>197.99910645161322</v>
-      </c>
-      <c r="BS23" s="19">
-        <f>9.81*BR23/1000</f>
-        <v>1.9423712342903257</v>
-      </c>
-      <c r="BT23" s="19">
-        <f t="shared" si="9"/>
-        <v>0.64745707809677522</v>
-      </c>
-      <c r="BU23" s="19">
-        <f>BT23*BO23*0.10472</f>
-        <v>185.90790140500059</v>
-      </c>
-      <c r="BV23" s="19">
-        <f>BP23*BQ23</f>
         <v>7.9049046725078176</v>
       </c>
       <c r="BW23" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>23.518044695916821</v>
       </c>
       <c r="BX23" s="13"/>
@@ -22849,80 +22849,80 @@
       <c r="BB24" s="13"/>
       <c r="BC24" s="13"/>
       <c r="BD24" s="24">
-        <f>BD23+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2838.7096774193565</v>
       </c>
       <c r="BE24" s="23">
-        <f>0.00205*BD24-1.9899</f>
+        <f t="shared" si="0"/>
         <v>3.829454838709681</v>
       </c>
       <c r="BF24" s="23">
-        <f>0.00155*BD24-2.26616</f>
+        <f t="shared" si="1"/>
         <v>2.133840000000002</v>
       </c>
       <c r="BG24" s="34">
-        <f>BE24*BF24</f>
+        <f t="shared" si="2"/>
         <v>8.1714439130322738</v>
       </c>
       <c r="BH24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>74.324049032258173</v>
       </c>
       <c r="BI24" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.7291189210064527</v>
       </c>
       <c r="BJ24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.3327221888825945E-2</v>
       </c>
       <c r="BK24" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>27.743353145335856</v>
       </c>
       <c r="BL24" s="13">
+        <f t="shared" si="11"/>
+        <v>8.1714439130322738</v>
+      </c>
+      <c r="BM24" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3951592204027996</v>
+      </c>
+      <c r="BN24" s="41"/>
+      <c r="BO24" s="24">
+        <f t="shared" si="13"/>
+        <v>2838.7096774193565</v>
+      </c>
+      <c r="BP24" s="23">
+        <f t="shared" si="14"/>
+        <v>3.9053870967741964</v>
+      </c>
+      <c r="BQ24" s="23">
+        <f t="shared" si="15"/>
+        <v>2.2530980645161316</v>
+      </c>
+      <c r="BR24" s="19">
+        <f t="shared" si="16"/>
+        <v>216.85942903225839</v>
+      </c>
+      <c r="BS24" s="19">
         <f t="shared" si="4"/>
-        <v>8.1714439130322738</v>
-      </c>
-      <c r="BM24" s="13">
+        <v>2.1273909988064545</v>
+      </c>
+      <c r="BT24" s="19">
+        <f t="shared" si="17"/>
+        <v>0.70913033293548478</v>
+      </c>
+      <c r="BU24" s="19">
         <f t="shared" si="5"/>
-        <v>3.3951592204027996</v>
-      </c>
-      <c r="BN24" s="42"/>
-      <c r="BO24" s="24">
-        <f>BO23+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2838.7096774193565</v>
-      </c>
-      <c r="BP24" s="23">
+        <v>210.80294532001136</v>
+      </c>
+      <c r="BV24" s="19">
         <f t="shared" si="6"/>
-        <v>3.9053870967741964</v>
-      </c>
-      <c r="BQ24" s="23">
-        <f t="shared" si="7"/>
-        <v>2.2530980645161316</v>
-      </c>
-      <c r="BR24" s="19">
-        <f t="shared" si="8"/>
-        <v>216.85942903225839</v>
-      </c>
-      <c r="BS24" s="19">
-        <f>9.81*BR24/1000</f>
-        <v>2.1273909988064545</v>
-      </c>
-      <c r="BT24" s="19">
-        <f t="shared" si="9"/>
-        <v>0.70913033293548478</v>
-      </c>
-      <c r="BU24" s="19">
-        <f>BT24*BO24*0.10472</f>
-        <v>210.80294532001136</v>
-      </c>
-      <c r="BV24" s="19">
-        <f>BP24*BQ24</f>
         <v>8.7992201089282158</v>
       </c>
       <c r="BW24" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>23.957003315114036</v>
       </c>
       <c r="BX24" s="13"/>
@@ -23014,80 +23014,80 @@
       <c r="BB25" s="13"/>
       <c r="BC25" s="13"/>
       <c r="BD25" s="24">
-        <f>BD24+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>2935.4838709677438</v>
       </c>
       <c r="BE25" s="23">
-        <f>0.00205*BD25-1.9899</f>
+        <f t="shared" si="0"/>
         <v>4.0278419354838757</v>
       </c>
       <c r="BF25" s="23">
-        <f>0.00155*BD25-2.26616</f>
+        <f t="shared" si="1"/>
         <v>2.2838400000000023</v>
       </c>
       <c r="BG25" s="34">
-        <f>BE25*BF25</f>
+        <f t="shared" si="2"/>
         <v>9.1989465259355043</v>
       </c>
       <c r="BH25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80.944371612903339</v>
       </c>
       <c r="BI25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.79406428552258179</v>
       </c>
       <c r="BJ25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10164022854689046</v>
       </c>
       <c r="BK25" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>31.244599701360134</v>
       </c>
       <c r="BL25" s="13">
+        <f t="shared" si="11"/>
+        <v>9.1989465259355043</v>
+      </c>
+      <c r="BM25" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3965410727488337</v>
+      </c>
+      <c r="BN25" s="41"/>
+      <c r="BO25" s="24">
+        <f t="shared" si="13"/>
+        <v>2935.4838709677438</v>
+      </c>
+      <c r="BP25" s="23">
+        <f t="shared" si="14"/>
+        <v>4.0863548387096813</v>
+      </c>
+      <c r="BQ25" s="23">
+        <f t="shared" si="15"/>
+        <v>2.3837432258064544</v>
+      </c>
+      <c r="BR25" s="19">
+        <f t="shared" si="16"/>
+        <v>235.71975161290356</v>
+      </c>
+      <c r="BS25" s="19">
         <f t="shared" si="4"/>
-        <v>9.1989465259355043</v>
-      </c>
-      <c r="BM25" s="13">
+        <v>2.3124107633225841</v>
+      </c>
+      <c r="BT25" s="19">
+        <f t="shared" si="17"/>
+        <v>0.77080358777419467</v>
+      </c>
+      <c r="BU25" s="19">
         <f t="shared" si="5"/>
-        <v>3.3965410727488337</v>
-      </c>
-      <c r="BN25" s="42"/>
-      <c r="BO25" s="24">
-        <f>BO24+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>2935.4838709677438</v>
-      </c>
-      <c r="BP25" s="23">
+        <v>236.94800663761123</v>
+      </c>
+      <c r="BV25" s="19">
         <f t="shared" si="6"/>
-        <v>4.0863548387096813</v>
-      </c>
-      <c r="BQ25" s="23">
-        <f t="shared" si="7"/>
-        <v>2.3837432258064544</v>
-      </c>
-      <c r="BR25" s="19">
-        <f t="shared" si="8"/>
-        <v>235.71975161290356</v>
-      </c>
-      <c r="BS25" s="19">
-        <f>9.81*BR25/1000</f>
-        <v>2.3124107633225841</v>
-      </c>
-      <c r="BT25" s="19">
-        <f t="shared" si="9"/>
-        <v>0.77080358777419467</v>
-      </c>
-      <c r="BU25" s="19">
-        <f>BT25*BO25*0.10472</f>
-        <v>236.94800663761123</v>
-      </c>
-      <c r="BV25" s="19">
-        <f>BP25*BQ25</f>
         <v>9.7408206650156295</v>
       </c>
       <c r="BW25" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>24.325261164966847</v>
       </c>
       <c r="BX25" s="13"/>
@@ -23173,80 +23173,80 @@
       <c r="BB26" s="13"/>
       <c r="BC26" s="13"/>
       <c r="BD26" s="24">
-        <f>BD25+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3032.2580645161311</v>
       </c>
       <c r="BE26" s="23">
-        <f>0.00205*BD26-1.9899</f>
+        <f t="shared" si="0"/>
         <v>4.22622903225807</v>
       </c>
       <c r="BF26" s="23">
-        <f>0.00155*BD26-2.26616</f>
+        <f t="shared" si="1"/>
         <v>2.4338400000000027</v>
       </c>
       <c r="BG26" s="34">
-        <f>BE26*BF26</f>
+        <f t="shared" si="2"/>
         <v>10.285965267870992</v>
       </c>
       <c r="BH26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>87.564694193548533</v>
       </c>
       <c r="BI26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.8590096500387111</v>
       </c>
       <c r="BJ26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10995323520495502</v>
       </c>
       <c r="BK26" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>34.914337494268139</v>
       </c>
       <c r="BL26" s="13">
+        <f t="shared" si="11"/>
+        <v>10.285965267870992</v>
+      </c>
+      <c r="BM26" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3943666525227121</v>
+      </c>
+      <c r="BN26" s="41"/>
+      <c r="BO26" s="24">
+        <f t="shared" si="13"/>
+        <v>3032.2580645161311</v>
+      </c>
+      <c r="BP26" s="23">
+        <f t="shared" si="14"/>
+        <v>4.267322580645164</v>
+      </c>
+      <c r="BQ26" s="23">
+        <f t="shared" si="15"/>
+        <v>2.5143883870967771</v>
+      </c>
+      <c r="BR26" s="19">
+        <f t="shared" si="16"/>
+        <v>254.58007419354874</v>
+      </c>
+      <c r="BS26" s="19">
         <f t="shared" si="4"/>
-        <v>10.285965267870992</v>
-      </c>
-      <c r="BM26" s="13">
+        <v>2.4974305278387132</v>
+      </c>
+      <c r="BT26" s="19">
+        <f t="shared" si="17"/>
+        <v>0.83247684261290433</v>
+      </c>
+      <c r="BU26" s="19">
         <f t="shared" si="5"/>
-        <v>3.3943666525227121</v>
-      </c>
-      <c r="BN26" s="42"/>
-      <c r="BO26" s="24">
-        <f>BO25+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3032.2580645161311</v>
-      </c>
-      <c r="BP26" s="23">
+        <v>264.34308535779996</v>
+      </c>
+      <c r="BV26" s="19">
         <f t="shared" si="6"/>
-        <v>4.267322580645164</v>
-      </c>
-      <c r="BQ26" s="23">
-        <f t="shared" si="7"/>
-        <v>2.5143883870967771</v>
-      </c>
-      <c r="BR26" s="19">
-        <f t="shared" si="8"/>
-        <v>254.58007419354874</v>
-      </c>
-      <c r="BS26" s="19">
-        <f>9.81*BR26/1000</f>
-        <v>2.4974305278387132</v>
-      </c>
-      <c r="BT26" s="19">
-        <f t="shared" si="9"/>
-        <v>0.83247684261290433</v>
-      </c>
-      <c r="BU26" s="19">
-        <f>BT26*BO26*0.10472</f>
-        <v>264.34308535779996</v>
-      </c>
-      <c r="BV26" s="19">
-        <f>BP26*BQ26</f>
         <v>10.729706340770051</v>
       </c>
       <c r="BW26" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>24.63656291816357</v>
       </c>
       <c r="BX26" s="13"/>
@@ -23326,80 +23326,80 @@
       <c r="BB27" s="13"/>
       <c r="BC27" s="13"/>
       <c r="BD27" s="24">
-        <f>BD26+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3129.0322580645184</v>
       </c>
       <c r="BE27" s="23">
-        <f>0.00205*BD27-1.9899</f>
+        <f t="shared" si="0"/>
         <v>4.4246161290322625</v>
       </c>
       <c r="BF27" s="23">
-        <f>0.00155*BD27-2.26616</f>
+        <f t="shared" si="1"/>
         <v>2.583840000000003</v>
       </c>
       <c r="BG27" s="34">
-        <f>BE27*BF27</f>
+        <f t="shared" si="2"/>
         <v>11.432500138838735</v>
       </c>
       <c r="BH27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>94.185016774193699</v>
       </c>
       <c r="BI27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.92395501455484019</v>
       </c>
       <c r="BJ27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.11826624186301954</v>
       </c>
       <c r="BK27" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>38.752566524059844</v>
       </c>
       <c r="BL27" s="13">
+        <f t="shared" si="11"/>
+        <v>11.432500138838735</v>
+      </c>
+      <c r="BM27" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3896843256890756</v>
+      </c>
+      <c r="BN27" s="41"/>
+      <c r="BO27" s="24">
+        <f t="shared" si="13"/>
+        <v>3129.0322580645184</v>
+      </c>
+      <c r="BP27" s="23">
+        <f t="shared" si="14"/>
+        <v>4.4482903225806485</v>
+      </c>
+      <c r="BQ27" s="23">
+        <f t="shared" si="15"/>
+        <v>2.6450335483870999</v>
+      </c>
+      <c r="BR27" s="19">
+        <f t="shared" si="16"/>
+        <v>273.44039677419403</v>
+      </c>
+      <c r="BS27" s="19">
         <f t="shared" si="4"/>
-        <v>11.432500138838735</v>
-      </c>
-      <c r="BM27" s="13">
+        <v>2.6824502923548432</v>
+      </c>
+      <c r="BT27" s="19">
+        <f t="shared" si="17"/>
+        <v>0.89415009745161433</v>
+      </c>
+      <c r="BU27" s="19">
         <f t="shared" si="5"/>
-        <v>3.3896843256890756</v>
-      </c>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="24">
-        <f>BO26+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3129.0322580645184</v>
-      </c>
-      <c r="BP27" s="23">
+        <v>292.98818148057779</v>
+      </c>
+      <c r="BV27" s="19">
         <f t="shared" si="6"/>
-        <v>4.4482903225806485</v>
-      </c>
-      <c r="BQ27" s="23">
-        <f t="shared" si="7"/>
-        <v>2.6450335483870999</v>
-      </c>
-      <c r="BR27" s="19">
-        <f t="shared" si="8"/>
-        <v>273.44039677419403</v>
-      </c>
-      <c r="BS27" s="19">
-        <f>9.81*BR27/1000</f>
-        <v>2.6824502923548432</v>
-      </c>
-      <c r="BT27" s="19">
-        <f t="shared" si="9"/>
-        <v>0.89415009745161433</v>
-      </c>
-      <c r="BU27" s="19">
-        <f>BT27*BO27*0.10472</f>
-        <v>292.98818148057779</v>
-      </c>
-      <c r="BV27" s="19">
-        <f>BP27*BQ27</f>
         <v>11.76587713619149</v>
       </c>
       <c r="BW27" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>24.901516316140579</v>
       </c>
       <c r="BX27" s="13"/>
@@ -23455,80 +23455,80 @@
       <c r="BB28" s="13"/>
       <c r="BC28" s="13"/>
       <c r="BD28" s="24">
-        <f>BD27+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3225.8064516129057</v>
       </c>
       <c r="BE28" s="23">
-        <f>0.00205*BD28-1.9899</f>
+        <f t="shared" si="0"/>
         <v>4.6230032258064568</v>
       </c>
       <c r="BF28" s="23">
-        <f>0.00155*BD28-2.26616</f>
+        <f t="shared" si="1"/>
         <v>2.7338400000000034</v>
       </c>
       <c r="BG28" s="34">
-        <f>BE28*BF28</f>
+        <f t="shared" si="2"/>
         <v>12.638551138838739</v>
       </c>
       <c r="BH28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>100.80533935483886</v>
       </c>
       <c r="BI28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.98890037907096928</v>
       </c>
       <c r="BJ28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.12657924852108407</v>
       </c>
       <c r="BK28" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>42.759286790735267</v>
       </c>
       <c r="BL28" s="13">
+        <f t="shared" si="11"/>
+        <v>12.638551138838739</v>
+      </c>
+      <c r="BM28" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3832427721350418</v>
+      </c>
+      <c r="BN28" s="41"/>
+      <c r="BO28" s="24">
+        <f t="shared" si="13"/>
+        <v>3225.8064516129057</v>
+      </c>
+      <c r="BP28" s="23">
+        <f t="shared" si="14"/>
+        <v>4.629258064516133</v>
+      </c>
+      <c r="BQ28" s="23">
+        <f t="shared" si="15"/>
+        <v>2.7756787096774227</v>
+      </c>
+      <c r="BR28" s="19">
+        <f t="shared" si="16"/>
+        <v>292.3007193548392</v>
+      </c>
+      <c r="BS28" s="19">
         <f t="shared" si="4"/>
-        <v>12.638551138838739</v>
-      </c>
-      <c r="BM28" s="13">
+        <v>2.8674700568709728</v>
+      </c>
+      <c r="BT28" s="19">
+        <f t="shared" si="17"/>
+        <v>0.95582335229032422</v>
+      </c>
+      <c r="BU28" s="19">
         <f t="shared" si="5"/>
-        <v>3.3832427721350418</v>
-      </c>
-      <c r="BN28" s="42"/>
-      <c r="BO28" s="24">
-        <f>BO27+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3225.8064516129057</v>
-      </c>
-      <c r="BP28" s="23">
+        <v>322.8832950059446</v>
+      </c>
+      <c r="BV28" s="19">
         <f t="shared" si="6"/>
-        <v>4.629258064516133</v>
-      </c>
-      <c r="BQ28" s="23">
-        <f t="shared" si="7"/>
-        <v>2.7756787096774227</v>
-      </c>
-      <c r="BR28" s="19">
-        <f t="shared" si="8"/>
-        <v>292.3007193548392</v>
-      </c>
-      <c r="BS28" s="19">
-        <f>9.81*BR28/1000</f>
-        <v>2.8674700568709728</v>
-      </c>
-      <c r="BT28" s="19">
-        <f t="shared" si="9"/>
-        <v>0.95582335229032422</v>
-      </c>
-      <c r="BU28" s="19">
-        <f>BT28*BO28*0.10472</f>
-        <v>322.8832950059446</v>
-      </c>
-      <c r="BV28" s="19">
-        <f>BP28*BQ28</f>
         <v>12.849333051279944</v>
       </c>
       <c r="BW28" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25.128408900085415</v>
       </c>
       <c r="BX28" s="13"/>
@@ -23584,80 +23584,80 @@
       <c r="BB29" s="13"/>
       <c r="BC29" s="13"/>
       <c r="BD29" s="24">
-        <f>BD28+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3322.580645161293</v>
       </c>
       <c r="BE29" s="23">
-        <f>0.00205*BD29-1.9899</f>
+        <f t="shared" si="0"/>
         <v>4.8213903225806511</v>
       </c>
       <c r="BF29" s="23">
-        <f>0.00155*BD29-2.26616</f>
+        <f t="shared" si="1"/>
         <v>2.8838400000000037</v>
       </c>
       <c r="BG29" s="34">
-        <f>BE29*BF29</f>
+        <f t="shared" si="2"/>
         <v>13.904118267871002</v>
       </c>
       <c r="BH29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>107.42566193548406</v>
       </c>
       <c r="BI29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0538457435870987</v>
       </c>
       <c r="BJ29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13489225517914863</v>
       </c>
       <c r="BK29" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>46.934498294294414</v>
       </c>
       <c r="BL29" s="13">
+        <f t="shared" si="11"/>
+        <v>13.904118267871002</v>
+      </c>
+      <c r="BM29" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3755824993770727</v>
+      </c>
+      <c r="BN29" s="41"/>
+      <c r="BO29" s="24">
+        <f t="shared" si="13"/>
+        <v>3322.580645161293</v>
+      </c>
+      <c r="BP29" s="23">
+        <f t="shared" si="14"/>
+        <v>4.8102258064516175</v>
+      </c>
+      <c r="BQ29" s="23">
+        <f t="shared" si="15"/>
+        <v>2.9063238709677455</v>
+      </c>
+      <c r="BR29" s="19">
+        <f t="shared" si="16"/>
+        <v>311.16104193548438</v>
+      </c>
+      <c r="BS29" s="19">
         <f t="shared" si="4"/>
-        <v>13.904118267871002</v>
-      </c>
-      <c r="BM29" s="13">
+        <v>3.0524898213871019</v>
+      </c>
+      <c r="BT29" s="19">
+        <f t="shared" si="17"/>
+        <v>1.0174966071290339</v>
+      </c>
+      <c r="BU29" s="19">
         <f t="shared" si="5"/>
-        <v>3.3755824993770727</v>
-      </c>
-      <c r="BN29" s="42"/>
-      <c r="BO29" s="24">
-        <f>BO28+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3322.580645161293</v>
-      </c>
-      <c r="BP29" s="23">
+        <v>354.02842593390028</v>
+      </c>
+      <c r="BV29" s="19">
         <f t="shared" si="6"/>
-        <v>4.8102258064516175</v>
-      </c>
-      <c r="BQ29" s="23">
-        <f t="shared" si="7"/>
-        <v>2.9063238709677455</v>
-      </c>
-      <c r="BR29" s="19">
-        <f t="shared" si="8"/>
-        <v>311.16104193548438</v>
-      </c>
-      <c r="BS29" s="19">
-        <f>9.81*BR29/1000</f>
-        <v>3.0524898213871019</v>
-      </c>
-      <c r="BT29" s="19">
-        <f t="shared" si="9"/>
-        <v>1.0174966071290339</v>
-      </c>
-      <c r="BU29" s="19">
-        <f>BT29*BO29*0.10472</f>
-        <v>354.02842593390028</v>
-      </c>
-      <c r="BV29" s="19">
-        <f>BP29*BQ29</f>
         <v>13.98007408603541</v>
       </c>
       <c r="BW29" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25.323787538975676</v>
       </c>
       <c r="BX29" s="13"/>
@@ -23713,80 +23713,80 @@
       <c r="BB30" s="13"/>
       <c r="BC30" s="13"/>
       <c r="BD30" s="24">
-        <f>BD29+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3419.3548387096803</v>
       </c>
       <c r="BE30" s="23">
-        <f>0.00205*BD30-1.9899</f>
+        <f t="shared" si="0"/>
         <v>5.0197774193548454</v>
       </c>
       <c r="BF30" s="23">
-        <f>0.00155*BD30-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.0338400000000041</v>
       </c>
       <c r="BG30" s="34">
-        <f>BE30*BF30</f>
+        <f t="shared" si="2"/>
         <v>15.229201525935524</v>
       </c>
       <c r="BH30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>114.04598451612922</v>
       </c>
       <c r="BI30" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.1187911081032278</v>
       </c>
       <c r="BJ30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.14320526183721316</v>
       </c>
       <c r="BK30" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>51.278201034737265</v>
       </c>
       <c r="BL30" s="13">
+        <f t="shared" si="11"/>
+        <v>15.229201525935524</v>
+      </c>
+      <c r="BM30" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3670971486856902</v>
+      </c>
+      <c r="BN30" s="41"/>
+      <c r="BO30" s="24">
+        <f t="shared" si="13"/>
+        <v>3419.3548387096803</v>
+      </c>
+      <c r="BP30" s="23">
+        <f t="shared" si="14"/>
+        <v>4.9911935483871019</v>
+      </c>
+      <c r="BQ30" s="23">
+        <f t="shared" si="15"/>
+        <v>3.0369690322580691</v>
+      </c>
+      <c r="BR30" s="19">
+        <f t="shared" si="16"/>
+        <v>330.02136451612955</v>
+      </c>
+      <c r="BS30" s="19">
         <f t="shared" si="4"/>
-        <v>15.229201525935524</v>
-      </c>
-      <c r="BM30" s="13">
+        <v>3.2375095859032315</v>
+      </c>
+      <c r="BT30" s="19">
+        <f t="shared" si="17"/>
+        <v>1.0791698619677437</v>
+      </c>
+      <c r="BU30" s="19">
         <f t="shared" si="5"/>
-        <v>3.3670971486856902</v>
-      </c>
-      <c r="BN30" s="42"/>
-      <c r="BO30" s="24">
-        <f>BO29+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3419.3548387096803</v>
-      </c>
-      <c r="BP30" s="23">
+        <v>386.42357426444494</v>
+      </c>
+      <c r="BV30" s="19">
         <f t="shared" si="6"/>
-        <v>4.9911935483871019</v>
-      </c>
-      <c r="BQ30" s="23">
-        <f t="shared" si="7"/>
-        <v>3.0369690322580691</v>
-      </c>
-      <c r="BR30" s="19">
-        <f t="shared" si="8"/>
-        <v>330.02136451612955</v>
-      </c>
-      <c r="BS30" s="19">
-        <f>9.81*BR30/1000</f>
-        <v>3.2375095859032315</v>
-      </c>
-      <c r="BT30" s="19">
-        <f t="shared" si="9"/>
-        <v>1.0791698619677437</v>
-      </c>
-      <c r="BU30" s="19">
-        <f>BT30*BO30*0.10472</f>
-        <v>386.42357426444494</v>
-      </c>
-      <c r="BV30" s="19">
-        <f>BP30*BQ30</f>
         <v>15.158100240457895</v>
       </c>
       <c r="BW30" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25.492876292838915</v>
       </c>
       <c r="BX30" s="13"/>
@@ -23842,80 +23842,80 @@
       <c r="BB31" s="13"/>
       <c r="BC31" s="13"/>
       <c r="BD31" s="24">
-        <f>BD30+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3516.1290322580676</v>
       </c>
       <c r="BE31" s="23">
-        <f>0.00205*BD31-1.9899</f>
+        <f t="shared" si="0"/>
         <v>5.2181645161290398</v>
       </c>
       <c r="BF31" s="23">
-        <f>0.00155*BD31-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.1838400000000044</v>
       </c>
       <c r="BG31" s="34">
-        <f>BE31*BF31</f>
+        <f t="shared" si="2"/>
         <v>16.613800913032303</v>
       </c>
       <c r="BH31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>120.66630709677439</v>
       </c>
       <c r="BI31" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.1837364726193569</v>
       </c>
       <c r="BJ31" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.15151826849527769</v>
       </c>
       <c r="BK31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>55.790395012063826</v>
       </c>
       <c r="BL31" s="13">
+        <f t="shared" si="11"/>
+        <v>16.613800913032303</v>
+      </c>
+      <c r="BM31" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3580753317141516</v>
+      </c>
+      <c r="BN31" s="41"/>
+      <c r="BO31" s="24">
+        <f t="shared" si="13"/>
+        <v>3516.1290322580676</v>
+      </c>
+      <c r="BP31" s="23">
+        <f t="shared" si="14"/>
+        <v>5.1721612903225864</v>
+      </c>
+      <c r="BQ31" s="23">
+        <f t="shared" si="15"/>
+        <v>3.1676141935483919</v>
+      </c>
+      <c r="BR31" s="19">
+        <f t="shared" si="16"/>
+        <v>348.88168709677484</v>
+      </c>
+      <c r="BS31" s="19">
         <f t="shared" si="4"/>
-        <v>16.613800913032303</v>
-      </c>
-      <c r="BM31" s="13">
+        <v>3.4225293504193615</v>
+      </c>
+      <c r="BT31" s="19">
+        <f t="shared" si="17"/>
+        <v>1.1408431168064537</v>
+      </c>
+      <c r="BU31" s="19">
         <f t="shared" si="5"/>
-        <v>3.3580753317141516</v>
-      </c>
-      <c r="BN31" s="42"/>
-      <c r="BO31" s="24">
-        <f>BO30+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3516.1290322580676</v>
-      </c>
-      <c r="BP31" s="23">
+        <v>420.06873999757869</v>
+      </c>
+      <c r="BV31" s="19">
         <f t="shared" si="6"/>
-        <v>5.1721612903225864</v>
-      </c>
-      <c r="BQ31" s="23">
-        <f t="shared" si="7"/>
-        <v>3.1676141935483919</v>
-      </c>
-      <c r="BR31" s="19">
-        <f t="shared" si="8"/>
-        <v>348.88168709677484</v>
-      </c>
-      <c r="BS31" s="19">
-        <f>9.81*BR31/1000</f>
-        <v>3.4225293504193615</v>
-      </c>
-      <c r="BT31" s="19">
-        <f t="shared" si="9"/>
-        <v>1.1408431168064537</v>
-      </c>
-      <c r="BU31" s="19">
-        <f>BT31*BO31*0.10472</f>
-        <v>420.06873999757869</v>
-      </c>
-      <c r="BV31" s="19">
-        <f>BP31*BQ31</f>
         <v>16.38341151454739</v>
       </c>
       <c r="BW31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25.639882122510645</v>
       </c>
       <c r="BX31" s="13"/>
@@ -23971,80 +23971,80 @@
       <c r="BB32" s="13"/>
       <c r="BC32" s="13"/>
       <c r="BD32" s="24">
-        <f>BD31+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3612.9032258064549</v>
       </c>
       <c r="BE32" s="23">
-        <f>0.00205*BD32-1.9899</f>
+        <f t="shared" si="0"/>
         <v>5.4165516129032323</v>
       </c>
       <c r="BF32" s="23">
-        <f>0.00155*BD32-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.3338400000000048</v>
       </c>
       <c r="BG32" s="34">
-        <f>BE32*BF32</f>
+        <f t="shared" si="2"/>
         <v>18.057916429161338</v>
       </c>
       <c r="BH32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>127.28662967741958</v>
       </c>
       <c r="BI32" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.2486818371354862</v>
       </c>
       <c r="BJ32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.15983127515334222</v>
       </c>
       <c r="BK32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>60.471080226274104</v>
       </c>
       <c r="BL32" s="13">
+        <f t="shared" si="11"/>
+        <v>18.057916429161338</v>
+      </c>
+      <c r="BM32" s="13">
+        <f t="shared" si="12"/>
+        <v>3.348729653473236</v>
+      </c>
+      <c r="BN32" s="41"/>
+      <c r="BO32" s="24">
+        <f t="shared" si="13"/>
+        <v>3612.9032258064549</v>
+      </c>
+      <c r="BP32" s="23">
+        <f t="shared" si="14"/>
+        <v>5.3531290322580709</v>
+      </c>
+      <c r="BQ32" s="23">
+        <f t="shared" si="15"/>
+        <v>3.2982593548387147</v>
+      </c>
+      <c r="BR32" s="19">
+        <f t="shared" si="16"/>
+        <v>367.74200967742001</v>
+      </c>
+      <c r="BS32" s="19">
         <f t="shared" si="4"/>
-        <v>18.057916429161338</v>
-      </c>
-      <c r="BM32" s="13">
+        <v>3.6075491149354906</v>
+      </c>
+      <c r="BT32" s="19">
+        <f t="shared" si="17"/>
+        <v>1.2025163716451635</v>
+      </c>
+      <c r="BU32" s="19">
         <f t="shared" si="5"/>
-        <v>3.348729653473236</v>
-      </c>
-      <c r="BN32" s="42"/>
-      <c r="BO32" s="24">
-        <f>BO31+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3612.9032258064549</v>
-      </c>
-      <c r="BP32" s="23">
+        <v>454.96392313330131</v>
+      </c>
+      <c r="BV32" s="19">
         <f t="shared" si="6"/>
-        <v>5.3531290322580709</v>
-      </c>
-      <c r="BQ32" s="23">
-        <f t="shared" si="7"/>
-        <v>3.2982593548387147</v>
-      </c>
-      <c r="BR32" s="19">
-        <f t="shared" si="8"/>
-        <v>367.74200967742001</v>
-      </c>
-      <c r="BS32" s="19">
-        <f>9.81*BR32/1000</f>
-        <v>3.6075491149354906</v>
-      </c>
-      <c r="BT32" s="19">
-        <f t="shared" si="9"/>
-        <v>1.2025163716451635</v>
-      </c>
-      <c r="BU32" s="19">
-        <f>BT32*BO32*0.10472</f>
-        <v>454.96392313330131</v>
-      </c>
-      <c r="BV32" s="19">
-        <f>BP32*BQ32</f>
         <v>17.656007908303899</v>
       </c>
       <c r="BW32" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25.768221530945542</v>
       </c>
       <c r="BX32" s="13"/>
@@ -24100,80 +24100,80 @@
       <c r="BB33" s="13"/>
       <c r="BC33" s="13"/>
       <c r="BD33" s="24">
-        <f>BD32+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3709.6774193548422</v>
       </c>
       <c r="BE33" s="23">
-        <f>0.00205*BD33-1.9899</f>
+        <f t="shared" si="0"/>
         <v>5.6149387096774266</v>
       </c>
       <c r="BF33" s="23">
-        <f>0.00155*BD33-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.4838400000000052</v>
       </c>
       <c r="BG33" s="34">
-        <f>BE33*BF33</f>
+        <f t="shared" si="2"/>
         <v>19.561548074322634</v>
       </c>
       <c r="BH33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>133.90695225806473</v>
       </c>
       <c r="BI33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.3136272016516153</v>
       </c>
       <c r="BJ33" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.16814428181140675</v>
       </c>
       <c r="BK33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>65.320256677368107</v>
       </c>
       <c r="BL33" s="13">
+        <f t="shared" si="11"/>
+        <v>19.561548074322634</v>
+      </c>
+      <c r="BM33" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3392171432030171</v>
+      </c>
+      <c r="BN33" s="41"/>
+      <c r="BO33" s="24">
+        <f t="shared" si="13"/>
+        <v>3709.6774193548422</v>
+      </c>
+      <c r="BP33" s="23">
+        <f t="shared" si="14"/>
+        <v>5.5340967741935554</v>
+      </c>
+      <c r="BQ33" s="23">
+        <f t="shared" si="15"/>
+        <v>3.4289045161290375</v>
+      </c>
+      <c r="BR33" s="19">
+        <f t="shared" si="16"/>
+        <v>386.60233225806519</v>
+      </c>
+      <c r="BS33" s="19">
         <f t="shared" si="4"/>
-        <v>19.561548074322634</v>
-      </c>
-      <c r="BM33" s="13">
+        <v>3.7925688794516197</v>
+      </c>
+      <c r="BT33" s="19">
+        <f t="shared" si="17"/>
+        <v>1.2641896264838732</v>
+      </c>
+      <c r="BU33" s="19">
         <f t="shared" si="5"/>
-        <v>3.3392171432030171</v>
-      </c>
-      <c r="BN33" s="42"/>
-      <c r="BO33" s="24">
-        <f>BO32+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3709.6774193548422</v>
-      </c>
-      <c r="BP33" s="23">
+        <v>491.10912367161296</v>
+      </c>
+      <c r="BV33" s="19">
         <f t="shared" si="6"/>
-        <v>5.5340967741935554</v>
-      </c>
-      <c r="BQ33" s="23">
-        <f t="shared" si="7"/>
-        <v>3.4289045161290375</v>
-      </c>
-      <c r="BR33" s="19">
-        <f t="shared" si="8"/>
-        <v>386.60233225806519</v>
-      </c>
-      <c r="BS33" s="19">
-        <f>9.81*BR33/1000</f>
-        <v>3.7925688794516197</v>
-      </c>
-      <c r="BT33" s="19">
-        <f t="shared" si="9"/>
-        <v>1.2641896264838732</v>
-      </c>
-      <c r="BU33" s="19">
-        <f>BT33*BO33*0.10472</f>
-        <v>491.10912367161296</v>
-      </c>
-      <c r="BV33" s="19">
-        <f>BP33*BQ33</f>
         <v>18.97588942172742</v>
       </c>
       <c r="BW33" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25.880690636260365</v>
       </c>
       <c r="BX33" s="13"/>
@@ -24229,80 +24229,80 @@
       <c r="BB34" s="13"/>
       <c r="BC34" s="13"/>
       <c r="BD34" s="24">
-        <f>BD33+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3806.4516129032295</v>
       </c>
       <c r="BE34" s="23">
-        <f>0.00205*BD34-1.9899</f>
+        <f t="shared" si="0"/>
         <v>5.8133258064516209</v>
       </c>
       <c r="BF34" s="23">
-        <f>0.00155*BD34-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.6338400000000055</v>
       </c>
       <c r="BG34" s="34">
-        <f>BE34*BF34</f>
+        <f t="shared" si="2"/>
         <v>21.12469584851619</v>
       </c>
       <c r="BH34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>140.52727483870996</v>
       </c>
       <c r="BI34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.3785725661677448</v>
       </c>
       <c r="BJ34" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.17645728846947134</v>
       </c>
       <c r="BK34" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>70.337924365345827</v>
       </c>
       <c r="BL34" s="13">
+        <f t="shared" si="11"/>
+        <v>21.12469584851619</v>
+      </c>
+      <c r="BM34" s="13">
+        <f t="shared" si="12"/>
+        <v>3.3296538264850994</v>
+      </c>
+      <c r="BN34" s="41"/>
+      <c r="BO34" s="24">
+        <f t="shared" si="13"/>
+        <v>3806.4516129032295</v>
+      </c>
+      <c r="BP34" s="23">
+        <f t="shared" si="14"/>
+        <v>5.7150645161290381</v>
+      </c>
+      <c r="BQ34" s="23">
+        <f t="shared" si="15"/>
+        <v>3.5595496774193602</v>
+      </c>
+      <c r="BR34" s="19">
+        <f t="shared" si="16"/>
+        <v>405.46265483871036</v>
+      </c>
+      <c r="BS34" s="19">
         <f t="shared" si="4"/>
-        <v>21.12469584851619</v>
-      </c>
-      <c r="BM34" s="13">
+        <v>3.9775886439677488</v>
+      </c>
+      <c r="BT34" s="19">
+        <f t="shared" si="17"/>
+        <v>1.3258628813225828</v>
+      </c>
+      <c r="BU34" s="19">
         <f t="shared" si="5"/>
-        <v>3.3296538264850994</v>
-      </c>
-      <c r="BN34" s="42"/>
-      <c r="BO34" s="24">
-        <f>BO33+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3806.4516129032295</v>
-      </c>
-      <c r="BP34" s="23">
+        <v>528.50434161251337</v>
+      </c>
+      <c r="BV34" s="19">
         <f t="shared" si="6"/>
-        <v>5.7150645161290381</v>
-      </c>
-      <c r="BQ34" s="23">
-        <f t="shared" si="7"/>
-        <v>3.5595496774193602</v>
-      </c>
-      <c r="BR34" s="19">
-        <f t="shared" si="8"/>
-        <v>405.46265483871036</v>
-      </c>
-      <c r="BS34" s="19">
-        <f>9.81*BR34/1000</f>
-        <v>3.9775886439677488</v>
-      </c>
-      <c r="BT34" s="19">
-        <f t="shared" si="9"/>
-        <v>1.3258628813225828</v>
-      </c>
-      <c r="BU34" s="19">
-        <f>BT34*BO34*0.10472</f>
-        <v>528.50434161251337</v>
-      </c>
-      <c r="BV34" s="19">
-        <f>BP34*BQ34</f>
         <v>20.34305605481795</v>
       </c>
       <c r="BW34" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25.97959422558564</v>
       </c>
       <c r="BX34" s="13"/>
@@ -24358,80 +24358,80 @@
       <c r="BB35" s="13"/>
       <c r="BC35" s="13"/>
       <c r="BD35" s="24">
-        <f>BD34+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" si="7"/>
         <v>3903.2258064516168</v>
       </c>
       <c r="BE35" s="23">
-        <f>0.00205*BD35-1.9899</f>
+        <f t="shared" si="0"/>
         <v>6.0117129032258152</v>
       </c>
       <c r="BF35" s="23">
-        <f>0.00155*BD35-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.7838400000000059</v>
       </c>
       <c r="BG35" s="34">
-        <f>BE35*BF35</f>
+        <f t="shared" si="2"/>
         <v>22.747359751742003</v>
       </c>
       <c r="BH35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>147.14759741935512</v>
       </c>
       <c r="BI35" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4435179306838739</v>
       </c>
       <c r="BJ35" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.18477029512753587</v>
       </c>
       <c r="BK35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>75.524083290207244</v>
       </c>
       <c r="BL35" s="13">
+        <f t="shared" si="11"/>
+        <v>22.747359751742003</v>
+      </c>
+      <c r="BM35" s="13">
+        <f t="shared" si="12"/>
+        <v>3.32012524154253</v>
+      </c>
+      <c r="BN35" s="41"/>
+      <c r="BO35" s="24">
+        <f t="shared" si="13"/>
+        <v>3903.2258064516168</v>
+      </c>
+      <c r="BP35" s="23">
+        <f t="shared" si="14"/>
+        <v>5.8960322580645226</v>
+      </c>
+      <c r="BQ35" s="23">
+        <f t="shared" si="15"/>
+        <v>3.690194838709683</v>
+      </c>
+      <c r="BR35" s="19">
+        <f t="shared" si="16"/>
+        <v>424.32297741935565</v>
+      </c>
+      <c r="BS35" s="19">
         <f t="shared" si="4"/>
-        <v>22.747359751742003</v>
-      </c>
-      <c r="BM35" s="13">
+        <v>4.1626084084838793</v>
+      </c>
+      <c r="BT35" s="19">
+        <f t="shared" si="17"/>
+        <v>1.387536136161293</v>
+      </c>
+      <c r="BU35" s="19">
         <f t="shared" si="5"/>
-        <v>3.32012524154253</v>
-      </c>
-      <c r="BN35" s="42"/>
-      <c r="BO35" s="24">
-        <f>BO34+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
-        <v>3903.2258064516168</v>
-      </c>
-      <c r="BP35" s="23">
+        <v>567.14957695600322</v>
+      </c>
+      <c r="BV35" s="19">
         <f t="shared" si="6"/>
-        <v>5.8960322580645226</v>
-      </c>
-      <c r="BQ35" s="23">
-        <f t="shared" si="7"/>
-        <v>3.690194838709683</v>
-      </c>
-      <c r="BR35" s="19">
-        <f t="shared" si="8"/>
-        <v>424.32297741935565</v>
-      </c>
-      <c r="BS35" s="19">
-        <f>9.81*BR35/1000</f>
-        <v>4.1626084084838793</v>
-      </c>
-      <c r="BT35" s="19">
-        <f t="shared" si="9"/>
-        <v>1.387536136161293</v>
-      </c>
-      <c r="BU35" s="19">
-        <f>BT35*BO35*0.10472</f>
-        <v>567.14957695600322</v>
-      </c>
-      <c r="BV35" s="19">
-        <f>BP35*BQ35</f>
         <v>21.7575078075755</v>
       </c>
       <c r="BW35" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>26.06684469434196</v>
       </c>
       <c r="BX35" s="13"/>
@@ -24490,23 +24490,23 @@
         <v>4000</v>
       </c>
       <c r="BE36" s="23">
-        <f>0.00205*BD36-1.9899</f>
+        <f t="shared" si="0"/>
         <v>6.2101000000000006</v>
       </c>
       <c r="BF36" s="23">
-        <f>0.00155*BD36-2.26616</f>
+        <f t="shared" si="1"/>
         <v>3.93384</v>
       </c>
       <c r="BG36" s="34">
-        <f>BE36*BF36</f>
+        <f t="shared" si="2"/>
         <v>24.429539784000003</v>
       </c>
       <c r="BH36" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>153.76792</v>
       </c>
       <c r="BI36" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.5084632952000001</v>
       </c>
       <c r="BJ36" s="13">
@@ -24514,51 +24514,51 @@
         <v>0.19308330178560001</v>
       </c>
       <c r="BK36" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>80.878733451952129</v>
       </c>
       <c r="BL36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.429539784000003</v>
       </c>
       <c r="BM36" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.3106941091425401</v>
       </c>
-      <c r="BN36" s="42"/>
+      <c r="BN36" s="41"/>
       <c r="BO36" s="19">
         <v>4000</v>
       </c>
       <c r="BP36" s="23">
+        <f t="shared" si="14"/>
+        <v>6.077</v>
+      </c>
+      <c r="BQ36" s="23">
+        <f t="shared" si="15"/>
+        <v>3.8208400000000005</v>
+      </c>
+      <c r="BR36" s="19">
+        <f t="shared" si="16"/>
+        <v>443.18330000000003</v>
+      </c>
+      <c r="BS36" s="19">
+        <f t="shared" si="4"/>
+        <v>4.3476281730000013</v>
+      </c>
+      <c r="BT36" s="19">
+        <f t="shared" si="17"/>
+        <v>1.4492093910000003</v>
+      </c>
+      <c r="BU36" s="19">
+        <f t="shared" si="5"/>
+        <v>607.04482970208005</v>
+      </c>
+      <c r="BV36" s="19">
         <f t="shared" si="6"/>
-        <v>6.077</v>
-      </c>
-      <c r="BQ36" s="23">
-        <f t="shared" si="7"/>
-        <v>3.8208400000000005</v>
-      </c>
-      <c r="BR36" s="19">
-        <f t="shared" si="8"/>
-        <v>443.18330000000003</v>
-      </c>
-      <c r="BS36" s="19">
-        <f>9.81*BR36/1000</f>
-        <v>4.3476281730000013</v>
-      </c>
-      <c r="BT36" s="19">
-        <f t="shared" si="9"/>
-        <v>1.4492093910000003</v>
-      </c>
-      <c r="BU36" s="19">
-        <f>BT36*BO36*0.10472</f>
-        <v>607.04482970208005</v>
-      </c>
-      <c r="BV36" s="19">
-        <f>BP36*BQ36</f>
         <v>23.219244680000003</v>
       </c>
       <c r="BW36" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>26.144038622624134</v>
       </c>
       <c r="BX36" s="13"/>
@@ -24951,11 +24951,11 @@
         <v>54</v>
       </c>
       <c r="BE42" s="15"/>
-      <c r="BF42" s="41" t="s">
+      <c r="BF42" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="BG42" s="41"/>
-      <c r="BH42" s="41"/>
+      <c r="BG42" s="45"/>
+      <c r="BH42" s="45"/>
     </row>
     <row r="43" spans="1:78" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U43" s="19">
@@ -25027,9 +25027,9 @@
         <v>40</v>
       </c>
       <c r="BE43" s="15"/>
-      <c r="BF43" s="41"/>
-      <c r="BG43" s="41"/>
-      <c r="BH43" s="41"/>
+      <c r="BF43" s="45"/>
+      <c r="BG43" s="45"/>
+      <c r="BH43" s="45"/>
     </row>
     <row r="44" spans="1:78" x14ac:dyDescent="0.3">
       <c r="U44" s="19">
@@ -25094,7 +25094,7 @@
         <v>-0.2200988277</v>
       </c>
       <c r="BA44" s="22">
-        <f t="shared" ref="BA44:BA81" si="11">AZ44*3/4*256/1000</f>
+        <f t="shared" ref="BA44:BA81" si="19">AZ44*3/4*256/1000</f>
         <v>-4.22589749184E-2</v>
       </c>
       <c r="BB44" s="35">
@@ -25110,9 +25110,9 @@
         <v>36.569574660583385</v>
       </c>
       <c r="BE44" s="15"/>
-      <c r="BF44" s="41"/>
-      <c r="BG44" s="41"/>
-      <c r="BH44" s="41"/>
+      <c r="BF44" s="45"/>
+      <c r="BG44" s="45"/>
+      <c r="BH44" s="45"/>
     </row>
     <row r="45" spans="1:78" x14ac:dyDescent="0.3">
       <c r="U45" s="19">
@@ -25158,45 +25158,45 @@
         <v>1078.9473684210527</v>
       </c>
       <c r="AV45" s="23">
-        <f t="shared" ref="AV45:AV82" si="12">0.0018304*AU45-1.3330731</f>
+        <f t="shared" ref="AV45:AV82" si="20">0.0018304*AU45-1.3330731</f>
         <v>0.64183216315789493</v>
       </c>
       <c r="AW45" s="23">
-        <f t="shared" ref="AW45:AW82" si="13">0.001352*AU45-1.595325</f>
+        <f t="shared" ref="AW45:AW82" si="21">0.001352*AU45-1.595325</f>
         <v>-0.13658815789473699</v>
       </c>
       <c r="AX45" s="22">
-        <f t="shared" ref="AX45:AX82" si="14">0.04358*AU45-110.88851</f>
+        <f t="shared" ref="AX45:AX82" si="22">0.04358*AU45-110.88851</f>
         <v>-63.867983684210522</v>
       </c>
       <c r="AY45" s="22">
-        <f t="shared" ref="AY45:AY82" si="15">9.81*AX45/1000</f>
+        <f t="shared" ref="AY45:AY82" si="23">9.81*AX45/1000</f>
         <v>-0.62654491994210526</v>
       </c>
       <c r="AZ45" s="22">
-        <f t="shared" ref="AZ45:AZ81" si="16">(AY45/4*256)/(3/4*256)</f>
+        <f t="shared" ref="AZ45:AZ81" si="24">(AY45/4*256)/(3/4*256)</f>
         <v>-0.20884830664736842</v>
       </c>
       <c r="BA45" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-4.0098874876294738E-2</v>
       </c>
       <c r="BB45" s="35">
-        <f t="shared" ref="BB45:BB82" si="17">BA45*AU45*0.10472</f>
+        <f t="shared" ref="BB45:BB82" si="25">BA45*AU45*0.10472</f>
         <v>-4.5306663489176051</v>
       </c>
       <c r="BC45" s="19">
-        <f t="shared" ref="BC45:BC82" si="18">AV45*AW45</f>
+        <f t="shared" ref="BC45:BC82" si="26">AV45*AW45</f>
         <v>-8.7666672843331156E-2</v>
       </c>
       <c r="BD45" s="19">
-        <f t="shared" ref="BD45:BD82" si="19">BB45/BC45</f>
+        <f t="shared" ref="BD45:BD82" si="27">BB45/BC45</f>
         <v>51.680601099283706</v>
       </c>
       <c r="BE45" s="15"/>
-      <c r="BF45" s="41"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="41"/>
+      <c r="BF45" s="45"/>
+      <c r="BG45" s="45"/>
+      <c r="BH45" s="45"/>
     </row>
     <row r="46" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -25256,43 +25256,43 @@
       <c r="AS46" s="15"/>
       <c r="AT46" s="15"/>
       <c r="AU46" s="24">
-        <f t="shared" ref="AU46:AU81" si="20">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
+        <f t="shared" ref="AU46:AU81" si="28">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
         <v>1157.8947368421054</v>
       </c>
       <c r="AV46" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.78633742631578984</v>
       </c>
       <c r="AW46" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-2.9851315789473754E-2</v>
       </c>
       <c r="AX46" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-60.427457368421038</v>
       </c>
       <c r="AY46" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.59279335678421041</v>
       </c>
       <c r="AZ46" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.19759778559473681</v>
       </c>
       <c r="BA46" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.7938774834189469E-2</v>
       </c>
       <c r="BB46" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.6002561586315309</v>
       </c>
       <c r="BC46" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-2.347320683003469E-2</v>
       </c>
       <c r="BD46" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>195.97902374145835</v>
       </c>
       <c r="BE46" s="15"/>
@@ -25374,43 +25374,43 @@
       <c r="AS47" s="15"/>
       <c r="AT47" s="15"/>
       <c r="AU47" s="24">
+        <f t="shared" si="28"/>
+        <v>1236.8421052631581</v>
+      </c>
+      <c r="AV47" s="23">
         <f t="shared" si="20"/>
-        <v>1236.8421052631581</v>
-      </c>
-      <c r="AV47" s="23">
-        <f t="shared" si="12"/>
         <v>0.93084268947368454</v>
       </c>
       <c r="AW47" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>7.6885526315789487E-2</v>
       </c>
       <c r="AX47" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-56.986931052631562</v>
       </c>
       <c r="AY47" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.55904179362631568</v>
       </c>
       <c r="AZ47" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.18634726454210523</v>
       </c>
       <c r="BA47" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.57786747920842E-2</v>
       </c>
       <c r="BB47" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.634129282596624</v>
       </c>
       <c r="BC47" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.1568330097389235E-2</v>
       </c>
       <c r="BD47" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-64.751116538426459</v>
       </c>
       <c r="BE47" s="15"/>
@@ -25492,43 +25492,43 @@
       <c r="AS48" s="15"/>
       <c r="AT48" s="15"/>
       <c r="AU48" s="24">
+        <f t="shared" si="28"/>
+        <v>1315.7894736842109</v>
+      </c>
+      <c r="AV48" s="23">
         <f t="shared" si="20"/>
-        <v>1315.7894736842109</v>
-      </c>
-      <c r="AV48" s="23">
-        <f t="shared" si="12"/>
         <v>1.0753479526315797</v>
       </c>
       <c r="AW48" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.18362236842105295</v>
       </c>
       <c r="AX48" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-53.546404736842085</v>
       </c>
       <c r="AY48" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.52529023046842083</v>
       </c>
       <c r="AZ48" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.1750967434894736</v>
       </c>
       <c r="BA48" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.3618574749978931E-2</v>
       </c>
       <c r="BB48" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.6322857208128871</v>
       </c>
       <c r="BC48" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.19745793793894093</v>
       </c>
       <c r="BD48" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-23.459607494965883</v>
       </c>
       <c r="BE48" s="15"/>
@@ -25610,43 +25610,43 @@
       <c r="AS49" s="15"/>
       <c r="AT49" s="15"/>
       <c r="AU49" s="24">
+        <f t="shared" si="28"/>
+        <v>1394.7368421052636</v>
+      </c>
+      <c r="AV49" s="23">
         <f t="shared" si="20"/>
-        <v>1394.7368421052636</v>
-      </c>
-      <c r="AV49" s="23">
-        <f t="shared" si="12"/>
         <v>1.2198532157894744</v>
       </c>
       <c r="AW49" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.29035921052631619</v>
       </c>
       <c r="AX49" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-50.105878421052608</v>
       </c>
       <c r="AY49" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.49153866731052615</v>
       </c>
       <c r="AZ49" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.16384622243684205</v>
       </c>
       <c r="BA49" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.1458474707873677E-2</v>
       </c>
       <c r="BB49" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.5947254732803211</v>
       </c>
       <c r="BC49" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.3541956166946198</v>
       </c>
       <c r="BD49" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-12.972282142163829</v>
       </c>
       <c r="BE49" s="15"/>
@@ -25728,43 +25728,43 @@
       <c r="AS50" s="15"/>
       <c r="AT50" s="15"/>
       <c r="AU50" s="24">
+        <f t="shared" si="28"/>
+        <v>1473.6842105263163</v>
+      </c>
+      <c r="AV50" s="23">
         <f t="shared" si="20"/>
-        <v>1473.6842105263163</v>
-      </c>
-      <c r="AV50" s="23">
-        <f t="shared" si="12"/>
         <v>1.3643584789473695</v>
       </c>
       <c r="AW50" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.39709605263157943</v>
       </c>
       <c r="AX50" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-46.665352105263125</v>
       </c>
       <c r="AY50" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.4577871041526313</v>
       </c>
       <c r="AZ50" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.15259570138421044</v>
       </c>
       <c r="BA50" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.9298374665768408E-2</v>
       </c>
       <c r="BB50" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.5214485399989224</v>
       </c>
       <c r="BC50" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.54178136636442631</v>
       </c>
       <c r="BD50" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-8.3455224204916529</v>
       </c>
       <c r="BE50" s="15"/>
@@ -25828,43 +25828,43 @@
       <c r="AS51" s="15"/>
       <c r="AT51" s="15"/>
       <c r="AU51" s="24">
+        <f t="shared" si="28"/>
+        <v>1552.631578947369</v>
+      </c>
+      <c r="AV51" s="23">
         <f t="shared" si="20"/>
-        <v>1552.631578947369</v>
-      </c>
-      <c r="AV51" s="23">
-        <f t="shared" si="12"/>
         <v>1.5088637421052642</v>
       </c>
       <c r="AW51" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.50383289473684267</v>
       </c>
       <c r="AX51" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-43.224825789473655</v>
       </c>
       <c r="AY51" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.42403554099473661</v>
       </c>
       <c r="AZ51" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.14134518033157886</v>
       </c>
       <c r="BA51" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.7138274623663142E-2</v>
       </c>
       <c r="BB51" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.4124549209686919</v>
       </c>
       <c r="BC51" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.7602151869483601</v>
       </c>
       <c r="BD51" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-5.8042183275515402</v>
       </c>
       <c r="BE51" s="15"/>
@@ -25910,43 +25910,43 @@
       <c r="AS52" s="15"/>
       <c r="AT52" s="15"/>
       <c r="AU52" s="24">
+        <f t="shared" si="28"/>
+        <v>1631.5789473684217</v>
+      </c>
+      <c r="AV52" s="23">
         <f t="shared" si="20"/>
-        <v>1631.5789473684217</v>
-      </c>
-      <c r="AV52" s="23">
-        <f t="shared" si="12"/>
         <v>1.6533690052631593</v>
       </c>
       <c r="AW52" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.61056973684210569</v>
       </c>
       <c r="AX52" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-39.784299473684172</v>
       </c>
       <c r="AY52" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.39028397783684177</v>
       </c>
       <c r="AZ52" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.13009465927894726</v>
       </c>
       <c r="BA52" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.4978174581557874E-2</v>
       </c>
       <c r="BB52" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.2677446161896304</v>
       </c>
       <c r="BC52" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.0094970784464212</v>
       </c>
       <c r="BD52" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-4.2275948165769153</v>
       </c>
       <c r="BE52" s="15"/>
@@ -25992,43 +25992,43 @@
       <c r="AS53" s="15"/>
       <c r="AT53" s="15"/>
       <c r="AU53" s="24">
+        <f t="shared" si="28"/>
+        <v>1710.5263157894744</v>
+      </c>
+      <c r="AV53" s="23">
         <f t="shared" si="20"/>
-        <v>1710.5263157894744</v>
-      </c>
-      <c r="AV53" s="23">
-        <f t="shared" si="12"/>
         <v>1.797874268421054</v>
       </c>
       <c r="AW53" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.71730657894736916</v>
       </c>
       <c r="AX53" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-36.343773157894702</v>
       </c>
       <c r="AY53" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.35653241467894703</v>
       </c>
       <c r="AZ53" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.11884413822631568</v>
       </c>
       <c r="BA53" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.2818074539452608E-2</v>
       </c>
       <c r="BB53" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-4.0873176256617381</v>
       </c>
       <c r="BC53" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.2896270408586104</v>
       </c>
       <c r="BD53" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-3.1693795928321076</v>
       </c>
       <c r="BE53" s="15"/>
@@ -26074,43 +26074,43 @@
       <c r="AS54" s="15"/>
       <c r="AT54" s="15"/>
       <c r="AU54" s="24">
+        <f t="shared" si="28"/>
+        <v>1789.4736842105272</v>
+      </c>
+      <c r="AV54" s="23">
         <f t="shared" si="20"/>
-        <v>1789.4736842105272</v>
-      </c>
-      <c r="AV54" s="23">
-        <f t="shared" si="12"/>
         <v>1.9423795315789492</v>
       </c>
       <c r="AW54" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.82404342105263262</v>
       </c>
       <c r="AX54" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-32.903246842105219</v>
       </c>
       <c r="AY54" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.32278085152105224</v>
       </c>
       <c r="AZ54" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-0.10759361717368408</v>
       </c>
       <c r="BA54" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.0657974497347343E-2</v>
       </c>
       <c r="BB54" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-3.8711739493850152</v>
       </c>
       <c r="BC54" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.6006050741849274</v>
       </c>
       <c r="BD54" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-2.41856908479209</v>
       </c>
       <c r="BE54" s="15"/>
@@ -26156,43 +26156,43 @@
       <c r="AS55" s="15"/>
       <c r="AT55" s="15"/>
       <c r="AU55" s="24">
+        <f t="shared" si="28"/>
+        <v>1868.4210526315799</v>
+      </c>
+      <c r="AV55" s="23">
         <f t="shared" si="20"/>
-        <v>1868.4210526315799</v>
-      </c>
-      <c r="AV55" s="23">
-        <f t="shared" si="12"/>
         <v>2.0868847947368439</v>
       </c>
       <c r="AW55" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.93078026315789564</v>
       </c>
       <c r="AX55" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-29.462720526315749</v>
       </c>
       <c r="AY55" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.2890292883631575</v>
       </c>
       <c r="AZ55" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-9.6343096121052504E-2</v>
       </c>
       <c r="BA55" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.8497874455242081E-2</v>
       </c>
       <c r="BB55" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-3.6193135873594624</v>
       </c>
       <c r="BC55" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.9424311784253705</v>
       </c>
       <c r="BD55" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1.8632905132286099</v>
       </c>
       <c r="BE55" s="15"/>
@@ -26238,43 +26238,43 @@
       <c r="AS56" s="15"/>
       <c r="AT56" s="15"/>
       <c r="AU56" s="24">
+        <f t="shared" si="28"/>
+        <v>1947.3684210526326</v>
+      </c>
+      <c r="AV56" s="23">
         <f t="shared" si="20"/>
-        <v>1947.3684210526326</v>
-      </c>
-      <c r="AV56" s="23">
-        <f t="shared" si="12"/>
         <v>2.2313900578947385</v>
       </c>
       <c r="AW56" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.0375171052631591</v>
       </c>
       <c r="AX56" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-26.022194210526266</v>
       </c>
       <c r="AY56" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.25527772520526265</v>
       </c>
       <c r="AZ56" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-8.5092575068420884E-2</v>
       </c>
       <c r="BA56" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.6337774413136809E-2</v>
       </c>
       <c r="BB56" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-3.3317365395850755</v>
       </c>
       <c r="BC56" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.3151053535799422</v>
       </c>
       <c r="BD56" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1.4391295559975597</v>
       </c>
       <c r="BE56" s="15"/>
@@ -26320,43 +26320,43 @@
       <c r="AS57" s="15"/>
       <c r="AT57" s="15"/>
       <c r="AU57" s="24">
+        <f t="shared" si="28"/>
+        <v>2026.3157894736853</v>
+      </c>
+      <c r="AV57" s="23">
         <f t="shared" si="20"/>
-        <v>2026.3157894736853</v>
-      </c>
-      <c r="AV57" s="23">
-        <f t="shared" si="12"/>
         <v>2.3758953210526337</v>
       </c>
       <c r="AW57" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.1442539473684221</v>
       </c>
       <c r="AX57" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-22.581667894736796</v>
       </c>
       <c r="AY57" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.221526162047368</v>
       </c>
       <c r="AZ57" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-7.3842054015789332E-2</v>
       </c>
       <c r="BA57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.4177674371031552E-2</v>
       </c>
       <c r="BB57" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-3.0084428060618609</v>
       </c>
       <c r="BC57" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.7186275996486406</v>
       </c>
       <c r="BD57" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1.1066034959884452</v>
       </c>
       <c r="BE57" s="15"/>
@@ -26402,43 +26402,43 @@
       <c r="AS58" s="15"/>
       <c r="AT58" s="15"/>
       <c r="AU58" s="24">
+        <f t="shared" si="28"/>
+        <v>2105.263157894738</v>
+      </c>
+      <c r="AV58" s="23">
         <f t="shared" si="20"/>
-        <v>2105.263157894738</v>
-      </c>
-      <c r="AV58" s="23">
-        <f t="shared" si="12"/>
         <v>2.5204005842105284</v>
       </c>
       <c r="AW58" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.2509907894736856</v>
       </c>
       <c r="AX58" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-19.141141578947312</v>
       </c>
       <c r="AY58" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.18777459888947315</v>
       </c>
       <c r="AZ58" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-6.2591532963157712E-2</v>
       </c>
       <c r="BA58" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.201757432892628E-2</v>
       </c>
       <c r="BB58" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-2.6494323867898117</v>
       </c>
       <c r="BC58" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3.1529979166314672</v>
       </c>
       <c r="BD58" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-0.84028992623641052</v>
       </c>
       <c r="BE58" s="15"/>
@@ -26484,43 +26484,43 @@
       <c r="AS59" s="15"/>
       <c r="AT59" s="15"/>
       <c r="AU59" s="24">
+        <f t="shared" si="28"/>
+        <v>2184.2105263157905</v>
+      </c>
+      <c r="AV59" s="23">
         <f t="shared" si="20"/>
-        <v>2184.2105263157905</v>
-      </c>
-      <c r="AV59" s="23">
-        <f t="shared" si="12"/>
         <v>2.6649058473684231</v>
       </c>
       <c r="AW59" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.3577276315789486</v>
       </c>
       <c r="AX59" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-15.700615263157843</v>
       </c>
       <c r="AY59" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.15402303573157847</v>
       </c>
       <c r="AZ59" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-5.1341011910526153E-2</v>
       </c>
       <c r="BA59" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-9.8574742868210215E-3</v>
       </c>
       <c r="BB59" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-2.2547052817689348</v>
       </c>
       <c r="BC59" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3.6182163045284201</v>
       </c>
       <c r="BD59" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-0.62315381171297923</v>
       </c>
       <c r="BE59" s="15"/>
@@ -26566,43 +26566,43 @@
       <c r="AS60" s="15"/>
       <c r="AT60" s="15"/>
       <c r="AU60" s="24">
+        <f t="shared" si="28"/>
+        <v>2263.157894736843</v>
+      </c>
+      <c r="AV60" s="23">
         <f t="shared" si="20"/>
-        <v>2263.157894736843</v>
-      </c>
-      <c r="AV60" s="23">
-        <f t="shared" si="12"/>
         <v>2.8094111105263178</v>
       </c>
       <c r="AW60" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.4644644736842116</v>
       </c>
       <c r="AX60" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-12.260088947368374</v>
       </c>
       <c r="AY60" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.12027147257368376</v>
       </c>
       <c r="AZ60" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-4.0090490857894588E-2</v>
       </c>
       <c r="BA60" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-7.6973742447157606E-3</v>
       </c>
       <c r="BB60" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-1.8242614909992261</v>
       </c>
       <c r="BC60" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4.1142827633395003</v>
       </c>
       <c r="BD60" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-0.44339720819735323</v>
       </c>
       <c r="BE60" s="15"/>
@@ -26648,43 +26648,43 @@
       <c r="AS61" s="15"/>
       <c r="AT61" s="15"/>
       <c r="AU61" s="24">
+        <f t="shared" si="28"/>
+        <v>2342.1052631578955</v>
+      </c>
+      <c r="AV61" s="23">
         <f t="shared" si="20"/>
-        <v>2342.1052631578955</v>
-      </c>
-      <c r="AV61" s="23">
-        <f t="shared" si="12"/>
         <v>2.953916373684212</v>
       </c>
       <c r="AW61" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.5712013157894742</v>
       </c>
       <c r="AX61" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-8.8195626315789042</v>
       </c>
       <c r="AY61" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-8.6519909415789062E-2</v>
       </c>
       <c r="AZ61" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-2.8839969805263019E-2</v>
       </c>
       <c r="BA61" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-5.5372742026104996E-3</v>
       </c>
       <c r="BB61" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-1.3581010144806864</v>
       </c>
       <c r="BC61" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4.6411972930647059</v>
       </c>
       <c r="BD61" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-0.29261867762227711</v>
       </c>
       <c r="BE61" s="15"/>
@@ -26730,43 +26730,43 @@
       <c r="AS62" s="15"/>
       <c r="AT62" s="15"/>
       <c r="AU62" s="24">
+        <f t="shared" si="28"/>
+        <v>2421.052631578948</v>
+      </c>
+      <c r="AV62" s="23">
         <f t="shared" si="20"/>
-        <v>2421.052631578948</v>
-      </c>
-      <c r="AV62" s="23">
-        <f t="shared" si="12"/>
         <v>3.0984216368421063</v>
       </c>
       <c r="AW62" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.6779381578947372</v>
       </c>
       <c r="AX62" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-5.379036315789449</v>
       </c>
       <c r="AY62" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-5.2768346257894498E-2</v>
       </c>
       <c r="AZ62" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-1.7589448752631499E-2</v>
       </c>
       <c r="BA62" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.3771741605052477E-3</v>
       </c>
       <c r="BB62" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-0.85622385221331798</v>
       </c>
       <c r="BC62" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>5.19895989370404</v>
       </c>
       <c r="BD62" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-0.16469137475944146</v>
       </c>
       <c r="BE62" s="15"/>
@@ -26812,43 +26812,43 @@
       <c r="AS63" s="15"/>
       <c r="AT63" s="15"/>
       <c r="AU63" s="24">
+        <f t="shared" si="28"/>
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="AV63" s="23">
         <f t="shared" si="20"/>
-        <v>2500.0000000000005</v>
-      </c>
-      <c r="AV63" s="23">
-        <f t="shared" si="12"/>
         <v>3.2429269000000005</v>
       </c>
       <c r="AW63" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.7846750000000002</v>
       </c>
       <c r="AX63" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-1.9385099999999795</v>
       </c>
       <c r="AY63" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-1.9016783099999799E-2</v>
       </c>
       <c r="AZ63" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-6.3389276999999333E-3</v>
       </c>
       <c r="BA63" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.2170741183999871E-3</v>
       </c>
       <c r="BB63" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-0.31863000419711668</v>
       </c>
       <c r="BC63" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>5.7875705652575018</v>
       </c>
       <c r="BD63" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-5.5054189077164216E-2</v>
       </c>
       <c r="BE63" s="15"/>
@@ -26894,43 +26894,43 @@
       <c r="AS64" s="15"/>
       <c r="AT64" s="15"/>
       <c r="AU64" s="24">
+        <f t="shared" si="28"/>
+        <v>2578.9473684210529</v>
+      </c>
+      <c r="AV64" s="23">
         <f t="shared" si="20"/>
-        <v>2578.9473684210529</v>
-      </c>
-      <c r="AV64" s="23">
-        <f t="shared" si="12"/>
         <v>3.3874321631578956</v>
       </c>
       <c r="AW64" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.8914118421052633</v>
       </c>
       <c r="AX64" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.5020163157894899</v>
       </c>
       <c r="AY64" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.4734780057894897E-2</v>
       </c>
       <c r="AZ64" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.9115933526316319E-3</v>
       </c>
       <c r="BA64" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.4302592370527341E-4</v>
       </c>
       <c r="BB64" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.25468052956791554</v>
       </c>
       <c r="BC64" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>6.4070293077250922</v>
       </c>
       <c r="BD64" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.9750173962969357E-2</v>
       </c>
       <c r="BE64" s="15"/>
@@ -26976,43 +26976,43 @@
       <c r="AS65" s="15"/>
       <c r="AT65" s="15"/>
       <c r="AU65" s="24">
+        <f t="shared" si="28"/>
+        <v>2657.8947368421054</v>
+      </c>
+      <c r="AV65" s="23">
         <f t="shared" si="20"/>
-        <v>2657.8947368421054</v>
-      </c>
-      <c r="AV65" s="23">
-        <f t="shared" si="12"/>
         <v>3.5319374263157899</v>
       </c>
       <c r="AW65" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.9981486842105263</v>
       </c>
       <c r="AX65" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>4.9425426315789593</v>
       </c>
       <c r="AY65" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4.8486343215789596E-2</v>
       </c>
       <c r="AZ65" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.61621144052632E-2</v>
       </c>
       <c r="BA65" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.103125965810534E-3</v>
       </c>
       <c r="BB65" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.86370774908177872</v>
       </c>
       <c r="BC65" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.0573361211068084</v>
       </c>
       <c r="BD65" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.12238438615650386</v>
       </c>
       <c r="BE65" s="15"/>
@@ -27046,43 +27046,43 @@
       <c r="AS66" s="15"/>
       <c r="AT66" s="15"/>
       <c r="AU66" s="24">
+        <f t="shared" si="28"/>
+        <v>2736.8421052631579</v>
+      </c>
+      <c r="AV66" s="23">
         <f t="shared" si="20"/>
-        <v>2736.8421052631579</v>
-      </c>
-      <c r="AV66" s="23">
-        <f t="shared" si="12"/>
         <v>3.6764426894736841</v>
       </c>
       <c r="AW66" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.1048855263157895</v>
       </c>
       <c r="AX66" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>8.3830689473684288</v>
       </c>
       <c r="AY66" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.2237906373684291E-2</v>
       </c>
       <c r="AZ66" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>2.7412635457894765E-2</v>
       </c>
       <c r="BA66" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.2632260079157949E-3</v>
       </c>
       <c r="BB66" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.508451654344473</v>
       </c>
       <c r="BC66" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.7384910054026523</v>
       </c>
       <c r="BD66" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.1949283979643244</v>
       </c>
       <c r="BE66" s="15"/>
@@ -27126,43 +27126,43 @@
       <c r="AS67" s="15"/>
       <c r="AT67" s="15"/>
       <c r="AU67" s="24">
+        <f t="shared" si="28"/>
+        <v>2815.7894736842104</v>
+      </c>
+      <c r="AV67" s="23">
         <f t="shared" si="20"/>
-        <v>2815.7894736842104</v>
-      </c>
-      <c r="AV67" s="23">
-        <f t="shared" si="12"/>
         <v>3.8209479526315793</v>
       </c>
       <c r="AW67" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.2116223684210521</v>
       </c>
       <c r="AX67" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>11.823595263157898</v>
       </c>
       <c r="AY67" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.11598946953157899</v>
       </c>
       <c r="AZ67" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3.8663156510526327E-2</v>
       </c>
       <c r="BA67" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7.4233260500210551E-3</v>
       </c>
       <c r="BB67" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2.1889122453559975</v>
       </c>
       <c r="BC67" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>8.4504939606126239</v>
       </c>
       <c r="BD67" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.259027727320843</v>
       </c>
       <c r="BE67" s="15"/>
@@ -27196,43 +27196,43 @@
       <c r="AS68" s="15"/>
       <c r="AT68" s="15"/>
       <c r="AU68" s="24">
+        <f t="shared" si="28"/>
+        <v>2894.7368421052629</v>
+      </c>
+      <c r="AV68" s="23">
         <f t="shared" si="20"/>
-        <v>2894.7368421052629</v>
-      </c>
-      <c r="AV68" s="23">
-        <f t="shared" si="12"/>
         <v>3.9654532157894735</v>
       </c>
       <c r="AW68" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.3183592105263147</v>
       </c>
       <c r="AX68" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>15.264121578947368</v>
       </c>
       <c r="AY68" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.1497410326894737</v>
       </c>
       <c r="AZ68" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.9913677563157899E-2</v>
       </c>
       <c r="BA68" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.583426092126316E-3</v>
       </c>
       <c r="BB68" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2.9050895221163535</v>
       </c>
       <c r="BC68" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9.1933449867367187</v>
       </c>
       <c r="BD68" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.31599918487857681</v>
       </c>
       <c r="BE68" s="15"/>
@@ -27284,43 +27284,43 @@
       <c r="AS69" s="15"/>
       <c r="AT69" s="15"/>
       <c r="AU69" s="24">
+        <f t="shared" si="28"/>
+        <v>2973.6842105263154</v>
+      </c>
+      <c r="AV69" s="23">
         <f t="shared" si="20"/>
-        <v>2973.6842105263154</v>
-      </c>
-      <c r="AV69" s="23">
-        <f t="shared" si="12"/>
         <v>4.1099584789473678</v>
       </c>
       <c r="AW69" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.4250960526315781</v>
       </c>
       <c r="AX69" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>18.704647894736837</v>
       </c>
       <c r="AY69" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.18349259584736838</v>
       </c>
       <c r="AZ69" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.1164198615789457E-2</v>
       </c>
       <c r="BA69" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.1743526134231576E-2</v>
       </c>
       <c r="BB69" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.6569834846255405</v>
       </c>
       <c r="BC69" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9.9670440837749474</v>
       </c>
       <c r="BD69" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.36690752583091657</v>
       </c>
       <c r="BE69" s="15"/>
@@ -27390,39 +27390,39 @@
       <c r="AS70" s="15"/>
       <c r="AT70" s="15"/>
       <c r="AU70" s="24">
+        <f t="shared" si="28"/>
+        <v>3052.6315789473679</v>
+      </c>
+      <c r="AV70" s="23">
         <f t="shared" si="20"/>
-        <v>3052.6315789473679</v>
-      </c>
-      <c r="AV70" s="23">
-        <f t="shared" si="12"/>
         <v>4.254463742105262</v>
       </c>
       <c r="AW70" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.5318328947368416</v>
       </c>
       <c r="AX70" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>22.145174210526307</v>
       </c>
       <c r="AY70" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21724415900526306</v>
       </c>
       <c r="AZ70" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>7.2414719668421015E-2</v>
       </c>
       <c r="BA70" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.3903626176336836E-2</v>
       </c>
       <c r="BB70" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>4.4445941328835579</v>
       </c>
       <c r="BC70" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>10.771591251727301</v>
       </c>
       <c r="BD70" s="19">
@@ -27496,43 +27496,43 @@
       <c r="AS71" s="15"/>
       <c r="AT71" s="15"/>
       <c r="AU71" s="24">
+        <f t="shared" si="28"/>
+        <v>3131.5789473684204</v>
+      </c>
+      <c r="AV71" s="23">
         <f t="shared" si="20"/>
-        <v>3131.5789473684204</v>
-      </c>
-      <c r="AV71" s="23">
-        <f t="shared" si="12"/>
         <v>4.3989690052631572</v>
       </c>
       <c r="AW71" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.6385697368421042</v>
       </c>
       <c r="AX71" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>25.585700526315776</v>
       </c>
       <c r="AY71" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.2509957221631578</v>
       </c>
       <c r="AZ71" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.3665240721052594E-2</v>
       </c>
       <c r="BA71" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.6063726218442098E-2</v>
       </c>
       <c r="BB71" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5.2679214668904075</v>
       </c>
       <c r="BC71" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>11.606986490593782</v>
       </c>
       <c r="BD71" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.45385780979063717</v>
       </c>
       <c r="BE71" s="15"/>
@@ -27602,43 +27602,43 @@
       <c r="AS72" s="15"/>
       <c r="AT72" s="15"/>
       <c r="AU72" s="24">
+        <f t="shared" si="28"/>
+        <v>3210.5263157894728</v>
+      </c>
+      <c r="AV72" s="23">
         <f t="shared" si="20"/>
-        <v>3210.5263157894728</v>
-      </c>
-      <c r="AV72" s="23">
-        <f t="shared" si="12"/>
         <v>4.5434742684210514</v>
       </c>
       <c r="AW72" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.7453065789473667</v>
       </c>
       <c r="AX72" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>29.026226842105245</v>
       </c>
       <c r="AY72" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.28474728532105248</v>
       </c>
       <c r="AZ72" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>9.491576177368416E-2</v>
       </c>
       <c r="BA72" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.822382626054736E-2</v>
       </c>
       <c r="BB72" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>6.1269654866460872</v>
       </c>
       <c r="BC72" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>12.473229800374387</v>
       </c>
       <c r="BD72" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.49120922044282267</v>
       </c>
       <c r="BE72" s="15"/>
@@ -27708,43 +27708,43 @@
       <c r="AS73" s="15"/>
       <c r="AT73" s="15"/>
       <c r="AU73" s="24">
+        <f t="shared" si="28"/>
+        <v>3289.4736842105253</v>
+      </c>
+      <c r="AV73" s="23">
         <f t="shared" si="20"/>
-        <v>3289.4736842105253</v>
-      </c>
-      <c r="AV73" s="23">
-        <f t="shared" si="12"/>
         <v>4.6879795315789456</v>
       </c>
       <c r="AW73" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.8520434210526302</v>
       </c>
       <c r="AX73" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>32.466753157894686</v>
       </c>
       <c r="AY73" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.31849884847894694</v>
       </c>
       <c r="AZ73" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.10616628282631564</v>
       </c>
       <c r="BA73" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.0383926302652604E-2</v>
       </c>
       <c r="BB73" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>7.0217261921505925</v>
       </c>
       <c r="BC73" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>13.370321181069123</v>
       </c>
       <c r="BD73" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.52517258912916542</v>
       </c>
       <c r="BE73" s="15"/>
@@ -27790,43 +27790,43 @@
       <c r="AS74" s="15"/>
       <c r="AT74" s="15"/>
       <c r="AU74" s="24">
+        <f t="shared" si="28"/>
+        <v>3368.4210526315778</v>
+      </c>
+      <c r="AV74" s="23">
         <f t="shared" si="20"/>
-        <v>3368.4210526315778</v>
-      </c>
-      <c r="AV74" s="23">
-        <f t="shared" si="12"/>
         <v>4.8324847947368399</v>
       </c>
       <c r="AW74" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.9587802631578928</v>
       </c>
       <c r="AX74" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>35.907279473684156</v>
       </c>
       <c r="AY74" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.35225041163684156</v>
       </c>
       <c r="AZ74" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.11741680387894719</v>
       </c>
       <c r="BA74" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.2544026344757859E-2</v>
       </c>
       <c r="BB74" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>7.9522035834039313</v>
       </c>
       <c r="BC74" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>14.298260632677982</v>
       </c>
       <c r="BD74" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.55616580140031546</v>
       </c>
       <c r="BE74" s="15"/>
@@ -27872,43 +27872,43 @@
       <c r="AS75" s="15"/>
       <c r="AT75" s="15"/>
       <c r="AU75" s="24">
+        <f t="shared" si="28"/>
+        <v>3447.3684210526303</v>
+      </c>
+      <c r="AV75" s="23">
         <f t="shared" si="20"/>
-        <v>3447.3684210526303</v>
-      </c>
-      <c r="AV75" s="23">
-        <f t="shared" si="12"/>
         <v>4.976990057894735</v>
       </c>
       <c r="AW75" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.0655171052631562</v>
       </c>
       <c r="AX75" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>39.347805789473625</v>
       </c>
       <c r="AY75" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.38600197479473625</v>
       </c>
       <c r="AZ75" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.12866732493157876</v>
       </c>
       <c r="BA75" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.4704126386863125E-2</v>
       </c>
       <c r="BB75" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8.9183976604061055</v>
       </c>
       <c r="BC75" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>15.257048155200977</v>
       </c>
       <c r="BD75" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.58454280078849408</v>
       </c>
       <c r="BE75" s="15"/>
@@ -27954,43 +27954,43 @@
       <c r="AS76" s="15"/>
       <c r="AT76" s="15"/>
       <c r="AU76" s="24">
+        <f t="shared" si="28"/>
+        <v>3526.3157894736828</v>
+      </c>
+      <c r="AV76" s="23">
         <f t="shared" si="20"/>
-        <v>3526.3157894736828</v>
-      </c>
-      <c r="AV76" s="23">
-        <f t="shared" si="12"/>
         <v>5.1214953210526293</v>
       </c>
       <c r="AW76" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.1722539473684188</v>
       </c>
       <c r="AX76" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>42.788332105263095</v>
       </c>
       <c r="AY76" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.41975353795263098</v>
       </c>
       <c r="AZ76" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.13991784598421034</v>
       </c>
       <c r="BA76" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.6864226428968387E-2</v>
       </c>
       <c r="BB76" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>9.9203084231571079</v>
       </c>
       <c r="BC76" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>16.246683748638091</v>
       </c>
       <c r="BD76" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.61060512881520801</v>
       </c>
       <c r="BE76" s="15"/>
@@ -28036,43 +28036,43 @@
       <c r="AS77" s="15"/>
       <c r="AT77" s="15"/>
       <c r="AU77" s="24">
+        <f t="shared" si="28"/>
+        <v>3605.2631578947353</v>
+      </c>
+      <c r="AV77" s="23">
         <f t="shared" si="20"/>
-        <v>3605.2631578947353</v>
-      </c>
-      <c r="AV77" s="23">
-        <f t="shared" si="12"/>
         <v>5.2660005842105235</v>
       </c>
       <c r="AW77" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.2789907894736823</v>
       </c>
       <c r="AX77" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>46.228858421052564</v>
       </c>
       <c r="AY77" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.45350510111052567</v>
       </c>
       <c r="AZ77" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.15116836703684189</v>
       </c>
       <c r="BA77" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.9024326471073641E-2</v>
       </c>
       <c r="BB77" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>10.957935871656941</v>
       </c>
       <c r="BC77" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>17.267167412989338</v>
       </c>
       <c r="BD77" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.63461108643759157</v>
       </c>
       <c r="BE77" s="15"/>
@@ -28118,43 +28118,43 @@
       <c r="AS78" s="15"/>
       <c r="AT78" s="15"/>
       <c r="AU78" s="24">
+        <f t="shared" si="28"/>
+        <v>3684.2105263157878</v>
+      </c>
+      <c r="AV78" s="23">
         <f t="shared" si="20"/>
-        <v>3684.2105263157878</v>
-      </c>
-      <c r="AV78" s="23">
-        <f t="shared" si="12"/>
         <v>5.4105058473684178</v>
       </c>
       <c r="AW78" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.3857276315789449</v>
       </c>
       <c r="AX78" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>49.669384736842034</v>
       </c>
       <c r="AY78" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.48725666426842035</v>
       </c>
       <c r="AZ78" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.16241888808947344</v>
       </c>
       <c r="BA78" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.11844265131789E-2</v>
       </c>
       <c r="BB78" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>12.031280005905604</v>
       </c>
       <c r="BC78" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>18.318499148254705</v>
       </c>
       <c r="BD78" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.65678306440579137</v>
       </c>
       <c r="BE78" s="15"/>
@@ -28200,43 +28200,43 @@
       <c r="AS79" s="15"/>
       <c r="AT79" s="15"/>
       <c r="AU79" s="24">
+        <f t="shared" si="28"/>
+        <v>3763.1578947368403</v>
+      </c>
+      <c r="AV79" s="23">
         <f t="shared" si="20"/>
-        <v>3763.1578947368403</v>
-      </c>
-      <c r="AV79" s="23">
-        <f t="shared" si="12"/>
         <v>5.5550111105263129</v>
       </c>
       <c r="AW79" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.4924644736842074</v>
       </c>
       <c r="AX79" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>53.109911052631503</v>
       </c>
       <c r="AY79" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.52100822742631514</v>
       </c>
       <c r="AZ79" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.17366940914210505</v>
       </c>
       <c r="BA79" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.3344526555284172E-2</v>
       </c>
       <c r="BB79" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>13.140340825903104</v>
       </c>
       <c r="BC79" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19.400678954434206</v>
       </c>
       <c r="BD79" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.67731345159442258</v>
       </c>
       <c r="BE79" s="15"/>
@@ -28282,43 +28282,43 @@
       <c r="AS80" s="15"/>
       <c r="AT80" s="15"/>
       <c r="AU80" s="24">
+        <f t="shared" si="28"/>
+        <v>3842.1052631578928</v>
+      </c>
+      <c r="AV80" s="23">
         <f t="shared" si="20"/>
-        <v>3842.1052631578928</v>
-      </c>
-      <c r="AV80" s="23">
-        <f t="shared" si="12"/>
         <v>5.6995163736842072</v>
       </c>
       <c r="AW80" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.5992013157894709</v>
       </c>
       <c r="AX80" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>56.550437368420972</v>
       </c>
       <c r="AY80" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.55475979058420977</v>
       </c>
       <c r="AZ80" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.1849199301947366</v>
       </c>
       <c r="BA80" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.5504626597389427E-2</v>
       </c>
       <c r="BB80" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>14.285118331649429</v>
       </c>
       <c r="BC80" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>20.513706831527831</v>
       </c>
       <c r="BD80" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.69636942991182904</v>
       </c>
       <c r="BE80" s="15"/>
@@ -28364,43 +28364,43 @@
       <c r="AS81" s="15"/>
       <c r="AT81" s="15"/>
       <c r="AU81" s="24">
+        <f t="shared" si="28"/>
+        <v>3921.0526315789452</v>
+      </c>
+      <c r="AV81" s="23">
         <f t="shared" si="20"/>
-        <v>3921.0526315789452</v>
-      </c>
-      <c r="AV81" s="23">
-        <f t="shared" si="12"/>
         <v>5.8440216368421014</v>
       </c>
       <c r="AW81" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.7059381578947335</v>
       </c>
       <c r="AX81" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>59.990963684210442</v>
       </c>
       <c r="AY81" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.5885113537421045</v>
       </c>
       <c r="AZ81" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.19617045124736818</v>
       </c>
       <c r="BA81" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.7664726639494689E-2</v>
       </c>
       <c r="BB81" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>15.465612523144586</v>
       </c>
       <c r="BC81" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>21.657582779535581</v>
       </c>
       <c r="BD81" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.71409689070925142</v>
       </c>
       <c r="BE81" s="15"/>
@@ -28449,19 +28449,19 @@
         <v>4000</v>
       </c>
       <c r="AV82" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.9885269000000001</v>
       </c>
       <c r="AW82" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.8126749999999996</v>
       </c>
       <c r="AX82" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>63.431489999999997</v>
       </c>
       <c r="AY82" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.62226291690000002</v>
       </c>
       <c r="AZ82" s="22">
@@ -28473,15 +28473,15 @@
         <v>3.9824826681599999E-2</v>
       </c>
       <c r="BB82" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>16.681823400388609</v>
       </c>
       <c r="BC82" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>22.832306798457498</v>
       </c>
       <c r="BD82" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.73062365303866705</v>
       </c>
       <c r="BE82" s="15"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB26EB-F7E5-4181-866B-F44A010963A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD4930-573A-45A2-A05B-167CFCB15427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,10 +763,56 @@
                   <c:y val="0.30344492295158976"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,00205x - 1,98990</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,98908</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -780,10 +826,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -5435,14 +5478,63 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6821061618505416E-2"/>
-                  <c:y val="0.30344492295158976"/>
+                  <c:x val="8.8861368854714753E-2"/>
+                  <c:y val="0.36889245585874803"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,00155x - 2,26616</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,99540</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -5999,10 +6091,59 @@
                   <c:y val="0.30344492295158976"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,00187x - 1,40300</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,98918</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -6559,10 +6700,59 @@
                   <c:y val="0.30344492295158976"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,00135x - 1,57916</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,98119</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -7125,10 +7315,59 @@
                   <c:y val="0.40579852223898794"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,0018304x - 1,3330731</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9905150</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-DK" sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -7689,10 +7928,59 @@
                   <c:y val="0.39579327050991425"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,001352x - 1,595325</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,985288</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-DK" sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -8245,10 +8533,47 @@
                   <c:y val="0.30344492295158976"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                      <a:t>y = 0,02841x - 61,04041</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                      <a:t>R² = 0,58561</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -8805,10 +9130,59 @@
                   <c:y val="0.30344492295158976"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,04358x - 110,88851</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-DK" sz="1050" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,98204</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-DK" sz="1050">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -19599,8 +19973,8 @@
   </sheetPr>
   <dimension ref="A1:CB159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB26EB-F7E5-4181-866B-F44A010963A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049FE56-28AB-48F4-9259-C4C937CC304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Målinger" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>Volt</t>
   </si>
@@ -119,15 +119,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>Omdrejningstal</t>
-  </si>
-  <si>
-    <t>Spænding</t>
-  </si>
-  <si>
-    <t>Strømstyrke</t>
   </si>
   <si>
     <t>Interpolering for 1:1</t>
@@ -587,18 +578,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
-    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
-    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
-    <cellStyle name="60% - Accent5" xfId="11" builtinId="48"/>
-    <cellStyle name="Accent1" xfId="9" builtinId="29"/>
-    <cellStyle name="Accent3" xfId="10" builtinId="37"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="20 % - Farve1" xfId="4" builtinId="30"/>
+    <cellStyle name="20 % - Farve3" xfId="8" builtinId="38"/>
+    <cellStyle name="40 % - Farve4" xfId="5" builtinId="43"/>
+    <cellStyle name="40 % - Farve5" xfId="6" builtinId="47"/>
+    <cellStyle name="60 % - Farve2" xfId="7" builtinId="36"/>
+    <cellStyle name="60 % - Farve5" xfId="11" builtinId="48"/>
+    <cellStyle name="Farve1" xfId="9" builtinId="29"/>
+    <cellStyle name="Farve3" xfId="10" builtinId="37"/>
+    <cellStyle name="God" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,7 +607,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -683,7 +674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -790,7 +781,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -958,7 +949,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -994,7 +985,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1078,7 +1069,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1114,7 +1105,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1162,7 +1153,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1176,7 +1167,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1243,7 +1234,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1409,7 +1400,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1577,7 +1568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1613,7 +1604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1666,7 +1657,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="da-DK" sz="1400" baseline="0"/>
-                  <a:t> [V]</a:t>
+                  <a:t> [A]</a:t>
                 </a:r>
                 <a:endParaRPr lang="da-DK" sz="1400"/>
               </a:p>
@@ -1697,7 +1688,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1733,7 +1724,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1781,7 +1772,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1795,7 +1786,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1858,7 +1849,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1961,7 +1952,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2129,7 +2120,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2165,7 +2156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2249,7 +2240,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2285,7 +2276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2333,7 +2324,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2347,7 +2338,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2410,7 +2401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2570,7 +2561,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2738,7 +2729,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2774,7 +2765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2858,7 +2849,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2894,7 +2885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2942,7 +2933,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2956,7 +2947,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3019,7 +3010,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3126,7 +3117,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3294,7 +3285,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3330,7 +3321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -3414,7 +3405,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3450,7 +3441,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -3498,7 +3489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3512,7 +3503,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3575,7 +3566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3731,7 +3722,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3899,7 +3890,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3935,7 +3926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4019,7 +4010,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4055,7 +4046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4103,7 +4094,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4117,7 +4108,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4184,7 +4175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4340,7 +4331,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4508,7 +4499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4544,7 +4535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4628,7 +4619,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4664,7 +4655,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4712,7 +4703,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4726,7 +4717,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4793,7 +4784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4900,7 +4891,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5074,7 +5065,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5110,7 +5101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -5194,7 +5185,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5230,7 +5221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -5278,7 +5269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5292,7 +5283,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5359,7 +5350,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5466,7 +5457,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5634,7 +5625,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5670,7 +5661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -5723,7 +5714,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="da-DK" sz="1400" baseline="0"/>
-                  <a:t> [V]</a:t>
+                  <a:t> [A]</a:t>
                 </a:r>
                 <a:endParaRPr lang="da-DK" sz="1400"/>
               </a:p>
@@ -5754,7 +5745,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5790,7 +5781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -5838,7 +5829,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5852,7 +5843,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5919,7 +5910,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6026,7 +6017,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6194,7 +6185,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6230,7 +6221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6314,7 +6305,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6350,7 +6341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6398,7 +6389,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6412,7 +6403,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6479,7 +6470,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6586,7 +6577,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6760,7 +6751,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6796,7 +6787,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6849,7 +6840,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="da-DK" sz="1400" baseline="0"/>
-                  <a:t> [V]</a:t>
+                  <a:t> [A]</a:t>
                 </a:r>
                 <a:endParaRPr lang="da-DK" sz="1400"/>
               </a:p>
@@ -6880,7 +6871,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6916,7 +6907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6964,7 +6955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6978,7 +6969,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7045,7 +7036,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7152,7 +7143,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7314,7 +7305,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7350,7 +7341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -7434,7 +7425,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7470,7 +7461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -7518,7 +7509,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7532,7 +7523,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7599,7 +7590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7716,7 +7707,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7884,7 +7875,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7920,7 +7911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -7973,7 +7964,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="da-DK" sz="1400" baseline="0"/>
-                  <a:t> [V]</a:t>
+                  <a:t> [A]</a:t>
                 </a:r>
                 <a:endParaRPr lang="da-DK" sz="1400"/>
               </a:p>
@@ -8004,7 +7995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8040,7 +8031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -8088,7 +8079,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8102,7 +8093,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8165,7 +8156,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8272,7 +8263,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8440,7 +8431,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8476,7 +8467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -8560,7 +8551,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8596,7 +8587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -8644,7 +8635,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8658,7 +8649,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8725,7 +8716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8832,7 +8823,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9000,7 +8991,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9036,7 +9027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -9120,7 +9111,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9156,7 +9147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9204,7 +9195,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9218,7 +9209,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9285,7 +9276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9441,7 +9432,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9609,7 +9600,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9645,7 +9636,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -9729,7 +9720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9765,7 +9756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9813,7 +9804,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19599,50 +19590,48 @@
   </sheetPr>
   <dimension ref="A1:CB159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView tabSelected="1" topLeftCell="AS37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU44" sqref="AU44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="13.77734375" customWidth="1"/>
-    <col min="49" max="49" width="13.6640625" customWidth="1"/>
-    <col min="50" max="50" width="11.77734375" customWidth="1"/>
-    <col min="51" max="51" width="13.6640625" customWidth="1"/>
-    <col min="52" max="52" width="18.33203125" customWidth="1"/>
-    <col min="53" max="53" width="13.77734375" customWidth="1"/>
-    <col min="54" max="54" width="13.88671875" customWidth="1"/>
-    <col min="55" max="55" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="13.7109375" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" customWidth="1"/>
+    <col min="52" max="52" width="18.28515625" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" customWidth="1"/>
+    <col min="55" max="55" width="10.28515625" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="58" max="58" width="11.33203125" customWidth="1"/>
-    <col min="59" max="59" width="10.77734375" customWidth="1"/>
-    <col min="60" max="60" width="10.6640625" customWidth="1"/>
-    <col min="62" max="62" width="12.77734375" customWidth="1"/>
-    <col min="63" max="63" width="10.5546875" customWidth="1"/>
-    <col min="64" max="64" width="11.33203125" customWidth="1"/>
-    <col min="65" max="65" width="12.44140625" customWidth="1"/>
-    <col min="67" max="67" width="10.77734375" customWidth="1"/>
-    <col min="69" max="69" width="11.77734375" customWidth="1"/>
-    <col min="71" max="71" width="11.33203125" customWidth="1"/>
-    <col min="72" max="72" width="12.33203125" customWidth="1"/>
-    <col min="73" max="73" width="10.88671875" customWidth="1"/>
-    <col min="74" max="74" width="9.5546875" customWidth="1"/>
-    <col min="75" max="75" width="11.5546875" customWidth="1"/>
-    <col min="76" max="76" width="12.109375" customWidth="1"/>
+    <col min="58" max="58" width="11.28515625" customWidth="1"/>
+    <col min="59" max="60" width="10.7109375" customWidth="1"/>
+    <col min="62" max="62" width="12.7109375" customWidth="1"/>
+    <col min="63" max="63" width="10.5703125" customWidth="1"/>
+    <col min="64" max="64" width="11.28515625" customWidth="1"/>
+    <col min="65" max="65" width="12.42578125" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" customWidth="1"/>
+    <col min="69" max="69" width="11.7109375" customWidth="1"/>
+    <col min="71" max="71" width="11.28515625" customWidth="1"/>
+    <col min="72" max="72" width="12.28515625" customWidth="1"/>
+    <col min="73" max="73" width="10.85546875" customWidth="1"/>
+    <col min="74" max="74" width="9.5703125" customWidth="1"/>
+    <col min="75" max="75" width="11.5703125" customWidth="1"/>
+    <col min="76" max="76" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -19720,7 +19709,7 @@
       <c r="BY1" s="13"/>
       <c r="BZ1" s="13"/>
     </row>
-    <row r="2" spans="1:80" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:80" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -19758,7 +19747,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
@@ -19795,7 +19784,7 @@
       <c r="BB2" s="13"/>
       <c r="BC2" s="13"/>
       <c r="BD2" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BE2" s="21"/>
       <c r="BF2" s="21"/>
@@ -19808,7 +19797,7 @@
       <c r="BM2" s="20"/>
       <c r="BN2" s="41"/>
       <c r="BO2" s="38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BP2" s="37"/>
       <c r="BQ2" s="37"/>
@@ -19822,7 +19811,7 @@
       <c r="BY2" s="13"/>
       <c r="BZ2" s="13"/>
     </row>
-    <row r="3" spans="1:80" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>6</v>
       </c>
@@ -19898,63 +19887,63 @@
       <c r="BC3" s="13"/>
       <c r="BD3" s="32"/>
       <c r="BE3" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BF3" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BG3" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BH3" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BJ3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="BK3" s="30" t="s">
-        <v>66</v>
-      </c>
       <c r="BL3" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BN3" s="41"/>
       <c r="BO3" s="32"/>
       <c r="BP3" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="BQ3" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="BR3" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BS3" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BT3" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BU3" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BV3" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="BW3" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BX3" s="43"/>
       <c r="BY3" s="13"/>
       <c r="BZ3" s="13"/>
     </row>
-    <row r="4" spans="1:80" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>5.9</v>
       </c>
@@ -20039,68 +20028,68 @@
       <c r="BB4" s="13"/>
       <c r="BC4" s="13"/>
       <c r="BD4" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BE4" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BF4" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BG4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM4" s="40" t="s">
         <v>37</v>
-      </c>
-      <c r="BH4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI4" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BJ4" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="BL4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM4" s="40" t="s">
-        <v>40</v>
       </c>
       <c r="BN4" s="42"/>
       <c r="BO4" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BP4" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BQ4" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BR4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BS4" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BT4" s="40" t="s">
+      <c r="BU4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BU4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV4" s="40" t="s">
-        <v>39</v>
-      </c>
       <c r="BW4" s="40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BX4" s="44"/>
       <c r="BY4" s="13"/>
       <c r="BZ4" s="13"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>6.02</v>
       </c>
@@ -20263,7 +20252,7 @@
       <c r="BY5" s="13"/>
       <c r="BZ5" s="13"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -20404,7 +20393,7 @@
       <c r="BY6" s="13"/>
       <c r="BZ6" s="13"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -20545,7 +20534,7 @@
       <c r="BY7" s="13"/>
       <c r="BZ7" s="13"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -20686,7 +20675,7 @@
       <c r="BY8" s="13"/>
       <c r="BZ8" s="13"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -20827,7 +20816,7 @@
       <c r="BY9" s="13"/>
       <c r="BZ9" s="13"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -20971,7 +20960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -21112,7 +21101,7 @@
       <c r="BY11" s="13"/>
       <c r="BZ11" s="13"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -21253,7 +21242,7 @@
       <c r="BY12" s="13"/>
       <c r="BZ12" s="13"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -21394,7 +21383,7 @@
       <c r="BY13" s="13"/>
       <c r="BZ13" s="13"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -21523,7 +21512,7 @@
       <c r="BY14" s="13"/>
       <c r="BZ14" s="13"/>
     </row>
-    <row r="15" spans="1:80" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -21654,7 +21643,7 @@
       <c r="BY15" s="13"/>
       <c r="BZ15" s="13"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -21795,7 +21784,7 @@
       <c r="BY16" s="13"/>
       <c r="BZ16" s="13"/>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -21936,7 +21925,7 @@
       <c r="BY17" s="13"/>
       <c r="BZ17" s="13"/>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -22077,7 +22066,7 @@
       <c r="BY18" s="13"/>
       <c r="BZ18" s="13"/>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -22218,7 +22207,7 @@
       <c r="BY19" s="13"/>
       <c r="BZ19" s="13"/>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -22359,7 +22348,7 @@
       <c r="BY20" s="13"/>
       <c r="BZ20" s="13"/>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U21" s="19">
         <v>4.84</v>
       </c>
@@ -22488,7 +22477,7 @@
       <c r="BY21" s="13"/>
       <c r="BZ21" s="13"/>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U22" s="19">
         <v>4.84</v>
       </c>
@@ -22617,7 +22606,7 @@
       <c r="BY22" s="13"/>
       <c r="BZ22" s="13"/>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -22764,7 +22753,7 @@
       <c r="BY23" s="13"/>
       <c r="BZ23" s="13"/>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -22929,7 +22918,7 @@
       <c r="BY24" s="13"/>
       <c r="BZ24" s="13"/>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -23094,7 +23083,7 @@
       <c r="BY25" s="13"/>
       <c r="BZ25" s="13"/>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -23253,7 +23242,7 @@
       <c r="BY26" s="13"/>
       <c r="BZ26" s="13"/>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -23406,7 +23395,7 @@
       <c r="BY27" s="13"/>
       <c r="BZ27" s="13"/>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -23535,7 +23524,7 @@
       <c r="BY28" s="13"/>
       <c r="BZ28" s="13"/>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -23664,7 +23653,7 @@
       <c r="BY29" s="13"/>
       <c r="BZ29" s="13"/>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -23793,7 +23782,7 @@
       <c r="BY30" s="13"/>
       <c r="BZ30" s="13"/>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -23922,7 +23911,7 @@
       <c r="BY31" s="13"/>
       <c r="BZ31" s="13"/>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -24051,7 +24040,7 @@
       <c r="BY32" s="13"/>
       <c r="BZ32" s="13"/>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -24180,7 +24169,7 @@
       <c r="BY33" s="13"/>
       <c r="BZ33" s="13"/>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -24309,7 +24298,7 @@
       <c r="BY34" s="13"/>
       <c r="BZ34" s="13"/>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -24438,7 +24427,7 @@
       <c r="BY35" s="13"/>
       <c r="BZ35" s="13"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -24565,7 +24554,7 @@
       <c r="BY36" s="13"/>
       <c r="BZ36" s="13"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -24637,7 +24626,7 @@
       <c r="BY37" s="13"/>
       <c r="BZ37" s="13"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -24709,7 +24698,7 @@
       <c r="BY38" s="13"/>
       <c r="BZ38" s="13"/>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -24761,7 +24750,7 @@
       <c r="BE39" s="15"/>
       <c r="BF39" s="15"/>
     </row>
-    <row r="40" spans="1:78" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:78" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -24775,7 +24764,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="U40" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -24815,7 +24804,7 @@
       <c r="BE40" s="15"/>
       <c r="BF40" s="15"/>
     </row>
-    <row r="41" spans="1:78" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -24857,7 +24846,7 @@
       <c r="AS41" s="15"/>
       <c r="AT41" s="15"/>
       <c r="AU41" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AV41" s="21"/>
       <c r="AW41" s="21"/>
@@ -24871,7 +24860,7 @@
       <c r="BE41" s="15"/>
       <c r="BF41" s="15"/>
     </row>
-    <row r="42" spans="1:78" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:78" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -24924,40 +24913,40 @@
       <c r="AT42" s="15"/>
       <c r="AU42" s="31"/>
       <c r="AV42" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW42" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY42" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AW42" s="31" t="s">
+      <c r="AZ42" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AX42" s="31" t="s">
+      <c r="BA42" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AY42" s="31" t="s">
+      <c r="BB42" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC42" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AZ42" s="31" t="s">
+      <c r="BD42" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="BA42" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB42" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC42" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD42" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="BE42" s="15"/>
       <c r="BF42" s="45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BG42" s="45"/>
       <c r="BH42" s="45"/>
     </row>
-    <row r="43" spans="1:78" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:78" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U43" s="19">
         <v>4.88</v>
       </c>
@@ -24997,41 +24986,41 @@
       <c r="AS43" s="15"/>
       <c r="AT43" s="15"/>
       <c r="AU43" s="27" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AV43" s="27" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AW43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX43" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AX43" s="27" t="s">
+      <c r="AY43" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ43" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA43" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AY43" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ43" s="27" t="s">
+      <c r="BB43" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="BA43" s="27" t="s">
+      <c r="BC43" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="BB43" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC43" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="BD43" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BE43" s="15"/>
       <c r="BF43" s="45"/>
       <c r="BG43" s="45"/>
       <c r="BH43" s="45"/>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U44" s="19">
         <v>4.82</v>
       </c>
@@ -25114,7 +25103,7 @@
       <c r="BG44" s="45"/>
       <c r="BH44" s="45"/>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U45" s="19">
         <v>4.8</v>
       </c>
@@ -25198,7 +25187,7 @@
       <c r="BG45" s="45"/>
       <c r="BH45" s="45"/>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -25298,7 +25287,7 @@
       <c r="BE46" s="15"/>
       <c r="BF46" s="15"/>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -25416,7 +25405,7 @@
       <c r="BE47" s="15"/>
       <c r="BF47" s="15"/>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -25534,7 +25523,7 @@
       <c r="BE48" s="15"/>
       <c r="BF48" s="15"/>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4.84</v>
       </c>
@@ -25652,7 +25641,7 @@
       <c r="BE49" s="15"/>
       <c r="BF49" s="15"/>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4.84</v>
       </c>
@@ -25770,7 +25759,7 @@
       <c r="BE50" s="15"/>
       <c r="BF50" s="15"/>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -25870,7 +25859,7 @@
       <c r="BE51" s="15"/>
       <c r="BF51" s="15"/>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -25952,7 +25941,7 @@
       <c r="BE52" s="15"/>
       <c r="BF52" s="15"/>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -26034,7 +26023,7 @@
       <c r="BE53" s="15"/>
       <c r="BF53" s="15"/>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -26116,7 +26105,7 @@
       <c r="BE54" s="15"/>
       <c r="BF54" s="15"/>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -26198,7 +26187,7 @@
       <c r="BE55" s="15"/>
       <c r="BF55" s="15"/>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -26280,7 +26269,7 @@
       <c r="BE56" s="15"/>
       <c r="BF56" s="15"/>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -26362,7 +26351,7 @@
       <c r="BE57" s="15"/>
       <c r="BF57" s="15"/>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -26444,7 +26433,7 @@
       <c r="BE58" s="15"/>
       <c r="BF58" s="15"/>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -26526,7 +26515,7 @@
       <c r="BE59" s="15"/>
       <c r="BF59" s="15"/>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26608,7 +26597,7 @@
       <c r="BE60" s="15"/>
       <c r="BF60" s="15"/>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -26690,7 +26679,7 @@
       <c r="BE61" s="15"/>
       <c r="BF61" s="15"/>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -26772,7 +26761,7 @@
       <c r="BE62" s="15"/>
       <c r="BF62" s="15"/>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -26854,7 +26843,7 @@
       <c r="BE63" s="15"/>
       <c r="BF63" s="15"/>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -26936,7 +26925,7 @@
       <c r="BE64" s="15"/>
       <c r="BF64" s="15"/>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27018,7 +27007,7 @@
       <c r="BE65" s="15"/>
       <c r="BF65" s="15"/>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
       <c r="W66" s="15"/>
@@ -27088,7 +27077,7 @@
       <c r="BE66" s="15"/>
       <c r="BF66" s="15"/>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>23</v>
       </c>
@@ -27168,7 +27157,7 @@
       <c r="BE67" s="15"/>
       <c r="BF67" s="15"/>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
@@ -27238,7 +27227,7 @@
       <c r="BE68" s="15"/>
       <c r="BF68" s="15"/>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -27326,7 +27315,7 @@
       <c r="BE69" s="15"/>
       <c r="BF69" s="15"/>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -27432,7 +27421,7 @@
       <c r="BE70" s="15"/>
       <c r="BF70" s="15"/>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>4.88</v>
       </c>
@@ -27538,7 +27527,7 @@
       <c r="BE71" s="15"/>
       <c r="BF71" s="15"/>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>4.82</v>
       </c>
@@ -27644,7 +27633,7 @@
       <c r="BE72" s="15"/>
       <c r="BF72" s="15"/>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>4.8</v>
       </c>
@@ -27750,7 +27739,7 @@
       <c r="BE73" s="15"/>
       <c r="BF73" s="15"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="10"/>
       <c r="C74" s="1"/>
@@ -27832,7 +27821,7 @@
       <c r="BE74" s="15"/>
       <c r="BF74" s="15"/>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="10"/>
       <c r="C75" s="1"/>
@@ -27914,7 +27903,7 @@
       <c r="BE75" s="15"/>
       <c r="BF75" s="15"/>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="10"/>
       <c r="C76" s="1"/>
@@ -27996,7 +27985,7 @@
       <c r="BE76" s="15"/>
       <c r="BF76" s="15"/>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="10"/>
       <c r="C77" s="1"/>
@@ -28078,7 +28067,7 @@
       <c r="BE77" s="15"/>
       <c r="BF77" s="15"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="10"/>
       <c r="C78" s="1"/>
@@ -28160,7 +28149,7 @@
       <c r="BE78" s="15"/>
       <c r="BF78" s="15"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="10"/>
       <c r="C79" s="1"/>
@@ -28242,7 +28231,7 @@
       <c r="BE79" s="15"/>
       <c r="BF79" s="15"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="10"/>
       <c r="C80" s="1"/>
@@ -28324,7 +28313,7 @@
       <c r="BE80" s="15"/>
       <c r="BF80" s="15"/>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="10"/>
       <c r="C81" s="1"/>
@@ -28406,7 +28395,7 @@
       <c r="BE81" s="15"/>
       <c r="BF81" s="15"/>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="10"/>
       <c r="C82" s="1"/>
@@ -28487,7 +28476,7 @@
       <c r="BE82" s="15"/>
       <c r="BF82" s="15"/>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="10"/>
       <c r="C83" s="1"/>
@@ -28539,7 +28528,7 @@
       <c r="BE83" s="15"/>
       <c r="BF83" s="15"/>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="10"/>
       <c r="C84" s="1"/>
@@ -28591,7 +28580,7 @@
       <c r="BE84" s="15"/>
       <c r="BF84" s="15"/>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="10"/>
       <c r="C85" s="1"/>
@@ -28643,7 +28632,7 @@
       <c r="BE85" s="15"/>
       <c r="BF85" s="15"/>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28685,7 +28674,7 @@
       <c r="AU86" s="37"/>
       <c r="AV86" s="37"/>
     </row>
-    <row r="87" spans="1:58" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:58" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28699,7 +28688,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="U87" s="39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V87" s="37"/>
       <c r="W87" s="37"/>
@@ -28729,7 +28718,7 @@
       <c r="AU87" s="37"/>
       <c r="AV87" s="37"/>
     </row>
-    <row r="88" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28743,7 +28732,7 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="U88" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V88" s="18"/>
       <c r="W88" s="18"/>
@@ -28773,7 +28762,7 @@
       <c r="AU88" s="37"/>
       <c r="AV88" s="37"/>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="U89" s="19" t="s">
         <v>1</v>
       </c>
@@ -28815,7 +28804,7 @@
       <c r="AU89" s="37"/>
       <c r="AV89" s="37"/>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="U90" s="23">
         <v>35.5</v>
       </c>
@@ -28857,7 +28846,7 @@
       <c r="AU90" s="37"/>
       <c r="AV90" s="37"/>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="U91" s="23">
         <v>31.8</v>
       </c>
@@ -28899,7 +28888,7 @@
       <c r="AU91" s="37"/>
       <c r="AV91" s="37"/>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -28950,7 +28939,7 @@
       <c r="AU92" s="37"/>
       <c r="AV92" s="37"/>
     </row>
-    <row r="93" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -29010,7 +28999,7 @@
       <c r="AU93" s="37"/>
       <c r="AV93" s="37"/>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>3.95</v>
       </c>
@@ -29075,7 +29064,7 @@
       <c r="AU94" s="37"/>
       <c r="AV94" s="37"/>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3.88</v>
       </c>
@@ -29141,7 +29130,7 @@
       <c r="AU95" s="37"/>
       <c r="AV95" s="37"/>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3.06</v>
       </c>
@@ -29208,7 +29197,7 @@
       <c r="AU96" s="37"/>
       <c r="AV96" s="37"/>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="10"/>
       <c r="C97" s="1"/>
@@ -29258,7 +29247,7 @@
       <c r="AU97" s="37"/>
       <c r="AV97" s="37"/>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="10"/>
       <c r="C98" s="1"/>
@@ -29312,7 +29301,7 @@
       <c r="AU98" s="37"/>
       <c r="AV98" s="37"/>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="10"/>
       <c r="C99" s="1"/>
@@ -29355,7 +29344,7 @@
       <c r="AU99" s="37"/>
       <c r="AV99" s="37"/>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="10"/>
       <c r="C100" s="1"/>
@@ -29393,7 +29382,7 @@
       <c r="AU100" s="37"/>
       <c r="AV100" s="37"/>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="10"/>
       <c r="C101" s="1"/>
@@ -29433,7 +29422,7 @@
       <c r="AU101" s="37"/>
       <c r="AV101" s="37"/>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="10"/>
       <c r="C102" s="1"/>
@@ -29473,7 +29462,7 @@
       <c r="AU102" s="37"/>
       <c r="AV102" s="37"/>
     </row>
-    <row r="103" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="10"/>
       <c r="C103" s="1"/>
@@ -29512,7 +29501,7 @@
       <c r="AU103" s="37"/>
       <c r="AV103" s="37"/>
     </row>
-    <row r="104" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="10"/>
       <c r="C104" s="1"/>
@@ -29548,7 +29537,7 @@
       <c r="AU104" s="37"/>
       <c r="AV104" s="37"/>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="10"/>
       <c r="C105" s="1"/>
@@ -29589,7 +29578,7 @@
       <c r="AU105" s="37"/>
       <c r="AV105" s="37"/>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="10"/>
       <c r="C106" s="1"/>
@@ -29632,7 +29621,7 @@
       <c r="AU106" s="37"/>
       <c r="AV106" s="37"/>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="10"/>
       <c r="C107" s="1"/>
@@ -29675,7 +29664,7 @@
       <c r="AU107" s="37"/>
       <c r="AV107" s="37"/>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="10"/>
       <c r="C108" s="1"/>
@@ -29713,7 +29702,7 @@
       <c r="AU108" s="37"/>
       <c r="AV108" s="37"/>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -29756,7 +29745,7 @@
       <c r="AU109" s="37"/>
       <c r="AV109" s="37"/>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -29799,7 +29788,7 @@
       <c r="AU110" s="37"/>
       <c r="AV110" s="37"/>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -29837,7 +29826,7 @@
       <c r="AU111" s="37"/>
       <c r="AV111" s="37"/>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
       <c r="M112" s="5" t="s">
         <v>7</v>
       </c>
@@ -29871,7 +29860,7 @@
       <c r="AU112" s="37"/>
       <c r="AV112" s="37"/>
     </row>
-    <row r="113" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M113" s="7">
         <v>600</v>
       </c>
@@ -29906,7 +29895,7 @@
       <c r="AU113" s="37"/>
       <c r="AV113" s="37"/>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
       <c r="U114" s="37"/>
       <c r="V114" s="37"/>
       <c r="W114" s="37"/>
@@ -29936,9 +29925,9 @@
       <c r="AU114" s="37"/>
       <c r="AV114" s="37"/>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -29981,7 +29970,7 @@
       <c r="AU115" s="37"/>
       <c r="AV115" s="37"/>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
       <c r="U116" s="37"/>
       <c r="V116" s="37"/>
       <c r="W116" s="37"/>
@@ -30011,7 +30000,7 @@
       <c r="AU116" s="37"/>
       <c r="AV116" s="37"/>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -30059,7 +30048,7 @@
       <c r="AU117" s="37"/>
       <c r="AV117" s="37"/>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -30125,7 +30114,7 @@
       <c r="AU118" s="37"/>
       <c r="AV118" s="37"/>
     </row>
-    <row r="119" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>35.5</v>
       </c>
@@ -30191,7 +30180,7 @@
       <c r="AU119" s="37"/>
       <c r="AV119" s="37"/>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>31.8</v>
       </c>
@@ -30257,7 +30246,7 @@
       <c r="AU120" s="37"/>
       <c r="AV120" s="37"/>
     </row>
-    <row r="121" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>29</v>
       </c>
@@ -30323,7 +30312,7 @@
       <c r="AU121" s="37"/>
       <c r="AV121" s="37"/>
     </row>
-    <row r="122" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -30365,7 +30354,7 @@
       <c r="AU122" s="37"/>
       <c r="AV122" s="37"/>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -30407,7 +30396,7 @@
       <c r="AU123" s="37"/>
       <c r="AV123" s="37"/>
     </row>
-    <row r="124" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -30449,7 +30438,7 @@
       <c r="AU124" s="37"/>
       <c r="AV124" s="37"/>
     </row>
-    <row r="125" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -30491,7 +30480,7 @@
       <c r="AU125" s="37"/>
       <c r="AV125" s="37"/>
     </row>
-    <row r="126" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -30533,7 +30522,7 @@
       <c r="AU126" s="37"/>
       <c r="AV126" s="37"/>
     </row>
-    <row r="127" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -30575,7 +30564,7 @@
       <c r="AU127" s="37"/>
       <c r="AV127" s="37"/>
     </row>
-    <row r="128" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -30617,7 +30606,7 @@
       <c r="AU128" s="37"/>
       <c r="AV128" s="37"/>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -30659,7 +30648,7 @@
       <c r="AU129" s="37"/>
       <c r="AV129" s="37"/>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -30701,7 +30690,7 @@
       <c r="AU130" s="37"/>
       <c r="AV130" s="37"/>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -30743,7 +30732,7 @@
       <c r="AU131" s="37"/>
       <c r="AV131" s="37"/>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -30785,7 +30774,7 @@
       <c r="AU132" s="37"/>
       <c r="AV132" s="37"/>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -30827,7 +30816,7 @@
       <c r="AU133" s="37"/>
       <c r="AV133" s="37"/>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -30869,7 +30858,7 @@
       <c r="AU134" s="37"/>
       <c r="AV134" s="37"/>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -30911,7 +30900,7 @@
       <c r="AU135" s="37"/>
       <c r="AV135" s="37"/>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -30953,7 +30942,7 @@
       <c r="AU136" s="37"/>
       <c r="AV136" s="37"/>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.25">
       <c r="U137" s="37"/>
       <c r="V137" s="37"/>
       <c r="W137" s="37"/>
@@ -30983,7 +30972,7 @@
       <c r="AU137" s="37"/>
       <c r="AV137" s="37"/>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.25">
       <c r="U138" s="37"/>
       <c r="V138" s="37"/>
       <c r="W138" s="37"/>
@@ -31013,7 +31002,7 @@
       <c r="AU138" s="37"/>
       <c r="AV138" s="37"/>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.25">
       <c r="U139" s="37"/>
       <c r="V139" s="37"/>
       <c r="W139" s="37"/>
@@ -31043,7 +31032,7 @@
       <c r="AU139" s="37"/>
       <c r="AV139" s="37"/>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -31082,7 +31071,7 @@
       <c r="AU140" s="37"/>
       <c r="AV140" s="37"/>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -31130,7 +31119,7 @@
       <c r="AU141" s="37"/>
       <c r="AV141" s="37"/>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>22</v>
       </c>
@@ -31178,7 +31167,7 @@
       <c r="AU142" s="37"/>
       <c r="AV142" s="37"/>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>20.5</v>
       </c>
@@ -31226,7 +31215,7 @@
       <c r="AU143" s="37"/>
       <c r="AV143" s="37"/>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>19.5</v>
       </c>
@@ -31274,7 +31263,7 @@
       <c r="AU144" s="37"/>
       <c r="AV144" s="37"/>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -31310,7 +31299,7 @@
       <c r="AU145" s="37"/>
       <c r="AV145" s="37"/>
     </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -31346,7 +31335,7 @@
       <c r="AU146" s="37"/>
       <c r="AV146" s="37"/>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -31382,7 +31371,7 @@
       <c r="AU147" s="37"/>
       <c r="AV147" s="37"/>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -31418,7 +31407,7 @@
       <c r="AU148" s="37"/>
       <c r="AV148" s="37"/>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -31454,7 +31443,7 @@
       <c r="AU149" s="37"/>
       <c r="AV149" s="37"/>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -31490,7 +31479,7 @@
       <c r="AU150" s="37"/>
       <c r="AV150" s="37"/>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -31526,7 +31515,7 @@
       <c r="AU151" s="37"/>
       <c r="AV151" s="37"/>
     </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -31562,7 +31551,7 @@
       <c r="AU152" s="37"/>
       <c r="AV152" s="37"/>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -31598,7 +31587,7 @@
       <c r="AU153" s="37"/>
       <c r="AV153" s="37"/>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -31634,7 +31623,7 @@
       <c r="AU154" s="37"/>
       <c r="AV154" s="37"/>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -31670,7 +31659,7 @@
       <c r="AU155" s="37"/>
       <c r="AV155" s="37"/>
     </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -31706,7 +31695,7 @@
       <c r="AU156" s="37"/>
       <c r="AV156" s="37"/>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -31742,7 +31731,7 @@
       <c r="AU157" s="37"/>
       <c r="AV157" s="37"/>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -31750,7 +31739,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -31777,9 +31766,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049FE56-28AB-48F4-9259-C4C937CC304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDCF3AE-C244-4F6E-BD71-8F591E9EFD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Målinger" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="71">
   <si>
     <t>Volt</t>
   </si>
@@ -234,6 +256,21 @@
   <si>
     <t>Fstang * 64 = Fop * 192</t>
   </si>
+  <si>
+    <t>y = 0,00017271*x - 0,9937473</t>
+  </si>
+  <si>
+    <t>y = 0,001231*x - 1,287051</t>
+  </si>
+  <si>
+    <t>y = 0,01757*x - 28,15341</t>
+  </si>
+  <si>
+    <t>M_motor = F * 64 mm</t>
+  </si>
+  <si>
+    <t>Interpolation for drejemoment</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -495,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,8 +551,9 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -576,20 +620,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="20 % - Farve1" xfId="4" builtinId="30"/>
-    <cellStyle name="20 % - Farve3" xfId="8" builtinId="38"/>
-    <cellStyle name="40 % - Farve4" xfId="5" builtinId="43"/>
-    <cellStyle name="40 % - Farve5" xfId="6" builtinId="47"/>
-    <cellStyle name="60 % - Farve2" xfId="7" builtinId="36"/>
-    <cellStyle name="60 % - Farve5" xfId="11" builtinId="48"/>
-    <cellStyle name="Farve1" xfId="9" builtinId="29"/>
-    <cellStyle name="Farve3" xfId="10" builtinId="37"/>
-    <cellStyle name="God" xfId="2" builtinId="26"/>
+  <cellStyles count="13">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
+    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="11" builtinId="48"/>
+    <cellStyle name="Accent1" xfId="9" builtinId="29"/>
+    <cellStyle name="Accent3" xfId="10" builtinId="37"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -607,7 +656,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -674,7 +723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -781,7 +830,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -949,7 +998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -985,7 +1034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1069,7 +1118,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1105,7 +1154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1153,7 +1202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1167,7 +1216,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1234,7 +1283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1400,7 +1449,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1568,7 +1617,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1604,7 +1653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1688,7 +1737,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1724,7 +1773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1772,7 +1821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1786,7 +1835,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1849,7 +1898,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1925,6 +1974,63 @@
                   <c:y val="0.34294691258172294"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 3,29297e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>0,00066x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,95320</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
@@ -1952,7 +2058,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2120,7 +2226,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2156,7 +2262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2240,7 +2346,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2276,7 +2382,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2324,7 +2430,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2338,7 +2444,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2401,7 +2507,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2467,7 +2573,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2477,63 +2583,6 @@
                   <c:y val="0.30344492295158976"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 2,54663e</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="30000">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>0,00075x</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1050" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0,97098</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1050">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
@@ -2561,7 +2610,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2729,7 +2778,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2765,7 +2814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2849,7 +2898,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2885,7 +2934,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2933,7 +2982,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2947,7 +2996,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3010,7 +3059,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3117,7 +3166,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3285,7 +3334,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3321,7 +3370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -3405,7 +3454,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3441,7 +3490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -3489,7 +3538,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3503,7 +3552,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3566,7 +3615,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3722,7 +3771,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3890,7 +3939,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3926,7 +3975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4010,7 +4059,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4046,7 +4095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4094,7 +4143,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4108,7 +4157,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4175,7 +4224,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4331,7 +4380,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4499,7 +4548,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4535,7 +4584,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4619,7 +4668,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4655,7 +4704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4703,7 +4752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4717,7 +4766,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4784,7 +4833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4891,7 +4940,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5065,7 +5114,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5101,7 +5150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -5185,7 +5234,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5221,7 +5270,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -5269,7 +5318,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5283,7 +5332,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5350,7 +5399,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5430,10 +5479,45 @@
                   <c:y val="0.30344492295158976"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = 0,00155x - 2,26616</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>R² = 0,99540</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:ln>
                   <a:noFill/>
@@ -5457,7 +5541,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5625,7 +5709,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5661,7 +5745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -5745,7 +5829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5781,7 +5865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -5829,7 +5913,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5843,7 +5927,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5910,7 +5994,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6017,7 +6101,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6185,7 +6269,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6221,7 +6305,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6305,7 +6389,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6341,7 +6425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6389,7 +6473,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6403,7 +6487,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6470,7 +6554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6577,7 +6661,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6751,7 +6835,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6787,7 +6871,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6871,7 +6955,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6907,7 +6991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6955,7 +7039,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6969,7 +7053,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7036,7 +7120,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7143,7 +7227,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7305,7 +7389,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7341,7 +7425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -7425,7 +7509,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7461,7 +7545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -7509,7 +7593,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7523,7 +7607,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7590,7 +7674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7707,7 +7791,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7875,7 +7959,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7911,7 +7995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -7995,7 +8079,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8031,7 +8115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -8079,7 +8163,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8093,7 +8177,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8156,7 +8240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8263,7 +8347,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8431,7 +8515,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8467,7 +8551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -8551,7 +8635,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8587,7 +8671,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -8635,7 +8719,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8649,7 +8733,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8716,7 +8800,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8823,7 +8907,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8991,7 +9075,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9027,7 +9111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -9111,7 +9195,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9147,7 +9231,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9195,7 +9279,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9209,7 +9293,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9245,7 +9329,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> som funktion af omdrejningstal (1:1)</a:t>
+              <a:t> som funktion af omdrejningstal</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -9276,7 +9360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9375,7 +9459,7 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="bg1"/>
                         </a:solidFill>
@@ -9383,21 +9467,21 @@
                       <a:t>y = 0,0017271x - 0,9937473</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="bg1"/>
                         </a:solidFill>
                       </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="bg1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>R² = 0,9972663</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1050">
+                    <a:endParaRPr lang="en-US" sz="1200">
                       <a:solidFill>
                         <a:schemeClr val="bg1"/>
                       </a:solidFill>
@@ -9432,7 +9516,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9600,7 +9684,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9636,7 +9720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -9720,7 +9804,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9756,7 +9840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9804,7 +9888,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19588,50 +19672,55 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CB159"/>
+  <dimension ref="A1:CM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU44" sqref="AU44"/>
+    <sheetView tabSelected="1" topLeftCell="BS11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK14" sqref="CK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="11.7109375" customWidth="1"/>
-    <col min="51" max="51" width="13.7109375" customWidth="1"/>
-    <col min="52" max="52" width="18.28515625" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" customWidth="1"/>
-    <col min="54" max="54" width="13.85546875" customWidth="1"/>
-    <col min="55" max="55" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="13.6640625" customWidth="1"/>
+    <col min="50" max="50" width="11.6640625" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" customWidth="1"/>
+    <col min="52" max="52" width="18.33203125" customWidth="1"/>
+    <col min="53" max="53" width="13.6640625" customWidth="1"/>
+    <col min="54" max="54" width="13.88671875" customWidth="1"/>
+    <col min="55" max="55" width="10.33203125" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="58" max="58" width="11.28515625" customWidth="1"/>
-    <col min="59" max="60" width="10.7109375" customWidth="1"/>
-    <col min="62" max="62" width="12.7109375" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" customWidth="1"/>
-    <col min="64" max="64" width="11.28515625" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" customWidth="1"/>
-    <col min="67" max="67" width="10.7109375" customWidth="1"/>
-    <col min="69" max="69" width="11.7109375" customWidth="1"/>
-    <col min="71" max="71" width="11.28515625" customWidth="1"/>
-    <col min="72" max="72" width="12.28515625" customWidth="1"/>
-    <col min="73" max="73" width="10.85546875" customWidth="1"/>
-    <col min="74" max="74" width="9.5703125" customWidth="1"/>
-    <col min="75" max="75" width="11.5703125" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" customWidth="1"/>
+    <col min="58" max="58" width="11.33203125" customWidth="1"/>
+    <col min="59" max="60" width="10.6640625" customWidth="1"/>
+    <col min="62" max="62" width="12.6640625" customWidth="1"/>
+    <col min="63" max="63" width="10.5546875" customWidth="1"/>
+    <col min="64" max="64" width="11.33203125" customWidth="1"/>
+    <col min="65" max="65" width="12.44140625" customWidth="1"/>
+    <col min="67" max="67" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" customWidth="1"/>
+    <col min="71" max="71" width="11.33203125" customWidth="1"/>
+    <col min="72" max="72" width="12.33203125" customWidth="1"/>
+    <col min="73" max="73" width="10.88671875" customWidth="1"/>
+    <col min="74" max="74" width="9.5546875" customWidth="1"/>
+    <col min="75" max="75" width="11.5546875" customWidth="1"/>
+    <col min="76" max="76" width="12.109375" customWidth="1"/>
+    <col min="82" max="82" width="14.6640625" customWidth="1"/>
+    <col min="83" max="83" width="13.6640625" customWidth="1"/>
+    <col min="84" max="84" width="10.77734375" customWidth="1"/>
+    <col min="85" max="85" width="10.88671875" customWidth="1"/>
+    <col min="86" max="86" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -19709,7 +19798,7 @@
       <c r="BY1" s="13"/>
       <c r="BZ1" s="13"/>
     </row>
-    <row r="2" spans="1:80" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -19811,7 +19900,7 @@
       <c r="BY2" s="13"/>
       <c r="BZ2" s="13"/>
     </row>
-    <row r="3" spans="1:80" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>6</v>
       </c>
@@ -19943,7 +20032,7 @@
       <c r="BY3" s="13"/>
       <c r="BZ3" s="13"/>
     </row>
-    <row r="4" spans="1:80" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>5.9</v>
       </c>
@@ -20089,7 +20178,7 @@
       <c r="BY4" s="13"/>
       <c r="BZ4" s="13"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>6.02</v>
       </c>
@@ -20252,7 +20341,7 @@
       <c r="BY5" s="13"/>
       <c r="BZ5" s="13"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -20393,7 +20482,7 @@
       <c r="BY6" s="13"/>
       <c r="BZ6" s="13"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -20534,7 +20623,7 @@
       <c r="BY7" s="13"/>
       <c r="BZ7" s="13"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -20675,7 +20764,7 @@
       <c r="BY8" s="13"/>
       <c r="BZ8" s="13"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -20816,7 +20905,7 @@
       <c r="BY9" s="13"/>
       <c r="BZ9" s="13"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -20959,8 +21048,24 @@
       <c r="CB10" t="s">
         <v>27</v>
       </c>
+      <c r="CD10" s="32"/>
+      <c r="CE10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF10" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="CH10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI10" s="33" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -21100,8 +21205,26 @@
       <c r="BX11" s="13"/>
       <c r="BY11" s="13"/>
       <c r="BZ11" s="13"/>
+      <c r="CD11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI11" s="40" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -21241,8 +21364,31 @@
       <c r="BX12" s="13"/>
       <c r="BY12" s="13"/>
       <c r="BZ12" s="13"/>
+      <c r="CD12" s="19">
+        <v>3500</v>
+      </c>
+      <c r="CE12" s="23">
+        <f>0.00187*CD12-1.403</f>
+        <v>5.1419999999999995</v>
+      </c>
+      <c r="CF12" s="23">
+        <f>0.00135*CD12-1.57916</f>
+        <v>3.1458400000000006</v>
+      </c>
+      <c r="CG12" s="19">
+        <f>0.19489*CD12-336.3767</f>
+        <v>345.73829999999998</v>
+      </c>
+      <c r="CH12" s="19">
+        <f t="shared" ref="CH12" si="19">9.81*CG12/1000</f>
+        <v>3.3916927230000002</v>
+      </c>
+      <c r="CI12" s="19">
+        <f>CH12*(64/192)</f>
+        <v>1.1305642410000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -21383,7 +21529,7 @@
       <c r="BY13" s="13"/>
       <c r="BZ13" s="13"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -21512,7 +21658,7 @@
       <c r="BY14" s="13"/>
       <c r="BZ14" s="13"/>
     </row>
-    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -21643,7 +21789,7 @@
       <c r="BY15" s="13"/>
       <c r="BZ15" s="13"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -21784,7 +21930,7 @@
       <c r="BY16" s="13"/>
       <c r="BZ16" s="13"/>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -21924,8 +22070,16 @@
       <c r="BX17" s="13"/>
       <c r="BY17" s="13"/>
       <c r="BZ17" s="13"/>
+      <c r="CC17" s="20"/>
+      <c r="CD17" s="20"/>
+      <c r="CE17" s="20"/>
+      <c r="CF17" s="20"/>
+      <c r="CG17" s="20"/>
+      <c r="CH17" s="20"/>
+      <c r="CI17" s="20"/>
+      <c r="CJ17" s="20"/>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -22065,8 +22219,18 @@
       <c r="BX18" s="13"/>
       <c r="BY18" s="13"/>
       <c r="BZ18" s="13"/>
+      <c r="CC18" s="20"/>
+      <c r="CD18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="CE18" s="21"/>
+      <c r="CF18" s="21"/>
+      <c r="CG18" s="20"/>
+      <c r="CH18" s="20"/>
+      <c r="CI18" s="20"/>
+      <c r="CJ18" s="20"/>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -22206,8 +22370,26 @@
       <c r="BX19" s="13"/>
       <c r="BY19" s="13"/>
       <c r="BZ19" s="13"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="CF19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="CG19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="CH19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="CJ19" s="12"/>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:91" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -22347,8 +22529,31 @@
       <c r="BX20" s="13"/>
       <c r="BY20" s="13"/>
       <c r="BZ20" s="13"/>
+      <c r="CC20" s="46"/>
+      <c r="CD20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ20" s="46"/>
+      <c r="CM20" s="27" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.3">
       <c r="U21" s="19">
         <v>4.84</v>
       </c>
@@ -22476,8 +22681,33 @@
       <c r="BX21" s="13"/>
       <c r="BY21" s="13"/>
       <c r="BZ21" s="13"/>
+      <c r="CC21" s="19"/>
+      <c r="CD21" s="19">
+        <v>2600</v>
+      </c>
+      <c r="CE21" s="23">
+        <f>0.0018304*CD21-1.3330731</f>
+        <v>3.4259668999999997</v>
+      </c>
+      <c r="CF21" s="23">
+        <f>0.001352*CD21-1.595325</f>
+        <v>1.9198749999999996</v>
+      </c>
+      <c r="CG21" s="23">
+        <f>0.04358*CD21-110.88851</f>
+        <v>2.4194900000000104</v>
+      </c>
+      <c r="CH21" s="23">
+        <f>9.81*CG21/1000</f>
+        <v>2.3735196900000102E-2</v>
+      </c>
+      <c r="CI21" s="22">
+        <f>CH21*64/1000</f>
+        <v>1.5190526016000065E-3</v>
+      </c>
+      <c r="CJ21" s="19"/>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.3">
       <c r="U22" s="19">
         <v>4.84</v>
       </c>
@@ -22605,8 +22835,33 @@
       <c r="BX22" s="13"/>
       <c r="BY22" s="13"/>
       <c r="BZ22" s="13"/>
+      <c r="CC22" s="19"/>
+      <c r="CD22" s="19">
+        <v>2800</v>
+      </c>
+      <c r="CE22" s="23">
+        <f t="shared" ref="CE22:CE28" si="20">0.0018304*CD22-1.3330731</f>
+        <v>3.7920468999999999</v>
+      </c>
+      <c r="CF22" s="23">
+        <f t="shared" ref="CF22:CF28" si="21">0.001352*CD22-1.595325</f>
+        <v>2.1902749999999997</v>
+      </c>
+      <c r="CG22" s="23">
+        <f t="shared" ref="CG22:CG28" si="22">0.04358*CD22-110.88851</f>
+        <v>11.135490000000004</v>
+      </c>
+      <c r="CH22" s="23">
+        <f t="shared" ref="CH22:CH28" si="23">9.81*CG22/1000</f>
+        <v>0.10923915690000005</v>
+      </c>
+      <c r="CI22" s="22">
+        <f t="shared" ref="CI22:CI28" si="24">CH22*64/1000</f>
+        <v>6.991306041600003E-3</v>
+      </c>
+      <c r="CJ22" s="19"/>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -22752,8 +23007,33 @@
       <c r="BX23" s="13"/>
       <c r="BY23" s="13"/>
       <c r="BZ23" s="13"/>
+      <c r="CC23" s="19"/>
+      <c r="CD23" s="19">
+        <v>3000</v>
+      </c>
+      <c r="CE23" s="23">
+        <f t="shared" si="20"/>
+        <v>4.1581269000000001</v>
+      </c>
+      <c r="CF23" s="23">
+        <f t="shared" si="21"/>
+        <v>2.4606750000000002</v>
+      </c>
+      <c r="CG23" s="23">
+        <f t="shared" si="22"/>
+        <v>19.851490000000013</v>
+      </c>
+      <c r="CH23" s="23">
+        <f t="shared" si="23"/>
+        <v>0.19474311690000012</v>
+      </c>
+      <c r="CI23" s="22">
+        <f t="shared" si="24"/>
+        <v>1.2463559481600007E-2</v>
+      </c>
+      <c r="CJ23" s="19"/>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -22917,8 +23197,33 @@
       <c r="BX24" s="13"/>
       <c r="BY24" s="13"/>
       <c r="BZ24" s="13"/>
+      <c r="CC24" s="19"/>
+      <c r="CD24" s="19">
+        <v>3200</v>
+      </c>
+      <c r="CE24" s="23">
+        <f t="shared" si="20"/>
+        <v>4.5242069000000003</v>
+      </c>
+      <c r="CF24" s="23">
+        <f t="shared" si="21"/>
+        <v>2.7310749999999997</v>
+      </c>
+      <c r="CG24" s="23">
+        <f t="shared" si="22"/>
+        <v>28.567489999999992</v>
+      </c>
+      <c r="CH24" s="23">
+        <f t="shared" si="23"/>
+        <v>0.28024707689999989</v>
+      </c>
+      <c r="CI24" s="22">
+        <f t="shared" si="24"/>
+        <v>1.7935812921599993E-2</v>
+      </c>
+      <c r="CJ24" s="19"/>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -23082,8 +23387,33 @@
       <c r="BX25" s="13"/>
       <c r="BY25" s="13"/>
       <c r="BZ25" s="13"/>
+      <c r="CC25" s="19"/>
+      <c r="CD25" s="19">
+        <v>3400</v>
+      </c>
+      <c r="CE25" s="23">
+        <f t="shared" si="20"/>
+        <v>4.8902869000000004</v>
+      </c>
+      <c r="CF25" s="23">
+        <f t="shared" si="21"/>
+        <v>3.0014750000000001</v>
+      </c>
+      <c r="CG25" s="23">
+        <f t="shared" si="22"/>
+        <v>37.28349</v>
+      </c>
+      <c r="CH25" s="23">
+        <f t="shared" si="23"/>
+        <v>0.36575103690000005</v>
+      </c>
+      <c r="CI25" s="22">
+        <f t="shared" si="24"/>
+        <v>2.3408066361600002E-2</v>
+      </c>
+      <c r="CJ25" s="19"/>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -23241,8 +23571,33 @@
       <c r="BX26" s="13"/>
       <c r="BY26" s="13"/>
       <c r="BZ26" s="13"/>
+      <c r="CC26" s="19"/>
+      <c r="CD26" s="19">
+        <v>3600</v>
+      </c>
+      <c r="CE26" s="23">
+        <f t="shared" si="20"/>
+        <v>5.2563668999999997</v>
+      </c>
+      <c r="CF26" s="23">
+        <f t="shared" si="21"/>
+        <v>3.2718749999999996</v>
+      </c>
+      <c r="CG26" s="23">
+        <f t="shared" si="22"/>
+        <v>45.999490000000009</v>
+      </c>
+      <c r="CH26" s="23">
+        <f t="shared" si="23"/>
+        <v>0.45125499690000009</v>
+      </c>
+      <c r="CI26" s="22">
+        <f t="shared" si="24"/>
+        <v>2.8880319801600007E-2</v>
+      </c>
+      <c r="CJ26" s="19"/>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -23394,8 +23749,33 @@
       <c r="BX27" s="13"/>
       <c r="BY27" s="13"/>
       <c r="BZ27" s="13"/>
+      <c r="CC27" s="19"/>
+      <c r="CD27" s="19">
+        <v>3800</v>
+      </c>
+      <c r="CE27" s="23">
+        <f t="shared" si="20"/>
+        <v>5.6224468999999999</v>
+      </c>
+      <c r="CF27" s="23">
+        <f t="shared" si="21"/>
+        <v>3.5422750000000001</v>
+      </c>
+      <c r="CG27" s="23">
+        <f t="shared" si="22"/>
+        <v>54.715490000000017</v>
+      </c>
+      <c r="CH27" s="23">
+        <f t="shared" si="23"/>
+        <v>0.53675895690000019</v>
+      </c>
+      <c r="CI27" s="22">
+        <f t="shared" si="24"/>
+        <v>3.4352573241600015E-2</v>
+      </c>
+      <c r="CJ27" s="19"/>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -23523,8 +23903,33 @@
       <c r="BX28" s="13"/>
       <c r="BY28" s="13"/>
       <c r="BZ28" s="13"/>
+      <c r="CC28" s="19"/>
+      <c r="CD28" s="19">
+        <v>4000</v>
+      </c>
+      <c r="CE28" s="23">
+        <f t="shared" si="20"/>
+        <v>5.9885269000000001</v>
+      </c>
+      <c r="CF28" s="23">
+        <f t="shared" si="21"/>
+        <v>3.8126749999999996</v>
+      </c>
+      <c r="CG28" s="23">
+        <f t="shared" si="22"/>
+        <v>63.431489999999997</v>
+      </c>
+      <c r="CH28" s="23">
+        <f t="shared" si="23"/>
+        <v>0.62226291690000002</v>
+      </c>
+      <c r="CI28" s="22">
+        <f t="shared" si="24"/>
+        <v>3.9824826681599999E-2</v>
+      </c>
+      <c r="CJ28" s="19"/>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -23652,8 +24057,16 @@
       <c r="BX29" s="13"/>
       <c r="BY29" s="13"/>
       <c r="BZ29" s="13"/>
+      <c r="CC29" s="19"/>
+      <c r="CD29" s="19"/>
+      <c r="CE29" s="19"/>
+      <c r="CF29" s="19"/>
+      <c r="CG29" s="19"/>
+      <c r="CH29" s="19"/>
+      <c r="CI29" s="19"/>
+      <c r="CJ29" s="19"/>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -23782,7 +24195,7 @@
       <c r="BY30" s="13"/>
       <c r="BZ30" s="13"/>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -23911,7 +24324,7 @@
       <c r="BY31" s="13"/>
       <c r="BZ31" s="13"/>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -24040,7 +24453,7 @@
       <c r="BY32" s="13"/>
       <c r="BZ32" s="13"/>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -24169,7 +24582,7 @@
       <c r="BY33" s="13"/>
       <c r="BZ33" s="13"/>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -24298,7 +24711,7 @@
       <c r="BY34" s="13"/>
       <c r="BZ34" s="13"/>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -24427,7 +24840,7 @@
       <c r="BY35" s="13"/>
       <c r="BZ35" s="13"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -24554,7 +24967,7 @@
       <c r="BY36" s="13"/>
       <c r="BZ36" s="13"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -24626,7 +25039,7 @@
       <c r="BY37" s="13"/>
       <c r="BZ37" s="13"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -24698,7 +25111,7 @@
       <c r="BY38" s="13"/>
       <c r="BZ38" s="13"/>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -24750,7 +25163,7 @@
       <c r="BE39" s="15"/>
       <c r="BF39" s="15"/>
     </row>
-    <row r="40" spans="1:78" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:78" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -24804,7 +25217,7 @@
       <c r="BE40" s="15"/>
       <c r="BF40" s="15"/>
     </row>
-    <row r="41" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:78" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -24860,7 +25273,7 @@
       <c r="BE41" s="15"/>
       <c r="BF41" s="15"/>
     </row>
-    <row r="42" spans="1:78" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:78" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -24946,7 +25359,7 @@
       <c r="BG42" s="45"/>
       <c r="BH42" s="45"/>
     </row>
-    <row r="43" spans="1:78" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:78" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U43" s="19">
         <v>4.88</v>
       </c>
@@ -25020,7 +25433,7 @@
       <c r="BG43" s="45"/>
       <c r="BH43" s="45"/>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
       <c r="U44" s="19">
         <v>4.82</v>
       </c>
@@ -25083,7 +25496,7 @@
         <v>-0.2200988277</v>
       </c>
       <c r="BA44" s="22">
-        <f t="shared" ref="BA44:BA81" si="19">AZ44*3/4*256/1000</f>
+        <f t="shared" ref="BA44:BA81" si="25">AZ44*3/4*256/1000</f>
         <v>-4.22589749184E-2</v>
       </c>
       <c r="BB44" s="35">
@@ -25103,7 +25516,7 @@
       <c r="BG44" s="45"/>
       <c r="BH44" s="45"/>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
       <c r="U45" s="19">
         <v>4.8</v>
       </c>
@@ -25147,39 +25560,39 @@
         <v>1078.9473684210527</v>
       </c>
       <c r="AV45" s="23">
-        <f t="shared" ref="AV45:AV82" si="20">0.0018304*AU45-1.3330731</f>
+        <f t="shared" ref="AV45:AV82" si="26">0.0018304*AU45-1.3330731</f>
         <v>0.64183216315789493</v>
       </c>
       <c r="AW45" s="23">
-        <f t="shared" ref="AW45:AW82" si="21">0.001352*AU45-1.595325</f>
+        <f t="shared" ref="AW45:AW82" si="27">0.001352*AU45-1.595325</f>
         <v>-0.13658815789473699</v>
       </c>
       <c r="AX45" s="22">
-        <f t="shared" ref="AX45:AX82" si="22">0.04358*AU45-110.88851</f>
+        <f t="shared" ref="AX45:AX82" si="28">0.04358*AU45-110.88851</f>
         <v>-63.867983684210522</v>
       </c>
       <c r="AY45" s="22">
-        <f t="shared" ref="AY45:AY82" si="23">9.81*AX45/1000</f>
+        <f t="shared" ref="AY45:AY82" si="29">9.81*AX45/1000</f>
         <v>-0.62654491994210526</v>
       </c>
       <c r="AZ45" s="22">
-        <f t="shared" ref="AZ45:AZ81" si="24">(AY45/4*256)/(3/4*256)</f>
+        <f t="shared" ref="AZ45:AZ81" si="30">(AY45/4*256)/(3/4*256)</f>
         <v>-0.20884830664736842</v>
       </c>
       <c r="BA45" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-4.0098874876294738E-2</v>
       </c>
       <c r="BB45" s="35">
-        <f t="shared" ref="BB45:BB82" si="25">BA45*AU45*0.10472</f>
+        <f t="shared" ref="BB45:BB82" si="31">BA45*AU45*0.10472</f>
         <v>-4.5306663489176051</v>
       </c>
       <c r="BC45" s="19">
-        <f t="shared" ref="BC45:BC82" si="26">AV45*AW45</f>
+        <f t="shared" ref="BC45:BC82" si="32">AV45*AW45</f>
         <v>-8.7666672843331156E-2</v>
       </c>
       <c r="BD45" s="19">
-        <f t="shared" ref="BD45:BD82" si="27">BB45/BC45</f>
+        <f t="shared" ref="BD45:BD82" si="33">BB45/BC45</f>
         <v>51.680601099283706</v>
       </c>
       <c r="BE45" s="15"/>
@@ -25187,7 +25600,7 @@
       <c r="BG45" s="45"/>
       <c r="BH45" s="45"/>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -25245,49 +25658,49 @@
       <c r="AS46" s="15"/>
       <c r="AT46" s="15"/>
       <c r="AU46" s="24">
-        <f t="shared" ref="AU46:AU81" si="28">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
+        <f t="shared" ref="AU46:AU81" si="34">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
         <v>1157.8947368421054</v>
       </c>
       <c r="AV46" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.78633742631578984</v>
       </c>
       <c r="AW46" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-2.9851315789473754E-2</v>
       </c>
       <c r="AX46" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-60.427457368421038</v>
       </c>
       <c r="AY46" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.59279335678421041</v>
       </c>
       <c r="AZ46" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.19759778559473681</v>
       </c>
       <c r="BA46" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-3.7938774834189469E-2</v>
       </c>
       <c r="BB46" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.6002561586315309</v>
       </c>
       <c r="BC46" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-2.347320683003469E-2</v>
       </c>
       <c r="BD46" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>195.97902374145835</v>
       </c>
       <c r="BE46" s="15"/>
       <c r="BF46" s="15"/>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -25363,49 +25776,49 @@
       <c r="AS47" s="15"/>
       <c r="AT47" s="15"/>
       <c r="AU47" s="24">
+        <f t="shared" si="34"/>
+        <v>1236.8421052631581</v>
+      </c>
+      <c r="AV47" s="23">
+        <f t="shared" si="26"/>
+        <v>0.93084268947368454</v>
+      </c>
+      <c r="AW47" s="23">
+        <f t="shared" si="27"/>
+        <v>7.6885526315789487E-2</v>
+      </c>
+      <c r="AX47" s="22">
         <f t="shared" si="28"/>
-        <v>1236.8421052631581</v>
-      </c>
-      <c r="AV47" s="23">
-        <f t="shared" si="20"/>
-        <v>0.93084268947368454</v>
-      </c>
-      <c r="AW47" s="23">
-        <f t="shared" si="21"/>
-        <v>7.6885526315789487E-2</v>
-      </c>
-      <c r="AX47" s="22">
-        <f t="shared" si="22"/>
         <v>-56.986931052631562</v>
       </c>
       <c r="AY47" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.55904179362631568</v>
       </c>
       <c r="AZ47" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.18634726454210523</v>
       </c>
       <c r="BA47" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-3.57786747920842E-2</v>
       </c>
       <c r="BB47" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.634129282596624</v>
       </c>
       <c r="BC47" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7.1568330097389235E-2</v>
       </c>
       <c r="BD47" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-64.751116538426459</v>
       </c>
       <c r="BE47" s="15"/>
       <c r="BF47" s="15"/>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -25481,49 +25894,49 @@
       <c r="AS48" s="15"/>
       <c r="AT48" s="15"/>
       <c r="AU48" s="24">
+        <f t="shared" si="34"/>
+        <v>1315.7894736842109</v>
+      </c>
+      <c r="AV48" s="23">
+        <f t="shared" si="26"/>
+        <v>1.0753479526315797</v>
+      </c>
+      <c r="AW48" s="23">
+        <f t="shared" si="27"/>
+        <v>0.18362236842105295</v>
+      </c>
+      <c r="AX48" s="22">
         <f t="shared" si="28"/>
-        <v>1315.7894736842109</v>
-      </c>
-      <c r="AV48" s="23">
-        <f t="shared" si="20"/>
-        <v>1.0753479526315797</v>
-      </c>
-      <c r="AW48" s="23">
-        <f t="shared" si="21"/>
-        <v>0.18362236842105295</v>
-      </c>
-      <c r="AX48" s="22">
-        <f t="shared" si="22"/>
         <v>-53.546404736842085</v>
       </c>
       <c r="AY48" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.52529023046842083</v>
       </c>
       <c r="AZ48" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.1750967434894736</v>
       </c>
       <c r="BA48" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-3.3618574749978931E-2</v>
       </c>
       <c r="BB48" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.6322857208128871</v>
       </c>
       <c r="BC48" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.19745793793894093</v>
       </c>
       <c r="BD48" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-23.459607494965883</v>
       </c>
       <c r="BE48" s="15"/>
       <c r="BF48" s="15"/>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>4.84</v>
       </c>
@@ -25599,49 +26012,49 @@
       <c r="AS49" s="15"/>
       <c r="AT49" s="15"/>
       <c r="AU49" s="24">
+        <f t="shared" si="34"/>
+        <v>1394.7368421052636</v>
+      </c>
+      <c r="AV49" s="23">
+        <f t="shared" si="26"/>
+        <v>1.2198532157894744</v>
+      </c>
+      <c r="AW49" s="23">
+        <f t="shared" si="27"/>
+        <v>0.29035921052631619</v>
+      </c>
+      <c r="AX49" s="22">
         <f t="shared" si="28"/>
-        <v>1394.7368421052636</v>
-      </c>
-      <c r="AV49" s="23">
-        <f t="shared" si="20"/>
-        <v>1.2198532157894744</v>
-      </c>
-      <c r="AW49" s="23">
-        <f t="shared" si="21"/>
-        <v>0.29035921052631619</v>
-      </c>
-      <c r="AX49" s="22">
-        <f t="shared" si="22"/>
         <v>-50.105878421052608</v>
       </c>
       <c r="AY49" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.49153866731052615</v>
       </c>
       <c r="AZ49" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.16384622243684205</v>
       </c>
       <c r="BA49" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-3.1458474707873677E-2</v>
       </c>
       <c r="BB49" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.5947254732803211</v>
       </c>
       <c r="BC49" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.3541956166946198</v>
       </c>
       <c r="BD49" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-12.972282142163829</v>
       </c>
       <c r="BE49" s="15"/>
       <c r="BF49" s="15"/>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>4.84</v>
       </c>
@@ -25717,49 +26130,49 @@
       <c r="AS50" s="15"/>
       <c r="AT50" s="15"/>
       <c r="AU50" s="24">
+        <f t="shared" si="34"/>
+        <v>1473.6842105263163</v>
+      </c>
+      <c r="AV50" s="23">
+        <f t="shared" si="26"/>
+        <v>1.3643584789473695</v>
+      </c>
+      <c r="AW50" s="23">
+        <f t="shared" si="27"/>
+        <v>0.39709605263157943</v>
+      </c>
+      <c r="AX50" s="22">
         <f t="shared" si="28"/>
-        <v>1473.6842105263163</v>
-      </c>
-      <c r="AV50" s="23">
-        <f t="shared" si="20"/>
-        <v>1.3643584789473695</v>
-      </c>
-      <c r="AW50" s="23">
-        <f t="shared" si="21"/>
-        <v>0.39709605263157943</v>
-      </c>
-      <c r="AX50" s="22">
-        <f t="shared" si="22"/>
         <v>-46.665352105263125</v>
       </c>
       <c r="AY50" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.4577871041526313</v>
       </c>
       <c r="AZ50" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.15259570138421044</v>
       </c>
       <c r="BA50" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-2.9298374665768408E-2</v>
       </c>
       <c r="BB50" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.5214485399989224</v>
       </c>
       <c r="BC50" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.54178136636442631</v>
       </c>
       <c r="BD50" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-8.3455224204916529</v>
       </c>
       <c r="BE50" s="15"/>
       <c r="BF50" s="15"/>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -25817,49 +26230,49 @@
       <c r="AS51" s="15"/>
       <c r="AT51" s="15"/>
       <c r="AU51" s="24">
+        <f t="shared" si="34"/>
+        <v>1552.631578947369</v>
+      </c>
+      <c r="AV51" s="23">
+        <f t="shared" si="26"/>
+        <v>1.5088637421052642</v>
+      </c>
+      <c r="AW51" s="23">
+        <f t="shared" si="27"/>
+        <v>0.50383289473684267</v>
+      </c>
+      <c r="AX51" s="22">
         <f t="shared" si="28"/>
-        <v>1552.631578947369</v>
-      </c>
-      <c r="AV51" s="23">
-        <f t="shared" si="20"/>
-        <v>1.5088637421052642</v>
-      </c>
-      <c r="AW51" s="23">
-        <f t="shared" si="21"/>
-        <v>0.50383289473684267</v>
-      </c>
-      <c r="AX51" s="22">
-        <f t="shared" si="22"/>
         <v>-43.224825789473655</v>
       </c>
       <c r="AY51" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.42403554099473661</v>
       </c>
       <c r="AZ51" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.14134518033157886</v>
       </c>
       <c r="BA51" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-2.7138274623663142E-2</v>
       </c>
       <c r="BB51" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.4124549209686919</v>
       </c>
       <c r="BC51" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.7602151869483601</v>
       </c>
       <c r="BD51" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-5.8042183275515402</v>
       </c>
       <c r="BE51" s="15"/>
       <c r="BF51" s="15"/>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -25899,49 +26312,49 @@
       <c r="AS52" s="15"/>
       <c r="AT52" s="15"/>
       <c r="AU52" s="24">
+        <f t="shared" si="34"/>
+        <v>1631.5789473684217</v>
+      </c>
+      <c r="AV52" s="23">
+        <f t="shared" si="26"/>
+        <v>1.6533690052631593</v>
+      </c>
+      <c r="AW52" s="23">
+        <f t="shared" si="27"/>
+        <v>0.61056973684210569</v>
+      </c>
+      <c r="AX52" s="22">
         <f t="shared" si="28"/>
-        <v>1631.5789473684217</v>
-      </c>
-      <c r="AV52" s="23">
-        <f t="shared" si="20"/>
-        <v>1.6533690052631593</v>
-      </c>
-      <c r="AW52" s="23">
-        <f t="shared" si="21"/>
-        <v>0.61056973684210569</v>
-      </c>
-      <c r="AX52" s="22">
-        <f t="shared" si="22"/>
         <v>-39.784299473684172</v>
       </c>
       <c r="AY52" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.39028397783684177</v>
       </c>
       <c r="AZ52" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.13009465927894726</v>
       </c>
       <c r="BA52" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-2.4978174581557874E-2</v>
       </c>
       <c r="BB52" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.2677446161896304</v>
       </c>
       <c r="BC52" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0094970784464212</v>
       </c>
       <c r="BD52" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-4.2275948165769153</v>
       </c>
       <c r="BE52" s="15"/>
       <c r="BF52" s="15"/>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -25981,49 +26394,49 @@
       <c r="AS53" s="15"/>
       <c r="AT53" s="15"/>
       <c r="AU53" s="24">
+        <f t="shared" si="34"/>
+        <v>1710.5263157894744</v>
+      </c>
+      <c r="AV53" s="23">
+        <f t="shared" si="26"/>
+        <v>1.797874268421054</v>
+      </c>
+      <c r="AW53" s="23">
+        <f t="shared" si="27"/>
+        <v>0.71730657894736916</v>
+      </c>
+      <c r="AX53" s="22">
         <f t="shared" si="28"/>
-        <v>1710.5263157894744</v>
-      </c>
-      <c r="AV53" s="23">
-        <f t="shared" si="20"/>
-        <v>1.797874268421054</v>
-      </c>
-      <c r="AW53" s="23">
-        <f t="shared" si="21"/>
-        <v>0.71730657894736916</v>
-      </c>
-      <c r="AX53" s="22">
-        <f t="shared" si="22"/>
         <v>-36.343773157894702</v>
       </c>
       <c r="AY53" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.35653241467894703</v>
       </c>
       <c r="AZ53" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.11884413822631568</v>
       </c>
       <c r="BA53" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-2.2818074539452608E-2</v>
       </c>
       <c r="BB53" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-4.0873176256617381</v>
       </c>
       <c r="BC53" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.2896270408586104</v>
       </c>
       <c r="BD53" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-3.1693795928321076</v>
       </c>
       <c r="BE53" s="15"/>
       <c r="BF53" s="15"/>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -26063,49 +26476,49 @@
       <c r="AS54" s="15"/>
       <c r="AT54" s="15"/>
       <c r="AU54" s="24">
+        <f t="shared" si="34"/>
+        <v>1789.4736842105272</v>
+      </c>
+      <c r="AV54" s="23">
+        <f t="shared" si="26"/>
+        <v>1.9423795315789492</v>
+      </c>
+      <c r="AW54" s="23">
+        <f t="shared" si="27"/>
+        <v>0.82404342105263262</v>
+      </c>
+      <c r="AX54" s="22">
         <f t="shared" si="28"/>
-        <v>1789.4736842105272</v>
-      </c>
-      <c r="AV54" s="23">
-        <f t="shared" si="20"/>
-        <v>1.9423795315789492</v>
-      </c>
-      <c r="AW54" s="23">
-        <f t="shared" si="21"/>
-        <v>0.82404342105263262</v>
-      </c>
-      <c r="AX54" s="22">
-        <f t="shared" si="22"/>
         <v>-32.903246842105219</v>
       </c>
       <c r="AY54" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.32278085152105224</v>
       </c>
       <c r="AZ54" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.10759361717368408</v>
       </c>
       <c r="BA54" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-2.0657974497347343E-2</v>
       </c>
       <c r="BB54" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-3.8711739493850152</v>
       </c>
       <c r="BC54" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.6006050741849274</v>
       </c>
       <c r="BD54" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-2.41856908479209</v>
       </c>
       <c r="BE54" s="15"/>
       <c r="BF54" s="15"/>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -26145,49 +26558,49 @@
       <c r="AS55" s="15"/>
       <c r="AT55" s="15"/>
       <c r="AU55" s="24">
+        <f t="shared" si="34"/>
+        <v>1868.4210526315799</v>
+      </c>
+      <c r="AV55" s="23">
+        <f t="shared" si="26"/>
+        <v>2.0868847947368439</v>
+      </c>
+      <c r="AW55" s="23">
+        <f t="shared" si="27"/>
+        <v>0.93078026315789564</v>
+      </c>
+      <c r="AX55" s="22">
         <f t="shared" si="28"/>
-        <v>1868.4210526315799</v>
-      </c>
-      <c r="AV55" s="23">
-        <f t="shared" si="20"/>
-        <v>2.0868847947368439</v>
-      </c>
-      <c r="AW55" s="23">
-        <f t="shared" si="21"/>
-        <v>0.93078026315789564</v>
-      </c>
-      <c r="AX55" s="22">
-        <f t="shared" si="22"/>
         <v>-29.462720526315749</v>
       </c>
       <c r="AY55" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.2890292883631575</v>
       </c>
       <c r="AZ55" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-9.6343096121052504E-2</v>
       </c>
       <c r="BA55" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1.8497874455242081E-2</v>
       </c>
       <c r="BB55" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-3.6193135873594624</v>
       </c>
       <c r="BC55" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.9424311784253705</v>
       </c>
       <c r="BD55" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.8632905132286099</v>
       </c>
       <c r="BE55" s="15"/>
       <c r="BF55" s="15"/>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -26227,49 +26640,49 @@
       <c r="AS56" s="15"/>
       <c r="AT56" s="15"/>
       <c r="AU56" s="24">
+        <f t="shared" si="34"/>
+        <v>1947.3684210526326</v>
+      </c>
+      <c r="AV56" s="23">
+        <f t="shared" si="26"/>
+        <v>2.2313900578947385</v>
+      </c>
+      <c r="AW56" s="23">
+        <f t="shared" si="27"/>
+        <v>1.0375171052631591</v>
+      </c>
+      <c r="AX56" s="22">
         <f t="shared" si="28"/>
-        <v>1947.3684210526326</v>
-      </c>
-      <c r="AV56" s="23">
-        <f t="shared" si="20"/>
-        <v>2.2313900578947385</v>
-      </c>
-      <c r="AW56" s="23">
-        <f t="shared" si="21"/>
-        <v>1.0375171052631591</v>
-      </c>
-      <c r="AX56" s="22">
-        <f t="shared" si="22"/>
         <v>-26.022194210526266</v>
       </c>
       <c r="AY56" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.25527772520526265</v>
       </c>
       <c r="AZ56" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-8.5092575068420884E-2</v>
       </c>
       <c r="BA56" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1.6337774413136809E-2</v>
       </c>
       <c r="BB56" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-3.3317365395850755</v>
       </c>
       <c r="BC56" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2.3151053535799422</v>
       </c>
       <c r="BD56" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.4391295559975597</v>
       </c>
       <c r="BE56" s="15"/>
       <c r="BF56" s="15"/>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -26309,49 +26722,49 @@
       <c r="AS57" s="15"/>
       <c r="AT57" s="15"/>
       <c r="AU57" s="24">
+        <f t="shared" si="34"/>
+        <v>2026.3157894736853</v>
+      </c>
+      <c r="AV57" s="23">
+        <f t="shared" si="26"/>
+        <v>2.3758953210526337</v>
+      </c>
+      <c r="AW57" s="23">
+        <f t="shared" si="27"/>
+        <v>1.1442539473684221</v>
+      </c>
+      <c r="AX57" s="22">
         <f t="shared" si="28"/>
-        <v>2026.3157894736853</v>
-      </c>
-      <c r="AV57" s="23">
-        <f t="shared" si="20"/>
-        <v>2.3758953210526337</v>
-      </c>
-      <c r="AW57" s="23">
-        <f t="shared" si="21"/>
-        <v>1.1442539473684221</v>
-      </c>
-      <c r="AX57" s="22">
-        <f t="shared" si="22"/>
         <v>-22.581667894736796</v>
       </c>
       <c r="AY57" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.221526162047368</v>
       </c>
       <c r="AZ57" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-7.3842054015789332E-2</v>
       </c>
       <c r="BA57" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1.4177674371031552E-2</v>
       </c>
       <c r="BB57" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-3.0084428060618609</v>
       </c>
       <c r="BC57" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2.7186275996486406</v>
       </c>
       <c r="BD57" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.1066034959884452</v>
       </c>
       <c r="BE57" s="15"/>
       <c r="BF57" s="15"/>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -26391,49 +26804,49 @@
       <c r="AS58" s="15"/>
       <c r="AT58" s="15"/>
       <c r="AU58" s="24">
+        <f t="shared" si="34"/>
+        <v>2105.263157894738</v>
+      </c>
+      <c r="AV58" s="23">
+        <f t="shared" si="26"/>
+        <v>2.5204005842105284</v>
+      </c>
+      <c r="AW58" s="23">
+        <f t="shared" si="27"/>
+        <v>1.2509907894736856</v>
+      </c>
+      <c r="AX58" s="22">
         <f t="shared" si="28"/>
-        <v>2105.263157894738</v>
-      </c>
-      <c r="AV58" s="23">
-        <f t="shared" si="20"/>
-        <v>2.5204005842105284</v>
-      </c>
-      <c r="AW58" s="23">
-        <f t="shared" si="21"/>
-        <v>1.2509907894736856</v>
-      </c>
-      <c r="AX58" s="22">
-        <f t="shared" si="22"/>
         <v>-19.141141578947312</v>
       </c>
       <c r="AY58" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.18777459888947315</v>
       </c>
       <c r="AZ58" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-6.2591532963157712E-2</v>
       </c>
       <c r="BA58" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1.201757432892628E-2</v>
       </c>
       <c r="BB58" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-2.6494323867898117</v>
       </c>
       <c r="BC58" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3.1529979166314672</v>
       </c>
       <c r="BD58" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.84028992623641052</v>
       </c>
       <c r="BE58" s="15"/>
       <c r="BF58" s="15"/>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -26473,49 +26886,49 @@
       <c r="AS59" s="15"/>
       <c r="AT59" s="15"/>
       <c r="AU59" s="24">
+        <f t="shared" si="34"/>
+        <v>2184.2105263157905</v>
+      </c>
+      <c r="AV59" s="23">
+        <f t="shared" si="26"/>
+        <v>2.6649058473684231</v>
+      </c>
+      <c r="AW59" s="23">
+        <f t="shared" si="27"/>
+        <v>1.3577276315789486</v>
+      </c>
+      <c r="AX59" s="22">
         <f t="shared" si="28"/>
-        <v>2184.2105263157905</v>
-      </c>
-      <c r="AV59" s="23">
-        <f t="shared" si="20"/>
-        <v>2.6649058473684231</v>
-      </c>
-      <c r="AW59" s="23">
-        <f t="shared" si="21"/>
-        <v>1.3577276315789486</v>
-      </c>
-      <c r="AX59" s="22">
-        <f t="shared" si="22"/>
         <v>-15.700615263157843</v>
       </c>
       <c r="AY59" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.15402303573157847</v>
       </c>
       <c r="AZ59" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-5.1341011910526153E-2</v>
       </c>
       <c r="BA59" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-9.8574742868210215E-3</v>
       </c>
       <c r="BB59" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-2.2547052817689348</v>
       </c>
       <c r="BC59" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3.6182163045284201</v>
       </c>
       <c r="BD59" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.62315381171297923</v>
       </c>
       <c r="BE59" s="15"/>
       <c r="BF59" s="15"/>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26555,49 +26968,49 @@
       <c r="AS60" s="15"/>
       <c r="AT60" s="15"/>
       <c r="AU60" s="24">
+        <f t="shared" si="34"/>
+        <v>2263.157894736843</v>
+      </c>
+      <c r="AV60" s="23">
+        <f t="shared" si="26"/>
+        <v>2.8094111105263178</v>
+      </c>
+      <c r="AW60" s="23">
+        <f t="shared" si="27"/>
+        <v>1.4644644736842116</v>
+      </c>
+      <c r="AX60" s="22">
         <f t="shared" si="28"/>
-        <v>2263.157894736843</v>
-      </c>
-      <c r="AV60" s="23">
-        <f t="shared" si="20"/>
-        <v>2.8094111105263178</v>
-      </c>
-      <c r="AW60" s="23">
-        <f t="shared" si="21"/>
-        <v>1.4644644736842116</v>
-      </c>
-      <c r="AX60" s="22">
-        <f t="shared" si="22"/>
         <v>-12.260088947368374</v>
       </c>
       <c r="AY60" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.12027147257368376</v>
       </c>
       <c r="AZ60" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-4.0090490857894588E-2</v>
       </c>
       <c r="BA60" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-7.6973742447157606E-3</v>
       </c>
       <c r="BB60" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-1.8242614909992261</v>
       </c>
       <c r="BC60" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.1142827633395003</v>
       </c>
       <c r="BD60" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.44339720819735323</v>
       </c>
       <c r="BE60" s="15"/>
       <c r="BF60" s="15"/>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -26637,49 +27050,49 @@
       <c r="AS61" s="15"/>
       <c r="AT61" s="15"/>
       <c r="AU61" s="24">
+        <f t="shared" si="34"/>
+        <v>2342.1052631578955</v>
+      </c>
+      <c r="AV61" s="23">
+        <f t="shared" si="26"/>
+        <v>2.953916373684212</v>
+      </c>
+      <c r="AW61" s="23">
+        <f t="shared" si="27"/>
+        <v>1.5712013157894742</v>
+      </c>
+      <c r="AX61" s="22">
         <f t="shared" si="28"/>
-        <v>2342.1052631578955</v>
-      </c>
-      <c r="AV61" s="23">
-        <f t="shared" si="20"/>
-        <v>2.953916373684212</v>
-      </c>
-      <c r="AW61" s="23">
-        <f t="shared" si="21"/>
-        <v>1.5712013157894742</v>
-      </c>
-      <c r="AX61" s="22">
-        <f t="shared" si="22"/>
         <v>-8.8195626315789042</v>
       </c>
       <c r="AY61" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-8.6519909415789062E-2</v>
       </c>
       <c r="AZ61" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-2.8839969805263019E-2</v>
       </c>
       <c r="BA61" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-5.5372742026104996E-3</v>
       </c>
       <c r="BB61" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-1.3581010144806864</v>
       </c>
       <c r="BC61" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.6411972930647059</v>
       </c>
       <c r="BD61" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.29261867762227711</v>
       </c>
       <c r="BE61" s="15"/>
       <c r="BF61" s="15"/>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -26719,49 +27132,49 @@
       <c r="AS62" s="15"/>
       <c r="AT62" s="15"/>
       <c r="AU62" s="24">
+        <f t="shared" si="34"/>
+        <v>2421.052631578948</v>
+      </c>
+      <c r="AV62" s="23">
+        <f t="shared" si="26"/>
+        <v>3.0984216368421063</v>
+      </c>
+      <c r="AW62" s="23">
+        <f t="shared" si="27"/>
+        <v>1.6779381578947372</v>
+      </c>
+      <c r="AX62" s="22">
         <f t="shared" si="28"/>
-        <v>2421.052631578948</v>
-      </c>
-      <c r="AV62" s="23">
-        <f t="shared" si="20"/>
-        <v>3.0984216368421063</v>
-      </c>
-      <c r="AW62" s="23">
-        <f t="shared" si="21"/>
-        <v>1.6779381578947372</v>
-      </c>
-      <c r="AX62" s="22">
-        <f t="shared" si="22"/>
         <v>-5.379036315789449</v>
       </c>
       <c r="AY62" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-5.2768346257894498E-2</v>
       </c>
       <c r="AZ62" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-1.7589448752631499E-2</v>
       </c>
       <c r="BA62" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-3.3771741605052477E-3</v>
       </c>
       <c r="BB62" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.85622385221331798</v>
       </c>
       <c r="BC62" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5.19895989370404</v>
       </c>
       <c r="BD62" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.16469137475944146</v>
       </c>
       <c r="BE62" s="15"/>
       <c r="BF62" s="15"/>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -26801,49 +27214,49 @@
       <c r="AS63" s="15"/>
       <c r="AT63" s="15"/>
       <c r="AU63" s="24">
+        <f t="shared" si="34"/>
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="AV63" s="23">
+        <f t="shared" si="26"/>
+        <v>3.2429269000000005</v>
+      </c>
+      <c r="AW63" s="23">
+        <f t="shared" si="27"/>
+        <v>1.7846750000000002</v>
+      </c>
+      <c r="AX63" s="22">
         <f t="shared" si="28"/>
-        <v>2500.0000000000005</v>
-      </c>
-      <c r="AV63" s="23">
-        <f t="shared" si="20"/>
-        <v>3.2429269000000005</v>
-      </c>
-      <c r="AW63" s="23">
-        <f t="shared" si="21"/>
-        <v>1.7846750000000002</v>
-      </c>
-      <c r="AX63" s="22">
-        <f t="shared" si="22"/>
         <v>-1.9385099999999795</v>
       </c>
       <c r="AY63" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-1.9016783099999799E-2</v>
       </c>
       <c r="AZ63" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-6.3389276999999333E-3</v>
       </c>
       <c r="BA63" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-1.2170741183999871E-3</v>
       </c>
       <c r="BB63" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.31863000419711668</v>
       </c>
       <c r="BC63" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5.7875705652575018</v>
       </c>
       <c r="BD63" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-5.5054189077164216E-2</v>
       </c>
       <c r="BE63" s="15"/>
       <c r="BF63" s="15"/>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -26883,49 +27296,49 @@
       <c r="AS64" s="15"/>
       <c r="AT64" s="15"/>
       <c r="AU64" s="24">
+        <f t="shared" si="34"/>
+        <v>2578.9473684210529</v>
+      </c>
+      <c r="AV64" s="23">
+        <f t="shared" si="26"/>
+        <v>3.3874321631578956</v>
+      </c>
+      <c r="AW64" s="23">
+        <f t="shared" si="27"/>
+        <v>1.8914118421052633</v>
+      </c>
+      <c r="AX64" s="22">
         <f t="shared" si="28"/>
-        <v>2578.9473684210529</v>
-      </c>
-      <c r="AV64" s="23">
-        <f t="shared" si="20"/>
-        <v>3.3874321631578956</v>
-      </c>
-      <c r="AW64" s="23">
-        <f t="shared" si="21"/>
-        <v>1.8914118421052633</v>
-      </c>
-      <c r="AX64" s="22">
-        <f t="shared" si="22"/>
         <v>1.5020163157894899</v>
       </c>
       <c r="AY64" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.4734780057894897E-2</v>
       </c>
       <c r="AZ64" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4.9115933526316319E-3</v>
       </c>
       <c r="BA64" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>9.4302592370527341E-4</v>
       </c>
       <c r="BB64" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.25468052956791554</v>
       </c>
       <c r="BC64" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6.4070293077250922</v>
       </c>
       <c r="BD64" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3.9750173962969357E-2</v>
       </c>
       <c r="BE64" s="15"/>
       <c r="BF64" s="15"/>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -26965,49 +27378,49 @@
       <c r="AS65" s="15"/>
       <c r="AT65" s="15"/>
       <c r="AU65" s="24">
+        <f t="shared" si="34"/>
+        <v>2657.8947368421054</v>
+      </c>
+      <c r="AV65" s="23">
+        <f t="shared" si="26"/>
+        <v>3.5319374263157899</v>
+      </c>
+      <c r="AW65" s="23">
+        <f t="shared" si="27"/>
+        <v>1.9981486842105263</v>
+      </c>
+      <c r="AX65" s="22">
         <f t="shared" si="28"/>
-        <v>2657.8947368421054</v>
-      </c>
-      <c r="AV65" s="23">
-        <f t="shared" si="20"/>
-        <v>3.5319374263157899</v>
-      </c>
-      <c r="AW65" s="23">
-        <f t="shared" si="21"/>
-        <v>1.9981486842105263</v>
-      </c>
-      <c r="AX65" s="22">
-        <f t="shared" si="22"/>
         <v>4.9425426315789593</v>
       </c>
       <c r="AY65" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>4.8486343215789596E-2</v>
       </c>
       <c r="AZ65" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1.61621144052632E-2</v>
       </c>
       <c r="BA65" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3.103125965810534E-3</v>
       </c>
       <c r="BB65" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.86370774908177872</v>
       </c>
       <c r="BC65" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7.0573361211068084</v>
       </c>
       <c r="BD65" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.12238438615650386</v>
       </c>
       <c r="BE65" s="15"/>
       <c r="BF65" s="15"/>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
       <c r="W66" s="15"/>
@@ -27035,49 +27448,49 @@
       <c r="AS66" s="15"/>
       <c r="AT66" s="15"/>
       <c r="AU66" s="24">
+        <f t="shared" si="34"/>
+        <v>2736.8421052631579</v>
+      </c>
+      <c r="AV66" s="23">
+        <f t="shared" si="26"/>
+        <v>3.6764426894736841</v>
+      </c>
+      <c r="AW66" s="23">
+        <f t="shared" si="27"/>
+        <v>2.1048855263157895</v>
+      </c>
+      <c r="AX66" s="22">
         <f t="shared" si="28"/>
-        <v>2736.8421052631579</v>
-      </c>
-      <c r="AV66" s="23">
-        <f t="shared" si="20"/>
-        <v>3.6764426894736841</v>
-      </c>
-      <c r="AW66" s="23">
-        <f t="shared" si="21"/>
-        <v>2.1048855263157895</v>
-      </c>
-      <c r="AX66" s="22">
-        <f t="shared" si="22"/>
         <v>8.3830689473684288</v>
       </c>
       <c r="AY66" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>8.2237906373684291E-2</v>
       </c>
       <c r="AZ66" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.7412635457894765E-2</v>
       </c>
       <c r="BA66" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5.2632260079157949E-3</v>
       </c>
       <c r="BB66" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.508451654344473</v>
       </c>
       <c r="BC66" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7.7384910054026523</v>
       </c>
       <c r="BD66" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.1949283979643244</v>
       </c>
       <c r="BE66" s="15"/>
       <c r="BF66" s="15"/>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>23</v>
       </c>
@@ -27115,49 +27528,49 @@
       <c r="AS67" s="15"/>
       <c r="AT67" s="15"/>
       <c r="AU67" s="24">
+        <f t="shared" si="34"/>
+        <v>2815.7894736842104</v>
+      </c>
+      <c r="AV67" s="23">
+        <f t="shared" si="26"/>
+        <v>3.8209479526315793</v>
+      </c>
+      <c r="AW67" s="23">
+        <f t="shared" si="27"/>
+        <v>2.2116223684210521</v>
+      </c>
+      <c r="AX67" s="22">
         <f t="shared" si="28"/>
-        <v>2815.7894736842104</v>
-      </c>
-      <c r="AV67" s="23">
-        <f t="shared" si="20"/>
-        <v>3.8209479526315793</v>
-      </c>
-      <c r="AW67" s="23">
-        <f t="shared" si="21"/>
-        <v>2.2116223684210521</v>
-      </c>
-      <c r="AX67" s="22">
-        <f t="shared" si="22"/>
         <v>11.823595263157898</v>
       </c>
       <c r="AY67" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.11598946953157899</v>
       </c>
       <c r="AZ67" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.8663156510526327E-2</v>
       </c>
       <c r="BA67" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7.4233260500210551E-3</v>
       </c>
       <c r="BB67" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2.1889122453559975</v>
       </c>
       <c r="BC67" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>8.4504939606126239</v>
       </c>
       <c r="BD67" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.259027727320843</v>
       </c>
       <c r="BE67" s="15"/>
       <c r="BF67" s="15"/>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
@@ -27185,49 +27598,49 @@
       <c r="AS68" s="15"/>
       <c r="AT68" s="15"/>
       <c r="AU68" s="24">
+        <f t="shared" si="34"/>
+        <v>2894.7368421052629</v>
+      </c>
+      <c r="AV68" s="23">
+        <f t="shared" si="26"/>
+        <v>3.9654532157894735</v>
+      </c>
+      <c r="AW68" s="23">
+        <f t="shared" si="27"/>
+        <v>2.3183592105263147</v>
+      </c>
+      <c r="AX68" s="22">
         <f t="shared" si="28"/>
-        <v>2894.7368421052629</v>
-      </c>
-      <c r="AV68" s="23">
-        <f t="shared" si="20"/>
-        <v>3.9654532157894735</v>
-      </c>
-      <c r="AW68" s="23">
-        <f t="shared" si="21"/>
-        <v>2.3183592105263147</v>
-      </c>
-      <c r="AX68" s="22">
-        <f t="shared" si="22"/>
         <v>15.264121578947368</v>
       </c>
       <c r="AY68" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.1497410326894737</v>
       </c>
       <c r="AZ68" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4.9913677563157899E-2</v>
       </c>
       <c r="BA68" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>9.583426092126316E-3</v>
       </c>
       <c r="BB68" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2.9050895221163535</v>
       </c>
       <c r="BC68" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.1933449867367187</v>
       </c>
       <c r="BD68" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.31599918487857681</v>
       </c>
       <c r="BE68" s="15"/>
       <c r="BF68" s="15"/>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -27273,49 +27686,49 @@
       <c r="AS69" s="15"/>
       <c r="AT69" s="15"/>
       <c r="AU69" s="24">
+        <f t="shared" si="34"/>
+        <v>2973.6842105263154</v>
+      </c>
+      <c r="AV69" s="23">
+        <f t="shared" si="26"/>
+        <v>4.1099584789473678</v>
+      </c>
+      <c r="AW69" s="23">
+        <f t="shared" si="27"/>
+        <v>2.4250960526315781</v>
+      </c>
+      <c r="AX69" s="22">
         <f t="shared" si="28"/>
-        <v>2973.6842105263154</v>
-      </c>
-      <c r="AV69" s="23">
-        <f t="shared" si="20"/>
-        <v>4.1099584789473678</v>
-      </c>
-      <c r="AW69" s="23">
-        <f t="shared" si="21"/>
-        <v>2.4250960526315781</v>
-      </c>
-      <c r="AX69" s="22">
-        <f t="shared" si="22"/>
         <v>18.704647894736837</v>
       </c>
       <c r="AY69" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.18349259584736838</v>
       </c>
       <c r="AZ69" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>6.1164198615789457E-2</v>
       </c>
       <c r="BA69" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.1743526134231576E-2</v>
       </c>
       <c r="BB69" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.6569834846255405</v>
       </c>
       <c r="BC69" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.9670440837749474</v>
       </c>
       <c r="BD69" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.36690752583091657</v>
       </c>
       <c r="BE69" s="15"/>
       <c r="BF69" s="15"/>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -27379,39 +27792,39 @@
       <c r="AS70" s="15"/>
       <c r="AT70" s="15"/>
       <c r="AU70" s="24">
+        <f t="shared" si="34"/>
+        <v>3052.6315789473679</v>
+      </c>
+      <c r="AV70" s="23">
+        <f t="shared" si="26"/>
+        <v>4.254463742105262</v>
+      </c>
+      <c r="AW70" s="23">
+        <f t="shared" si="27"/>
+        <v>2.5318328947368416</v>
+      </c>
+      <c r="AX70" s="22">
         <f t="shared" si="28"/>
-        <v>3052.6315789473679</v>
-      </c>
-      <c r="AV70" s="23">
-        <f t="shared" si="20"/>
-        <v>4.254463742105262</v>
-      </c>
-      <c r="AW70" s="23">
-        <f t="shared" si="21"/>
-        <v>2.5318328947368416</v>
-      </c>
-      <c r="AX70" s="22">
-        <f t="shared" si="22"/>
         <v>22.145174210526307</v>
       </c>
       <c r="AY70" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.21724415900526306</v>
       </c>
       <c r="AZ70" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>7.2414719668421015E-2</v>
       </c>
       <c r="BA70" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.3903626176336836E-2</v>
       </c>
       <c r="BB70" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4.4445941328835579</v>
       </c>
       <c r="BC70" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>10.771591251727301</v>
       </c>
       <c r="BD70" s="19">
@@ -27421,7 +27834,7 @@
       <c r="BE70" s="15"/>
       <c r="BF70" s="15"/>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>4.88</v>
       </c>
@@ -27485,49 +27898,49 @@
       <c r="AS71" s="15"/>
       <c r="AT71" s="15"/>
       <c r="AU71" s="24">
+        <f t="shared" si="34"/>
+        <v>3131.5789473684204</v>
+      </c>
+      <c r="AV71" s="23">
+        <f t="shared" si="26"/>
+        <v>4.3989690052631572</v>
+      </c>
+      <c r="AW71" s="23">
+        <f t="shared" si="27"/>
+        <v>2.6385697368421042</v>
+      </c>
+      <c r="AX71" s="22">
         <f t="shared" si="28"/>
-        <v>3131.5789473684204</v>
-      </c>
-      <c r="AV71" s="23">
-        <f t="shared" si="20"/>
-        <v>4.3989690052631572</v>
-      </c>
-      <c r="AW71" s="23">
-        <f t="shared" si="21"/>
-        <v>2.6385697368421042</v>
-      </c>
-      <c r="AX71" s="22">
-        <f t="shared" si="22"/>
         <v>25.585700526315776</v>
       </c>
       <c r="AY71" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.2509957221631578</v>
       </c>
       <c r="AZ71" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>8.3665240721052594E-2</v>
       </c>
       <c r="BA71" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.6063726218442098E-2</v>
       </c>
       <c r="BB71" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>5.2679214668904075</v>
       </c>
       <c r="BC71" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>11.606986490593782</v>
       </c>
       <c r="BD71" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.45385780979063717</v>
       </c>
       <c r="BE71" s="15"/>
       <c r="BF71" s="15"/>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>4.82</v>
       </c>
@@ -27591,49 +28004,49 @@
       <c r="AS72" s="15"/>
       <c r="AT72" s="15"/>
       <c r="AU72" s="24">
+        <f t="shared" si="34"/>
+        <v>3210.5263157894728</v>
+      </c>
+      <c r="AV72" s="23">
+        <f t="shared" si="26"/>
+        <v>4.5434742684210514</v>
+      </c>
+      <c r="AW72" s="23">
+        <f t="shared" si="27"/>
+        <v>2.7453065789473667</v>
+      </c>
+      <c r="AX72" s="22">
         <f t="shared" si="28"/>
-        <v>3210.5263157894728</v>
-      </c>
-      <c r="AV72" s="23">
-        <f t="shared" si="20"/>
-        <v>4.5434742684210514</v>
-      </c>
-      <c r="AW72" s="23">
-        <f t="shared" si="21"/>
-        <v>2.7453065789473667</v>
-      </c>
-      <c r="AX72" s="22">
-        <f t="shared" si="22"/>
         <v>29.026226842105245</v>
       </c>
       <c r="AY72" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.28474728532105248</v>
       </c>
       <c r="AZ72" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>9.491576177368416E-2</v>
       </c>
       <c r="BA72" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.822382626054736E-2</v>
       </c>
       <c r="BB72" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>6.1269654866460872</v>
       </c>
       <c r="BC72" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>12.473229800374387</v>
       </c>
       <c r="BD72" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.49120922044282267</v>
       </c>
       <c r="BE72" s="15"/>
       <c r="BF72" s="15"/>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>4.8</v>
       </c>
@@ -27697,49 +28110,49 @@
       <c r="AS73" s="15"/>
       <c r="AT73" s="15"/>
       <c r="AU73" s="24">
+        <f t="shared" si="34"/>
+        <v>3289.4736842105253</v>
+      </c>
+      <c r="AV73" s="23">
+        <f t="shared" si="26"/>
+        <v>4.6879795315789456</v>
+      </c>
+      <c r="AW73" s="23">
+        <f t="shared" si="27"/>
+        <v>2.8520434210526302</v>
+      </c>
+      <c r="AX73" s="22">
         <f t="shared" si="28"/>
-        <v>3289.4736842105253</v>
-      </c>
-      <c r="AV73" s="23">
-        <f t="shared" si="20"/>
-        <v>4.6879795315789456</v>
-      </c>
-      <c r="AW73" s="23">
-        <f t="shared" si="21"/>
-        <v>2.8520434210526302</v>
-      </c>
-      <c r="AX73" s="22">
-        <f t="shared" si="22"/>
         <v>32.466753157894686</v>
       </c>
       <c r="AY73" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.31849884847894694</v>
       </c>
       <c r="AZ73" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.10616628282631564</v>
       </c>
       <c r="BA73" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.0383926302652604E-2</v>
       </c>
       <c r="BB73" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>7.0217261921505925</v>
       </c>
       <c r="BC73" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>13.370321181069123</v>
       </c>
       <c r="BD73" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.52517258912916542</v>
       </c>
       <c r="BE73" s="15"/>
       <c r="BF73" s="15"/>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="10"/>
       <c r="C74" s="1"/>
@@ -27779,49 +28192,49 @@
       <c r="AS74" s="15"/>
       <c r="AT74" s="15"/>
       <c r="AU74" s="24">
+        <f t="shared" si="34"/>
+        <v>3368.4210526315778</v>
+      </c>
+      <c r="AV74" s="23">
+        <f t="shared" si="26"/>
+        <v>4.8324847947368399</v>
+      </c>
+      <c r="AW74" s="23">
+        <f t="shared" si="27"/>
+        <v>2.9587802631578928</v>
+      </c>
+      <c r="AX74" s="22">
         <f t="shared" si="28"/>
-        <v>3368.4210526315778</v>
-      </c>
-      <c r="AV74" s="23">
-        <f t="shared" si="20"/>
-        <v>4.8324847947368399</v>
-      </c>
-      <c r="AW74" s="23">
-        <f t="shared" si="21"/>
-        <v>2.9587802631578928</v>
-      </c>
-      <c r="AX74" s="22">
-        <f t="shared" si="22"/>
         <v>35.907279473684156</v>
       </c>
       <c r="AY74" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.35225041163684156</v>
       </c>
       <c r="AZ74" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.11741680387894719</v>
       </c>
       <c r="BA74" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.2544026344757859E-2</v>
       </c>
       <c r="BB74" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>7.9522035834039313</v>
       </c>
       <c r="BC74" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>14.298260632677982</v>
       </c>
       <c r="BD74" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.55616580140031546</v>
       </c>
       <c r="BE74" s="15"/>
       <c r="BF74" s="15"/>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="10"/>
       <c r="C75" s="1"/>
@@ -27861,49 +28274,49 @@
       <c r="AS75" s="15"/>
       <c r="AT75" s="15"/>
       <c r="AU75" s="24">
+        <f t="shared" si="34"/>
+        <v>3447.3684210526303</v>
+      </c>
+      <c r="AV75" s="23">
+        <f t="shared" si="26"/>
+        <v>4.976990057894735</v>
+      </c>
+      <c r="AW75" s="23">
+        <f t="shared" si="27"/>
+        <v>3.0655171052631562</v>
+      </c>
+      <c r="AX75" s="22">
         <f t="shared" si="28"/>
-        <v>3447.3684210526303</v>
-      </c>
-      <c r="AV75" s="23">
-        <f t="shared" si="20"/>
-        <v>4.976990057894735</v>
-      </c>
-      <c r="AW75" s="23">
-        <f t="shared" si="21"/>
-        <v>3.0655171052631562</v>
-      </c>
-      <c r="AX75" s="22">
-        <f t="shared" si="22"/>
         <v>39.347805789473625</v>
       </c>
       <c r="AY75" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.38600197479473625</v>
       </c>
       <c r="AZ75" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.12866732493157876</v>
       </c>
       <c r="BA75" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.4704126386863125E-2</v>
       </c>
       <c r="BB75" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>8.9183976604061055</v>
       </c>
       <c r="BC75" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>15.257048155200977</v>
       </c>
       <c r="BD75" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.58454280078849408</v>
       </c>
       <c r="BE75" s="15"/>
       <c r="BF75" s="15"/>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="10"/>
       <c r="C76" s="1"/>
@@ -27943,49 +28356,49 @@
       <c r="AS76" s="15"/>
       <c r="AT76" s="15"/>
       <c r="AU76" s="24">
+        <f t="shared" si="34"/>
+        <v>3526.3157894736828</v>
+      </c>
+      <c r="AV76" s="23">
+        <f t="shared" si="26"/>
+        <v>5.1214953210526293</v>
+      </c>
+      <c r="AW76" s="23">
+        <f t="shared" si="27"/>
+        <v>3.1722539473684188</v>
+      </c>
+      <c r="AX76" s="22">
         <f t="shared" si="28"/>
-        <v>3526.3157894736828</v>
-      </c>
-      <c r="AV76" s="23">
-        <f t="shared" si="20"/>
-        <v>5.1214953210526293</v>
-      </c>
-      <c r="AW76" s="23">
-        <f t="shared" si="21"/>
-        <v>3.1722539473684188</v>
-      </c>
-      <c r="AX76" s="22">
-        <f t="shared" si="22"/>
         <v>42.788332105263095</v>
       </c>
       <c r="AY76" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.41975353795263098</v>
       </c>
       <c r="AZ76" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.13991784598421034</v>
       </c>
       <c r="BA76" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.6864226428968387E-2</v>
       </c>
       <c r="BB76" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>9.9203084231571079</v>
       </c>
       <c r="BC76" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>16.246683748638091</v>
       </c>
       <c r="BD76" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.61060512881520801</v>
       </c>
       <c r="BE76" s="15"/>
       <c r="BF76" s="15"/>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="10"/>
       <c r="C77" s="1"/>
@@ -28025,49 +28438,49 @@
       <c r="AS77" s="15"/>
       <c r="AT77" s="15"/>
       <c r="AU77" s="24">
+        <f t="shared" si="34"/>
+        <v>3605.2631578947353</v>
+      </c>
+      <c r="AV77" s="23">
+        <f t="shared" si="26"/>
+        <v>5.2660005842105235</v>
+      </c>
+      <c r="AW77" s="23">
+        <f t="shared" si="27"/>
+        <v>3.2789907894736823</v>
+      </c>
+      <c r="AX77" s="22">
         <f t="shared" si="28"/>
-        <v>3605.2631578947353</v>
-      </c>
-      <c r="AV77" s="23">
-        <f t="shared" si="20"/>
-        <v>5.2660005842105235</v>
-      </c>
-      <c r="AW77" s="23">
-        <f t="shared" si="21"/>
-        <v>3.2789907894736823</v>
-      </c>
-      <c r="AX77" s="22">
-        <f t="shared" si="22"/>
         <v>46.228858421052564</v>
       </c>
       <c r="AY77" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.45350510111052567</v>
       </c>
       <c r="AZ77" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.15116836703684189</v>
       </c>
       <c r="BA77" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.9024326471073641E-2</v>
       </c>
       <c r="BB77" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>10.957935871656941</v>
       </c>
       <c r="BC77" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>17.267167412989338</v>
       </c>
       <c r="BD77" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.63461108643759157</v>
       </c>
       <c r="BE77" s="15"/>
       <c r="BF77" s="15"/>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="10"/>
       <c r="C78" s="1"/>
@@ -28107,49 +28520,49 @@
       <c r="AS78" s="15"/>
       <c r="AT78" s="15"/>
       <c r="AU78" s="24">
+        <f t="shared" si="34"/>
+        <v>3684.2105263157878</v>
+      </c>
+      <c r="AV78" s="23">
+        <f t="shared" si="26"/>
+        <v>5.4105058473684178</v>
+      </c>
+      <c r="AW78" s="23">
+        <f t="shared" si="27"/>
+        <v>3.3857276315789449</v>
+      </c>
+      <c r="AX78" s="22">
         <f t="shared" si="28"/>
-        <v>3684.2105263157878</v>
-      </c>
-      <c r="AV78" s="23">
-        <f t="shared" si="20"/>
-        <v>5.4105058473684178</v>
-      </c>
-      <c r="AW78" s="23">
-        <f t="shared" si="21"/>
-        <v>3.3857276315789449</v>
-      </c>
-      <c r="AX78" s="22">
-        <f t="shared" si="22"/>
         <v>49.669384736842034</v>
       </c>
       <c r="AY78" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.48725666426842035</v>
       </c>
       <c r="AZ78" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.16241888808947344</v>
       </c>
       <c r="BA78" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3.11844265131789E-2</v>
       </c>
       <c r="BB78" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>12.031280005905604</v>
       </c>
       <c r="BC78" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>18.318499148254705</v>
       </c>
       <c r="BD78" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.65678306440579137</v>
       </c>
       <c r="BE78" s="15"/>
       <c r="BF78" s="15"/>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="10"/>
       <c r="C79" s="1"/>
@@ -28189,49 +28602,49 @@
       <c r="AS79" s="15"/>
       <c r="AT79" s="15"/>
       <c r="AU79" s="24">
+        <f t="shared" si="34"/>
+        <v>3763.1578947368403</v>
+      </c>
+      <c r="AV79" s="23">
+        <f t="shared" si="26"/>
+        <v>5.5550111105263129</v>
+      </c>
+      <c r="AW79" s="23">
+        <f t="shared" si="27"/>
+        <v>3.4924644736842074</v>
+      </c>
+      <c r="AX79" s="22">
         <f t="shared" si="28"/>
-        <v>3763.1578947368403</v>
-      </c>
-      <c r="AV79" s="23">
-        <f t="shared" si="20"/>
-        <v>5.5550111105263129</v>
-      </c>
-      <c r="AW79" s="23">
-        <f t="shared" si="21"/>
-        <v>3.4924644736842074</v>
-      </c>
-      <c r="AX79" s="22">
-        <f t="shared" si="22"/>
         <v>53.109911052631503</v>
       </c>
       <c r="AY79" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.52100822742631514</v>
       </c>
       <c r="AZ79" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.17366940914210505</v>
       </c>
       <c r="BA79" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3.3344526555284172E-2</v>
       </c>
       <c r="BB79" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>13.140340825903104</v>
       </c>
       <c r="BC79" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>19.400678954434206</v>
       </c>
       <c r="BD79" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.67731345159442258</v>
       </c>
       <c r="BE79" s="15"/>
       <c r="BF79" s="15"/>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="10"/>
       <c r="C80" s="1"/>
@@ -28271,49 +28684,49 @@
       <c r="AS80" s="15"/>
       <c r="AT80" s="15"/>
       <c r="AU80" s="24">
+        <f t="shared" si="34"/>
+        <v>3842.1052631578928</v>
+      </c>
+      <c r="AV80" s="23">
+        <f t="shared" si="26"/>
+        <v>5.6995163736842072</v>
+      </c>
+      <c r="AW80" s="23">
+        <f t="shared" si="27"/>
+        <v>3.5992013157894709</v>
+      </c>
+      <c r="AX80" s="22">
         <f t="shared" si="28"/>
-        <v>3842.1052631578928</v>
-      </c>
-      <c r="AV80" s="23">
-        <f t="shared" si="20"/>
-        <v>5.6995163736842072</v>
-      </c>
-      <c r="AW80" s="23">
-        <f t="shared" si="21"/>
-        <v>3.5992013157894709</v>
-      </c>
-      <c r="AX80" s="22">
-        <f t="shared" si="22"/>
         <v>56.550437368420972</v>
       </c>
       <c r="AY80" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.55475979058420977</v>
       </c>
       <c r="AZ80" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.1849199301947366</v>
       </c>
       <c r="BA80" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3.5504626597389427E-2</v>
       </c>
       <c r="BB80" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>14.285118331649429</v>
       </c>
       <c r="BC80" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>20.513706831527831</v>
       </c>
       <c r="BD80" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.69636942991182904</v>
       </c>
       <c r="BE80" s="15"/>
       <c r="BF80" s="15"/>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="10"/>
       <c r="C81" s="1"/>
@@ -28353,49 +28766,49 @@
       <c r="AS81" s="15"/>
       <c r="AT81" s="15"/>
       <c r="AU81" s="24">
+        <f t="shared" si="34"/>
+        <v>3921.0526315789452</v>
+      </c>
+      <c r="AV81" s="23">
+        <f t="shared" si="26"/>
+        <v>5.8440216368421014</v>
+      </c>
+      <c r="AW81" s="23">
+        <f t="shared" si="27"/>
+        <v>3.7059381578947335</v>
+      </c>
+      <c r="AX81" s="22">
         <f t="shared" si="28"/>
-        <v>3921.0526315789452</v>
-      </c>
-      <c r="AV81" s="23">
-        <f t="shared" si="20"/>
-        <v>5.8440216368421014</v>
-      </c>
-      <c r="AW81" s="23">
-        <f t="shared" si="21"/>
-        <v>3.7059381578947335</v>
-      </c>
-      <c r="AX81" s="22">
-        <f t="shared" si="22"/>
         <v>59.990963684210442</v>
       </c>
       <c r="AY81" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.5885113537421045</v>
       </c>
       <c r="AZ81" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.19617045124736818</v>
       </c>
       <c r="BA81" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3.7664726639494689E-2</v>
       </c>
       <c r="BB81" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>15.465612523144586</v>
       </c>
       <c r="BC81" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>21.657582779535581</v>
       </c>
       <c r="BD81" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.71409689070925142</v>
       </c>
       <c r="BE81" s="15"/>
       <c r="BF81" s="15"/>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="10"/>
       <c r="C82" s="1"/>
@@ -28438,19 +28851,19 @@
         <v>4000</v>
       </c>
       <c r="AV82" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.9885269000000001</v>
       </c>
       <c r="AW82" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.8126749999999996</v>
       </c>
       <c r="AX82" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>63.431489999999997</v>
       </c>
       <c r="AY82" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.62226291690000002</v>
       </c>
       <c r="AZ82" s="22">
@@ -28462,21 +28875,21 @@
         <v>3.9824826681599999E-2</v>
       </c>
       <c r="BB82" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>16.681823400388609</v>
       </c>
       <c r="BC82" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>22.832306798457498</v>
       </c>
       <c r="BD82" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.73062365303866705</v>
       </c>
       <c r="BE82" s="15"/>
       <c r="BF82" s="15"/>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="10"/>
       <c r="C83" s="1"/>
@@ -28528,7 +28941,7 @@
       <c r="BE83" s="15"/>
       <c r="BF83" s="15"/>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="10"/>
       <c r="C84" s="1"/>
@@ -28580,7 +28993,7 @@
       <c r="BE84" s="15"/>
       <c r="BF84" s="15"/>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="10"/>
       <c r="C85" s="1"/>
@@ -28632,7 +29045,7 @@
       <c r="BE85" s="15"/>
       <c r="BF85" s="15"/>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28645,6 +29058,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
+      <c r="T86" s="37"/>
       <c r="U86" s="37"/>
       <c r="V86" s="37"/>
       <c r="W86" s="37"/>
@@ -28674,7 +29088,7 @@
       <c r="AU86" s="37"/>
       <c r="AV86" s="37"/>
     </row>
-    <row r="87" spans="1:58" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:58" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28687,6 +29101,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
+      <c r="T87" s="37"/>
       <c r="U87" s="39" t="s">
         <v>52</v>
       </c>
@@ -28718,7 +29133,7 @@
       <c r="AU87" s="37"/>
       <c r="AV87" s="37"/>
     </row>
-    <row r="88" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28731,6 +29146,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
+      <c r="T88" s="37"/>
       <c r="U88" s="18" t="s">
         <v>53</v>
       </c>
@@ -28762,7 +29178,8 @@
       <c r="AU88" s="37"/>
       <c r="AV88" s="37"/>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="T89" s="37"/>
       <c r="U89" s="19" t="s">
         <v>1</v>
       </c>
@@ -28804,7 +29221,8 @@
       <c r="AU89" s="37"/>
       <c r="AV89" s="37"/>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="T90" s="37"/>
       <c r="U90" s="23">
         <v>35.5</v>
       </c>
@@ -28846,7 +29264,8 @@
       <c r="AU90" s="37"/>
       <c r="AV90" s="37"/>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="T91" s="37"/>
       <c r="U91" s="23">
         <v>31.8</v>
       </c>
@@ -28888,7 +29307,7 @@
       <c r="AU91" s="37"/>
       <c r="AV91" s="37"/>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -28898,6 +29317,7 @@
       <c r="C92" t="s">
         <v>22</v>
       </c>
+      <c r="T92" s="37"/>
       <c r="U92" s="23">
         <v>29</v>
       </c>
@@ -28939,7 +29359,7 @@
       <c r="AU92" s="37"/>
       <c r="AV92" s="37"/>
     </row>
-    <row r="93" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -28958,6 +29378,7 @@
       <c r="H93" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T93" s="37"/>
       <c r="U93" s="23">
         <v>25</v>
       </c>
@@ -28999,7 +29420,7 @@
       <c r="AU93" s="37"/>
       <c r="AV93" s="37"/>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3.95</v>
       </c>
@@ -29023,6 +29444,7 @@
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="4"/>
+      <c r="T94" s="37"/>
       <c r="U94" s="23">
         <v>23.5</v>
       </c>
@@ -29064,7 +29486,7 @@
       <c r="AU94" s="37"/>
       <c r="AV94" s="37"/>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3.88</v>
       </c>
@@ -29089,6 +29511,7 @@
       <c r="O95" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="T95" s="37"/>
       <c r="U95" s="23">
         <v>22.5</v>
       </c>
@@ -29130,7 +29553,7 @@
       <c r="AU95" s="37"/>
       <c r="AV95" s="37"/>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>3.06</v>
       </c>
@@ -29156,6 +29579,7 @@
         <f>M99+M96</f>
         <v>605.6</v>
       </c>
+      <c r="T96" s="37"/>
       <c r="U96" s="23">
         <v>22</v>
       </c>
@@ -29197,7 +29621,7 @@
       <c r="AU96" s="37"/>
       <c r="AV96" s="37"/>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="10"/>
       <c r="C97" s="1"/>
@@ -29206,6 +29630,7 @@
       <c r="H97" s="1"/>
       <c r="M97" s="5"/>
       <c r="O97" s="6"/>
+      <c r="T97" s="37"/>
       <c r="U97" s="23">
         <v>20.5</v>
       </c>
@@ -29247,7 +29672,7 @@
       <c r="AU97" s="37"/>
       <c r="AV97" s="37"/>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="10"/>
       <c r="C98" s="1"/>
@@ -29260,6 +29685,7 @@
       <c r="O98" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="T98" s="37"/>
       <c r="U98" s="23">
         <v>19.5</v>
       </c>
@@ -29301,7 +29727,7 @@
       <c r="AU98" s="37"/>
       <c r="AV98" s="37"/>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="10"/>
       <c r="C99" s="1"/>
@@ -29315,6 +29741,7 @@
         <f>O96-M102</f>
         <v>5.6000000000000227</v>
       </c>
+      <c r="T99" s="37"/>
       <c r="U99" s="37"/>
       <c r="V99" s="37"/>
       <c r="W99" s="37"/>
@@ -29344,7 +29771,7 @@
       <c r="AU99" s="37"/>
       <c r="AV99" s="37"/>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="10"/>
       <c r="C100" s="1"/>
@@ -29353,6 +29780,7 @@
       <c r="H100" s="1"/>
       <c r="M100" s="5"/>
       <c r="O100" s="6"/>
+      <c r="T100" s="37"/>
       <c r="U100" s="37"/>
       <c r="V100" s="37"/>
       <c r="W100" s="37"/>
@@ -29382,7 +29810,7 @@
       <c r="AU100" s="37"/>
       <c r="AV100" s="37"/>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="10"/>
       <c r="C101" s="1"/>
@@ -29393,8 +29821,13 @@
         <v>7</v>
       </c>
       <c r="O101" s="6"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
+      <c r="U101" s="37" cm="1">
+        <f t="array" ref="U101:V105">LINEST(W90:W98,V90:V98,TRUE,TRUE)</f>
+        <v>1.7271149244971441E-3</v>
+      </c>
+      <c r="V101" s="37">
+        <v>-0.99374732516838993</v>
+      </c>
       <c r="W101" s="37"/>
       <c r="X101" s="37"/>
       <c r="Y101" s="37"/>
@@ -29422,7 +29855,7 @@
       <c r="AU101" s="37"/>
       <c r="AV101" s="37"/>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="10"/>
       <c r="C102" s="1"/>
@@ -29433,8 +29866,12 @@
         <v>600</v>
       </c>
       <c r="O102" s="6"/>
-      <c r="U102" s="37"/>
-      <c r="V102" s="37"/>
+      <c r="U102" s="37">
+        <v>3.4177617801214939E-5</v>
+      </c>
+      <c r="V102" s="37">
+        <v>0.10549396443559043</v>
+      </c>
       <c r="W102" s="37"/>
       <c r="X102" s="37"/>
       <c r="Y102" s="37"/>
@@ -29462,7 +29899,7 @@
       <c r="AU102" s="37"/>
       <c r="AV102" s="37"/>
     </row>
-    <row r="103" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="10"/>
       <c r="C103" s="1"/>
@@ -29472,8 +29909,12 @@
       <c r="M103" s="7"/>
       <c r="N103" s="8"/>
       <c r="O103" s="9"/>
-      <c r="U103" s="37"/>
-      <c r="V103" s="37"/>
+      <c r="U103" s="37">
+        <v>0.99726630355093449</v>
+      </c>
+      <c r="V103" s="37">
+        <v>2.9231559704649031E-2</v>
+      </c>
       <c r="W103" s="37"/>
       <c r="X103" s="37"/>
       <c r="Y103" s="37"/>
@@ -29501,15 +29942,26 @@
       <c r="AU103" s="37"/>
       <c r="AV103" s="37"/>
     </row>
-    <row r="104" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="10"/>
       <c r="C104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="U104" s="37"/>
-      <c r="V104" s="37"/>
+      <c r="Q104" cm="1">
+        <f t="array" ref="Q104:R108">LINEST(W90:W98,V90:V98,TRUE,TRUE)</f>
+        <v>1.7271149244971441E-3</v>
+      </c>
+      <c r="R104">
+        <v>-0.99374732516838993</v>
+      </c>
+      <c r="U104" s="37">
+        <v>2553.6354364593017</v>
+      </c>
+      <c r="V104" s="37">
+        <v>7</v>
+      </c>
       <c r="W104" s="37"/>
       <c r="X104" s="37"/>
       <c r="Y104" s="37"/>
@@ -29537,7 +29989,7 @@
       <c r="AU104" s="37"/>
       <c r="AV104" s="37"/>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="10"/>
       <c r="C105" s="1"/>
@@ -29549,8 +30001,18 @@
       </c>
       <c r="N105" s="3"/>
       <c r="O105" s="4"/>
-      <c r="U105" s="37"/>
-      <c r="V105" s="37"/>
+      <c r="Q105">
+        <v>3.4177617801214939E-5</v>
+      </c>
+      <c r="R105">
+        <v>0.10549396443559043</v>
+      </c>
+      <c r="U105" s="37">
+        <v>2.1820408336428576</v>
+      </c>
+      <c r="V105" s="37">
+        <v>5.9813885793652266E-3</v>
+      </c>
       <c r="W105" s="37"/>
       <c r="X105" s="37"/>
       <c r="Y105" s="37"/>
@@ -29578,7 +30040,7 @@
       <c r="AU105" s="37"/>
       <c r="AV105" s="37"/>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="10"/>
       <c r="C106" s="1"/>
@@ -29591,6 +30053,12 @@
       <c r="O106" s="6" t="str">
         <f>O95</f>
         <v>diffrence</v>
+      </c>
+      <c r="Q106">
+        <v>0.99726630355093449</v>
+      </c>
+      <c r="R106">
+        <v>2.9231559704649031E-2</v>
       </c>
       <c r="U106" s="37"/>
       <c r="V106" s="37"/>
@@ -29621,7 +30089,7 @@
       <c r="AU106" s="37"/>
       <c r="AV106" s="37"/>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="10"/>
       <c r="C107" s="1"/>
@@ -29634,6 +30102,12 @@
       <c r="O107" s="6">
         <f>M107+M110</f>
         <v>615</v>
+      </c>
+      <c r="Q107">
+        <v>2553.6354364593017</v>
+      </c>
+      <c r="R107">
+        <v>7</v>
       </c>
       <c r="U107" s="37"/>
       <c r="V107" s="37"/>
@@ -29664,7 +30138,7 @@
       <c r="AU107" s="37"/>
       <c r="AV107" s="37"/>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="10"/>
       <c r="C108" s="1"/>
@@ -29673,6 +30147,12 @@
       <c r="H108" s="1"/>
       <c r="M108" s="5"/>
       <c r="O108" s="6"/>
+      <c r="Q108">
+        <v>2.1820408336428576</v>
+      </c>
+      <c r="R108">
+        <v>5.9813885793652266E-3</v>
+      </c>
       <c r="U108" s="37"/>
       <c r="V108" s="37"/>
       <c r="W108" s="37"/>
@@ -29702,7 +30182,7 @@
       <c r="AU108" s="37"/>
       <c r="AV108" s="37"/>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -29745,7 +30225,7 @@
       <c r="AU109" s="37"/>
       <c r="AV109" s="37"/>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -29788,7 +30268,7 @@
       <c r="AU110" s="37"/>
       <c r="AV110" s="37"/>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -29826,7 +30306,7 @@
       <c r="AU111" s="37"/>
       <c r="AV111" s="37"/>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.3">
       <c r="M112" s="5" t="s">
         <v>7</v>
       </c>
@@ -29860,7 +30340,7 @@
       <c r="AU112" s="37"/>
       <c r="AV112" s="37"/>
     </row>
-    <row r="113" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M113" s="7">
         <v>600</v>
       </c>
@@ -29895,7 +30375,7 @@
       <c r="AU113" s="37"/>
       <c r="AV113" s="37"/>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U114" s="37"/>
       <c r="V114" s="37"/>
       <c r="W114" s="37"/>
@@ -29925,7 +30405,7 @@
       <c r="AU114" s="37"/>
       <c r="AV114" s="37"/>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A115" s="36" t="s">
         <v>52</v>
       </c>
@@ -29970,7 +30450,7 @@
       <c r="AU115" s="37"/>
       <c r="AV115" s="37"/>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U116" s="37"/>
       <c r="V116" s="37"/>
       <c r="W116" s="37"/>
@@ -30000,14 +30480,14 @@
       <c r="AU116" s="37"/>
       <c r="AV116" s="37"/>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="47" t="s">
         <v>13</v>
       </c>
       <c r="I117" t="s">
@@ -30048,7 +30528,7 @@
       <c r="AU117" s="37"/>
       <c r="AV117" s="37"/>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -30114,7 +30594,7 @@
       <c r="AU118" s="37"/>
       <c r="AV118" s="37"/>
     </row>
-    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>35.5</v>
       </c>
@@ -30180,7 +30660,7 @@
       <c r="AU119" s="37"/>
       <c r="AV119" s="37"/>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>31.8</v>
       </c>
@@ -30246,7 +30726,7 @@
       <c r="AU120" s="37"/>
       <c r="AV120" s="37"/>
     </row>
-    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>29</v>
       </c>
@@ -30312,10 +30792,16 @@
       <c r="AU121" s="37"/>
       <c r="AV121" s="37"/>
     </row>
-    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+    <row r="122" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -30354,10 +30840,16 @@
       <c r="AU122" s="37"/>
       <c r="AV122" s="37"/>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+    <row r="123" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3420</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2.95</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -30396,10 +30888,16 @@
       <c r="AU123" s="37"/>
       <c r="AV123" s="37"/>
     </row>
-    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+    <row r="124" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3340</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2.8</v>
+      </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -30438,10 +30936,20 @@
       <c r="AU124" s="37"/>
       <c r="AV124" s="37"/>
     </row>
-    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+    <row r="125" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>27</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3220</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D125" t="e" cm="1">
+        <f t="array" ref="D125">line</f>
+        <v>#NAME?</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -30480,7 +30988,7 @@
       <c r="AU125" s="37"/>
       <c r="AV125" s="37"/>
     </row>
-    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -30522,7 +31030,7 @@
       <c r="AU126" s="37"/>
       <c r="AV126" s="37"/>
     </row>
-    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -30564,7 +31072,7 @@
       <c r="AU127" s="37"/>
       <c r="AV127" s="37"/>
     </row>
-    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -30606,7 +31114,7 @@
       <c r="AU128" s="37"/>
       <c r="AV128" s="37"/>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -30648,7 +31156,7 @@
       <c r="AU129" s="37"/>
       <c r="AV129" s="37"/>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -30690,7 +31198,7 @@
       <c r="AU130" s="37"/>
       <c r="AV130" s="37"/>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -30732,7 +31240,7 @@
       <c r="AU131" s="37"/>
       <c r="AV131" s="37"/>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -30774,7 +31282,7 @@
       <c r="AU132" s="37"/>
       <c r="AV132" s="37"/>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -30816,7 +31324,7 @@
       <c r="AU133" s="37"/>
       <c r="AV133" s="37"/>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -30858,7 +31366,7 @@
       <c r="AU134" s="37"/>
       <c r="AV134" s="37"/>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -30900,7 +31408,7 @@
       <c r="AU135" s="37"/>
       <c r="AV135" s="37"/>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -30942,7 +31450,7 @@
       <c r="AU136" s="37"/>
       <c r="AV136" s="37"/>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U137" s="37"/>
       <c r="V137" s="37"/>
       <c r="W137" s="37"/>
@@ -30972,7 +31480,7 @@
       <c r="AU137" s="37"/>
       <c r="AV137" s="37"/>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U138" s="37"/>
       <c r="V138" s="37"/>
       <c r="W138" s="37"/>
@@ -31002,7 +31510,7 @@
       <c r="AU138" s="37"/>
       <c r="AV138" s="37"/>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U139" s="37"/>
       <c r="V139" s="37"/>
       <c r="W139" s="37"/>
@@ -31032,7 +31540,7 @@
       <c r="AU139" s="37"/>
       <c r="AV139" s="37"/>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -31071,7 +31579,7 @@
       <c r="AU140" s="37"/>
       <c r="AV140" s="37"/>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -31119,7 +31627,7 @@
       <c r="AU141" s="37"/>
       <c r="AV141" s="37"/>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <v>22</v>
       </c>
@@ -31167,7 +31675,7 @@
       <c r="AU142" s="37"/>
       <c r="AV142" s="37"/>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <v>20.5</v>
       </c>
@@ -31215,7 +31723,7 @@
       <c r="AU143" s="37"/>
       <c r="AV143" s="37"/>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <v>19.5</v>
       </c>
@@ -31263,7 +31771,7 @@
       <c r="AU144" s="37"/>
       <c r="AV144" s="37"/>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -31299,7 +31807,7 @@
       <c r="AU145" s="37"/>
       <c r="AV145" s="37"/>
     </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -31335,7 +31843,7 @@
       <c r="AU146" s="37"/>
       <c r="AV146" s="37"/>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -31371,7 +31879,7 @@
       <c r="AU147" s="37"/>
       <c r="AV147" s="37"/>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -31407,7 +31915,7 @@
       <c r="AU148" s="37"/>
       <c r="AV148" s="37"/>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -31443,7 +31951,7 @@
       <c r="AU149" s="37"/>
       <c r="AV149" s="37"/>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -31479,7 +31987,7 @@
       <c r="AU150" s="37"/>
       <c r="AV150" s="37"/>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -31515,7 +32023,7 @@
       <c r="AU151" s="37"/>
       <c r="AV151" s="37"/>
     </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -31551,7 +32059,7 @@
       <c r="AU152" s="37"/>
       <c r="AV152" s="37"/>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -31587,7 +32095,7 @@
       <c r="AU153" s="37"/>
       <c r="AV153" s="37"/>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -31623,7 +32131,7 @@
       <c r="AU154" s="37"/>
       <c r="AV154" s="37"/>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -31659,7 +32167,7 @@
       <c r="AU155" s="37"/>
       <c r="AV155" s="37"/>
     </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -31695,7 +32203,7 @@
       <c r="AU156" s="37"/>
       <c r="AV156" s="37"/>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -31731,7 +32239,7 @@
       <c r="AU157" s="37"/>
       <c r="AV157" s="37"/>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -31739,7 +32247,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -31766,9 +32274,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87897DFE-508A-4AC4-B09E-52B55D5D4A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18BEC6-B89B-45CB-A7B1-43DC749192EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3024" yWindow="576" windowWidth="17508" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Målinger" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -776,7 +776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -944,7 +944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -980,7 +980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1064,7 +1064,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1100,7 +1100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1148,7 +1148,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1225,7 +1225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1332,7 +1332,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1500,7 +1500,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1536,7 +1536,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1620,7 +1620,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1656,7 +1656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1704,7 +1704,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1781,7 +1781,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1937,7 +1937,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2105,7 +2105,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2141,7 +2141,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2225,7 +2225,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2261,7 +2261,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2309,7 +2309,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2390,7 +2390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2546,7 +2546,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2714,7 +2714,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2750,7 +2750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2834,7 +2834,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2870,7 +2870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2918,7 +2918,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2999,7 +2999,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3106,7 +3106,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3280,7 +3280,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3316,7 +3316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -3400,7 +3400,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3436,7 +3436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -3484,7 +3484,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3561,7 +3561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3951,7 +3951,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3987,7 +3987,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4066,7 +4066,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4102,7 +4102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4150,7 +4150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4235,7 +4235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4571,7 +4571,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4607,7 +4607,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4691,7 +4691,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4727,7 +4727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4793,7 +4793,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4831,7 +4831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -4899,7 +4899,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4936,7 +4936,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5017,7 +5017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5133,7 +5133,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5301,7 +5301,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5339,7 +5339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -5423,7 +5423,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5461,7 +5461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -5509,7 +5509,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5590,7 +5590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5739,7 +5739,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5907,7 +5907,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5945,7 +5945,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6029,7 +6029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6067,7 +6067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6115,7 +6115,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6196,7 +6196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6312,7 +6312,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6480,7 +6480,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6518,7 +6518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6602,7 +6602,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6640,7 +6640,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6688,7 +6688,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6773,7 +6773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7446,7 +7446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7482,7 +7482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -7563,7 +7563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7599,7 +7599,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -7665,7 +7665,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7703,7 +7703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -7770,7 +7770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7807,7 +7807,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7888,7 +7888,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8030,7 +8030,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8198,7 +8198,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8234,7 +8234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -8318,7 +8318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8354,7 +8354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -8402,7 +8402,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8479,7 +8479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8839,7 +8839,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8875,7 +8875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -8962,7 +8962,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8998,7 +8998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9046,7 +9046,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9131,7 +9131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9720,7 +9720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9756,7 +9756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -9844,7 +9844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9880,7 +9880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9946,7 +9946,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9984,7 +9984,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -10051,7 +10051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10088,7 +10088,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10173,7 +10173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10762,7 +10762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10798,7 +10798,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -10886,7 +10886,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10922,7 +10922,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -10988,7 +10988,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11026,7 +11026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -11093,7 +11093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11130,7 +11130,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11207,7 +11207,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11555,7 +11555,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11591,7 +11591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -11679,7 +11679,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11715,7 +11715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -11763,7 +11763,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11840,7 +11840,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12188,7 +12188,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12224,7 +12224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -12312,7 +12312,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12348,7 +12348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -12396,7 +12396,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12477,7 +12477,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12584,7 +12584,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12752,7 +12752,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12788,7 +12788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -12872,7 +12872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12908,7 +12908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -12956,7 +12956,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13037,7 +13037,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13144,7 +13144,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13318,7 +13318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13354,7 +13354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -13438,7 +13438,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13474,7 +13474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -13522,7 +13522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13603,7 +13603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13710,7 +13710,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13872,7 +13872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13908,7 +13908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -13992,7 +13992,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14028,7 +14028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -14076,7 +14076,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14157,7 +14157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14274,7 +14274,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14442,7 +14442,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14478,7 +14478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -14562,7 +14562,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14598,7 +14598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -14646,7 +14646,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14723,7 +14723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14830,7 +14830,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14998,7 +14998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15034,7 +15034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -15118,7 +15118,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15154,7 +15154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -15202,7 +15202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15283,7 +15283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15390,7 +15390,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -15558,7 +15558,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15594,7 +15594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -15678,7 +15678,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15714,7 +15714,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -15762,7 +15762,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15843,7 +15843,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15959,7 +15959,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -16127,7 +16127,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16165,7 +16165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -16249,7 +16249,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16287,7 +16287,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -16335,7 +16335,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -30873,8 +30873,8 @@
   </sheetPr>
   <dimension ref="A1:BZ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AR90" sqref="AR90"/>
+    <sheetView tabSelected="1" topLeftCell="AR87" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AX89" sqref="AX89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18BEC6-B89B-45CB-A7B1-43DC749192EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0A18BEC6-B89B-45CB-A7B1-43DC749192EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0582E5CE-34ED-4A7E-9CF1-D0E24836F65A}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="576" windowWidth="17508" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Målinger" sheetId="1" r:id="rId1"/>
@@ -571,20 +571,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
-    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
-    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
-    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="60% - Accent5" xfId="11" builtinId="48"/>
-    <cellStyle name="Accent1" xfId="9" builtinId="29"/>
-    <cellStyle name="Accent3" xfId="10" builtinId="37"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="20 % - Farve1" xfId="4" builtinId="30"/>
+    <cellStyle name="20 % - Farve3" xfId="8" builtinId="38"/>
+    <cellStyle name="40 % - Farve4" xfId="5" builtinId="43"/>
+    <cellStyle name="40 % - Farve5" xfId="6" builtinId="47"/>
+    <cellStyle name="60 % - Farve2" xfId="7" builtinId="36"/>
+    <cellStyle name="60 % - Farve3" xfId="13" builtinId="40"/>
+    <cellStyle name="60 % - Farve4" xfId="12" builtinId="44"/>
+    <cellStyle name="60 % - Farve5" xfId="11" builtinId="48"/>
+    <cellStyle name="Farve1" xfId="9" builtinId="29"/>
+    <cellStyle name="Farve3" xfId="10" builtinId="37"/>
+    <cellStyle name="God" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,7 +602,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -669,7 +669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -776,7 +776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -944,7 +944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -980,7 +980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1064,7 +1064,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1100,7 +1100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1148,7 +1148,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1162,7 +1162,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1225,7 +1225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1332,7 +1332,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1500,7 +1500,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1536,7 +1536,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -1620,7 +1620,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1656,7 +1656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -1704,7 +1704,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1718,7 +1718,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1781,7 +1781,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1937,7 +1937,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2105,7 +2105,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2141,7 +2141,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2225,7 +2225,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2261,7 +2261,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2309,7 +2309,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2323,7 +2323,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2390,7 +2390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2546,7 +2546,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2714,7 +2714,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2750,7 +2750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -2834,7 +2834,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2870,7 +2870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -2918,7 +2918,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2932,7 +2932,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2999,7 +2999,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3106,7 +3106,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3280,7 +3280,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3316,7 +3316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -3400,7 +3400,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3436,7 +3436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -3484,7 +3484,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3498,7 +3498,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3561,7 +3561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3951,7 +3951,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3987,7 +3987,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4066,7 +4066,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4102,7 +4102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4150,7 +4150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4164,7 +4164,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4235,7 +4235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4571,7 +4571,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4607,7 +4607,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -4691,7 +4691,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4727,7 +4727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -4793,7 +4793,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4831,7 +4831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -4899,7 +4899,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4936,7 +4936,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4950,7 +4950,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5017,7 +5017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5133,7 +5133,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5301,7 +5301,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5339,7 +5339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -5423,7 +5423,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5461,7 +5461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -5509,7 +5509,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5523,7 +5523,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5590,7 +5590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5739,7 +5739,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5907,7 +5907,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5945,7 +5945,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6029,7 +6029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6067,7 +6067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6115,7 +6115,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6129,7 +6129,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6196,7 +6196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6312,7 +6312,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6480,7 +6480,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6518,7 +6518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -6602,7 +6602,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6640,7 +6640,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -6688,7 +6688,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6702,7 +6702,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6773,7 +6773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7446,7 +7446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7482,7 +7482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -7563,7 +7563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7599,7 +7599,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -7665,7 +7665,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7703,7 +7703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -7770,7 +7770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7807,7 +7807,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7821,7 +7821,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7888,7 +7888,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8030,7 +8030,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8198,7 +8198,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8234,7 +8234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -8318,7 +8318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8354,7 +8354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -8402,7 +8402,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8416,7 +8416,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8479,7 +8479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8839,7 +8839,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8875,7 +8875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -8962,7 +8962,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8998,7 +8998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9046,7 +9046,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9060,7 +9060,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9131,7 +9131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9720,7 +9720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9756,7 +9756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -9844,7 +9844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9880,7 +9880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -9946,7 +9946,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9984,7 +9984,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -10051,7 +10051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10088,7 +10088,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10102,7 +10102,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10173,7 +10173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10762,7 +10762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10798,7 +10798,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -10886,7 +10886,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10922,7 +10922,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -10988,7 +10988,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11026,7 +11026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1000956639"/>
@@ -11093,7 +11093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11130,7 +11130,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11144,7 +11144,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11207,7 +11207,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11555,7 +11555,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11591,7 +11591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -11679,7 +11679,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11715,7 +11715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -11763,7 +11763,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11777,7 +11777,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11840,7 +11840,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12188,7 +12188,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12224,7 +12224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -12312,7 +12312,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12348,7 +12348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -12396,7 +12396,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12410,7 +12410,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12477,7 +12477,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12584,7 +12584,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12752,7 +12752,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12788,7 +12788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -12872,7 +12872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12908,7 +12908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -12956,7 +12956,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12970,7 +12970,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13037,7 +13037,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13144,7 +13144,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13318,7 +13318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13354,7 +13354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -13438,7 +13438,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13474,7 +13474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -13522,7 +13522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13536,7 +13536,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13603,7 +13603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13710,7 +13710,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13872,7 +13872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13908,7 +13908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -13992,7 +13992,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14028,7 +14028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -14076,7 +14076,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14090,7 +14090,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14157,7 +14157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14274,7 +14274,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14442,7 +14442,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14478,7 +14478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -14562,7 +14562,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14598,7 +14598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -14646,7 +14646,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14660,7 +14660,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14723,7 +14723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14830,7 +14830,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14998,7 +14998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15034,7 +15034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -15118,7 +15118,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15154,7 +15154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -15202,7 +15202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15216,7 +15216,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15283,7 +15283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15390,7 +15390,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -15558,7 +15558,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15594,7 +15594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -15678,7 +15678,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15714,7 +15714,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -15762,7 +15762,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15776,7 +15776,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15843,7 +15843,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15959,7 +15959,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -16127,7 +16127,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16165,7 +16165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289812415"/>
@@ -16249,7 +16249,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DK"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16287,7 +16287,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1289813663"/>
@@ -16335,7 +16335,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -30874,52 +30874,52 @@
   <dimension ref="A1:BZ176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR87" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AX89" sqref="AX89"/>
+      <selection activeCell="BO100" sqref="BO100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="13.6640625" customWidth="1"/>
-    <col min="50" max="50" width="11.6640625" customWidth="1"/>
-    <col min="51" max="51" width="13.6640625" customWidth="1"/>
-    <col min="52" max="52" width="18.33203125" customWidth="1"/>
-    <col min="53" max="53" width="13.6640625" customWidth="1"/>
-    <col min="54" max="54" width="13.88671875" customWidth="1"/>
-    <col min="55" max="55" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="13.7109375" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" customWidth="1"/>
+    <col min="52" max="52" width="18.28515625" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" customWidth="1"/>
+    <col min="55" max="55" width="10.28515625" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="58" max="58" width="11.33203125" customWidth="1"/>
-    <col min="59" max="60" width="10.6640625" customWidth="1"/>
-    <col min="62" max="62" width="12.6640625" customWidth="1"/>
-    <col min="63" max="63" width="10.5546875" customWidth="1"/>
-    <col min="64" max="64" width="11.33203125" customWidth="1"/>
-    <col min="65" max="65" width="12.44140625" customWidth="1"/>
-    <col min="67" max="67" width="10.6640625" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" customWidth="1"/>
-    <col min="71" max="71" width="11.33203125" customWidth="1"/>
-    <col min="72" max="72" width="12.33203125" customWidth="1"/>
-    <col min="73" max="73" width="10.88671875" customWidth="1"/>
-    <col min="74" max="74" width="9.5546875" customWidth="1"/>
-    <col min="75" max="75" width="11.5546875" customWidth="1"/>
-    <col min="76" max="76" width="12.109375" customWidth="1"/>
-    <col min="82" max="82" width="14.6640625" customWidth="1"/>
-    <col min="83" max="83" width="13.6640625" customWidth="1"/>
-    <col min="84" max="84" width="10.77734375" customWidth="1"/>
-    <col min="85" max="85" width="10.88671875" customWidth="1"/>
-    <col min="86" max="86" width="9.21875" customWidth="1"/>
+    <col min="58" max="58" width="11.28515625" customWidth="1"/>
+    <col min="59" max="60" width="10.7109375" customWidth="1"/>
+    <col min="62" max="62" width="12.7109375" customWidth="1"/>
+    <col min="63" max="63" width="10.5703125" customWidth="1"/>
+    <col min="64" max="64" width="11.28515625" customWidth="1"/>
+    <col min="65" max="65" width="12.42578125" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" customWidth="1"/>
+    <col min="69" max="69" width="11.7109375" customWidth="1"/>
+    <col min="71" max="71" width="11.28515625" customWidth="1"/>
+    <col min="72" max="72" width="12.28515625" customWidth="1"/>
+    <col min="73" max="73" width="10.85546875" customWidth="1"/>
+    <col min="74" max="74" width="9.5703125" customWidth="1"/>
+    <col min="75" max="75" width="11.5703125" customWidth="1"/>
+    <col min="76" max="76" width="12.140625" customWidth="1"/>
+    <col min="82" max="82" width="14.7109375" customWidth="1"/>
+    <col min="83" max="83" width="13.7109375" customWidth="1"/>
+    <col min="84" max="84" width="10.7109375" customWidth="1"/>
+    <col min="85" max="85" width="10.85546875" customWidth="1"/>
+    <col min="86" max="86" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -30997,7 +30997,7 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
     </row>
-    <row r="2" spans="1:78" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -31101,7 +31101,7 @@
       <c r="BY2" s="5"/>
       <c r="BZ2" s="5"/>
     </row>
-    <row r="3" spans="1:78" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -31235,7 +31235,7 @@
       <c r="BY3" s="5"/>
       <c r="BZ3" s="5"/>
     </row>
-    <row r="4" spans="1:78" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5.9</v>
       </c>
@@ -31383,7 +31383,7 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6.02</v>
       </c>
@@ -31549,7 +31549,7 @@
       <c r="BY5" s="5"/>
       <c r="BZ5" s="5"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -31693,7 +31693,7 @@
       <c r="BY6" s="5"/>
       <c r="BZ6" s="5"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -31837,7 +31837,7 @@
       <c r="BY7" s="5"/>
       <c r="BZ7" s="5"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -31981,7 +31981,7 @@
       <c r="BY8" s="5"/>
       <c r="BZ8" s="5"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -32125,7 +32125,7 @@
       <c r="BY9" s="5"/>
       <c r="BZ9" s="5"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -32269,7 +32269,7 @@
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -32413,7 +32413,7 @@
       <c r="BY11" s="5"/>
       <c r="BZ11" s="5"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -32557,7 +32557,7 @@
       <c r="BY12" s="5"/>
       <c r="BZ12" s="5"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -32701,7 +32701,7 @@
       <c r="BY13" s="5"/>
       <c r="BZ13" s="5"/>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -32833,7 +32833,7 @@
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5"/>
     </row>
-    <row r="15" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -32967,7 +32967,7 @@
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -33111,7 +33111,7 @@
       <c r="BY16" s="5"/>
       <c r="BZ16" s="5"/>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -33255,7 +33255,7 @@
       <c r="BY17" s="5"/>
       <c r="BZ17" s="5"/>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -33399,7 +33399,7 @@
       <c r="BY18" s="5"/>
       <c r="BZ18" s="5"/>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -33543,7 +33543,7 @@
       <c r="BY19" s="5"/>
       <c r="BZ19" s="5"/>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -33687,7 +33687,7 @@
       <c r="BY20" s="5"/>
       <c r="BZ20" s="5"/>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U21" s="11">
         <v>4.84</v>
       </c>
@@ -33819,7 +33819,7 @@
       <c r="BY21" s="5"/>
       <c r="BZ21" s="5"/>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U22" s="11">
         <v>4.84</v>
       </c>
@@ -33951,7 +33951,7 @@
       <c r="BY22" s="5"/>
       <c r="BZ22" s="5"/>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -34101,7 +34101,7 @@
       <c r="BY23" s="5"/>
       <c r="BZ23" s="5"/>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -34269,7 +34269,7 @@
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -34437,7 +34437,7 @@
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -34599,7 +34599,7 @@
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -34755,7 +34755,7 @@
       <c r="BY27" s="5"/>
       <c r="BZ27" s="5"/>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -34887,7 +34887,7 @@
       <c r="BY28" s="5"/>
       <c r="BZ28" s="5"/>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -35019,7 +35019,7 @@
       <c r="BY29" s="5"/>
       <c r="BZ29" s="5"/>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -35151,7 +35151,7 @@
       <c r="BY30" s="5"/>
       <c r="BZ30" s="5"/>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -35283,7 +35283,7 @@
       <c r="BY31" s="5"/>
       <c r="BZ31" s="5"/>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -35415,7 +35415,7 @@
       <c r="BY32" s="5"/>
       <c r="BZ32" s="5"/>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -35547,7 +35547,7 @@
       <c r="BY33" s="5"/>
       <c r="BZ33" s="5"/>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -35679,7 +35679,7 @@
       <c r="BY34" s="5"/>
       <c r="BZ34" s="5"/>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -35811,7 +35811,7 @@
       <c r="BY35" s="5"/>
       <c r="BZ35" s="5"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -35941,7 +35941,7 @@
       <c r="BY36" s="5"/>
       <c r="BZ36" s="5"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -36013,7 +36013,7 @@
       <c r="BY37" s="5"/>
       <c r="BZ37" s="5"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -36085,7 +36085,7 @@
       <c r="BY38" s="5"/>
       <c r="BZ38" s="5"/>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -36157,7 +36157,7 @@
       <c r="BY39" s="33"/>
       <c r="BZ39" s="33"/>
     </row>
-    <row r="40" spans="1:78" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -36233,7 +36233,7 @@
       <c r="BY40" s="33"/>
       <c r="BZ40" s="33"/>
     </row>
-    <row r="41" spans="1:78" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:78" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -36311,7 +36311,7 @@
       <c r="BY41" s="33"/>
       <c r="BZ41" s="33"/>
     </row>
-    <row r="42" spans="1:78" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:78" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -36413,7 +36413,7 @@
       <c r="BY42" s="33"/>
       <c r="BZ42" s="33"/>
     </row>
-    <row r="43" spans="1:78" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:78" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U43" s="11">
         <v>4.88</v>
       </c>
@@ -36505,7 +36505,7 @@
       <c r="BY43" s="33"/>
       <c r="BZ43" s="33"/>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U44" s="11">
         <v>4.82</v>
       </c>
@@ -36606,7 +36606,7 @@
       <c r="BY44" s="33"/>
       <c r="BZ44" s="33"/>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U45" s="11">
         <v>4.8</v>
       </c>
@@ -36708,7 +36708,7 @@
       <c r="BY45" s="33"/>
       <c r="BZ45" s="33"/>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -36828,7 +36828,7 @@
       <c r="BY46" s="33"/>
       <c r="BZ46" s="33"/>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -36966,7 +36966,7 @@
       <c r="BY47" s="33"/>
       <c r="BZ47" s="33"/>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -37104,7 +37104,7 @@
       <c r="BY48" s="33"/>
       <c r="BZ48" s="33"/>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4.84</v>
       </c>
@@ -37242,7 +37242,7 @@
       <c r="BY49" s="33"/>
       <c r="BZ49" s="33"/>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4.84</v>
       </c>
@@ -37380,7 +37380,7 @@
       <c r="BY50" s="33"/>
       <c r="BZ50" s="33"/>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -37500,7 +37500,7 @@
       <c r="BY51" s="33"/>
       <c r="BZ51" s="33"/>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -37602,7 +37602,7 @@
       <c r="BY52" s="33"/>
       <c r="BZ52" s="33"/>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -37704,7 +37704,7 @@
       <c r="BY53" s="33"/>
       <c r="BZ53" s="33"/>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -37806,7 +37806,7 @@
       <c r="BY54" s="33"/>
       <c r="BZ54" s="33"/>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -37908,7 +37908,7 @@
       <c r="BY55" s="33"/>
       <c r="BZ55" s="33"/>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -38010,7 +38010,7 @@
       <c r="BY56" s="33"/>
       <c r="BZ56" s="33"/>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -38112,7 +38112,7 @@
       <c r="BY57" s="33"/>
       <c r="BZ57" s="33"/>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -38214,7 +38214,7 @@
       <c r="BY58" s="33"/>
       <c r="BZ58" s="33"/>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -38316,7 +38316,7 @@
       <c r="BY59" s="33"/>
       <c r="BZ59" s="33"/>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -38418,7 +38418,7 @@
       <c r="BY60" s="33"/>
       <c r="BZ60" s="33"/>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -38520,7 +38520,7 @@
       <c r="BY61" s="33"/>
       <c r="BZ61" s="33"/>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -38622,7 +38622,7 @@
       <c r="BY62" s="33"/>
       <c r="BZ62" s="33"/>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -38724,7 +38724,7 @@
       <c r="BY63" s="33"/>
       <c r="BZ63" s="33"/>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -38826,7 +38826,7 @@
       <c r="BY64" s="33"/>
       <c r="BZ64" s="33"/>
     </row>
-    <row r="65" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -38928,7 +38928,7 @@
       <c r="BY65" s="33"/>
       <c r="BZ65" s="33"/>
     </row>
-    <row r="66" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -39018,7 +39018,7 @@
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
     </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
@@ -39118,7 +39118,7 @@
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
     </row>
-    <row r="68" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.25">
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -39208,7 +39208,7 @@
       <c r="BY68" s="33"/>
       <c r="BZ68" s="33"/>
     </row>
-    <row r="69" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -39316,7 +39316,7 @@
       <c r="BY69" s="33"/>
       <c r="BZ69" s="33"/>
     </row>
-    <row r="70" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -39442,7 +39442,7 @@
       <c r="BY70" s="33"/>
       <c r="BZ70" s="33"/>
     </row>
-    <row r="71" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>4.88</v>
       </c>
@@ -39568,7 +39568,7 @@
       <c r="BY71" s="33"/>
       <c r="BZ71" s="33"/>
     </row>
-    <row r="72" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>4.82</v>
       </c>
@@ -39694,7 +39694,7 @@
       <c r="BY72" s="33"/>
       <c r="BZ72" s="33"/>
     </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>4.8</v>
       </c>
@@ -39820,7 +39820,7 @@
       <c r="BY73" s="33"/>
       <c r="BZ73" s="33"/>
     </row>
-    <row r="74" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -39922,7 +39922,7 @@
       <c r="BY74" s="33"/>
       <c r="BZ74" s="33"/>
     </row>
-    <row r="75" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -40024,7 +40024,7 @@
       <c r="BY75" s="33"/>
       <c r="BZ75" s="33"/>
     </row>
-    <row r="76" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -40126,7 +40126,7 @@
       <c r="BY76" s="33"/>
       <c r="BZ76" s="33"/>
     </row>
-    <row r="77" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -40228,7 +40228,7 @@
       <c r="BY77" s="33"/>
       <c r="BZ77" s="33"/>
     </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -40330,7 +40330,7 @@
       <c r="BY78" s="33"/>
       <c r="BZ78" s="33"/>
     </row>
-    <row r="79" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -40432,7 +40432,7 @@
       <c r="BY79" s="33"/>
       <c r="BZ79" s="33"/>
     </row>
-    <row r="80" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -40534,7 +40534,7 @@
       <c r="BY80" s="33"/>
       <c r="BZ80" s="33"/>
     </row>
-    <row r="81" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -40636,7 +40636,7 @@
       <c r="BY81" s="33"/>
       <c r="BZ81" s="33"/>
     </row>
-    <row r="82" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -40737,7 +40737,7 @@
       <c r="BY82" s="33"/>
       <c r="BZ82" s="33"/>
     </row>
-    <row r="83" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -40809,7 +40809,7 @@
       <c r="BY83" s="33"/>
       <c r="BZ83" s="33"/>
     </row>
-    <row r="84" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -40881,7 +40881,7 @@
       <c r="BY84" s="33"/>
       <c r="BZ84" s="33"/>
     </row>
-    <row r="85" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -40953,7 +40953,7 @@
       <c r="BY85" s="33"/>
       <c r="BZ85" s="33"/>
     </row>
-    <row r="86" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -41020,7 +41020,7 @@
       <c r="BQ86" s="38"/>
       <c r="BR86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -41089,7 +41089,7 @@
       <c r="BQ87" s="38"/>
       <c r="BR87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -41158,7 +41158,7 @@
       <c r="BQ88" s="38"/>
       <c r="BR88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:78" ht="45" x14ac:dyDescent="0.25">
       <c r="T89" s="29"/>
       <c r="U89" s="11" t="s">
         <v>1</v>
@@ -41241,7 +41241,7 @@
       <c r="BQ89" s="38"/>
       <c r="BR89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:78" ht="60" x14ac:dyDescent="0.25">
       <c r="T90" s="29"/>
       <c r="U90" s="15">
         <v>35.5</v>
@@ -41326,7 +41326,7 @@
       <c r="BQ90" s="38"/>
       <c r="BR90" s="38"/>
     </row>
-    <row r="91" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.25">
       <c r="T91" s="29"/>
       <c r="U91" s="15">
         <v>31.8</v>
@@ -41420,7 +41420,7 @@
       <c r="BQ91" s="38"/>
       <c r="BR91" s="38"/>
     </row>
-    <row r="92" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -41524,7 +41524,7 @@
       <c r="BQ92" s="38"/>
       <c r="BR92" s="38"/>
     </row>
-    <row r="93" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -41637,7 +41637,7 @@
       <c r="BQ93" s="38"/>
       <c r="BR93" s="38"/>
     </row>
-    <row r="94" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>3.95</v>
       </c>
@@ -41750,7 +41750,7 @@
       <c r="BQ94" s="38"/>
       <c r="BR94" s="38"/>
     </row>
-    <row r="95" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3.88</v>
       </c>
@@ -41863,7 +41863,7 @@
       <c r="BQ95" s="38"/>
       <c r="BR95" s="38"/>
     </row>
-    <row r="96" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3.06</v>
       </c>
@@ -41976,7 +41976,7 @@
       <c r="BQ96" s="38"/>
       <c r="BR96" s="38"/>
     </row>
-    <row r="97" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -42077,7 +42077,7 @@
       <c r="BQ97" s="38"/>
       <c r="BR97" s="38"/>
     </row>
-    <row r="98" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -42178,7 +42178,7 @@
       <c r="BQ98" s="38"/>
       <c r="BR98" s="38"/>
     </row>
-    <row r="99" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -42267,7 +42267,7 @@
       <c r="BQ99" s="38"/>
       <c r="BR99" s="38"/>
     </row>
-    <row r="100" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -42356,7 +42356,7 @@
       <c r="BQ100" s="38"/>
       <c r="BR100" s="38"/>
     </row>
-    <row r="101" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -42449,7 +42449,7 @@
       <c r="BQ101" s="38"/>
       <c r="BR101" s="38"/>
     </row>
-    <row r="102" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -42541,7 +42541,7 @@
       <c r="BQ102" s="38"/>
       <c r="BR102" s="38"/>
     </row>
-    <row r="103" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -42633,7 +42633,7 @@
       <c r="BQ103" s="38"/>
       <c r="BR103" s="38"/>
     </row>
-    <row r="104" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -42727,7 +42727,7 @@
       <c r="BQ104" s="38"/>
       <c r="BR104" s="38"/>
     </row>
-    <row r="105" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -42819,7 +42819,7 @@
       <c r="BQ105" s="38"/>
       <c r="BR105" s="38"/>
     </row>
-    <row r="106" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -42907,7 +42907,7 @@
       <c r="BQ106" s="38"/>
       <c r="BR106" s="38"/>
     </row>
-    <row r="107" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -42995,7 +42995,7 @@
       <c r="BQ107" s="38"/>
       <c r="BR107" s="38"/>
     </row>
-    <row r="108" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -43083,7 +43083,7 @@
       <c r="BQ108" s="38"/>
       <c r="BR108" s="38"/>
     </row>
-    <row r="109" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -43171,7 +43171,7 @@
       <c r="BQ109" s="38"/>
       <c r="BR109" s="38"/>
     </row>
-    <row r="110" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -43259,7 +43259,7 @@
       <c r="BQ110" s="38"/>
       <c r="BR110" s="38"/>
     </row>
-    <row r="111" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -43347,7 +43347,7 @@
       <c r="BQ111" s="38"/>
       <c r="BR111" s="38"/>
     </row>
-    <row r="112" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:70" x14ac:dyDescent="0.25">
       <c r="U112" s="29"/>
       <c r="V112" s="29"/>
       <c r="W112" s="29"/>
@@ -43429,7 +43429,7 @@
       <c r="BQ112" s="38"/>
       <c r="BR112" s="38"/>
     </row>
-    <row r="113" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.25">
       <c r="U113" s="29"/>
       <c r="V113" s="29"/>
       <c r="W113" s="29"/>
@@ -43511,7 +43511,7 @@
       <c r="BQ113" s="38"/>
       <c r="BR113" s="38"/>
     </row>
-    <row r="114" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.25">
       <c r="U114" s="29"/>
       <c r="V114" s="29"/>
       <c r="W114" s="29"/>
@@ -43593,7 +43593,7 @@
       <c r="BQ114" s="38"/>
       <c r="BR114" s="38"/>
     </row>
-    <row r="115" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>44</v>
       </c>
@@ -43690,7 +43690,7 @@
       <c r="BQ115" s="38"/>
       <c r="BR115" s="38"/>
     </row>
-    <row r="116" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.25">
       <c r="U116" s="29"/>
       <c r="V116" s="29"/>
       <c r="W116" s="29"/>
@@ -43772,7 +43772,7 @@
       <c r="BQ116" s="38"/>
       <c r="BR116" s="38"/>
     </row>
-    <row r="117" spans="1:70" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:70" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
         <v>9</v>
       </c>
@@ -43872,7 +43872,7 @@
       <c r="BQ117" s="38"/>
       <c r="BR117" s="38"/>
     </row>
-    <row r="118" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -43990,7 +43990,7 @@
       <c r="BQ118" s="38"/>
       <c r="BR118" s="38"/>
     </row>
-    <row r="119" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>35.5</v>
       </c>
@@ -44108,7 +44108,7 @@
       <c r="BQ119" s="38"/>
       <c r="BR119" s="38"/>
     </row>
-    <row r="120" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>31.8</v>
       </c>
@@ -44226,7 +44226,7 @@
       <c r="BQ120" s="38"/>
       <c r="BR120" s="38"/>
     </row>
-    <row r="121" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>29</v>
       </c>
@@ -44344,7 +44344,7 @@
       <c r="BQ121" s="38"/>
       <c r="BR121" s="38"/>
     </row>
-    <row r="122" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -44444,7 +44444,7 @@
       <c r="BQ122" s="38"/>
       <c r="BR122" s="38"/>
     </row>
-    <row r="123" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>32.5</v>
       </c>
@@ -44544,7 +44544,7 @@
       <c r="BQ123" s="38"/>
       <c r="BR123" s="38"/>
     </row>
-    <row r="124" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>29.5</v>
       </c>
@@ -44644,7 +44644,7 @@
       <c r="BQ124" s="38"/>
       <c r="BR124" s="38"/>
     </row>
-    <row r="125" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>27</v>
       </c>
@@ -44748,7 +44748,7 @@
       <c r="BQ125" s="38"/>
       <c r="BR125" s="38"/>
     </row>
-    <row r="126" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -44842,7 +44842,7 @@
       <c r="BQ126" s="38"/>
       <c r="BR126" s="38"/>
     </row>
-    <row r="127" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -44938,7 +44938,7 @@
       <c r="BQ127" s="38"/>
       <c r="BR127" s="38"/>
     </row>
-    <row r="128" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -45032,7 +45032,7 @@
       <c r="BQ128" s="38"/>
       <c r="BR128" s="38"/>
     </row>
-    <row r="129" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -45125,7 +45125,7 @@
       <c r="BQ129" s="38"/>
       <c r="BR129" s="38"/>
     </row>
-    <row r="130" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -45189,7 +45189,7 @@
       <c r="BQ130" s="38"/>
       <c r="BR130" s="38"/>
     </row>
-    <row r="131" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -45253,7 +45253,7 @@
       <c r="BQ131" s="38"/>
       <c r="BR131" s="38"/>
     </row>
-    <row r="132" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -45281,7 +45281,7 @@
       <c r="BQ132" s="38"/>
       <c r="BR132" s="38"/>
     </row>
-    <row r="133" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -45309,7 +45309,7 @@
       <c r="BQ133" s="38"/>
       <c r="BR133" s="38"/>
     </row>
-    <row r="134" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -45337,7 +45337,7 @@
       <c r="BQ134" s="38"/>
       <c r="BR134" s="38"/>
     </row>
-    <row r="135" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -45365,7 +45365,7 @@
       <c r="BQ135" s="38"/>
       <c r="BR135" s="38"/>
     </row>
-    <row r="136" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -45393,7 +45393,7 @@
       <c r="BQ136" s="38"/>
       <c r="BR136" s="38"/>
     </row>
-    <row r="137" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BE137" s="38"/>
       <c r="BF137" s="38"/>
       <c r="BG137" s="38"/>
@@ -45409,7 +45409,7 @@
       <c r="BQ137" s="38"/>
       <c r="BR137" s="38"/>
     </row>
-    <row r="138" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BE138" s="38"/>
       <c r="BF138" s="38"/>
       <c r="BG138" s="38"/>
@@ -45425,7 +45425,7 @@
       <c r="BQ138" s="38"/>
       <c r="BR138" s="38"/>
     </row>
-    <row r="139" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BE139" s="38"/>
       <c r="BF139" s="38"/>
       <c r="BG139" s="38"/>
@@ -45441,7 +45441,7 @@
       <c r="BQ139" s="38"/>
       <c r="BR139" s="38"/>
     </row>
-    <row r="140" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -45466,7 +45466,7 @@
       <c r="BQ140" s="38"/>
       <c r="BR140" s="38"/>
     </row>
-    <row r="141" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -45500,7 +45500,7 @@
       <c r="BQ141" s="38"/>
       <c r="BR141" s="38"/>
     </row>
-    <row r="142" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>22</v>
       </c>
@@ -45534,7 +45534,7 @@
       <c r="BQ142" s="38"/>
       <c r="BR142" s="38"/>
     </row>
-    <row r="143" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>20.5</v>
       </c>
@@ -45568,7 +45568,7 @@
       <c r="BQ143" s="38"/>
       <c r="BR143" s="38"/>
     </row>
-    <row r="144" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>19.5</v>
       </c>
@@ -45602,7 +45602,7 @@
       <c r="BQ144" s="38"/>
       <c r="BR144" s="38"/>
     </row>
-    <row r="145" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -45624,7 +45624,7 @@
       <c r="BQ145" s="38"/>
       <c r="BR145" s="38"/>
     </row>
-    <row r="146" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -45646,7 +45646,7 @@
       <c r="BQ146" s="38"/>
       <c r="BR146" s="38"/>
     </row>
-    <row r="147" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -45668,7 +45668,7 @@
       <c r="BQ147" s="38"/>
       <c r="BR147" s="38"/>
     </row>
-    <row r="148" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -45690,7 +45690,7 @@
       <c r="BQ148" s="38"/>
       <c r="BR148" s="38"/>
     </row>
-    <row r="149" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -45712,7 +45712,7 @@
       <c r="BQ149" s="38"/>
       <c r="BR149" s="38"/>
     </row>
-    <row r="150" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -45734,7 +45734,7 @@
       <c r="BQ150" s="38"/>
       <c r="BR150" s="38"/>
     </row>
-    <row r="151" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -45756,7 +45756,7 @@
       <c r="BQ151" s="38"/>
       <c r="BR151" s="38"/>
     </row>
-    <row r="152" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -45780,7 +45780,7 @@
       <c r="BQ152" s="38"/>
       <c r="BR152" s="38"/>
     </row>
-    <row r="153" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -45802,7 +45802,7 @@
       <c r="BQ153" s="38"/>
       <c r="BR153" s="38"/>
     </row>
-    <row r="154" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -45824,7 +45824,7 @@
       <c r="BQ154" s="38"/>
       <c r="BR154" s="38"/>
     </row>
-    <row r="155" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -45846,7 +45846,7 @@
       <c r="BQ155" s="38"/>
       <c r="BR155" s="38"/>
     </row>
-    <row r="156" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -45868,7 +45868,7 @@
       <c r="BQ156" s="38"/>
       <c r="BR156" s="38"/>
     </row>
-    <row r="157" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -45890,7 +45890,7 @@
       <c r="BQ157" s="38"/>
       <c r="BR157" s="38"/>
     </row>
-    <row r="158" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -45912,7 +45912,7 @@
       <c r="BQ158" s="38"/>
       <c r="BR158" s="38"/>
     </row>
-    <row r="159" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -45934,7 +45934,7 @@
       <c r="BQ159" s="38"/>
       <c r="BR159" s="38"/>
     </row>
-    <row r="160" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BE160" s="38"/>
       <c r="BF160" s="38"/>
       <c r="BG160" s="38"/>
@@ -45950,7 +45950,7 @@
       <c r="BQ160" s="38"/>
       <c r="BR160" s="38"/>
     </row>
-    <row r="161" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="161" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE161" s="38"/>
       <c r="BF161" s="38"/>
       <c r="BG161" s="38"/>
@@ -45966,7 +45966,7 @@
       <c r="BQ161" s="38"/>
       <c r="BR161" s="38"/>
     </row>
-    <row r="162" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="162" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE162" s="38"/>
       <c r="BF162" s="38"/>
       <c r="BG162" s="38"/>
@@ -45982,7 +45982,7 @@
       <c r="BQ162" s="38"/>
       <c r="BR162" s="38"/>
     </row>
-    <row r="163" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="163" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE163" s="38"/>
       <c r="BF163" s="38"/>
       <c r="BG163" s="38"/>
@@ -45998,7 +45998,7 @@
       <c r="BQ163" s="38"/>
       <c r="BR163" s="38"/>
     </row>
-    <row r="164" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="164" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE164" s="38"/>
       <c r="BF164" s="38"/>
       <c r="BG164" s="38"/>
@@ -46014,7 +46014,7 @@
       <c r="BQ164" s="38"/>
       <c r="BR164" s="38"/>
     </row>
-    <row r="165" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="165" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE165" s="38"/>
       <c r="BF165" s="38"/>
       <c r="BG165" s="38"/>
@@ -46030,7 +46030,7 @@
       <c r="BQ165" s="38"/>
       <c r="BR165" s="38"/>
     </row>
-    <row r="166" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="166" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE166" s="38"/>
       <c r="BF166" s="38"/>
       <c r="BG166" s="38"/>
@@ -46046,7 +46046,7 @@
       <c r="BQ166" s="38"/>
       <c r="BR166" s="38"/>
     </row>
-    <row r="167" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="167" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE167" s="38"/>
       <c r="BF167" s="38"/>
       <c r="BG167" s="38"/>
@@ -46062,7 +46062,7 @@
       <c r="BQ167" s="38"/>
       <c r="BR167" s="38"/>
     </row>
-    <row r="168" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="168" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE168" s="38"/>
       <c r="BF168" s="38"/>
       <c r="BG168" s="38"/>
@@ -46078,7 +46078,7 @@
       <c r="BQ168" s="38"/>
       <c r="BR168" s="38"/>
     </row>
-    <row r="169" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="169" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE169" s="38"/>
       <c r="BF169" s="38"/>
       <c r="BG169" s="38"/>
@@ -46094,7 +46094,7 @@
       <c r="BQ169" s="38"/>
       <c r="BR169" s="38"/>
     </row>
-    <row r="170" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="170" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE170" s="38"/>
       <c r="BF170" s="38"/>
       <c r="BG170" s="38"/>
@@ -46110,7 +46110,7 @@
       <c r="BQ170" s="38"/>
       <c r="BR170" s="38"/>
     </row>
-    <row r="171" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="171" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE171" s="38"/>
       <c r="BF171" s="38"/>
       <c r="BG171" s="38"/>
@@ -46126,7 +46126,7 @@
       <c r="BQ171" s="38"/>
       <c r="BR171" s="38"/>
     </row>
-    <row r="172" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="172" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE172" s="38"/>
       <c r="BF172" s="38"/>
       <c r="BG172" s="38"/>
@@ -46142,7 +46142,7 @@
       <c r="BQ172" s="38"/>
       <c r="BR172" s="38"/>
     </row>
-    <row r="173" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="173" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE173" s="38"/>
       <c r="BF173" s="38"/>
       <c r="BG173" s="38"/>
@@ -46158,7 +46158,7 @@
       <c r="BQ173" s="38"/>
       <c r="BR173" s="38"/>
     </row>
-    <row r="174" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="174" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE174" s="38"/>
       <c r="BF174" s="38"/>
       <c r="BG174" s="38"/>
@@ -46174,7 +46174,7 @@
       <c r="BQ174" s="38"/>
       <c r="BR174" s="38"/>
     </row>
-    <row r="175" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="175" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE175" s="38"/>
       <c r="BF175" s="38"/>
       <c r="BG175" s="38"/>
@@ -46190,7 +46190,7 @@
       <c r="BQ175" s="38"/>
       <c r="BR175" s="38"/>
     </row>
-    <row r="176" spans="57:70" x14ac:dyDescent="0.3">
+    <row r="176" spans="57:70" x14ac:dyDescent="0.25">
       <c r="BE176" s="38"/>
       <c r="BF176" s="38"/>
       <c r="BG176" s="38"/>
@@ -46229,9 +46229,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0A18BEC6-B89B-45CB-A7B1-43DC749192EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0582E5CE-34ED-4A7E-9CF1-D0E24836F65A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC117DB7-F3E2-48E6-A886-36976417467B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Målinger" sheetId="1" r:id="rId1"/>
-    <sheet name="Beregninger" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="68">
   <si>
     <t>Volt</t>
   </si>
@@ -69,9 +68,6 @@
   </si>
   <si>
     <t>Ampere</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>10 batterier</t>
@@ -684,7 +680,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -783,7 +779,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$W$5:$W$13</c:f>
+              <c:f>'Ark1'!$W$5:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -819,7 +815,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$U$5:$U$13</c:f>
+              <c:f>'Ark1'!$U$5:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1240,7 +1236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,7 +1335,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$W$5:$W$13</c:f>
+              <c:f>'Ark1'!$W$5:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1375,7 +1371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$V$5:$V$13</c:f>
+              <c:f>'Ark1'!$V$5:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1796,7 +1792,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1944,7 +1940,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AA$5:$AA$13</c:f>
+              <c:f>'Ark1'!$AA$5:$AA$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1980,7 +1976,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$Z$5:$Z$13</c:f>
+              <c:f>'Ark1'!$Z$5:$Z$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2405,7 +2401,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2553,7 +2549,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$W$17:$W$25</c:f>
+              <c:f>'Ark1'!$W$17:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2589,7 +2585,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$V$17:$V$25</c:f>
+              <c:f>'Ark1'!$V$17:$V$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3014,7 +3010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3113,7 +3109,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AA$17:$AA$26</c:f>
+              <c:f>'Ark1'!$AA$17:$AA$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3152,7 +3148,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$Z$17:$Z$26</c:f>
+              <c:f>'Ark1'!$Z$17:$Z$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3586,7 +3582,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3609,7 +3605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AU$91:$AU$129</c:f>
+              <c:f>'Ark1'!$AU$91:$AU$129</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="39"/>
@@ -3735,7 +3731,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BA$91:$BA$129</c:f>
+              <c:f>'Ark1'!$BA$91:$BA$129</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4287,7 +4283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$V$90:$V$98</c:f>
+              <c:f>'Ark1'!$V$90:$V$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4323,7 +4319,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$W$90:$W$98</c:f>
+              <c:f>'Ark1'!$W$90:$W$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4410,7 +4406,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$Z$90:$Z$98</c:f>
+              <c:f>'Ark1'!$Z$90:$Z$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4446,7 +4442,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$AA$90:$AA$98</c:f>
+              <c:f>'Ark1'!$AA$90:$AA$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5032,7 +5028,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5140,7 +5136,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$Z$90:$Z$98</c:f>
+              <c:f>'Ark1'!$Z$90:$Z$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5176,7 +5172,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$AA$90:$AA$98</c:f>
+              <c:f>'Ark1'!$AA$90:$AA$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5605,7 +5601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5746,7 +5742,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$V$90:$V$98</c:f>
+              <c:f>'Ark1'!$V$90:$V$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5782,7 +5778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$U$90:$U$98</c:f>
+              <c:f>'Ark1'!$U$90:$U$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6211,7 +6207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6319,7 +6315,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$Z$90:$Z$98</c:f>
+              <c:f>'Ark1'!$Z$90:$Z$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6355,7 +6351,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$Y$90:$Y$98</c:f>
+              <c:f>'Ark1'!$Y$90:$Y$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6813,7 +6809,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AU$91:$AU$129</c:f>
+              <c:f>'Ark1'!$AU$91:$AU$129</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="39"/>
@@ -6939,7 +6935,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BB$91:$BB$129</c:f>
+              <c:f>'Ark1'!$BB$91:$BB$129</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="39"/>
@@ -7104,7 +7100,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AU$91:$AU$129</c:f>
+              <c:f>'Ark1'!$AU$91:$AU$129</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="39"/>
@@ -7230,7 +7226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BC$91:$BC$129</c:f>
+              <c:f>'Ark1'!$BC$91:$BC$129</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -7903,7 +7899,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8037,7 +8033,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AA$5:$AA$13</c:f>
+              <c:f>'Ark1'!$AA$5:$AA$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8073,7 +8069,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$Y$5:$Y$13</c:f>
+              <c:f>'Ark1'!$Y$5:$Y$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8504,7 +8500,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8527,7 +8523,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AU$96:$AU$129</c:f>
+              <c:f>'Ark1'!$AU$96:$AU$129</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="34"/>
@@ -8638,7 +8634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BD$96:$BD$129</c:f>
+              <c:f>'Ark1'!$BD$96:$BD$129</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="34"/>
@@ -9171,7 +9167,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$BD$5:$BD$36</c:f>
+              <c:f>'Ark1'!$BD$5:$BD$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9276,7 +9272,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BI$5:$BI$36</c:f>
+              <c:f>'Ark1'!$BI$5:$BI$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9420,7 +9416,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$BD$5:$BD$36</c:f>
+              <c:f>'Ark1'!$BD$5:$BD$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9525,7 +9521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BL$5:$BL$36</c:f>
+              <c:f>'Ark1'!$BL$5:$BL$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10213,7 +10209,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$BO$5:$BO$36</c:f>
+              <c:f>'Ark1'!$BO$5:$BO$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10318,7 +10314,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BT$5:$BT$36</c:f>
+              <c:f>'Ark1'!$BT$5:$BT$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10462,7 +10458,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$BD$5:$BD$36</c:f>
+              <c:f>'Ark1'!$BD$5:$BD$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10567,7 +10563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BL$5:$BL$36</c:f>
+              <c:f>'Ark1'!$BL$5:$BL$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11232,7 +11228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11255,7 +11251,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$BL$5:$BL$36</c:f>
+              <c:f>'Ark1'!$BL$5:$BL$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11360,7 +11356,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BI$5:$BI$36</c:f>
+              <c:f>'Ark1'!$BI$5:$BI$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11865,7 +11861,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11888,7 +11884,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$BW$5:$BW$36</c:f>
+              <c:f>'Ark1'!$BW$5:$BW$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11993,7 +11989,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$BT$5:$BT$36</c:f>
+              <c:f>'Ark1'!$BT$5:$BT$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -12492,7 +12488,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12591,7 +12587,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$W$17:$W$25</c:f>
+              <c:f>'Ark1'!$W$17:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -12627,7 +12623,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$U$17:$U$25</c:f>
+              <c:f>'Ark1'!$U$17:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -13052,7 +13048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13151,7 +13147,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AA$17:$AA$26</c:f>
+              <c:f>'Ark1'!$AA$17:$AA$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13190,7 +13186,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$Y$17:$Y$26</c:f>
+              <c:f>'Ark1'!$Y$17:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13618,7 +13614,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13717,7 +13713,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$W$43:$W$50</c:f>
+              <c:f>'Ark1'!$W$43:$W$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13750,7 +13746,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$U$43:$U$50</c:f>
+              <c:f>'Ark1'!$U$43:$U$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14182,7 +14178,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14281,7 +14277,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AA$43:$AA$51</c:f>
+              <c:f>'Ark1'!$AA$43:$AA$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -14317,7 +14313,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$Y$43:$Y$51</c:f>
+              <c:f>'Ark1'!$Y$43:$Y$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -14738,7 +14734,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14837,7 +14833,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$W$43:$W$51</c:f>
+              <c:f>'Ark1'!$W$43:$W$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -14873,7 +14869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$V$43:$V$51</c:f>
+              <c:f>'Ark1'!$V$43:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -15298,7 +15294,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15397,7 +15393,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$AA$43:$AA$51</c:f>
+              <c:f>'Ark1'!$AA$43:$AA$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -15433,7 +15429,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$Z$43:$Z$51</c:f>
+              <c:f>'Ark1'!$Z$43:$Z$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -15858,7 +15854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Målinger!$W$4</c:f>
+              <c:f>'Ark1'!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15966,7 +15962,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Målinger!$V$90:$V$98</c:f>
+              <c:f>'Ark1'!$V$90:$V$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -16002,7 +15998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Målinger!$W$90:$W$98</c:f>
+              <c:f>'Ark1'!$W$90:$W$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -30873,7 +30869,7 @@
   </sheetPr>
   <dimension ref="A1:BZ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR87" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="BO100" sqref="BO100"/>
     </sheetView>
   </sheetViews>
@@ -30921,22 +30917,22 @@
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -31035,7 +31031,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -31046,7 +31042,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -31074,7 +31070,7 @@
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
       <c r="BD2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BE2" s="13"/>
       <c r="BF2" s="13"/>
@@ -31087,7 +31083,7 @@
       <c r="BM2" s="12"/>
       <c r="BN2" s="33"/>
       <c r="BO2" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BP2" s="29"/>
       <c r="BQ2" s="29"/>
@@ -31139,7 +31135,7 @@
         <v>3577</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
@@ -31177,60 +31173,60 @@
       <c r="BC3" s="5"/>
       <c r="BD3" s="24"/>
       <c r="BE3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="BF3" s="24" t="s">
+      <c r="BG3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BG3" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="BH3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="BJ3" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="BK3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BL3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="BN3" s="33"/>
       <c r="BO3" s="24"/>
       <c r="BP3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="BQ3" s="25" t="s">
-        <v>35</v>
-      </c>
       <c r="BR3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="BS3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="BT3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU3" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="BV3" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BW3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX3" s="25" t="s">
         <v>42</v>
-      </c>
-      <c r="BX3" s="25" t="s">
-        <v>43</v>
       </c>
       <c r="BY3" s="5"/>
       <c r="BZ3" s="5"/>
@@ -31320,65 +31316,65 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BE4" s="19" t="s">
+      <c r="BF4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BF4" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="BG4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BH4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="BJ4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK4" s="32" t="s">
+      <c r="BL4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="BL4" s="32" t="s">
+      <c r="BM4" s="32" t="s">
         <v>28</v>
-      </c>
-      <c r="BM4" s="32" t="s">
-        <v>29</v>
       </c>
       <c r="BN4" s="34"/>
       <c r="BO4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BP4" s="19" t="s">
+      <c r="BQ4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BQ4" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="BR4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BS4" s="32" t="s">
-        <v>23</v>
-      </c>
       <c r="BT4" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BU4" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BV4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="BW4" s="32" t="s">
+      <c r="BX4" s="32" t="s">
         <v>28</v>
-      </c>
-      <c r="BX4" s="32" t="s">
-        <v>29</v>
       </c>
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
@@ -32847,7 +32843,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="U15" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
@@ -33953,22 +33949,22 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U23" s="11">
         <v>4.0999999999999996</v>
@@ -36171,7 +36167,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="U40" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -36182,7 +36178,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
@@ -36247,7 +36243,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="U41" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -36275,7 +36271,7 @@
       <c r="AS41" s="7"/>
       <c r="AT41" s="7"/>
       <c r="AU41" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV41" s="13"/>
       <c r="AW41" s="13"/>
@@ -36289,7 +36285,7 @@
       <c r="BE41" s="7"/>
       <c r="BF41" s="33"/>
       <c r="BG41" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BH41" s="33"/>
       <c r="BI41" s="33"/>
@@ -36364,31 +36360,31 @@
       <c r="AT42" s="7"/>
       <c r="AU42" s="23"/>
       <c r="AV42" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW42" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AW42" s="23" t="s">
+      <c r="AX42" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AX42" s="23" t="s">
+      <c r="AY42" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AY42" s="23" t="s">
+      <c r="AZ42" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AZ42" s="23" t="s">
+      <c r="BA42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="BA42" s="23" t="s">
+      <c r="BB42" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC42" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="BB42" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC42" s="23" t="s">
+      <c r="BD42" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="BD42" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="BE42" s="7"/>
       <c r="BF42" s="41"/>
@@ -36453,34 +36449,34 @@
       <c r="AS43" s="7"/>
       <c r="AT43" s="7"/>
       <c r="AU43" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AV43" s="19" t="s">
+      <c r="AW43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AW43" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="AX43" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY43" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AY43" s="19" t="s">
+      <c r="AZ43" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AZ43" s="19" t="s">
+      <c r="BA43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BA43" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="BB43" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC43" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BC43" s="19" t="s">
+      <c r="BD43" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="BD43" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="BE43" s="7"/>
       <c r="BF43" s="41"/>
@@ -36710,22 +36706,22 @@
     </row>
     <row r="46" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
         <v>13</v>
       </c>
-      <c r="B46" t="s">
+      <c r="L46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="M46" t="s">
         <v>14</v>
-      </c>
-      <c r="L46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" t="s">
-        <v>15</v>
       </c>
       <c r="U46" s="11">
         <v>4.5999999999999996</v>
@@ -39020,7 +39016,7 @@
     </row>
     <row r="67" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -39210,22 +39206,22 @@
     </row>
     <row r="69" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
         <v>9</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" t="s">
-        <v>10</v>
-      </c>
       <c r="L69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -41005,7 +41001,7 @@
       <c r="BD86" s="29"/>
       <c r="BE86" s="38"/>
       <c r="BF86" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BG86" s="42"/>
       <c r="BH86" s="38"/>
@@ -41035,7 +41031,7 @@
       <c r="R87" s="1"/>
       <c r="T87" s="29"/>
       <c r="U87" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V87" s="29"/>
       <c r="W87" s="29"/>
@@ -41045,7 +41041,7 @@
       <c r="AA87" s="29"/>
       <c r="AB87" s="29"/>
       <c r="AC87" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD87" s="29"/>
       <c r="AE87" s="29"/>
@@ -41104,7 +41100,7 @@
       <c r="R88" s="1"/>
       <c r="T88" s="29"/>
       <c r="U88" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
@@ -41132,7 +41128,7 @@
       <c r="AS88" s="29"/>
       <c r="AT88" s="29"/>
       <c r="AU88" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV88" s="13"/>
       <c r="AW88" s="13"/>
@@ -41200,31 +41196,31 @@
       <c r="AT89" s="29"/>
       <c r="AU89" s="23"/>
       <c r="AV89" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW89" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AW89" s="23" t="s">
+      <c r="AX89" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AX89" s="23" t="s">
-        <v>59</v>
-      </c>
       <c r="AY89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ89" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AZ89" s="23" t="s">
+      <c r="BA89" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="BA89" s="23" t="s">
+      <c r="BB89" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC89" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="BB89" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC89" s="23" t="s">
+      <c r="BD89" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="BD89" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="BE89" s="38"/>
       <c r="BF89" s="38"/>
@@ -41282,34 +41278,34 @@
       <c r="AS90" s="29"/>
       <c r="AT90" s="29"/>
       <c r="AU90" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV90" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AV90" s="19" t="s">
+      <c r="AW90" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AW90" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="AX90" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY90" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AY90" s="19" t="s">
+      <c r="AZ90" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AZ90" s="19" t="s">
+      <c r="BA90" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BA90" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="BB90" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC90" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BC90" s="19" t="s">
+      <c r="BD90" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="BD90" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="BE90" s="38"/>
       <c r="BF90" s="38"/>
@@ -41422,13 +41418,13 @@
     </row>
     <row r="92" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T92" s="29"/>
       <c r="U92" s="15">
@@ -42712,7 +42708,7 @@
       </c>
       <c r="BE104" s="38"/>
       <c r="BF104" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BG104" s="43"/>
       <c r="BH104" s="38"/>
@@ -43595,7 +43591,7 @@
     </row>
     <row r="115" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
@@ -43774,22 +43770,22 @@
     </row>
     <row r="117" spans="1:70" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I117" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="J117" t="s">
+        <v>6</v>
+      </c>
+      <c r="K117" t="s">
         <v>5</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I117" t="s">
-        <v>10</v>
-      </c>
-      <c r="J117" t="s">
-        <v>7</v>
-      </c>
-      <c r="K117" t="s">
-        <v>6</v>
       </c>
       <c r="U117" s="29"/>
       <c r="V117" s="29"/>
@@ -44923,7 +44919,7 @@
       </c>
       <c r="BE127" s="38"/>
       <c r="BF127" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BG127" s="43"/>
       <c r="BH127" s="38"/>
@@ -45443,13 +45439,13 @@
     </row>
     <row r="140" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE140" s="38"/>
       <c r="BF140" s="38"/>
@@ -45765,7 +45761,7 @@
       <c r="G152" s="1"/>
       <c r="BE152" s="38"/>
       <c r="BF152" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BG152" s="43"/>
       <c r="BH152" s="38"/>
@@ -46221,22 +46217,4 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB13F64-D884-4A04-B018-0BE86E73A64E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC117DB7-F3E2-48E6-A886-36976417467B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AC5F4-7A20-48DE-A527-F9630CA6C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="622" yWindow="1335" windowWidth="27106" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +472,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -498,7 +510,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -565,22 +577,24 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="11" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="20 % - Farve1" xfId="4" builtinId="30"/>
-    <cellStyle name="20 % - Farve3" xfId="8" builtinId="38"/>
-    <cellStyle name="40 % - Farve4" xfId="5" builtinId="43"/>
-    <cellStyle name="40 % - Farve5" xfId="6" builtinId="47"/>
-    <cellStyle name="60 % - Farve2" xfId="7" builtinId="36"/>
-    <cellStyle name="60 % - Farve3" xfId="13" builtinId="40"/>
-    <cellStyle name="60 % - Farve4" xfId="12" builtinId="44"/>
-    <cellStyle name="60 % - Farve5" xfId="11" builtinId="48"/>
-    <cellStyle name="Farve1" xfId="9" builtinId="29"/>
-    <cellStyle name="Farve3" xfId="10" builtinId="37"/>
-    <cellStyle name="God" xfId="2" builtinId="26"/>
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
+    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="11" builtinId="48"/>
+    <cellStyle name="Accent1" xfId="9" builtinId="29"/>
+    <cellStyle name="Accent3" xfId="10" builtinId="37"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,7 +612,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1158,7 +1172,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1714,7 +1728,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2319,7 +2333,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2928,7 +2942,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3494,7 +3508,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4160,7 +4174,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4946,7 +4960,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5519,7 +5533,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6125,7 +6139,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6698,7 +6712,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7817,7 +7831,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8412,7 +8426,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9056,7 +9070,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10098,7 +10112,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11140,7 +11154,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11773,7 +11787,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12403,10 +12417,940 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34718044619422572"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>polynonium trendline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="2500"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Ark1'!$V$90:$V$99,'Ark1'!$Z$90:$Z$98)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3340</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Ark1'!$U$90:$U$99,'Ark1'!$Y$90:$Y$98)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0EF-49D1-A456-F49F85D1E323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83166448"/>
+        <c:axId val="83171024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83166448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83171024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83171024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83166448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data power</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="2500"/>
+            <c:backward val="2500"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Ark1'!$V$90:$V$98,'Ark1'!$Z$90:$Z$98)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Ark1'!$U$90:$U$98,'Ark1'!$Y$90:$Y$98)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8912-4E61-864F-1F8705863ABC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146629472"/>
+        <c:axId val="146634880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146629472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146634880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146634880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146629472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12966,7 +13910,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13532,7 +14476,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14086,7 +15030,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14656,7 +15600,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15212,7 +16156,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15772,7 +16716,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17022,6 +17966,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25559,6 +26583,1038 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30598,6 +32654,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>505558</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>38832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>564173</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB05D6E-9852-E231-D674-9A94BC576CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>512882</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>82793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571497</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>78396</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1C6C5C-20A4-8BBD-6BAC-C437FDD7A47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30869,53 +32997,53 @@
   </sheetPr>
   <dimension ref="A1:BZ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BO100" sqref="BO100"/>
+    <sheetView tabSelected="1" topLeftCell="P98" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="AC142" sqref="AC142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="11.7109375" customWidth="1"/>
-    <col min="51" max="51" width="13.7109375" customWidth="1"/>
-    <col min="52" max="52" width="18.28515625" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" customWidth="1"/>
-    <col min="54" max="54" width="13.85546875" customWidth="1"/>
-    <col min="55" max="55" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.1328125" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" customWidth="1"/>
+    <col min="18" max="18" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="13.73046875" customWidth="1"/>
+    <col min="50" max="50" width="11.73046875" customWidth="1"/>
+    <col min="51" max="51" width="13.73046875" customWidth="1"/>
+    <col min="52" max="52" width="18.265625" customWidth="1"/>
+    <col min="53" max="53" width="13.73046875" customWidth="1"/>
+    <col min="54" max="54" width="13.86328125" customWidth="1"/>
+    <col min="55" max="55" width="10.265625" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="58" max="58" width="11.28515625" customWidth="1"/>
-    <col min="59" max="60" width="10.7109375" customWidth="1"/>
-    <col min="62" max="62" width="12.7109375" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" customWidth="1"/>
-    <col min="64" max="64" width="11.28515625" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" customWidth="1"/>
-    <col min="67" max="67" width="10.7109375" customWidth="1"/>
-    <col min="69" max="69" width="11.7109375" customWidth="1"/>
-    <col min="71" max="71" width="11.28515625" customWidth="1"/>
-    <col min="72" max="72" width="12.28515625" customWidth="1"/>
-    <col min="73" max="73" width="10.85546875" customWidth="1"/>
-    <col min="74" max="74" width="9.5703125" customWidth="1"/>
-    <col min="75" max="75" width="11.5703125" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" customWidth="1"/>
-    <col min="82" max="82" width="14.7109375" customWidth="1"/>
-    <col min="83" max="83" width="13.7109375" customWidth="1"/>
-    <col min="84" max="84" width="10.7109375" customWidth="1"/>
-    <col min="85" max="85" width="10.85546875" customWidth="1"/>
-    <col min="86" max="86" width="9.28515625" customWidth="1"/>
+    <col min="58" max="58" width="11.265625" customWidth="1"/>
+    <col min="59" max="60" width="10.73046875" customWidth="1"/>
+    <col min="62" max="62" width="12.73046875" customWidth="1"/>
+    <col min="63" max="63" width="10.59765625" customWidth="1"/>
+    <col min="64" max="64" width="11.265625" customWidth="1"/>
+    <col min="65" max="65" width="12.3984375" customWidth="1"/>
+    <col min="67" max="67" width="10.73046875" customWidth="1"/>
+    <col min="69" max="69" width="11.73046875" customWidth="1"/>
+    <col min="71" max="71" width="11.265625" customWidth="1"/>
+    <col min="72" max="72" width="12.265625" customWidth="1"/>
+    <col min="73" max="73" width="10.86328125" customWidth="1"/>
+    <col min="74" max="74" width="9.59765625" customWidth="1"/>
+    <col min="75" max="75" width="11.59765625" customWidth="1"/>
+    <col min="76" max="76" width="12.1328125" customWidth="1"/>
+    <col min="82" max="82" width="14.73046875" customWidth="1"/>
+    <col min="83" max="83" width="13.73046875" customWidth="1"/>
+    <col min="84" max="84" width="10.73046875" customWidth="1"/>
+    <col min="85" max="85" width="10.86328125" customWidth="1"/>
+    <col min="86" max="86" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -30993,7 +33121,7 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
     </row>
-    <row r="2" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:78" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -31097,7 +33225,7 @@
       <c r="BY2" s="5"/>
       <c r="BZ2" s="5"/>
     </row>
-    <row r="3" spans="1:78" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="57" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -31231,7 +33359,7 @@
       <c r="BY3" s="5"/>
       <c r="BZ3" s="5"/>
     </row>
-    <row r="4" spans="1:78" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>5.9</v>
       </c>
@@ -31379,7 +33507,7 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>6.02</v>
       </c>
@@ -31545,7 +33673,7 @@
       <c r="BY5" s="5"/>
       <c r="BZ5" s="5"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -31689,7 +33817,7 @@
       <c r="BY6" s="5"/>
       <c r="BZ6" s="5"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -31833,7 +33961,7 @@
       <c r="BY7" s="5"/>
       <c r="BZ7" s="5"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -31977,7 +34105,7 @@
       <c r="BY8" s="5"/>
       <c r="BZ8" s="5"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -32121,7 +34249,7 @@
       <c r="BY9" s="5"/>
       <c r="BZ9" s="5"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -32265,7 +34393,7 @@
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -32409,7 +34537,7 @@
       <c r="BY11" s="5"/>
       <c r="BZ11" s="5"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -32553,7 +34681,7 @@
       <c r="BY12" s="5"/>
       <c r="BZ12" s="5"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -32697,7 +34825,7 @@
       <c r="BY13" s="5"/>
       <c r="BZ13" s="5"/>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -32829,7 +34957,7 @@
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5"/>
     </row>
-    <row r="15" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -32963,7 +35091,7 @@
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -33107,7 +35235,7 @@
       <c r="BY16" s="5"/>
       <c r="BZ16" s="5"/>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -33251,7 +35379,7 @@
       <c r="BY17" s="5"/>
       <c r="BZ17" s="5"/>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -33395,7 +35523,7 @@
       <c r="BY18" s="5"/>
       <c r="BZ18" s="5"/>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -33539,7 +35667,7 @@
       <c r="BY19" s="5"/>
       <c r="BZ19" s="5"/>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -33683,7 +35811,7 @@
       <c r="BY20" s="5"/>
       <c r="BZ20" s="5"/>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U21" s="11">
         <v>4.84</v>
       </c>
@@ -33815,7 +35943,7 @@
       <c r="BY21" s="5"/>
       <c r="BZ21" s="5"/>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U22" s="11">
         <v>4.84</v>
       </c>
@@ -33947,7 +36075,7 @@
       <c r="BY22" s="5"/>
       <c r="BZ22" s="5"/>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -34097,7 +36225,7 @@
       <c r="BY23" s="5"/>
       <c r="BZ23" s="5"/>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -34265,7 +36393,7 @@
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -34433,7 +36561,7 @@
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -34595,7 +36723,7 @@
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -34751,7 +36879,7 @@
       <c r="BY27" s="5"/>
       <c r="BZ27" s="5"/>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -34883,7 +37011,7 @@
       <c r="BY28" s="5"/>
       <c r="BZ28" s="5"/>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -35015,7 +37143,7 @@
       <c r="BY29" s="5"/>
       <c r="BZ29" s="5"/>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -35147,7 +37275,7 @@
       <c r="BY30" s="5"/>
       <c r="BZ30" s="5"/>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -35279,7 +37407,7 @@
       <c r="BY31" s="5"/>
       <c r="BZ31" s="5"/>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -35411,7 +37539,7 @@
       <c r="BY32" s="5"/>
       <c r="BZ32" s="5"/>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -35543,7 +37671,7 @@
       <c r="BY33" s="5"/>
       <c r="BZ33" s="5"/>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -35675,7 +37803,7 @@
       <c r="BY34" s="5"/>
       <c r="BZ34" s="5"/>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -35807,7 +37935,7 @@
       <c r="BY35" s="5"/>
       <c r="BZ35" s="5"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -35937,7 +38065,7 @@
       <c r="BY36" s="5"/>
       <c r="BZ36" s="5"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -36009,7 +38137,7 @@
       <c r="BY37" s="5"/>
       <c r="BZ37" s="5"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -36081,7 +38209,7 @@
       <c r="BY38" s="5"/>
       <c r="BZ38" s="5"/>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -36153,7 +38281,7 @@
       <c r="BY39" s="33"/>
       <c r="BZ39" s="33"/>
     </row>
-    <row r="40" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:78" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -36229,7 +38357,7 @@
       <c r="BY40" s="33"/>
       <c r="BZ40" s="33"/>
     </row>
-    <row r="41" spans="1:78" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:78" ht="36" x14ac:dyDescent="1.05">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -36307,7 +38435,7 @@
       <c r="BY41" s="33"/>
       <c r="BZ41" s="33"/>
     </row>
-    <row r="42" spans="1:78" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:78" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -36409,7 +38537,7 @@
       <c r="BY42" s="33"/>
       <c r="BZ42" s="33"/>
     </row>
-    <row r="43" spans="1:78" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:78" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U43" s="11">
         <v>4.88</v>
       </c>
@@ -36501,7 +38629,7 @@
       <c r="BY43" s="33"/>
       <c r="BZ43" s="33"/>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U44" s="11">
         <v>4.82</v>
       </c>
@@ -36602,7 +38730,7 @@
       <c r="BY44" s="33"/>
       <c r="BZ44" s="33"/>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U45" s="11">
         <v>4.8</v>
       </c>
@@ -36704,7 +38832,7 @@
       <c r="BY45" s="33"/>
       <c r="BZ45" s="33"/>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -36824,7 +38952,7 @@
       <c r="BY46" s="33"/>
       <c r="BZ46" s="33"/>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -36962,7 +39090,7 @@
       <c r="BY47" s="33"/>
       <c r="BZ47" s="33"/>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -37100,7 +39228,7 @@
       <c r="BY48" s="33"/>
       <c r="BZ48" s="33"/>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>4.84</v>
       </c>
@@ -37238,7 +39366,7 @@
       <c r="BY49" s="33"/>
       <c r="BZ49" s="33"/>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>4.84</v>
       </c>
@@ -37376,7 +39504,7 @@
       <c r="BY50" s="33"/>
       <c r="BZ50" s="33"/>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -37496,7 +39624,7 @@
       <c r="BY51" s="33"/>
       <c r="BZ51" s="33"/>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -37598,7 +39726,7 @@
       <c r="BY52" s="33"/>
       <c r="BZ52" s="33"/>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -37700,7 +39828,7 @@
       <c r="BY53" s="33"/>
       <c r="BZ53" s="33"/>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -37802,7 +39930,7 @@
       <c r="BY54" s="33"/>
       <c r="BZ54" s="33"/>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -37904,7 +40032,7 @@
       <c r="BY55" s="33"/>
       <c r="BZ55" s="33"/>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -38006,7 +40134,7 @@
       <c r="BY56" s="33"/>
       <c r="BZ56" s="33"/>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -38108,7 +40236,7 @@
       <c r="BY57" s="33"/>
       <c r="BZ57" s="33"/>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -38210,7 +40338,7 @@
       <c r="BY58" s="33"/>
       <c r="BZ58" s="33"/>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -38312,7 +40440,7 @@
       <c r="BY59" s="33"/>
       <c r="BZ59" s="33"/>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -38414,7 +40542,7 @@
       <c r="BY60" s="33"/>
       <c r="BZ60" s="33"/>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -38516,7 +40644,7 @@
       <c r="BY61" s="33"/>
       <c r="BZ61" s="33"/>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -38618,7 +40746,7 @@
       <c r="BY62" s="33"/>
       <c r="BZ62" s="33"/>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -38720,7 +40848,7 @@
       <c r="BY63" s="33"/>
       <c r="BZ63" s="33"/>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -38822,7 +40950,7 @@
       <c r="BY64" s="33"/>
       <c r="BZ64" s="33"/>
     </row>
-    <row r="65" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -38924,7 +41052,7 @@
       <c r="BY65" s="33"/>
       <c r="BZ65" s="33"/>
     </row>
-    <row r="66" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -39014,7 +41142,7 @@
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
     </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -39114,7 +41242,7 @@
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
     </row>
-    <row r="68" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -39204,7 +41332,7 @@
       <c r="BY68" s="33"/>
       <c r="BZ68" s="33"/>
     </row>
-    <row r="69" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -39312,7 +41440,7 @@
       <c r="BY69" s="33"/>
       <c r="BZ69" s="33"/>
     </row>
-    <row r="70" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -39438,7 +41566,7 @@
       <c r="BY70" s="33"/>
       <c r="BZ70" s="33"/>
     </row>
-    <row r="71" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>4.88</v>
       </c>
@@ -39564,7 +41692,7 @@
       <c r="BY71" s="33"/>
       <c r="BZ71" s="33"/>
     </row>
-    <row r="72" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>4.82</v>
       </c>
@@ -39690,7 +41818,7 @@
       <c r="BY72" s="33"/>
       <c r="BZ72" s="33"/>
     </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>4.8</v>
       </c>
@@ -39816,7 +41944,7 @@
       <c r="BY73" s="33"/>
       <c r="BZ73" s="33"/>
     </row>
-    <row r="74" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -39918,7 +42046,7 @@
       <c r="BY74" s="33"/>
       <c r="BZ74" s="33"/>
     </row>
-    <row r="75" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -40020,7 +42148,7 @@
       <c r="BY75" s="33"/>
       <c r="BZ75" s="33"/>
     </row>
-    <row r="76" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -40122,7 +42250,7 @@
       <c r="BY76" s="33"/>
       <c r="BZ76" s="33"/>
     </row>
-    <row r="77" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -40224,7 +42352,7 @@
       <c r="BY77" s="33"/>
       <c r="BZ77" s="33"/>
     </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -40326,7 +42454,7 @@
       <c r="BY78" s="33"/>
       <c r="BZ78" s="33"/>
     </row>
-    <row r="79" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -40428,7 +42556,7 @@
       <c r="BY79" s="33"/>
       <c r="BZ79" s="33"/>
     </row>
-    <row r="80" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -40530,7 +42658,7 @@
       <c r="BY80" s="33"/>
       <c r="BZ80" s="33"/>
     </row>
-    <row r="81" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -40632,7 +42760,7 @@
       <c r="BY81" s="33"/>
       <c r="BZ81" s="33"/>
     </row>
-    <row r="82" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -40733,7 +42861,7 @@
       <c r="BY82" s="33"/>
       <c r="BZ82" s="33"/>
     </row>
-    <row r="83" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -40805,7 +42933,7 @@
       <c r="BY83" s="33"/>
       <c r="BZ83" s="33"/>
     </row>
-    <row r="84" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -40877,7 +43005,7 @@
       <c r="BY84" s="33"/>
       <c r="BZ84" s="33"/>
     </row>
-    <row r="85" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -40949,7 +43077,7 @@
       <c r="BY85" s="33"/>
       <c r="BZ85" s="33"/>
     </row>
-    <row r="86" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -41016,7 +43144,7 @@
       <c r="BQ86" s="38"/>
       <c r="BR86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:78" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -41085,7 +43213,7 @@
       <c r="BQ87" s="38"/>
       <c r="BR87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:78" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -41154,7 +43282,7 @@
       <c r="BQ88" s="38"/>
       <c r="BR88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:78" ht="42.75" x14ac:dyDescent="0.45">
       <c r="T89" s="29"/>
       <c r="U89" s="11" t="s">
         <v>1</v>
@@ -41237,7 +43365,7 @@
       <c r="BQ89" s="38"/>
       <c r="BR89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:78" ht="28.5" x14ac:dyDescent="0.45">
       <c r="T90" s="29"/>
       <c r="U90" s="15">
         <v>35.5</v>
@@ -41322,7 +43450,7 @@
       <c r="BQ90" s="38"/>
       <c r="BR90" s="38"/>
     </row>
-    <row r="91" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.45">
       <c r="T91" s="29"/>
       <c r="U91" s="15">
         <v>31.8</v>
@@ -41416,7 +43544,7 @@
       <c r="BQ91" s="38"/>
       <c r="BR91" s="38"/>
     </row>
-    <row r="92" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -41520,7 +43648,7 @@
       <c r="BQ92" s="38"/>
       <c r="BR92" s="38"/>
     </row>
-    <row r="93" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -41633,7 +43761,7 @@
       <c r="BQ93" s="38"/>
       <c r="BR93" s="38"/>
     </row>
-    <row r="94" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>3.95</v>
       </c>
@@ -41746,7 +43874,7 @@
       <c r="BQ94" s="38"/>
       <c r="BR94" s="38"/>
     </row>
-    <row r="95" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>3.88</v>
       </c>
@@ -41859,7 +43987,7 @@
       <c r="BQ95" s="38"/>
       <c r="BR95" s="38"/>
     </row>
-    <row r="96" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>3.06</v>
       </c>
@@ -41972,7 +44100,7 @@
       <c r="BQ96" s="38"/>
       <c r="BR96" s="38"/>
     </row>
-    <row r="97" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -42073,7 +44201,7 @@
       <c r="BQ97" s="38"/>
       <c r="BR97" s="38"/>
     </row>
-    <row r="98" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -42174,7 +44302,7 @@
       <c r="BQ98" s="38"/>
       <c r="BR98" s="38"/>
     </row>
-    <row r="99" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -42182,9 +44310,15 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="T99" s="29"/>
-      <c r="U99" s="29"/>
-      <c r="V99" s="29"/>
-      <c r="W99" s="29"/>
+      <c r="U99" s="44">
+        <v>0</v>
+      </c>
+      <c r="V99" s="44">
+        <v>0</v>
+      </c>
+      <c r="W99" s="44">
+        <v>0</v>
+      </c>
       <c r="X99" s="29"/>
       <c r="Y99" s="29"/>
       <c r="Z99" s="29"/>
@@ -42263,7 +44397,7 @@
       <c r="BQ99" s="38"/>
       <c r="BR99" s="38"/>
     </row>
-    <row r="100" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -42352,13 +44486,14 @@
       <c r="BQ100" s="38"/>
       <c r="BR100" s="38"/>
     </row>
-    <row r="101" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
+      <c r="T101" s="45"/>
       <c r="U101" s="29" cm="1">
         <f t="array" ref="U101:V105">LINEST(W90:W98,V90:V98,TRUE,TRUE)</f>
         <v>1.7271149244971441E-3</v>
@@ -42445,13 +44580,14 @@
       <c r="BQ101" s="38"/>
       <c r="BR101" s="38"/>
     </row>
-    <row r="102" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
+      <c r="T102" s="45"/>
       <c r="U102" s="29">
         <v>3.4177617801214939E-5</v>
       </c>
@@ -42537,13 +44673,14 @@
       <c r="BQ102" s="38"/>
       <c r="BR102" s="38"/>
     </row>
-    <row r="103" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
+      <c r="T103" s="45"/>
       <c r="U103" s="29">
         <v>0.99726630355093449</v>
       </c>
@@ -42629,13 +44766,14 @@
       <c r="BQ103" s="38"/>
       <c r="BR103" s="38"/>
     </row>
-    <row r="104" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
+      <c r="T104" s="45"/>
       <c r="U104" s="29">
         <v>2553.6354364593017</v>
       </c>
@@ -42723,13 +44861,14 @@
       <c r="BQ104" s="38"/>
       <c r="BR104" s="38"/>
     </row>
-    <row r="105" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
+      <c r="T105" s="45"/>
       <c r="U105" s="29">
         <v>2.1820408336428576</v>
       </c>
@@ -42815,13 +44954,14 @@
       <c r="BQ105" s="38"/>
       <c r="BR105" s="38"/>
     </row>
-    <row r="106" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
+      <c r="T106" s="45"/>
       <c r="U106" s="29"/>
       <c r="V106" s="29"/>
       <c r="W106" s="29"/>
@@ -42903,13 +45043,14 @@
       <c r="BQ106" s="38"/>
       <c r="BR106" s="38"/>
     </row>
-    <row r="107" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
+      <c r="T107" s="45"/>
       <c r="U107" s="29"/>
       <c r="V107" s="29"/>
       <c r="W107" s="29"/>
@@ -42991,13 +45132,14 @@
       <c r="BQ107" s="38"/>
       <c r="BR107" s="38"/>
     </row>
-    <row r="108" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
+      <c r="T108" s="45"/>
       <c r="U108" s="29"/>
       <c r="V108" s="29"/>
       <c r="W108" s="29"/>
@@ -43079,13 +45221,14 @@
       <c r="BQ108" s="38"/>
       <c r="BR108" s="38"/>
     </row>
-    <row r="109" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
+      <c r="T109" s="45"/>
       <c r="U109" s="29"/>
       <c r="V109" s="29"/>
       <c r="W109" s="29"/>
@@ -43167,13 +45310,14 @@
       <c r="BQ109" s="38"/>
       <c r="BR109" s="38"/>
     </row>
-    <row r="110" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
+      <c r="T110" s="45"/>
       <c r="U110" s="29"/>
       <c r="V110" s="29"/>
       <c r="W110" s="29"/>
@@ -43255,13 +45399,14 @@
       <c r="BQ110" s="38"/>
       <c r="BR110" s="38"/>
     </row>
-    <row r="111" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
+      <c r="T111" s="45"/>
       <c r="U111" s="29"/>
       <c r="V111" s="29"/>
       <c r="W111" s="29"/>
@@ -43343,7 +45488,8 @@
       <c r="BQ111" s="38"/>
       <c r="BR111" s="38"/>
     </row>
-    <row r="112" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="T112" s="45"/>
       <c r="U112" s="29"/>
       <c r="V112" s="29"/>
       <c r="W112" s="29"/>
@@ -43425,7 +45571,8 @@
       <c r="BQ112" s="38"/>
       <c r="BR112" s="38"/>
     </row>
-    <row r="113" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="T113" s="45"/>
       <c r="U113" s="29"/>
       <c r="V113" s="29"/>
       <c r="W113" s="29"/>
@@ -43507,7 +45654,8 @@
       <c r="BQ113" s="38"/>
       <c r="BR113" s="38"/>
     </row>
-    <row r="114" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="T114" s="45"/>
       <c r="U114" s="29"/>
       <c r="V114" s="29"/>
       <c r="W114" s="29"/>
@@ -43589,7 +45737,7 @@
       <c r="BQ114" s="38"/>
       <c r="BR114" s="38"/>
     </row>
-    <row r="115" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A115" s="28" t="s">
         <v>43</v>
       </c>
@@ -43605,6 +45753,7 @@
       <c r="K115" s="28"/>
       <c r="L115" s="28"/>
       <c r="M115" s="28"/>
+      <c r="T115" s="45"/>
       <c r="U115" s="29"/>
       <c r="V115" s="29"/>
       <c r="W115" s="29"/>
@@ -43686,7 +45835,8 @@
       <c r="BQ115" s="38"/>
       <c r="BR115" s="38"/>
     </row>
-    <row r="116" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="T116" s="45"/>
       <c r="U116" s="29"/>
       <c r="V116" s="29"/>
       <c r="W116" s="29"/>
@@ -43768,7 +45918,7 @@
       <c r="BQ116" s="38"/>
       <c r="BR116" s="38"/>
     </row>
-    <row r="117" spans="1:70" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:70" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="35" t="s">
         <v>8</v>
       </c>
@@ -43787,6 +45937,7 @@
       <c r="K117" t="s">
         <v>5</v>
       </c>
+      <c r="T117" s="45"/>
       <c r="U117" s="29"/>
       <c r="V117" s="29"/>
       <c r="W117" s="29"/>
@@ -43868,7 +46019,7 @@
       <c r="BQ117" s="38"/>
       <c r="BR117" s="38"/>
     </row>
-    <row r="118" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -43905,6 +46056,7 @@
       <c r="O118" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="T118" s="45"/>
       <c r="U118" s="29"/>
       <c r="V118" s="29"/>
       <c r="W118" s="29"/>
@@ -43986,7 +46138,7 @@
       <c r="BQ118" s="38"/>
       <c r="BR118" s="38"/>
     </row>
-    <row r="119" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>35.5</v>
       </c>
@@ -44023,6 +46175,7 @@
       <c r="O119" s="1">
         <v>2.7</v>
       </c>
+      <c r="T119" s="45"/>
       <c r="U119" s="29"/>
       <c r="V119" s="29"/>
       <c r="W119" s="29"/>
@@ -44104,7 +46257,7 @@
       <c r="BQ119" s="38"/>
       <c r="BR119" s="38"/>
     </row>
-    <row r="120" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>31.8</v>
       </c>
@@ -44141,6 +46294,7 @@
       <c r="O120" s="1">
         <v>2.5</v>
       </c>
+      <c r="T120" s="45"/>
       <c r="U120" s="29"/>
       <c r="V120" s="29"/>
       <c r="W120" s="29"/>
@@ -44222,7 +46376,7 @@
       <c r="BQ120" s="38"/>
       <c r="BR120" s="38"/>
     </row>
-    <row r="121" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>29</v>
       </c>
@@ -44259,6 +46413,7 @@
       <c r="O121" s="1">
         <v>2.4500000000000002</v>
       </c>
+      <c r="T121" s="45"/>
       <c r="U121" s="29"/>
       <c r="V121" s="29"/>
       <c r="W121" s="29"/>
@@ -44340,7 +46495,7 @@
       <c r="BQ121" s="38"/>
       <c r="BR121" s="38"/>
     </row>
-    <row r="122" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -44359,6 +46514,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
+      <c r="T122" s="45"/>
       <c r="U122" s="29"/>
       <c r="V122" s="29"/>
       <c r="W122" s="29"/>
@@ -44440,7 +46596,7 @@
       <c r="BQ122" s="38"/>
       <c r="BR122" s="38"/>
     </row>
-    <row r="123" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>32.5</v>
       </c>
@@ -44459,6 +46615,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
+      <c r="T123" s="45"/>
       <c r="U123" s="29"/>
       <c r="V123" s="29"/>
       <c r="W123" s="29"/>
@@ -44540,7 +46697,7 @@
       <c r="BQ123" s="38"/>
       <c r="BR123" s="38"/>
     </row>
-    <row r="124" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>29.5</v>
       </c>
@@ -44559,6 +46716,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
+      <c r="T124" s="45"/>
       <c r="U124" s="29"/>
       <c r="V124" s="29"/>
       <c r="W124" s="29"/>
@@ -44640,7 +46798,7 @@
       <c r="BQ124" s="38"/>
       <c r="BR124" s="38"/>
     </row>
-    <row r="125" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>27</v>
       </c>
@@ -44663,6 +46821,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
+      <c r="T125" s="45"/>
       <c r="U125" s="29"/>
       <c r="V125" s="29"/>
       <c r="W125" s="29"/>
@@ -44744,7 +46903,7 @@
       <c r="BQ125" s="38"/>
       <c r="BR125" s="38"/>
     </row>
-    <row r="126" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -44757,6 +46916,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
+      <c r="T126" s="45"/>
       <c r="U126" s="29"/>
       <c r="V126" s="29"/>
       <c r="W126" s="29"/>
@@ -44838,7 +46998,7 @@
       <c r="BQ126" s="38"/>
       <c r="BR126" s="38"/>
     </row>
-    <row r="127" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -44851,6 +47011,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
+      <c r="T127" s="45"/>
       <c r="U127" s="29"/>
       <c r="V127" s="29"/>
       <c r="W127" s="29"/>
@@ -44934,7 +47095,7 @@
       <c r="BQ127" s="38"/>
       <c r="BR127" s="38"/>
     </row>
-    <row r="128" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -44947,6 +47108,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
+      <c r="T128" s="45"/>
       <c r="U128" s="29"/>
       <c r="V128" s="29"/>
       <c r="W128" s="29"/>
@@ -45028,7 +47190,7 @@
       <c r="BQ128" s="38"/>
       <c r="BR128" s="38"/>
     </row>
-    <row r="129" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -45041,6 +47203,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
+      <c r="T129" s="45"/>
       <c r="U129" s="29"/>
       <c r="V129" s="29"/>
       <c r="W129" s="29"/>
@@ -45121,7 +47284,7 @@
       <c r="BQ129" s="38"/>
       <c r="BR129" s="38"/>
     </row>
-    <row r="130" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -45134,6 +47297,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
+      <c r="T130" s="45"/>
       <c r="U130" s="29"/>
       <c r="V130" s="29"/>
       <c r="W130" s="29"/>
@@ -45185,7 +47349,7 @@
       <c r="BQ130" s="38"/>
       <c r="BR130" s="38"/>
     </row>
-    <row r="131" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -45198,6 +47362,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
+      <c r="T131" s="45"/>
       <c r="U131" s="29"/>
       <c r="V131" s="29"/>
       <c r="W131" s="29"/>
@@ -45249,7 +47414,7 @@
       <c r="BQ131" s="38"/>
       <c r="BR131" s="38"/>
     </row>
-    <row r="132" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -45277,7 +47442,7 @@
       <c r="BQ132" s="38"/>
       <c r="BR132" s="38"/>
     </row>
-    <row r="133" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -45305,7 +47470,7 @@
       <c r="BQ133" s="38"/>
       <c r="BR133" s="38"/>
     </row>
-    <row r="134" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -45333,7 +47498,7 @@
       <c r="BQ134" s="38"/>
       <c r="BR134" s="38"/>
     </row>
-    <row r="135" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -45361,7 +47526,7 @@
       <c r="BQ135" s="38"/>
       <c r="BR135" s="38"/>
     </row>
-    <row r="136" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -45389,7 +47554,7 @@
       <c r="BQ136" s="38"/>
       <c r="BR136" s="38"/>
     </row>
-    <row r="137" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE137" s="38"/>
       <c r="BF137" s="38"/>
       <c r="BG137" s="38"/>
@@ -45405,7 +47570,7 @@
       <c r="BQ137" s="38"/>
       <c r="BR137" s="38"/>
     </row>
-    <row r="138" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE138" s="38"/>
       <c r="BF138" s="38"/>
       <c r="BG138" s="38"/>
@@ -45421,7 +47586,7 @@
       <c r="BQ138" s="38"/>
       <c r="BR138" s="38"/>
     </row>
-    <row r="139" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE139" s="38"/>
       <c r="BF139" s="38"/>
       <c r="BG139" s="38"/>
@@ -45437,7 +47602,7 @@
       <c r="BQ139" s="38"/>
       <c r="BR139" s="38"/>
     </row>
-    <row r="140" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -45462,7 +47627,7 @@
       <c r="BQ140" s="38"/>
       <c r="BR140" s="38"/>
     </row>
-    <row r="141" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -45496,7 +47661,7 @@
       <c r="BQ141" s="38"/>
       <c r="BR141" s="38"/>
     </row>
-    <row r="142" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>22</v>
       </c>
@@ -45530,7 +47695,7 @@
       <c r="BQ142" s="38"/>
       <c r="BR142" s="38"/>
     </row>
-    <row r="143" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>20.5</v>
       </c>
@@ -45564,7 +47729,7 @@
       <c r="BQ143" s="38"/>
       <c r="BR143" s="38"/>
     </row>
-    <row r="144" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>19.5</v>
       </c>
@@ -45598,7 +47763,7 @@
       <c r="BQ144" s="38"/>
       <c r="BR144" s="38"/>
     </row>
-    <row r="145" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -45620,7 +47785,7 @@
       <c r="BQ145" s="38"/>
       <c r="BR145" s="38"/>
     </row>
-    <row r="146" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -45642,7 +47807,7 @@
       <c r="BQ146" s="38"/>
       <c r="BR146" s="38"/>
     </row>
-    <row r="147" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -45664,7 +47829,7 @@
       <c r="BQ147" s="38"/>
       <c r="BR147" s="38"/>
     </row>
-    <row r="148" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -45686,7 +47851,7 @@
       <c r="BQ148" s="38"/>
       <c r="BR148" s="38"/>
     </row>
-    <row r="149" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -45708,7 +47873,7 @@
       <c r="BQ149" s="38"/>
       <c r="BR149" s="38"/>
     </row>
-    <row r="150" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -45730,7 +47895,7 @@
       <c r="BQ150" s="38"/>
       <c r="BR150" s="38"/>
     </row>
-    <row r="151" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -45752,7 +47917,7 @@
       <c r="BQ151" s="38"/>
       <c r="BR151" s="38"/>
     </row>
-    <row r="152" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -45776,7 +47941,7 @@
       <c r="BQ152" s="38"/>
       <c r="BR152" s="38"/>
     </row>
-    <row r="153" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -45798,7 +47963,7 @@
       <c r="BQ153" s="38"/>
       <c r="BR153" s="38"/>
     </row>
-    <row r="154" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -45820,7 +47985,7 @@
       <c r="BQ154" s="38"/>
       <c r="BR154" s="38"/>
     </row>
-    <row r="155" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -45842,7 +48007,7 @@
       <c r="BQ155" s="38"/>
       <c r="BR155" s="38"/>
     </row>
-    <row r="156" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -45864,7 +48029,7 @@
       <c r="BQ156" s="38"/>
       <c r="BR156" s="38"/>
     </row>
-    <row r="157" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -45886,7 +48051,7 @@
       <c r="BQ157" s="38"/>
       <c r="BR157" s="38"/>
     </row>
-    <row r="158" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -45908,7 +48073,7 @@
       <c r="BQ158" s="38"/>
       <c r="BR158" s="38"/>
     </row>
-    <row r="159" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -45930,7 +48095,7 @@
       <c r="BQ159" s="38"/>
       <c r="BR159" s="38"/>
     </row>
-    <row r="160" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE160" s="38"/>
       <c r="BF160" s="38"/>
       <c r="BG160" s="38"/>
@@ -45946,7 +48111,7 @@
       <c r="BQ160" s="38"/>
       <c r="BR160" s="38"/>
     </row>
-    <row r="161" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="161" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE161" s="38"/>
       <c r="BF161" s="38"/>
       <c r="BG161" s="38"/>
@@ -45962,7 +48127,7 @@
       <c r="BQ161" s="38"/>
       <c r="BR161" s="38"/>
     </row>
-    <row r="162" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="162" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE162" s="38"/>
       <c r="BF162" s="38"/>
       <c r="BG162" s="38"/>
@@ -45978,7 +48143,7 @@
       <c r="BQ162" s="38"/>
       <c r="BR162" s="38"/>
     </row>
-    <row r="163" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="163" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE163" s="38"/>
       <c r="BF163" s="38"/>
       <c r="BG163" s="38"/>
@@ -45994,7 +48159,7 @@
       <c r="BQ163" s="38"/>
       <c r="BR163" s="38"/>
     </row>
-    <row r="164" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="164" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE164" s="38"/>
       <c r="BF164" s="38"/>
       <c r="BG164" s="38"/>
@@ -46010,7 +48175,7 @@
       <c r="BQ164" s="38"/>
       <c r="BR164" s="38"/>
     </row>
-    <row r="165" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="165" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE165" s="38"/>
       <c r="BF165" s="38"/>
       <c r="BG165" s="38"/>
@@ -46026,7 +48191,7 @@
       <c r="BQ165" s="38"/>
       <c r="BR165" s="38"/>
     </row>
-    <row r="166" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="166" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE166" s="38"/>
       <c r="BF166" s="38"/>
       <c r="BG166" s="38"/>
@@ -46042,7 +48207,7 @@
       <c r="BQ166" s="38"/>
       <c r="BR166" s="38"/>
     </row>
-    <row r="167" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="167" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE167" s="38"/>
       <c r="BF167" s="38"/>
       <c r="BG167" s="38"/>
@@ -46058,7 +48223,7 @@
       <c r="BQ167" s="38"/>
       <c r="BR167" s="38"/>
     </row>
-    <row r="168" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="168" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE168" s="38"/>
       <c r="BF168" s="38"/>
       <c r="BG168" s="38"/>
@@ -46074,7 +48239,7 @@
       <c r="BQ168" s="38"/>
       <c r="BR168" s="38"/>
     </row>
-    <row r="169" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="169" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE169" s="38"/>
       <c r="BF169" s="38"/>
       <c r="BG169" s="38"/>
@@ -46090,7 +48255,7 @@
       <c r="BQ169" s="38"/>
       <c r="BR169" s="38"/>
     </row>
-    <row r="170" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="170" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE170" s="38"/>
       <c r="BF170" s="38"/>
       <c r="BG170" s="38"/>
@@ -46106,7 +48271,7 @@
       <c r="BQ170" s="38"/>
       <c r="BR170" s="38"/>
     </row>
-    <row r="171" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="171" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE171" s="38"/>
       <c r="BF171" s="38"/>
       <c r="BG171" s="38"/>
@@ -46122,7 +48287,7 @@
       <c r="BQ171" s="38"/>
       <c r="BR171" s="38"/>
     </row>
-    <row r="172" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="172" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE172" s="38"/>
       <c r="BF172" s="38"/>
       <c r="BG172" s="38"/>
@@ -46138,7 +48303,7 @@
       <c r="BQ172" s="38"/>
       <c r="BR172" s="38"/>
     </row>
-    <row r="173" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="173" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE173" s="38"/>
       <c r="BF173" s="38"/>
       <c r="BG173" s="38"/>
@@ -46154,7 +48319,7 @@
       <c r="BQ173" s="38"/>
       <c r="BR173" s="38"/>
     </row>
-    <row r="174" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="174" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE174" s="38"/>
       <c r="BF174" s="38"/>
       <c r="BG174" s="38"/>
@@ -46170,7 +48335,7 @@
       <c r="BQ174" s="38"/>
       <c r="BR174" s="38"/>
     </row>
-    <row r="175" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="175" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE175" s="38"/>
       <c r="BF175" s="38"/>
       <c r="BG175" s="38"/>
@@ -46186,7 +48351,7 @@
       <c r="BQ175" s="38"/>
       <c r="BR175" s="38"/>
     </row>
-    <row r="176" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="176" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE176" s="38"/>
       <c r="BF176" s="38"/>
       <c r="BG176" s="38"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AC5F4-7A20-48DE-A527-F9630CA6C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D0EEE3-13C6-419A-8660-67D100E18C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="622" yWindow="1335" windowWidth="27106" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="70">
   <si>
     <t>Volt</t>
   </si>
@@ -261,6 +261,25 @@
   <si>
     <t>Grafer til interpolation</t>
   </si>
+  <si>
+    <t>Interpolering for moment</t>
+  </si>
+  <si>
+    <r>
+      <t>1E-06x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,1157</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +290,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +399,14 @@
     </font>
     <font>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -568,6 +595,8 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="11" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -577,8 +606,6 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -3750,121 +3777,121 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>-6.6446881344000008E-3</c:v>
+                  <c:v>1.3962043326650681E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1932211870315808E-3</c:v>
+                  <c:v>1.8135521037495697E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7417542396631599E-3</c:v>
+                  <c:v>2.2887740030966175E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.2902872922947394E-3</c:v>
+                  <c:v>2.8226126483935575E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.3882034492631895E-4</c:v>
+                  <c:v>3.4157449268516753E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1264660244210369E-4</c:v>
+                  <c:v>4.0687932886858272E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0641135498105242E-3</c:v>
+                  <c:v>4.7823343136776707E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5155804971789442E-3</c:v>
+                  <c:v>5.5569053703181485E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9670474445473681E-3</c:v>
+                  <c:v>6.393009899200588E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4185143919157856E-3</c:v>
+                  <c:v>7.2911216782606423E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.869981339284203E-3</c:v>
+                  <c:v>8.2516883177992089E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3214482866526213E-3</c:v>
+                  <c:v>9.2751341617191806E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.077291523402104E-2</c:v>
+                  <c:v>1.0361862723378593E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2224382181389458E-2</c:v>
+                  <c:v>1.151225875136626E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3675849128757874E-2</c:v>
+                  <c:v>1.2726689997177035E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5127316076126295E-2</c:v>
+                  <c:v>1.4005508739990305E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6578783023494716E-2</c:v>
+                  <c:v>1.5349053111479282E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8030249970863128E-2</c:v>
+                  <c:v>1.6757648254448851E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9481716918231549E-2</c:v>
+                  <c:v>1.8231607342214528E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0933183865599968E-2</c:v>
+                  <c:v>1.9771232480369518E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2384650812968386E-2</c:v>
+                  <c:v>2.1376815508518915E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3836117760336804E-2</c:v>
+                  <c:v>2.3048638716376264E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5287584707705226E-2</c:v>
+                  <c:v>2.4786975486104916E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6739051655073637E-2</c:v>
+                  <c:v>2.6592090870786039E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.8190518602442056E-2</c:v>
+                  <c:v>2.8464242117282348E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9641985549810478E-2</c:v>
+                  <c:v>3.0403679140467092E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1093452497178896E-2</c:v>
+                  <c:v>3.2410644954720062E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2544919444547321E-2</c:v>
+                  <c:v>3.4485376067721465E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3996386391915726E-2</c:v>
+                  <c:v>3.6628102840851162E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.5447853339284151E-2</c:v>
+                  <c:v>3.8839049819896145E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.6899320286652569E-2</c:v>
+                  <c:v>4.1118436039273953E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8350787234020987E-2</c:v>
+                  <c:v>4.3466475302547054E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.9802254181389406E-2</c:v>
+                  <c:v>4.5883376441655715E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.1253721128757817E-2</c:v>
+                  <c:v>4.8369343556984794E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.2705188076126242E-2</c:v>
+                  <c:v>5.0924576240127334E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.4156655023494661E-2</c:v>
+                  <c:v>5.3549269780985016E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.5608121970863079E-2</c:v>
+                  <c:v>5.6243615360648244E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.705958891823149E-2</c:v>
+                  <c:v>5.9007800231348398E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.8511055865599992E-2</c:v>
+                  <c:v>6.1842007884615822E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6954,121 +6981,121 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>-0.69583174143436799</c:v>
+                  <c:v>0.14621051771668592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.61539124411462431</c:v>
+                  <c:v>0.21490401529210951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.49495137344529611</c:v>
+                  <c:v>0.3027542066580351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33451212942638342</c:v>
+                  <c:v>0.41226188991073648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.13407351205788628</c:v>
+                  <c:v>0.54595828702406923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1063644786601957</c:v>
+                  <c:v>0.70640247608011386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38680184272786178</c:v>
+                  <c:v>0.89617924616647737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70723858014511232</c:v>
+                  <c:v>1.1178972767820869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0676746909119479</c:v>
+                  <c:v>1.3741875720593228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4681101750283667</c:v>
+                  <c:v>1.6677020989010185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.90854503249437</c:v>
+                  <c:v>2.0011125909556342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3889792633099574</c:v>
+                  <c:v>2.3771094893583316</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9094128674751292</c:v>
+                  <c:v>2.7984009976430566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4698458449898855</c:v>
+                  <c:v>3.2677122329904376</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0702781958542253</c:v>
+                  <c:v>3.7877844595387593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.710709920068151</c:v>
+                  <c:v>4.3613743921960939</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3911410176316608</c:v>
+                  <c:v>4.9912535614848661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1115714885447527</c:v>
+                  <c:v>5.6802077315874611</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.8720013328074314</c:v>
+                  <c:v>6.4310363650583708</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6724305504196941</c:v>
+                  <c:v>7.2465521287050301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.51285914138154</c:v>
+                  <c:v>8.1295804359786743</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.3932871056929699</c:v>
+                  <c:v>9.0829590218996206</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.313714443353987</c:v>
+                  <c:v>10.109537547103312</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.274141154364585</c:v>
+                  <c:v>11.212177228059812</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.274567238724769</c:v>
+                  <c:v>12.39375049090645</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.314992696434539</c:v>
+                  <c:v>13.657140646661128</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.39541752749389</c:v>
+                  <c:v>15.005241585857666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.51584173190283</c:v>
+                  <c:v>16.440957490879981</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.676265309661343</c:v>
+                  <c:v>17.967202564471563</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.876688260769455</c:v>
+                  <c:v>19.586900773066635</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.117110585227145</c:v>
+                  <c:v>21.302985603741043</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.397532283034419</c:v>
+                  <c:v>23.118399833704352</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.71795335419128</c:v>
+                  <c:v>25.036095311370943</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.078373798697715</c:v>
+                  <c:v>27.059032748140808</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.478793616553748</c:v>
+                  <c:v>29.190181520109334</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.919212807759358</c:v>
+                  <c:v>31.432519478999748</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.399631372314555</c:v>
+                  <c:v>33.789032771674279</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.92004931021933</c:v>
+                  <c:v>36.262715667646724</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.480466621473788</c:v>
+                  <c:v>38.856570394061812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8653,106 +8680,106 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>7.5471176339961366E-2</c:v>
+                  <c:v>0.50122960701521024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20143001736336874</c:v>
+                  <c:v>0.46669219526704536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28234924921239496</c:v>
+                  <c:v>0.44629558632285038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33755019947410558</c:v>
+                  <c:v>0.43445563804388809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37694097970868107</c:v>
+                  <c:v>0.42818670813301007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40605532784541704</c:v>
+                  <c:v>0.42574967597914354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42819122847826208</c:v>
+                  <c:v>0.4260637369725116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44541760530685937</c:v>
+                  <c:v>0.42842220332248931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45908751604756265</c:v>
+                  <c:v>0.43234367151148967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47011693925507492</c:v>
+                  <c:v>0.4374889260616216</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47914430902937977</c:v>
+                  <c:v>0.44361205742360715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48662586325619073</c:v>
+                  <c:v>0.45053042855761138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49289477265611836</c:v>
+                  <c:v>0.45810553042667329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49819899297278142</c:v>
+                  <c:v>0.46623038699768515</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50272617650709839</c:v>
+                  <c:v>0.47482103885892785</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.50662047096012808</c:v>
+                  <c:v>0.48381064467082857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.50999409469717194</c:v>
+                  <c:v>0.49314530807194706</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5129354679525473</c:v>
+                  <c:v>0.50278106893378005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51551502456998022</c:v>
+                  <c:v>0.51268169699725485</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.51778943153010959</c:v>
+                  <c:v>0.5228170489763988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.51980469642329252</c:v>
+                  <c:v>0.53316182815097335</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5215984859053665</c:v>
+                  <c:v>0.54369463594086931</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52320187622378578</c:v>
+                  <c:v>0.55439723830496868</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.52464068951802367</c:v>
+                  <c:v>0.56525399225168549</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.52593652430247328</c:v>
+                  <c:v>0.57625139310902174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.52710755761524264</c:v>
+                  <c:v>0.58737771387784199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.52816917489796456</c:v>
+                  <c:v>0.59862271551764379</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.52913446863928704</c:v>
+                  <c:v>0.60997741238947001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.53001463613330735</c:v>
+                  <c:v>0.62143388096670749</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53081929902677616</c:v>
+                  <c:v>0.63298510276627828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.53155676175111899</c:v>
+                  <c:v>0.64462483455262187</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.53223422184213076</c:v>
+                  <c:v>0.65634750043395051</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.53285794211798998</c:v>
+                  <c:v>0.66814810165085026</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5334333924200938</c:v>
+                  <c:v>0.68002214075397138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12544,7 +12571,7 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:forward val="2500"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -12994,7 +13021,7 @@
             <c:trendlineType val="power"/>
             <c:forward val="2500"/>
             <c:backward val="2500"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -32997,8 +33024,8 @@
   </sheetPr>
   <dimension ref="A1:BZ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P98" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="AC142" sqref="AC142"/>
+    <sheetView tabSelected="1" topLeftCell="AZ85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AX105" sqref="AX105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38515,9 +38542,9 @@
         <v>42</v>
       </c>
       <c r="BE42" s="7"/>
-      <c r="BF42" s="41"/>
-      <c r="BG42" s="41"/>
-      <c r="BH42" s="41"/>
+      <c r="BF42" s="43"/>
+      <c r="BG42" s="43"/>
+      <c r="BH42" s="43"/>
       <c r="BI42" s="33"/>
       <c r="BJ42" s="33"/>
       <c r="BK42" s="33"/>
@@ -38607,9 +38634,9 @@
         <v>28</v>
       </c>
       <c r="BE43" s="7"/>
-      <c r="BF43" s="41"/>
-      <c r="BG43" s="41"/>
-      <c r="BH43" s="41"/>
+      <c r="BF43" s="43"/>
+      <c r="BG43" s="43"/>
+      <c r="BH43" s="43"/>
       <c r="BI43" s="33"/>
       <c r="BJ43" s="33"/>
       <c r="BK43" s="33"/>
@@ -38708,9 +38735,9 @@
         <v>36.569574660583385</v>
       </c>
       <c r="BE44" s="7"/>
-      <c r="BF44" s="41"/>
-      <c r="BG44" s="41"/>
-      <c r="BH44" s="41"/>
+      <c r="BF44" s="43"/>
+      <c r="BG44" s="43"/>
+      <c r="BH44" s="43"/>
       <c r="BI44" s="33"/>
       <c r="BJ44" s="33"/>
       <c r="BK44" s="33"/>
@@ -38810,9 +38837,9 @@
         <v>51.680601099283706</v>
       </c>
       <c r="BE45" s="7"/>
-      <c r="BF45" s="41"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="41"/>
+      <c r="BF45" s="43"/>
+      <c r="BG45" s="43"/>
+      <c r="BH45" s="43"/>
       <c r="BI45" s="33"/>
       <c r="BJ45" s="33"/>
       <c r="BK45" s="33"/>
@@ -43128,10 +43155,10 @@
       <c r="BC86" s="29"/>
       <c r="BD86" s="29"/>
       <c r="BE86" s="38"/>
-      <c r="BF86" s="42" t="s">
+      <c r="BF86" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="BG86" s="42"/>
+      <c r="BG86" s="44"/>
       <c r="BH86" s="38"/>
       <c r="BI86" s="38"/>
       <c r="BJ86" s="38"/>
@@ -43199,8 +43226,8 @@
       <c r="BC87" s="29"/>
       <c r="BD87" s="29"/>
       <c r="BE87" s="38"/>
-      <c r="BF87" s="42"/>
-      <c r="BG87" s="42"/>
+      <c r="BF87" s="44"/>
+      <c r="BG87" s="44"/>
       <c r="BH87" s="38"/>
       <c r="BI87" s="38"/>
       <c r="BJ87" s="38"/>
@@ -43256,7 +43283,7 @@
       <c r="AS88" s="29"/>
       <c r="AT88" s="29"/>
       <c r="AU88" s="13" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AV88" s="13"/>
       <c r="AW88" s="13"/>
@@ -43502,24 +43529,24 @@
         <v>-5.6050999999999851E-2</v>
       </c>
       <c r="AX91" s="14">
-        <f>0.01757*AU91 - 28.15341</f>
-        <v>-10.583410000000001</v>
+        <f>0.000001*AU91^2.1157</f>
+        <v>2.2238218856158705</v>
       </c>
       <c r="AY91" s="14">
         <f>9.81*AX91/1000</f>
-        <v>-0.1038232521</v>
+        <v>2.181569269789169E-2</v>
       </c>
       <c r="AZ91" s="14">
         <f>(AY91/4*256)/(3/4*256)</f>
-        <v>-3.4607750700000002E-2</v>
+        <v>7.2718975659638967E-3</v>
       </c>
       <c r="BA91" s="14">
         <f t="shared" ref="BA91:BA128" si="30">AZ91*3/4*256/1000</f>
-        <v>-6.6446881344000008E-3</v>
+        <v>1.3962043326650681E-3</v>
       </c>
       <c r="BB91" s="27">
         <f>BA91*AU91*0.10472</f>
-        <v>-0.69583174143436799</v>
+        <v>0.14621051771668592</v>
       </c>
       <c r="BC91" s="15">
         <f>AV91*AW91</f>
@@ -43527,7 +43554,7 @@
       </c>
       <c r="BD91" s="26">
         <f>BB91/BC91</f>
-        <v>16.928090626132878</v>
+        <v>-3.556987626491193</v>
       </c>
       <c r="BE91" s="38"/>
       <c r="BF91" s="38"/>
@@ -43606,24 +43633,24 @@
         <v>0.10592268421052653</v>
       </c>
       <c r="AX92" s="14">
-        <f t="shared" ref="AX92:AX128" si="34">0.01757*AU92 - 28.15341</f>
-        <v>-8.2715678947368438</v>
+        <f t="shared" ref="AX92:AX129" si="34">0.000001*AU92^2.1157</f>
+        <v>2.8885577595399616</v>
       </c>
       <c r="AY92" s="14">
         <f t="shared" ref="AY92:AY129" si="35">9.81*AX92/1000</f>
-        <v>-8.1144081047368449E-2</v>
+        <v>2.8336751621087026E-2</v>
       </c>
       <c r="AZ92" s="14">
         <f t="shared" ref="AZ92:AZ128" si="36">(AY92/4*256)/(3/4*256)</f>
-        <v>-2.7048027015789483E-2</v>
+        <v>9.4455838736956753E-3</v>
       </c>
       <c r="BA92" s="14">
         <f t="shared" si="30"/>
-        <v>-5.1932211870315808E-3</v>
+        <v>1.8135521037495697E-3</v>
       </c>
       <c r="BB92" s="27">
         <f t="shared" ref="BB92:BB128" si="37">BA92*AU92*0.10472</f>
-        <v>-0.61539124411462431</v>
+        <v>0.21490401529210951</v>
       </c>
       <c r="BC92" s="15">
         <f t="shared" ref="BC92:BC129" si="38">AV92*AW92</f>
@@ -43631,7 +43658,7 @@
       </c>
       <c r="BD92" s="26">
         <f t="shared" ref="BD92:BD116" si="39">BB92/BC92</f>
-        <v>-6.0480939940844731</v>
+        <v>2.1120867360776892</v>
       </c>
       <c r="BE92" s="38"/>
       <c r="BF92" s="38"/>
@@ -43720,23 +43747,23 @@
       </c>
       <c r="AX93" s="14">
         <f t="shared" si="34"/>
-        <v>-5.959725789473687</v>
+        <v>3.64547337394339</v>
       </c>
       <c r="AY93" s="14">
         <f t="shared" si="35"/>
-        <v>-5.8464909994736872E-2</v>
+        <v>3.5762093798384652E-2</v>
       </c>
       <c r="AZ93" s="14">
         <f t="shared" si="36"/>
-        <v>-1.9488303331578957E-2</v>
+        <v>1.1920697932794884E-2</v>
       </c>
       <c r="BA93" s="14">
         <f t="shared" si="30"/>
-        <v>-3.7417542396631599E-3</v>
+        <v>2.2887740030966175E-3</v>
       </c>
       <c r="BB93" s="27">
         <f t="shared" si="37"/>
-        <v>-0.49495137344529611</v>
+        <v>0.3027542066580351</v>
       </c>
       <c r="BC93" s="15">
         <f t="shared" si="38"/>
@@ -43744,7 +43771,7 @@
       </c>
       <c r="BD93" s="26">
         <f t="shared" si="39"/>
-        <v>-1.5553678516352123</v>
+        <v>0.95139479400853932</v>
       </c>
       <c r="BE93" s="38"/>
       <c r="BF93" s="38"/>
@@ -43833,23 +43860,23 @@
       </c>
       <c r="AX94" s="14">
         <f t="shared" si="34"/>
-        <v>-3.6478836842105302</v>
+        <v>4.4957515424209307</v>
       </c>
       <c r="AY94" s="14">
         <f t="shared" si="35"/>
-        <v>-3.5785738942105301E-2</v>
+        <v>4.4103322631149335E-2</v>
       </c>
       <c r="AZ94" s="14">
         <f t="shared" si="36"/>
-        <v>-1.1928579647368433E-2</v>
+        <v>1.4701107543716445E-2</v>
       </c>
       <c r="BA94" s="14">
         <f t="shared" si="30"/>
-        <v>-2.2902872922947394E-3</v>
+        <v>2.8226126483935575E-3</v>
       </c>
       <c r="BB94" s="27">
         <f t="shared" si="37"/>
-        <v>-0.33451212942638342</v>
+        <v>0.41226188991073648</v>
       </c>
       <c r="BC94" s="15">
         <f t="shared" si="38"/>
@@ -43857,7 +43884,7 @@
       </c>
       <c r="BD94" s="26">
         <f t="shared" si="39"/>
-        <v>-0.54990379869164263</v>
+        <v>0.67771646937424712</v>
       </c>
       <c r="BE94" s="38"/>
       <c r="BF94" s="38"/>
@@ -43946,23 +43973,23 @@
       </c>
       <c r="AX95" s="14">
         <f t="shared" si="34"/>
-        <v>-1.3360415789473734</v>
+        <v>5.440470385530829</v>
       </c>
       <c r="AY95" s="14">
         <f t="shared" si="35"/>
-        <v>-1.3106567889473734E-2</v>
+        <v>5.337101448205743E-2</v>
       </c>
       <c r="AZ95" s="14">
         <f t="shared" si="36"/>
-        <v>-4.3688559631579115E-3</v>
+        <v>1.7790338160685811E-2</v>
       </c>
       <c r="BA95" s="14">
         <f t="shared" si="30"/>
-        <v>-8.3882034492631895E-4</v>
+        <v>3.4157449268516753E-3</v>
       </c>
       <c r="BB95" s="27">
         <f t="shared" si="37"/>
-        <v>-0.13407351205788628</v>
+        <v>0.54595828702406923</v>
       </c>
       <c r="BC95" s="15">
         <f t="shared" si="38"/>
@@ -43970,7 +43997,7 @@
       </c>
       <c r="BD95" s="26">
         <f t="shared" si="39"/>
-        <v>-0.13793341889592883</v>
+        <v>0.5616761427960606</v>
       </c>
       <c r="BE95" s="38"/>
       <c r="BF95" s="38"/>
@@ -44059,23 +44086,23 @@
       </c>
       <c r="AX96" s="14">
         <f t="shared" si="34"/>
-        <v>0.97580052631578695</v>
+        <v>6.4806213186254897</v>
       </c>
       <c r="AY96" s="14">
         <f t="shared" si="35"/>
-        <v>9.5726031631578699E-3</v>
+        <v>6.3574895135716056E-2</v>
       </c>
       <c r="AZ96" s="14">
         <f t="shared" si="36"/>
-        <v>3.1908677210526234E-3</v>
+        <v>2.1191631711905353E-2</v>
       </c>
       <c r="BA96" s="14">
         <f t="shared" si="30"/>
-        <v>6.1264660244210369E-4</v>
+        <v>4.0687932886858272E-3</v>
       </c>
       <c r="BB96" s="27">
         <f t="shared" si="37"/>
-        <v>0.1063644786601957</v>
+        <v>0.70640247608011386</v>
       </c>
       <c r="BC96" s="15">
         <f t="shared" si="38"/>
@@ -44083,7 +44110,7 @@
       </c>
       <c r="BD96" s="26">
         <f t="shared" si="39"/>
-        <v>7.5471176339961366E-2</v>
+        <v>0.50122960701521024</v>
       </c>
       <c r="BE96" s="38"/>
       <c r="BF96" s="38"/>
@@ -44160,23 +44187,23 @@
       </c>
       <c r="AX97" s="14">
         <f t="shared" si="34"/>
-        <v>3.2876426315789438</v>
+        <v>7.6171226963520491</v>
       </c>
       <c r="AY97" s="14">
         <f t="shared" si="35"/>
-        <v>3.2251774215789439E-2</v>
+        <v>7.472397365121361E-2</v>
       </c>
       <c r="AZ97" s="14">
         <f t="shared" si="36"/>
-        <v>1.0750591405263146E-2</v>
+        <v>2.4907991217071202E-2</v>
       </c>
       <c r="BA97" s="14">
         <f t="shared" si="30"/>
-        <v>2.0641135498105242E-3</v>
+        <v>4.7823343136776707E-3</v>
       </c>
       <c r="BB97" s="27">
         <f t="shared" si="37"/>
-        <v>0.38680184272786178</v>
+        <v>0.89617924616647737</v>
       </c>
       <c r="BC97" s="15">
         <f t="shared" si="38"/>
@@ -44184,7 +44211,7 @@
       </c>
       <c r="BD97" s="26">
         <f t="shared" si="39"/>
-        <v>0.20143001736336874</v>
+        <v>0.46669219526704536</v>
       </c>
       <c r="BE97" s="38"/>
       <c r="BF97" s="38"/>
@@ -44261,23 +44288,23 @@
       </c>
       <c r="AX98" s="14">
         <f t="shared" si="34"/>
-        <v>5.5994847368421006</v>
+        <v>8.8508304190847156</v>
       </c>
       <c r="AY98" s="14">
         <f t="shared" si="35"/>
-        <v>5.4930945268421009E-2</v>
+        <v>8.6826646411221065E-2</v>
       </c>
       <c r="AZ98" s="14">
         <f t="shared" si="36"/>
-        <v>1.8310315089473669E-2</v>
+        <v>2.8942215470407023E-2</v>
       </c>
       <c r="BA98" s="14">
         <f t="shared" si="30"/>
-        <v>3.5155804971789442E-3</v>
+        <v>5.5569053703181485E-3</v>
       </c>
       <c r="BB98" s="27">
         <f t="shared" si="37"/>
-        <v>0.70723858014511232</v>
+        <v>1.1178972767820869</v>
       </c>
       <c r="BC98" s="15">
         <f t="shared" si="38"/>
@@ -44285,7 +44312,7 @@
       </c>
       <c r="BD98" s="26">
         <f t="shared" si="39"/>
-        <v>0.28234924921239496</v>
+        <v>0.44629558632285038</v>
       </c>
       <c r="BE98" s="38"/>
       <c r="BF98" s="38"/>
@@ -44310,13 +44337,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="T99" s="29"/>
-      <c r="U99" s="44">
+      <c r="U99" s="41">
         <v>0</v>
       </c>
-      <c r="V99" s="44">
+      <c r="V99" s="41">
         <v>0</v>
       </c>
-      <c r="W99" s="44">
+      <c r="W99" s="41">
         <v>0</v>
       </c>
       <c r="X99" s="29"/>
@@ -44356,23 +44383,23 @@
       </c>
       <c r="AX99" s="14">
         <f t="shared" si="34"/>
-        <v>7.9113268421052609</v>
+        <v>10.182546348115105</v>
       </c>
       <c r="AY99" s="14">
         <f t="shared" si="35"/>
-        <v>7.7610116321052622E-2</v>
+        <v>9.9890779675009186E-2</v>
       </c>
       <c r="AZ99" s="14">
         <f t="shared" si="36"/>
-        <v>2.5870038773684208E-2</v>
+        <v>3.3296926558336395E-2</v>
       </c>
       <c r="BA99" s="14">
         <f t="shared" si="30"/>
-        <v>4.9670474445473681E-3</v>
+        <v>6.393009899200588E-3</v>
       </c>
       <c r="BB99" s="27">
         <f t="shared" si="37"/>
-        <v>1.0676746909119479</v>
+        <v>1.3741875720593228</v>
       </c>
       <c r="BC99" s="15">
         <f t="shared" si="38"/>
@@ -44380,7 +44407,7 @@
       </c>
       <c r="BD99" s="26">
         <f t="shared" si="39"/>
-        <v>0.33755019947410558</v>
+        <v>0.43445563804388809</v>
       </c>
       <c r="BE99" s="38"/>
       <c r="BF99" s="38"/>
@@ -44445,23 +44472,23 @@
       </c>
       <c r="AX100" s="14">
         <f t="shared" si="34"/>
-        <v>10.223168947368414</v>
+        <v>11.613025099166414</v>
       </c>
       <c r="AY100" s="14">
         <f t="shared" si="35"/>
-        <v>0.10028928737368414</v>
+        <v>0.11392377622282253</v>
       </c>
       <c r="AZ100" s="14">
         <f t="shared" si="36"/>
-        <v>3.3429762457894717E-2</v>
+        <v>3.7974592074274179E-2</v>
       </c>
       <c r="BA100" s="14">
         <f t="shared" si="30"/>
-        <v>6.4185143919157856E-3</v>
+        <v>7.2911216782606423E-3</v>
       </c>
       <c r="BB100" s="27">
         <f t="shared" si="37"/>
-        <v>1.4681101750283667</v>
+        <v>1.6677020989010185</v>
       </c>
       <c r="BC100" s="15">
         <f t="shared" si="38"/>
@@ -44469,7 +44496,7 @@
       </c>
       <c r="BD100" s="26">
         <f t="shared" si="39"/>
-        <v>0.37694097970868107</v>
+        <v>0.42818670813301007</v>
       </c>
       <c r="BE100" s="38"/>
       <c r="BF100" s="38"/>
@@ -44493,7 +44520,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="T101" s="45"/>
+      <c r="T101" s="42"/>
       <c r="U101" s="29" cm="1">
         <f t="array" ref="U101:V105">LINEST(W90:W98,V90:V98,TRUE,TRUE)</f>
         <v>1.7271149244971441E-3</v>
@@ -44539,23 +44566,23 @@
       </c>
       <c r="AX101" s="14">
         <f t="shared" si="34"/>
-        <v>12.535011052631567</v>
+        <v>13.142979609134825</v>
       </c>
       <c r="AY101" s="14">
         <f t="shared" si="35"/>
-        <v>0.12296845842631568</v>
+        <v>0.12893262996561264</v>
       </c>
       <c r="AZ101" s="14">
         <f t="shared" si="36"/>
-        <v>4.0989486142105229E-2</v>
+        <v>4.2977543321870877E-2</v>
       </c>
       <c r="BA101" s="14">
         <f t="shared" si="30"/>
-        <v>7.869981339284203E-3</v>
+        <v>8.2516883177992089E-3</v>
       </c>
       <c r="BB101" s="27">
         <f t="shared" si="37"/>
-        <v>1.90854503249437</v>
+        <v>2.0011125909556342</v>
       </c>
       <c r="BC101" s="15">
         <f t="shared" si="38"/>
@@ -44563,7 +44590,7 @@
       </c>
       <c r="BD101" s="26">
         <f t="shared" si="39"/>
-        <v>0.40605532784541704</v>
+        <v>0.42574967597914354</v>
       </c>
       <c r="BE101" s="38"/>
       <c r="BF101" s="38"/>
@@ -44587,7 +44614,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="T102" s="45"/>
+      <c r="T102" s="42"/>
       <c r="U102" s="29">
         <v>3.4177617801214939E-5</v>
       </c>
@@ -44632,23 +44659,23 @@
       </c>
       <c r="AX102" s="14">
         <f t="shared" si="34"/>
-        <v>14.846853157894721</v>
+        <v>14.773085757070557</v>
       </c>
       <c r="AY102" s="14">
         <f t="shared" si="35"/>
-        <v>0.14564762947894722</v>
+        <v>0.14492397127686218</v>
       </c>
       <c r="AZ102" s="14">
         <f t="shared" si="36"/>
-        <v>4.8549209826315741E-2</v>
+        <v>4.8307990425620728E-2</v>
       </c>
       <c r="BA102" s="14">
         <f t="shared" si="30"/>
-        <v>9.3214482866526213E-3</v>
+        <v>9.2751341617191806E-3</v>
       </c>
       <c r="BB102" s="27">
         <f t="shared" si="37"/>
-        <v>2.3889792633099574</v>
+        <v>2.3771094893583316</v>
       </c>
       <c r="BC102" s="15">
         <f t="shared" si="38"/>
@@ -44656,7 +44683,7 @@
       </c>
       <c r="BD102" s="26">
         <f t="shared" si="39"/>
-        <v>0.42819122847826208</v>
+        <v>0.4260637369725116</v>
       </c>
       <c r="BE102" s="38"/>
       <c r="BF102" s="38"/>
@@ -44680,7 +44707,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="T103" s="45"/>
+      <c r="T103" s="42"/>
       <c r="U103" s="29">
         <v>0.99726630355093449</v>
       </c>
@@ -44725,23 +44752,23 @@
       </c>
       <c r="AX103" s="14">
         <f t="shared" si="34"/>
-        <v>17.158695263157874</v>
+        <v>16.503986243913406</v>
       </c>
       <c r="AY103" s="14">
         <f t="shared" si="35"/>
-        <v>0.16832680053157875</v>
+        <v>0.16190410505279051</v>
       </c>
       <c r="AZ103" s="14">
         <f t="shared" si="36"/>
-        <v>5.6108933510526253E-2</v>
+        <v>5.3968035017596838E-2</v>
       </c>
       <c r="BA103" s="14">
         <f t="shared" si="30"/>
-        <v>1.077291523402104E-2</v>
+        <v>1.0361862723378593E-2</v>
       </c>
       <c r="BB103" s="27">
         <f t="shared" si="37"/>
-        <v>2.9094128674751292</v>
+        <v>2.7984009976430566</v>
       </c>
       <c r="BC103" s="15">
         <f t="shared" si="38"/>
@@ -44749,7 +44776,7 @@
       </c>
       <c r="BD103" s="26">
         <f t="shared" si="39"/>
-        <v>0.44541760530685937</v>
+        <v>0.42842220332248931</v>
       </c>
       <c r="BE103" s="38"/>
       <c r="BF103" s="38"/>
@@ -44773,7 +44800,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="T104" s="45"/>
+      <c r="T104" s="42"/>
       <c r="U104" s="29">
         <v>2553.6354364593017</v>
       </c>
@@ -44818,23 +44845,23 @@
       </c>
       <c r="AX104" s="14">
         <f t="shared" si="34"/>
-        <v>19.470537368421027</v>
+        <v>18.336293882782652</v>
       </c>
       <c r="AY104" s="14">
         <f t="shared" si="35"/>
-        <v>0.19100597158421029</v>
+        <v>0.17987904299009783</v>
       </c>
       <c r="AZ104" s="14">
         <f t="shared" si="36"/>
-        <v>6.3668657194736758E-2</v>
+        <v>5.9959680996699273E-2</v>
       </c>
       <c r="BA104" s="14">
         <f t="shared" si="30"/>
-        <v>1.2224382181389458E-2</v>
+        <v>1.151225875136626E-2</v>
       </c>
       <c r="BB104" s="27">
         <f t="shared" si="37"/>
-        <v>3.4698458449898855</v>
+        <v>3.2677122329904376</v>
       </c>
       <c r="BC104" s="15">
         <f t="shared" si="38"/>
@@ -44842,13 +44869,13 @@
       </c>
       <c r="BD104" s="26">
         <f t="shared" si="39"/>
-        <v>0.45908751604756265</v>
+        <v>0.43234367151148967</v>
       </c>
       <c r="BE104" s="38"/>
-      <c r="BF104" s="43" t="s">
+      <c r="BF104" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="BG104" s="43"/>
+      <c r="BG104" s="45"/>
       <c r="BH104" s="38"/>
       <c r="BI104" s="38"/>
       <c r="BJ104" s="38"/>
@@ -44868,7 +44895,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="T105" s="45"/>
+      <c r="T105" s="42"/>
       <c r="U105" s="29">
         <v>2.1820408336428576</v>
       </c>
@@ -44913,23 +44940,23 @@
       </c>
       <c r="AX105" s="14">
         <f t="shared" si="34"/>
-        <v>21.78237947368418</v>
+        <v>20.270594414463929</v>
       </c>
       <c r="AY105" s="14">
         <f t="shared" si="35"/>
-        <v>0.21368514263684182</v>
+        <v>0.19885453120589117</v>
       </c>
       <c r="AZ105" s="14">
         <f t="shared" si="36"/>
-        <v>7.122838087894727E-2</v>
+        <v>6.6284843735297055E-2</v>
       </c>
       <c r="BA105" s="14">
         <f t="shared" si="30"/>
-        <v>1.3675849128757874E-2</v>
+        <v>1.2726689997177035E-2</v>
       </c>
       <c r="BB105" s="27">
         <f t="shared" si="37"/>
-        <v>4.0702781958542253</v>
+        <v>3.7877844595387593</v>
       </c>
       <c r="BC105" s="15">
         <f t="shared" si="38"/>
@@ -44937,11 +44964,11 @@
       </c>
       <c r="BD105" s="26">
         <f t="shared" si="39"/>
-        <v>0.47011693925507492</v>
+        <v>0.4374889260616216</v>
       </c>
       <c r="BE105" s="38"/>
-      <c r="BF105" s="43"/>
-      <c r="BG105" s="43"/>
+      <c r="BF105" s="45"/>
+      <c r="BG105" s="45"/>
       <c r="BH105" s="38"/>
       <c r="BI105" s="38"/>
       <c r="BJ105" s="38"/>
@@ -44961,7 +44988,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="T106" s="45"/>
+      <c r="T106" s="42"/>
       <c r="U106" s="29"/>
       <c r="V106" s="29"/>
       <c r="W106" s="29"/>
@@ -45002,23 +45029,23 @@
       </c>
       <c r="AX106" s="14">
         <f t="shared" si="34"/>
-        <v>24.094221578947334</v>
+        <v>22.307448936019213</v>
       </c>
       <c r="AY106" s="14">
         <f t="shared" si="35"/>
-        <v>0.23636431368947336</v>
+        <v>0.21883607406234851</v>
       </c>
       <c r="AZ106" s="14">
         <f t="shared" si="36"/>
-        <v>7.8788104563157782E-2</v>
+        <v>7.2945358020782836E-2</v>
       </c>
       <c r="BA106" s="14">
         <f t="shared" si="30"/>
-        <v>1.5127316076126295E-2</v>
+        <v>1.4005508739990305E-2</v>
       </c>
       <c r="BB106" s="27">
         <f t="shared" si="37"/>
-        <v>4.710709920068151</v>
+        <v>4.3613743921960939</v>
       </c>
       <c r="BC106" s="15">
         <f t="shared" si="38"/>
@@ -45026,7 +45053,7 @@
       </c>
       <c r="BD106" s="26">
         <f t="shared" si="39"/>
-        <v>0.47914430902937977</v>
+        <v>0.44361205742360715</v>
       </c>
       <c r="BE106" s="38"/>
       <c r="BF106" s="38"/>
@@ -45050,7 +45077,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="T107" s="45"/>
+      <c r="T107" s="42"/>
       <c r="U107" s="29"/>
       <c r="V107" s="29"/>
       <c r="W107" s="29"/>
@@ -45091,23 +45118,23 @@
       </c>
       <c r="AX107" s="14">
         <f t="shared" si="34"/>
-        <v>26.406063684210487</v>
+        <v>24.44739601089335</v>
       </c>
       <c r="AY107" s="14">
         <f t="shared" si="35"/>
-        <v>0.25904348474210492</v>
+        <v>0.23982895486686376</v>
       </c>
       <c r="AZ107" s="14">
         <f t="shared" si="36"/>
-        <v>8.6347828247368308E-2</v>
+        <v>7.9942984955621257E-2</v>
       </c>
       <c r="BA107" s="14">
         <f t="shared" si="30"/>
-        <v>1.6578783023494716E-2</v>
+        <v>1.5349053111479282E-2</v>
       </c>
       <c r="BB107" s="27">
         <f t="shared" si="37"/>
-        <v>5.3911410176316608</v>
+        <v>4.9912535614848661</v>
       </c>
       <c r="BC107" s="15">
         <f t="shared" si="38"/>
@@ -45115,7 +45142,7 @@
       </c>
       <c r="BD107" s="26">
         <f t="shared" si="39"/>
-        <v>0.48662586325619073</v>
+        <v>0.45053042855761138</v>
       </c>
       <c r="BE107" s="38"/>
       <c r="BF107" s="38"/>
@@ -45139,7 +45166,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="T108" s="45"/>
+      <c r="T108" s="42"/>
       <c r="U108" s="29"/>
       <c r="V108" s="29"/>
       <c r="W108" s="29"/>
@@ -45180,23 +45207,23 @@
       </c>
       <c r="AX108" s="14">
         <f t="shared" si="34"/>
-        <v>28.71790578947364</v>
+        <v>26.690953514348955</v>
       </c>
       <c r="AY108" s="14">
         <f t="shared" si="35"/>
-        <v>0.28172265579473638</v>
+        <v>0.26183825397576327</v>
       </c>
       <c r="AZ108" s="14">
         <f t="shared" si="36"/>
-        <v>9.3907551931578792E-2</v>
+        <v>8.7279417991921085E-2</v>
       </c>
       <c r="BA108" s="14">
         <f t="shared" si="30"/>
-        <v>1.8030249970863128E-2</v>
+        <v>1.6757648254448851E-2</v>
       </c>
       <c r="BB108" s="27">
         <f t="shared" si="37"/>
-        <v>6.1115714885447527</v>
+        <v>5.6802077315874611</v>
       </c>
       <c r="BC108" s="15">
         <f t="shared" si="38"/>
@@ -45204,7 +45231,7 @@
       </c>
       <c r="BD108" s="26">
         <f t="shared" si="39"/>
-        <v>0.49289477265611836</v>
+        <v>0.45810553042667329</v>
       </c>
       <c r="BE108" s="38"/>
       <c r="BF108" s="38"/>
@@ -45228,7 +45255,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="T109" s="45"/>
+      <c r="T109" s="42"/>
       <c r="U109" s="29"/>
       <c r="V109" s="29"/>
       <c r="W109" s="29"/>
@@ -45269,23 +45296,23 @@
       </c>
       <c r="AX109" s="14">
         <f t="shared" si="34"/>
-        <v>31.029747894736794</v>
+        <v>29.038620257095001</v>
       </c>
       <c r="AY109" s="14">
         <f t="shared" si="35"/>
-        <v>0.30440182684736794</v>
+        <v>0.28486886472210199</v>
       </c>
       <c r="AZ109" s="14">
         <f t="shared" si="36"/>
-        <v>0.10146727561578932</v>
+        <v>9.4956288240700668E-2</v>
       </c>
       <c r="BA109" s="14">
         <f t="shared" si="30"/>
-        <v>1.9481716918231549E-2</v>
+        <v>1.8231607342214528E-2</v>
       </c>
       <c r="BB109" s="27">
         <f t="shared" si="37"/>
-        <v>6.8720013328074314</v>
+        <v>6.4310363650583708</v>
       </c>
       <c r="BC109" s="15">
         <f t="shared" si="38"/>
@@ -45293,7 +45320,7 @@
       </c>
       <c r="BD109" s="26">
         <f t="shared" si="39"/>
-        <v>0.49819899297278142</v>
+        <v>0.46623038699768515</v>
       </c>
       <c r="BE109" s="38"/>
       <c r="BF109" s="38"/>
@@ -45317,7 +45344,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="T110" s="45"/>
+      <c r="T110" s="42"/>
       <c r="U110" s="29"/>
       <c r="V110" s="29"/>
       <c r="W110" s="29"/>
@@ -45358,23 +45385,23 @@
       </c>
       <c r="AX110" s="14">
         <f t="shared" si="34"/>
-        <v>33.341589999999947</v>
+        <v>31.490877421587534</v>
       </c>
       <c r="AY110" s="14">
         <f t="shared" si="35"/>
-        <v>0.3270809978999995</v>
+        <v>0.30892550750577374</v>
       </c>
       <c r="AZ110" s="14">
         <f t="shared" si="36"/>
-        <v>0.10902699929999983</v>
+        <v>0.10297516916859124</v>
       </c>
       <c r="BA110" s="14">
         <f t="shared" si="30"/>
-        <v>2.0933183865599968E-2</v>
+        <v>1.9771232480369518E-2</v>
       </c>
       <c r="BB110" s="27">
         <f t="shared" si="37"/>
-        <v>7.6724305504196941</v>
+        <v>7.2465521287050301</v>
       </c>
       <c r="BC110" s="15">
         <f t="shared" si="38"/>
@@ -45382,7 +45409,7 @@
       </c>
       <c r="BD110" s="26">
         <f t="shared" si="39"/>
-        <v>0.50272617650709839</v>
+        <v>0.47482103885892785</v>
       </c>
       <c r="BE110" s="38"/>
       <c r="BF110" s="38"/>
@@ -45406,7 +45433,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="T111" s="45"/>
+      <c r="T111" s="42"/>
       <c r="U111" s="29"/>
       <c r="V111" s="29"/>
       <c r="W111" s="29"/>
@@ -45447,23 +45474,23 @@
       </c>
       <c r="AX111" s="14">
         <f t="shared" si="34"/>
-        <v>35.6534321052631</v>
+        <v>34.048189839001843</v>
       </c>
       <c r="AY111" s="14">
         <f t="shared" si="35"/>
-        <v>0.34976016895263101</v>
+        <v>0.33401274232060807</v>
       </c>
       <c r="AZ111" s="14">
         <f t="shared" si="36"/>
-        <v>0.11658672298421034</v>
+        <v>0.11133758077353602</v>
       </c>
       <c r="BA111" s="14">
         <f t="shared" si="30"/>
-        <v>2.2384650812968386E-2</v>
+        <v>2.1376815508518915E-2</v>
       </c>
       <c r="BB111" s="27">
         <f t="shared" si="37"/>
-        <v>8.51285914138154</v>
+        <v>8.1295804359786743</v>
       </c>
       <c r="BC111" s="15">
         <f t="shared" si="38"/>
@@ -45471,7 +45498,7 @@
       </c>
       <c r="BD111" s="26">
         <f t="shared" si="39"/>
-        <v>0.50662047096012808</v>
+        <v>0.48381064467082857</v>
       </c>
       <c r="BE111" s="38"/>
       <c r="BF111" s="38"/>
@@ -45489,7 +45516,7 @@
       <c r="BR111" s="38"/>
     </row>
     <row r="112" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="T112" s="45"/>
+      <c r="T112" s="42"/>
       <c r="U112" s="29"/>
       <c r="V112" s="29"/>
       <c r="W112" s="29"/>
@@ -45530,23 +45557,23 @@
       </c>
       <c r="AX112" s="14">
         <f t="shared" si="34"/>
-        <v>37.965274210526253</v>
+        <v>36.711007129804187</v>
       </c>
       <c r="AY112" s="14">
         <f t="shared" si="35"/>
-        <v>0.37243934000526258</v>
+        <v>0.36013497994337912</v>
       </c>
       <c r="AZ112" s="14">
         <f t="shared" si="36"/>
-        <v>0.12414644666842085</v>
+        <v>0.12004499331445971</v>
       </c>
       <c r="BA112" s="14">
         <f t="shared" si="30"/>
-        <v>2.3836117760336804E-2</v>
+        <v>2.3048638716376264E-2</v>
       </c>
       <c r="BB112" s="27">
         <f t="shared" si="37"/>
-        <v>9.3932871056929699</v>
+        <v>9.0829590218996206</v>
       </c>
       <c r="BC112" s="15">
         <f t="shared" si="38"/>
@@ -45554,7 +45581,7 @@
       </c>
       <c r="BD112" s="26">
         <f t="shared" si="39"/>
-        <v>0.50999409469717194</v>
+        <v>0.49314530807194706</v>
       </c>
       <c r="BE112" s="38"/>
       <c r="BF112" s="38"/>
@@ -45572,7 +45599,7 @@
       <c r="BR112" s="38"/>
     </row>
     <row r="113" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="T113" s="45"/>
+      <c r="T113" s="42"/>
       <c r="U113" s="29"/>
       <c r="V113" s="29"/>
       <c r="W113" s="29"/>
@@ -45613,23 +45640,23 @@
       </c>
       <c r="AX113" s="14">
         <f t="shared" si="34"/>
-        <v>40.277116315789407</v>
+        <v>39.479764726849062</v>
       </c>
       <c r="AY113" s="14">
         <f t="shared" si="35"/>
-        <v>0.39511851105789414</v>
+        <v>0.38729649197038929</v>
       </c>
       <c r="AZ113" s="14">
         <f t="shared" si="36"/>
-        <v>0.13170617035263138</v>
+        <v>0.12909883065679642</v>
       </c>
       <c r="BA113" s="14">
         <f t="shared" si="30"/>
-        <v>2.5287584707705226E-2</v>
+        <v>2.4786975486104916E-2</v>
       </c>
       <c r="BB113" s="27">
         <f t="shared" si="37"/>
-        <v>10.313714443353987</v>
+        <v>10.109537547103312</v>
       </c>
       <c r="BC113" s="15">
         <f t="shared" si="38"/>
@@ -45637,7 +45664,7 @@
       </c>
       <c r="BD113" s="26">
         <f t="shared" si="39"/>
-        <v>0.5129354679525473</v>
+        <v>0.50278106893378005</v>
       </c>
       <c r="BE113" s="38"/>
       <c r="BF113" s="38"/>
@@ -45655,7 +45682,7 @@
       <c r="BR113" s="38"/>
     </row>
     <row r="114" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="T114" s="45"/>
+      <c r="T114" s="42"/>
       <c r="U114" s="29"/>
       <c r="V114" s="29"/>
       <c r="W114" s="29"/>
@@ -45696,23 +45723,23 @@
       </c>
       <c r="AX114" s="14">
         <f t="shared" si="34"/>
-        <v>42.58895842105256</v>
+        <v>42.354884796741267</v>
       </c>
       <c r="AY114" s="14">
         <f t="shared" si="35"/>
-        <v>0.41779768211052559</v>
+        <v>0.41550141985603189</v>
       </c>
       <c r="AZ114" s="14">
         <f t="shared" si="36"/>
-        <v>0.13926589403684186</v>
+        <v>0.13850047328534396</v>
       </c>
       <c r="BA114" s="14">
         <f t="shared" si="30"/>
-        <v>2.6739051655073637E-2</v>
+        <v>2.6592090870786039E-2</v>
       </c>
       <c r="BB114" s="27">
         <f t="shared" si="37"/>
-        <v>11.274141154364585</v>
+        <v>11.212177228059812</v>
       </c>
       <c r="BC114" s="15">
         <f t="shared" si="38"/>
@@ -45720,7 +45747,7 @@
       </c>
       <c r="BD114" s="26">
         <f t="shared" si="39"/>
-        <v>0.51551502456998022</v>
+        <v>0.51268169699725485</v>
       </c>
       <c r="BE114" s="38"/>
       <c r="BF114" s="38"/>
@@ -45753,7 +45780,7 @@
       <c r="K115" s="28"/>
       <c r="L115" s="28"/>
       <c r="M115" s="28"/>
-      <c r="T115" s="45"/>
+      <c r="T115" s="42"/>
       <c r="U115" s="29"/>
       <c r="V115" s="29"/>
       <c r="W115" s="29"/>
@@ -45794,23 +45821,23 @@
       </c>
       <c r="AX115" s="14">
         <f t="shared" si="34"/>
-        <v>44.900800526315713</v>
+        <v>45.336777072633701</v>
       </c>
       <c r="AY115" s="14">
         <f t="shared" si="35"/>
-        <v>0.44047685316315716</v>
+        <v>0.44475378308253666</v>
       </c>
       <c r="AZ115" s="14">
         <f t="shared" si="36"/>
-        <v>0.14682561772105238</v>
+        <v>0.14825126102751221</v>
       </c>
       <c r="BA115" s="14">
         <f t="shared" si="30"/>
-        <v>2.8190518602442056E-2</v>
+        <v>2.8464242117282348E-2</v>
       </c>
       <c r="BB115" s="27">
         <f t="shared" si="37"/>
-        <v>12.274567238724769</v>
+        <v>12.39375049090645</v>
       </c>
       <c r="BC115" s="15">
         <f t="shared" si="38"/>
@@ -45818,7 +45845,7 @@
       </c>
       <c r="BD115" s="26">
         <f t="shared" si="39"/>
-        <v>0.51778943153010959</v>
+        <v>0.5228170489763988</v>
       </c>
       <c r="BE115" s="38"/>
       <c r="BF115" s="38"/>
@@ -45836,7 +45863,7 @@
       <c r="BR115" s="38"/>
     </row>
     <row r="116" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="T116" s="45"/>
+      <c r="T116" s="42"/>
       <c r="U116" s="29"/>
       <c r="V116" s="29"/>
       <c r="W116" s="29"/>
@@ -45877,23 +45904,23 @@
       </c>
       <c r="AX116" s="14">
         <f t="shared" si="34"/>
-        <v>47.212642631578866</v>
+        <v>48.4258396095615</v>
       </c>
       <c r="AY116" s="14">
         <f t="shared" si="35"/>
-        <v>0.46315602421578872</v>
+        <v>0.47505748656979835</v>
       </c>
       <c r="AZ116" s="14">
         <f t="shared" si="36"/>
-        <v>0.15438534140526292</v>
+        <v>0.15835249552326611</v>
       </c>
       <c r="BA116" s="14">
         <f t="shared" si="30"/>
-        <v>2.9641985549810478E-2</v>
+        <v>3.0403679140467092E-2</v>
       </c>
       <c r="BB116" s="27">
         <f t="shared" si="37"/>
-        <v>13.314992696434539</v>
+        <v>13.657140646661128</v>
       </c>
       <c r="BC116" s="15">
         <f t="shared" si="38"/>
@@ -45901,7 +45928,7 @@
       </c>
       <c r="BD116" s="26">
         <f t="shared" si="39"/>
-        <v>0.51980469642329252</v>
+        <v>0.53316182815097335</v>
       </c>
       <c r="BE116" s="38"/>
       <c r="BF116" s="38"/>
@@ -45937,7 +45964,7 @@
       <c r="K117" t="s">
         <v>5</v>
       </c>
-      <c r="T117" s="45"/>
+      <c r="T117" s="42"/>
       <c r="U117" s="29"/>
       <c r="V117" s="29"/>
       <c r="W117" s="29"/>
@@ -45978,23 +46005,23 @@
       </c>
       <c r="AX117" s="14">
         <f t="shared" si="34"/>
-        <v>49.52448473684202</v>
+        <v>51.622459471712638</v>
       </c>
       <c r="AY117" s="14">
         <f t="shared" si="35"/>
-        <v>0.48583519526842023</v>
+        <v>0.50641632741750098</v>
       </c>
       <c r="AZ117" s="14">
         <f t="shared" si="36"/>
-        <v>0.1619450650894734</v>
+        <v>0.16880544247250032</v>
       </c>
       <c r="BA117" s="14">
         <f t="shared" si="30"/>
-        <v>3.1093452497178896E-2</v>
+        <v>3.2410644954720062E-2</v>
       </c>
       <c r="BB117" s="27">
         <f t="shared" si="37"/>
-        <v>14.39541752749389</v>
+        <v>15.005241585857666</v>
       </c>
       <c r="BC117" s="15">
         <f t="shared" si="38"/>
@@ -46002,7 +46029,7 @@
       </c>
       <c r="BD117" s="26">
         <f>BB117/BC117</f>
-        <v>0.5215984859053665</v>
+        <v>0.54369463594086931</v>
       </c>
       <c r="BE117" s="38"/>
       <c r="BF117" s="38"/>
@@ -46056,7 +46083,7 @@
       <c r="O118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T118" s="45"/>
+      <c r="T118" s="42"/>
       <c r="U118" s="29"/>
       <c r="V118" s="29"/>
       <c r="W118" s="29"/>
@@ -46097,23 +46124,23 @@
       </c>
       <c r="AX118" s="14">
         <f t="shared" si="34"/>
-        <v>51.836326842105173</v>
+        <v>54.9270133596481</v>
       </c>
       <c r="AY118" s="14">
         <f t="shared" si="35"/>
-        <v>0.50851436632105185</v>
+        <v>0.53883400105814794</v>
       </c>
       <c r="AZ118" s="14">
         <f t="shared" si="36"/>
-        <v>0.16950478877368394</v>
+        <v>0.17961133368604931</v>
       </c>
       <c r="BA118" s="14">
         <f t="shared" si="30"/>
-        <v>3.2544919444547321E-2</v>
+        <v>3.4485376067721465E-2</v>
       </c>
       <c r="BB118" s="27">
         <f t="shared" si="37"/>
-        <v>15.51584173190283</v>
+        <v>16.440957490879981</v>
       </c>
       <c r="BC118" s="15">
         <f t="shared" si="38"/>
@@ -46121,7 +46148,7 @@
       </c>
       <c r="BD118" s="26">
         <f t="shared" ref="BD118:BD129" si="40">BB118/BC118</f>
-        <v>0.52320187622378578</v>
+        <v>0.55439723830496868</v>
       </c>
       <c r="BE118" s="38"/>
       <c r="BF118" s="38"/>
@@ -46175,7 +46202,7 @@
       <c r="O119" s="1">
         <v>2.7</v>
       </c>
-      <c r="T119" s="45"/>
+      <c r="T119" s="42"/>
       <c r="U119" s="29"/>
       <c r="V119" s="29"/>
       <c r="W119" s="29"/>
@@ -46216,23 +46243,23 @@
       </c>
       <c r="AX119" s="14">
         <f t="shared" si="34"/>
-        <v>54.148168947368326</v>
+        <v>58.339868184332254</v>
       </c>
       <c r="AY119" s="14">
         <f t="shared" si="35"/>
-        <v>0.53119353737368324</v>
+        <v>0.57231410688829942</v>
       </c>
       <c r="AZ119" s="14">
         <f t="shared" si="36"/>
-        <v>0.17706451245789442</v>
+        <v>0.19077136896276647</v>
       </c>
       <c r="BA119" s="14">
         <f t="shared" si="30"/>
-        <v>3.3996386391915726E-2</v>
+        <v>3.6628102840851162E-2</v>
       </c>
       <c r="BB119" s="27">
         <f t="shared" si="37"/>
-        <v>16.676265309661343</v>
+        <v>17.967202564471563</v>
       </c>
       <c r="BC119" s="15">
         <f t="shared" si="38"/>
@@ -46240,7 +46267,7 @@
       </c>
       <c r="BD119" s="26">
         <f t="shared" si="40"/>
-        <v>0.52464068951802367</v>
+        <v>0.56525399225168549</v>
       </c>
       <c r="BE119" s="38"/>
       <c r="BF119" s="38"/>
@@ -46294,7 +46321,7 @@
       <c r="O120" s="1">
         <v>2.5</v>
       </c>
-      <c r="T120" s="45"/>
+      <c r="T120" s="42"/>
       <c r="U120" s="29"/>
       <c r="V120" s="29"/>
       <c r="W120" s="29"/>
@@ -46335,23 +46362,23 @@
       </c>
       <c r="AX120" s="14">
         <f t="shared" si="34"/>
-        <v>56.460011052631479</v>
+        <v>61.861381593871272</v>
       </c>
       <c r="AY120" s="14">
         <f t="shared" si="35"/>
-        <v>0.55387270842631486</v>
+        <v>0.60686015343587729</v>
       </c>
       <c r="AZ120" s="14">
         <f t="shared" si="36"/>
-        <v>0.18462423614210496</v>
+        <v>0.20228671781195909</v>
       </c>
       <c r="BA120" s="14">
         <f t="shared" si="30"/>
-        <v>3.5447853339284151E-2</v>
+        <v>3.8839049819896145E-2</v>
       </c>
       <c r="BB120" s="27">
         <f t="shared" si="37"/>
-        <v>17.876688260769455</v>
+        <v>19.586900773066635</v>
       </c>
       <c r="BC120" s="15">
         <f t="shared" si="38"/>
@@ -46359,7 +46386,7 @@
       </c>
       <c r="BD120" s="26">
         <f t="shared" si="40"/>
-        <v>0.52593652430247328</v>
+        <v>0.57625139310902174</v>
       </c>
       <c r="BE120" s="38"/>
       <c r="BF120" s="38"/>
@@ -46413,7 +46440,7 @@
       <c r="O121" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="T121" s="45"/>
+      <c r="T121" s="42"/>
       <c r="U121" s="29"/>
       <c r="V121" s="29"/>
       <c r="W121" s="29"/>
@@ -46454,23 +46481,23 @@
       </c>
       <c r="AX121" s="14">
         <f t="shared" si="34"/>
-        <v>58.771853157894633</v>
+        <v>65.491902458068864</v>
       </c>
       <c r="AY121" s="14">
         <f t="shared" si="35"/>
-        <v>0.57655187947894637</v>
+        <v>0.6424755631136555</v>
       </c>
       <c r="AZ121" s="14">
         <f t="shared" si="36"/>
-        <v>0.19218395982631545</v>
+        <v>0.21415852103788516</v>
       </c>
       <c r="BA121" s="14">
         <f t="shared" si="30"/>
-        <v>3.6899320286652569E-2</v>
+        <v>4.1118436039273953E-2</v>
       </c>
       <c r="BB121" s="27">
         <f t="shared" si="37"/>
-        <v>19.117110585227145</v>
+        <v>21.302985603741043</v>
       </c>
       <c r="BC121" s="15">
         <f t="shared" si="38"/>
@@ -46478,7 +46505,7 @@
       </c>
       <c r="BD121" s="26">
         <f t="shared" si="40"/>
-        <v>0.52710755761524264</v>
+        <v>0.58737771387784199</v>
       </c>
       <c r="BE121" s="38"/>
       <c r="BF121" s="38"/>
@@ -46514,7 +46541,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="T122" s="45"/>
+      <c r="T122" s="42"/>
       <c r="U122" s="29"/>
       <c r="V122" s="29"/>
       <c r="W122" s="29"/>
@@ -46555,23 +46582,23 @@
       </c>
       <c r="AX122" s="14">
         <f t="shared" si="34"/>
-        <v>61.083695263157786</v>
+        <v>69.231771315218936</v>
       </c>
       <c r="AY122" s="14">
         <f t="shared" si="35"/>
-        <v>0.59923105053157788</v>
+        <v>0.67916367660229771</v>
       </c>
       <c r="AZ122" s="14">
         <f t="shared" si="36"/>
-        <v>0.19974368351052596</v>
+        <v>0.22638789220076591</v>
       </c>
       <c r="BA122" s="14">
         <f t="shared" si="30"/>
-        <v>3.8350787234020987E-2</v>
+        <v>4.3466475302547054E-2</v>
       </c>
       <c r="BB122" s="27">
         <f t="shared" si="37"/>
-        <v>20.397532283034419</v>
+        <v>23.118399833704352</v>
       </c>
       <c r="BC122" s="15">
         <f t="shared" si="38"/>
@@ -46579,7 +46606,7 @@
       </c>
       <c r="BD122" s="26">
         <f t="shared" si="40"/>
-        <v>0.52816917489796456</v>
+        <v>0.59862271551764379</v>
       </c>
       <c r="BE122" s="38"/>
       <c r="BF122" s="38"/>
@@ -46615,7 +46642,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="T123" s="45"/>
+      <c r="T123" s="42"/>
       <c r="U123" s="29"/>
       <c r="V123" s="29"/>
       <c r="W123" s="29"/>
@@ -46656,23 +46683,23 @@
       </c>
       <c r="AX123" s="14">
         <f t="shared" si="34"/>
-        <v>63.395537368420939</v>
+        <v>73.081320785002077</v>
       </c>
       <c r="AY123" s="14">
         <f t="shared" si="35"/>
-        <v>0.6219102215842095</v>
+        <v>0.71692775690087052</v>
       </c>
       <c r="AZ123" s="14">
         <f t="shared" si="36"/>
-        <v>0.2073034071947365</v>
+        <v>0.23897591896695683</v>
       </c>
       <c r="BA123" s="14">
         <f t="shared" si="30"/>
-        <v>3.9802254181389406E-2</v>
+        <v>4.5883376441655715E-2</v>
       </c>
       <c r="BB123" s="27">
         <f t="shared" si="37"/>
-        <v>21.71795335419128</v>
+        <v>25.036095311370943</v>
       </c>
       <c r="BC123" s="15">
         <f t="shared" si="38"/>
@@ -46680,7 +46707,7 @@
       </c>
       <c r="BD123" s="26">
         <f t="shared" si="40"/>
-        <v>0.52913446863928704</v>
+        <v>0.60997741238947001</v>
       </c>
       <c r="BE123" s="38"/>
       <c r="BF123" s="38"/>
@@ -46716,7 +46743,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
-      <c r="T124" s="45"/>
+      <c r="T124" s="42"/>
       <c r="U124" s="29"/>
       <c r="V124" s="29"/>
       <c r="W124" s="29"/>
@@ -46757,23 +46784,23 @@
       </c>
       <c r="AX124" s="14">
         <f t="shared" si="34"/>
-        <v>65.707379473684085</v>
+        <v>77.040875950854982</v>
       </c>
       <c r="AY124" s="14">
         <f t="shared" si="35"/>
-        <v>0.6445893926368409</v>
+        <v>0.75577099307788742</v>
       </c>
       <c r="AZ124" s="14">
         <f t="shared" si="36"/>
-        <v>0.21486313087894696</v>
+        <v>0.25192366435929581</v>
       </c>
       <c r="BA124" s="14">
         <f t="shared" si="30"/>
-        <v>4.1253721128757817E-2</v>
+        <v>4.8369343556984794E-2</v>
       </c>
       <c r="BB124" s="27">
         <f t="shared" si="37"/>
-        <v>23.078373798697715</v>
+        <v>27.059032748140808</v>
       </c>
       <c r="BC124" s="15">
         <f t="shared" si="38"/>
@@ -46781,7 +46808,7 @@
       </c>
       <c r="BD124" s="26">
         <f t="shared" si="40"/>
-        <v>0.53001463613330735</v>
+        <v>0.62143388096670749</v>
       </c>
       <c r="BE124" s="38"/>
       <c r="BF124" s="38"/>
@@ -46821,7 +46848,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
-      <c r="T125" s="45"/>
+      <c r="T125" s="42"/>
       <c r="U125" s="29"/>
       <c r="V125" s="29"/>
       <c r="W125" s="29"/>
@@ -46862,23 +46889,23 @@
       </c>
       <c r="AX125" s="14">
         <f t="shared" si="34"/>
-        <v>68.019221578947253</v>
+        <v>81.110754714779773</v>
       </c>
       <c r="AY125" s="14">
         <f t="shared" si="35"/>
-        <v>0.66726856368947252</v>
+        <v>0.79569650375198964</v>
       </c>
       <c r="AZ125" s="14">
         <f t="shared" si="36"/>
-        <v>0.2224228545631575</v>
+        <v>0.2652321679173299</v>
       </c>
       <c r="BA125" s="14">
         <f t="shared" si="30"/>
-        <v>4.2705188076126242E-2</v>
+        <v>5.0924576240127334E-2</v>
       </c>
       <c r="BB125" s="27">
         <f t="shared" si="37"/>
-        <v>24.478793616553748</v>
+        <v>29.190181520109334</v>
       </c>
       <c r="BC125" s="15">
         <f t="shared" si="38"/>
@@ -46886,7 +46913,7 @@
       </c>
       <c r="BD125" s="26">
         <f t="shared" si="40"/>
-        <v>0.53081929902677616</v>
+        <v>0.63298510276627828</v>
       </c>
       <c r="BE125" s="38"/>
       <c r="BF125" s="38"/>
@@ -46916,7 +46943,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
-      <c r="T126" s="45"/>
+      <c r="T126" s="42"/>
       <c r="U126" s="29"/>
       <c r="V126" s="29"/>
       <c r="W126" s="29"/>
@@ -46957,23 +46984,23 @@
       </c>
       <c r="AX126" s="14">
         <f t="shared" si="34"/>
-        <v>70.331063684210392</v>
+        <v>85.291268127205981</v>
       </c>
       <c r="AY126" s="14">
         <f t="shared" si="35"/>
-        <v>0.68994773474210402</v>
+        <v>0.83670734032789074</v>
       </c>
       <c r="AZ126" s="14">
         <f t="shared" si="36"/>
-        <v>0.22998257824736801</v>
+        <v>0.2789024467759636</v>
       </c>
       <c r="BA126" s="14">
         <f t="shared" si="30"/>
-        <v>4.4156655023494661E-2</v>
+        <v>5.3549269780985016E-2</v>
       </c>
       <c r="BB126" s="27">
         <f t="shared" si="37"/>
-        <v>25.919212807759358</v>
+        <v>31.432519478999748</v>
       </c>
       <c r="BC126" s="15">
         <f t="shared" si="38"/>
@@ -46981,7 +47008,7 @@
       </c>
       <c r="BD126" s="26">
         <f t="shared" si="40"/>
-        <v>0.53155676175111899</v>
+        <v>0.64462483455262187</v>
       </c>
       <c r="BE126" s="38"/>
       <c r="BF126" s="38"/>
@@ -47011,7 +47038,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
-      <c r="T127" s="45"/>
+      <c r="T127" s="42"/>
       <c r="U127" s="29"/>
       <c r="V127" s="29"/>
       <c r="W127" s="29"/>
@@ -47052,23 +47079,23 @@
       </c>
       <c r="AX127" s="14">
         <f t="shared" si="34"/>
-        <v>72.642905789473559</v>
+        <v>89.58272069420272</v>
       </c>
       <c r="AY127" s="14">
         <f t="shared" si="35"/>
-        <v>0.71262690579473564</v>
+        <v>0.87880649001012878</v>
       </c>
       <c r="AZ127" s="14">
         <f t="shared" si="36"/>
-        <v>0.23754230193157855</v>
+        <v>0.29293549667004293</v>
       </c>
       <c r="BA127" s="14">
         <f t="shared" si="30"/>
-        <v>4.5608121970863079E-2</v>
+        <v>5.6243615360648244E-2</v>
       </c>
       <c r="BB127" s="27">
         <f t="shared" si="37"/>
-        <v>27.399631372314555</v>
+        <v>33.789032771674279</v>
       </c>
       <c r="BC127" s="15">
         <f t="shared" si="38"/>
@@ -47076,13 +47103,13 @@
       </c>
       <c r="BD127" s="26">
         <f t="shared" si="40"/>
-        <v>0.53223422184213076</v>
+        <v>0.65634750043395051</v>
       </c>
       <c r="BE127" s="38"/>
-      <c r="BF127" s="43" t="s">
+      <c r="BF127" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="BG127" s="43"/>
+      <c r="BG127" s="45"/>
       <c r="BH127" s="38"/>
       <c r="BI127" s="38"/>
       <c r="BJ127" s="38"/>
@@ -47108,7 +47135,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
-      <c r="T128" s="45"/>
+      <c r="T128" s="42"/>
       <c r="U128" s="29"/>
       <c r="V128" s="29"/>
       <c r="W128" s="29"/>
@@ -47149,23 +47176,23 @@
       </c>
       <c r="AX128" s="14">
         <f t="shared" si="34"/>
-        <v>74.954747894736698</v>
+        <v>93.98541066409976</v>
       </c>
       <c r="AY128" s="14">
         <f t="shared" si="35"/>
-        <v>0.73530607684736704</v>
+        <v>0.92199687861481872</v>
       </c>
       <c r="AZ128" s="14">
         <f t="shared" si="36"/>
-        <v>0.245102025615789</v>
+        <v>0.30733229287160624</v>
       </c>
       <c r="BA128" s="14">
         <f t="shared" si="30"/>
-        <v>4.705958891823149E-2</v>
+        <v>5.9007800231348398E-2</v>
       </c>
       <c r="BB128" s="27">
         <f t="shared" si="37"/>
-        <v>28.92004931021933</v>
+        <v>36.262715667646724</v>
       </c>
       <c r="BC128" s="15">
         <f t="shared" si="38"/>
@@ -47173,11 +47200,11 @@
       </c>
       <c r="BD128" s="26">
         <f t="shared" si="40"/>
-        <v>0.53285794211798998</v>
+        <v>0.66814810165085026</v>
       </c>
       <c r="BE128" s="38"/>
-      <c r="BF128" s="43"/>
-      <c r="BG128" s="43"/>
+      <c r="BF128" s="45"/>
+      <c r="BG128" s="45"/>
       <c r="BH128" s="38"/>
       <c r="BI128" s="38"/>
       <c r="BJ128" s="38"/>
@@ -47203,7 +47230,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
-      <c r="T129" s="45"/>
+      <c r="T129" s="42"/>
       <c r="U129" s="29"/>
       <c r="V129" s="29"/>
       <c r="W129" s="29"/>
@@ -47242,24 +47269,24 @@
         <v>6.0989490000000011</v>
       </c>
       <c r="AX129" s="14">
-        <f>0.01757*AU129 - 28.15341</f>
-        <v>77.266589999999979</v>
+        <f t="shared" si="34"/>
+        <v>98.499630295323357</v>
       </c>
       <c r="AY129" s="14">
         <f t="shared" si="35"/>
-        <v>0.75798524789999988</v>
+        <v>0.96628137319712226</v>
       </c>
       <c r="AZ129" s="14">
         <f>(AY129/4*256)/(3/4*256)</f>
-        <v>0.25266174929999996</v>
+        <v>0.3220937910657074</v>
       </c>
       <c r="BA129" s="14">
         <f>AZ129*3/4*256/1000</f>
-        <v>4.8511055865599992E-2</v>
+        <v>6.1842007884615822E-2</v>
       </c>
       <c r="BB129" s="27">
         <f>BA129*AU129*0.10472</f>
-        <v>30.480466621473788</v>
+        <v>38.856570394061812</v>
       </c>
       <c r="BC129" s="15">
         <f t="shared" si="38"/>
@@ -47267,7 +47294,7 @@
       </c>
       <c r="BD129" s="26">
         <f t="shared" si="40"/>
-        <v>0.5334333924200938</v>
+        <v>0.68002214075397138</v>
       </c>
       <c r="BE129" s="38"/>
       <c r="BF129" s="38"/>
@@ -47297,7 +47324,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
-      <c r="T130" s="45"/>
+      <c r="T130" s="42"/>
       <c r="U130" s="29"/>
       <c r="V130" s="29"/>
       <c r="W130" s="29"/>
@@ -47362,7 +47389,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
-      <c r="T131" s="45"/>
+      <c r="T131" s="42"/>
       <c r="U131" s="29"/>
       <c r="V131" s="29"/>
       <c r="W131" s="29"/>
@@ -47570,7 +47597,10 @@
       <c r="BQ137" s="38"/>
       <c r="BR137" s="38"/>
     </row>
-    <row r="138" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:70" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="AC138" t="s">
+        <v>69</v>
+      </c>
       <c r="BE138" s="38"/>
       <c r="BF138" s="38"/>
       <c r="BG138" s="38"/>
@@ -47925,10 +47955,10 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="BE152" s="38"/>
-      <c r="BF152" s="43" t="s">
+      <c r="BF152" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="BG152" s="43"/>
+      <c r="BG152" s="45"/>
       <c r="BH152" s="38"/>
       <c r="BI152" s="38"/>
       <c r="BJ152" s="38"/>
@@ -47949,8 +47979,8 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="BE153" s="38"/>
-      <c r="BF153" s="43"/>
-      <c r="BG153" s="43"/>
+      <c r="BF153" s="45"/>
+      <c r="BG153" s="45"/>
       <c r="BH153" s="38"/>
       <c r="BI153" s="38"/>
       <c r="BJ153" s="38"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D0EEE3-13C6-419A-8660-67D100E18C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AA7A37-225B-4299-8B79-1F51625770DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="71">
   <si>
     <t>Volt</t>
   </si>
@@ -279,6 +279,9 @@
       </rPr>
       <t>2,1157</t>
     </r>
+  </si>
+  <si>
+    <t>M = Fstang*64/1000</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -605,6 +608,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3772,7 +3778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$BA$91:$BA$129</c:f>
+              <c:f>'Ark1'!$AZ$91:$AZ$129</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="39"/>
@@ -3804,7 +3810,7 @@
                   <c:v>6.393009899200588E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2911216782606423E-3</c:v>
+                  <c:v>7.2911216782606415E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.2516883177992089E-3</c:v>
@@ -3825,7 +3831,7 @@
                   <c:v>1.4005508739990305E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5349053111479282E-2</c:v>
+                  <c:v>1.534905311147928E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.6757648254448851E-2</c:v>
@@ -3846,13 +3852,13 @@
                   <c:v>2.4786975486104916E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6592090870786039E-2</c:v>
+                  <c:v>2.6592090870786043E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.8464242117282348E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0403679140467092E-2</c:v>
+                  <c:v>3.0403679140467096E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.2410644954720062E-2</c:v>
@@ -3882,7 +3888,7 @@
                   <c:v>5.0924576240127334E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.3549269780985016E-2</c:v>
+                  <c:v>5.3549269780985009E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5.6243615360648244E-2</c:v>
@@ -6976,7 +6982,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$BB$91:$BB$129</c:f>
+              <c:f>'Ark1'!$BA$91:$BA$129</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="39"/>
@@ -7029,7 +7035,7 @@
                   <c:v>4.3613743921960939</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9912535614848661</c:v>
+                  <c:v>4.9912535614848652</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5.6802077315874611</c:v>
@@ -7050,7 +7056,7 @@
                   <c:v>10.109537547103312</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.212177228059812</c:v>
+                  <c:v>11.212177228059813</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>12.39375049090645</c:v>
@@ -7267,7 +7273,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$BC$91:$BC$129</c:f>
+              <c:f>'Ark1'!$BB$91:$BB$129</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8675,7 +8681,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$BD$96:$BD$129</c:f>
+              <c:f>'Ark1'!$BC$96:$BC$129</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="34"/>
@@ -8713,7 +8719,7 @@
                   <c:v>0.44361205742360715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45053042855761138</c:v>
+                  <c:v>0.45053042855761133</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.45810553042667329</c:v>
@@ -8734,7 +8740,7 @@
                   <c:v>0.50278106893378005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51268169699725485</c:v>
+                  <c:v>0.51268169699725497</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.5228170489763988</c:v>
@@ -33024,8 +33030,8 @@
   </sheetPr>
   <dimension ref="A1:BZ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AX105" sqref="AX105"/>
+    <sheetView tabSelected="1" topLeftCell="AW99" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BF82" sqref="BF82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43293,7 +43299,7 @@
       <c r="BA88" s="12"/>
       <c r="BB88" s="12"/>
       <c r="BC88" s="12"/>
-      <c r="BD88" s="12"/>
+      <c r="BD88" s="42"/>
       <c r="BE88" s="38"/>
       <c r="BF88" s="38"/>
       <c r="BG88" s="38"/>
@@ -43309,7 +43315,7 @@
       <c r="BQ88" s="38"/>
       <c r="BR88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:78" ht="28.5" x14ac:dyDescent="0.45">
       <c r="T89" s="29"/>
       <c r="U89" s="11" t="s">
         <v>1</v>
@@ -43359,24 +43365,22 @@
       <c r="AX89" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AY89" s="23" t="s">
+      <c r="AY89" s="46" t="s">
         <v>38</v>
       </c>
       <c r="AZ89" s="23" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="BA89" s="23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="BB89" s="23" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="BC89" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD89" s="23" t="s">
         <v>42</v>
       </c>
+      <c r="BD89" s="42"/>
       <c r="BE89" s="38"/>
       <c r="BF89" s="38"/>
       <c r="BG89" s="38"/>
@@ -43392,7 +43396,7 @@
       <c r="BQ89" s="38"/>
       <c r="BR89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:78" ht="42.75" x14ac:dyDescent="0.45">
       <c r="T90" s="29"/>
       <c r="U90" s="15">
         <v>35.5</v>
@@ -43448,20 +43452,18 @@
         <v>22</v>
       </c>
       <c r="AZ90" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA90" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB90" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC90" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD90" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="BD90" s="42"/>
       <c r="BE90" s="38"/>
       <c r="BF90" s="38"/>
       <c r="BG90" s="38"/>
@@ -43537,25 +43539,22 @@
         <v>2.181569269789169E-2</v>
       </c>
       <c r="AZ91" s="14">
-        <f>(AY91/4*256)/(3/4*256)</f>
-        <v>7.2718975659638967E-3</v>
-      </c>
-      <c r="BA91" s="14">
-        <f t="shared" ref="BA91:BA128" si="30">AZ91*3/4*256/1000</f>
+        <f>AY91*64/1000</f>
         <v>1.3962043326650681E-3</v>
       </c>
-      <c r="BB91" s="27">
-        <f>BA91*AU91*0.10472</f>
+      <c r="BA91" s="27">
+        <f>AZ91*AU91*0.10472</f>
         <v>0.14621051771668592</v>
       </c>
-      <c r="BC91" s="15">
+      <c r="BB91" s="15">
         <f>AV91*AW91</f>
         <v>-4.1105152187699896E-2</v>
       </c>
-      <c r="BD91" s="26">
-        <f>BB91/BC91</f>
+      <c r="BC91" s="26">
+        <f>BA91/BB91</f>
         <v>-3.556987626491193</v>
       </c>
+      <c r="BD91" s="42"/>
       <c r="BE91" s="38"/>
       <c r="BF91" s="38"/>
       <c r="BG91" s="38"/>
@@ -43621,45 +43620,42 @@
       <c r="AS92" s="29"/>
       <c r="AT92" s="29"/>
       <c r="AU92" s="16">
-        <f t="shared" ref="AU92:AU127" si="31">AU91+($AU$129-$AU$91)/(ROW($AU$129)-ROW($AU$91))</f>
+        <f t="shared" ref="AU92:AU127" si="30">AU91+($AU$129-$AU$91)/(ROW($AU$129)-ROW($AU$91))</f>
         <v>1131.578947368421</v>
       </c>
       <c r="AV92" s="15">
-        <f t="shared" ref="AV92:AV128" si="32">0.0017271*AU92 - 0.9937473</f>
+        <f t="shared" ref="AV92:AV128" si="31">0.0017271*AU92 - 0.9937473</f>
         <v>0.96060270000000003</v>
       </c>
       <c r="AW92" s="15">
-        <f t="shared" ref="AW92:AW129" si="33">0.001231*AU92 - 1.287051</f>
+        <f t="shared" ref="AW92:AW129" si="32">0.001231*AU92 - 1.287051</f>
         <v>0.10592268421052653</v>
       </c>
       <c r="AX92" s="14">
-        <f t="shared" ref="AX92:AX129" si="34">0.000001*AU92^2.1157</f>
+        <f t="shared" ref="AX92:AX129" si="33">0.000001*AU92^2.1157</f>
         <v>2.8885577595399616</v>
       </c>
       <c r="AY92" s="14">
-        <f t="shared" ref="AY92:AY129" si="35">9.81*AX92/1000</f>
+        <f t="shared" ref="AY92:AY129" si="34">9.81*AX92/1000</f>
         <v>2.8336751621087026E-2</v>
       </c>
       <c r="AZ92" s="14">
-        <f t="shared" ref="AZ92:AZ128" si="36">(AY92/4*256)/(3/4*256)</f>
-        <v>9.4455838736956753E-3</v>
-      </c>
-      <c r="BA92" s="14">
-        <f t="shared" si="30"/>
+        <f>AY92*64/1000</f>
         <v>1.8135521037495697E-3</v>
       </c>
-      <c r="BB92" s="27">
-        <f t="shared" ref="BB92:BB128" si="37">BA92*AU92*0.10472</f>
+      <c r="BA92" s="27">
+        <f>AZ92*AU92*0.10472</f>
         <v>0.21490401529210951</v>
       </c>
-      <c r="BC92" s="15">
-        <f t="shared" ref="BC92:BC129" si="38">AV92*AW92</f>
+      <c r="BB92" s="15">
+        <f>AV92*AW92</f>
         <v>0.10174961644387916</v>
       </c>
-      <c r="BD92" s="26">
-        <f t="shared" ref="BD92:BD116" si="39">BB92/BC92</f>
+      <c r="BC92" s="26">
+        <f t="shared" ref="BC92:BC116" si="35">BA92/BB92</f>
         <v>2.1120867360776892</v>
       </c>
+      <c r="BD92" s="42"/>
       <c r="BE92" s="38"/>
       <c r="BF92" s="38"/>
       <c r="BG92" s="38"/>
@@ -43734,45 +43730,42 @@
       <c r="AS93" s="29"/>
       <c r="AT93" s="29"/>
       <c r="AU93" s="16">
+        <f t="shared" si="30"/>
+        <v>1263.1578947368421</v>
+      </c>
+      <c r="AV93" s="15">
         <f t="shared" si="31"/>
-        <v>1263.1578947368421</v>
-      </c>
-      <c r="AV93" s="15">
+        <v>1.1878527000000001</v>
+      </c>
+      <c r="AW93" s="15">
         <f t="shared" si="32"/>
-        <v>1.1878527000000001</v>
-      </c>
-      <c r="AW93" s="15">
+        <v>0.26789636842105269</v>
+      </c>
+      <c r="AX93" s="14">
         <f t="shared" si="33"/>
-        <v>0.26789636842105269</v>
-      </c>
-      <c r="AX93" s="14">
+        <v>3.64547337394339</v>
+      </c>
+      <c r="AY93" s="14">
         <f t="shared" si="34"/>
-        <v>3.64547337394339</v>
-      </c>
-      <c r="AY93" s="14">
+        <v>3.5762093798384652E-2</v>
+      </c>
+      <c r="AZ93" s="14">
+        <f>AY93*64/1000</f>
+        <v>2.2887740030966175E-3</v>
+      </c>
+      <c r="BA93" s="27">
+        <f>AZ93*AU93*0.10472</f>
+        <v>0.3027542066580351</v>
+      </c>
+      <c r="BB93" s="15">
+        <f>AV93*AW93</f>
+        <v>0.31822142454914221</v>
+      </c>
+      <c r="BC93" s="26">
         <f t="shared" si="35"/>
-        <v>3.5762093798384652E-2</v>
-      </c>
-      <c r="AZ93" s="14">
-        <f t="shared" si="36"/>
-        <v>1.1920697932794884E-2</v>
-      </c>
-      <c r="BA93" s="14">
-        <f t="shared" si="30"/>
-        <v>2.2887740030966175E-3</v>
-      </c>
-      <c r="BB93" s="27">
-        <f t="shared" si="37"/>
-        <v>0.3027542066580351</v>
-      </c>
-      <c r="BC93" s="15">
-        <f t="shared" si="38"/>
-        <v>0.31822142454914221</v>
-      </c>
-      <c r="BD93" s="26">
-        <f t="shared" si="39"/>
         <v>0.95139479400853932</v>
       </c>
+      <c r="BD93" s="42"/>
       <c r="BE93" s="38"/>
       <c r="BF93" s="38"/>
       <c r="BG93" s="38"/>
@@ -43847,45 +43840,42 @@
       <c r="AS94" s="29"/>
       <c r="AT94" s="29"/>
       <c r="AU94" s="16">
+        <f t="shared" si="30"/>
+        <v>1394.7368421052631</v>
+      </c>
+      <c r="AV94" s="15">
         <f t="shared" si="31"/>
-        <v>1394.7368421052631</v>
-      </c>
-      <c r="AV94" s="15">
+        <v>1.4151027000000003</v>
+      </c>
+      <c r="AW94" s="15">
         <f t="shared" si="32"/>
-        <v>1.4151027000000003</v>
-      </c>
-      <c r="AW94" s="15">
+        <v>0.42987005263157907</v>
+      </c>
+      <c r="AX94" s="14">
         <f t="shared" si="33"/>
-        <v>0.42987005263157907</v>
-      </c>
-      <c r="AX94" s="14">
+        <v>4.4957515424209307</v>
+      </c>
+      <c r="AY94" s="14">
         <f t="shared" si="34"/>
-        <v>4.4957515424209307</v>
-      </c>
-      <c r="AY94" s="14">
+        <v>4.4103322631149335E-2</v>
+      </c>
+      <c r="AZ94" s="14">
+        <f>AY94*64/1000</f>
+        <v>2.8226126483935575E-3</v>
+      </c>
+      <c r="BA94" s="27">
+        <f>AZ94*AU94*0.10472</f>
+        <v>0.41226188991073648</v>
+      </c>
+      <c r="BB94" s="15">
+        <f>AV94*AW94</f>
+        <v>0.60831027212808975</v>
+      </c>
+      <c r="BC94" s="26">
         <f t="shared" si="35"/>
-        <v>4.4103322631149335E-2</v>
-      </c>
-      <c r="AZ94" s="14">
-        <f t="shared" si="36"/>
-        <v>1.4701107543716445E-2</v>
-      </c>
-      <c r="BA94" s="14">
-        <f t="shared" si="30"/>
-        <v>2.8226126483935575E-3</v>
-      </c>
-      <c r="BB94" s="27">
-        <f t="shared" si="37"/>
-        <v>0.41226188991073648</v>
-      </c>
-      <c r="BC94" s="15">
-        <f t="shared" si="38"/>
-        <v>0.60831027212808975</v>
-      </c>
-      <c r="BD94" s="26">
-        <f t="shared" si="39"/>
         <v>0.67771646937424712</v>
       </c>
+      <c r="BD94" s="42"/>
       <c r="BE94" s="38"/>
       <c r="BF94" s="38"/>
       <c r="BG94" s="38"/>
@@ -43960,45 +43950,42 @@
       <c r="AS95" s="29"/>
       <c r="AT95" s="29"/>
       <c r="AU95" s="16">
+        <f t="shared" si="30"/>
+        <v>1526.3157894736842</v>
+      </c>
+      <c r="AV95" s="15">
         <f t="shared" si="31"/>
-        <v>1526.3157894736842</v>
-      </c>
-      <c r="AV95" s="15">
+        <v>1.6423527</v>
+      </c>
+      <c r="AW95" s="15">
         <f t="shared" si="32"/>
-        <v>1.6423527</v>
-      </c>
-      <c r="AW95" s="15">
+        <v>0.59184373684210545</v>
+      </c>
+      <c r="AX95" s="14">
         <f t="shared" si="33"/>
-        <v>0.59184373684210545</v>
-      </c>
-      <c r="AX95" s="14">
+        <v>5.440470385530829</v>
+      </c>
+      <c r="AY95" s="14">
         <f t="shared" si="34"/>
-        <v>5.440470385530829</v>
-      </c>
-      <c r="AY95" s="14">
+        <v>5.337101448205743E-2</v>
+      </c>
+      <c r="AZ95" s="14">
+        <f>AY95*64/1000</f>
+        <v>3.4157449268516753E-3</v>
+      </c>
+      <c r="BA95" s="27">
+        <f>AZ95*AU95*0.10472</f>
+        <v>0.54595828702406923</v>
+      </c>
+      <c r="BB95" s="15">
+        <f>AV95*AW95</f>
+        <v>0.97201615918072137</v>
+      </c>
+      <c r="BC95" s="26">
         <f t="shared" si="35"/>
-        <v>5.337101448205743E-2</v>
-      </c>
-      <c r="AZ95" s="14">
-        <f t="shared" si="36"/>
-        <v>1.7790338160685811E-2</v>
-      </c>
-      <c r="BA95" s="14">
-        <f t="shared" si="30"/>
-        <v>3.4157449268516753E-3</v>
-      </c>
-      <c r="BB95" s="27">
-        <f t="shared" si="37"/>
-        <v>0.54595828702406923</v>
-      </c>
-      <c r="BC95" s="15">
-        <f t="shared" si="38"/>
-        <v>0.97201615918072137</v>
-      </c>
-      <c r="BD95" s="26">
-        <f t="shared" si="39"/>
         <v>0.5616761427960606</v>
       </c>
+      <c r="BD95" s="42"/>
       <c r="BE95" s="38"/>
       <c r="BF95" s="38"/>
       <c r="BG95" s="38"/>
@@ -44073,45 +44060,42 @@
       <c r="AS96" s="29"/>
       <c r="AT96" s="29"/>
       <c r="AU96" s="16">
+        <f t="shared" si="30"/>
+        <v>1657.8947368421052</v>
+      </c>
+      <c r="AV96" s="15">
         <f t="shared" si="31"/>
-        <v>1657.8947368421052</v>
-      </c>
-      <c r="AV96" s="15">
+        <v>1.8696027000000002</v>
+      </c>
+      <c r="AW96" s="15">
         <f t="shared" si="32"/>
-        <v>1.8696027000000002</v>
-      </c>
-      <c r="AW96" s="15">
+        <v>0.75381742105263161</v>
+      </c>
+      <c r="AX96" s="14">
         <f t="shared" si="33"/>
-        <v>0.75381742105263161</v>
-      </c>
-      <c r="AX96" s="14">
+        <v>6.4806213186254897</v>
+      </c>
+      <c r="AY96" s="14">
         <f t="shared" si="34"/>
-        <v>6.4806213186254897</v>
-      </c>
-      <c r="AY96" s="14">
+        <v>6.3574895135716056E-2</v>
+      </c>
+      <c r="AZ96" s="14">
+        <f>AY96*64/1000</f>
+        <v>4.0687932886858272E-3</v>
+      </c>
+      <c r="BA96" s="27">
+        <f>AZ96*AU96*0.10472</f>
+        <v>0.70640247608011386</v>
+      </c>
+      <c r="BB96" s="15">
+        <f>AV96*AW96</f>
+        <v>1.4093390857070369</v>
+      </c>
+      <c r="BC96" s="26">
         <f t="shared" si="35"/>
-        <v>6.3574895135716056E-2</v>
-      </c>
-      <c r="AZ96" s="14">
-        <f t="shared" si="36"/>
-        <v>2.1191631711905353E-2</v>
-      </c>
-      <c r="BA96" s="14">
-        <f t="shared" si="30"/>
-        <v>4.0687932886858272E-3</v>
-      </c>
-      <c r="BB96" s="27">
-        <f t="shared" si="37"/>
-        <v>0.70640247608011386</v>
-      </c>
-      <c r="BC96" s="15">
-        <f t="shared" si="38"/>
-        <v>1.4093390857070369</v>
-      </c>
-      <c r="BD96" s="26">
-        <f t="shared" si="39"/>
         <v>0.50122960701521024</v>
       </c>
+      <c r="BD96" s="42"/>
       <c r="BE96" s="38"/>
       <c r="BF96" s="38"/>
       <c r="BG96" s="38"/>
@@ -44174,45 +44158,42 @@
       <c r="AS97" s="29"/>
       <c r="AT97" s="29"/>
       <c r="AU97" s="16">
+        <f t="shared" si="30"/>
+        <v>1789.4736842105262</v>
+      </c>
+      <c r="AV97" s="15">
         <f t="shared" si="31"/>
-        <v>1789.4736842105262</v>
-      </c>
-      <c r="AV97" s="15">
+        <v>2.0968526999999999</v>
+      </c>
+      <c r="AW97" s="15">
         <f t="shared" si="32"/>
-        <v>2.0968526999999999</v>
-      </c>
-      <c r="AW97" s="15">
+        <v>0.91579110526315821</v>
+      </c>
+      <c r="AX97" s="14">
         <f t="shared" si="33"/>
-        <v>0.91579110526315821</v>
-      </c>
-      <c r="AX97" s="14">
+        <v>7.6171226963520491</v>
+      </c>
+      <c r="AY97" s="14">
         <f t="shared" si="34"/>
-        <v>7.6171226963520491</v>
-      </c>
-      <c r="AY97" s="14">
+        <v>7.472397365121361E-2</v>
+      </c>
+      <c r="AZ97" s="14">
+        <f>AY97*64/1000</f>
+        <v>4.7823343136776707E-3</v>
+      </c>
+      <c r="BA97" s="27">
+        <f>AZ97*AU97*0.10472</f>
+        <v>0.89617924616647737</v>
+      </c>
+      <c r="BB97" s="15">
+        <f>AV97*AW97</f>
+        <v>1.9202790517070374</v>
+      </c>
+      <c r="BC97" s="26">
         <f t="shared" si="35"/>
-        <v>7.472397365121361E-2</v>
-      </c>
-      <c r="AZ97" s="14">
-        <f t="shared" si="36"/>
-        <v>2.4907991217071202E-2</v>
-      </c>
-      <c r="BA97" s="14">
-        <f t="shared" si="30"/>
-        <v>4.7823343136776707E-3</v>
-      </c>
-      <c r="BB97" s="27">
-        <f t="shared" si="37"/>
-        <v>0.89617924616647737</v>
-      </c>
-      <c r="BC97" s="15">
-        <f t="shared" si="38"/>
-        <v>1.9202790517070374</v>
-      </c>
-      <c r="BD97" s="26">
-        <f t="shared" si="39"/>
         <v>0.46669219526704536</v>
       </c>
+      <c r="BD97" s="42"/>
       <c r="BE97" s="38"/>
       <c r="BF97" s="38"/>
       <c r="BG97" s="38"/>
@@ -44275,45 +44256,42 @@
       <c r="AS98" s="29"/>
       <c r="AT98" s="29"/>
       <c r="AU98" s="16">
+        <f t="shared" si="30"/>
+        <v>1921.0526315789473</v>
+      </c>
+      <c r="AV98" s="15">
         <f t="shared" si="31"/>
-        <v>1921.0526315789473</v>
-      </c>
-      <c r="AV98" s="15">
+        <v>2.3241027000000001</v>
+      </c>
+      <c r="AW98" s="15">
         <f t="shared" si="32"/>
-        <v>2.3241027000000001</v>
-      </c>
-      <c r="AW98" s="15">
+        <v>1.0777647894736844</v>
+      </c>
+      <c r="AX98" s="14">
         <f t="shared" si="33"/>
-        <v>1.0777647894736844</v>
-      </c>
-      <c r="AX98" s="14">
+        <v>8.8508304190847156</v>
+      </c>
+      <c r="AY98" s="14">
         <f t="shared" si="34"/>
-        <v>8.8508304190847156</v>
-      </c>
-      <c r="AY98" s="14">
+        <v>8.6826646411221065E-2</v>
+      </c>
+      <c r="AZ98" s="14">
+        <f>AY98*64/1000</f>
+        <v>5.5569053703181485E-3</v>
+      </c>
+      <c r="BA98" s="27">
+        <f>AZ98*AU98*0.10472</f>
+        <v>1.1178972767820869</v>
+      </c>
+      <c r="BB98" s="15">
+        <f>AV98*AW98</f>
+        <v>2.5048360571807216</v>
+      </c>
+      <c r="BC98" s="26">
         <f t="shared" si="35"/>
-        <v>8.6826646411221065E-2</v>
-      </c>
-      <c r="AZ98" s="14">
-        <f t="shared" si="36"/>
-        <v>2.8942215470407023E-2</v>
-      </c>
-      <c r="BA98" s="14">
-        <f t="shared" si="30"/>
-        <v>5.5569053703181485E-3</v>
-      </c>
-      <c r="BB98" s="27">
-        <f t="shared" si="37"/>
-        <v>1.1178972767820869</v>
-      </c>
-      <c r="BC98" s="15">
-        <f t="shared" si="38"/>
-        <v>2.5048360571807216</v>
-      </c>
-      <c r="BD98" s="26">
-        <f t="shared" si="39"/>
         <v>0.44629558632285038</v>
       </c>
+      <c r="BD98" s="42"/>
       <c r="BE98" s="38"/>
       <c r="BF98" s="38"/>
       <c r="BG98" s="38"/>
@@ -44370,45 +44348,42 @@
       <c r="AS99" s="29"/>
       <c r="AT99" s="29"/>
       <c r="AU99" s="16">
+        <f t="shared" si="30"/>
+        <v>2052.6315789473683</v>
+      </c>
+      <c r="AV99" s="15">
         <f t="shared" si="31"/>
-        <v>2052.6315789473683</v>
-      </c>
-      <c r="AV99" s="15">
+        <v>2.5513527000000003</v>
+      </c>
+      <c r="AW99" s="15">
         <f t="shared" si="32"/>
-        <v>2.5513527000000003</v>
-      </c>
-      <c r="AW99" s="15">
+        <v>1.2397384736842105</v>
+      </c>
+      <c r="AX99" s="14">
         <f t="shared" si="33"/>
-        <v>1.2397384736842105</v>
-      </c>
-      <c r="AX99" s="14">
+        <v>10.182546348115105</v>
+      </c>
+      <c r="AY99" s="14">
         <f t="shared" si="34"/>
-        <v>10.182546348115105</v>
-      </c>
-      <c r="AY99" s="14">
+        <v>9.9890779675009186E-2</v>
+      </c>
+      <c r="AZ99" s="14">
+        <f>AY99*64/1000</f>
+        <v>6.393009899200588E-3</v>
+      </c>
+      <c r="BA99" s="27">
+        <f>AZ99*AU99*0.10472</f>
+        <v>1.3741875720593228</v>
+      </c>
+      <c r="BB99" s="15">
+        <f>AV99*AW99</f>
+        <v>3.1630101021280899</v>
+      </c>
+      <c r="BC99" s="26">
         <f t="shared" si="35"/>
-        <v>9.9890779675009186E-2</v>
-      </c>
-      <c r="AZ99" s="14">
-        <f t="shared" si="36"/>
-        <v>3.3296926558336395E-2</v>
-      </c>
-      <c r="BA99" s="14">
-        <f t="shared" si="30"/>
-        <v>6.393009899200588E-3</v>
-      </c>
-      <c r="BB99" s="27">
-        <f t="shared" si="37"/>
-        <v>1.3741875720593228</v>
-      </c>
-      <c r="BC99" s="15">
-        <f t="shared" si="38"/>
-        <v>3.1630101021280899</v>
-      </c>
-      <c r="BD99" s="26">
-        <f t="shared" si="39"/>
         <v>0.43445563804388809</v>
       </c>
+      <c r="BD99" s="42"/>
       <c r="BE99" s="38"/>
       <c r="BF99" s="38"/>
       <c r="BG99" s="38"/>
@@ -44459,45 +44434,42 @@
       <c r="AS100" s="29"/>
       <c r="AT100" s="29"/>
       <c r="AU100" s="16">
+        <f t="shared" si="30"/>
+        <v>2184.2105263157891</v>
+      </c>
+      <c r="AV100" s="15">
         <f t="shared" si="31"/>
-        <v>2184.2105263157891</v>
-      </c>
-      <c r="AV100" s="15">
+        <v>2.7786026999999995</v>
+      </c>
+      <c r="AW100" s="15">
         <f t="shared" si="32"/>
-        <v>2.7786026999999995</v>
-      </c>
-      <c r="AW100" s="15">
+        <v>1.4017121578947367</v>
+      </c>
+      <c r="AX100" s="14">
         <f t="shared" si="33"/>
-        <v>1.4017121578947367</v>
-      </c>
-      <c r="AX100" s="14">
+        <v>11.613025099166414</v>
+      </c>
+      <c r="AY100" s="14">
         <f t="shared" si="34"/>
-        <v>11.613025099166414</v>
-      </c>
-      <c r="AY100" s="14">
+        <v>0.11392377622282253</v>
+      </c>
+      <c r="AZ100" s="14">
+        <f>AY100*64/1000</f>
+        <v>7.2911216782606415E-3</v>
+      </c>
+      <c r="BA100" s="27">
+        <f>AZ100*AU100*0.10472</f>
+        <v>1.6677020989010185</v>
+      </c>
+      <c r="BB100" s="15">
+        <f>AV100*AW100</f>
+        <v>3.8948011865491412</v>
+      </c>
+      <c r="BC100" s="26">
         <f t="shared" si="35"/>
-        <v>0.11392377622282253</v>
-      </c>
-      <c r="AZ100" s="14">
-        <f t="shared" si="36"/>
-        <v>3.7974592074274179E-2</v>
-      </c>
-      <c r="BA100" s="14">
-        <f t="shared" si="30"/>
-        <v>7.2911216782606423E-3</v>
-      </c>
-      <c r="BB100" s="27">
-        <f t="shared" si="37"/>
-        <v>1.6677020989010185</v>
-      </c>
-      <c r="BC100" s="15">
-        <f t="shared" si="38"/>
-        <v>3.8948011865491412</v>
-      </c>
-      <c r="BD100" s="26">
-        <f t="shared" si="39"/>
         <v>0.42818670813301007</v>
       </c>
+      <c r="BD100" s="42"/>
       <c r="BE100" s="38"/>
       <c r="BF100" s="38"/>
       <c r="BG100" s="38"/>
@@ -44553,45 +44525,42 @@
       <c r="AS101" s="29"/>
       <c r="AT101" s="29"/>
       <c r="AU101" s="16">
+        <f t="shared" si="30"/>
+        <v>2315.78947368421</v>
+      </c>
+      <c r="AV101" s="15">
         <f t="shared" si="31"/>
-        <v>2315.78947368421</v>
-      </c>
-      <c r="AV101" s="15">
+        <v>3.0058526999999993</v>
+      </c>
+      <c r="AW101" s="15">
         <f t="shared" si="32"/>
-        <v>3.0058526999999993</v>
-      </c>
-      <c r="AW101" s="15">
+        <v>1.5636858421052628</v>
+      </c>
+      <c r="AX101" s="14">
         <f t="shared" si="33"/>
-        <v>1.5636858421052628</v>
-      </c>
-      <c r="AX101" s="14">
+        <v>13.142979609134825</v>
+      </c>
+      <c r="AY101" s="14">
         <f t="shared" si="34"/>
-        <v>13.142979609134825</v>
-      </c>
-      <c r="AY101" s="14">
+        <v>0.12893262996561264</v>
+      </c>
+      <c r="AZ101" s="14">
+        <f>AY101*64/1000</f>
+        <v>8.2516883177992089E-3</v>
+      </c>
+      <c r="BA101" s="27">
+        <f>AZ101*AU101*0.10472</f>
+        <v>2.0011125909556342</v>
+      </c>
+      <c r="BB101" s="15">
+        <f>AV101*AW101</f>
+        <v>4.7002093104438769</v>
+      </c>
+      <c r="BC101" s="26">
         <f t="shared" si="35"/>
-        <v>0.12893262996561264</v>
-      </c>
-      <c r="AZ101" s="14">
-        <f t="shared" si="36"/>
-        <v>4.2977543321870877E-2</v>
-      </c>
-      <c r="BA101" s="14">
-        <f t="shared" si="30"/>
-        <v>8.2516883177992089E-3</v>
-      </c>
-      <c r="BB101" s="27">
-        <f t="shared" si="37"/>
-        <v>2.0011125909556342</v>
-      </c>
-      <c r="BC101" s="15">
-        <f t="shared" si="38"/>
-        <v>4.7002093104438769</v>
-      </c>
-      <c r="BD101" s="26">
-        <f t="shared" si="39"/>
         <v>0.42574967597914354</v>
       </c>
+      <c r="BD101" s="42"/>
       <c r="BE101" s="38"/>
       <c r="BF101" s="38"/>
       <c r="BG101" s="38"/>
@@ -44646,45 +44615,42 @@
       <c r="AS102" s="29"/>
       <c r="AT102" s="29"/>
       <c r="AU102" s="16">
+        <f t="shared" si="30"/>
+        <v>2447.3684210526308</v>
+      </c>
+      <c r="AV102" s="15">
         <f t="shared" si="31"/>
-        <v>2447.3684210526308</v>
-      </c>
-      <c r="AV102" s="15">
+        <v>3.233102699999999</v>
+      </c>
+      <c r="AW102" s="15">
         <f t="shared" si="32"/>
-        <v>3.233102699999999</v>
-      </c>
-      <c r="AW102" s="15">
+        <v>1.725659526315789</v>
+      </c>
+      <c r="AX102" s="14">
         <f t="shared" si="33"/>
-        <v>1.725659526315789</v>
-      </c>
-      <c r="AX102" s="14">
+        <v>14.773085757070557</v>
+      </c>
+      <c r="AY102" s="14">
         <f t="shared" si="34"/>
-        <v>14.773085757070557</v>
-      </c>
-      <c r="AY102" s="14">
+        <v>0.14492397127686218</v>
+      </c>
+      <c r="AZ102" s="14">
+        <f>AY102*64/1000</f>
+        <v>9.2751341617191806E-3</v>
+      </c>
+      <c r="BA102" s="27">
+        <f>AZ102*AU102*0.10472</f>
+        <v>2.3771094893583316</v>
+      </c>
+      <c r="BB102" s="15">
+        <f>AV102*AW102</f>
+        <v>5.5792344738122965</v>
+      </c>
+      <c r="BC102" s="26">
         <f t="shared" si="35"/>
-        <v>0.14492397127686218</v>
-      </c>
-      <c r="AZ102" s="14">
-        <f t="shared" si="36"/>
-        <v>4.8307990425620728E-2</v>
-      </c>
-      <c r="BA102" s="14">
-        <f t="shared" si="30"/>
-        <v>9.2751341617191806E-3</v>
-      </c>
-      <c r="BB102" s="27">
-        <f t="shared" si="37"/>
-        <v>2.3771094893583316</v>
-      </c>
-      <c r="BC102" s="15">
-        <f t="shared" si="38"/>
-        <v>5.5792344738122965</v>
-      </c>
-      <c r="BD102" s="26">
-        <f t="shared" si="39"/>
         <v>0.4260637369725116</v>
       </c>
+      <c r="BD102" s="42"/>
       <c r="BE102" s="38"/>
       <c r="BF102" s="38"/>
       <c r="BG102" s="38"/>
@@ -44739,45 +44705,42 @@
       <c r="AS103" s="29"/>
       <c r="AT103" s="29"/>
       <c r="AU103" s="16">
+        <f t="shared" si="30"/>
+        <v>2578.9473684210516</v>
+      </c>
+      <c r="AV103" s="15">
         <f t="shared" si="31"/>
-        <v>2578.9473684210516</v>
-      </c>
-      <c r="AV103" s="15">
+        <v>3.4603526999999987</v>
+      </c>
+      <c r="AW103" s="15">
         <f t="shared" si="32"/>
-        <v>3.4603526999999987</v>
-      </c>
-      <c r="AW103" s="15">
+        <v>1.8876332105263147</v>
+      </c>
+      <c r="AX103" s="14">
         <f t="shared" si="33"/>
-        <v>1.8876332105263147</v>
-      </c>
-      <c r="AX103" s="14">
+        <v>16.503986243913406</v>
+      </c>
+      <c r="AY103" s="14">
         <f t="shared" si="34"/>
-        <v>16.503986243913406</v>
-      </c>
-      <c r="AY103" s="14">
+        <v>0.16190410505279051</v>
+      </c>
+      <c r="AZ103" s="14">
+        <f>AY103*64/1000</f>
+        <v>1.0361862723378593E-2</v>
+      </c>
+      <c r="BA103" s="27">
+        <f>AZ103*AU103*0.10472</f>
+        <v>2.7984009976430566</v>
+      </c>
+      <c r="BB103" s="15">
+        <f>AV103*AW103</f>
+        <v>6.5318766766543988</v>
+      </c>
+      <c r="BC103" s="26">
         <f t="shared" si="35"/>
-        <v>0.16190410505279051</v>
-      </c>
-      <c r="AZ103" s="14">
-        <f t="shared" si="36"/>
-        <v>5.3968035017596838E-2</v>
-      </c>
-      <c r="BA103" s="14">
-        <f t="shared" si="30"/>
-        <v>1.0361862723378593E-2</v>
-      </c>
-      <c r="BB103" s="27">
-        <f t="shared" si="37"/>
-        <v>2.7984009976430566</v>
-      </c>
-      <c r="BC103" s="15">
-        <f t="shared" si="38"/>
-        <v>6.5318766766543988</v>
-      </c>
-      <c r="BD103" s="26">
-        <f t="shared" si="39"/>
         <v>0.42842220332248931</v>
       </c>
+      <c r="BD103" s="42"/>
       <c r="BE103" s="38"/>
       <c r="BF103" s="38"/>
       <c r="BG103" s="38"/>
@@ -44832,45 +44795,42 @@
       <c r="AS104" s="29"/>
       <c r="AT104" s="29"/>
       <c r="AU104" s="16">
+        <f t="shared" si="30"/>
+        <v>2710.5263157894724</v>
+      </c>
+      <c r="AV104" s="15">
         <f t="shared" si="31"/>
-        <v>2710.5263157894724</v>
-      </c>
-      <c r="AV104" s="15">
+        <v>3.6876026999999985</v>
+      </c>
+      <c r="AW104" s="15">
         <f t="shared" si="32"/>
-        <v>3.6876026999999985</v>
-      </c>
-      <c r="AW104" s="15">
+        <v>2.0496068947368409</v>
+      </c>
+      <c r="AX104" s="14">
         <f t="shared" si="33"/>
-        <v>2.0496068947368409</v>
-      </c>
-      <c r="AX104" s="14">
+        <v>18.336293882782652</v>
+      </c>
+      <c r="AY104" s="14">
         <f t="shared" si="34"/>
-        <v>18.336293882782652</v>
-      </c>
-      <c r="AY104" s="14">
+        <v>0.17987904299009783</v>
+      </c>
+      <c r="AZ104" s="14">
+        <f>AY104*64/1000</f>
+        <v>1.151225875136626E-2</v>
+      </c>
+      <c r="BA104" s="27">
+        <f>AZ104*AU104*0.10472</f>
+        <v>3.2677122329904376</v>
+      </c>
+      <c r="BB104" s="15">
+        <f>AV104*AW104</f>
+        <v>7.5581359189701871</v>
+      </c>
+      <c r="BC104" s="26">
         <f t="shared" si="35"/>
-        <v>0.17987904299009783</v>
-      </c>
-      <c r="AZ104" s="14">
-        <f t="shared" si="36"/>
-        <v>5.9959680996699273E-2</v>
-      </c>
-      <c r="BA104" s="14">
-        <f t="shared" si="30"/>
-        <v>1.151225875136626E-2</v>
-      </c>
-      <c r="BB104" s="27">
-        <f t="shared" si="37"/>
-        <v>3.2677122329904376</v>
-      </c>
-      <c r="BC104" s="15">
-        <f t="shared" si="38"/>
-        <v>7.5581359189701871</v>
-      </c>
-      <c r="BD104" s="26">
-        <f t="shared" si="39"/>
         <v>0.43234367151148967</v>
       </c>
+      <c r="BD104" s="42"/>
       <c r="BE104" s="38"/>
       <c r="BF104" s="45" t="s">
         <v>64</v>
@@ -44927,45 +44887,42 @@
       <c r="AS105" s="29"/>
       <c r="AT105" s="29"/>
       <c r="AU105" s="16">
+        <f t="shared" si="30"/>
+        <v>2842.1052631578932</v>
+      </c>
+      <c r="AV105" s="15">
         <f t="shared" si="31"/>
-        <v>2842.1052631578932</v>
-      </c>
-      <c r="AV105" s="15">
+        <v>3.9148526999999973</v>
+      </c>
+      <c r="AW105" s="15">
         <f t="shared" si="32"/>
-        <v>3.9148526999999973</v>
-      </c>
-      <c r="AW105" s="15">
+        <v>2.211580578947367</v>
+      </c>
+      <c r="AX105" s="14">
         <f t="shared" si="33"/>
-        <v>2.211580578947367</v>
-      </c>
-      <c r="AX105" s="14">
+        <v>20.270594414463929</v>
+      </c>
+      <c r="AY105" s="14">
         <f t="shared" si="34"/>
-        <v>20.270594414463929</v>
-      </c>
-      <c r="AY105" s="14">
+        <v>0.19885453120589117</v>
+      </c>
+      <c r="AZ105" s="14">
+        <f>AY105*64/1000</f>
+        <v>1.2726689997177035E-2</v>
+      </c>
+      <c r="BA105" s="27">
+        <f>AZ105*AU105*0.10472</f>
+        <v>3.7877844595387593</v>
+      </c>
+      <c r="BB105" s="15">
+        <f>AV105*AW105</f>
+        <v>8.6580122007596572</v>
+      </c>
+      <c r="BC105" s="26">
         <f t="shared" si="35"/>
-        <v>0.19885453120589117</v>
-      </c>
-      <c r="AZ105" s="14">
-        <f t="shared" si="36"/>
-        <v>6.6284843735297055E-2</v>
-      </c>
-      <c r="BA105" s="14">
-        <f t="shared" si="30"/>
-        <v>1.2726689997177035E-2</v>
-      </c>
-      <c r="BB105" s="27">
-        <f t="shared" si="37"/>
-        <v>3.7877844595387593</v>
-      </c>
-      <c r="BC105" s="15">
-        <f t="shared" si="38"/>
-        <v>8.6580122007596572</v>
-      </c>
-      <c r="BD105" s="26">
-        <f t="shared" si="39"/>
         <v>0.4374889260616216</v>
       </c>
+      <c r="BD105" s="42"/>
       <c r="BE105" s="38"/>
       <c r="BF105" s="45"/>
       <c r="BG105" s="45"/>
@@ -45016,45 +44973,42 @@
       <c r="AS106" s="29"/>
       <c r="AT106" s="29"/>
       <c r="AU106" s="16">
+        <f t="shared" si="30"/>
+        <v>2973.684210526314</v>
+      </c>
+      <c r="AV106" s="15">
         <f t="shared" si="31"/>
-        <v>2973.684210526314</v>
-      </c>
-      <c r="AV106" s="15">
+        <v>4.142102699999997</v>
+      </c>
+      <c r="AW106" s="15">
         <f t="shared" si="32"/>
-        <v>4.142102699999997</v>
-      </c>
-      <c r="AW106" s="15">
+        <v>2.3735542631578928</v>
+      </c>
+      <c r="AX106" s="14">
         <f t="shared" si="33"/>
-        <v>2.3735542631578928</v>
-      </c>
-      <c r="AX106" s="14">
+        <v>22.307448936019213</v>
+      </c>
+      <c r="AY106" s="14">
         <f t="shared" si="34"/>
-        <v>22.307448936019213</v>
-      </c>
-      <c r="AY106" s="14">
+        <v>0.21883607406234851</v>
+      </c>
+      <c r="AZ106" s="14">
+        <f>AY106*64/1000</f>
+        <v>1.4005508739990305E-2</v>
+      </c>
+      <c r="BA106" s="27">
+        <f>AZ106*AU106*0.10472</f>
+        <v>4.3613743921960939</v>
+      </c>
+      <c r="BB106" s="15">
+        <f>AV106*AW106</f>
+        <v>9.8315055220228107</v>
+      </c>
+      <c r="BC106" s="26">
         <f t="shared" si="35"/>
-        <v>0.21883607406234851</v>
-      </c>
-      <c r="AZ106" s="14">
-        <f t="shared" si="36"/>
-        <v>7.2945358020782836E-2</v>
-      </c>
-      <c r="BA106" s="14">
-        <f t="shared" si="30"/>
-        <v>1.4005508739990305E-2</v>
-      </c>
-      <c r="BB106" s="27">
-        <f t="shared" si="37"/>
-        <v>4.3613743921960939</v>
-      </c>
-      <c r="BC106" s="15">
-        <f t="shared" si="38"/>
-        <v>9.8315055220228107</v>
-      </c>
-      <c r="BD106" s="26">
-        <f t="shared" si="39"/>
         <v>0.44361205742360715</v>
       </c>
+      <c r="BD106" s="42"/>
       <c r="BE106" s="38"/>
       <c r="BF106" s="38"/>
       <c r="BG106" s="38"/>
@@ -45105,45 +45059,42 @@
       <c r="AS107" s="29"/>
       <c r="AT107" s="29"/>
       <c r="AU107" s="16">
+        <f t="shared" si="30"/>
+        <v>3105.2631578947348</v>
+      </c>
+      <c r="AV107" s="15">
         <f t="shared" si="31"/>
-        <v>3105.2631578947348</v>
-      </c>
-      <c r="AV107" s="15">
+        <v>4.3693526999999968</v>
+      </c>
+      <c r="AW107" s="15">
         <f t="shared" si="32"/>
-        <v>4.3693526999999968</v>
-      </c>
-      <c r="AW107" s="15">
+        <v>2.5355279473684189</v>
+      </c>
+      <c r="AX107" s="14">
         <f t="shared" si="33"/>
-        <v>2.5355279473684189</v>
-      </c>
-      <c r="AX107" s="14">
+        <v>24.44739601089335</v>
+      </c>
+      <c r="AY107" s="14">
         <f t="shared" si="34"/>
-        <v>24.44739601089335</v>
-      </c>
-      <c r="AY107" s="14">
+        <v>0.23982895486686376</v>
+      </c>
+      <c r="AZ107" s="14">
+        <f>AY107*64/1000</f>
+        <v>1.534905311147928E-2</v>
+      </c>
+      <c r="BA107" s="27">
+        <f>AZ107*AU107*0.10472</f>
+        <v>4.9912535614848652</v>
+      </c>
+      <c r="BB107" s="15">
+        <f>AV107*AW107</f>
+        <v>11.078615882759651</v>
+      </c>
+      <c r="BC107" s="26">
         <f t="shared" si="35"/>
-        <v>0.23982895486686376</v>
-      </c>
-      <c r="AZ107" s="14">
-        <f t="shared" si="36"/>
-        <v>7.9942984955621257E-2</v>
-      </c>
-      <c r="BA107" s="14">
-        <f t="shared" si="30"/>
-        <v>1.5349053111479282E-2</v>
-      </c>
-      <c r="BB107" s="27">
-        <f t="shared" si="37"/>
-        <v>4.9912535614848661</v>
-      </c>
-      <c r="BC107" s="15">
-        <f t="shared" si="38"/>
-        <v>11.078615882759651</v>
-      </c>
-      <c r="BD107" s="26">
-        <f t="shared" si="39"/>
-        <v>0.45053042855761138</v>
-      </c>
+        <v>0.45053042855761133</v>
+      </c>
+      <c r="BD107" s="42"/>
       <c r="BE107" s="38"/>
       <c r="BF107" s="38"/>
       <c r="BG107" s="38"/>
@@ -45194,45 +45145,42 @@
       <c r="AS108" s="29"/>
       <c r="AT108" s="29"/>
       <c r="AU108" s="16">
+        <f t="shared" si="30"/>
+        <v>3236.8421052631556</v>
+      </c>
+      <c r="AV108" s="15">
         <f t="shared" si="31"/>
-        <v>3236.8421052631556</v>
-      </c>
-      <c r="AV108" s="15">
+        <v>4.5966026999999965</v>
+      </c>
+      <c r="AW108" s="15">
         <f t="shared" si="32"/>
-        <v>4.5966026999999965</v>
-      </c>
-      <c r="AW108" s="15">
+        <v>2.6975016315789451</v>
+      </c>
+      <c r="AX108" s="14">
         <f t="shared" si="33"/>
-        <v>2.6975016315789451</v>
-      </c>
-      <c r="AX108" s="14">
+        <v>26.690953514348955</v>
+      </c>
+      <c r="AY108" s="14">
         <f t="shared" si="34"/>
-        <v>26.690953514348955</v>
-      </c>
-      <c r="AY108" s="14">
+        <v>0.26183825397576327</v>
+      </c>
+      <c r="AZ108" s="14">
+        <f>AY108*64/1000</f>
+        <v>1.6757648254448851E-2</v>
+      </c>
+      <c r="BA108" s="27">
+        <f>AZ108*AU108*0.10472</f>
+        <v>5.6802077315874611</v>
+      </c>
+      <c r="BB108" s="15">
+        <f>AV108*AW108</f>
+        <v>12.399343282970175</v>
+      </c>
+      <c r="BC108" s="26">
         <f t="shared" si="35"/>
-        <v>0.26183825397576327</v>
-      </c>
-      <c r="AZ108" s="14">
-        <f t="shared" si="36"/>
-        <v>8.7279417991921085E-2</v>
-      </c>
-      <c r="BA108" s="14">
-        <f t="shared" si="30"/>
-        <v>1.6757648254448851E-2</v>
-      </c>
-      <c r="BB108" s="27">
-        <f t="shared" si="37"/>
-        <v>5.6802077315874611</v>
-      </c>
-      <c r="BC108" s="15">
-        <f t="shared" si="38"/>
-        <v>12.399343282970175</v>
-      </c>
-      <c r="BD108" s="26">
-        <f t="shared" si="39"/>
         <v>0.45810553042667329</v>
       </c>
+      <c r="BD108" s="42"/>
       <c r="BE108" s="38"/>
       <c r="BF108" s="38"/>
       <c r="BG108" s="38"/>
@@ -45283,45 +45231,42 @@
       <c r="AS109" s="29"/>
       <c r="AT109" s="29"/>
       <c r="AU109" s="16">
+        <f t="shared" si="30"/>
+        <v>3368.4210526315765</v>
+      </c>
+      <c r="AV109" s="15">
         <f t="shared" si="31"/>
-        <v>3368.4210526315765</v>
-      </c>
-      <c r="AV109" s="15">
+        <v>4.8238526999999962</v>
+      </c>
+      <c r="AW109" s="15">
         <f t="shared" si="32"/>
-        <v>4.8238526999999962</v>
-      </c>
-      <c r="AW109" s="15">
+        <v>2.8594753157894708</v>
+      </c>
+      <c r="AX109" s="14">
         <f t="shared" si="33"/>
-        <v>2.8594753157894708</v>
-      </c>
-      <c r="AX109" s="14">
+        <v>29.038620257095001</v>
+      </c>
+      <c r="AY109" s="14">
         <f t="shared" si="34"/>
-        <v>29.038620257095001</v>
-      </c>
-      <c r="AY109" s="14">
+        <v>0.28486886472210199</v>
+      </c>
+      <c r="AZ109" s="14">
+        <f>AY109*64/1000</f>
+        <v>1.8231607342214528E-2</v>
+      </c>
+      <c r="BA109" s="27">
+        <f>AZ109*AU109*0.10472</f>
+        <v>6.4310363650583708</v>
+      </c>
+      <c r="BB109" s="15">
+        <f>AV109*AW109</f>
+        <v>13.793687722654381</v>
+      </c>
+      <c r="BC109" s="26">
         <f t="shared" si="35"/>
-        <v>0.28486886472210199</v>
-      </c>
-      <c r="AZ109" s="14">
-        <f t="shared" si="36"/>
-        <v>9.4956288240700668E-2</v>
-      </c>
-      <c r="BA109" s="14">
-        <f t="shared" si="30"/>
-        <v>1.8231607342214528E-2</v>
-      </c>
-      <c r="BB109" s="27">
-        <f t="shared" si="37"/>
-        <v>6.4310363650583708</v>
-      </c>
-      <c r="BC109" s="15">
-        <f t="shared" si="38"/>
-        <v>13.793687722654381</v>
-      </c>
-      <c r="BD109" s="26">
-        <f t="shared" si="39"/>
         <v>0.46623038699768515</v>
       </c>
+      <c r="BD109" s="42"/>
       <c r="BE109" s="38"/>
       <c r="BF109" s="38"/>
       <c r="BG109" s="38"/>
@@ -45372,45 +45317,42 @@
       <c r="AS110" s="29"/>
       <c r="AT110" s="29"/>
       <c r="AU110" s="16">
+        <f t="shared" si="30"/>
+        <v>3499.9999999999973</v>
+      </c>
+      <c r="AV110" s="15">
         <f t="shared" si="31"/>
-        <v>3499.9999999999973</v>
-      </c>
-      <c r="AV110" s="15">
+        <v>5.0511026999999959</v>
+      </c>
+      <c r="AW110" s="15">
         <f t="shared" si="32"/>
-        <v>5.0511026999999959</v>
-      </c>
-      <c r="AW110" s="15">
+        <v>3.0214489999999969</v>
+      </c>
+      <c r="AX110" s="14">
         <f t="shared" si="33"/>
-        <v>3.0214489999999969</v>
-      </c>
-      <c r="AX110" s="14">
+        <v>31.490877421587534</v>
+      </c>
+      <c r="AY110" s="14">
         <f t="shared" si="34"/>
-        <v>31.490877421587534</v>
-      </c>
-      <c r="AY110" s="14">
+        <v>0.30892550750577374</v>
+      </c>
+      <c r="AZ110" s="14">
+        <f>AY110*64/1000</f>
+        <v>1.9771232480369518E-2</v>
+      </c>
+      <c r="BA110" s="27">
+        <f>AZ110*AU110*0.10472</f>
+        <v>7.2465521287050301</v>
+      </c>
+      <c r="BB110" s="15">
+        <f>AV110*AW110</f>
+        <v>15.261649201812272</v>
+      </c>
+      <c r="BC110" s="26">
         <f t="shared" si="35"/>
-        <v>0.30892550750577374</v>
-      </c>
-      <c r="AZ110" s="14">
-        <f t="shared" si="36"/>
-        <v>0.10297516916859124</v>
-      </c>
-      <c r="BA110" s="14">
-        <f t="shared" si="30"/>
-        <v>1.9771232480369518E-2</v>
-      </c>
-      <c r="BB110" s="27">
-        <f t="shared" si="37"/>
-        <v>7.2465521287050301</v>
-      </c>
-      <c r="BC110" s="15">
-        <f t="shared" si="38"/>
-        <v>15.261649201812272</v>
-      </c>
-      <c r="BD110" s="26">
-        <f t="shared" si="39"/>
         <v>0.47482103885892785</v>
       </c>
+      <c r="BD110" s="42"/>
       <c r="BE110" s="38"/>
       <c r="BF110" s="38"/>
       <c r="BG110" s="38"/>
@@ -45461,45 +45403,42 @@
       <c r="AS111" s="29"/>
       <c r="AT111" s="29"/>
       <c r="AU111" s="16">
+        <f t="shared" si="30"/>
+        <v>3631.5789473684181</v>
+      </c>
+      <c r="AV111" s="15">
         <f t="shared" si="31"/>
-        <v>3631.5789473684181</v>
-      </c>
-      <c r="AV111" s="15">
+        <v>5.2783526999999957</v>
+      </c>
+      <c r="AW111" s="15">
         <f t="shared" si="32"/>
-        <v>5.2783526999999957</v>
-      </c>
-      <c r="AW111" s="15">
+        <v>3.1834226842105231</v>
+      </c>
+      <c r="AX111" s="14">
         <f t="shared" si="33"/>
-        <v>3.1834226842105231</v>
-      </c>
-      <c r="AX111" s="14">
+        <v>34.048189839001843</v>
+      </c>
+      <c r="AY111" s="14">
         <f t="shared" si="34"/>
-        <v>34.048189839001843</v>
-      </c>
-      <c r="AY111" s="14">
+        <v>0.33401274232060807</v>
+      </c>
+      <c r="AZ111" s="14">
+        <f>AY111*64/1000</f>
+        <v>2.1376815508518915E-2</v>
+      </c>
+      <c r="BA111" s="27">
+        <f>AZ111*AU111*0.10472</f>
+        <v>8.1295804359786743</v>
+      </c>
+      <c r="BB111" s="15">
+        <f>AV111*AW111</f>
+        <v>16.803227720443846</v>
+      </c>
+      <c r="BC111" s="26">
         <f t="shared" si="35"/>
-        <v>0.33401274232060807</v>
-      </c>
-      <c r="AZ111" s="14">
-        <f t="shared" si="36"/>
-        <v>0.11133758077353602</v>
-      </c>
-      <c r="BA111" s="14">
-        <f t="shared" si="30"/>
-        <v>2.1376815508518915E-2</v>
-      </c>
-      <c r="BB111" s="27">
-        <f t="shared" si="37"/>
-        <v>8.1295804359786743</v>
-      </c>
-      <c r="BC111" s="15">
-        <f t="shared" si="38"/>
-        <v>16.803227720443846</v>
-      </c>
-      <c r="BD111" s="26">
-        <f t="shared" si="39"/>
         <v>0.48381064467082857</v>
       </c>
+      <c r="BD111" s="42"/>
       <c r="BE111" s="38"/>
       <c r="BF111" s="38"/>
       <c r="BG111" s="38"/>
@@ -45544,45 +45483,42 @@
       <c r="AS112" s="29"/>
       <c r="AT112" s="29"/>
       <c r="AU112" s="16">
+        <f t="shared" si="30"/>
+        <v>3763.1578947368389</v>
+      </c>
+      <c r="AV112" s="15">
         <f t="shared" si="31"/>
-        <v>3763.1578947368389</v>
-      </c>
-      <c r="AV112" s="15">
+        <v>5.5056026999999945</v>
+      </c>
+      <c r="AW112" s="15">
         <f t="shared" si="32"/>
-        <v>5.5056026999999945</v>
-      </c>
-      <c r="AW112" s="15">
+        <v>3.3453963684210493</v>
+      </c>
+      <c r="AX112" s="14">
         <f t="shared" si="33"/>
-        <v>3.3453963684210493</v>
-      </c>
-      <c r="AX112" s="14">
+        <v>36.711007129804187</v>
+      </c>
+      <c r="AY112" s="14">
         <f t="shared" si="34"/>
-        <v>36.711007129804187</v>
-      </c>
-      <c r="AY112" s="14">
+        <v>0.36013497994337912</v>
+      </c>
+      <c r="AZ112" s="14">
+        <f>AY112*64/1000</f>
+        <v>2.3048638716376264E-2</v>
+      </c>
+      <c r="BA112" s="27">
+        <f>AZ112*AU112*0.10472</f>
+        <v>9.0829590218996206</v>
+      </c>
+      <c r="BB112" s="15">
+        <f>AV112*AW112</f>
+        <v>18.418423278549106</v>
+      </c>
+      <c r="BC112" s="26">
         <f t="shared" si="35"/>
-        <v>0.36013497994337912</v>
-      </c>
-      <c r="AZ112" s="14">
-        <f t="shared" si="36"/>
-        <v>0.12004499331445971</v>
-      </c>
-      <c r="BA112" s="14">
-        <f t="shared" si="30"/>
-        <v>2.3048638716376264E-2</v>
-      </c>
-      <c r="BB112" s="27">
-        <f t="shared" si="37"/>
-        <v>9.0829590218996206</v>
-      </c>
-      <c r="BC112" s="15">
-        <f t="shared" si="38"/>
-        <v>18.418423278549106</v>
-      </c>
-      <c r="BD112" s="26">
-        <f t="shared" si="39"/>
         <v>0.49314530807194706</v>
       </c>
+      <c r="BD112" s="42"/>
       <c r="BE112" s="38"/>
       <c r="BF112" s="38"/>
       <c r="BG112" s="38"/>
@@ -45627,45 +45563,42 @@
       <c r="AS113" s="29"/>
       <c r="AT113" s="29"/>
       <c r="AU113" s="16">
+        <f t="shared" si="30"/>
+        <v>3894.7368421052597</v>
+      </c>
+      <c r="AV113" s="15">
         <f t="shared" si="31"/>
-        <v>3894.7368421052597</v>
-      </c>
-      <c r="AV113" s="15">
+        <v>5.7328526999999943</v>
+      </c>
+      <c r="AW113" s="15">
         <f t="shared" si="32"/>
-        <v>5.7328526999999943</v>
-      </c>
-      <c r="AW113" s="15">
+        <v>3.5073700526315754</v>
+      </c>
+      <c r="AX113" s="14">
         <f t="shared" si="33"/>
-        <v>3.5073700526315754</v>
-      </c>
-      <c r="AX113" s="14">
+        <v>39.479764726849062</v>
+      </c>
+      <c r="AY113" s="14">
         <f t="shared" si="34"/>
-        <v>39.479764726849062</v>
-      </c>
-      <c r="AY113" s="14">
+        <v>0.38729649197038929</v>
+      </c>
+      <c r="AZ113" s="14">
+        <f>AY113*64/1000</f>
+        <v>2.4786975486104916E-2</v>
+      </c>
+      <c r="BA113" s="27">
+        <f>AZ113*AU113*0.10472</f>
+        <v>10.109537547103312</v>
+      </c>
+      <c r="BB113" s="15">
+        <f>AV113*AW113</f>
+        <v>20.107235876128048</v>
+      </c>
+      <c r="BC113" s="26">
         <f t="shared" si="35"/>
-        <v>0.38729649197038929</v>
-      </c>
-      <c r="AZ113" s="14">
-        <f t="shared" si="36"/>
-        <v>0.12909883065679642</v>
-      </c>
-      <c r="BA113" s="14">
-        <f t="shared" si="30"/>
-        <v>2.4786975486104916E-2</v>
-      </c>
-      <c r="BB113" s="27">
-        <f t="shared" si="37"/>
-        <v>10.109537547103312</v>
-      </c>
-      <c r="BC113" s="15">
-        <f t="shared" si="38"/>
-        <v>20.107235876128048</v>
-      </c>
-      <c r="BD113" s="26">
-        <f t="shared" si="39"/>
         <v>0.50278106893378005</v>
       </c>
+      <c r="BD113" s="42"/>
       <c r="BE113" s="38"/>
       <c r="BF113" s="38"/>
       <c r="BG113" s="38"/>
@@ -45710,45 +45643,42 @@
       <c r="AS114" s="29"/>
       <c r="AT114" s="29"/>
       <c r="AU114" s="16">
+        <f t="shared" si="30"/>
+        <v>4026.3157894736805</v>
+      </c>
+      <c r="AV114" s="15">
         <f t="shared" si="31"/>
-        <v>4026.3157894736805</v>
-      </c>
-      <c r="AV114" s="15">
+        <v>5.960102699999994</v>
+      </c>
+      <c r="AW114" s="15">
         <f t="shared" si="32"/>
-        <v>5.960102699999994</v>
-      </c>
-      <c r="AW114" s="15">
+        <v>3.6693437368421016</v>
+      </c>
+      <c r="AX114" s="14">
         <f t="shared" si="33"/>
-        <v>3.6693437368421016</v>
-      </c>
-      <c r="AX114" s="14">
+        <v>42.354884796741267</v>
+      </c>
+      <c r="AY114" s="14">
         <f t="shared" si="34"/>
-        <v>42.354884796741267</v>
-      </c>
-      <c r="AY114" s="14">
+        <v>0.41550141985603189</v>
+      </c>
+      <c r="AZ114" s="14">
+        <f>AY114*64/1000</f>
+        <v>2.6592090870786043E-2</v>
+      </c>
+      <c r="BA114" s="27">
+        <f>AZ114*AU114*0.10472</f>
+        <v>11.212177228059813</v>
+      </c>
+      <c r="BB114" s="15">
+        <f>AV114*AW114</f>
+        <v>21.869665513180678</v>
+      </c>
+      <c r="BC114" s="26">
         <f t="shared" si="35"/>
-        <v>0.41550141985603189</v>
-      </c>
-      <c r="AZ114" s="14">
-        <f t="shared" si="36"/>
-        <v>0.13850047328534396</v>
-      </c>
-      <c r="BA114" s="14">
-        <f t="shared" si="30"/>
-        <v>2.6592090870786039E-2</v>
-      </c>
-      <c r="BB114" s="27">
-        <f t="shared" si="37"/>
-        <v>11.212177228059812</v>
-      </c>
-      <c r="BC114" s="15">
-        <f t="shared" si="38"/>
-        <v>21.869665513180678</v>
-      </c>
-      <c r="BD114" s="26">
-        <f t="shared" si="39"/>
-        <v>0.51268169699725485</v>
-      </c>
+        <v>0.51268169699725497</v>
+      </c>
+      <c r="BD114" s="42"/>
       <c r="BE114" s="38"/>
       <c r="BF114" s="38"/>
       <c r="BG114" s="38"/>
@@ -45808,45 +45738,42 @@
       <c r="AS115" s="29"/>
       <c r="AT115" s="29"/>
       <c r="AU115" s="16">
+        <f t="shared" si="30"/>
+        <v>4157.8947368421013</v>
+      </c>
+      <c r="AV115" s="15">
         <f t="shared" si="31"/>
-        <v>4157.8947368421013</v>
-      </c>
-      <c r="AV115" s="15">
+        <v>6.1873526999999937</v>
+      </c>
+      <c r="AW115" s="15">
         <f t="shared" si="32"/>
-        <v>6.1873526999999937</v>
-      </c>
-      <c r="AW115" s="15">
+        <v>3.8313174210526268</v>
+      </c>
+      <c r="AX115" s="14">
         <f t="shared" si="33"/>
-        <v>3.8313174210526268</v>
-      </c>
-      <c r="AX115" s="14">
+        <v>45.336777072633701</v>
+      </c>
+      <c r="AY115" s="14">
         <f t="shared" si="34"/>
-        <v>45.336777072633701</v>
-      </c>
-      <c r="AY115" s="14">
+        <v>0.44475378308253666</v>
+      </c>
+      <c r="AZ115" s="14">
+        <f>AY115*64/1000</f>
+        <v>2.8464242117282348E-2</v>
+      </c>
+      <c r="BA115" s="27">
+        <f>AZ115*AU115*0.10472</f>
+        <v>12.39375049090645</v>
+      </c>
+      <c r="BB115" s="15">
+        <f>AV115*AW115</f>
+        <v>23.705712189706983</v>
+      </c>
+      <c r="BC115" s="26">
         <f t="shared" si="35"/>
-        <v>0.44475378308253666</v>
-      </c>
-      <c r="AZ115" s="14">
-        <f t="shared" si="36"/>
-        <v>0.14825126102751221</v>
-      </c>
-      <c r="BA115" s="14">
-        <f t="shared" si="30"/>
-        <v>2.8464242117282348E-2</v>
-      </c>
-      <c r="BB115" s="27">
-        <f t="shared" si="37"/>
-        <v>12.39375049090645</v>
-      </c>
-      <c r="BC115" s="15">
-        <f t="shared" si="38"/>
-        <v>23.705712189706983</v>
-      </c>
-      <c r="BD115" s="26">
-        <f t="shared" si="39"/>
         <v>0.5228170489763988</v>
       </c>
+      <c r="BD115" s="42"/>
       <c r="BE115" s="38"/>
       <c r="BF115" s="38"/>
       <c r="BG115" s="38"/>
@@ -45891,45 +45818,42 @@
       <c r="AS116" s="29"/>
       <c r="AT116" s="29"/>
       <c r="AU116" s="16">
+        <f t="shared" si="30"/>
+        <v>4289.4736842105222</v>
+      </c>
+      <c r="AV116" s="15">
         <f t="shared" si="31"/>
-        <v>4289.4736842105222</v>
-      </c>
-      <c r="AV116" s="15">
+        <v>6.4146026999999934</v>
+      </c>
+      <c r="AW116" s="15">
         <f t="shared" si="32"/>
-        <v>6.4146026999999934</v>
-      </c>
-      <c r="AW116" s="15">
+        <v>3.993291105263153</v>
+      </c>
+      <c r="AX116" s="14">
         <f t="shared" si="33"/>
-        <v>3.993291105263153</v>
-      </c>
-      <c r="AX116" s="14">
+        <v>48.4258396095615</v>
+      </c>
+      <c r="AY116" s="14">
         <f t="shared" si="34"/>
-        <v>48.4258396095615</v>
-      </c>
-      <c r="AY116" s="14">
+        <v>0.47505748656979835</v>
+      </c>
+      <c r="AZ116" s="14">
+        <f>AY116*64/1000</f>
+        <v>3.0403679140467096E-2</v>
+      </c>
+      <c r="BA116" s="27">
+        <f>AZ116*AU116*0.10472</f>
+        <v>13.657140646661128</v>
+      </c>
+      <c r="BB116" s="15">
+        <f>AV116*AW116</f>
+        <v>25.61537590570698</v>
+      </c>
+      <c r="BC116" s="26">
         <f t="shared" si="35"/>
-        <v>0.47505748656979835</v>
-      </c>
-      <c r="AZ116" s="14">
-        <f t="shared" si="36"/>
-        <v>0.15835249552326611</v>
-      </c>
-      <c r="BA116" s="14">
-        <f t="shared" si="30"/>
-        <v>3.0403679140467092E-2</v>
-      </c>
-      <c r="BB116" s="27">
-        <f t="shared" si="37"/>
-        <v>13.657140646661128</v>
-      </c>
-      <c r="BC116" s="15">
-        <f t="shared" si="38"/>
-        <v>25.61537590570698</v>
-      </c>
-      <c r="BD116" s="26">
-        <f t="shared" si="39"/>
         <v>0.53316182815097335</v>
       </c>
+      <c r="BD116" s="42"/>
       <c r="BE116" s="38"/>
       <c r="BF116" s="38"/>
       <c r="BG116" s="38"/>
@@ -45992,45 +45916,42 @@
       <c r="AS117" s="29"/>
       <c r="AT117" s="29"/>
       <c r="AU117" s="16">
+        <f t="shared" si="30"/>
+        <v>4421.052631578943</v>
+      </c>
+      <c r="AV117" s="15">
         <f t="shared" si="31"/>
-        <v>4421.052631578943</v>
-      </c>
-      <c r="AV117" s="15">
+        <v>6.6418526999999932</v>
+      </c>
+      <c r="AW117" s="15">
         <f t="shared" si="32"/>
-        <v>6.6418526999999932</v>
-      </c>
-      <c r="AW117" s="15">
+        <v>4.1552647894736792</v>
+      </c>
+      <c r="AX117" s="14">
         <f t="shared" si="33"/>
-        <v>4.1552647894736792</v>
-      </c>
-      <c r="AX117" s="14">
+        <v>51.622459471712638</v>
+      </c>
+      <c r="AY117" s="14">
         <f t="shared" si="34"/>
-        <v>51.622459471712638</v>
-      </c>
-      <c r="AY117" s="14">
-        <f t="shared" si="35"/>
         <v>0.50641632741750098</v>
       </c>
       <c r="AZ117" s="14">
-        <f t="shared" si="36"/>
-        <v>0.16880544247250032</v>
-      </c>
-      <c r="BA117" s="14">
-        <f t="shared" si="30"/>
+        <f>AY117*64/1000</f>
         <v>3.2410644954720062E-2</v>
       </c>
-      <c r="BB117" s="27">
-        <f t="shared" si="37"/>
+      <c r="BA117" s="27">
+        <f>AZ117*AU117*0.10472</f>
         <v>15.005241585857666</v>
       </c>
-      <c r="BC117" s="15">
-        <f t="shared" si="38"/>
+      <c r="BB117" s="15">
+        <f>AV117*AW117</f>
         <v>27.598656661180659</v>
       </c>
-      <c r="BD117" s="26">
-        <f>BB117/BC117</f>
+      <c r="BC117" s="26">
+        <f>BA117/BB117</f>
         <v>0.54369463594086931</v>
       </c>
+      <c r="BD117" s="42"/>
       <c r="BE117" s="38"/>
       <c r="BF117" s="38"/>
       <c r="BG117" s="38"/>
@@ -46111,45 +46032,42 @@
       <c r="AS118" s="29"/>
       <c r="AT118" s="29"/>
       <c r="AU118" s="16">
+        <f t="shared" si="30"/>
+        <v>4552.6315789473638</v>
+      </c>
+      <c r="AV118" s="15">
         <f t="shared" si="31"/>
-        <v>4552.6315789473638</v>
-      </c>
-      <c r="AV118" s="15">
+        <v>6.869102699999992</v>
+      </c>
+      <c r="AW118" s="15">
         <f t="shared" si="32"/>
-        <v>6.869102699999992</v>
-      </c>
-      <c r="AW118" s="15">
+        <v>4.3172384736842053</v>
+      </c>
+      <c r="AX118" s="14">
         <f t="shared" si="33"/>
-        <v>4.3172384736842053</v>
-      </c>
-      <c r="AX118" s="14">
+        <v>54.9270133596481</v>
+      </c>
+      <c r="AY118" s="14">
         <f t="shared" si="34"/>
-        <v>54.9270133596481</v>
-      </c>
-      <c r="AY118" s="14">
-        <f t="shared" si="35"/>
         <v>0.53883400105814794</v>
       </c>
       <c r="AZ118" s="14">
-        <f t="shared" si="36"/>
-        <v>0.17961133368604931</v>
-      </c>
-      <c r="BA118" s="14">
-        <f t="shared" si="30"/>
+        <f>AY118*64/1000</f>
         <v>3.4485376067721465E-2</v>
       </c>
-      <c r="BB118" s="27">
-        <f t="shared" si="37"/>
+      <c r="BA118" s="27">
+        <f>AZ118*AU118*0.10472</f>
         <v>16.440957490879981</v>
       </c>
-      <c r="BC118" s="15">
-        <f t="shared" si="38"/>
+      <c r="BB118" s="15">
+        <f>AV118*AW118</f>
         <v>29.655554456128019</v>
       </c>
-      <c r="BD118" s="26">
-        <f t="shared" ref="BD118:BD129" si="40">BB118/BC118</f>
+      <c r="BC118" s="26">
+        <f t="shared" ref="BC118:BC129" si="36">BA118/BB118</f>
         <v>0.55439723830496868</v>
       </c>
+      <c r="BD118" s="42"/>
       <c r="BE118" s="38"/>
       <c r="BF118" s="38"/>
       <c r="BG118" s="38"/>
@@ -46230,45 +46148,42 @@
       <c r="AS119" s="29"/>
       <c r="AT119" s="29"/>
       <c r="AU119" s="16">
+        <f t="shared" si="30"/>
+        <v>4684.2105263157846</v>
+      </c>
+      <c r="AV119" s="15">
         <f t="shared" si="31"/>
-        <v>4684.2105263157846</v>
-      </c>
-      <c r="AV119" s="15">
+        <v>7.0963526999999926</v>
+      </c>
+      <c r="AW119" s="15">
         <f t="shared" si="32"/>
-        <v>7.0963526999999926</v>
-      </c>
-      <c r="AW119" s="15">
+        <v>4.4792121578947315</v>
+      </c>
+      <c r="AX119" s="14">
         <f t="shared" si="33"/>
-        <v>4.4792121578947315</v>
-      </c>
-      <c r="AX119" s="14">
+        <v>58.339868184332254</v>
+      </c>
+      <c r="AY119" s="14">
         <f t="shared" si="34"/>
-        <v>58.339868184332254</v>
-      </c>
-      <c r="AY119" s="14">
-        <f t="shared" si="35"/>
         <v>0.57231410688829942</v>
       </c>
       <c r="AZ119" s="14">
+        <f>AY119*64/1000</f>
+        <v>3.6628102840851162E-2</v>
+      </c>
+      <c r="BA119" s="27">
+        <f>AZ119*AU119*0.10472</f>
+        <v>17.967202564471563</v>
+      </c>
+      <c r="BB119" s="15">
+        <f>AV119*AW119</f>
+        <v>31.786069290549072</v>
+      </c>
+      <c r="BC119" s="26">
         <f t="shared" si="36"/>
-        <v>0.19077136896276647</v>
-      </c>
-      <c r="BA119" s="14">
-        <f t="shared" si="30"/>
-        <v>3.6628102840851162E-2</v>
-      </c>
-      <c r="BB119" s="27">
-        <f t="shared" si="37"/>
-        <v>17.967202564471563</v>
-      </c>
-      <c r="BC119" s="15">
-        <f t="shared" si="38"/>
-        <v>31.786069290549072</v>
-      </c>
-      <c r="BD119" s="26">
-        <f t="shared" si="40"/>
         <v>0.56525399225168549</v>
       </c>
+      <c r="BD119" s="42"/>
       <c r="BE119" s="38"/>
       <c r="BF119" s="38"/>
       <c r="BG119" s="38"/>
@@ -46349,45 +46264,42 @@
       <c r="AS120" s="29"/>
       <c r="AT120" s="29"/>
       <c r="AU120" s="16">
+        <f t="shared" si="30"/>
+        <v>4815.7894736842054</v>
+      </c>
+      <c r="AV120" s="15">
         <f t="shared" si="31"/>
-        <v>4815.7894736842054</v>
-      </c>
-      <c r="AV120" s="15">
+        <v>7.3236026999999924</v>
+      </c>
+      <c r="AW120" s="15">
         <f t="shared" si="32"/>
-        <v>7.3236026999999924</v>
-      </c>
-      <c r="AW120" s="15">
+        <v>4.6411858421052576</v>
+      </c>
+      <c r="AX120" s="14">
         <f t="shared" si="33"/>
-        <v>4.6411858421052576</v>
-      </c>
-      <c r="AX120" s="14">
+        <v>61.861381593871272</v>
+      </c>
+      <c r="AY120" s="14">
         <f t="shared" si="34"/>
-        <v>61.861381593871272</v>
-      </c>
-      <c r="AY120" s="14">
-        <f t="shared" si="35"/>
         <v>0.60686015343587729</v>
       </c>
       <c r="AZ120" s="14">
+        <f>AY120*64/1000</f>
+        <v>3.8839049819896145E-2</v>
+      </c>
+      <c r="BA120" s="27">
+        <f>AZ120*AU120*0.10472</f>
+        <v>19.586900773066635</v>
+      </c>
+      <c r="BB120" s="15">
+        <f>AV120*AW120</f>
+        <v>33.990201164443803</v>
+      </c>
+      <c r="BC120" s="26">
         <f t="shared" si="36"/>
-        <v>0.20228671781195909</v>
-      </c>
-      <c r="BA120" s="14">
-        <f t="shared" si="30"/>
-        <v>3.8839049819896145E-2</v>
-      </c>
-      <c r="BB120" s="27">
-        <f t="shared" si="37"/>
-        <v>19.586900773066635</v>
-      </c>
-      <c r="BC120" s="15">
-        <f t="shared" si="38"/>
-        <v>33.990201164443803</v>
-      </c>
-      <c r="BD120" s="26">
-        <f t="shared" si="40"/>
         <v>0.57625139310902174</v>
       </c>
+      <c r="BD120" s="42"/>
       <c r="BE120" s="38"/>
       <c r="BF120" s="38"/>
       <c r="BG120" s="38"/>
@@ -46468,45 +46380,42 @@
       <c r="AS121" s="29"/>
       <c r="AT121" s="29"/>
       <c r="AU121" s="16">
+        <f t="shared" si="30"/>
+        <v>4947.3684210526262</v>
+      </c>
+      <c r="AV121" s="15">
         <f t="shared" si="31"/>
-        <v>4947.3684210526262</v>
-      </c>
-      <c r="AV121" s="15">
+        <v>7.5508526999999921</v>
+      </c>
+      <c r="AW121" s="15">
         <f t="shared" si="32"/>
-        <v>7.5508526999999921</v>
-      </c>
-      <c r="AW121" s="15">
+        <v>4.8031595263157838</v>
+      </c>
+      <c r="AX121" s="14">
         <f t="shared" si="33"/>
-        <v>4.8031595263157838</v>
-      </c>
-      <c r="AX121" s="14">
+        <v>65.491902458068864</v>
+      </c>
+      <c r="AY121" s="14">
         <f t="shared" si="34"/>
-        <v>65.491902458068864</v>
-      </c>
-      <c r="AY121" s="14">
-        <f t="shared" si="35"/>
         <v>0.6424755631136555</v>
       </c>
       <c r="AZ121" s="14">
+        <f>AY121*64/1000</f>
+        <v>4.1118436039273953E-2</v>
+      </c>
+      <c r="BA121" s="27">
+        <f>AZ121*AU121*0.10472</f>
+        <v>21.302985603741043</v>
+      </c>
+      <c r="BB121" s="15">
+        <f>AV121*AW121</f>
+        <v>36.267950077812216</v>
+      </c>
+      <c r="BC121" s="26">
         <f t="shared" si="36"/>
-        <v>0.21415852103788516</v>
-      </c>
-      <c r="BA121" s="14">
-        <f t="shared" si="30"/>
-        <v>4.1118436039273953E-2</v>
-      </c>
-      <c r="BB121" s="27">
-        <f t="shared" si="37"/>
-        <v>21.302985603741043</v>
-      </c>
-      <c r="BC121" s="15">
-        <f t="shared" si="38"/>
-        <v>36.267950077812216</v>
-      </c>
-      <c r="BD121" s="26">
-        <f t="shared" si="40"/>
         <v>0.58737771387784199</v>
       </c>
+      <c r="BD121" s="42"/>
       <c r="BE121" s="38"/>
       <c r="BF121" s="38"/>
       <c r="BG121" s="38"/>
@@ -46569,45 +46478,42 @@
       <c r="AS122" s="29"/>
       <c r="AT122" s="29"/>
       <c r="AU122" s="16">
+        <f t="shared" si="30"/>
+        <v>5078.947368421047</v>
+      </c>
+      <c r="AV122" s="15">
         <f t="shared" si="31"/>
-        <v>5078.947368421047</v>
-      </c>
-      <c r="AV122" s="15">
+        <v>7.77810269999999</v>
+      </c>
+      <c r="AW122" s="15">
         <f t="shared" si="32"/>
-        <v>7.77810269999999</v>
-      </c>
-      <c r="AW122" s="15">
+        <v>4.9651332105263091</v>
+      </c>
+      <c r="AX122" s="14">
         <f t="shared" si="33"/>
-        <v>4.9651332105263091</v>
-      </c>
-      <c r="AX122" s="14">
+        <v>69.231771315218936</v>
+      </c>
+      <c r="AY122" s="14">
         <f t="shared" si="34"/>
-        <v>69.231771315218936</v>
-      </c>
-      <c r="AY122" s="14">
-        <f t="shared" si="35"/>
         <v>0.67916367660229771</v>
       </c>
       <c r="AZ122" s="14">
+        <f>AY122*64/1000</f>
+        <v>4.3466475302547054E-2</v>
+      </c>
+      <c r="BA122" s="27">
+        <f>AZ122*AU122*0.10472</f>
+        <v>23.118399833704352</v>
+      </c>
+      <c r="BB122" s="15">
+        <f>AV122*AW122</f>
+        <v>38.619316030654304</v>
+      </c>
+      <c r="BC122" s="26">
         <f t="shared" si="36"/>
-        <v>0.22638789220076591</v>
-      </c>
-      <c r="BA122" s="14">
-        <f t="shared" si="30"/>
-        <v>4.3466475302547054E-2</v>
-      </c>
-      <c r="BB122" s="27">
-        <f t="shared" si="37"/>
-        <v>23.118399833704352</v>
-      </c>
-      <c r="BC122" s="15">
-        <f t="shared" si="38"/>
-        <v>38.619316030654304</v>
-      </c>
-      <c r="BD122" s="26">
-        <f t="shared" si="40"/>
         <v>0.59862271551764379</v>
       </c>
+      <c r="BD122" s="42"/>
       <c r="BE122" s="38"/>
       <c r="BF122" s="38"/>
       <c r="BG122" s="38"/>
@@ -46670,45 +46576,42 @@
       <c r="AS123" s="29"/>
       <c r="AT123" s="29"/>
       <c r="AU123" s="16">
+        <f t="shared" si="30"/>
+        <v>5210.5263157894678</v>
+      </c>
+      <c r="AV123" s="15">
         <f t="shared" si="31"/>
-        <v>5210.5263157894678</v>
-      </c>
-      <c r="AV123" s="15">
+        <v>8.0053526999999889</v>
+      </c>
+      <c r="AW123" s="15">
         <f t="shared" si="32"/>
-        <v>8.0053526999999889</v>
-      </c>
-      <c r="AW123" s="15">
+        <v>5.1271068947368352</v>
+      </c>
+      <c r="AX123" s="14">
         <f t="shared" si="33"/>
-        <v>5.1271068947368352</v>
-      </c>
-      <c r="AX123" s="14">
+        <v>73.081320785002077</v>
+      </c>
+      <c r="AY123" s="14">
         <f t="shared" si="34"/>
-        <v>73.081320785002077</v>
-      </c>
-      <c r="AY123" s="14">
-        <f t="shared" si="35"/>
         <v>0.71692775690087052</v>
       </c>
       <c r="AZ123" s="14">
+        <f>AY123*64/1000</f>
+        <v>4.5883376441655715E-2</v>
+      </c>
+      <c r="BA123" s="27">
+        <f>AZ123*AU123*0.10472</f>
+        <v>25.036095311370943</v>
+      </c>
+      <c r="BB123" s="15">
+        <f>AV123*AW123</f>
+        <v>41.04429902297008</v>
+      </c>
+      <c r="BC123" s="26">
         <f t="shared" si="36"/>
-        <v>0.23897591896695683</v>
-      </c>
-      <c r="BA123" s="14">
-        <f t="shared" si="30"/>
-        <v>4.5883376441655715E-2</v>
-      </c>
-      <c r="BB123" s="27">
-        <f t="shared" si="37"/>
-        <v>25.036095311370943</v>
-      </c>
-      <c r="BC123" s="15">
-        <f t="shared" si="38"/>
-        <v>41.04429902297008</v>
-      </c>
-      <c r="BD123" s="26">
-        <f t="shared" si="40"/>
         <v>0.60997741238947001</v>
       </c>
+      <c r="BD123" s="42"/>
       <c r="BE123" s="38"/>
       <c r="BF123" s="38"/>
       <c r="BG123" s="38"/>
@@ -46771,45 +46674,42 @@
       <c r="AS124" s="29"/>
       <c r="AT124" s="29"/>
       <c r="AU124" s="16">
+        <f t="shared" si="30"/>
+        <v>5342.1052631578887</v>
+      </c>
+      <c r="AV124" s="15">
         <f t="shared" si="31"/>
-        <v>5342.1052631578887</v>
-      </c>
-      <c r="AV124" s="15">
+        <v>8.2326026999999886</v>
+      </c>
+      <c r="AW124" s="15">
         <f t="shared" si="32"/>
-        <v>8.2326026999999886</v>
-      </c>
-      <c r="AW124" s="15">
+        <v>5.2890805789473614</v>
+      </c>
+      <c r="AX124" s="14">
         <f t="shared" si="33"/>
-        <v>5.2890805789473614</v>
-      </c>
-      <c r="AX124" s="14">
+        <v>77.040875950854982</v>
+      </c>
+      <c r="AY124" s="14">
         <f t="shared" si="34"/>
-        <v>77.040875950854982</v>
-      </c>
-      <c r="AY124" s="14">
-        <f t="shared" si="35"/>
         <v>0.75577099307788742</v>
       </c>
       <c r="AZ124" s="14">
+        <f>AY124*64/1000</f>
+        <v>4.8369343556984794E-2</v>
+      </c>
+      <c r="BA124" s="27">
+        <f>AZ124*AU124*0.10472</f>
+        <v>27.059032748140808</v>
+      </c>
+      <c r="BB124" s="15">
+        <f>AV124*AW124</f>
+        <v>43.542899054759552</v>
+      </c>
+      <c r="BC124" s="26">
         <f t="shared" si="36"/>
-        <v>0.25192366435929581</v>
-      </c>
-      <c r="BA124" s="14">
-        <f t="shared" si="30"/>
-        <v>4.8369343556984794E-2</v>
-      </c>
-      <c r="BB124" s="27">
-        <f t="shared" si="37"/>
-        <v>27.059032748140808</v>
-      </c>
-      <c r="BC124" s="15">
-        <f t="shared" si="38"/>
-        <v>43.542899054759552</v>
-      </c>
-      <c r="BD124" s="26">
-        <f t="shared" si="40"/>
         <v>0.62143388096670749</v>
       </c>
+      <c r="BD124" s="42"/>
       <c r="BE124" s="38"/>
       <c r="BF124" s="38"/>
       <c r="BG124" s="38"/>
@@ -46876,45 +46776,42 @@
       <c r="AS125" s="29"/>
       <c r="AT125" s="29"/>
       <c r="AU125" s="16">
+        <f t="shared" si="30"/>
+        <v>5473.6842105263095</v>
+      </c>
+      <c r="AV125" s="15">
         <f t="shared" si="31"/>
-        <v>5473.6842105263095</v>
-      </c>
-      <c r="AV125" s="15">
+        <v>8.4598526999999883</v>
+      </c>
+      <c r="AW125" s="15">
         <f t="shared" si="32"/>
-        <v>8.4598526999999883</v>
-      </c>
-      <c r="AW125" s="15">
+        <v>5.4510542631578875</v>
+      </c>
+      <c r="AX125" s="14">
         <f t="shared" si="33"/>
-        <v>5.4510542631578875</v>
-      </c>
-      <c r="AX125" s="14">
+        <v>81.110754714779773</v>
+      </c>
+      <c r="AY125" s="14">
         <f t="shared" si="34"/>
-        <v>81.110754714779773</v>
-      </c>
-      <c r="AY125" s="14">
-        <f t="shared" si="35"/>
         <v>0.79569650375198964</v>
       </c>
       <c r="AZ125" s="14">
+        <f>AY125*64/1000</f>
+        <v>5.0924576240127334E-2</v>
+      </c>
+      <c r="BA125" s="27">
+        <f>AZ125*AU125*0.10472</f>
+        <v>29.190181520109334</v>
+      </c>
+      <c r="BB125" s="15">
+        <f>AV125*AW125</f>
+        <v>46.115116126022698</v>
+      </c>
+      <c r="BC125" s="26">
         <f t="shared" si="36"/>
-        <v>0.2652321679173299</v>
-      </c>
-      <c r="BA125" s="14">
-        <f t="shared" si="30"/>
-        <v>5.0924576240127334E-2</v>
-      </c>
-      <c r="BB125" s="27">
-        <f t="shared" si="37"/>
-        <v>29.190181520109334</v>
-      </c>
-      <c r="BC125" s="15">
-        <f t="shared" si="38"/>
-        <v>46.115116126022698</v>
-      </c>
-      <c r="BD125" s="26">
-        <f t="shared" si="40"/>
         <v>0.63298510276627828</v>
       </c>
+      <c r="BD125" s="42"/>
       <c r="BE125" s="38"/>
       <c r="BF125" s="38"/>
       <c r="BG125" s="38"/>
@@ -46971,45 +46868,42 @@
       <c r="AS126" s="29"/>
       <c r="AT126" s="29"/>
       <c r="AU126" s="16">
+        <f t="shared" si="30"/>
+        <v>5605.2631578947303</v>
+      </c>
+      <c r="AV126" s="15">
         <f t="shared" si="31"/>
-        <v>5605.2631578947303</v>
-      </c>
-      <c r="AV126" s="15">
+        <v>8.6871026999999881</v>
+      </c>
+      <c r="AW126" s="15">
         <f t="shared" si="32"/>
-        <v>8.6871026999999881</v>
-      </c>
-      <c r="AW126" s="15">
+        <v>5.6130279473684137</v>
+      </c>
+      <c r="AX126" s="14">
         <f t="shared" si="33"/>
-        <v>5.6130279473684137</v>
-      </c>
-      <c r="AX126" s="14">
+        <v>85.291268127205981</v>
+      </c>
+      <c r="AY126" s="14">
         <f t="shared" si="34"/>
-        <v>85.291268127205981</v>
-      </c>
-      <c r="AY126" s="14">
-        <f t="shared" si="35"/>
         <v>0.83670734032789074</v>
       </c>
       <c r="AZ126" s="14">
+        <f>AY126*64/1000</f>
+        <v>5.3549269780985009E-2</v>
+      </c>
+      <c r="BA126" s="27">
+        <f>AZ126*AU126*0.10472</f>
+        <v>31.432519478999748</v>
+      </c>
+      <c r="BB126" s="15">
+        <f>AV126*AW126</f>
+        <v>48.760950236759541</v>
+      </c>
+      <c r="BC126" s="26">
         <f t="shared" si="36"/>
-        <v>0.2789024467759636</v>
-      </c>
-      <c r="BA126" s="14">
-        <f t="shared" si="30"/>
-        <v>5.3549269780985016E-2</v>
-      </c>
-      <c r="BB126" s="27">
-        <f t="shared" si="37"/>
-        <v>31.432519478999748</v>
-      </c>
-      <c r="BC126" s="15">
-        <f t="shared" si="38"/>
-        <v>48.760950236759541</v>
-      </c>
-      <c r="BD126" s="26">
-        <f t="shared" si="40"/>
         <v>0.64462483455262187</v>
       </c>
+      <c r="BD126" s="42"/>
       <c r="BE126" s="38"/>
       <c r="BF126" s="38"/>
       <c r="BG126" s="38"/>
@@ -47066,45 +46960,42 @@
       <c r="AS127" s="29"/>
       <c r="AT127" s="29"/>
       <c r="AU127" s="16">
+        <f t="shared" si="30"/>
+        <v>5736.8421052631511</v>
+      </c>
+      <c r="AV127" s="15">
         <f t="shared" si="31"/>
-        <v>5736.8421052631511</v>
-      </c>
-      <c r="AV127" s="15">
+        <v>8.9143526999999878</v>
+      </c>
+      <c r="AW127" s="15">
         <f t="shared" si="32"/>
-        <v>8.9143526999999878</v>
-      </c>
-      <c r="AW127" s="15">
+        <v>5.7750016315789399</v>
+      </c>
+      <c r="AX127" s="14">
         <f t="shared" si="33"/>
-        <v>5.7750016315789399</v>
-      </c>
-      <c r="AX127" s="14">
+        <v>89.58272069420272</v>
+      </c>
+      <c r="AY127" s="14">
         <f t="shared" si="34"/>
-        <v>89.58272069420272</v>
-      </c>
-      <c r="AY127" s="14">
-        <f t="shared" si="35"/>
         <v>0.87880649001012878</v>
       </c>
       <c r="AZ127" s="14">
+        <f>AY127*64/1000</f>
+        <v>5.6243615360648244E-2</v>
+      </c>
+      <c r="BA127" s="27">
+        <f>AZ127*AU127*0.10472</f>
+        <v>33.789032771674279</v>
+      </c>
+      <c r="BB127" s="15">
+        <f>AV127*AW127</f>
+        <v>51.480401386970058</v>
+      </c>
+      <c r="BC127" s="26">
         <f t="shared" si="36"/>
-        <v>0.29293549667004293</v>
-      </c>
-      <c r="BA127" s="14">
-        <f t="shared" si="30"/>
-        <v>5.6243615360648244E-2</v>
-      </c>
-      <c r="BB127" s="27">
-        <f t="shared" si="37"/>
-        <v>33.789032771674279</v>
-      </c>
-      <c r="BC127" s="15">
-        <f t="shared" si="38"/>
-        <v>51.480401386970058</v>
-      </c>
-      <c r="BD127" s="26">
-        <f t="shared" si="40"/>
         <v>0.65634750043395051</v>
       </c>
+      <c r="BD127" s="42"/>
       <c r="BE127" s="38"/>
       <c r="BF127" s="45" t="s">
         <v>65</v>
@@ -47167,41 +47058,38 @@
         <v>5868.4210526315719</v>
       </c>
       <c r="AV128" s="15">
+        <f t="shared" si="31"/>
+        <v>9.1416026999999875</v>
+      </c>
+      <c r="AW128" s="15">
         <f t="shared" si="32"/>
-        <v>9.1416026999999875</v>
-      </c>
-      <c r="AW128" s="15">
+        <v>5.936975315789466</v>
+      </c>
+      <c r="AX128" s="14">
         <f t="shared" si="33"/>
-        <v>5.936975315789466</v>
-      </c>
-      <c r="AX128" s="14">
+        <v>93.98541066409976</v>
+      </c>
+      <c r="AY128" s="14">
         <f t="shared" si="34"/>
-        <v>93.98541066409976</v>
-      </c>
-      <c r="AY128" s="14">
-        <f t="shared" si="35"/>
         <v>0.92199687861481872</v>
       </c>
       <c r="AZ128" s="14">
+        <f>AY128*64/1000</f>
+        <v>5.9007800231348398E-2</v>
+      </c>
+      <c r="BA128" s="27">
+        <f>AZ128*AU128*0.10472</f>
+        <v>36.262715667646724</v>
+      </c>
+      <c r="BB128" s="15">
+        <f>AV128*AW128</f>
+        <v>54.273469576654264</v>
+      </c>
+      <c r="BC128" s="26">
         <f t="shared" si="36"/>
-        <v>0.30733229287160624</v>
-      </c>
-      <c r="BA128" s="14">
-        <f t="shared" si="30"/>
-        <v>5.9007800231348398E-2</v>
-      </c>
-      <c r="BB128" s="27">
-        <f t="shared" si="37"/>
-        <v>36.262715667646724</v>
-      </c>
-      <c r="BC128" s="15">
-        <f t="shared" si="38"/>
-        <v>54.273469576654264</v>
-      </c>
-      <c r="BD128" s="26">
-        <f t="shared" si="40"/>
         <v>0.66814810165085026</v>
       </c>
+      <c r="BD128" s="42"/>
       <c r="BE128" s="38"/>
       <c r="BF128" s="45"/>
       <c r="BG128" s="45"/>
@@ -47265,37 +47153,34 @@
         <v>9.3688526999999997</v>
       </c>
       <c r="AW129" s="15">
+        <f t="shared" si="32"/>
+        <v>6.0989490000000011</v>
+      </c>
+      <c r="AX129" s="14">
         <f t="shared" si="33"/>
-        <v>6.0989490000000011</v>
-      </c>
-      <c r="AX129" s="14">
+        <v>98.499630295323357</v>
+      </c>
+      <c r="AY129" s="14">
         <f t="shared" si="34"/>
-        <v>98.499630295323357</v>
-      </c>
-      <c r="AY129" s="14">
-        <f t="shared" si="35"/>
         <v>0.96628137319712226</v>
       </c>
       <c r="AZ129" s="14">
-        <f>(AY129/4*256)/(3/4*256)</f>
-        <v>0.3220937910657074</v>
-      </c>
-      <c r="BA129" s="14">
-        <f>AZ129*3/4*256/1000</f>
+        <f>AY129*64/1000</f>
         <v>6.1842007884615822E-2</v>
       </c>
-      <c r="BB129" s="27">
-        <f>BA129*AU129*0.10472</f>
+      <c r="BA129" s="27">
+        <f>AZ129*AU129*0.10472</f>
         <v>38.856570394061812</v>
       </c>
-      <c r="BC129" s="15">
-        <f t="shared" si="38"/>
+      <c r="BB129" s="15">
+        <f>AV129*AW129</f>
         <v>57.140154805812308</v>
       </c>
-      <c r="BD129" s="26">
-        <f t="shared" si="40"/>
+      <c r="BC129" s="26">
+        <f t="shared" si="36"/>
         <v>0.68002214075397138</v>
       </c>
+      <c r="BD129" s="42"/>
       <c r="BE129" s="38"/>
       <c r="BF129" s="38"/>
       <c r="BG129" s="38"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E9052E-3C9E-481C-B061-A3EEF177FA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A2652-1C53-42B1-B3EA-2817980A1A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="73">
   <si>
     <t>Volt</t>
   </si>
@@ -284,7 +284,10 @@
     <t>Interpolering for 3:1</t>
   </si>
   <si>
-    <t>Fop = Fstang/3</t>
+    <t>Fp = m*g/alpha - m*g</t>
+  </si>
+  <si>
+    <t>Alpha:</t>
   </si>
 </sst>
 </file>
@@ -10369,25 +10372,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-0.46266150900000008</c:v>
+                  <c:v>-0.46266150900000014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.40098825416129041</c:v>
+                  <c:v>-0.40098825416129036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.33931499932258075</c:v>
+                  <c:v>-0.3393149993225808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.27764174448387108</c:v>
+                  <c:v>-0.27764174448387113</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-0.21596848964516147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.15429523480645171</c:v>
+                  <c:v>-0.15429523480645174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.2621979967742005E-2</c:v>
+                  <c:v>-9.2621979967742019E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-3.0948725129032462E-2</c:v>
@@ -10399,70 +10402,70 @@
                   <c:v>9.2397784548386985E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15407103938709651</c:v>
+                  <c:v>0.15407103938709654</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.21574429422580643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27741754906451616</c:v>
+                  <c:v>0.2774175490645161</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33909080390322605</c:v>
+                  <c:v>0.3390908039032261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40076405874193582</c:v>
+                  <c:v>0.40076405874193588</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46243731358064571</c:v>
+                  <c:v>0.46243731358064566</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.52411056841935544</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58578382325806511</c:v>
+                  <c:v>0.585783823258065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64745707809677522</c:v>
+                  <c:v>0.64745707809677544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.70913033293548489</c:v>
+                  <c:v>0.709130332935485</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.77080358777419467</c:v>
+                  <c:v>0.77080358777419455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83247684261290444</c:v>
+                  <c:v>0.83247684261290456</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.89415009745161445</c:v>
+                  <c:v>0.89415009745161456</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95582335229032422</c:v>
+                  <c:v>0.95582335229032411</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0174966071290339</c:v>
+                  <c:v>1.0174966071290337</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0791698619677439</c:v>
+                  <c:v>1.0791698619677437</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1408431168064539</c:v>
+                  <c:v>1.1408431168064541</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2025163716451635</c:v>
+                  <c:v>1.2025163716451637</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.2641896264838732</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.325862881322583</c:v>
+                  <c:v>1.3258628813225832</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.387536136161293</c:v>
+                  <c:v>1.3875361361612928</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4492093910000003</c:v>
+                  <c:v>1.4492093910000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12044,25 +12047,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-0.46266150900000008</c:v>
+                  <c:v>-0.46266150900000014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.40098825416129041</c:v>
+                  <c:v>-0.40098825416129036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.33931499932258075</c:v>
+                  <c:v>-0.3393149993225808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.27764174448387108</c:v>
+                  <c:v>-0.27764174448387113</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-0.21596848964516147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.15429523480645171</c:v>
+                  <c:v>-0.15429523480645174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.2621979967742005E-2</c:v>
+                  <c:v>-9.2621979967742019E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-3.0948725129032462E-2</c:v>
@@ -12074,70 +12077,70 @@
                   <c:v>9.2397784548386985E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15407103938709651</c:v>
+                  <c:v>0.15407103938709654</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.21574429422580643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27741754906451616</c:v>
+                  <c:v>0.2774175490645161</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33909080390322605</c:v>
+                  <c:v>0.3390908039032261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40076405874193582</c:v>
+                  <c:v>0.40076405874193588</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46243731358064571</c:v>
+                  <c:v>0.46243731358064566</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.52411056841935544</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58578382325806511</c:v>
+                  <c:v>0.585783823258065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64745707809677522</c:v>
+                  <c:v>0.64745707809677544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.70913033293548489</c:v>
+                  <c:v>0.709130332935485</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.77080358777419467</c:v>
+                  <c:v>0.77080358777419455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83247684261290444</c:v>
+                  <c:v>0.83247684261290456</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.89415009745161445</c:v>
+                  <c:v>0.89415009745161456</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95582335229032422</c:v>
+                  <c:v>0.95582335229032411</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0174966071290339</c:v>
+                  <c:v>1.0174966071290337</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0791698619677439</c:v>
+                  <c:v>1.0791698619677437</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1408431168064539</c:v>
+                  <c:v>1.1408431168064541</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2025163716451635</c:v>
+                  <c:v>1.2025163716451637</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.2641896264838732</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.325862881322583</c:v>
+                  <c:v>1.3258628813225832</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.387536136161293</c:v>
+                  <c:v>1.3875361361612928</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4492093910000003</c:v>
+                  <c:v>1.4492093910000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33033,8 +33036,8 @@
   </sheetPr>
   <dimension ref="A1:CA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BU3" sqref="BU3"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BU5" sqref="BU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33307,8 +33310,12 @@
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
+      <c r="Z3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>0.5</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -33353,7 +33360,9 @@
       <c r="BI3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BJ3" s="4"/>
+      <c r="BJ3" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="BK3" s="22" t="s">
         <v>48</v>
       </c>
@@ -33380,7 +33389,7 @@
       <c r="BT3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="BU3" s="25" t="s">
+      <c r="BU3" s="22" t="s">
         <v>71</v>
       </c>
       <c r="BV3" s="25" t="s">
@@ -33500,7 +33509,9 @@
       <c r="BI4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BJ4" s="32"/>
+      <c r="BJ4" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="BK4" s="32" t="s">
         <v>21</v>
       </c>
@@ -33651,20 +33662,23 @@
         <v>-51.46208</v>
       </c>
       <c r="BI5" s="5">
-        <f>9.81*BH5/1000</f>
+        <f t="shared" ref="BI5:BI36" si="3">9.81*BH5/1000</f>
         <v>-0.50484300479999999</v>
       </c>
-      <c r="BJ5" s="5"/>
+      <c r="BJ5" s="5">
+        <f>BH5/1000*9.81/AA$3 - BH5/1000*9.81</f>
+        <v>-0.50484300479999999</v>
+      </c>
       <c r="BK5" s="5">
-        <f>BI5*128/1000</f>
+        <f t="shared" ref="BK5:BK36" si="4">BI5*128/1000</f>
         <v>-6.4619904614399995E-2</v>
       </c>
       <c r="BL5" s="5">
-        <f>BK5*BD5*0.10472</f>
+        <f t="shared" ref="BL5:BL36" si="5">BK5*BD5*0.10472</f>
         <v>-6.7669964112199672</v>
       </c>
       <c r="BM5" s="5">
-        <f>BE5*BF5</f>
+        <f t="shared" ref="BM5:BM36" si="6">BE5*BF5</f>
         <v>-4.3041216000000194E-2</v>
       </c>
       <c r="BN5" s="5">
@@ -33688,23 +33702,23 @@
         <v>-141.48670000000001</v>
       </c>
       <c r="BT5" s="11">
-        <f t="shared" ref="BT5:BT36" si="3">9.81*BS5/1000</f>
+        <f t="shared" ref="BT5:BT36" si="7">9.81*BS5/1000</f>
         <v>-1.3879845270000002</v>
       </c>
       <c r="BU5" s="11">
-        <f>BT5/3</f>
-        <v>-0.46266150900000008</v>
+        <f>BS5/1000*9.81/AA$15 - BS5/1000*9.81</f>
+        <v>-0.46266150900000014</v>
       </c>
       <c r="BV5" s="11">
-        <f t="shared" ref="BV5:BV36" si="4">BT5*(64/192)</f>
+        <f t="shared" ref="BV5:BV36" si="8">BT5*(64/192)</f>
         <v>-0.46266150900000003</v>
       </c>
       <c r="BW5" s="11">
-        <f t="shared" ref="BW5:BW36" si="5">BV5*BP5*0.10472</f>
+        <f t="shared" ref="BW5:BW36" si="9">BV5*BP5*0.10472</f>
         <v>-48.449913222479999</v>
       </c>
       <c r="BX5" s="11">
-        <f t="shared" ref="BX5:BX36" si="6">BQ5*BR5</f>
+        <f t="shared" ref="BX5:BX36" si="10">BQ5*BR5</f>
         <v>-0.10701771999999987</v>
       </c>
       <c r="BY5" s="11">
@@ -33775,7 +33789,7 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="16">
-        <f t="shared" ref="BD6:BD35" si="7">BD5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" ref="BD6:BD35" si="11">BD5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
         <v>1096.7741935483871</v>
       </c>
       <c r="BE6" s="15">
@@ -33791,69 +33805,72 @@
         <v>-0.14634505470967754</v>
       </c>
       <c r="BH6" s="5">
-        <f t="shared" ref="BH6:BH36" si="8">0.06841*BD6-119.87208</f>
+        <f t="shared" ref="BH6:BH36" si="12">0.06841*BD6-119.87208</f>
         <v>-44.841757419354835</v>
       </c>
       <c r="BI6" s="5">
-        <f>9.81*BH6/1000</f>
+        <f t="shared" si="3"/>
         <v>-0.43989764028387096</v>
       </c>
-      <c r="BJ6" s="5"/>
+      <c r="BJ6" s="5">
+        <f t="shared" ref="BJ6:BJ36" si="13">BH6/1000*9.81/AA$3 - BH6/1000*9.81</f>
+        <v>-0.43989764028387091</v>
+      </c>
       <c r="BK6" s="5">
-        <f>BI6*128/1000</f>
+        <f t="shared" si="4"/>
         <v>-5.6306897956335485E-2</v>
       </c>
       <c r="BL6" s="5">
-        <f>BK6*BD6*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-6.4670833559862375</v>
       </c>
       <c r="BM6" s="5">
-        <f>BE6*BF6</f>
+        <f t="shared" si="6"/>
         <v>-0.14634505470967754</v>
       </c>
       <c r="BN6" s="5">
-        <f t="shared" ref="BN6:BN36" si="9">BL6/BM6</f>
+        <f t="shared" ref="BN6:BN36" si="14">BL6/BM6</f>
         <v>44.190651804502558</v>
       </c>
       <c r="BO6" s="33"/>
       <c r="BP6" s="16">
-        <f t="shared" ref="BP6:BP35" si="10">BP5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" ref="BP6:BP35" si="15">BP5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
         <v>1096.7741935483871</v>
       </c>
       <c r="BQ6" s="15">
-        <f t="shared" ref="BQ6:BQ36" si="11">0.00187*BP6-1.403</f>
+        <f t="shared" ref="BQ6:BQ36" si="16">0.00187*BP6-1.403</f>
         <v>0.64796774193548368</v>
       </c>
       <c r="BR6" s="15">
-        <f t="shared" ref="BR6:BR36" si="12">0.00135*BP6-1.57916</f>
+        <f t="shared" ref="BR6:BR36" si="17">0.00135*BP6-1.57916</f>
         <v>-9.8514838709677255E-2</v>
       </c>
       <c r="BS6" s="11">
-        <f t="shared" ref="BS6:BS36" si="13">0.19489*BP6-336.3767</f>
+        <f t="shared" ref="BS6:BS36" si="18">0.19489*BP6-336.3767</f>
         <v>-122.62637741935487</v>
       </c>
       <c r="BT6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.2029647624838713</v>
       </c>
       <c r="BU6" s="11">
-        <f t="shared" ref="BU6:BU36" si="14">BT6/3</f>
+        <f t="shared" ref="BU6:BU36" si="19">BS6/1000*9.81/AA$15 - BS6/1000*9.81</f>
+        <v>-0.40098825416129036</v>
+      </c>
+      <c r="BV6" s="11">
+        <f t="shared" si="8"/>
         <v>-0.40098825416129041</v>
       </c>
-      <c r="BV6" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.40098825416129041</v>
-      </c>
       <c r="BW6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-46.055182554070683</v>
       </c>
       <c r="BX6" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-6.3834437585847947E-2</v>
       </c>
       <c r="BY6" s="11">
-        <f t="shared" ref="BY6:BY36" si="15">BW6/BX6</f>
+        <f t="shared" ref="BY6:BY36" si="20">BW6/BX6</f>
         <v>721.47862965242268</v>
       </c>
       <c r="BZ6" s="5"/>
@@ -33920,7 +33937,7 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1193.5483870967741</v>
       </c>
       <c r="BE7" s="15">
@@ -33936,69 +33953,72 @@
         <v>-0.19013276438709692</v>
       </c>
       <c r="BH7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-38.221434838709683</v>
       </c>
       <c r="BI7" s="5">
-        <f>9.81*BH7/1000</f>
+        <f t="shared" si="3"/>
         <v>-0.37495227576774204</v>
       </c>
-      <c r="BJ7" s="5"/>
+      <c r="BJ7" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.37495227576774204</v>
+      </c>
       <c r="BK7" s="5">
-        <f>BI7*128/1000</f>
+        <f t="shared" si="4"/>
         <v>-4.7993891298270981E-2</v>
       </c>
       <c r="BL7" s="5">
-        <f>BK7*BD7*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-5.9986790638687957</v>
       </c>
       <c r="BM7" s="5">
-        <f>BE7*BF7</f>
+        <f t="shared" si="6"/>
         <v>-0.19013276438709692</v>
       </c>
       <c r="BN7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>31.549949232610469</v>
       </c>
       <c r="BO7" s="33"/>
       <c r="BP7" s="16">
+        <f t="shared" si="15"/>
+        <v>1193.5483870967741</v>
+      </c>
+      <c r="BQ7" s="15">
+        <f t="shared" si="16"/>
+        <v>0.82893548387096772</v>
+      </c>
+      <c r="BR7" s="15">
+        <f t="shared" si="17"/>
+        <v>3.2130322580645299E-2</v>
+      </c>
+      <c r="BS7" s="11">
+        <f t="shared" si="18"/>
+        <v>-103.76605483870969</v>
+      </c>
+      <c r="BT7" s="11">
+        <f t="shared" si="7"/>
+        <v>-1.0179449979677422</v>
+      </c>
+      <c r="BU7" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.3393149993225808</v>
+      </c>
+      <c r="BV7" s="11">
+        <f t="shared" si="8"/>
+        <v>-0.33931499932258069</v>
+      </c>
+      <c r="BW7" s="11">
+        <f t="shared" si="9"/>
+        <v>-42.410434483072379</v>
+      </c>
+      <c r="BX7" s="11">
         <f t="shared" si="10"/>
-        <v>1193.5483870967741</v>
-      </c>
-      <c r="BQ7" s="15">
-        <f t="shared" si="11"/>
-        <v>0.82893548387096772</v>
-      </c>
-      <c r="BR7" s="15">
-        <f t="shared" si="12"/>
-        <v>3.2130322580645299E-2</v>
-      </c>
-      <c r="BS7" s="11">
-        <f t="shared" si="13"/>
-        <v>-103.76605483870969</v>
-      </c>
-      <c r="BT7" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.0179449979677422</v>
-      </c>
-      <c r="BU7" s="11">
-        <f t="shared" si="14"/>
-        <v>-0.33931499932258075</v>
-      </c>
-      <c r="BV7" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.33931499932258069</v>
-      </c>
-      <c r="BW7" s="11">
-        <f t="shared" si="5"/>
-        <v>-42.410434483072379</v>
-      </c>
-      <c r="BX7" s="11">
-        <f t="shared" si="6"/>
         <v>2.6633964495317491E-2</v>
       </c>
       <c r="BY7" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-1592.3440346452569</v>
       </c>
       <c r="BZ7" s="5"/>
@@ -34065,7 +34085,7 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1290.3225806451612</v>
       </c>
       <c r="BE8" s="15">
@@ -34081,69 +34101,72 @@
         <v>-0.1744043450322583</v>
       </c>
       <c r="BH8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-31.601112258064518</v>
       </c>
       <c r="BI8" s="5">
-        <f>9.81*BH8/1000</f>
+        <f t="shared" si="3"/>
         <v>-0.31000691125161295</v>
       </c>
-      <c r="BJ8" s="5"/>
+      <c r="BJ8" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.31000691125161289</v>
+      </c>
       <c r="BK8" s="5">
-        <f>BI8*128/1000</f>
+        <f t="shared" si="4"/>
         <v>-3.9680884640206457E-2</v>
       </c>
       <c r="BL8" s="5">
-        <f>BK8*BD8*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-5.3617835348676381</v>
       </c>
       <c r="BM8" s="5">
-        <f>BE8*BF8</f>
+        <f t="shared" si="6"/>
         <v>-0.1744043450322583</v>
       </c>
       <c r="BN8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>30.743405698269203</v>
       </c>
       <c r="BO8" s="33"/>
       <c r="BP8" s="16">
+        <f t="shared" si="15"/>
+        <v>1290.3225806451612</v>
+      </c>
+      <c r="BQ8" s="15">
+        <f t="shared" si="16"/>
+        <v>1.0099032258064513</v>
+      </c>
+      <c r="BR8" s="15">
+        <f t="shared" si="17"/>
+        <v>0.16277548387096785</v>
+      </c>
+      <c r="BS8" s="11">
+        <f t="shared" si="18"/>
+        <v>-84.905732258064546</v>
+      </c>
+      <c r="BT8" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.83292523345161329</v>
+      </c>
+      <c r="BU8" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.27764174448387113</v>
+      </c>
+      <c r="BV8" s="11">
+        <f t="shared" si="8"/>
+        <v>-0.27764174448387108</v>
+      </c>
+      <c r="BW8" s="11">
+        <f t="shared" si="9"/>
+        <v>-37.51566900948513</v>
+      </c>
+      <c r="BX8" s="11">
         <f t="shared" si="10"/>
-        <v>1290.3225806451612</v>
-      </c>
-      <c r="BQ8" s="15">
-        <f t="shared" si="11"/>
-        <v>1.0099032258064513</v>
-      </c>
-      <c r="BR8" s="15">
-        <f t="shared" si="12"/>
-        <v>0.16277548387096785</v>
-      </c>
-      <c r="BS8" s="11">
-        <f t="shared" si="13"/>
-        <v>-84.905732258064546</v>
-      </c>
-      <c r="BT8" s="11">
-        <f t="shared" si="3"/>
-        <v>-0.83292523345161329</v>
-      </c>
-      <c r="BU8" s="11">
-        <f t="shared" si="14"/>
-        <v>-0.27764174448387108</v>
-      </c>
-      <c r="BV8" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.27764174448387108</v>
-      </c>
-      <c r="BW8" s="11">
-        <f t="shared" si="5"/>
-        <v>-37.51566900948513</v>
-      </c>
-      <c r="BX8" s="11">
-        <f t="shared" si="6"/>
         <v>0.16438748624349642</v>
       </c>
       <c r="BY8" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-228.21487125799604</v>
       </c>
       <c r="BZ8" s="5"/>
@@ -34210,7 +34233,7 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1387.0967741935483</v>
       </c>
       <c r="BE9" s="15">
@@ -34226,69 +34249,72 @@
         <v>-9.915979664516153E-2</v>
       </c>
       <c r="BH9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-24.980789677419367</v>
       </c>
       <c r="BI9" s="5">
-        <f>9.81*BH9/1000</f>
+        <f t="shared" si="3"/>
         <v>-0.245061546735484</v>
       </c>
-      <c r="BJ9" s="5"/>
+      <c r="BJ9" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.245061546735484</v>
+      </c>
       <c r="BK9" s="5">
-        <f>BI9*128/1000</f>
+        <f t="shared" si="4"/>
         <v>-3.1367877982141953E-2</v>
       </c>
       <c r="BL9" s="5">
-        <f>BK9*BD9*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-4.5563967689827711</v>
       </c>
       <c r="BM9" s="5">
-        <f>BE9*BF9</f>
+        <f t="shared" si="6"/>
         <v>-9.915979664516153E-2</v>
       </c>
       <c r="BN9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>45.950041479891425</v>
       </c>
       <c r="BO9" s="33"/>
       <c r="BP9" s="16">
+        <f t="shared" si="15"/>
+        <v>1387.0967741935483</v>
+      </c>
+      <c r="BQ9" s="15">
+        <f t="shared" si="16"/>
+        <v>1.1908709677419353</v>
+      </c>
+      <c r="BR9" s="15">
+        <f t="shared" si="17"/>
+        <v>0.29342064516129041</v>
+      </c>
+      <c r="BS9" s="11">
+        <f t="shared" si="18"/>
+        <v>-66.0454096774194</v>
+      </c>
+      <c r="BT9" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.6479054689354844</v>
+      </c>
+      <c r="BU9" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.21596848964516147</v>
+      </c>
+      <c r="BV9" s="11">
+        <f t="shared" si="8"/>
+        <v>-0.21596848964516147</v>
+      </c>
+      <c r="BW9" s="11">
+        <f t="shared" si="9"/>
+        <v>-31.370886133308908</v>
+      </c>
+      <c r="BX9" s="11">
         <f t="shared" si="10"/>
-        <v>1387.0967741935483</v>
-      </c>
-      <c r="BQ9" s="15">
-        <f t="shared" si="11"/>
-        <v>1.1908709677419353</v>
-      </c>
-      <c r="BR9" s="15">
-        <f t="shared" si="12"/>
-        <v>0.29342064516129041</v>
-      </c>
-      <c r="BS9" s="11">
-        <f t="shared" si="13"/>
-        <v>-66.0454096774194</v>
-      </c>
-      <c r="BT9" s="11">
-        <f t="shared" si="3"/>
-        <v>-0.6479054689354844</v>
-      </c>
-      <c r="BU9" s="11">
-        <f t="shared" si="14"/>
-        <v>-0.21596848964516147</v>
-      </c>
-      <c r="BV9" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.21596848964516147</v>
-      </c>
-      <c r="BW9" s="11">
-        <f t="shared" si="5"/>
-        <v>-31.370886133308908</v>
-      </c>
-      <c r="BX9" s="11">
-        <f t="shared" si="6"/>
         <v>0.34942612765868891</v>
       </c>
       <c r="BY9" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-89.778306915707347</v>
       </c>
       <c r="BZ9" s="5"/>
@@ -34355,7 +34381,7 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1483.8709677419354</v>
       </c>
       <c r="BE10" s="15">
@@ -34371,69 +34397,72 @@
         <v>3.5600880774193183E-2</v>
       </c>
       <c r="BH10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-18.360467096774201</v>
       </c>
       <c r="BI10" s="5">
-        <f>9.81*BH10/1000</f>
+        <f t="shared" si="3"/>
         <v>-0.18011618221935494</v>
       </c>
-      <c r="BJ10" s="5"/>
+      <c r="BJ10" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.18011618221935494</v>
+      </c>
       <c r="BK10" s="5">
-        <f>BI10*128/1000</f>
+        <f t="shared" si="4"/>
         <v>-2.3054871324077433E-2</v>
       </c>
       <c r="BL10" s="5">
-        <f>BK10*BD10*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-3.5825187662141893</v>
       </c>
       <c r="BM10" s="5">
-        <f>BE10*BF10</f>
+        <f t="shared" si="6"/>
         <v>3.5600880774193183E-2</v>
       </c>
       <c r="BN10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-100.63005993972854</v>
       </c>
       <c r="BO10" s="33"/>
       <c r="BP10" s="16">
+        <f t="shared" si="15"/>
+        <v>1483.8709677419354</v>
+      </c>
+      <c r="BQ10" s="15">
+        <f t="shared" si="16"/>
+        <v>1.3718387096774189</v>
+      </c>
+      <c r="BR10" s="15">
+        <f t="shared" si="17"/>
+        <v>0.42406580645161318</v>
+      </c>
+      <c r="BS10" s="11">
+        <f t="shared" si="18"/>
+        <v>-47.185087096774225</v>
+      </c>
+      <c r="BT10" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.46288570441935517</v>
+      </c>
+      <c r="BU10" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.15429523480645174</v>
+      </c>
+      <c r="BV10" s="11">
+        <f t="shared" si="8"/>
+        <v>-0.15429523480645171</v>
+      </c>
+      <c r="BW10" s="11">
+        <f t="shared" si="9"/>
+        <v>-23.976085854543697</v>
+      </c>
+      <c r="BX10" s="11">
         <f t="shared" si="10"/>
-        <v>1483.8709677419354</v>
-      </c>
-      <c r="BQ10" s="15">
-        <f t="shared" si="11"/>
-        <v>1.3718387096774189</v>
-      </c>
-      <c r="BR10" s="15">
-        <f t="shared" si="12"/>
-        <v>0.42406580645161318</v>
-      </c>
-      <c r="BS10" s="11">
-        <f t="shared" si="13"/>
-        <v>-47.185087096774225</v>
-      </c>
-      <c r="BT10" s="11">
-        <f t="shared" si="3"/>
-        <v>-0.46288570441935517</v>
-      </c>
-      <c r="BU10" s="11">
-        <f t="shared" si="14"/>
-        <v>-0.15429523480645171</v>
-      </c>
-      <c r="BV10" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.15429523480645171</v>
-      </c>
-      <c r="BW10" s="11">
-        <f t="shared" si="5"/>
-        <v>-23.976085854543697</v>
-      </c>
-      <c r="BX10" s="11">
-        <f t="shared" si="6"/>
         <v>0.58174988874089506</v>
       </c>
       <c r="BY10" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-41.213735178250083</v>
       </c>
       <c r="BZ10" s="5"/>
@@ -34500,7 +34529,7 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1580.6451612903224</v>
       </c>
       <c r="BE11" s="15">
@@ -34516,69 +34545,72 @@
         <v>0.2298776872258059</v>
       </c>
       <c r="BH11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-11.740144516129035</v>
       </c>
       <c r="BI11" s="5">
-        <f>9.81*BH11/1000</f>
+        <f t="shared" si="3"/>
         <v>-0.11517081770322585</v>
       </c>
-      <c r="BJ11" s="5"/>
+      <c r="BJ11" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.11517081770322583</v>
+      </c>
       <c r="BK11" s="5">
-        <f>BI11*128/1000</f>
+        <f t="shared" si="4"/>
         <v>-1.4741864666012908E-2</v>
       </c>
       <c r="BL11" s="5">
-        <f>BK11*BD11*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-2.4401495265618935</v>
       </c>
       <c r="BM11" s="5">
-        <f>BE11*BF11</f>
+        <f t="shared" si="6"/>
         <v>0.2298776872258059</v>
       </c>
       <c r="BN11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-10.614990763174704</v>
       </c>
       <c r="BO11" s="33"/>
       <c r="BP11" s="16">
+        <f t="shared" si="15"/>
+        <v>1580.6451612903224</v>
+      </c>
+      <c r="BQ11" s="15">
+        <f t="shared" si="16"/>
+        <v>1.552806451612903</v>
+      </c>
+      <c r="BR11" s="15">
+        <f t="shared" si="17"/>
+        <v>0.55471096774193551</v>
+      </c>
+      <c r="BS11" s="11">
+        <f t="shared" si="18"/>
+        <v>-28.324764516129051</v>
+      </c>
+      <c r="BT11" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.277865939903226</v>
+      </c>
+      <c r="BU11" s="11">
+        <f t="shared" si="19"/>
+        <v>-9.2621979967742019E-2</v>
+      </c>
+      <c r="BV11" s="11">
+        <f t="shared" si="8"/>
+        <v>-9.2621979967741991E-2</v>
+      </c>
+      <c r="BW11" s="11">
+        <f t="shared" si="9"/>
+        <v>-15.331268173189519</v>
+      </c>
+      <c r="BX11" s="11">
         <f t="shared" si="10"/>
-        <v>1580.6451612903224</v>
-      </c>
-      <c r="BQ11" s="15">
-        <f t="shared" si="11"/>
-        <v>1.552806451612903</v>
-      </c>
-      <c r="BR11" s="15">
-        <f t="shared" si="12"/>
-        <v>0.55471096774193551</v>
-      </c>
-      <c r="BS11" s="11">
-        <f t="shared" si="13"/>
-        <v>-28.324764516129051</v>
-      </c>
-      <c r="BT11" s="11">
-        <f t="shared" si="3"/>
-        <v>-0.277865939903226</v>
-      </c>
-      <c r="BU11" s="11">
-        <f t="shared" si="14"/>
-        <v>-9.2621979967742005E-2</v>
-      </c>
-      <c r="BV11" s="11">
-        <f t="shared" si="4"/>
-        <v>-9.2621979967741991E-2</v>
-      </c>
-      <c r="BW11" s="11">
-        <f t="shared" si="5"/>
-        <v>-15.331268173189519</v>
-      </c>
-      <c r="BX11" s="11">
-        <f t="shared" si="6"/>
         <v>0.86135876949011436</v>
       </c>
       <c r="BY11" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-17.79893433054027</v>
       </c>
       <c r="BZ11" s="5"/>
@@ -34645,7 +34677,7 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1677.4193548387095</v>
       </c>
       <c r="BE12" s="15">
@@ -34661,69 +34693,72 @@
         <v>0.48367062270967659</v>
       </c>
       <c r="BH12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-5.1198219354838841</v>
       </c>
       <c r="BI12" s="5">
-        <f>9.81*BH12/1000</f>
+        <f t="shared" si="3"/>
         <v>-5.0225453187096904E-2</v>
       </c>
-      <c r="BJ12" s="5"/>
+      <c r="BJ12" s="5">
+        <f t="shared" si="13"/>
+        <v>-5.0225453187096904E-2</v>
+      </c>
       <c r="BK12" s="5">
-        <f>BI12*128/1000</f>
+        <f t="shared" si="4"/>
         <v>-6.4288580079484041E-3</v>
       </c>
       <c r="BL12" s="5">
-        <f>BK12*BD12*0.10472</f>
+        <f t="shared" si="5"/>
         <v>-1.129289050025889</v>
       </c>
       <c r="BM12" s="5">
-        <f>BE12*BF12</f>
+        <f t="shared" si="6"/>
         <v>0.48367062270967659</v>
       </c>
       <c r="BN12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-2.3348307649930291</v>
       </c>
       <c r="BO12" s="33"/>
       <c r="BP12" s="16">
+        <f t="shared" si="15"/>
+        <v>1677.4193548387095</v>
+      </c>
+      <c r="BQ12" s="15">
+        <f t="shared" si="16"/>
+        <v>1.7337741935483866</v>
+      </c>
+      <c r="BR12" s="15">
+        <f t="shared" si="17"/>
+        <v>0.68535612903225829</v>
+      </c>
+      <c r="BS12" s="11">
+        <f t="shared" si="18"/>
+        <v>-9.4644419354839329</v>
+      </c>
+      <c r="BT12" s="11">
+        <f t="shared" si="7"/>
+        <v>-9.2846175387097385E-2</v>
+      </c>
+      <c r="BU12" s="11">
+        <f t="shared" si="19"/>
+        <v>-3.0948725129032462E-2</v>
+      </c>
+      <c r="BV12" s="11">
+        <f t="shared" si="8"/>
+        <v>-3.0948725129032462E-2</v>
+      </c>
+      <c r="BW12" s="11">
+        <f t="shared" si="9"/>
+        <v>-5.4364330892464032</v>
+      </c>
+      <c r="BX12" s="11">
         <f t="shared" si="10"/>
-        <v>1677.4193548387095</v>
-      </c>
-      <c r="BQ12" s="15">
-        <f t="shared" si="11"/>
-        <v>1.7337741935483866</v>
-      </c>
-      <c r="BR12" s="15">
-        <f t="shared" si="12"/>
-        <v>0.68535612903225829</v>
-      </c>
-      <c r="BS12" s="11">
-        <f t="shared" si="13"/>
-        <v>-9.4644419354839329</v>
-      </c>
-      <c r="BT12" s="11">
-        <f t="shared" si="3"/>
-        <v>-9.2846175387097385E-2</v>
-      </c>
-      <c r="BU12" s="11">
-        <f t="shared" si="14"/>
-        <v>-3.0948725129032462E-2</v>
-      </c>
-      <c r="BV12" s="11">
-        <f t="shared" si="4"/>
-        <v>-3.0948725129032462E-2</v>
-      </c>
-      <c r="BW12" s="11">
-        <f t="shared" si="5"/>
-        <v>-5.4364330892464032</v>
-      </c>
-      <c r="BX12" s="11">
-        <f t="shared" si="6"/>
         <v>1.1882527699063477</v>
       </c>
       <c r="BY12" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-4.575148677898623</v>
       </c>
       <c r="BZ12" s="5"/>
@@ -34790,7 +34825,7 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1774.1935483870966</v>
       </c>
       <c r="BE13" s="15">
@@ -34806,69 +34841,72 @@
         <v>0.79697968722580548</v>
       </c>
       <c r="BH13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.5005006451612815</v>
       </c>
       <c r="BI13" s="5">
-        <f>9.81*BH13/1000</f>
+        <f t="shared" si="3"/>
         <v>1.4719911329032172E-2</v>
       </c>
-      <c r="BJ13" s="5"/>
+      <c r="BJ13" s="5">
+        <f t="shared" si="13"/>
+        <v>1.4719911329032172E-2</v>
+      </c>
       <c r="BK13" s="5">
-        <f>BI13*128/1000</f>
+        <f t="shared" si="4"/>
         <v>1.884148650116118E-3</v>
       </c>
       <c r="BL13" s="5">
-        <f>BK13*BD13*0.10472</f>
+        <f t="shared" si="5"/>
         <v>0.35006266339383196</v>
       </c>
       <c r="BM13" s="5">
-        <f>BE13*BF13</f>
+        <f t="shared" si="6"/>
         <v>0.79697968722580548</v>
       </c>
       <c r="BN13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.43923661920714663</v>
       </c>
       <c r="BO13" s="33"/>
       <c r="BP13" s="16">
+        <f t="shared" si="15"/>
+        <v>1774.1935483870966</v>
+      </c>
+      <c r="BQ13" s="15">
+        <f t="shared" si="16"/>
+        <v>1.9147419354838706</v>
+      </c>
+      <c r="BR13" s="15">
+        <f t="shared" si="17"/>
+        <v>0.81600129032258062</v>
+      </c>
+      <c r="BS13" s="11">
+        <f t="shared" si="18"/>
+        <v>9.3958806451612418</v>
+      </c>
+      <c r="BT13" s="11">
+        <f t="shared" si="7"/>
+        <v>9.2173589129031785E-2</v>
+      </c>
+      <c r="BU13" s="11">
+        <f t="shared" si="19"/>
+        <v>3.0724529709677262E-2</v>
+      </c>
+      <c r="BV13" s="11">
+        <f t="shared" si="8"/>
+        <v>3.0724529709677262E-2</v>
+      </c>
+      <c r="BW13" s="11">
+        <f t="shared" si="9"/>
+        <v>5.7084193972857138</v>
+      </c>
+      <c r="BX13" s="11">
         <f t="shared" si="10"/>
-        <v>1774.1935483870966</v>
-      </c>
-      <c r="BQ13" s="15">
-        <f t="shared" si="11"/>
-        <v>1.9147419354838706</v>
-      </c>
-      <c r="BR13" s="15">
-        <f t="shared" si="12"/>
-        <v>0.81600129032258062</v>
-      </c>
-      <c r="BS13" s="11">
-        <f t="shared" si="13"/>
-        <v>9.3958806451612418</v>
-      </c>
-      <c r="BT13" s="11">
-        <f t="shared" si="3"/>
-        <v>9.2173589129031785E-2</v>
-      </c>
-      <c r="BU13" s="11">
-        <f t="shared" si="14"/>
-        <v>3.0724529709677262E-2</v>
-      </c>
-      <c r="BV13" s="11">
-        <f t="shared" si="4"/>
-        <v>3.0724529709677262E-2</v>
-      </c>
-      <c r="BW13" s="11">
-        <f t="shared" si="5"/>
-        <v>5.7084193972857138</v>
-      </c>
-      <c r="BX13" s="11">
-        <f t="shared" si="6"/>
         <v>1.5624318899895939</v>
       </c>
       <c r="BY13" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6535476738917132</v>
       </c>
       <c r="BZ13" s="5"/>
@@ -34923,7 +34961,7 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1870.9677419354837</v>
       </c>
       <c r="BE14" s="15">
@@ -34939,69 +34977,72 @@
         <v>1.1698048807741923</v>
       </c>
       <c r="BH14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.1208232258064328</v>
       </c>
       <c r="BI14" s="5">
-        <f>9.81*BH14/1000</f>
+        <f t="shared" si="3"/>
         <v>7.9665275845161101E-2</v>
       </c>
-      <c r="BJ14" s="5"/>
+      <c r="BJ14" s="5">
+        <f t="shared" si="13"/>
+        <v>7.9665275845161115E-2</v>
+      </c>
       <c r="BK14" s="5">
-        <f>BI14*128/1000</f>
+        <f t="shared" si="4"/>
         <v>1.0197155308180621E-2</v>
       </c>
       <c r="BL14" s="5">
-        <f>BK14*BD14*0.10472</f>
+        <f t="shared" si="5"/>
         <v>1.9979056136972619</v>
       </c>
       <c r="BM14" s="5">
-        <f>BE14*BF14</f>
+        <f t="shared" si="6"/>
         <v>1.1698048807741923</v>
       </c>
       <c r="BN14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.7078964590872809</v>
       </c>
       <c r="BO14" s="33"/>
       <c r="BP14" s="16">
+        <f t="shared" si="15"/>
+        <v>1870.9677419354837</v>
+      </c>
+      <c r="BQ14" s="15">
+        <f t="shared" si="16"/>
+        <v>2.0957096774193542</v>
+      </c>
+      <c r="BR14" s="15">
+        <f t="shared" si="17"/>
+        <v>0.94664645161290339</v>
+      </c>
+      <c r="BS14" s="11">
+        <f t="shared" si="18"/>
+        <v>28.256203225806416</v>
+      </c>
+      <c r="BT14" s="11">
+        <f t="shared" si="7"/>
+        <v>0.27719335364516096</v>
+      </c>
+      <c r="BU14" s="11">
+        <f t="shared" si="19"/>
+        <v>9.2397784548386985E-2</v>
+      </c>
+      <c r="BV14" s="11">
+        <f t="shared" si="8"/>
+        <v>9.2397784548386985E-2</v>
+      </c>
+      <c r="BW14" s="11">
+        <f t="shared" si="9"/>
+        <v>18.103289286406802</v>
+      </c>
+      <c r="BX14" s="11">
         <f t="shared" si="10"/>
-        <v>1870.9677419354837</v>
-      </c>
-      <c r="BQ14" s="15">
-        <f t="shared" si="11"/>
-        <v>2.0957096774193542</v>
-      </c>
-      <c r="BR14" s="15">
-        <f t="shared" si="12"/>
-        <v>0.94664645161290339</v>
-      </c>
-      <c r="BS14" s="11">
-        <f t="shared" si="13"/>
-        <v>28.256203225806416</v>
-      </c>
-      <c r="BT14" s="11">
-        <f t="shared" si="3"/>
-        <v>0.27719335364516096</v>
-      </c>
-      <c r="BU14" s="11">
-        <f t="shared" si="14"/>
-        <v>9.2397784548386985E-2</v>
-      </c>
-      <c r="BV14" s="11">
-        <f t="shared" si="4"/>
-        <v>9.2397784548386985E-2</v>
-      </c>
-      <c r="BW14" s="11">
-        <f t="shared" si="5"/>
-        <v>18.103289286406802</v>
-      </c>
-      <c r="BX14" s="11">
-        <f t="shared" si="6"/>
         <v>1.9838961297398541</v>
       </c>
       <c r="BY14" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9.125119513580918</v>
       </c>
       <c r="BZ14" s="5"/>
@@ -35027,8 +35068,12 @@
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
+      <c r="Z15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>0.75</v>
+      </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -35058,7 +35103,7 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1967.7419354838707</v>
       </c>
       <c r="BE15" s="15">
@@ -35074,69 +35119,72 @@
         <v>1.6021462033548373</v>
       </c>
       <c r="BH15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14.741145806451598</v>
       </c>
       <c r="BI15" s="5">
-        <f>9.81*BH15/1000</f>
+        <f t="shared" si="3"/>
         <v>0.1446106403612902</v>
       </c>
-      <c r="BJ15" s="5"/>
+      <c r="BJ15" s="5">
+        <f t="shared" si="13"/>
+        <v>0.1446106403612902</v>
+      </c>
       <c r="BK15" s="5">
-        <f>BI15*128/1000</f>
+        <f t="shared" si="4"/>
         <v>1.8510161966245147E-2</v>
       </c>
       <c r="BL15" s="5">
-        <f>BK15*BD15*0.10472</f>
+        <f t="shared" si="5"/>
         <v>3.8142398008844092</v>
       </c>
       <c r="BM15" s="5">
-        <f>BE15*BF15</f>
+        <f t="shared" si="6"/>
         <v>1.6021462033548373</v>
       </c>
       <c r="BN15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.3807064504459872</v>
       </c>
       <c r="BO15" s="33"/>
       <c r="BP15" s="16">
+        <f t="shared" si="15"/>
+        <v>1967.7419354838707</v>
+      </c>
+      <c r="BQ15" s="15">
+        <f t="shared" si="16"/>
+        <v>2.2766774193548382</v>
+      </c>
+      <c r="BR15" s="15">
+        <f t="shared" si="17"/>
+        <v>1.0772916129032257</v>
+      </c>
+      <c r="BS15" s="11">
+        <f t="shared" si="18"/>
+        <v>47.116525806451534</v>
+      </c>
+      <c r="BT15" s="11">
+        <f t="shared" si="7"/>
+        <v>0.46221311816128957</v>
+      </c>
+      <c r="BU15" s="11">
+        <f t="shared" si="19"/>
+        <v>0.15407103938709654</v>
+      </c>
+      <c r="BV15" s="11">
+        <f t="shared" si="8"/>
+        <v>0.15407103938709651</v>
+      </c>
+      <c r="BW15" s="11">
+        <f t="shared" si="9"/>
+        <v>31.748176578116816</v>
+      </c>
+      <c r="BX15" s="11">
         <f t="shared" si="10"/>
-        <v>1967.7419354838707</v>
-      </c>
-      <c r="BQ15" s="15">
-        <f t="shared" si="11"/>
-        <v>2.2766774193548382</v>
-      </c>
-      <c r="BR15" s="15">
-        <f t="shared" si="12"/>
-        <v>1.0772916129032257</v>
-      </c>
-      <c r="BS15" s="11">
-        <f t="shared" si="13"/>
-        <v>47.116525806451534</v>
-      </c>
-      <c r="BT15" s="11">
-        <f t="shared" si="3"/>
-        <v>0.46221311816128957</v>
-      </c>
-      <c r="BU15" s="11">
-        <f t="shared" si="14"/>
-        <v>0.15407103938709651</v>
-      </c>
-      <c r="BV15" s="11">
-        <f t="shared" si="4"/>
-        <v>0.15407103938709651</v>
-      </c>
-      <c r="BW15" s="11">
-        <f t="shared" si="5"/>
-        <v>31.748176578116816</v>
-      </c>
-      <c r="BX15" s="11">
-        <f t="shared" si="6"/>
         <v>2.4526454891571272</v>
       </c>
       <c r="BY15" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>12.94446209958674</v>
       </c>
       <c r="BZ15" s="5"/>
@@ -35203,7 +35251,7 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2064.516129032258</v>
       </c>
       <c r="BE16" s="15">
@@ -35219,69 +35267,72 @@
         <v>2.0940036549677412</v>
       </c>
       <c r="BH16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>21.361468387096764</v>
       </c>
       <c r="BI16" s="5">
-        <f>9.81*BH16/1000</f>
+        <f t="shared" si="3"/>
         <v>0.20955600487741927</v>
       </c>
-      <c r="BJ16" s="5"/>
+      <c r="BJ16" s="5">
+        <f t="shared" si="13"/>
+        <v>0.20955600487741924</v>
+      </c>
       <c r="BK16" s="5">
-        <f>BI16*128/1000</f>
+        <f t="shared" si="4"/>
         <v>2.6823168624309664E-2</v>
       </c>
       <c r="BL16" s="5">
-        <f>BK16*BD16*0.10472</f>
+        <f t="shared" si="5"/>
         <v>5.7990652249552683</v>
       </c>
       <c r="BM16" s="5">
-        <f>BE16*BF16</f>
+        <f t="shared" si="6"/>
         <v>2.0940036549677412</v>
       </c>
       <c r="BN16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.7693672889241467</v>
       </c>
       <c r="BO16" s="33"/>
       <c r="BP16" s="16">
+        <f t="shared" si="15"/>
+        <v>2064.516129032258</v>
+      </c>
+      <c r="BQ16" s="15">
+        <f t="shared" si="16"/>
+        <v>2.4576451612903223</v>
+      </c>
+      <c r="BR16" s="15">
+        <f t="shared" si="17"/>
+        <v>1.2079367741935485</v>
+      </c>
+      <c r="BS16" s="11">
+        <f t="shared" si="18"/>
+        <v>65.976848387096766</v>
+      </c>
+      <c r="BT16" s="11">
+        <f t="shared" si="7"/>
+        <v>0.6472328826774193</v>
+      </c>
+      <c r="BU16" s="11">
+        <f t="shared" si="19"/>
+        <v>0.21574429422580643</v>
+      </c>
+      <c r="BV16" s="11">
+        <f t="shared" si="8"/>
+        <v>0.21574429422580643</v>
+      </c>
+      <c r="BW16" s="11">
+        <f t="shared" si="9"/>
+        <v>46.643081272415891</v>
+      </c>
+      <c r="BX16" s="11">
         <f t="shared" si="10"/>
-        <v>2064.516129032258</v>
-      </c>
-      <c r="BQ16" s="15">
-        <f t="shared" si="11"/>
-        <v>2.4576451612903223</v>
-      </c>
-      <c r="BR16" s="15">
-        <f t="shared" si="12"/>
-        <v>1.2079367741935485</v>
-      </c>
-      <c r="BS16" s="11">
-        <f t="shared" si="13"/>
-        <v>65.976848387096766</v>
-      </c>
-      <c r="BT16" s="11">
-        <f t="shared" si="3"/>
-        <v>0.6472328826774193</v>
-      </c>
-      <c r="BU16" s="11">
-        <f t="shared" si="14"/>
-        <v>0.21574429422580643</v>
-      </c>
-      <c r="BV16" s="11">
-        <f t="shared" si="4"/>
-        <v>0.21574429422580643</v>
-      </c>
-      <c r="BW16" s="11">
-        <f t="shared" si="5"/>
-        <v>46.643081272415891</v>
-      </c>
-      <c r="BX16" s="11">
-        <f t="shared" si="6"/>
         <v>2.9686799682414153</v>
       </c>
       <c r="BY16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15.711724325760276</v>
       </c>
       <c r="BZ16" s="5"/>
@@ -35348,7 +35399,7 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2161.2903225806454</v>
       </c>
       <c r="BE17" s="15">
@@ -35364,69 +35415,72 @@
         <v>2.6453772356129042</v>
       </c>
       <c r="BH17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>27.981790967741958</v>
       </c>
       <c r="BI17" s="5">
-        <f>9.81*BH17/1000</f>
+        <f t="shared" si="3"/>
         <v>0.27450136939354858</v>
       </c>
-      <c r="BJ17" s="5"/>
+      <c r="BJ17" s="5">
+        <f t="shared" si="13"/>
+        <v>0.27450136939354863</v>
+      </c>
       <c r="BK17" s="5">
-        <f>BI17*128/1000</f>
+        <f t="shared" si="4"/>
         <v>3.513617528237422E-2</v>
       </c>
       <c r="BL17" s="5">
-        <f>BK17*BD17*0.10472</f>
+        <f t="shared" si="5"/>
         <v>7.9523818859098485</v>
       </c>
       <c r="BM17" s="5">
-        <f>BE17*BF17</f>
+        <f t="shared" si="6"/>
         <v>2.6453772356129042</v>
       </c>
       <c r="BN17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0061428588907364</v>
       </c>
       <c r="BO17" s="33"/>
       <c r="BP17" s="16">
+        <f t="shared" si="15"/>
+        <v>2161.2903225806454</v>
+      </c>
+      <c r="BQ17" s="15">
+        <f t="shared" si="16"/>
+        <v>2.6386129032258068</v>
+      </c>
+      <c r="BR17" s="15">
+        <f t="shared" si="17"/>
+        <v>1.3385819354838713</v>
+      </c>
+      <c r="BS17" s="11">
+        <f t="shared" si="18"/>
+        <v>84.83717096774194</v>
+      </c>
+      <c r="BT17" s="11">
+        <f t="shared" si="7"/>
+        <v>0.83225264719354841</v>
+      </c>
+      <c r="BU17" s="11">
+        <f t="shared" si="19"/>
+        <v>0.2774175490645161</v>
+      </c>
+      <c r="BV17" s="11">
+        <f t="shared" si="8"/>
+        <v>0.2774175490645161</v>
+      </c>
+      <c r="BW17" s="11">
+        <f t="shared" si="9"/>
+        <v>62.788003369303887</v>
+      </c>
+      <c r="BX17" s="11">
         <f t="shared" si="10"/>
-        <v>2161.2903225806454</v>
-      </c>
-      <c r="BQ17" s="15">
-        <f t="shared" si="11"/>
-        <v>2.6386129032258068</v>
-      </c>
-      <c r="BR17" s="15">
-        <f t="shared" si="12"/>
-        <v>1.3385819354838713</v>
-      </c>
-      <c r="BS17" s="11">
-        <f t="shared" si="13"/>
-        <v>84.83717096774194</v>
-      </c>
-      <c r="BT17" s="11">
-        <f t="shared" si="3"/>
-        <v>0.83225264719354841</v>
-      </c>
-      <c r="BU17" s="11">
-        <f t="shared" si="14"/>
-        <v>0.27741754906451616</v>
-      </c>
-      <c r="BV17" s="11">
-        <f t="shared" si="4"/>
-        <v>0.2774175490645161</v>
-      </c>
-      <c r="BW17" s="11">
-        <f t="shared" si="5"/>
-        <v>62.788003369303887</v>
-      </c>
-      <c r="BX17" s="11">
-        <f t="shared" si="6"/>
         <v>3.5319995669927171</v>
       </c>
       <c r="BY17" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>17.776900075546742</v>
       </c>
       <c r="BZ17" s="5"/>
@@ -35493,7 +35547,7 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2258.0645161290327</v>
       </c>
       <c r="BE18" s="15">
@@ -35509,69 +35563,72 @@
         <v>3.2562669452903243</v>
       </c>
       <c r="BH18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>34.602113548387123</v>
       </c>
       <c r="BI18" s="5">
-        <f>9.81*BH18/1000</f>
+        <f t="shared" si="3"/>
         <v>0.33944673390967767</v>
       </c>
-      <c r="BJ18" s="5"/>
+      <c r="BJ18" s="5">
+        <f t="shared" si="13"/>
+        <v>0.33944673390967772</v>
+      </c>
       <c r="BK18" s="5">
-        <f>BI18*128/1000</f>
+        <f t="shared" si="4"/>
         <v>4.3449181940438744E-2</v>
       </c>
       <c r="BL18" s="5">
-        <f>BK18*BD18*0.10472</f>
+        <f t="shared" si="5"/>
         <v>10.274189783748135</v>
       </c>
       <c r="BM18" s="5">
-        <f>BE18*BF18</f>
+        <f t="shared" si="6"/>
         <v>3.2562669452903243</v>
       </c>
       <c r="BN18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.1552050112501147</v>
       </c>
       <c r="BO18" s="33"/>
       <c r="BP18" s="16">
+        <f t="shared" si="15"/>
+        <v>2258.0645161290327</v>
+      </c>
+      <c r="BQ18" s="15">
+        <f t="shared" si="16"/>
+        <v>2.8195806451612913</v>
+      </c>
+      <c r="BR18" s="15">
+        <f t="shared" si="17"/>
+        <v>1.4692270967741945</v>
+      </c>
+      <c r="BS18" s="11">
+        <f t="shared" si="18"/>
+        <v>103.69749354838717</v>
+      </c>
+      <c r="BT18" s="11">
+        <f t="shared" si="7"/>
+        <v>1.0172724117096781</v>
+      </c>
+      <c r="BU18" s="11">
+        <f t="shared" si="19"/>
+        <v>0.3390908039032261</v>
+      </c>
+      <c r="BV18" s="11">
+        <f t="shared" si="8"/>
+        <v>0.33909080390322599</v>
+      </c>
+      <c r="BW18" s="11">
+        <f t="shared" si="9"/>
+        <v>80.182942868780913</v>
+      </c>
+      <c r="BX18" s="11">
         <f t="shared" si="10"/>
-        <v>2258.0645161290327</v>
-      </c>
-      <c r="BQ18" s="15">
-        <f t="shared" si="11"/>
-        <v>2.8195806451612913</v>
-      </c>
-      <c r="BR18" s="15">
-        <f t="shared" si="12"/>
-        <v>1.4692270967741945</v>
-      </c>
-      <c r="BS18" s="11">
-        <f t="shared" si="13"/>
-        <v>103.69749354838717</v>
-      </c>
-      <c r="BT18" s="11">
-        <f t="shared" si="3"/>
-        <v>1.0172724117096781</v>
-      </c>
-      <c r="BU18" s="11">
-        <f t="shared" si="14"/>
-        <v>0.33909080390322605</v>
-      </c>
-      <c r="BV18" s="11">
-        <f t="shared" si="4"/>
-        <v>0.33909080390322599</v>
-      </c>
-      <c r="BW18" s="11">
-        <f t="shared" si="5"/>
-        <v>80.182942868780913</v>
-      </c>
-      <c r="BX18" s="11">
-        <f t="shared" si="6"/>
         <v>4.1426042854110339</v>
       </c>
       <c r="BY18" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>19.355684816713087</v>
       </c>
       <c r="BZ18" s="5"/>
@@ -35638,7 +35695,7 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2354.83870967742</v>
       </c>
       <c r="BE19" s="15">
@@ -35654,69 +35711,72 @@
         <v>3.926672784000004</v>
       </c>
       <c r="BH19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>41.222436129032289</v>
       </c>
       <c r="BI19" s="5">
-        <f>9.81*BH19/1000</f>
+        <f t="shared" si="3"/>
         <v>0.40439209842580676</v>
       </c>
-      <c r="BJ19" s="5"/>
+      <c r="BJ19" s="5">
+        <f t="shared" si="13"/>
+        <v>0.40439209842580676</v>
+      </c>
       <c r="BK19" s="5">
-        <f>BI19*128/1000</f>
+        <f t="shared" si="4"/>
         <v>5.1762188598503261E-2</v>
       </c>
       <c r="BL19" s="5">
-        <f>BK19*BD19*0.10472</f>
+        <f t="shared" si="5"/>
         <v>12.764488918470136</v>
       </c>
       <c r="BM19" s="5">
-        <f>BE19*BF19</f>
+        <f t="shared" si="6"/>
         <v>3.926672784000004</v>
       </c>
       <c r="BN19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.2507136755783526</v>
       </c>
       <c r="BO19" s="33"/>
       <c r="BP19" s="16">
+        <f t="shared" si="15"/>
+        <v>2354.83870967742</v>
+      </c>
+      <c r="BQ19" s="15">
+        <f t="shared" si="16"/>
+        <v>3.0005483870967748</v>
+      </c>
+      <c r="BR19" s="15">
+        <f t="shared" si="17"/>
+        <v>1.5998722580645173</v>
+      </c>
+      <c r="BS19" s="11">
+        <f t="shared" si="18"/>
+        <v>122.55781612903235</v>
+      </c>
+      <c r="BT19" s="11">
+        <f t="shared" si="7"/>
+        <v>1.2022921762258074</v>
+      </c>
+      <c r="BU19" s="11">
+        <f t="shared" si="19"/>
+        <v>0.40076405874193588</v>
+      </c>
+      <c r="BV19" s="11">
+        <f t="shared" si="8"/>
+        <v>0.40076405874193577</v>
+      </c>
+      <c r="BW19" s="11">
+        <f t="shared" si="9"/>
+        <v>98.827899770846869</v>
+      </c>
+      <c r="BX19" s="11">
         <f t="shared" si="10"/>
-        <v>2354.83870967742</v>
-      </c>
-      <c r="BQ19" s="15">
-        <f t="shared" si="11"/>
-        <v>3.0005483870967748</v>
-      </c>
-      <c r="BR19" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5998722580645173</v>
-      </c>
-      <c r="BS19" s="11">
-        <f t="shared" si="13"/>
-        <v>122.55781612903235</v>
-      </c>
-      <c r="BT19" s="11">
-        <f t="shared" si="3"/>
-        <v>1.2022921762258074</v>
-      </c>
-      <c r="BU19" s="11">
-        <f t="shared" si="14"/>
-        <v>0.40076405874193582</v>
-      </c>
-      <c r="BV19" s="11">
-        <f t="shared" si="4"/>
-        <v>0.40076405874193577</v>
-      </c>
-      <c r="BW19" s="11">
-        <f t="shared" si="5"/>
-        <v>98.827899770846869</v>
-      </c>
-      <c r="BX19" s="11">
-        <f t="shared" si="6"/>
         <v>4.8004941234963621</v>
       </c>
       <c r="BY19" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>20.587026507776905</v>
       </c>
       <c r="BZ19" s="5"/>
@@ -35783,7 +35843,7 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2451.6129032258073</v>
       </c>
       <c r="BE20" s="15">
@@ -35799,69 +35859,72 @@
         <v>4.6565947517419417</v>
       </c>
       <c r="BH20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>47.842758709677483</v>
       </c>
       <c r="BI20" s="5">
-        <f>9.81*BH20/1000</f>
+        <f t="shared" si="3"/>
         <v>0.46933746294193612</v>
       </c>
-      <c r="BJ20" s="5"/>
+      <c r="BJ20" s="5">
+        <f t="shared" si="13"/>
+        <v>0.46933746294193612</v>
+      </c>
       <c r="BK20" s="5">
-        <f>BI20*128/1000</f>
+        <f t="shared" si="4"/>
         <v>6.007519525656782E-2</v>
       </c>
       <c r="BL20" s="5">
-        <f>BK20*BD20*0.10472</f>
+        <f t="shared" si="5"/>
         <v>15.423279290075858</v>
       </c>
       <c r="BM20" s="5">
-        <f>BE20*BF20</f>
+        <f t="shared" si="6"/>
         <v>4.6565947517419417</v>
       </c>
       <c r="BN20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3121368966681732</v>
       </c>
       <c r="BO20" s="33"/>
       <c r="BP20" s="16">
+        <f t="shared" si="15"/>
+        <v>2451.6129032258073</v>
+      </c>
+      <c r="BQ20" s="15">
+        <f t="shared" si="16"/>
+        <v>3.1815161290322593</v>
+      </c>
+      <c r="BR20" s="15">
+        <f t="shared" si="17"/>
+        <v>1.73051741935484</v>
+      </c>
+      <c r="BS20" s="11">
+        <f t="shared" si="18"/>
+        <v>141.41813870967758</v>
+      </c>
+      <c r="BT20" s="11">
+        <f t="shared" si="7"/>
+        <v>1.3873119407419372</v>
+      </c>
+      <c r="BU20" s="11">
+        <f t="shared" si="19"/>
+        <v>0.46243731358064566</v>
+      </c>
+      <c r="BV20" s="11">
+        <f t="shared" si="8"/>
+        <v>0.46243731358064571</v>
+      </c>
+      <c r="BW20" s="11">
+        <f t="shared" si="9"/>
+        <v>118.72287407550186</v>
+      </c>
+      <c r="BX20" s="11">
         <f t="shared" si="10"/>
-        <v>2451.6129032258073</v>
-      </c>
-      <c r="BQ20" s="15">
-        <f t="shared" si="11"/>
-        <v>3.1815161290322593</v>
-      </c>
-      <c r="BR20" s="15">
-        <f t="shared" si="12"/>
-        <v>1.73051741935484</v>
-      </c>
-      <c r="BS20" s="11">
-        <f t="shared" si="13"/>
-        <v>141.41813870967758</v>
-      </c>
-      <c r="BT20" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3873119407419372</v>
-      </c>
-      <c r="BU20" s="11">
-        <f t="shared" si="14"/>
-        <v>0.46243731358064571</v>
-      </c>
-      <c r="BV20" s="11">
-        <f t="shared" si="4"/>
-        <v>0.46243731358064571</v>
-      </c>
-      <c r="BW20" s="11">
-        <f t="shared" si="5"/>
-        <v>118.72287407550186</v>
-      </c>
-      <c r="BX20" s="11">
-        <f t="shared" si="6"/>
         <v>5.5056690812487057</v>
       </c>
       <c r="BY20" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>21.563750440405162</v>
       </c>
       <c r="BZ20" s="5"/>
@@ -35916,7 +35979,7 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2548.3870967741946</v>
       </c>
       <c r="BE21" s="15">
@@ -35932,69 +35995,72 @@
         <v>5.4460328485161371</v>
       </c>
       <c r="BH21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>54.463081290322648</v>
       </c>
       <c r="BI21" s="5">
-        <f>9.81*BH21/1000</f>
+        <f t="shared" si="3"/>
         <v>0.53428282745806521</v>
       </c>
-      <c r="BJ21" s="5"/>
+      <c r="BJ21" s="5">
+        <f t="shared" si="13"/>
+        <v>0.53428282745806521</v>
+      </c>
       <c r="BK21" s="5">
-        <f>BI21*128/1000</f>
+        <f t="shared" si="4"/>
         <v>6.8388201914632352E-2</v>
       </c>
       <c r="BL21" s="5">
-        <f>BK21*BD21*0.10472</f>
+        <f t="shared" si="5"/>
         <v>18.250560898565286</v>
       </c>
       <c r="BM21" s="5">
-        <f>BE21*BF21</f>
+        <f t="shared" si="6"/>
         <v>5.4460328485161371</v>
       </c>
       <c r="BN21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3511661435420752</v>
       </c>
       <c r="BO21" s="33"/>
       <c r="BP21" s="16">
+        <f t="shared" si="15"/>
+        <v>2548.3870967741946</v>
+      </c>
+      <c r="BQ21" s="15">
+        <f t="shared" si="16"/>
+        <v>3.3624838709677438</v>
+      </c>
+      <c r="BR21" s="15">
+        <f t="shared" si="17"/>
+        <v>1.8611625806451628</v>
+      </c>
+      <c r="BS21" s="11">
+        <f t="shared" si="18"/>
+        <v>160.27846129032275</v>
+      </c>
+      <c r="BT21" s="11">
+        <f t="shared" si="7"/>
+        <v>1.5723317052580663</v>
+      </c>
+      <c r="BU21" s="11">
+        <f t="shared" si="19"/>
+        <v>0.52411056841935544</v>
+      </c>
+      <c r="BV21" s="11">
+        <f t="shared" si="8"/>
+        <v>0.52411056841935544</v>
+      </c>
+      <c r="BW21" s="11">
+        <f t="shared" si="9"/>
+        <v>139.86786578274578</v>
+      </c>
+      <c r="BX21" s="11">
         <f t="shared" si="10"/>
-        <v>2548.3870967741946</v>
-      </c>
-      <c r="BQ21" s="15">
-        <f t="shared" si="11"/>
-        <v>3.3624838709677438</v>
-      </c>
-      <c r="BR21" s="15">
-        <f t="shared" si="12"/>
-        <v>1.8611625806451628</v>
-      </c>
-      <c r="BS21" s="11">
-        <f t="shared" si="13"/>
-        <v>160.27846129032275</v>
-      </c>
-      <c r="BT21" s="11">
-        <f t="shared" si="3"/>
-        <v>1.5723317052580663</v>
-      </c>
-      <c r="BU21" s="11">
-        <f t="shared" si="14"/>
-        <v>0.52411056841935544</v>
-      </c>
-      <c r="BV21" s="11">
-        <f t="shared" si="4"/>
-        <v>0.52411056841935544</v>
-      </c>
-      <c r="BW21" s="11">
-        <f t="shared" si="5"/>
-        <v>139.86786578274578</v>
-      </c>
-      <c r="BX21" s="11">
-        <f t="shared" si="6"/>
         <v>6.258129158668063</v>
       </c>
       <c r="BY21" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>22.349788928375887</v>
       </c>
       <c r="BZ21" s="5"/>
@@ -36049,7 +36115,7 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2645.1612903225819</v>
       </c>
       <c r="BE22" s="15">
@@ -36065,69 +36131,72 @@
         <v>6.2949870743225906</v>
       </c>
       <c r="BH22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>61.083403870967814</v>
       </c>
       <c r="BI22" s="5">
-        <f>9.81*BH22/1000</f>
+        <f t="shared" si="3"/>
         <v>0.5992281919741943</v>
       </c>
-      <c r="BJ22" s="5"/>
+      <c r="BJ22" s="5">
+        <f t="shared" si="13"/>
+        <v>0.5992281919741943</v>
+      </c>
       <c r="BK22" s="5">
-        <f>BI22*128/1000</f>
+        <f t="shared" si="4"/>
         <v>7.6701208572696869E-2</v>
       </c>
       <c r="BL22" s="5">
-        <f>BK22*BD22*0.10472</f>
+        <f t="shared" si="5"/>
         <v>21.246333743938425</v>
       </c>
       <c r="BM22" s="5">
-        <f>BE22*BF22</f>
+        <f t="shared" si="6"/>
         <v>6.2949870743225906</v>
       </c>
       <c r="BN22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3751195186091407</v>
       </c>
       <c r="BO22" s="33"/>
       <c r="BP22" s="16">
+        <f t="shared" si="15"/>
+        <v>2645.1612903225819</v>
+      </c>
+      <c r="BQ22" s="15">
+        <f t="shared" si="16"/>
+        <v>3.5434516129032274</v>
+      </c>
+      <c r="BR22" s="15">
+        <f t="shared" si="17"/>
+        <v>1.9918077419354856</v>
+      </c>
+      <c r="BS22" s="11">
+        <f t="shared" si="18"/>
+        <v>179.13878387096793</v>
+      </c>
+      <c r="BT22" s="11">
+        <f t="shared" si="7"/>
+        <v>1.7573514697741954</v>
+      </c>
+      <c r="BU22" s="11">
+        <f t="shared" si="19"/>
+        <v>0.585783823258065</v>
+      </c>
+      <c r="BV22" s="11">
+        <f t="shared" si="8"/>
+        <v>0.58578382325806511</v>
+      </c>
+      <c r="BW22" s="11">
+        <f t="shared" si="9"/>
+        <v>162.26287489257862</v>
+      </c>
+      <c r="BX22" s="11">
         <f t="shared" si="10"/>
-        <v>2645.1612903225819</v>
-      </c>
-      <c r="BQ22" s="15">
-        <f t="shared" si="11"/>
-        <v>3.5434516129032274</v>
-      </c>
-      <c r="BR22" s="15">
-        <f t="shared" si="12"/>
-        <v>1.9918077419354856</v>
-      </c>
-      <c r="BS22" s="11">
-        <f t="shared" si="13"/>
-        <v>179.13878387096793</v>
-      </c>
-      <c r="BT22" s="11">
-        <f t="shared" si="3"/>
-        <v>1.7573514697741954</v>
-      </c>
-      <c r="BU22" s="11">
-        <f t="shared" si="14"/>
-        <v>0.58578382325806511</v>
-      </c>
-      <c r="BV22" s="11">
-        <f t="shared" si="4"/>
-        <v>0.58578382325806511</v>
-      </c>
-      <c r="BW22" s="11">
-        <f t="shared" si="5"/>
-        <v>162.26287489257862</v>
-      </c>
-      <c r="BX22" s="11">
-        <f t="shared" si="6"/>
         <v>7.0578743557544321</v>
       </c>
       <c r="BY22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>22.990332033933463</v>
       </c>
       <c r="BZ22" s="5"/>
@@ -36200,7 +36269,7 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2741.9354838709692</v>
       </c>
       <c r="BE23" s="15">
@@ -36216,69 +36285,72 @@
         <v>7.2034574291613032</v>
       </c>
       <c r="BH23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>67.703726451613008</v>
       </c>
       <c r="BI23" s="5">
-        <f>9.81*BH23/1000</f>
+        <f t="shared" si="3"/>
         <v>0.66417355649032372</v>
       </c>
-      <c r="BJ23" s="5"/>
+      <c r="BJ23" s="5">
+        <f t="shared" si="13"/>
+        <v>0.66417355649032361</v>
+      </c>
       <c r="BK23" s="5">
-        <f>BI23*128/1000</f>
+        <f t="shared" si="4"/>
         <v>8.5014215230761442E-2</v>
       </c>
       <c r="BL23" s="5">
-        <f>BK23*BD23*0.10472</f>
+        <f t="shared" si="5"/>
         <v>24.410597826195296</v>
       </c>
       <c r="BM23" s="5">
-        <f>BE23*BF23</f>
+        <f t="shared" si="6"/>
         <v>7.2034574291613032</v>
       </c>
       <c r="BN23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.388733544447061</v>
       </c>
       <c r="BO23" s="33"/>
       <c r="BP23" s="16">
+        <f t="shared" si="15"/>
+        <v>2741.9354838709692</v>
+      </c>
+      <c r="BQ23" s="15">
+        <f t="shared" si="16"/>
+        <v>3.7244193548387119</v>
+      </c>
+      <c r="BR23" s="15">
+        <f t="shared" si="17"/>
+        <v>2.1224529032258088</v>
+      </c>
+      <c r="BS23" s="11">
+        <f t="shared" si="18"/>
+        <v>197.99910645161322</v>
+      </c>
+      <c r="BT23" s="11">
+        <f t="shared" si="7"/>
+        <v>1.9423712342903257</v>
+      </c>
+      <c r="BU23" s="11">
+        <f t="shared" si="19"/>
+        <v>0.64745707809677544</v>
+      </c>
+      <c r="BV23" s="11">
+        <f t="shared" si="8"/>
+        <v>0.64745707809677522</v>
+      </c>
+      <c r="BW23" s="11">
+        <f t="shared" si="9"/>
+        <v>185.90790140500059</v>
+      </c>
+      <c r="BX23" s="11">
         <f t="shared" si="10"/>
-        <v>2741.9354838709692</v>
-      </c>
-      <c r="BQ23" s="15">
-        <f t="shared" si="11"/>
-        <v>3.7244193548387119</v>
-      </c>
-      <c r="BR23" s="15">
-        <f t="shared" si="12"/>
-        <v>2.1224529032258088</v>
-      </c>
-      <c r="BS23" s="11">
-        <f t="shared" si="13"/>
-        <v>197.99910645161322</v>
-      </c>
-      <c r="BT23" s="11">
-        <f t="shared" si="3"/>
-        <v>1.9423712342903257</v>
-      </c>
-      <c r="BU23" s="11">
-        <f t="shared" si="14"/>
-        <v>0.64745707809677522</v>
-      </c>
-      <c r="BV23" s="11">
-        <f t="shared" si="4"/>
-        <v>0.64745707809677522</v>
-      </c>
-      <c r="BW23" s="11">
-        <f t="shared" si="5"/>
-        <v>185.90790140500059</v>
-      </c>
-      <c r="BX23" s="11">
-        <f t="shared" si="6"/>
         <v>7.9049046725078176</v>
       </c>
       <c r="BY23" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>23.518044695916821</v>
       </c>
       <c r="BZ23" s="5"/>
@@ -36369,7 +36441,7 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2838.7096774193565</v>
       </c>
       <c r="BE24" s="15">
@@ -36385,69 +36457,72 @@
         <v>8.1714439130322738</v>
       </c>
       <c r="BH24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>74.324049032258173</v>
       </c>
       <c r="BI24" s="5">
-        <f>9.81*BH24/1000</f>
+        <f t="shared" si="3"/>
         <v>0.7291189210064527</v>
       </c>
-      <c r="BJ24" s="5"/>
+      <c r="BJ24" s="5">
+        <f t="shared" si="13"/>
+        <v>0.7291189210064527</v>
+      </c>
       <c r="BK24" s="5">
-        <f>BI24*128/1000</f>
+        <f t="shared" si="4"/>
         <v>9.3327221888825945E-2</v>
       </c>
       <c r="BL24" s="5">
-        <f>BK24*BD24*0.10472</f>
+        <f t="shared" si="5"/>
         <v>27.743353145335856</v>
       </c>
       <c r="BM24" s="5">
-        <f>BE24*BF24</f>
+        <f t="shared" si="6"/>
         <v>8.1714439130322738</v>
       </c>
       <c r="BN24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3951592204027996</v>
       </c>
       <c r="BO24" s="33"/>
       <c r="BP24" s="16">
+        <f t="shared" si="15"/>
+        <v>2838.7096774193565</v>
+      </c>
+      <c r="BQ24" s="15">
+        <f t="shared" si="16"/>
+        <v>3.9053870967741964</v>
+      </c>
+      <c r="BR24" s="15">
+        <f t="shared" si="17"/>
+        <v>2.2530980645161316</v>
+      </c>
+      <c r="BS24" s="11">
+        <f t="shared" si="18"/>
+        <v>216.85942903225839</v>
+      </c>
+      <c r="BT24" s="11">
+        <f t="shared" si="7"/>
+        <v>2.1273909988064545</v>
+      </c>
+      <c r="BU24" s="11">
+        <f t="shared" si="19"/>
+        <v>0.709130332935485</v>
+      </c>
+      <c r="BV24" s="11">
+        <f t="shared" si="8"/>
+        <v>0.70913033293548478</v>
+      </c>
+      <c r="BW24" s="11">
+        <f t="shared" si="9"/>
+        <v>210.80294532001136</v>
+      </c>
+      <c r="BX24" s="11">
         <f t="shared" si="10"/>
-        <v>2838.7096774193565</v>
-      </c>
-      <c r="BQ24" s="15">
-        <f t="shared" si="11"/>
-        <v>3.9053870967741964</v>
-      </c>
-      <c r="BR24" s="15">
-        <f t="shared" si="12"/>
-        <v>2.2530980645161316</v>
-      </c>
-      <c r="BS24" s="11">
-        <f t="shared" si="13"/>
-        <v>216.85942903225839</v>
-      </c>
-      <c r="BT24" s="11">
-        <f t="shared" si="3"/>
-        <v>2.1273909988064545</v>
-      </c>
-      <c r="BU24" s="11">
-        <f t="shared" si="14"/>
-        <v>0.70913033293548489</v>
-      </c>
-      <c r="BV24" s="11">
-        <f t="shared" si="4"/>
-        <v>0.70913033293548478</v>
-      </c>
-      <c r="BW24" s="11">
-        <f t="shared" si="5"/>
-        <v>210.80294532001136</v>
-      </c>
-      <c r="BX24" s="11">
-        <f t="shared" si="6"/>
         <v>8.7992201089282158</v>
       </c>
       <c r="BY24" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>23.957003315114036</v>
       </c>
       <c r="BZ24" s="5"/>
@@ -36538,7 +36613,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2935.4838709677438</v>
       </c>
       <c r="BE25" s="15">
@@ -36554,69 +36629,72 @@
         <v>9.1989465259355043</v>
       </c>
       <c r="BH25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80.944371612903339</v>
       </c>
       <c r="BI25" s="5">
-        <f>9.81*BH25/1000</f>
+        <f t="shared" si="3"/>
         <v>0.79406428552258179</v>
       </c>
-      <c r="BJ25" s="5"/>
+      <c r="BJ25" s="5">
+        <f t="shared" si="13"/>
+        <v>0.79406428552258179</v>
+      </c>
       <c r="BK25" s="5">
-        <f>BI25*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.10164022854689046</v>
       </c>
       <c r="BL25" s="5">
-        <f>BK25*BD25*0.10472</f>
+        <f t="shared" si="5"/>
         <v>31.244599701360134</v>
       </c>
       <c r="BM25" s="5">
-        <f>BE25*BF25</f>
+        <f t="shared" si="6"/>
         <v>9.1989465259355043</v>
       </c>
       <c r="BN25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3965410727488337</v>
       </c>
       <c r="BO25" s="33"/>
       <c r="BP25" s="16">
+        <f t="shared" si="15"/>
+        <v>2935.4838709677438</v>
+      </c>
+      <c r="BQ25" s="15">
+        <f t="shared" si="16"/>
+        <v>4.0863548387096813</v>
+      </c>
+      <c r="BR25" s="15">
+        <f t="shared" si="17"/>
+        <v>2.3837432258064544</v>
+      </c>
+      <c r="BS25" s="11">
+        <f t="shared" si="18"/>
+        <v>235.71975161290356</v>
+      </c>
+      <c r="BT25" s="11">
+        <f t="shared" si="7"/>
+        <v>2.3124107633225841</v>
+      </c>
+      <c r="BU25" s="11">
+        <f t="shared" si="19"/>
+        <v>0.77080358777419455</v>
+      </c>
+      <c r="BV25" s="11">
+        <f t="shared" si="8"/>
+        <v>0.77080358777419467</v>
+      </c>
+      <c r="BW25" s="11">
+        <f t="shared" si="9"/>
+        <v>236.94800663761123</v>
+      </c>
+      <c r="BX25" s="11">
         <f t="shared" si="10"/>
-        <v>2935.4838709677438</v>
-      </c>
-      <c r="BQ25" s="15">
-        <f t="shared" si="11"/>
-        <v>4.0863548387096813</v>
-      </c>
-      <c r="BR25" s="15">
-        <f t="shared" si="12"/>
-        <v>2.3837432258064544</v>
-      </c>
-      <c r="BS25" s="11">
-        <f t="shared" si="13"/>
-        <v>235.71975161290356</v>
-      </c>
-      <c r="BT25" s="11">
-        <f t="shared" si="3"/>
-        <v>2.3124107633225841</v>
-      </c>
-      <c r="BU25" s="11">
-        <f t="shared" si="14"/>
-        <v>0.77080358777419467</v>
-      </c>
-      <c r="BV25" s="11">
-        <f t="shared" si="4"/>
-        <v>0.77080358777419467</v>
-      </c>
-      <c r="BW25" s="11">
-        <f t="shared" si="5"/>
-        <v>236.94800663761123</v>
-      </c>
-      <c r="BX25" s="11">
-        <f t="shared" si="6"/>
         <v>9.7408206650156295</v>
       </c>
       <c r="BY25" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>24.325261164966847</v>
       </c>
       <c r="BZ25" s="5"/>
@@ -36701,7 +36779,7 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3032.2580645161311</v>
       </c>
       <c r="BE26" s="15">
@@ -36717,69 +36795,72 @@
         <v>10.285965267870992</v>
       </c>
       <c r="BH26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>87.564694193548533</v>
       </c>
       <c r="BI26" s="5">
-        <f>9.81*BH26/1000</f>
+        <f t="shared" si="3"/>
         <v>0.8590096500387111</v>
       </c>
-      <c r="BJ26" s="5"/>
+      <c r="BJ26" s="5">
+        <f t="shared" si="13"/>
+        <v>0.85900965003871121</v>
+      </c>
       <c r="BK26" s="5">
-        <f>BI26*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.10995323520495502</v>
       </c>
       <c r="BL26" s="5">
-        <f>BK26*BD26*0.10472</f>
+        <f t="shared" si="5"/>
         <v>34.914337494268139</v>
       </c>
       <c r="BM26" s="5">
-        <f>BE26*BF26</f>
+        <f t="shared" si="6"/>
         <v>10.285965267870992</v>
       </c>
       <c r="BN26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3943666525227121</v>
       </c>
       <c r="BO26" s="33"/>
       <c r="BP26" s="16">
+        <f t="shared" si="15"/>
+        <v>3032.2580645161311</v>
+      </c>
+      <c r="BQ26" s="15">
+        <f t="shared" si="16"/>
+        <v>4.267322580645164</v>
+      </c>
+      <c r="BR26" s="15">
+        <f t="shared" si="17"/>
+        <v>2.5143883870967771</v>
+      </c>
+      <c r="BS26" s="11">
+        <f t="shared" si="18"/>
+        <v>254.58007419354874</v>
+      </c>
+      <c r="BT26" s="11">
+        <f t="shared" si="7"/>
+        <v>2.4974305278387132</v>
+      </c>
+      <c r="BU26" s="11">
+        <f t="shared" si="19"/>
+        <v>0.83247684261290456</v>
+      </c>
+      <c r="BV26" s="11">
+        <f t="shared" si="8"/>
+        <v>0.83247684261290433</v>
+      </c>
+      <c r="BW26" s="11">
+        <f t="shared" si="9"/>
+        <v>264.34308535779996</v>
+      </c>
+      <c r="BX26" s="11">
         <f t="shared" si="10"/>
-        <v>3032.2580645161311</v>
-      </c>
-      <c r="BQ26" s="15">
-        <f t="shared" si="11"/>
-        <v>4.267322580645164</v>
-      </c>
-      <c r="BR26" s="15">
-        <f t="shared" si="12"/>
-        <v>2.5143883870967771</v>
-      </c>
-      <c r="BS26" s="11">
-        <f t="shared" si="13"/>
-        <v>254.58007419354874</v>
-      </c>
-      <c r="BT26" s="11">
-        <f t="shared" si="3"/>
-        <v>2.4974305278387132</v>
-      </c>
-      <c r="BU26" s="11">
-        <f t="shared" si="14"/>
-        <v>0.83247684261290444</v>
-      </c>
-      <c r="BV26" s="11">
-        <f t="shared" si="4"/>
-        <v>0.83247684261290433</v>
-      </c>
-      <c r="BW26" s="11">
-        <f t="shared" si="5"/>
-        <v>264.34308535779996</v>
-      </c>
-      <c r="BX26" s="11">
-        <f t="shared" si="6"/>
         <v>10.729706340770051</v>
       </c>
       <c r="BY26" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>24.63656291816357</v>
       </c>
       <c r="BZ26" s="5"/>
@@ -36858,7 +36939,7 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3129.0322580645184</v>
       </c>
       <c r="BE27" s="15">
@@ -36874,69 +36955,72 @@
         <v>11.432500138838735</v>
       </c>
       <c r="BH27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>94.185016774193699</v>
       </c>
       <c r="BI27" s="5">
-        <f>9.81*BH27/1000</f>
+        <f t="shared" si="3"/>
         <v>0.92395501455484019</v>
       </c>
-      <c r="BJ27" s="5"/>
+      <c r="BJ27" s="5">
+        <f t="shared" si="13"/>
+        <v>0.92395501455484019</v>
+      </c>
       <c r="BK27" s="5">
-        <f>BI27*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.11826624186301954</v>
       </c>
       <c r="BL27" s="5">
-        <f>BK27*BD27*0.10472</f>
+        <f t="shared" si="5"/>
         <v>38.752566524059844</v>
       </c>
       <c r="BM27" s="5">
-        <f>BE27*BF27</f>
+        <f t="shared" si="6"/>
         <v>11.432500138838735</v>
       </c>
       <c r="BN27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3896843256890756</v>
       </c>
       <c r="BO27" s="33"/>
       <c r="BP27" s="16">
+        <f t="shared" si="15"/>
+        <v>3129.0322580645184</v>
+      </c>
+      <c r="BQ27" s="15">
+        <f t="shared" si="16"/>
+        <v>4.4482903225806485</v>
+      </c>
+      <c r="BR27" s="15">
+        <f t="shared" si="17"/>
+        <v>2.6450335483870999</v>
+      </c>
+      <c r="BS27" s="11">
+        <f t="shared" si="18"/>
+        <v>273.44039677419403</v>
+      </c>
+      <c r="BT27" s="11">
+        <f t="shared" si="7"/>
+        <v>2.6824502923548432</v>
+      </c>
+      <c r="BU27" s="11">
+        <f t="shared" si="19"/>
+        <v>0.89415009745161456</v>
+      </c>
+      <c r="BV27" s="11">
+        <f t="shared" si="8"/>
+        <v>0.89415009745161433</v>
+      </c>
+      <c r="BW27" s="11">
+        <f t="shared" si="9"/>
+        <v>292.98818148057779</v>
+      </c>
+      <c r="BX27" s="11">
         <f t="shared" si="10"/>
-        <v>3129.0322580645184</v>
-      </c>
-      <c r="BQ27" s="15">
-        <f t="shared" si="11"/>
-        <v>4.4482903225806485</v>
-      </c>
-      <c r="BR27" s="15">
-        <f t="shared" si="12"/>
-        <v>2.6450335483870999</v>
-      </c>
-      <c r="BS27" s="11">
-        <f t="shared" si="13"/>
-        <v>273.44039677419403</v>
-      </c>
-      <c r="BT27" s="11">
-        <f t="shared" si="3"/>
-        <v>2.6824502923548432</v>
-      </c>
-      <c r="BU27" s="11">
-        <f t="shared" si="14"/>
-        <v>0.89415009745161445</v>
-      </c>
-      <c r="BV27" s="11">
-        <f t="shared" si="4"/>
-        <v>0.89415009745161433</v>
-      </c>
-      <c r="BW27" s="11">
-        <f t="shared" si="5"/>
-        <v>292.98818148057779</v>
-      </c>
-      <c r="BX27" s="11">
-        <f t="shared" si="6"/>
         <v>11.76587713619149</v>
       </c>
       <c r="BY27" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>24.901516316140579</v>
       </c>
       <c r="BZ27" s="5"/>
@@ -36991,7 +37075,7 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3225.8064516129057</v>
       </c>
       <c r="BE28" s="15">
@@ -37007,69 +37091,72 @@
         <v>12.638551138838739</v>
       </c>
       <c r="BH28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100.80533935483886</v>
       </c>
       <c r="BI28" s="5">
-        <f>9.81*BH28/1000</f>
+        <f t="shared" si="3"/>
         <v>0.98890037907096928</v>
       </c>
-      <c r="BJ28" s="5"/>
+      <c r="BJ28" s="5">
+        <f t="shared" si="13"/>
+        <v>0.98890037907096928</v>
+      </c>
       <c r="BK28" s="5">
-        <f>BI28*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.12657924852108407</v>
       </c>
       <c r="BL28" s="5">
-        <f>BK28*BD28*0.10472</f>
+        <f t="shared" si="5"/>
         <v>42.759286790735267</v>
       </c>
       <c r="BM28" s="5">
-        <f>BE28*BF28</f>
+        <f t="shared" si="6"/>
         <v>12.638551138838739</v>
       </c>
       <c r="BN28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3832427721350418</v>
       </c>
       <c r="BO28" s="33"/>
       <c r="BP28" s="16">
+        <f t="shared" si="15"/>
+        <v>3225.8064516129057</v>
+      </c>
+      <c r="BQ28" s="15">
+        <f t="shared" si="16"/>
+        <v>4.629258064516133</v>
+      </c>
+      <c r="BR28" s="15">
+        <f t="shared" si="17"/>
+        <v>2.7756787096774227</v>
+      </c>
+      <c r="BS28" s="11">
+        <f t="shared" si="18"/>
+        <v>292.3007193548392</v>
+      </c>
+      <c r="BT28" s="11">
+        <f t="shared" si="7"/>
+        <v>2.8674700568709728</v>
+      </c>
+      <c r="BU28" s="11">
+        <f t="shared" si="19"/>
+        <v>0.95582335229032411</v>
+      </c>
+      <c r="BV28" s="11">
+        <f t="shared" si="8"/>
+        <v>0.95582335229032422</v>
+      </c>
+      <c r="BW28" s="11">
+        <f t="shared" si="9"/>
+        <v>322.8832950059446</v>
+      </c>
+      <c r="BX28" s="11">
         <f t="shared" si="10"/>
-        <v>3225.8064516129057</v>
-      </c>
-      <c r="BQ28" s="15">
-        <f t="shared" si="11"/>
-        <v>4.629258064516133</v>
-      </c>
-      <c r="BR28" s="15">
-        <f t="shared" si="12"/>
-        <v>2.7756787096774227</v>
-      </c>
-      <c r="BS28" s="11">
-        <f t="shared" si="13"/>
-        <v>292.3007193548392</v>
-      </c>
-      <c r="BT28" s="11">
-        <f t="shared" si="3"/>
-        <v>2.8674700568709728</v>
-      </c>
-      <c r="BU28" s="11">
-        <f t="shared" si="14"/>
-        <v>0.95582335229032422</v>
-      </c>
-      <c r="BV28" s="11">
-        <f t="shared" si="4"/>
-        <v>0.95582335229032422</v>
-      </c>
-      <c r="BW28" s="11">
-        <f t="shared" si="5"/>
-        <v>322.8832950059446</v>
-      </c>
-      <c r="BX28" s="11">
-        <f t="shared" si="6"/>
         <v>12.849333051279944</v>
       </c>
       <c r="BY28" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.128408900085415</v>
       </c>
       <c r="BZ28" s="5"/>
@@ -37124,7 +37211,7 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3322.580645161293</v>
       </c>
       <c r="BE29" s="15">
@@ -37140,69 +37227,72 @@
         <v>13.904118267871002</v>
       </c>
       <c r="BH29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>107.42566193548406</v>
       </c>
       <c r="BI29" s="5">
-        <f>9.81*BH29/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0538457435870987</v>
       </c>
-      <c r="BJ29" s="5"/>
+      <c r="BJ29" s="5">
+        <f t="shared" si="13"/>
+        <v>1.0538457435870987</v>
+      </c>
       <c r="BK29" s="5">
-        <f>BI29*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.13489225517914863</v>
       </c>
       <c r="BL29" s="5">
-        <f>BK29*BD29*0.10472</f>
+        <f t="shared" si="5"/>
         <v>46.934498294294414</v>
       </c>
       <c r="BM29" s="5">
-        <f>BE29*BF29</f>
+        <f t="shared" si="6"/>
         <v>13.904118267871002</v>
       </c>
       <c r="BN29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3755824993770727</v>
       </c>
       <c r="BO29" s="33"/>
       <c r="BP29" s="16">
+        <f t="shared" si="15"/>
+        <v>3322.580645161293</v>
+      </c>
+      <c r="BQ29" s="15">
+        <f t="shared" si="16"/>
+        <v>4.8102258064516175</v>
+      </c>
+      <c r="BR29" s="15">
+        <f t="shared" si="17"/>
+        <v>2.9063238709677455</v>
+      </c>
+      <c r="BS29" s="11">
+        <f t="shared" si="18"/>
+        <v>311.16104193548438</v>
+      </c>
+      <c r="BT29" s="11">
+        <f t="shared" si="7"/>
+        <v>3.0524898213871019</v>
+      </c>
+      <c r="BU29" s="11">
+        <f t="shared" si="19"/>
+        <v>1.0174966071290337</v>
+      </c>
+      <c r="BV29" s="11">
+        <f t="shared" si="8"/>
+        <v>1.0174966071290339</v>
+      </c>
+      <c r="BW29" s="11">
+        <f t="shared" si="9"/>
+        <v>354.02842593390028</v>
+      </c>
+      <c r="BX29" s="11">
         <f t="shared" si="10"/>
-        <v>3322.580645161293</v>
-      </c>
-      <c r="BQ29" s="15">
-        <f t="shared" si="11"/>
-        <v>4.8102258064516175</v>
-      </c>
-      <c r="BR29" s="15">
-        <f t="shared" si="12"/>
-        <v>2.9063238709677455</v>
-      </c>
-      <c r="BS29" s="11">
-        <f t="shared" si="13"/>
-        <v>311.16104193548438</v>
-      </c>
-      <c r="BT29" s="11">
-        <f t="shared" si="3"/>
-        <v>3.0524898213871019</v>
-      </c>
-      <c r="BU29" s="11">
-        <f t="shared" si="14"/>
-        <v>1.0174966071290339</v>
-      </c>
-      <c r="BV29" s="11">
-        <f t="shared" si="4"/>
-        <v>1.0174966071290339</v>
-      </c>
-      <c r="BW29" s="11">
-        <f t="shared" si="5"/>
-        <v>354.02842593390028</v>
-      </c>
-      <c r="BX29" s="11">
-        <f t="shared" si="6"/>
         <v>13.98007408603541</v>
       </c>
       <c r="BY29" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.323787538975676</v>
       </c>
       <c r="BZ29" s="5"/>
@@ -37257,7 +37347,7 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3419.3548387096803</v>
       </c>
       <c r="BE30" s="15">
@@ -37273,69 +37363,72 @@
         <v>15.229201525935524</v>
       </c>
       <c r="BH30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>114.04598451612922</v>
       </c>
       <c r="BI30" s="5">
-        <f>9.81*BH30/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1187911081032278</v>
       </c>
-      <c r="BJ30" s="5"/>
+      <c r="BJ30" s="5">
+        <f t="shared" si="13"/>
+        <v>1.1187911081032278</v>
+      </c>
       <c r="BK30" s="5">
-        <f>BI30*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.14320526183721316</v>
       </c>
       <c r="BL30" s="5">
-        <f>BK30*BD30*0.10472</f>
+        <f t="shared" si="5"/>
         <v>51.278201034737265</v>
       </c>
       <c r="BM30" s="5">
-        <f>BE30*BF30</f>
+        <f t="shared" si="6"/>
         <v>15.229201525935524</v>
       </c>
       <c r="BN30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3670971486856902</v>
       </c>
       <c r="BO30" s="33"/>
       <c r="BP30" s="16">
+        <f t="shared" si="15"/>
+        <v>3419.3548387096803</v>
+      </c>
+      <c r="BQ30" s="15">
+        <f t="shared" si="16"/>
+        <v>4.9911935483871019</v>
+      </c>
+      <c r="BR30" s="15">
+        <f t="shared" si="17"/>
+        <v>3.0369690322580691</v>
+      </c>
+      <c r="BS30" s="11">
+        <f t="shared" si="18"/>
+        <v>330.02136451612955</v>
+      </c>
+      <c r="BT30" s="11">
+        <f t="shared" si="7"/>
+        <v>3.2375095859032315</v>
+      </c>
+      <c r="BU30" s="11">
+        <f t="shared" si="19"/>
+        <v>1.0791698619677437</v>
+      </c>
+      <c r="BV30" s="11">
+        <f t="shared" si="8"/>
+        <v>1.0791698619677437</v>
+      </c>
+      <c r="BW30" s="11">
+        <f t="shared" si="9"/>
+        <v>386.42357426444494</v>
+      </c>
+      <c r="BX30" s="11">
         <f t="shared" si="10"/>
-        <v>3419.3548387096803</v>
-      </c>
-      <c r="BQ30" s="15">
-        <f t="shared" si="11"/>
-        <v>4.9911935483871019</v>
-      </c>
-      <c r="BR30" s="15">
-        <f t="shared" si="12"/>
-        <v>3.0369690322580691</v>
-      </c>
-      <c r="BS30" s="11">
-        <f t="shared" si="13"/>
-        <v>330.02136451612955</v>
-      </c>
-      <c r="BT30" s="11">
-        <f t="shared" si="3"/>
-        <v>3.2375095859032315</v>
-      </c>
-      <c r="BU30" s="11">
-        <f t="shared" si="14"/>
-        <v>1.0791698619677439</v>
-      </c>
-      <c r="BV30" s="11">
-        <f t="shared" si="4"/>
-        <v>1.0791698619677437</v>
-      </c>
-      <c r="BW30" s="11">
-        <f t="shared" si="5"/>
-        <v>386.42357426444494</v>
-      </c>
-      <c r="BX30" s="11">
-        <f t="shared" si="6"/>
         <v>15.158100240457895</v>
       </c>
       <c r="BY30" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.492876292838915</v>
       </c>
       <c r="BZ30" s="5"/>
@@ -37390,7 +37483,7 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3516.1290322580676</v>
       </c>
       <c r="BE31" s="15">
@@ -37406,69 +37499,72 @@
         <v>16.613800913032303</v>
       </c>
       <c r="BH31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>120.66630709677439</v>
       </c>
       <c r="BI31" s="5">
-        <f>9.81*BH31/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1837364726193569</v>
       </c>
-      <c r="BJ31" s="5"/>
+      <c r="BJ31" s="5">
+        <f t="shared" si="13"/>
+        <v>1.1837364726193569</v>
+      </c>
       <c r="BK31" s="5">
-        <f>BI31*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.15151826849527769</v>
       </c>
       <c r="BL31" s="5">
-        <f>BK31*BD31*0.10472</f>
+        <f t="shared" si="5"/>
         <v>55.790395012063826</v>
       </c>
       <c r="BM31" s="5">
-        <f>BE31*BF31</f>
+        <f t="shared" si="6"/>
         <v>16.613800913032303</v>
       </c>
       <c r="BN31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3580753317141516</v>
       </c>
       <c r="BO31" s="33"/>
       <c r="BP31" s="16">
+        <f t="shared" si="15"/>
+        <v>3516.1290322580676</v>
+      </c>
+      <c r="BQ31" s="15">
+        <f t="shared" si="16"/>
+        <v>5.1721612903225864</v>
+      </c>
+      <c r="BR31" s="15">
+        <f t="shared" si="17"/>
+        <v>3.1676141935483919</v>
+      </c>
+      <c r="BS31" s="11">
+        <f t="shared" si="18"/>
+        <v>348.88168709677484</v>
+      </c>
+      <c r="BT31" s="11">
+        <f t="shared" si="7"/>
+        <v>3.4225293504193615</v>
+      </c>
+      <c r="BU31" s="11">
+        <f t="shared" si="19"/>
+        <v>1.1408431168064541</v>
+      </c>
+      <c r="BV31" s="11">
+        <f t="shared" si="8"/>
+        <v>1.1408431168064537</v>
+      </c>
+      <c r="BW31" s="11">
+        <f t="shared" si="9"/>
+        <v>420.06873999757869</v>
+      </c>
+      <c r="BX31" s="11">
         <f t="shared" si="10"/>
-        <v>3516.1290322580676</v>
-      </c>
-      <c r="BQ31" s="15">
-        <f t="shared" si="11"/>
-        <v>5.1721612903225864</v>
-      </c>
-      <c r="BR31" s="15">
-        <f t="shared" si="12"/>
-        <v>3.1676141935483919</v>
-      </c>
-      <c r="BS31" s="11">
-        <f t="shared" si="13"/>
-        <v>348.88168709677484</v>
-      </c>
-      <c r="BT31" s="11">
-        <f t="shared" si="3"/>
-        <v>3.4225293504193615</v>
-      </c>
-      <c r="BU31" s="11">
-        <f t="shared" si="14"/>
-        <v>1.1408431168064539</v>
-      </c>
-      <c r="BV31" s="11">
-        <f t="shared" si="4"/>
-        <v>1.1408431168064537</v>
-      </c>
-      <c r="BW31" s="11">
-        <f t="shared" si="5"/>
-        <v>420.06873999757869</v>
-      </c>
-      <c r="BX31" s="11">
-        <f t="shared" si="6"/>
         <v>16.38341151454739</v>
       </c>
       <c r="BY31" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.639882122510645</v>
       </c>
       <c r="BZ31" s="5"/>
@@ -37523,7 +37619,7 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3612.9032258064549</v>
       </c>
       <c r="BE32" s="15">
@@ -37539,69 +37635,72 @@
         <v>18.057916429161338</v>
       </c>
       <c r="BH32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>127.28662967741958</v>
       </c>
       <c r="BI32" s="5">
-        <f>9.81*BH32/1000</f>
+        <f t="shared" si="3"/>
         <v>1.2486818371354862</v>
       </c>
-      <c r="BJ32" s="5"/>
+      <c r="BJ32" s="5">
+        <f t="shared" si="13"/>
+        <v>1.2486818371354862</v>
+      </c>
       <c r="BK32" s="5">
-        <f>BI32*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.15983127515334222</v>
       </c>
       <c r="BL32" s="5">
-        <f>BK32*BD32*0.10472</f>
+        <f t="shared" si="5"/>
         <v>60.471080226274104</v>
       </c>
       <c r="BM32" s="5">
-        <f>BE32*BF32</f>
+        <f t="shared" si="6"/>
         <v>18.057916429161338</v>
       </c>
       <c r="BN32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.348729653473236</v>
       </c>
       <c r="BO32" s="33"/>
       <c r="BP32" s="16">
+        <f t="shared" si="15"/>
+        <v>3612.9032258064549</v>
+      </c>
+      <c r="BQ32" s="15">
+        <f t="shared" si="16"/>
+        <v>5.3531290322580709</v>
+      </c>
+      <c r="BR32" s="15">
+        <f t="shared" si="17"/>
+        <v>3.2982593548387147</v>
+      </c>
+      <c r="BS32" s="11">
+        <f t="shared" si="18"/>
+        <v>367.74200967742001</v>
+      </c>
+      <c r="BT32" s="11">
+        <f t="shared" si="7"/>
+        <v>3.6075491149354906</v>
+      </c>
+      <c r="BU32" s="11">
+        <f t="shared" si="19"/>
+        <v>1.2025163716451637</v>
+      </c>
+      <c r="BV32" s="11">
+        <f t="shared" si="8"/>
+        <v>1.2025163716451635</v>
+      </c>
+      <c r="BW32" s="11">
+        <f t="shared" si="9"/>
+        <v>454.96392313330131</v>
+      </c>
+      <c r="BX32" s="11">
         <f t="shared" si="10"/>
-        <v>3612.9032258064549</v>
-      </c>
-      <c r="BQ32" s="15">
-        <f t="shared" si="11"/>
-        <v>5.3531290322580709</v>
-      </c>
-      <c r="BR32" s="15">
-        <f t="shared" si="12"/>
-        <v>3.2982593548387147</v>
-      </c>
-      <c r="BS32" s="11">
-        <f t="shared" si="13"/>
-        <v>367.74200967742001</v>
-      </c>
-      <c r="BT32" s="11">
-        <f t="shared" si="3"/>
-        <v>3.6075491149354906</v>
-      </c>
-      <c r="BU32" s="11">
-        <f t="shared" si="14"/>
-        <v>1.2025163716451635</v>
-      </c>
-      <c r="BV32" s="11">
-        <f t="shared" si="4"/>
-        <v>1.2025163716451635</v>
-      </c>
-      <c r="BW32" s="11">
-        <f t="shared" si="5"/>
-        <v>454.96392313330131</v>
-      </c>
-      <c r="BX32" s="11">
-        <f t="shared" si="6"/>
         <v>17.656007908303899</v>
       </c>
       <c r="BY32" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.768221530945542</v>
       </c>
       <c r="BZ32" s="5"/>
@@ -37656,7 +37755,7 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3709.6774193548422</v>
       </c>
       <c r="BE33" s="15">
@@ -37672,69 +37771,72 @@
         <v>19.561548074322634</v>
       </c>
       <c r="BH33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>133.90695225806473</v>
       </c>
       <c r="BI33" s="5">
-        <f>9.81*BH33/1000</f>
+        <f t="shared" si="3"/>
         <v>1.3136272016516153</v>
       </c>
-      <c r="BJ33" s="5"/>
+      <c r="BJ33" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3136272016516151</v>
+      </c>
       <c r="BK33" s="5">
-        <f>BI33*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.16814428181140675</v>
       </c>
       <c r="BL33" s="5">
-        <f>BK33*BD33*0.10472</f>
+        <f t="shared" si="5"/>
         <v>65.320256677368107</v>
       </c>
       <c r="BM33" s="5">
-        <f>BE33*BF33</f>
+        <f t="shared" si="6"/>
         <v>19.561548074322634</v>
       </c>
       <c r="BN33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3392171432030171</v>
       </c>
       <c r="BO33" s="33"/>
       <c r="BP33" s="16">
+        <f t="shared" si="15"/>
+        <v>3709.6774193548422</v>
+      </c>
+      <c r="BQ33" s="15">
+        <f t="shared" si="16"/>
+        <v>5.5340967741935554</v>
+      </c>
+      <c r="BR33" s="15">
+        <f t="shared" si="17"/>
+        <v>3.4289045161290375</v>
+      </c>
+      <c r="BS33" s="11">
+        <f t="shared" si="18"/>
+        <v>386.60233225806519</v>
+      </c>
+      <c r="BT33" s="11">
+        <f t="shared" si="7"/>
+        <v>3.7925688794516197</v>
+      </c>
+      <c r="BU33" s="11">
+        <f t="shared" si="19"/>
+        <v>1.2641896264838732</v>
+      </c>
+      <c r="BV33" s="11">
+        <f t="shared" si="8"/>
+        <v>1.2641896264838732</v>
+      </c>
+      <c r="BW33" s="11">
+        <f t="shared" si="9"/>
+        <v>491.10912367161296</v>
+      </c>
+      <c r="BX33" s="11">
         <f t="shared" si="10"/>
-        <v>3709.6774193548422</v>
-      </c>
-      <c r="BQ33" s="15">
-        <f t="shared" si="11"/>
-        <v>5.5340967741935554</v>
-      </c>
-      <c r="BR33" s="15">
-        <f t="shared" si="12"/>
-        <v>3.4289045161290375</v>
-      </c>
-      <c r="BS33" s="11">
-        <f t="shared" si="13"/>
-        <v>386.60233225806519</v>
-      </c>
-      <c r="BT33" s="11">
-        <f t="shared" si="3"/>
-        <v>3.7925688794516197</v>
-      </c>
-      <c r="BU33" s="11">
-        <f t="shared" si="14"/>
-        <v>1.2641896264838732</v>
-      </c>
-      <c r="BV33" s="11">
-        <f t="shared" si="4"/>
-        <v>1.2641896264838732</v>
-      </c>
-      <c r="BW33" s="11">
-        <f t="shared" si="5"/>
-        <v>491.10912367161296</v>
-      </c>
-      <c r="BX33" s="11">
-        <f t="shared" si="6"/>
         <v>18.97588942172742</v>
       </c>
       <c r="BY33" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.880690636260365</v>
       </c>
       <c r="BZ33" s="5"/>
@@ -37789,7 +37891,7 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3806.4516129032295</v>
       </c>
       <c r="BE34" s="15">
@@ -37805,69 +37907,72 @@
         <v>21.12469584851619</v>
       </c>
       <c r="BH34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>140.52727483870996</v>
       </c>
       <c r="BI34" s="5">
-        <f>9.81*BH34/1000</f>
+        <f t="shared" si="3"/>
         <v>1.3785725661677448</v>
       </c>
-      <c r="BJ34" s="5"/>
+      <c r="BJ34" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3785725661677448</v>
+      </c>
       <c r="BK34" s="5">
-        <f>BI34*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.17645728846947134</v>
       </c>
       <c r="BL34" s="5">
-        <f>BK34*BD34*0.10472</f>
+        <f t="shared" si="5"/>
         <v>70.337924365345827</v>
       </c>
       <c r="BM34" s="5">
-        <f>BE34*BF34</f>
+        <f t="shared" si="6"/>
         <v>21.12469584851619</v>
       </c>
       <c r="BN34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3296538264850994</v>
       </c>
       <c r="BO34" s="33"/>
       <c r="BP34" s="16">
+        <f t="shared" si="15"/>
+        <v>3806.4516129032295</v>
+      </c>
+      <c r="BQ34" s="15">
+        <f t="shared" si="16"/>
+        <v>5.7150645161290381</v>
+      </c>
+      <c r="BR34" s="15">
+        <f t="shared" si="17"/>
+        <v>3.5595496774193602</v>
+      </c>
+      <c r="BS34" s="11">
+        <f t="shared" si="18"/>
+        <v>405.46265483871036</v>
+      </c>
+      <c r="BT34" s="11">
+        <f t="shared" si="7"/>
+        <v>3.9775886439677488</v>
+      </c>
+      <c r="BU34" s="11">
+        <f t="shared" si="19"/>
+        <v>1.3258628813225832</v>
+      </c>
+      <c r="BV34" s="11">
+        <f t="shared" si="8"/>
+        <v>1.3258628813225828</v>
+      </c>
+      <c r="BW34" s="11">
+        <f t="shared" si="9"/>
+        <v>528.50434161251337</v>
+      </c>
+      <c r="BX34" s="11">
         <f t="shared" si="10"/>
-        <v>3806.4516129032295</v>
-      </c>
-      <c r="BQ34" s="15">
-        <f t="shared" si="11"/>
-        <v>5.7150645161290381</v>
-      </c>
-      <c r="BR34" s="15">
-        <f t="shared" si="12"/>
-        <v>3.5595496774193602</v>
-      </c>
-      <c r="BS34" s="11">
-        <f t="shared" si="13"/>
-        <v>405.46265483871036</v>
-      </c>
-      <c r="BT34" s="11">
-        <f t="shared" si="3"/>
-        <v>3.9775886439677488</v>
-      </c>
-      <c r="BU34" s="11">
-        <f t="shared" si="14"/>
-        <v>1.325862881322583</v>
-      </c>
-      <c r="BV34" s="11">
-        <f t="shared" si="4"/>
-        <v>1.3258628813225828</v>
-      </c>
-      <c r="BW34" s="11">
-        <f t="shared" si="5"/>
-        <v>528.50434161251337</v>
-      </c>
-      <c r="BX34" s="11">
-        <f t="shared" si="6"/>
         <v>20.34305605481795</v>
       </c>
       <c r="BY34" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.97959422558564</v>
       </c>
       <c r="BZ34" s="5"/>
@@ -37922,7 +38027,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3903.2258064516168</v>
       </c>
       <c r="BE35" s="15">
@@ -37938,69 +38043,72 @@
         <v>22.747359751742003</v>
       </c>
       <c r="BH35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>147.14759741935512</v>
       </c>
       <c r="BI35" s="5">
-        <f>9.81*BH35/1000</f>
+        <f t="shared" si="3"/>
         <v>1.4435179306838739</v>
       </c>
-      <c r="BJ35" s="5"/>
+      <c r="BJ35" s="5">
+        <f t="shared" si="13"/>
+        <v>1.4435179306838739</v>
+      </c>
       <c r="BK35" s="5">
-        <f>BI35*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.18477029512753587</v>
       </c>
       <c r="BL35" s="5">
-        <f>BK35*BD35*0.10472</f>
+        <f t="shared" si="5"/>
         <v>75.524083290207244</v>
       </c>
       <c r="BM35" s="5">
-        <f>BE35*BF35</f>
+        <f t="shared" si="6"/>
         <v>22.747359751742003</v>
       </c>
       <c r="BN35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.32012524154253</v>
       </c>
       <c r="BO35" s="33"/>
       <c r="BP35" s="16">
+        <f t="shared" si="15"/>
+        <v>3903.2258064516168</v>
+      </c>
+      <c r="BQ35" s="15">
+        <f t="shared" si="16"/>
+        <v>5.8960322580645226</v>
+      </c>
+      <c r="BR35" s="15">
+        <f t="shared" si="17"/>
+        <v>3.690194838709683</v>
+      </c>
+      <c r="BS35" s="11">
+        <f t="shared" si="18"/>
+        <v>424.32297741935565</v>
+      </c>
+      <c r="BT35" s="11">
+        <f t="shared" si="7"/>
+        <v>4.1626084084838793</v>
+      </c>
+      <c r="BU35" s="11">
+        <f t="shared" si="19"/>
+        <v>1.3875361361612928</v>
+      </c>
+      <c r="BV35" s="11">
+        <f t="shared" si="8"/>
+        <v>1.387536136161293</v>
+      </c>
+      <c r="BW35" s="11">
+        <f t="shared" si="9"/>
+        <v>567.14957695600322</v>
+      </c>
+      <c r="BX35" s="11">
         <f t="shared" si="10"/>
-        <v>3903.2258064516168</v>
-      </c>
-      <c r="BQ35" s="15">
-        <f t="shared" si="11"/>
-        <v>5.8960322580645226</v>
-      </c>
-      <c r="BR35" s="15">
-        <f t="shared" si="12"/>
-        <v>3.690194838709683</v>
-      </c>
-      <c r="BS35" s="11">
-        <f t="shared" si="13"/>
-        <v>424.32297741935565</v>
-      </c>
-      <c r="BT35" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1626084084838793</v>
-      </c>
-      <c r="BU35" s="11">
-        <f t="shared" si="14"/>
-        <v>1.387536136161293</v>
-      </c>
-      <c r="BV35" s="11">
-        <f t="shared" si="4"/>
-        <v>1.387536136161293</v>
-      </c>
-      <c r="BW35" s="11">
-        <f t="shared" si="5"/>
-        <v>567.14957695600322</v>
-      </c>
-      <c r="BX35" s="11">
-        <f t="shared" si="6"/>
         <v>21.7575078075755</v>
       </c>
       <c r="BY35" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>26.06684469434196</v>
       </c>
       <c r="BZ35" s="5"/>
@@ -38070,28 +38178,31 @@
         <v>24.429539784000003</v>
       </c>
       <c r="BH36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>153.76792</v>
       </c>
       <c r="BI36" s="5">
-        <f>9.81*BH36/1000</f>
+        <f t="shared" si="3"/>
         <v>1.5084632952000001</v>
       </c>
-      <c r="BJ36" s="5"/>
+      <c r="BJ36" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5084632952000001</v>
+      </c>
       <c r="BK36" s="5">
-        <f>BI36*128/1000</f>
+        <f t="shared" si="4"/>
         <v>0.19308330178560001</v>
       </c>
       <c r="BL36" s="5">
-        <f>BK36*BD36*0.10472</f>
+        <f t="shared" si="5"/>
         <v>80.878733451952129</v>
       </c>
       <c r="BM36" s="5">
-        <f>BE36*BF36</f>
+        <f t="shared" si="6"/>
         <v>24.429539784000003</v>
       </c>
       <c r="BN36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3106941091425401</v>
       </c>
       <c r="BO36" s="33"/>
@@ -38099,39 +38210,39 @@
         <v>4000</v>
       </c>
       <c r="BQ36" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.077</v>
       </c>
       <c r="BR36" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.8208400000000005</v>
       </c>
       <c r="BS36" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>443.18330000000003</v>
       </c>
       <c r="BT36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.3476281730000013</v>
       </c>
       <c r="BU36" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
+        <v>1.4492093910000001</v>
+      </c>
+      <c r="BV36" s="11">
+        <f t="shared" si="8"/>
         <v>1.4492093910000003</v>
       </c>
-      <c r="BV36" s="11">
-        <f t="shared" si="4"/>
-        <v>1.4492093910000003</v>
-      </c>
       <c r="BW36" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>607.04482970208005</v>
       </c>
       <c r="BX36" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.219244680000003</v>
       </c>
       <c r="BY36" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>26.144038622624134</v>
       </c>
       <c r="BZ36" s="5"/>
@@ -38764,7 +38875,7 @@
         <v>-0.2200988277</v>
       </c>
       <c r="BA44" s="14">
-        <f t="shared" ref="BA44:BA81" si="16">AZ44*3/4*256/1000</f>
+        <f t="shared" ref="BA44:BA81" si="21">AZ44*3/4*256/1000</f>
         <v>-4.22589749184E-2</v>
       </c>
       <c r="BB44" s="27">
@@ -38846,39 +38957,39 @@
         <v>1078.9473684210527</v>
       </c>
       <c r="AV45" s="15">
-        <f t="shared" ref="AV45:AV82" si="17">0.0018304*AU45-1.3330731</f>
+        <f t="shared" ref="AV45:AV82" si="22">0.0018304*AU45-1.3330731</f>
         <v>0.64183216315789493</v>
       </c>
       <c r="AW45" s="15">
-        <f t="shared" ref="AW45:AW82" si="18">0.001352*AU45-1.595325</f>
+        <f t="shared" ref="AW45:AW82" si="23">0.001352*AU45-1.595325</f>
         <v>-0.13658815789473699</v>
       </c>
       <c r="AX45" s="14">
-        <f t="shared" ref="AX45:AX82" si="19">0.04358*AU45-110.88851</f>
+        <f t="shared" ref="AX45:AX82" si="24">0.04358*AU45-110.88851</f>
         <v>-63.867983684210522</v>
       </c>
       <c r="AY45" s="14">
-        <f t="shared" ref="AY45:AY82" si="20">9.81*AX45/1000</f>
+        <f t="shared" ref="AY45:AY82" si="25">9.81*AX45/1000</f>
         <v>-0.62654491994210526</v>
       </c>
       <c r="AZ45" s="14">
-        <f t="shared" ref="AZ45:AZ81" si="21">(AY45/4*256)/(3/4*256)</f>
+        <f t="shared" ref="AZ45:AZ81" si="26">(AY45/4*256)/(3/4*256)</f>
         <v>-0.20884830664736842</v>
       </c>
       <c r="BA45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-4.0098874876294738E-2</v>
       </c>
       <c r="BB45" s="27">
-        <f t="shared" ref="BB45:BB82" si="22">BA45*AU45*0.10472</f>
+        <f t="shared" ref="BB45:BB82" si="27">BA45*AU45*0.10472</f>
         <v>-4.5306663489176051</v>
       </c>
       <c r="BC45" s="11">
-        <f t="shared" ref="BC45:BC82" si="23">AV45*AW45</f>
+        <f t="shared" ref="BC45:BC82" si="28">AV45*AW45</f>
         <v>-8.7666672843331156E-2</v>
       </c>
       <c r="BD45" s="11">
-        <f t="shared" ref="BD45:BD82" si="24">BB45/BC45</f>
+        <f t="shared" ref="BD45:BD82" si="29">BB45/BC45</f>
         <v>51.680601099283706</v>
       </c>
       <c r="BE45" s="7"/>
@@ -38962,43 +39073,43 @@
       <c r="AS46" s="7"/>
       <c r="AT46" s="7"/>
       <c r="AU46" s="16">
-        <f t="shared" ref="AU46:AU81" si="25">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
+        <f t="shared" ref="AU46:AU81" si="30">AU45+($AU$82-$AU$44)/(ROW($AU$82)-ROW($AU$44))</f>
         <v>1157.8947368421054</v>
       </c>
       <c r="AV46" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.78633742631578984</v>
       </c>
       <c r="AW46" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2.9851315789473754E-2</v>
       </c>
       <c r="AX46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-60.427457368421038</v>
       </c>
       <c r="AY46" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-0.59279335678421041</v>
       </c>
       <c r="AZ46" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.19759778559473681</v>
+      </c>
+      <c r="BA46" s="14">
         <f t="shared" si="21"/>
-        <v>-0.19759778559473681</v>
-      </c>
-      <c r="BA46" s="14">
-        <f t="shared" si="16"/>
         <v>-3.7938774834189469E-2</v>
       </c>
       <c r="BB46" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.6002561586315309</v>
       </c>
       <c r="BC46" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>-2.347320683003469E-2</v>
       </c>
       <c r="BD46" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>195.97902374145835</v>
       </c>
       <c r="BE46" s="7"/>
@@ -39100,43 +39211,43 @@
       <c r="AS47" s="7"/>
       <c r="AT47" s="7"/>
       <c r="AU47" s="16">
+        <f t="shared" si="30"/>
+        <v>1236.8421052631581</v>
+      </c>
+      <c r="AV47" s="15">
+        <f t="shared" si="22"/>
+        <v>0.93084268947368454</v>
+      </c>
+      <c r="AW47" s="15">
+        <f t="shared" si="23"/>
+        <v>7.6885526315789487E-2</v>
+      </c>
+      <c r="AX47" s="14">
+        <f t="shared" si="24"/>
+        <v>-56.986931052631562</v>
+      </c>
+      <c r="AY47" s="14">
         <f t="shared" si="25"/>
-        <v>1236.8421052631581</v>
-      </c>
-      <c r="AV47" s="15">
-        <f t="shared" si="17"/>
-        <v>0.93084268947368454</v>
-      </c>
-      <c r="AW47" s="15">
-        <f t="shared" si="18"/>
-        <v>7.6885526315789487E-2</v>
-      </c>
-      <c r="AX47" s="14">
-        <f t="shared" si="19"/>
-        <v>-56.986931052631562</v>
-      </c>
-      <c r="AY47" s="14">
-        <f t="shared" si="20"/>
         <v>-0.55904179362631568</v>
       </c>
       <c r="AZ47" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.18634726454210523</v>
+      </c>
+      <c r="BA47" s="14">
         <f t="shared" si="21"/>
-        <v>-0.18634726454210523</v>
-      </c>
-      <c r="BA47" s="14">
-        <f t="shared" si="16"/>
         <v>-3.57786747920842E-2</v>
       </c>
       <c r="BB47" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.634129282596624</v>
       </c>
       <c r="BC47" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.1568330097389235E-2</v>
       </c>
       <c r="BD47" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-64.751116538426459</v>
       </c>
       <c r="BE47" s="7"/>
@@ -39238,43 +39349,43 @@
       <c r="AS48" s="7"/>
       <c r="AT48" s="7"/>
       <c r="AU48" s="16">
+        <f t="shared" si="30"/>
+        <v>1315.7894736842109</v>
+      </c>
+      <c r="AV48" s="15">
+        <f t="shared" si="22"/>
+        <v>1.0753479526315797</v>
+      </c>
+      <c r="AW48" s="15">
+        <f t="shared" si="23"/>
+        <v>0.18362236842105295</v>
+      </c>
+      <c r="AX48" s="14">
+        <f t="shared" si="24"/>
+        <v>-53.546404736842085</v>
+      </c>
+      <c r="AY48" s="14">
         <f t="shared" si="25"/>
-        <v>1315.7894736842109</v>
-      </c>
-      <c r="AV48" s="15">
-        <f t="shared" si="17"/>
-        <v>1.0753479526315797</v>
-      </c>
-      <c r="AW48" s="15">
-        <f t="shared" si="18"/>
-        <v>0.18362236842105295</v>
-      </c>
-      <c r="AX48" s="14">
-        <f t="shared" si="19"/>
-        <v>-53.546404736842085</v>
-      </c>
-      <c r="AY48" s="14">
-        <f t="shared" si="20"/>
         <v>-0.52529023046842083</v>
       </c>
       <c r="AZ48" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.1750967434894736</v>
+      </c>
+      <c r="BA48" s="14">
         <f t="shared" si="21"/>
-        <v>-0.1750967434894736</v>
-      </c>
-      <c r="BA48" s="14">
-        <f t="shared" si="16"/>
         <v>-3.3618574749978931E-2</v>
       </c>
       <c r="BB48" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.6322857208128871</v>
       </c>
       <c r="BC48" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.19745793793894093</v>
       </c>
       <c r="BD48" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-23.459607494965883</v>
       </c>
       <c r="BE48" s="7"/>
@@ -39376,43 +39487,43 @@
       <c r="AS49" s="7"/>
       <c r="AT49" s="7"/>
       <c r="AU49" s="16">
+        <f t="shared" si="30"/>
+        <v>1394.7368421052636</v>
+      </c>
+      <c r="AV49" s="15">
+        <f t="shared" si="22"/>
+        <v>1.2198532157894744</v>
+      </c>
+      <c r="AW49" s="15">
+        <f t="shared" si="23"/>
+        <v>0.29035921052631619</v>
+      </c>
+      <c r="AX49" s="14">
+        <f t="shared" si="24"/>
+        <v>-50.105878421052608</v>
+      </c>
+      <c r="AY49" s="14">
         <f t="shared" si="25"/>
-        <v>1394.7368421052636</v>
-      </c>
-      <c r="AV49" s="15">
-        <f t="shared" si="17"/>
-        <v>1.2198532157894744</v>
-      </c>
-      <c r="AW49" s="15">
-        <f t="shared" si="18"/>
-        <v>0.29035921052631619</v>
-      </c>
-      <c r="AX49" s="14">
-        <f t="shared" si="19"/>
-        <v>-50.105878421052608</v>
-      </c>
-      <c r="AY49" s="14">
-        <f t="shared" si="20"/>
         <v>-0.49153866731052615</v>
       </c>
       <c r="AZ49" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.16384622243684205</v>
+      </c>
+      <c r="BA49" s="14">
         <f t="shared" si="21"/>
-        <v>-0.16384622243684205</v>
-      </c>
-      <c r="BA49" s="14">
-        <f t="shared" si="16"/>
         <v>-3.1458474707873677E-2</v>
       </c>
       <c r="BB49" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.5947254732803211</v>
       </c>
       <c r="BC49" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.3541956166946198</v>
       </c>
       <c r="BD49" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-12.972282142163829</v>
       </c>
       <c r="BE49" s="7"/>
@@ -39514,43 +39625,43 @@
       <c r="AS50" s="7"/>
       <c r="AT50" s="7"/>
       <c r="AU50" s="16">
+        <f t="shared" si="30"/>
+        <v>1473.6842105263163</v>
+      </c>
+      <c r="AV50" s="15">
+        <f t="shared" si="22"/>
+        <v>1.3643584789473695</v>
+      </c>
+      <c r="AW50" s="15">
+        <f t="shared" si="23"/>
+        <v>0.39709605263157943</v>
+      </c>
+      <c r="AX50" s="14">
+        <f t="shared" si="24"/>
+        <v>-46.665352105263125</v>
+      </c>
+      <c r="AY50" s="14">
         <f t="shared" si="25"/>
-        <v>1473.6842105263163</v>
-      </c>
-      <c r="AV50" s="15">
-        <f t="shared" si="17"/>
-        <v>1.3643584789473695</v>
-      </c>
-      <c r="AW50" s="15">
-        <f t="shared" si="18"/>
-        <v>0.39709605263157943</v>
-      </c>
-      <c r="AX50" s="14">
-        <f t="shared" si="19"/>
-        <v>-46.665352105263125</v>
-      </c>
-      <c r="AY50" s="14">
-        <f t="shared" si="20"/>
         <v>-0.4577871041526313</v>
       </c>
       <c r="AZ50" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.15259570138421044</v>
+      </c>
+      <c r="BA50" s="14">
         <f t="shared" si="21"/>
-        <v>-0.15259570138421044</v>
-      </c>
-      <c r="BA50" s="14">
-        <f t="shared" si="16"/>
         <v>-2.9298374665768408E-2</v>
       </c>
       <c r="BB50" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.5214485399989224</v>
       </c>
       <c r="BC50" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.54178136636442631</v>
       </c>
       <c r="BD50" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-8.3455224204916529</v>
       </c>
       <c r="BE50" s="7"/>
@@ -39634,43 +39745,43 @@
       <c r="AS51" s="7"/>
       <c r="AT51" s="7"/>
       <c r="AU51" s="16">
+        <f t="shared" si="30"/>
+        <v>1552.631578947369</v>
+      </c>
+      <c r="AV51" s="15">
+        <f t="shared" si="22"/>
+        <v>1.5088637421052642</v>
+      </c>
+      <c r="AW51" s="15">
+        <f t="shared" si="23"/>
+        <v>0.50383289473684267</v>
+      </c>
+      <c r="AX51" s="14">
+        <f t="shared" si="24"/>
+        <v>-43.224825789473655</v>
+      </c>
+      <c r="AY51" s="14">
         <f t="shared" si="25"/>
-        <v>1552.631578947369</v>
-      </c>
-      <c r="AV51" s="15">
-        <f t="shared" si="17"/>
-        <v>1.5088637421052642</v>
-      </c>
-      <c r="AW51" s="15">
-        <f t="shared" si="18"/>
-        <v>0.50383289473684267</v>
-      </c>
-      <c r="AX51" s="14">
-        <f t="shared" si="19"/>
-        <v>-43.224825789473655</v>
-      </c>
-      <c r="AY51" s="14">
-        <f t="shared" si="20"/>
         <v>-0.42403554099473661</v>
       </c>
       <c r="AZ51" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.14134518033157886</v>
+      </c>
+      <c r="BA51" s="14">
         <f t="shared" si="21"/>
-        <v>-0.14134518033157886</v>
-      </c>
-      <c r="BA51" s="14">
-        <f t="shared" si="16"/>
         <v>-2.7138274623663142E-2</v>
       </c>
       <c r="BB51" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.4124549209686919</v>
       </c>
       <c r="BC51" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.7602151869483601</v>
       </c>
       <c r="BD51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-5.8042183275515402</v>
       </c>
       <c r="BE51" s="7"/>
@@ -39736,43 +39847,43 @@
       <c r="AS52" s="7"/>
       <c r="AT52" s="7"/>
       <c r="AU52" s="16">
+        <f t="shared" si="30"/>
+        <v>1631.5789473684217</v>
+      </c>
+      <c r="AV52" s="15">
+        <f t="shared" si="22"/>
+        <v>1.6533690052631593</v>
+      </c>
+      <c r="AW52" s="15">
+        <f t="shared" si="23"/>
+        <v>0.61056973684210569</v>
+      </c>
+      <c r="AX52" s="14">
+        <f t="shared" si="24"/>
+        <v>-39.784299473684172</v>
+      </c>
+      <c r="AY52" s="14">
         <f t="shared" si="25"/>
-        <v>1631.5789473684217</v>
-      </c>
-      <c r="AV52" s="15">
-        <f t="shared" si="17"/>
-        <v>1.6533690052631593</v>
-      </c>
-      <c r="AW52" s="15">
-        <f t="shared" si="18"/>
-        <v>0.61056973684210569</v>
-      </c>
-      <c r="AX52" s="14">
-        <f t="shared" si="19"/>
-        <v>-39.784299473684172</v>
-      </c>
-      <c r="AY52" s="14">
-        <f t="shared" si="20"/>
         <v>-0.39028397783684177</v>
       </c>
       <c r="AZ52" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.13009465927894726</v>
+      </c>
+      <c r="BA52" s="14">
         <f t="shared" si="21"/>
-        <v>-0.13009465927894726</v>
-      </c>
-      <c r="BA52" s="14">
-        <f t="shared" si="16"/>
         <v>-2.4978174581557874E-2</v>
       </c>
       <c r="BB52" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.2677446161896304</v>
       </c>
       <c r="BC52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.0094970784464212</v>
       </c>
       <c r="BD52" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-4.2275948165769153</v>
       </c>
       <c r="BE52" s="7"/>
@@ -39838,43 +39949,43 @@
       <c r="AS53" s="7"/>
       <c r="AT53" s="7"/>
       <c r="AU53" s="16">
+        <f t="shared" si="30"/>
+        <v>1710.5263157894744</v>
+      </c>
+      <c r="AV53" s="15">
+        <f t="shared" si="22"/>
+        <v>1.797874268421054</v>
+      </c>
+      <c r="AW53" s="15">
+        <f t="shared" si="23"/>
+        <v>0.71730657894736916</v>
+      </c>
+      <c r="AX53" s="14">
+        <f t="shared" si="24"/>
+        <v>-36.343773157894702</v>
+      </c>
+      <c r="AY53" s="14">
         <f t="shared" si="25"/>
-        <v>1710.5263157894744</v>
-      </c>
-      <c r="AV53" s="15">
-        <f t="shared" si="17"/>
-        <v>1.797874268421054</v>
-      </c>
-      <c r="AW53" s="15">
-        <f t="shared" si="18"/>
-        <v>0.71730657894736916</v>
-      </c>
-      <c r="AX53" s="14">
-        <f t="shared" si="19"/>
-        <v>-36.343773157894702</v>
-      </c>
-      <c r="AY53" s="14">
-        <f t="shared" si="20"/>
         <v>-0.35653241467894703</v>
       </c>
       <c r="AZ53" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.11884413822631568</v>
+      </c>
+      <c r="BA53" s="14">
         <f t="shared" si="21"/>
-        <v>-0.11884413822631568</v>
-      </c>
-      <c r="BA53" s="14">
-        <f t="shared" si="16"/>
         <v>-2.2818074539452608E-2</v>
       </c>
       <c r="BB53" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-4.0873176256617381</v>
       </c>
       <c r="BC53" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.2896270408586104</v>
       </c>
       <c r="BD53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-3.1693795928321076</v>
       </c>
       <c r="BE53" s="7"/>
@@ -39940,43 +40051,43 @@
       <c r="AS54" s="7"/>
       <c r="AT54" s="7"/>
       <c r="AU54" s="16">
+        <f t="shared" si="30"/>
+        <v>1789.4736842105272</v>
+      </c>
+      <c r="AV54" s="15">
+        <f t="shared" si="22"/>
+        <v>1.9423795315789492</v>
+      </c>
+      <c r="AW54" s="15">
+        <f t="shared" si="23"/>
+        <v>0.82404342105263262</v>
+      </c>
+      <c r="AX54" s="14">
+        <f t="shared" si="24"/>
+        <v>-32.903246842105219</v>
+      </c>
+      <c r="AY54" s="14">
         <f t="shared" si="25"/>
-        <v>1789.4736842105272</v>
-      </c>
-      <c r="AV54" s="15">
-        <f t="shared" si="17"/>
-        <v>1.9423795315789492</v>
-      </c>
-      <c r="AW54" s="15">
-        <f t="shared" si="18"/>
-        <v>0.82404342105263262</v>
-      </c>
-      <c r="AX54" s="14">
-        <f t="shared" si="19"/>
-        <v>-32.903246842105219</v>
-      </c>
-      <c r="AY54" s="14">
-        <f t="shared" si="20"/>
         <v>-0.32278085152105224</v>
       </c>
       <c r="AZ54" s="14">
+        <f t="shared" si="26"/>
+        <v>-0.10759361717368408</v>
+      </c>
+      <c r="BA54" s="14">
         <f t="shared" si="21"/>
-        <v>-0.10759361717368408</v>
-      </c>
-      <c r="BA54" s="14">
-        <f t="shared" si="16"/>
         <v>-2.0657974497347343E-2</v>
       </c>
       <c r="BB54" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-3.8711739493850152</v>
       </c>
       <c r="BC54" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.6006050741849274</v>
       </c>
       <c r="BD54" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-2.41856908479209</v>
       </c>
       <c r="BE54" s="7"/>
@@ -40042,43 +40153,43 @@
       <c r="AS55" s="7"/>
       <c r="AT55" s="7"/>
       <c r="AU55" s="16">
+        <f t="shared" si="30"/>
+        <v>1868.4210526315799</v>
+      </c>
+      <c r="AV55" s="15">
+        <f t="shared" si="22"/>
+        <v>2.0868847947368439</v>
+      </c>
+      <c r="AW55" s="15">
+        <f t="shared" si="23"/>
+        <v>0.93078026315789564</v>
+      </c>
+      <c r="AX55" s="14">
+        <f t="shared" si="24"/>
+        <v>-29.462720526315749</v>
+      </c>
+      <c r="AY55" s="14">
         <f t="shared" si="25"/>
-        <v>1868.4210526315799</v>
-      </c>
-      <c r="AV55" s="15">
-        <f t="shared" si="17"/>
-        <v>2.0868847947368439</v>
-      </c>
-      <c r="AW55" s="15">
-        <f t="shared" si="18"/>
-        <v>0.93078026315789564</v>
-      </c>
-      <c r="AX55" s="14">
-        <f t="shared" si="19"/>
-        <v>-29.462720526315749</v>
-      </c>
-      <c r="AY55" s="14">
-        <f t="shared" si="20"/>
         <v>-0.2890292883631575</v>
       </c>
       <c r="AZ55" s="14">
+        <f t="shared" si="26"/>
+        <v>-9.6343096121052504E-2</v>
+      </c>
+      <c r="BA55" s="14">
         <f t="shared" si="21"/>
-        <v>-9.6343096121052504E-2</v>
-      </c>
-      <c r="BA55" s="14">
-        <f t="shared" si="16"/>
         <v>-1.8497874455242081E-2</v>
       </c>
       <c r="BB55" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-3.6193135873594624</v>
       </c>
       <c r="BC55" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.9424311784253705</v>
       </c>
       <c r="BD55" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1.8632905132286099</v>
       </c>
       <c r="BE55" s="7"/>
@@ -40144,43 +40255,43 @@
       <c r="AS56" s="7"/>
       <c r="AT56" s="7"/>
       <c r="AU56" s="16">
+        <f t="shared" si="30"/>
+        <v>1947.3684210526326</v>
+      </c>
+      <c r="AV56" s="15">
+        <f t="shared" si="22"/>
+        <v>2.2313900578947385</v>
+      </c>
+      <c r="AW56" s="15">
+        <f t="shared" si="23"/>
+        <v>1.0375171052631591</v>
+      </c>
+      <c r="AX56" s="14">
+        <f t="shared" si="24"/>
+        <v>-26.022194210526266</v>
+      </c>
+      <c r="AY56" s="14">
         <f t="shared" si="25"/>
-        <v>1947.3684210526326</v>
-      </c>
-      <c r="AV56" s="15">
-        <f t="shared" si="17"/>
-        <v>2.2313900578947385</v>
-      </c>
-      <c r="AW56" s="15">
-        <f t="shared" si="18"/>
-        <v>1.0375171052631591</v>
-      </c>
-      <c r="AX56" s="14">
-        <f t="shared" si="19"/>
-        <v>-26.022194210526266</v>
-      </c>
-      <c r="AY56" s="14">
-        <f t="shared" si="20"/>
         <v>-0.25527772520526265</v>
       </c>
       <c r="AZ56" s="14">
+        <f t="shared" si="26"/>
+        <v>-8.5092575068420884E-2</v>
+      </c>
+      <c r="BA56" s="14">
         <f t="shared" si="21"/>
-        <v>-8.5092575068420884E-2</v>
-      </c>
-      <c r="BA56" s="14">
-        <f t="shared" si="16"/>
         <v>-1.6337774413136809E-2</v>
       </c>
       <c r="BB56" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-3.3317365395850755</v>
       </c>
       <c r="BC56" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>2.3151053535799422</v>
       </c>
       <c r="BD56" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1.4391295559975597</v>
       </c>
       <c r="BE56" s="7"/>
@@ -40246,43 +40357,43 @@
       <c r="AS57" s="7"/>
       <c r="AT57" s="7"/>
       <c r="AU57" s="16">
+        <f t="shared" si="30"/>
+        <v>2026.3157894736853</v>
+      </c>
+      <c r="AV57" s="15">
+        <f t="shared" si="22"/>
+        <v>2.3758953210526337</v>
+      </c>
+      <c r="AW57" s="15">
+        <f t="shared" si="23"/>
+        <v>1.1442539473684221</v>
+      </c>
+      <c r="AX57" s="14">
+        <f t="shared" si="24"/>
+        <v>-22.581667894736796</v>
+      </c>
+      <c r="AY57" s="14">
         <f t="shared" si="25"/>
-        <v>2026.3157894736853</v>
-      </c>
-      <c r="AV57" s="15">
-        <f t="shared" si="17"/>
-        <v>2.3758953210526337</v>
-      </c>
-      <c r="AW57" s="15">
-        <f t="shared" si="18"/>
-        <v>1.1442539473684221</v>
-      </c>
-      <c r="AX57" s="14">
-        <f t="shared" si="19"/>
-        <v>-22.581667894736796</v>
-      </c>
-      <c r="AY57" s="14">
-        <f t="shared" si="20"/>
         <v>-0.221526162047368</v>
       </c>
       <c r="AZ57" s="14">
+        <f t="shared" si="26"/>
+        <v>-7.3842054015789332E-2</v>
+      </c>
+      <c r="BA57" s="14">
         <f t="shared" si="21"/>
-        <v>-7.3842054015789332E-2</v>
-      </c>
-      <c r="BA57" s="14">
-        <f t="shared" si="16"/>
         <v>-1.4177674371031552E-2</v>
       </c>
       <c r="BB57" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-3.0084428060618609</v>
       </c>
       <c r="BC57" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>2.7186275996486406</v>
       </c>
       <c r="BD57" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1.1066034959884452</v>
       </c>
       <c r="BE57" s="7"/>
@@ -40348,43 +40459,43 @@
       <c r="AS58" s="7"/>
       <c r="AT58" s="7"/>
       <c r="AU58" s="16">
+        <f t="shared" si="30"/>
+        <v>2105.263157894738</v>
+      </c>
+      <c r="AV58" s="15">
+        <f t="shared" si="22"/>
+        <v>2.5204005842105284</v>
+      </c>
+      <c r="AW58" s="15">
+        <f t="shared" si="23"/>
+        <v>1.2509907894736856</v>
+      </c>
+      <c r="AX58" s="14">
+        <f t="shared" si="24"/>
+        <v>-19.141141578947312</v>
+      </c>
+      <c r="AY58" s="14">
         <f t="shared" si="25"/>
-        <v>2105.263157894738</v>
-      </c>
-      <c r="AV58" s="15">
-        <f t="shared" si="17"/>
-        <v>2.5204005842105284</v>
-      </c>
-      <c r="AW58" s="15">
-        <f t="shared" si="18"/>
-        <v>1.2509907894736856</v>
-      </c>
-      <c r="AX58" s="14">
-        <f t="shared" si="19"/>
-        <v>-19.141141578947312</v>
-      </c>
-      <c r="AY58" s="14">
-        <f t="shared" si="20"/>
         <v>-0.18777459888947315</v>
       </c>
       <c r="AZ58" s="14">
+        <f t="shared" si="26"/>
+        <v>-6.2591532963157712E-2</v>
+      </c>
+      <c r="BA58" s="14">
         <f t="shared" si="21"/>
-        <v>-6.2591532963157712E-2</v>
-      </c>
-      <c r="BA58" s="14">
-        <f t="shared" si="16"/>
         <v>-1.201757432892628E-2</v>
       </c>
       <c r="BB58" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-2.6494323867898117</v>
       </c>
       <c r="BC58" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>3.1529979166314672</v>
       </c>
       <c r="BD58" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-0.84028992623641052</v>
       </c>
       <c r="BE58" s="7"/>
@@ -40450,43 +40561,43 @@
       <c r="AS59" s="7"/>
       <c r="AT59" s="7"/>
       <c r="AU59" s="16">
+        <f t="shared" si="30"/>
+        <v>2184.2105263157905</v>
+      </c>
+      <c r="AV59" s="15">
+        <f t="shared" si="22"/>
+        <v>2.6649058473684231</v>
+      </c>
+      <c r="AW59" s="15">
+        <f t="shared" si="23"/>
+        <v>1.3577276315789486</v>
+      </c>
+      <c r="AX59" s="14">
+        <f t="shared" si="24"/>
+        <v>-15.700615263157843</v>
+      </c>
+      <c r="AY59" s="14">
         <f t="shared" si="25"/>
-        <v>2184.2105263157905</v>
-      </c>
-      <c r="AV59" s="15">
-        <f t="shared" si="17"/>
-        <v>2.6649058473684231</v>
-      </c>
-      <c r="AW59" s="15">
-        <f t="shared" si="18"/>
-        <v>1.3577276315789486</v>
-      </c>
-      <c r="AX59" s="14">
-        <f t="shared" si="19"/>
-        <v>-15.700615263157843</v>
-      </c>
-      <c r="AY59" s="14">
-        <f t="shared" si="20"/>
         <v>-0.15402303573157847</v>
       </c>
       <c r="AZ59" s="14">
+        <f t="shared" si="26"/>
+        <v>-5.1341011910526153E-2</v>
+      </c>
+      <c r="BA59" s="14">
         <f t="shared" si="21"/>
-        <v>-5.1341011910526153E-2</v>
-      </c>
-      <c r="BA59" s="14">
-        <f t="shared" si="16"/>
         <v>-9.8574742868210215E-3</v>
       </c>
       <c r="BB59" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-2.2547052817689348</v>
       </c>
       <c r="BC59" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>3.6182163045284201</v>
       </c>
       <c r="BD59" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-0.62315381171297923</v>
       </c>
       <c r="BE59" s="7"/>
@@ -40552,43 +40663,43 @@
       <c r="AS60" s="7"/>
       <c r="AT60" s="7"/>
       <c r="AU60" s="16">
+        <f t="shared" si="30"/>
+        <v>2263.157894736843</v>
+      </c>
+      <c r="AV60" s="15">
+        <f t="shared" si="22"/>
+        <v>2.8094111105263178</v>
+      </c>
+      <c r="AW60" s="15">
+        <f t="shared" si="23"/>
+        <v>1.4644644736842116</v>
+      </c>
+      <c r="AX60" s="14">
+        <f t="shared" si="24"/>
+        <v>-12.260088947368374</v>
+      </c>
+      <c r="AY60" s="14">
         <f t="shared" si="25"/>
-        <v>2263.157894736843</v>
-      </c>
-      <c r="AV60" s="15">
-        <f t="shared" si="17"/>
-        <v>2.8094111105263178</v>
-      </c>
-      <c r="AW60" s="15">
-        <f t="shared" si="18"/>
-        <v>1.4644644736842116</v>
-      </c>
-      <c r="AX60" s="14">
-        <f t="shared" si="19"/>
-        <v>-12.260088947368374</v>
-      </c>
-      <c r="AY60" s="14">
-        <f t="shared" si="20"/>
         <v>-0.12027147257368376</v>
       </c>
       <c r="AZ60" s="14">
+        <f t="shared" si="26"/>
+        <v>-4.0090490857894588E-2</v>
+      </c>
+      <c r="BA60" s="14">
         <f t="shared" si="21"/>
-        <v>-4.0090490857894588E-2</v>
-      </c>
-      <c r="BA60" s="14">
-        <f t="shared" si="16"/>
         <v>-7.6973742447157606E-3</v>
       </c>
       <c r="BB60" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-1.8242614909992261</v>
       </c>
       <c r="BC60" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4.1142827633395003</v>
       </c>
       <c r="BD60" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-0.44339720819735323</v>
       </c>
       <c r="BE60" s="7"/>
@@ -40654,43 +40765,43 @@
       <c r="AS61" s="7"/>
       <c r="AT61" s="7"/>
       <c r="AU61" s="16">
+        <f t="shared" si="30"/>
+        <v>2342.1052631578955</v>
+      </c>
+      <c r="AV61" s="15">
+        <f t="shared" si="22"/>
+        <v>2.953916373684212</v>
+      </c>
+      <c r="AW61" s="15">
+        <f t="shared" si="23"/>
+        <v>1.5712013157894742</v>
+      </c>
+      <c r="AX61" s="14">
+        <f t="shared" si="24"/>
+        <v>-8.8195626315789042</v>
+      </c>
+      <c r="AY61" s="14">
         <f t="shared" si="25"/>
-        <v>2342.1052631578955</v>
-      </c>
-      <c r="AV61" s="15">
-        <f t="shared" si="17"/>
-        <v>2.953916373684212</v>
-      </c>
-      <c r="AW61" s="15">
-        <f t="shared" si="18"/>
-        <v>1.5712013157894742</v>
-      </c>
-      <c r="AX61" s="14">
-        <f t="shared" si="19"/>
-        <v>-8.8195626315789042</v>
-      </c>
-      <c r="AY61" s="14">
-        <f t="shared" si="20"/>
         <v>-8.6519909415789062E-2</v>
       </c>
       <c r="AZ61" s="14">
+        <f t="shared" si="26"/>
+        <v>-2.8839969805263019E-2</v>
+      </c>
+      <c r="BA61" s="14">
         <f t="shared" si="21"/>
-        <v>-2.8839969805263019E-2</v>
-      </c>
-      <c r="BA61" s="14">
-        <f t="shared" si="16"/>
         <v>-5.5372742026104996E-3</v>
       </c>
       <c r="BB61" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-1.3581010144806864</v>
       </c>
       <c r="BC61" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4.6411972930647059</v>
       </c>
       <c r="BD61" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-0.29261867762227711</v>
       </c>
       <c r="BE61" s="7"/>
@@ -40756,43 +40867,43 @@
       <c r="AS62" s="7"/>
       <c r="AT62" s="7"/>
       <c r="AU62" s="16">
+        <f t="shared" si="30"/>
+        <v>2421.052631578948</v>
+      </c>
+      <c r="AV62" s="15">
+        <f t="shared" si="22"/>
+        <v>3.0984216368421063</v>
+      </c>
+      <c r="AW62" s="15">
+        <f t="shared" si="23"/>
+        <v>1.6779381578947372</v>
+      </c>
+      <c r="AX62" s="14">
+        <f t="shared" si="24"/>
+        <v>-5.379036315789449</v>
+      </c>
+      <c r="AY62" s="14">
         <f t="shared" si="25"/>
-        <v>2421.052631578948</v>
-      </c>
-      <c r="AV62" s="15">
-        <f t="shared" si="17"/>
-        <v>3.0984216368421063</v>
-      </c>
-      <c r="AW62" s="15">
-        <f t="shared" si="18"/>
-        <v>1.6779381578947372</v>
-      </c>
-      <c r="AX62" s="14">
-        <f t="shared" si="19"/>
-        <v>-5.379036315789449</v>
-      </c>
-      <c r="AY62" s="14">
-        <f t="shared" si="20"/>
         <v>-5.2768346257894498E-2</v>
       </c>
       <c r="AZ62" s="14">
+        <f t="shared" si="26"/>
+        <v>-1.7589448752631499E-2</v>
+      </c>
+      <c r="BA62" s="14">
         <f t="shared" si="21"/>
-        <v>-1.7589448752631499E-2</v>
-      </c>
-      <c r="BA62" s="14">
-        <f t="shared" si="16"/>
         <v>-3.3771741605052477E-3</v>
       </c>
       <c r="BB62" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-0.85622385221331798</v>
       </c>
       <c r="BC62" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5.19895989370404</v>
       </c>
       <c r="BD62" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-0.16469137475944146</v>
       </c>
       <c r="BE62" s="7"/>
@@ -40858,43 +40969,43 @@
       <c r="AS63" s="7"/>
       <c r="AT63" s="7"/>
       <c r="AU63" s="16">
+        <f t="shared" si="30"/>
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="AV63" s="15">
+        <f t="shared" si="22"/>
+        <v>3.2429269000000005</v>
+      </c>
+      <c r="AW63" s="15">
+        <f t="shared" si="23"/>
+        <v>1.7846750000000002</v>
+      </c>
+      <c r="AX63" s="14">
+        <f t="shared" si="24"/>
+        <v>-1.9385099999999795</v>
+      </c>
+      <c r="AY63" s="14">
         <f t="shared" si="25"/>
-        <v>2500.0000000000005</v>
-      </c>
-      <c r="AV63" s="15">
-        <f t="shared" si="17"/>
-        <v>3.2429269000000005</v>
-      </c>
-      <c r="AW63" s="15">
-        <f t="shared" si="18"/>
-        <v>1.7846750000000002</v>
-      </c>
-      <c r="AX63" s="14">
-        <f t="shared" si="19"/>
-        <v>-1.9385099999999795</v>
-      </c>
-      <c r="AY63" s="14">
-        <f t="shared" si="20"/>
         <v>-1.9016783099999799E-2</v>
       </c>
       <c r="AZ63" s="14">
+        <f t="shared" si="26"/>
+        <v>-6.3389276999999333E-3</v>
+      </c>
+      <c r="BA63" s="14">
         <f t="shared" si="21"/>
-        <v>-6.3389276999999333E-3</v>
-      </c>
-      <c r="BA63" s="14">
-        <f t="shared" si="16"/>
         <v>-1.2170741183999871E-3</v>
       </c>
       <c r="BB63" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-0.31863000419711668</v>
       </c>
       <c r="BC63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5.7875705652575018</v>
       </c>
       <c r="BD63" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-5.5054189077164216E-2</v>
       </c>
       <c r="BE63" s="7"/>
@@ -40960,43 +41071,43 @@
       <c r="AS64" s="7"/>
       <c r="AT64" s="7"/>
       <c r="AU64" s="16">
+        <f t="shared" si="30"/>
+        <v>2578.9473684210529</v>
+      </c>
+      <c r="AV64" s="15">
+        <f t="shared" si="22"/>
+        <v>3.3874321631578956</v>
+      </c>
+      <c r="AW64" s="15">
+        <f t="shared" si="23"/>
+        <v>1.8914118421052633</v>
+      </c>
+      <c r="AX64" s="14">
+        <f t="shared" si="24"/>
+        <v>1.5020163157894899</v>
+      </c>
+      <c r="AY64" s="14">
         <f t="shared" si="25"/>
-        <v>2578.9473684210529</v>
-      </c>
-      <c r="AV64" s="15">
-        <f t="shared" si="17"/>
-        <v>3.3874321631578956</v>
-      </c>
-      <c r="AW64" s="15">
-        <f t="shared" si="18"/>
-        <v>1.8914118421052633</v>
-      </c>
-      <c r="AX64" s="14">
-        <f t="shared" si="19"/>
-        <v>1.5020163157894899</v>
-      </c>
-      <c r="AY64" s="14">
-        <f t="shared" si="20"/>
         <v>1.4734780057894897E-2</v>
       </c>
       <c r="AZ64" s="14">
+        <f t="shared" si="26"/>
+        <v>4.9115933526316319E-3</v>
+      </c>
+      <c r="BA64" s="14">
         <f t="shared" si="21"/>
-        <v>4.9115933526316319E-3</v>
-      </c>
-      <c r="BA64" s="14">
-        <f t="shared" si="16"/>
         <v>9.4302592370527341E-4</v>
       </c>
       <c r="BB64" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.25468052956791554</v>
       </c>
       <c r="BC64" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6.4070293077250922</v>
       </c>
       <c r="BD64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3.9750173962969357E-2</v>
       </c>
       <c r="BE64" s="7"/>
@@ -41062,43 +41173,43 @@
       <c r="AS65" s="7"/>
       <c r="AT65" s="7"/>
       <c r="AU65" s="16">
+        <f t="shared" si="30"/>
+        <v>2657.8947368421054</v>
+      </c>
+      <c r="AV65" s="15">
+        <f t="shared" si="22"/>
+        <v>3.5319374263157899</v>
+      </c>
+      <c r="AW65" s="15">
+        <f t="shared" si="23"/>
+        <v>1.9981486842105263</v>
+      </c>
+      <c r="AX65" s="14">
+        <f t="shared" si="24"/>
+        <v>4.9425426315789593</v>
+      </c>
+      <c r="AY65" s="14">
         <f t="shared" si="25"/>
-        <v>2657.8947368421054</v>
-      </c>
-      <c r="AV65" s="15">
-        <f t="shared" si="17"/>
-        <v>3.5319374263157899</v>
-      </c>
-      <c r="AW65" s="15">
-        <f t="shared" si="18"/>
-        <v>1.9981486842105263</v>
-      </c>
-      <c r="AX65" s="14">
-        <f t="shared" si="19"/>
-        <v>4.9425426315789593</v>
-      </c>
-      <c r="AY65" s="14">
-        <f t="shared" si="20"/>
         <v>4.8486343215789596E-2</v>
       </c>
       <c r="AZ65" s="14">
+        <f t="shared" si="26"/>
+        <v>1.61621144052632E-2</v>
+      </c>
+      <c r="BA65" s="14">
         <f t="shared" si="21"/>
-        <v>1.61621144052632E-2</v>
-      </c>
-      <c r="BA65" s="14">
-        <f t="shared" si="16"/>
         <v>3.103125965810534E-3</v>
       </c>
       <c r="BB65" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.86370774908177872</v>
       </c>
       <c r="BC65" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.0573361211068084</v>
       </c>
       <c r="BD65" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.12238438615650386</v>
       </c>
       <c r="BE65" s="7"/>
@@ -41152,43 +41263,43 @@
       <c r="AS66" s="7"/>
       <c r="AT66" s="7"/>
       <c r="AU66" s="16">
+        <f t="shared" si="30"/>
+        <v>2736.8421052631579</v>
+      </c>
+      <c r="AV66" s="15">
+        <f t="shared" si="22"/>
+        <v>3.6764426894736841</v>
+      </c>
+      <c r="AW66" s="15">
+        <f t="shared" si="23"/>
+        <v>2.1048855263157895</v>
+      </c>
+      <c r="AX66" s="14">
+        <f t="shared" si="24"/>
+        <v>8.3830689473684288</v>
+      </c>
+      <c r="AY66" s="14">
         <f t="shared" si="25"/>
-        <v>2736.8421052631579</v>
-      </c>
-      <c r="AV66" s="15">
-        <f t="shared" si="17"/>
-        <v>3.6764426894736841</v>
-      </c>
-      <c r="AW66" s="15">
-        <f t="shared" si="18"/>
-        <v>2.1048855263157895</v>
-      </c>
-      <c r="AX66" s="14">
-        <f t="shared" si="19"/>
-        <v>8.3830689473684288</v>
-      </c>
-      <c r="AY66" s="14">
-        <f t="shared" si="20"/>
         <v>8.2237906373684291E-2</v>
       </c>
       <c r="AZ66" s="14">
+        <f t="shared" si="26"/>
+        <v>2.7412635457894765E-2</v>
+      </c>
+      <c r="BA66" s="14">
         <f t="shared" si="21"/>
-        <v>2.7412635457894765E-2</v>
-      </c>
-      <c r="BA66" s="14">
-        <f t="shared" si="16"/>
         <v>5.2632260079157949E-3</v>
       </c>
       <c r="BB66" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.508451654344473</v>
       </c>
       <c r="BC66" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.7384910054026523</v>
       </c>
       <c r="BD66" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.1949283979643244</v>
       </c>
       <c r="BE66" s="7"/>
@@ -41252,43 +41363,43 @@
       <c r="AS67" s="7"/>
       <c r="AT67" s="7"/>
       <c r="AU67" s="16">
+        <f t="shared" si="30"/>
+        <v>2815.7894736842104</v>
+      </c>
+      <c r="AV67" s="15">
+        <f t="shared" si="22"/>
+        <v>3.8209479526315793</v>
+      </c>
+      <c r="AW67" s="15">
+        <f t="shared" si="23"/>
+        <v>2.2116223684210521</v>
+      </c>
+      <c r="AX67" s="14">
+        <f t="shared" si="24"/>
+        <v>11.823595263157898</v>
+      </c>
+      <c r="AY67" s="14">
         <f t="shared" si="25"/>
-        <v>2815.7894736842104</v>
-      </c>
-      <c r="AV67" s="15">
-        <f t="shared" si="17"/>
-        <v>3.8209479526315793</v>
-      </c>
-      <c r="AW67" s="15">
-        <f t="shared" si="18"/>
-        <v>2.2116223684210521</v>
-      </c>
-      <c r="AX67" s="14">
-        <f t="shared" si="19"/>
-        <v>11.823595263157898</v>
-      </c>
-      <c r="AY67" s="14">
-        <f t="shared" si="20"/>
         <v>0.11598946953157899</v>
       </c>
       <c r="AZ67" s="14">
+        <f t="shared" si="26"/>
+        <v>3.8663156510526327E-2</v>
+      </c>
+      <c r="BA67" s="14">
         <f t="shared" si="21"/>
-        <v>3.8663156510526327E-2</v>
-      </c>
-      <c r="BA67" s="14">
-        <f t="shared" si="16"/>
         <v>7.4233260500210551E-3</v>
       </c>
       <c r="BB67" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2.1889122453559975</v>
       </c>
       <c r="BC67" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.4504939606126239</v>
       </c>
       <c r="BD67" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.259027727320843</v>
       </c>
       <c r="BE67" s="7"/>
@@ -41342,43 +41453,43 @@
       <c r="AS68" s="7"/>
       <c r="AT68" s="7"/>
       <c r="AU68" s="16">
+        <f t="shared" si="30"/>
+        <v>2894.7368421052629</v>
+      </c>
+      <c r="AV68" s="15">
+        <f t="shared" si="22"/>
+        <v>3.9654532157894735</v>
+      </c>
+      <c r="AW68" s="15">
+        <f t="shared" si="23"/>
+        <v>2.3183592105263147</v>
+      </c>
+      <c r="AX68" s="14">
+        <f t="shared" si="24"/>
+        <v>15.264121578947368</v>
+      </c>
+      <c r="AY68" s="14">
         <f t="shared" si="25"/>
-        <v>2894.7368421052629</v>
-      </c>
-      <c r="AV68" s="15">
-        <f t="shared" si="17"/>
-        <v>3.9654532157894735</v>
-      </c>
-      <c r="AW68" s="15">
-        <f t="shared" si="18"/>
-        <v>2.3183592105263147</v>
-      </c>
-      <c r="AX68" s="14">
-        <f t="shared" si="19"/>
-        <v>15.264121578947368</v>
-      </c>
-      <c r="AY68" s="14">
-        <f t="shared" si="20"/>
         <v>0.1497410326894737</v>
       </c>
       <c r="AZ68" s="14">
+        <f t="shared" si="26"/>
+        <v>4.9913677563157899E-2</v>
+      </c>
+      <c r="BA68" s="14">
         <f t="shared" si="21"/>
-        <v>4.9913677563157899E-2</v>
-      </c>
-      <c r="BA68" s="14">
-        <f t="shared" si="16"/>
         <v>9.583426092126316E-3</v>
       </c>
       <c r="BB68" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2.9050895221163535</v>
       </c>
       <c r="BC68" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>9.1933449867367187</v>
       </c>
       <c r="BD68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.31599918487857681</v>
       </c>
       <c r="BE68" s="7"/>
@@ -41450,43 +41561,43 @@
       <c r="AS69" s="7"/>
       <c r="AT69" s="7"/>
       <c r="AU69" s="16">
+        <f t="shared" si="30"/>
+        <v>2973.6842105263154</v>
+      </c>
+      <c r="AV69" s="15">
+        <f t="shared" si="22"/>
+        <v>4.1099584789473678</v>
+      </c>
+      <c r="AW69" s="15">
+        <f t="shared" si="23"/>
+        <v>2.4250960526315781</v>
+      </c>
+      <c r="AX69" s="14">
+        <f t="shared" si="24"/>
+        <v>18.704647894736837</v>
+      </c>
+      <c r="AY69" s="14">
         <f t="shared" si="25"/>
-        <v>2973.6842105263154</v>
-      </c>
-      <c r="AV69" s="15">
-        <f t="shared" si="17"/>
-        <v>4.1099584789473678</v>
-      </c>
-      <c r="AW69" s="15">
-        <f t="shared" si="18"/>
-        <v>2.4250960526315781</v>
-      </c>
-      <c r="AX69" s="14">
-        <f t="shared" si="19"/>
-        <v>18.704647894736837</v>
-      </c>
-      <c r="AY69" s="14">
-        <f t="shared" si="20"/>
         <v>0.18349259584736838</v>
       </c>
       <c r="AZ69" s="14">
+        <f t="shared" si="26"/>
+        <v>6.1164198615789457E-2</v>
+      </c>
+      <c r="BA69" s="14">
         <f t="shared" si="21"/>
-        <v>6.1164198615789457E-2</v>
-      </c>
-      <c r="BA69" s="14">
-        <f t="shared" si="16"/>
         <v>1.1743526134231576E-2</v>
       </c>
       <c r="BB69" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3.6569834846255405</v>
       </c>
       <c r="BC69" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>9.9670440837749474</v>
       </c>
       <c r="BD69" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.36690752583091657</v>
       </c>
       <c r="BE69" s="7"/>
@@ -41576,39 +41687,39 @@
       <c r="AS70" s="7"/>
       <c r="AT70" s="7"/>
       <c r="AU70" s="16">
+        <f t="shared" si="30"/>
+        <v>3052.6315789473679</v>
+      </c>
+      <c r="AV70" s="15">
+        <f t="shared" si="22"/>
+        <v>4.254463742105262</v>
+      </c>
+      <c r="AW70" s="15">
+        <f t="shared" si="23"/>
+        <v>2.5318328947368416</v>
+      </c>
+      <c r="AX70" s="14">
+        <f t="shared" si="24"/>
+        <v>22.145174210526307</v>
+      </c>
+      <c r="AY70" s="14">
         <f t="shared" si="25"/>
-        <v>3052.6315789473679</v>
-      </c>
-      <c r="AV70" s="15">
-        <f t="shared" si="17"/>
-        <v>4.254463742105262</v>
-      </c>
-      <c r="AW70" s="15">
-        <f t="shared" si="18"/>
-        <v>2.5318328947368416</v>
-      </c>
-      <c r="AX70" s="14">
-        <f t="shared" si="19"/>
-        <v>22.145174210526307</v>
-      </c>
-      <c r="AY70" s="14">
-        <f t="shared" si="20"/>
         <v>0.21724415900526306</v>
       </c>
       <c r="AZ70" s="14">
+        <f t="shared" si="26"/>
+        <v>7.2414719668421015E-2</v>
+      </c>
+      <c r="BA70" s="14">
         <f t="shared" si="21"/>
-        <v>7.2414719668421015E-2</v>
-      </c>
-      <c r="BA70" s="14">
-        <f t="shared" si="16"/>
         <v>1.3903626176336836E-2</v>
       </c>
       <c r="BB70" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4.4445941328835579</v>
       </c>
       <c r="BC70" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>10.771591251727301</v>
       </c>
       <c r="BD70" s="11">
@@ -41702,43 +41813,43 @@
       <c r="AS71" s="7"/>
       <c r="AT71" s="7"/>
       <c r="AU71" s="16">
+        <f t="shared" si="30"/>
+        <v>3131.5789473684204</v>
+      </c>
+      <c r="AV71" s="15">
+        <f t="shared" si="22"/>
+        <v>4.3989690052631572</v>
+      </c>
+      <c r="AW71" s="15">
+        <f t="shared" si="23"/>
+        <v>2.6385697368421042</v>
+      </c>
+      <c r="AX71" s="14">
+        <f t="shared" si="24"/>
+        <v>25.585700526315776</v>
+      </c>
+      <c r="AY71" s="14">
         <f t="shared" si="25"/>
-        <v>3131.5789473684204</v>
-      </c>
-      <c r="AV71" s="15">
-        <f t="shared" si="17"/>
-        <v>4.3989690052631572</v>
-      </c>
-      <c r="AW71" s="15">
-        <f t="shared" si="18"/>
-        <v>2.6385697368421042</v>
-      </c>
-      <c r="AX71" s="14">
-        <f t="shared" si="19"/>
-        <v>25.585700526315776</v>
-      </c>
-      <c r="AY71" s="14">
-        <f t="shared" si="20"/>
         <v>0.2509957221631578</v>
       </c>
       <c r="AZ71" s="14">
+        <f t="shared" si="26"/>
+        <v>8.3665240721052594E-2</v>
+      </c>
+      <c r="BA71" s="14">
         <f t="shared" si="21"/>
-        <v>8.3665240721052594E-2</v>
-      </c>
-      <c r="BA71" s="14">
-        <f t="shared" si="16"/>
         <v>1.6063726218442098E-2</v>
       </c>
       <c r="BB71" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5.2679214668904075</v>
       </c>
       <c r="BC71" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>11.606986490593782</v>
       </c>
       <c r="BD71" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.45385780979063717</v>
       </c>
       <c r="BE71" s="7"/>
@@ -41828,43 +41939,43 @@
       <c r="AS72" s="7"/>
       <c r="AT72" s="7"/>
       <c r="AU72" s="16">
+        <f t="shared" si="30"/>
+        <v>3210.5263157894728</v>
+      </c>
+      <c r="AV72" s="15">
+        <f t="shared" si="22"/>
+        <v>4.5434742684210514</v>
+      </c>
+      <c r="AW72" s="15">
+        <f t="shared" si="23"/>
+        <v>2.7453065789473667</v>
+      </c>
+      <c r="AX72" s="14">
+        <f t="shared" si="24"/>
+        <v>29.026226842105245</v>
+      </c>
+      <c r="AY72" s="14">
         <f t="shared" si="25"/>
-        <v>3210.5263157894728</v>
-      </c>
-      <c r="AV72" s="15">
-        <f t="shared" si="17"/>
-        <v>4.5434742684210514</v>
-      </c>
-      <c r="AW72" s="15">
-        <f t="shared" si="18"/>
-        <v>2.7453065789473667</v>
-      </c>
-      <c r="AX72" s="14">
-        <f t="shared" si="19"/>
-        <v>29.026226842105245</v>
-      </c>
-      <c r="AY72" s="14">
-        <f t="shared" si="20"/>
         <v>0.28474728532105248</v>
       </c>
       <c r="AZ72" s="14">
+        <f t="shared" si="26"/>
+        <v>9.491576177368416E-2</v>
+      </c>
+      <c r="BA72" s="14">
         <f t="shared" si="21"/>
-        <v>9.491576177368416E-2</v>
-      </c>
-      <c r="BA72" s="14">
-        <f t="shared" si="16"/>
         <v>1.822382626054736E-2</v>
       </c>
       <c r="BB72" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>6.1269654866460872</v>
       </c>
       <c r="BC72" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>12.473229800374387</v>
       </c>
       <c r="BD72" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.49120922044282267</v>
       </c>
       <c r="BE72" s="7"/>
@@ -41954,43 +42065,43 @@
       <c r="AS73" s="7"/>
       <c r="AT73" s="7"/>
       <c r="AU73" s="16">
+        <f t="shared" si="30"/>
+        <v>3289.4736842105253</v>
+      </c>
+      <c r="AV73" s="15">
+        <f t="shared" si="22"/>
+        <v>4.6879795315789456</v>
+      </c>
+      <c r="AW73" s="15">
+        <f t="shared" si="23"/>
+        <v>2.8520434210526302</v>
+      </c>
+      <c r="AX73" s="14">
+        <f t="shared" si="24"/>
+        <v>32.466753157894686</v>
+      </c>
+      <c r="AY73" s="14">
         <f t="shared" si="25"/>
-        <v>3289.4736842105253</v>
-      </c>
-      <c r="AV73" s="15">
-        <f t="shared" si="17"/>
-        <v>4.6879795315789456</v>
-      </c>
-      <c r="AW73" s="15">
-        <f t="shared" si="18"/>
-        <v>2.8520434210526302</v>
-      </c>
-      <c r="AX73" s="14">
-        <f t="shared" si="19"/>
-        <v>32.466753157894686</v>
-      </c>
-      <c r="AY73" s="14">
-        <f t="shared" si="20"/>
         <v>0.31849884847894694</v>
       </c>
       <c r="AZ73" s="14">
+        <f t="shared" si="26"/>
+        <v>0.10616628282631564</v>
+      </c>
+      <c r="BA73" s="14">
         <f t="shared" si="21"/>
-        <v>0.10616628282631564</v>
-      </c>
-      <c r="BA73" s="14">
-        <f t="shared" si="16"/>
         <v>2.0383926302652604E-2</v>
       </c>
       <c r="BB73" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>7.0217261921505925</v>
       </c>
       <c r="BC73" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>13.370321181069123</v>
       </c>
       <c r="BD73" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.52517258912916542</v>
       </c>
       <c r="BE73" s="7"/>
@@ -42056,43 +42167,43 @@
       <c r="AS74" s="7"/>
       <c r="AT74" s="7"/>
       <c r="AU74" s="16">
+        <f t="shared" si="30"/>
+        <v>3368.4210526315778</v>
+      </c>
+      <c r="AV74" s="15">
+        <f t="shared" si="22"/>
+        <v>4.8324847947368399</v>
+      </c>
+      <c r="AW74" s="15">
+        <f t="shared" si="23"/>
+        <v>2.9587802631578928</v>
+      </c>
+      <c r="AX74" s="14">
+        <f t="shared" si="24"/>
+        <v>35.907279473684156</v>
+      </c>
+      <c r="AY74" s="14">
         <f t="shared" si="25"/>
-        <v>3368.4210526315778</v>
-      </c>
-      <c r="AV74" s="15">
-        <f t="shared" si="17"/>
-        <v>4.8324847947368399</v>
-      </c>
-      <c r="AW74" s="15">
-        <f t="shared" si="18"/>
-        <v>2.9587802631578928</v>
-      </c>
-      <c r="AX74" s="14">
-        <f t="shared" si="19"/>
-        <v>35.907279473684156</v>
-      </c>
-      <c r="AY74" s="14">
-        <f t="shared" si="20"/>
         <v>0.35225041163684156</v>
       </c>
       <c r="AZ74" s="14">
+        <f t="shared" si="26"/>
+        <v>0.11741680387894719</v>
+      </c>
+      <c r="BA74" s="14">
         <f t="shared" si="21"/>
-        <v>0.11741680387894719</v>
-      </c>
-      <c r="BA74" s="14">
-        <f t="shared" si="16"/>
         <v>2.2544026344757859E-2</v>
       </c>
       <c r="BB74" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>7.9522035834039313</v>
       </c>
       <c r="BC74" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>14.298260632677982</v>
       </c>
       <c r="BD74" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.55616580140031546</v>
       </c>
       <c r="BE74" s="7"/>
@@ -42158,43 +42269,43 @@
       <c r="AS75" s="7"/>
       <c r="AT75" s="7"/>
       <c r="AU75" s="16">
+        <f t="shared" si="30"/>
+        <v>3447.3684210526303</v>
+      </c>
+      <c r="AV75" s="15">
+        <f t="shared" si="22"/>
+        <v>4.976990057894735</v>
+      </c>
+      <c r="AW75" s="15">
+        <f t="shared" si="23"/>
+        <v>3.0655171052631562</v>
+      </c>
+      <c r="AX75" s="14">
+        <f t="shared" si="24"/>
+        <v>39.347805789473625</v>
+      </c>
+      <c r="AY75" s="14">
         <f t="shared" si="25"/>
-        <v>3447.3684210526303</v>
-      </c>
-      <c r="AV75" s="15">
-        <f t="shared" si="17"/>
-        <v>4.976990057894735</v>
-      </c>
-      <c r="AW75" s="15">
-        <f t="shared" si="18"/>
-        <v>3.0655171052631562</v>
-      </c>
-      <c r="AX75" s="14">
-        <f t="shared" si="19"/>
-        <v>39.347805789473625</v>
-      </c>
-      <c r="AY75" s="14">
-        <f t="shared" si="20"/>
         <v>0.38600197479473625</v>
       </c>
       <c r="AZ75" s="14">
+        <f t="shared" si="26"/>
+        <v>0.12866732493157876</v>
+      </c>
+      <c r="BA75" s="14">
         <f t="shared" si="21"/>
-        <v>0.12866732493157876</v>
-      </c>
-      <c r="BA75" s="14">
-        <f t="shared" si="16"/>
         <v>2.4704126386863125E-2</v>
       </c>
       <c r="BB75" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>8.9183976604061055</v>
       </c>
       <c r="BC75" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>15.257048155200977</v>
       </c>
       <c r="BD75" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.58454280078849408</v>
       </c>
       <c r="BE75" s="7"/>
@@ -42260,43 +42371,43 @@
       <c r="AS76" s="7"/>
       <c r="AT76" s="7"/>
       <c r="AU76" s="16">
+        <f t="shared" si="30"/>
+        <v>3526.3157894736828</v>
+      </c>
+      <c r="AV76" s="15">
+        <f t="shared" si="22"/>
+        <v>5.1214953210526293</v>
+      </c>
+      <c r="AW76" s="15">
+        <f t="shared" si="23"/>
+        <v>3.1722539473684188</v>
+      </c>
+      <c r="AX76" s="14">
+        <f t="shared" si="24"/>
+        <v>42.788332105263095</v>
+      </c>
+      <c r="AY76" s="14">
         <f t="shared" si="25"/>
-        <v>3526.3157894736828</v>
-      </c>
-      <c r="AV76" s="15">
-        <f t="shared" si="17"/>
-        <v>5.1214953210526293</v>
-      </c>
-      <c r="AW76" s="15">
-        <f t="shared" si="18"/>
-        <v>3.1722539473684188</v>
-      </c>
-      <c r="AX76" s="14">
-        <f t="shared" si="19"/>
-        <v>42.788332105263095</v>
-      </c>
-      <c r="AY76" s="14">
-        <f t="shared" si="20"/>
         <v>0.41975353795263098</v>
       </c>
       <c r="AZ76" s="14">
+        <f t="shared" si="26"/>
+        <v>0.13991784598421034</v>
+      </c>
+      <c r="BA76" s="14">
         <f t="shared" si="21"/>
-        <v>0.13991784598421034</v>
-      </c>
-      <c r="BA76" s="14">
-        <f t="shared" si="16"/>
         <v>2.6864226428968387E-2</v>
       </c>
       <c r="BB76" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>9.9203084231571079</v>
       </c>
       <c r="BC76" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>16.246683748638091</v>
       </c>
       <c r="BD76" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.61060512881520801</v>
       </c>
       <c r="BE76" s="7"/>
@@ -42362,43 +42473,43 @@
       <c r="AS77" s="7"/>
       <c r="AT77" s="7"/>
       <c r="AU77" s="16">
+        <f t="shared" si="30"/>
+        <v>3605.2631578947353</v>
+      </c>
+      <c r="AV77" s="15">
+        <f t="shared" si="22"/>
+        <v>5.2660005842105235</v>
+      </c>
+      <c r="AW77" s="15">
+        <f t="shared" si="23"/>
+        <v>3.2789907894736823</v>
+      </c>
+      <c r="AX77" s="14">
+        <f t="shared" si="24"/>
+        <v>46.228858421052564</v>
+      </c>
+      <c r="AY77" s="14">
         <f t="shared" si="25"/>
-        <v>3605.2631578947353</v>
-      </c>
-      <c r="AV77" s="15">
-        <f t="shared" si="17"/>
-        <v>5.2660005842105235</v>
-      </c>
-      <c r="AW77" s="15">
-        <f t="shared" si="18"/>
-        <v>3.2789907894736823</v>
-      </c>
-      <c r="AX77" s="14">
-        <f t="shared" si="19"/>
-        <v>46.228858421052564</v>
-      </c>
-      <c r="AY77" s="14">
-        <f t="shared" si="20"/>
         <v>0.45350510111052567</v>
       </c>
       <c r="AZ77" s="14">
+        <f t="shared" si="26"/>
+        <v>0.15116836703684189</v>
+      </c>
+      <c r="BA77" s="14">
         <f t="shared" si="21"/>
-        <v>0.15116836703684189</v>
-      </c>
-      <c r="BA77" s="14">
-        <f t="shared" si="16"/>
         <v>2.9024326471073641E-2</v>
       </c>
       <c r="BB77" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>10.957935871656941</v>
       </c>
       <c r="BC77" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>17.267167412989338</v>
       </c>
       <c r="BD77" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.63461108643759157</v>
       </c>
       <c r="BE77" s="7"/>
@@ -42464,43 +42575,43 @@
       <c r="AS78" s="7"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="16">
+        <f t="shared" si="30"/>
+        <v>3684.2105263157878</v>
+      </c>
+      <c r="AV78" s="15">
+        <f t="shared" si="22"/>
+        <v>5.4105058473684178</v>
+      </c>
+      <c r="AW78" s="15">
+        <f t="shared" si="23"/>
+        <v>3.3857276315789449</v>
+      </c>
+      <c r="AX78" s="14">
+        <f t="shared" si="24"/>
+        <v>49.669384736842034</v>
+      </c>
+      <c r="AY78" s="14">
         <f t="shared" si="25"/>
-        <v>3684.2105263157878</v>
-      </c>
-      <c r="AV78" s="15">
-        <f t="shared" si="17"/>
-        <v>5.4105058473684178</v>
-      </c>
-      <c r="AW78" s="15">
-        <f t="shared" si="18"/>
-        <v>3.3857276315789449</v>
-      </c>
-      <c r="AX78" s="14">
-        <f t="shared" si="19"/>
-        <v>49.669384736842034</v>
-      </c>
-      <c r="AY78" s="14">
-        <f t="shared" si="20"/>
         <v>0.48725666426842035</v>
       </c>
       <c r="AZ78" s="14">
+        <f t="shared" si="26"/>
+        <v>0.16241888808947344</v>
+      </c>
+      <c r="BA78" s="14">
         <f t="shared" si="21"/>
-        <v>0.16241888808947344</v>
-      </c>
-      <c r="BA78" s="14">
-        <f t="shared" si="16"/>
         <v>3.11844265131789E-2</v>
       </c>
       <c r="BB78" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>12.031280005905604</v>
       </c>
       <c r="BC78" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>18.318499148254705</v>
       </c>
       <c r="BD78" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.65678306440579137</v>
       </c>
       <c r="BE78" s="7"/>
@@ -42566,43 +42677,43 @@
       <c r="AS79" s="7"/>
       <c r="AT79" s="7"/>
       <c r="AU79" s="16">
+        <f t="shared" si="30"/>
+        <v>3763.1578947368403</v>
+      </c>
+      <c r="AV79" s="15">
+        <f t="shared" si="22"/>
+        <v>5.5550111105263129</v>
+      </c>
+      <c r="AW79" s="15">
+        <f t="shared" si="23"/>
+        <v>3.4924644736842074</v>
+      </c>
+      <c r="AX79" s="14">
+        <f t="shared" si="24"/>
+        <v>53.109911052631503</v>
+      </c>
+      <c r="AY79" s="14">
         <f t="shared" si="25"/>
-        <v>3763.1578947368403</v>
-      </c>
-      <c r="AV79" s="15">
-        <f t="shared" si="17"/>
-        <v>5.5550111105263129</v>
-      </c>
-      <c r="AW79" s="15">
-        <f t="shared" si="18"/>
-        <v>3.4924644736842074</v>
-      </c>
-      <c r="AX79" s="14">
-        <f t="shared" si="19"/>
-        <v>53.109911052631503</v>
-      </c>
-      <c r="AY79" s="14">
-        <f t="shared" si="20"/>
         <v>0.52100822742631514</v>
       </c>
       <c r="AZ79" s="14">
+        <f t="shared" si="26"/>
+        <v>0.17366940914210505</v>
+      </c>
+      <c r="BA79" s="14">
         <f t="shared" si="21"/>
-        <v>0.17366940914210505</v>
-      </c>
-      <c r="BA79" s="14">
-        <f t="shared" si="16"/>
         <v>3.3344526555284172E-2</v>
       </c>
       <c r="BB79" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>13.140340825903104</v>
       </c>
       <c r="BC79" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>19.400678954434206</v>
       </c>
       <c r="BD79" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.67731345159442258</v>
       </c>
       <c r="BE79" s="7"/>
@@ -42668,43 +42779,43 @@
       <c r="AS80" s="7"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="16">
+        <f t="shared" si="30"/>
+        <v>3842.1052631578928</v>
+      </c>
+      <c r="AV80" s="15">
+        <f t="shared" si="22"/>
+        <v>5.6995163736842072</v>
+      </c>
+      <c r="AW80" s="15">
+        <f t="shared" si="23"/>
+        <v>3.5992013157894709</v>
+      </c>
+      <c r="AX80" s="14">
+        <f t="shared" si="24"/>
+        <v>56.550437368420972</v>
+      </c>
+      <c r="AY80" s="14">
         <f t="shared" si="25"/>
-        <v>3842.1052631578928</v>
-      </c>
-      <c r="AV80" s="15">
-        <f t="shared" si="17"/>
-        <v>5.6995163736842072</v>
-      </c>
-      <c r="AW80" s="15">
-        <f t="shared" si="18"/>
-        <v>3.5992013157894709</v>
-      </c>
-      <c r="AX80" s="14">
-        <f t="shared" si="19"/>
-        <v>56.550437368420972</v>
-      </c>
-      <c r="AY80" s="14">
-        <f t="shared" si="20"/>
         <v>0.55475979058420977</v>
       </c>
       <c r="AZ80" s="14">
+        <f t="shared" si="26"/>
+        <v>0.1849199301947366</v>
+      </c>
+      <c r="BA80" s="14">
         <f t="shared" si="21"/>
-        <v>0.1849199301947366</v>
-      </c>
-      <c r="BA80" s="14">
-        <f t="shared" si="16"/>
         <v>3.5504626597389427E-2</v>
       </c>
       <c r="BB80" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>14.285118331649429</v>
       </c>
       <c r="BC80" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>20.513706831527831</v>
       </c>
       <c r="BD80" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.69636942991182904</v>
       </c>
       <c r="BE80" s="7"/>
@@ -42770,43 +42881,43 @@
       <c r="AS81" s="7"/>
       <c r="AT81" s="7"/>
       <c r="AU81" s="16">
+        <f t="shared" si="30"/>
+        <v>3921.0526315789452</v>
+      </c>
+      <c r="AV81" s="15">
+        <f t="shared" si="22"/>
+        <v>5.8440216368421014</v>
+      </c>
+      <c r="AW81" s="15">
+        <f t="shared" si="23"/>
+        <v>3.7059381578947335</v>
+      </c>
+      <c r="AX81" s="14">
+        <f t="shared" si="24"/>
+        <v>59.990963684210442</v>
+      </c>
+      <c r="AY81" s="14">
         <f t="shared" si="25"/>
-        <v>3921.0526315789452</v>
-      </c>
-      <c r="AV81" s="15">
-        <f t="shared" si="17"/>
-        <v>5.8440216368421014</v>
-      </c>
-      <c r="AW81" s="15">
-        <f t="shared" si="18"/>
-        <v>3.7059381578947335</v>
-      </c>
-      <c r="AX81" s="14">
-        <f t="shared" si="19"/>
-        <v>59.990963684210442</v>
-      </c>
-      <c r="AY81" s="14">
-        <f t="shared" si="20"/>
         <v>0.5885113537421045</v>
       </c>
       <c r="AZ81" s="14">
+        <f t="shared" si="26"/>
+        <v>0.19617045124736818</v>
+      </c>
+      <c r="BA81" s="14">
         <f t="shared" si="21"/>
-        <v>0.19617045124736818</v>
-      </c>
-      <c r="BA81" s="14">
-        <f t="shared" si="16"/>
         <v>3.7664726639494689E-2</v>
       </c>
       <c r="BB81" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>15.465612523144586</v>
       </c>
       <c r="BC81" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>21.657582779535581</v>
       </c>
       <c r="BD81" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.71409689070925142</v>
       </c>
       <c r="BE81" s="7"/>
@@ -42875,19 +42986,19 @@
         <v>4000</v>
       </c>
       <c r="AV82" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>5.9885269000000001</v>
       </c>
       <c r="AW82" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.8126749999999996</v>
       </c>
       <c r="AX82" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>63.431489999999997</v>
       </c>
       <c r="AY82" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.62226291690000002</v>
       </c>
       <c r="AZ82" s="14">
@@ -42899,15 +43010,15 @@
         <v>3.9824826681599999E-2</v>
       </c>
       <c r="BB82" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>16.681823400388609</v>
       </c>
       <c r="BC82" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>22.832306798457498</v>
       </c>
       <c r="BD82" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.73062365303866705</v>
       </c>
       <c r="BE82" s="7"/>
@@ -43578,15 +43689,15 @@
         <v>2.181569269789169E-2</v>
       </c>
       <c r="AZ91" s="14">
-        <f t="shared" ref="AZ91:AZ129" si="26">AY91*64/1000</f>
+        <f t="shared" ref="AZ91:AZ129" si="31">AY91*64/1000</f>
         <v>1.3962043326650681E-3</v>
       </c>
       <c r="BA91" s="27">
-        <f t="shared" ref="BA91:BA129" si="27">AZ91*AU91*0.10472</f>
+        <f t="shared" ref="BA91:BA129" si="32">AZ91*AU91*0.10472</f>
         <v>0.14621051771668592</v>
       </c>
       <c r="BB91" s="15">
-        <f t="shared" ref="BB91:BB129" si="28">AV91*AW91</f>
+        <f t="shared" ref="BB91:BB129" si="33">AV91*AW91</f>
         <v>-4.1105152187699896E-2</v>
       </c>
       <c r="BC91" s="26">
@@ -43659,39 +43770,39 @@
       <c r="AS92" s="29"/>
       <c r="AT92" s="29"/>
       <c r="AU92" s="16">
-        <f t="shared" ref="AU92:AU127" si="29">AU91+($AU$129-$AU$91)/(ROW($AU$129)-ROW($AU$91))</f>
+        <f t="shared" ref="AU92:AU127" si="34">AU91+($AU$129-$AU$91)/(ROW($AU$129)-ROW($AU$91))</f>
         <v>1131.578947368421</v>
       </c>
       <c r="AV92" s="15">
-        <f t="shared" ref="AV92:AV128" si="30">0.0017271*AU92 - 0.9937473</f>
+        <f t="shared" ref="AV92:AV128" si="35">0.0017271*AU92 - 0.9937473</f>
         <v>0.96060270000000003</v>
       </c>
       <c r="AW92" s="15">
-        <f t="shared" ref="AW92:AW129" si="31">0.001231*AU92 - 1.287051</f>
+        <f t="shared" ref="AW92:AW129" si="36">0.001231*AU92 - 1.287051</f>
         <v>0.10592268421052653</v>
       </c>
       <c r="AX92" s="14">
-        <f t="shared" ref="AX92:AX129" si="32">0.000001*AU92^2.1157</f>
+        <f t="shared" ref="AX92:AX129" si="37">0.000001*AU92^2.1157</f>
         <v>2.8885577595399616</v>
       </c>
       <c r="AY92" s="14">
-        <f t="shared" ref="AY92:AY129" si="33">9.81*AX92/1000</f>
+        <f t="shared" ref="AY92:AY129" si="38">9.81*AX92/1000</f>
         <v>2.8336751621087026E-2</v>
       </c>
       <c r="AZ92" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1.8135521037495697E-3</v>
       </c>
       <c r="BA92" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.21490401529210951</v>
       </c>
       <c r="BB92" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.10174961644387916</v>
       </c>
       <c r="BC92" s="26">
-        <f t="shared" ref="BC92:BC116" si="34">BA92/BB92</f>
+        <f t="shared" ref="BC92:BC116" si="39">BA92/BB92</f>
         <v>2.1120867360776892</v>
       </c>
       <c r="BD92" s="42"/>
@@ -43769,39 +43880,39 @@
       <c r="AS93" s="29"/>
       <c r="AT93" s="29"/>
       <c r="AU93" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1263.1578947368421</v>
       </c>
       <c r="AV93" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1.1878527000000001</v>
       </c>
       <c r="AW93" s="15">
+        <f t="shared" si="36"/>
+        <v>0.26789636842105269</v>
+      </c>
+      <c r="AX93" s="14">
+        <f t="shared" si="37"/>
+        <v>3.64547337394339</v>
+      </c>
+      <c r="AY93" s="14">
+        <f t="shared" si="38"/>
+        <v>3.5762093798384652E-2</v>
+      </c>
+      <c r="AZ93" s="14">
         <f t="shared" si="31"/>
-        <v>0.26789636842105269</v>
-      </c>
-      <c r="AX93" s="14">
+        <v>2.2887740030966175E-3</v>
+      </c>
+      <c r="BA93" s="27">
         <f t="shared" si="32"/>
-        <v>3.64547337394339</v>
-      </c>
-      <c r="AY93" s="14">
+        <v>0.3027542066580351</v>
+      </c>
+      <c r="BB93" s="15">
         <f t="shared" si="33"/>
-        <v>3.5762093798384652E-2</v>
-      </c>
-      <c r="AZ93" s="14">
-        <f t="shared" si="26"/>
-        <v>2.2887740030966175E-3</v>
-      </c>
-      <c r="BA93" s="27">
-        <f t="shared" si="27"/>
-        <v>0.3027542066580351</v>
-      </c>
-      <c r="BB93" s="15">
-        <f t="shared" si="28"/>
         <v>0.31822142454914221</v>
       </c>
       <c r="BC93" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.95139479400853932</v>
       </c>
       <c r="BD93" s="42"/>
@@ -43879,39 +43990,39 @@
       <c r="AS94" s="29"/>
       <c r="AT94" s="29"/>
       <c r="AU94" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1394.7368421052631</v>
       </c>
       <c r="AV94" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1.4151027000000003</v>
       </c>
       <c r="AW94" s="15">
+        <f t="shared" si="36"/>
+        <v>0.42987005263157907</v>
+      </c>
+      <c r="AX94" s="14">
+        <f t="shared" si="37"/>
+        <v>4.4957515424209307</v>
+      </c>
+      <c r="AY94" s="14">
+        <f t="shared" si="38"/>
+        <v>4.4103322631149335E-2</v>
+      </c>
+      <c r="AZ94" s="14">
         <f t="shared" si="31"/>
-        <v>0.42987005263157907</v>
-      </c>
-      <c r="AX94" s="14">
+        <v>2.8226126483935575E-3</v>
+      </c>
+      <c r="BA94" s="27">
         <f t="shared" si="32"/>
-        <v>4.4957515424209307</v>
-      </c>
-      <c r="AY94" s="14">
+        <v>0.41226188991073648</v>
+      </c>
+      <c r="BB94" s="15">
         <f t="shared" si="33"/>
-        <v>4.4103322631149335E-2</v>
-      </c>
-      <c r="AZ94" s="14">
-        <f t="shared" si="26"/>
-        <v>2.8226126483935575E-3</v>
-      </c>
-      <c r="BA94" s="27">
-        <f t="shared" si="27"/>
-        <v>0.41226188991073648</v>
-      </c>
-      <c r="BB94" s="15">
-        <f t="shared" si="28"/>
         <v>0.60831027212808975</v>
       </c>
       <c r="BC94" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.67771646937424712</v>
       </c>
       <c r="BD94" s="42"/>
@@ -43989,39 +44100,39 @@
       <c r="AS95" s="29"/>
       <c r="AT95" s="29"/>
       <c r="AU95" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1526.3157894736842</v>
       </c>
       <c r="AV95" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1.6423527</v>
       </c>
       <c r="AW95" s="15">
+        <f t="shared" si="36"/>
+        <v>0.59184373684210545</v>
+      </c>
+      <c r="AX95" s="14">
+        <f t="shared" si="37"/>
+        <v>5.440470385530829</v>
+      </c>
+      <c r="AY95" s="14">
+        <f t="shared" si="38"/>
+        <v>5.337101448205743E-2</v>
+      </c>
+      <c r="AZ95" s="14">
         <f t="shared" si="31"/>
-        <v>0.59184373684210545</v>
-      </c>
-      <c r="AX95" s="14">
+        <v>3.4157449268516753E-3</v>
+      </c>
+      <c r="BA95" s="27">
         <f t="shared" si="32"/>
-        <v>5.440470385530829</v>
-      </c>
-      <c r="AY95" s="14">
+        <v>0.54595828702406923</v>
+      </c>
+      <c r="BB95" s="15">
         <f t="shared" si="33"/>
-        <v>5.337101448205743E-2</v>
-      </c>
-      <c r="AZ95" s="14">
-        <f t="shared" si="26"/>
-        <v>3.4157449268516753E-3</v>
-      </c>
-      <c r="BA95" s="27">
-        <f t="shared" si="27"/>
-        <v>0.54595828702406923</v>
-      </c>
-      <c r="BB95" s="15">
-        <f t="shared" si="28"/>
         <v>0.97201615918072137</v>
       </c>
       <c r="BC95" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.5616761427960606</v>
       </c>
       <c r="BD95" s="42"/>
@@ -44099,39 +44210,39 @@
       <c r="AS96" s="29"/>
       <c r="AT96" s="29"/>
       <c r="AU96" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1657.8947368421052</v>
       </c>
       <c r="AV96" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1.8696027000000002</v>
       </c>
       <c r="AW96" s="15">
+        <f t="shared" si="36"/>
+        <v>0.75381742105263161</v>
+      </c>
+      <c r="AX96" s="14">
+        <f t="shared" si="37"/>
+        <v>6.4806213186254897</v>
+      </c>
+      <c r="AY96" s="14">
+        <f t="shared" si="38"/>
+        <v>6.3574895135716056E-2</v>
+      </c>
+      <c r="AZ96" s="14">
         <f t="shared" si="31"/>
-        <v>0.75381742105263161</v>
-      </c>
-      <c r="AX96" s="14">
+        <v>4.0687932886858272E-3</v>
+      </c>
+      <c r="BA96" s="27">
         <f t="shared" si="32"/>
-        <v>6.4806213186254897</v>
-      </c>
-      <c r="AY96" s="14">
+        <v>0.70640247608011386</v>
+      </c>
+      <c r="BB96" s="15">
         <f t="shared" si="33"/>
-        <v>6.3574895135716056E-2</v>
-      </c>
-      <c r="AZ96" s="14">
-        <f t="shared" si="26"/>
-        <v>4.0687932886858272E-3</v>
-      </c>
-      <c r="BA96" s="27">
-        <f t="shared" si="27"/>
-        <v>0.70640247608011386</v>
-      </c>
-      <c r="BB96" s="15">
-        <f t="shared" si="28"/>
         <v>1.4093390857070369</v>
       </c>
       <c r="BC96" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.50122960701521024</v>
       </c>
       <c r="BD96" s="42"/>
@@ -44197,39 +44308,39 @@
       <c r="AS97" s="29"/>
       <c r="AT97" s="29"/>
       <c r="AU97" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1789.4736842105262</v>
       </c>
       <c r="AV97" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.0968526999999999</v>
       </c>
       <c r="AW97" s="15">
+        <f t="shared" si="36"/>
+        <v>0.91579110526315821</v>
+      </c>
+      <c r="AX97" s="14">
+        <f t="shared" si="37"/>
+        <v>7.6171226963520491</v>
+      </c>
+      <c r="AY97" s="14">
+        <f t="shared" si="38"/>
+        <v>7.472397365121361E-2</v>
+      </c>
+      <c r="AZ97" s="14">
         <f t="shared" si="31"/>
-        <v>0.91579110526315821</v>
-      </c>
-      <c r="AX97" s="14">
+        <v>4.7823343136776707E-3</v>
+      </c>
+      <c r="BA97" s="27">
         <f t="shared" si="32"/>
-        <v>7.6171226963520491</v>
-      </c>
-      <c r="AY97" s="14">
+        <v>0.89617924616647737</v>
+      </c>
+      <c r="BB97" s="15">
         <f t="shared" si="33"/>
-        <v>7.472397365121361E-2</v>
-      </c>
-      <c r="AZ97" s="14">
-        <f t="shared" si="26"/>
-        <v>4.7823343136776707E-3</v>
-      </c>
-      <c r="BA97" s="27">
-        <f t="shared" si="27"/>
-        <v>0.89617924616647737</v>
-      </c>
-      <c r="BB97" s="15">
-        <f t="shared" si="28"/>
         <v>1.9202790517070374</v>
       </c>
       <c r="BC97" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.46669219526704536</v>
       </c>
       <c r="BD97" s="42"/>
@@ -44295,39 +44406,39 @@
       <c r="AS98" s="29"/>
       <c r="AT98" s="29"/>
       <c r="AU98" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1921.0526315789473</v>
       </c>
       <c r="AV98" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.3241027000000001</v>
       </c>
       <c r="AW98" s="15">
+        <f t="shared" si="36"/>
+        <v>1.0777647894736844</v>
+      </c>
+      <c r="AX98" s="14">
+        <f t="shared" si="37"/>
+        <v>8.8508304190847156</v>
+      </c>
+      <c r="AY98" s="14">
+        <f t="shared" si="38"/>
+        <v>8.6826646411221065E-2</v>
+      </c>
+      <c r="AZ98" s="14">
         <f t="shared" si="31"/>
-        <v>1.0777647894736844</v>
-      </c>
-      <c r="AX98" s="14">
+        <v>5.5569053703181485E-3</v>
+      </c>
+      <c r="BA98" s="27">
         <f t="shared" si="32"/>
-        <v>8.8508304190847156</v>
-      </c>
-      <c r="AY98" s="14">
+        <v>1.1178972767820869</v>
+      </c>
+      <c r="BB98" s="15">
         <f t="shared" si="33"/>
-        <v>8.6826646411221065E-2</v>
-      </c>
-      <c r="AZ98" s="14">
-        <f t="shared" si="26"/>
-        <v>5.5569053703181485E-3</v>
-      </c>
-      <c r="BA98" s="27">
-        <f t="shared" si="27"/>
-        <v>1.1178972767820869</v>
-      </c>
-      <c r="BB98" s="15">
-        <f t="shared" si="28"/>
         <v>2.5048360571807216</v>
       </c>
       <c r="BC98" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.44629558632285038</v>
       </c>
       <c r="BD98" s="42"/>
@@ -44387,39 +44498,39 @@
       <c r="AS99" s="29"/>
       <c r="AT99" s="29"/>
       <c r="AU99" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2052.6315789473683</v>
       </c>
       <c r="AV99" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.5513527000000003</v>
       </c>
       <c r="AW99" s="15">
+        <f t="shared" si="36"/>
+        <v>1.2397384736842105</v>
+      </c>
+      <c r="AX99" s="14">
+        <f t="shared" si="37"/>
+        <v>10.182546348115105</v>
+      </c>
+      <c r="AY99" s="14">
+        <f t="shared" si="38"/>
+        <v>9.9890779675009186E-2</v>
+      </c>
+      <c r="AZ99" s="14">
         <f t="shared" si="31"/>
-        <v>1.2397384736842105</v>
-      </c>
-      <c r="AX99" s="14">
+        <v>6.393009899200588E-3</v>
+      </c>
+      <c r="BA99" s="27">
         <f t="shared" si="32"/>
-        <v>10.182546348115105</v>
-      </c>
-      <c r="AY99" s="14">
+        <v>1.3741875720593228</v>
+      </c>
+      <c r="BB99" s="15">
         <f t="shared" si="33"/>
-        <v>9.9890779675009186E-2</v>
-      </c>
-      <c r="AZ99" s="14">
-        <f t="shared" si="26"/>
-        <v>6.393009899200588E-3</v>
-      </c>
-      <c r="BA99" s="27">
-        <f t="shared" si="27"/>
-        <v>1.3741875720593228</v>
-      </c>
-      <c r="BB99" s="15">
-        <f t="shared" si="28"/>
         <v>3.1630101021280899</v>
       </c>
       <c r="BC99" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.43445563804388809</v>
       </c>
       <c r="BD99" s="42"/>
@@ -44473,39 +44584,39 @@
       <c r="AS100" s="29"/>
       <c r="AT100" s="29"/>
       <c r="AU100" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2184.2105263157891</v>
       </c>
       <c r="AV100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.7786026999999995</v>
       </c>
       <c r="AW100" s="15">
+        <f t="shared" si="36"/>
+        <v>1.4017121578947367</v>
+      </c>
+      <c r="AX100" s="14">
+        <f t="shared" si="37"/>
+        <v>11.613025099166414</v>
+      </c>
+      <c r="AY100" s="14">
+        <f t="shared" si="38"/>
+        <v>0.11392377622282253</v>
+      </c>
+      <c r="AZ100" s="14">
         <f t="shared" si="31"/>
-        <v>1.4017121578947367</v>
-      </c>
-      <c r="AX100" s="14">
+        <v>7.2911216782606415E-3</v>
+      </c>
+      <c r="BA100" s="27">
         <f t="shared" si="32"/>
-        <v>11.613025099166414</v>
-      </c>
-      <c r="AY100" s="14">
+        <v>1.6677020989010185</v>
+      </c>
+      <c r="BB100" s="15">
         <f t="shared" si="33"/>
-        <v>0.11392377622282253</v>
-      </c>
-      <c r="AZ100" s="14">
-        <f t="shared" si="26"/>
-        <v>7.2911216782606415E-3</v>
-      </c>
-      <c r="BA100" s="27">
-        <f t="shared" si="27"/>
-        <v>1.6677020989010185</v>
-      </c>
-      <c r="BB100" s="15">
-        <f t="shared" si="28"/>
         <v>3.8948011865491412</v>
       </c>
       <c r="BC100" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.42818670813301007</v>
       </c>
       <c r="BD100" s="42"/>
@@ -44564,39 +44675,39 @@
       <c r="AS101" s="29"/>
       <c r="AT101" s="29"/>
       <c r="AU101" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2315.78947368421</v>
       </c>
       <c r="AV101" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3.0058526999999993</v>
       </c>
       <c r="AW101" s="15">
+        <f t="shared" si="36"/>
+        <v>1.5636858421052628</v>
+      </c>
+      <c r="AX101" s="14">
+        <f t="shared" si="37"/>
+        <v>13.142979609134825</v>
+      </c>
+      <c r="AY101" s="14">
+        <f t="shared" si="38"/>
+        <v>0.12893262996561264</v>
+      </c>
+      <c r="AZ101" s="14">
         <f t="shared" si="31"/>
-        <v>1.5636858421052628</v>
-      </c>
-      <c r="AX101" s="14">
+        <v>8.2516883177992089E-3</v>
+      </c>
+      <c r="BA101" s="27">
         <f t="shared" si="32"/>
-        <v>13.142979609134825</v>
-      </c>
-      <c r="AY101" s="14">
+        <v>2.0011125909556342</v>
+      </c>
+      <c r="BB101" s="15">
         <f t="shared" si="33"/>
-        <v>0.12893262996561264</v>
-      </c>
-      <c r="AZ101" s="14">
-        <f t="shared" si="26"/>
-        <v>8.2516883177992089E-3</v>
-      </c>
-      <c r="BA101" s="27">
-        <f t="shared" si="27"/>
-        <v>2.0011125909556342</v>
-      </c>
-      <c r="BB101" s="15">
-        <f t="shared" si="28"/>
         <v>4.7002093104438769</v>
       </c>
       <c r="BC101" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.42574967597914354</v>
       </c>
       <c r="BD101" s="42"/>
@@ -44654,39 +44765,39 @@
       <c r="AS102" s="29"/>
       <c r="AT102" s="29"/>
       <c r="AU102" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2447.3684210526308</v>
       </c>
       <c r="AV102" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3.233102699999999</v>
       </c>
       <c r="AW102" s="15">
+        <f t="shared" si="36"/>
+        <v>1.725659526315789</v>
+      </c>
+      <c r="AX102" s="14">
+        <f t="shared" si="37"/>
+        <v>14.773085757070557</v>
+      </c>
+      <c r="AY102" s="14">
+        <f t="shared" si="38"/>
+        <v>0.14492397127686218</v>
+      </c>
+      <c r="AZ102" s="14">
         <f t="shared" si="31"/>
-        <v>1.725659526315789</v>
-      </c>
-      <c r="AX102" s="14">
+        <v>9.2751341617191806E-3</v>
+      </c>
+      <c r="BA102" s="27">
         <f t="shared" si="32"/>
-        <v>14.773085757070557</v>
-      </c>
-      <c r="AY102" s="14">
+        <v>2.3771094893583316</v>
+      </c>
+      <c r="BB102" s="15">
         <f t="shared" si="33"/>
-        <v>0.14492397127686218</v>
-      </c>
-      <c r="AZ102" s="14">
-        <f t="shared" si="26"/>
-        <v>9.2751341617191806E-3</v>
-      </c>
-      <c r="BA102" s="27">
-        <f t="shared" si="27"/>
-        <v>2.3771094893583316</v>
-      </c>
-      <c r="BB102" s="15">
-        <f t="shared" si="28"/>
         <v>5.5792344738122965</v>
       </c>
       <c r="BC102" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.4260637369725116</v>
       </c>
       <c r="BD102" s="42"/>
@@ -44744,39 +44855,39 @@
       <c r="AS103" s="29"/>
       <c r="AT103" s="29"/>
       <c r="AU103" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2578.9473684210516</v>
       </c>
       <c r="AV103" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3.4603526999999987</v>
       </c>
       <c r="AW103" s="15">
+        <f t="shared" si="36"/>
+        <v>1.8876332105263147</v>
+      </c>
+      <c r="AX103" s="14">
+        <f t="shared" si="37"/>
+        <v>16.503986243913406</v>
+      </c>
+      <c r="AY103" s="14">
+        <f t="shared" si="38"/>
+        <v>0.16190410505279051</v>
+      </c>
+      <c r="AZ103" s="14">
         <f t="shared" si="31"/>
-        <v>1.8876332105263147</v>
-      </c>
-      <c r="AX103" s="14">
+        <v>1.0361862723378593E-2</v>
+      </c>
+      <c r="BA103" s="27">
         <f t="shared" si="32"/>
-        <v>16.503986243913406</v>
-      </c>
-      <c r="AY103" s="14">
+        <v>2.7984009976430566</v>
+      </c>
+      <c r="BB103" s="15">
         <f t="shared" si="33"/>
-        <v>0.16190410505279051</v>
-      </c>
-      <c r="AZ103" s="14">
-        <f t="shared" si="26"/>
-        <v>1.0361862723378593E-2</v>
-      </c>
-      <c r="BA103" s="27">
-        <f t="shared" si="27"/>
-        <v>2.7984009976430566</v>
-      </c>
-      <c r="BB103" s="15">
-        <f t="shared" si="28"/>
         <v>6.5318766766543988</v>
       </c>
       <c r="BC103" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.42842220332248931</v>
       </c>
       <c r="BD103" s="42"/>
@@ -44834,39 +44945,39 @@
       <c r="AS104" s="29"/>
       <c r="AT104" s="29"/>
       <c r="AU104" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2710.5263157894724</v>
       </c>
       <c r="AV104" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3.6876026999999985</v>
       </c>
       <c r="AW104" s="15">
+        <f t="shared" si="36"/>
+        <v>2.0496068947368409</v>
+      </c>
+      <c r="AX104" s="14">
+        <f t="shared" si="37"/>
+        <v>18.336293882782652</v>
+      </c>
+      <c r="AY104" s="14">
+        <f t="shared" si="38"/>
+        <v>0.17987904299009783</v>
+      </c>
+      <c r="AZ104" s="14">
         <f t="shared" si="31"/>
-        <v>2.0496068947368409</v>
-      </c>
-      <c r="AX104" s="14">
+        <v>1.151225875136626E-2</v>
+      </c>
+      <c r="BA104" s="27">
         <f t="shared" si="32"/>
-        <v>18.336293882782652</v>
-      </c>
-      <c r="AY104" s="14">
+        <v>3.2677122329904376</v>
+      </c>
+      <c r="BB104" s="15">
         <f t="shared" si="33"/>
-        <v>0.17987904299009783</v>
-      </c>
-      <c r="AZ104" s="14">
-        <f t="shared" si="26"/>
-        <v>1.151225875136626E-2</v>
-      </c>
-      <c r="BA104" s="27">
-        <f t="shared" si="27"/>
-        <v>3.2677122329904376</v>
-      </c>
-      <c r="BB104" s="15">
-        <f t="shared" si="28"/>
         <v>7.5581359189701871</v>
       </c>
       <c r="BC104" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.43234367151148967</v>
       </c>
       <c r="BD104" s="42"/>
@@ -44926,39 +45037,39 @@
       <c r="AS105" s="29"/>
       <c r="AT105" s="29"/>
       <c r="AU105" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2842.1052631578932</v>
       </c>
       <c r="AV105" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>3.9148526999999973</v>
       </c>
       <c r="AW105" s="15">
+        <f t="shared" si="36"/>
+        <v>2.211580578947367</v>
+      </c>
+      <c r="AX105" s="14">
+        <f t="shared" si="37"/>
+        <v>20.270594414463929</v>
+      </c>
+      <c r="AY105" s="14">
+        <f t="shared" si="38"/>
+        <v>0.19885453120589117</v>
+      </c>
+      <c r="AZ105" s="14">
         <f t="shared" si="31"/>
-        <v>2.211580578947367</v>
-      </c>
-      <c r="AX105" s="14">
+        <v>1.2726689997177035E-2</v>
+      </c>
+      <c r="BA105" s="27">
         <f t="shared" si="32"/>
-        <v>20.270594414463929</v>
-      </c>
-      <c r="AY105" s="14">
+        <v>3.7877844595387593</v>
+      </c>
+      <c r="BB105" s="15">
         <f t="shared" si="33"/>
-        <v>0.19885453120589117</v>
-      </c>
-      <c r="AZ105" s="14">
-        <f t="shared" si="26"/>
-        <v>1.2726689997177035E-2</v>
-      </c>
-      <c r="BA105" s="27">
-        <f t="shared" si="27"/>
-        <v>3.7877844595387593</v>
-      </c>
-      <c r="BB105" s="15">
-        <f t="shared" si="28"/>
         <v>8.6580122007596572</v>
       </c>
       <c r="BC105" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.4374889260616216</v>
       </c>
       <c r="BD105" s="42"/>
@@ -45012,39 +45123,39 @@
       <c r="AS106" s="29"/>
       <c r="AT106" s="29"/>
       <c r="AU106" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>2973.684210526314</v>
       </c>
       <c r="AV106" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>4.142102699999997</v>
       </c>
       <c r="AW106" s="15">
+        <f t="shared" si="36"/>
+        <v>2.3735542631578928</v>
+      </c>
+      <c r="AX106" s="14">
+        <f t="shared" si="37"/>
+        <v>22.307448936019213</v>
+      </c>
+      <c r="AY106" s="14">
+        <f t="shared" si="38"/>
+        <v>0.21883607406234851</v>
+      </c>
+      <c r="AZ106" s="14">
         <f t="shared" si="31"/>
-        <v>2.3735542631578928</v>
-      </c>
-      <c r="AX106" s="14">
+        <v>1.4005508739990305E-2</v>
+      </c>
+      <c r="BA106" s="27">
         <f t="shared" si="32"/>
-        <v>22.307448936019213</v>
-      </c>
-      <c r="AY106" s="14">
+        <v>4.3613743921960939</v>
+      </c>
+      <c r="BB106" s="15">
         <f t="shared" si="33"/>
-        <v>0.21883607406234851</v>
-      </c>
-      <c r="AZ106" s="14">
-        <f t="shared" si="26"/>
-        <v>1.4005508739990305E-2</v>
-      </c>
-      <c r="BA106" s="27">
-        <f t="shared" si="27"/>
-        <v>4.3613743921960939</v>
-      </c>
-      <c r="BB106" s="15">
-        <f t="shared" si="28"/>
         <v>9.8315055220228107</v>
       </c>
       <c r="BC106" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.44361205742360715</v>
       </c>
       <c r="BD106" s="42"/>
@@ -45098,39 +45209,39 @@
       <c r="AS107" s="29"/>
       <c r="AT107" s="29"/>
       <c r="AU107" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3105.2631578947348</v>
       </c>
       <c r="AV107" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>4.3693526999999968</v>
       </c>
       <c r="AW107" s="15">
+        <f t="shared" si="36"/>
+        <v>2.5355279473684189</v>
+      </c>
+      <c r="AX107" s="14">
+        <f t="shared" si="37"/>
+        <v>24.44739601089335</v>
+      </c>
+      <c r="AY107" s="14">
+        <f t="shared" si="38"/>
+        <v>0.23982895486686376</v>
+      </c>
+      <c r="AZ107" s="14">
         <f t="shared" si="31"/>
-        <v>2.5355279473684189</v>
-      </c>
-      <c r="AX107" s="14">
+        <v>1.534905311147928E-2</v>
+      </c>
+      <c r="BA107" s="27">
         <f t="shared" si="32"/>
-        <v>24.44739601089335</v>
-      </c>
-      <c r="AY107" s="14">
+        <v>4.9912535614848652</v>
+      </c>
+      <c r="BB107" s="15">
         <f t="shared" si="33"/>
-        <v>0.23982895486686376</v>
-      </c>
-      <c r="AZ107" s="14">
-        <f t="shared" si="26"/>
-        <v>1.534905311147928E-2</v>
-      </c>
-      <c r="BA107" s="27">
-        <f t="shared" si="27"/>
-        <v>4.9912535614848652</v>
-      </c>
-      <c r="BB107" s="15">
-        <f t="shared" si="28"/>
         <v>11.078615882759651</v>
       </c>
       <c r="BC107" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.45053042855761133</v>
       </c>
       <c r="BD107" s="42"/>
@@ -45184,39 +45295,39 @@
       <c r="AS108" s="29"/>
       <c r="AT108" s="29"/>
       <c r="AU108" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3236.8421052631556</v>
       </c>
       <c r="AV108" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>4.5966026999999965</v>
       </c>
       <c r="AW108" s="15">
+        <f t="shared" si="36"/>
+        <v>2.6975016315789451</v>
+      </c>
+      <c r="AX108" s="14">
+        <f t="shared" si="37"/>
+        <v>26.690953514348955</v>
+      </c>
+      <c r="AY108" s="14">
+        <f t="shared" si="38"/>
+        <v>0.26183825397576327</v>
+      </c>
+      <c r="AZ108" s="14">
         <f t="shared" si="31"/>
-        <v>2.6975016315789451</v>
-      </c>
-      <c r="AX108" s="14">
+        <v>1.6757648254448851E-2</v>
+      </c>
+      <c r="BA108" s="27">
         <f t="shared" si="32"/>
-        <v>26.690953514348955</v>
-      </c>
-      <c r="AY108" s="14">
+        <v>5.6802077315874611</v>
+      </c>
+      <c r="BB108" s="15">
         <f t="shared" si="33"/>
-        <v>0.26183825397576327</v>
-      </c>
-      <c r="AZ108" s="14">
-        <f t="shared" si="26"/>
-        <v>1.6757648254448851E-2</v>
-      </c>
-      <c r="BA108" s="27">
-        <f t="shared" si="27"/>
-        <v>5.6802077315874611</v>
-      </c>
-      <c r="BB108" s="15">
-        <f t="shared" si="28"/>
         <v>12.399343282970175</v>
       </c>
       <c r="BC108" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.45810553042667329</v>
       </c>
       <c r="BD108" s="42"/>
@@ -45270,39 +45381,39 @@
       <c r="AS109" s="29"/>
       <c r="AT109" s="29"/>
       <c r="AU109" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3368.4210526315765</v>
       </c>
       <c r="AV109" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>4.8238526999999962</v>
       </c>
       <c r="AW109" s="15">
+        <f t="shared" si="36"/>
+        <v>2.8594753157894708</v>
+      </c>
+      <c r="AX109" s="14">
+        <f t="shared" si="37"/>
+        <v>29.038620257095001</v>
+      </c>
+      <c r="AY109" s="14">
+        <f t="shared" si="38"/>
+        <v>0.28486886472210199</v>
+      </c>
+      <c r="AZ109" s="14">
         <f t="shared" si="31"/>
-        <v>2.8594753157894708</v>
-      </c>
-      <c r="AX109" s="14">
+        <v>1.8231607342214528E-2</v>
+      </c>
+      <c r="BA109" s="27">
         <f t="shared" si="32"/>
-        <v>29.038620257095001</v>
-      </c>
-      <c r="AY109" s="14">
+        <v>6.4310363650583708</v>
+      </c>
+      <c r="BB109" s="15">
         <f t="shared" si="33"/>
-        <v>0.28486886472210199</v>
-      </c>
-      <c r="AZ109" s="14">
-        <f t="shared" si="26"/>
-        <v>1.8231607342214528E-2</v>
-      </c>
-      <c r="BA109" s="27">
-        <f t="shared" si="27"/>
-        <v>6.4310363650583708</v>
-      </c>
-      <c r="BB109" s="15">
-        <f t="shared" si="28"/>
         <v>13.793687722654381</v>
       </c>
       <c r="BC109" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.46623038699768515</v>
       </c>
       <c r="BD109" s="42"/>
@@ -45356,39 +45467,39 @@
       <c r="AS110" s="29"/>
       <c r="AT110" s="29"/>
       <c r="AU110" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3499.9999999999973</v>
       </c>
       <c r="AV110" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5.0511026999999959</v>
       </c>
       <c r="AW110" s="15">
+        <f t="shared" si="36"/>
+        <v>3.0214489999999969</v>
+      </c>
+      <c r="AX110" s="14">
+        <f t="shared" si="37"/>
+        <v>31.490877421587534</v>
+      </c>
+      <c r="AY110" s="14">
+        <f t="shared" si="38"/>
+        <v>0.30892550750577374</v>
+      </c>
+      <c r="AZ110" s="14">
         <f t="shared" si="31"/>
-        <v>3.0214489999999969</v>
-      </c>
-      <c r="AX110" s="14">
+        <v>1.9771232480369518E-2</v>
+      </c>
+      <c r="BA110" s="27">
         <f t="shared" si="32"/>
-        <v>31.490877421587534</v>
-      </c>
-      <c r="AY110" s="14">
+        <v>7.2465521287050301</v>
+      </c>
+      <c r="BB110" s="15">
         <f t="shared" si="33"/>
-        <v>0.30892550750577374</v>
-      </c>
-      <c r="AZ110" s="14">
-        <f t="shared" si="26"/>
-        <v>1.9771232480369518E-2</v>
-      </c>
-      <c r="BA110" s="27">
-        <f t="shared" si="27"/>
-        <v>7.2465521287050301</v>
-      </c>
-      <c r="BB110" s="15">
-        <f t="shared" si="28"/>
         <v>15.261649201812272</v>
       </c>
       <c r="BC110" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.47482103885892785</v>
       </c>
       <c r="BD110" s="42"/>
@@ -45442,39 +45553,39 @@
       <c r="AS111" s="29"/>
       <c r="AT111" s="29"/>
       <c r="AU111" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3631.5789473684181</v>
       </c>
       <c r="AV111" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5.2783526999999957</v>
       </c>
       <c r="AW111" s="15">
+        <f t="shared" si="36"/>
+        <v>3.1834226842105231</v>
+      </c>
+      <c r="AX111" s="14">
+        <f t="shared" si="37"/>
+        <v>34.048189839001843</v>
+      </c>
+      <c r="AY111" s="14">
+        <f t="shared" si="38"/>
+        <v>0.33401274232060807</v>
+      </c>
+      <c r="AZ111" s="14">
         <f t="shared" si="31"/>
-        <v>3.1834226842105231</v>
-      </c>
-      <c r="AX111" s="14">
+        <v>2.1376815508518915E-2</v>
+      </c>
+      <c r="BA111" s="27">
         <f t="shared" si="32"/>
-        <v>34.048189839001843</v>
-      </c>
-      <c r="AY111" s="14">
+        <v>8.1295804359786743</v>
+      </c>
+      <c r="BB111" s="15">
         <f t="shared" si="33"/>
-        <v>0.33401274232060807</v>
-      </c>
-      <c r="AZ111" s="14">
-        <f t="shared" si="26"/>
-        <v>2.1376815508518915E-2</v>
-      </c>
-      <c r="BA111" s="27">
-        <f t="shared" si="27"/>
-        <v>8.1295804359786743</v>
-      </c>
-      <c r="BB111" s="15">
-        <f t="shared" si="28"/>
         <v>16.803227720443846</v>
       </c>
       <c r="BC111" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.48381064467082857</v>
       </c>
       <c r="BD111" s="42"/>
@@ -45522,39 +45633,39 @@
       <c r="AS112" s="29"/>
       <c r="AT112" s="29"/>
       <c r="AU112" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3763.1578947368389</v>
       </c>
       <c r="AV112" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5.5056026999999945</v>
       </c>
       <c r="AW112" s="15">
+        <f t="shared" si="36"/>
+        <v>3.3453963684210493</v>
+      </c>
+      <c r="AX112" s="14">
+        <f t="shared" si="37"/>
+        <v>36.711007129804187</v>
+      </c>
+      <c r="AY112" s="14">
+        <f t="shared" si="38"/>
+        <v>0.36013497994337912</v>
+      </c>
+      <c r="AZ112" s="14">
         <f t="shared" si="31"/>
-        <v>3.3453963684210493</v>
-      </c>
-      <c r="AX112" s="14">
+        <v>2.3048638716376264E-2</v>
+      </c>
+      <c r="BA112" s="27">
         <f t="shared" si="32"/>
-        <v>36.711007129804187</v>
-      </c>
-      <c r="AY112" s="14">
+        <v>9.0829590218996206</v>
+      </c>
+      <c r="BB112" s="15">
         <f t="shared" si="33"/>
-        <v>0.36013497994337912</v>
-      </c>
-      <c r="AZ112" s="14">
-        <f t="shared" si="26"/>
-        <v>2.3048638716376264E-2</v>
-      </c>
-      <c r="BA112" s="27">
-        <f t="shared" si="27"/>
-        <v>9.0829590218996206</v>
-      </c>
-      <c r="BB112" s="15">
-        <f t="shared" si="28"/>
         <v>18.418423278549106</v>
       </c>
       <c r="BC112" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.49314530807194706</v>
       </c>
       <c r="BD112" s="42"/>
@@ -45602,39 +45713,39 @@
       <c r="AS113" s="29"/>
       <c r="AT113" s="29"/>
       <c r="AU113" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>3894.7368421052597</v>
       </c>
       <c r="AV113" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5.7328526999999943</v>
       </c>
       <c r="AW113" s="15">
+        <f t="shared" si="36"/>
+        <v>3.5073700526315754</v>
+      </c>
+      <c r="AX113" s="14">
+        <f t="shared" si="37"/>
+        <v>39.479764726849062</v>
+      </c>
+      <c r="AY113" s="14">
+        <f t="shared" si="38"/>
+        <v>0.38729649197038929</v>
+      </c>
+      <c r="AZ113" s="14">
         <f t="shared" si="31"/>
-        <v>3.5073700526315754</v>
-      </c>
-      <c r="AX113" s="14">
+        <v>2.4786975486104916E-2</v>
+      </c>
+      <c r="BA113" s="27">
         <f t="shared" si="32"/>
-        <v>39.479764726849062</v>
-      </c>
-      <c r="AY113" s="14">
+        <v>10.109537547103312</v>
+      </c>
+      <c r="BB113" s="15">
         <f t="shared" si="33"/>
-        <v>0.38729649197038929</v>
-      </c>
-      <c r="AZ113" s="14">
-        <f t="shared" si="26"/>
-        <v>2.4786975486104916E-2</v>
-      </c>
-      <c r="BA113" s="27">
-        <f t="shared" si="27"/>
-        <v>10.109537547103312</v>
-      </c>
-      <c r="BB113" s="15">
-        <f t="shared" si="28"/>
         <v>20.107235876128048</v>
       </c>
       <c r="BC113" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.50278106893378005</v>
       </c>
       <c r="BD113" s="42"/>
@@ -45682,39 +45793,39 @@
       <c r="AS114" s="29"/>
       <c r="AT114" s="29"/>
       <c r="AU114" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4026.3157894736805</v>
       </c>
       <c r="AV114" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5.960102699999994</v>
       </c>
       <c r="AW114" s="15">
+        <f t="shared" si="36"/>
+        <v>3.6693437368421016</v>
+      </c>
+      <c r="AX114" s="14">
+        <f t="shared" si="37"/>
+        <v>42.354884796741267</v>
+      </c>
+      <c r="AY114" s="14">
+        <f t="shared" si="38"/>
+        <v>0.41550141985603189</v>
+      </c>
+      <c r="AZ114" s="14">
         <f t="shared" si="31"/>
-        <v>3.6693437368421016</v>
-      </c>
-      <c r="AX114" s="14">
+        <v>2.6592090870786043E-2</v>
+      </c>
+      <c r="BA114" s="27">
         <f t="shared" si="32"/>
-        <v>42.354884796741267</v>
-      </c>
-      <c r="AY114" s="14">
+        <v>11.212177228059813</v>
+      </c>
+      <c r="BB114" s="15">
         <f t="shared" si="33"/>
-        <v>0.41550141985603189</v>
-      </c>
-      <c r="AZ114" s="14">
-        <f t="shared" si="26"/>
-        <v>2.6592090870786043E-2</v>
-      </c>
-      <c r="BA114" s="27">
-        <f t="shared" si="27"/>
-        <v>11.212177228059813</v>
-      </c>
-      <c r="BB114" s="15">
-        <f t="shared" si="28"/>
         <v>21.869665513180678</v>
       </c>
       <c r="BC114" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.51268169699725497</v>
       </c>
       <c r="BD114" s="42"/>
@@ -45777,39 +45888,39 @@
       <c r="AS115" s="29"/>
       <c r="AT115" s="29"/>
       <c r="AU115" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4157.8947368421013</v>
       </c>
       <c r="AV115" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6.1873526999999937</v>
       </c>
       <c r="AW115" s="15">
+        <f t="shared" si="36"/>
+        <v>3.8313174210526268</v>
+      </c>
+      <c r="AX115" s="14">
+        <f t="shared" si="37"/>
+        <v>45.336777072633701</v>
+      </c>
+      <c r="AY115" s="14">
+        <f t="shared" si="38"/>
+        <v>0.44475378308253666</v>
+      </c>
+      <c r="AZ115" s="14">
         <f t="shared" si="31"/>
-        <v>3.8313174210526268</v>
-      </c>
-      <c r="AX115" s="14">
+        <v>2.8464242117282348E-2</v>
+      </c>
+      <c r="BA115" s="27">
         <f t="shared" si="32"/>
-        <v>45.336777072633701</v>
-      </c>
-      <c r="AY115" s="14">
+        <v>12.39375049090645</v>
+      </c>
+      <c r="BB115" s="15">
         <f t="shared" si="33"/>
-        <v>0.44475378308253666</v>
-      </c>
-      <c r="AZ115" s="14">
-        <f t="shared" si="26"/>
-        <v>2.8464242117282348E-2</v>
-      </c>
-      <c r="BA115" s="27">
-        <f t="shared" si="27"/>
-        <v>12.39375049090645</v>
-      </c>
-      <c r="BB115" s="15">
-        <f t="shared" si="28"/>
         <v>23.705712189706983</v>
       </c>
       <c r="BC115" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.5228170489763988</v>
       </c>
       <c r="BD115" s="42"/>
@@ -45857,39 +45968,39 @@
       <c r="AS116" s="29"/>
       <c r="AT116" s="29"/>
       <c r="AU116" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4289.4736842105222</v>
       </c>
       <c r="AV116" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6.4146026999999934</v>
       </c>
       <c r="AW116" s="15">
+        <f t="shared" si="36"/>
+        <v>3.993291105263153</v>
+      </c>
+      <c r="AX116" s="14">
+        <f t="shared" si="37"/>
+        <v>48.4258396095615</v>
+      </c>
+      <c r="AY116" s="14">
+        <f t="shared" si="38"/>
+        <v>0.47505748656979835</v>
+      </c>
+      <c r="AZ116" s="14">
         <f t="shared" si="31"/>
-        <v>3.993291105263153</v>
-      </c>
-      <c r="AX116" s="14">
+        <v>3.0403679140467096E-2</v>
+      </c>
+      <c r="BA116" s="27">
         <f t="shared" si="32"/>
-        <v>48.4258396095615</v>
-      </c>
-      <c r="AY116" s="14">
+        <v>13.657140646661128</v>
+      </c>
+      <c r="BB116" s="15">
         <f t="shared" si="33"/>
-        <v>0.47505748656979835</v>
-      </c>
-      <c r="AZ116" s="14">
-        <f t="shared" si="26"/>
-        <v>3.0403679140467096E-2</v>
-      </c>
-      <c r="BA116" s="27">
-        <f t="shared" si="27"/>
-        <v>13.657140646661128</v>
-      </c>
-      <c r="BB116" s="15">
-        <f t="shared" si="28"/>
         <v>25.61537590570698</v>
       </c>
       <c r="BC116" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.53316182815097335</v>
       </c>
       <c r="BD116" s="42"/>
@@ -45955,35 +46066,35 @@
       <c r="AS117" s="29"/>
       <c r="AT117" s="29"/>
       <c r="AU117" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4421.052631578943</v>
       </c>
       <c r="AV117" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6.6418526999999932</v>
       </c>
       <c r="AW117" s="15">
+        <f t="shared" si="36"/>
+        <v>4.1552647894736792</v>
+      </c>
+      <c r="AX117" s="14">
+        <f t="shared" si="37"/>
+        <v>51.622459471712638</v>
+      </c>
+      <c r="AY117" s="14">
+        <f t="shared" si="38"/>
+        <v>0.50641632741750098</v>
+      </c>
+      <c r="AZ117" s="14">
         <f t="shared" si="31"/>
-        <v>4.1552647894736792</v>
-      </c>
-      <c r="AX117" s="14">
+        <v>3.2410644954720062E-2</v>
+      </c>
+      <c r="BA117" s="27">
         <f t="shared" si="32"/>
-        <v>51.622459471712638</v>
-      </c>
-      <c r="AY117" s="14">
+        <v>15.005241585857666</v>
+      </c>
+      <c r="BB117" s="15">
         <f t="shared" si="33"/>
-        <v>0.50641632741750098</v>
-      </c>
-      <c r="AZ117" s="14">
-        <f t="shared" si="26"/>
-        <v>3.2410644954720062E-2</v>
-      </c>
-      <c r="BA117" s="27">
-        <f t="shared" si="27"/>
-        <v>15.005241585857666</v>
-      </c>
-      <c r="BB117" s="15">
-        <f t="shared" si="28"/>
         <v>27.598656661180659</v>
       </c>
       <c r="BC117" s="26">
@@ -46071,39 +46182,39 @@
       <c r="AS118" s="29"/>
       <c r="AT118" s="29"/>
       <c r="AU118" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4552.6315789473638</v>
       </c>
       <c r="AV118" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6.869102699999992</v>
       </c>
       <c r="AW118" s="15">
+        <f t="shared" si="36"/>
+        <v>4.3172384736842053</v>
+      </c>
+      <c r="AX118" s="14">
+        <f t="shared" si="37"/>
+        <v>54.9270133596481</v>
+      </c>
+      <c r="AY118" s="14">
+        <f t="shared" si="38"/>
+        <v>0.53883400105814794</v>
+      </c>
+      <c r="AZ118" s="14">
         <f t="shared" si="31"/>
-        <v>4.3172384736842053</v>
-      </c>
-      <c r="AX118" s="14">
+        <v>3.4485376067721465E-2</v>
+      </c>
+      <c r="BA118" s="27">
         <f t="shared" si="32"/>
-        <v>54.9270133596481</v>
-      </c>
-      <c r="AY118" s="14">
+        <v>16.440957490879981</v>
+      </c>
+      <c r="BB118" s="15">
         <f t="shared" si="33"/>
-        <v>0.53883400105814794</v>
-      </c>
-      <c r="AZ118" s="14">
-        <f t="shared" si="26"/>
-        <v>3.4485376067721465E-2</v>
-      </c>
-      <c r="BA118" s="27">
-        <f t="shared" si="27"/>
-        <v>16.440957490879981</v>
-      </c>
-      <c r="BB118" s="15">
-        <f t="shared" si="28"/>
         <v>29.655554456128019</v>
       </c>
       <c r="BC118" s="26">
-        <f t="shared" ref="BC118:BC129" si="35">BA118/BB118</f>
+        <f t="shared" ref="BC118:BC129" si="40">BA118/BB118</f>
         <v>0.55439723830496868</v>
       </c>
       <c r="BD118" s="42"/>
@@ -46187,39 +46298,39 @@
       <c r="AS119" s="29"/>
       <c r="AT119" s="29"/>
       <c r="AU119" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4684.2105263157846</v>
       </c>
       <c r="AV119" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>7.0963526999999926</v>
       </c>
       <c r="AW119" s="15">
+        <f t="shared" si="36"/>
+        <v>4.4792121578947315</v>
+      </c>
+      <c r="AX119" s="14">
+        <f t="shared" si="37"/>
+        <v>58.339868184332254</v>
+      </c>
+      <c r="AY119" s="14">
+        <f t="shared" si="38"/>
+        <v>0.57231410688829942</v>
+      </c>
+      <c r="AZ119" s="14">
         <f t="shared" si="31"/>
-        <v>4.4792121578947315</v>
-      </c>
-      <c r="AX119" s="14">
+        <v>3.6628102840851162E-2</v>
+      </c>
+      <c r="BA119" s="27">
         <f t="shared" si="32"/>
-        <v>58.339868184332254</v>
-      </c>
-      <c r="AY119" s="14">
+        <v>17.967202564471563</v>
+      </c>
+      <c r="BB119" s="15">
         <f t="shared" si="33"/>
-        <v>0.57231410688829942</v>
-      </c>
-      <c r="AZ119" s="14">
-        <f t="shared" si="26"/>
-        <v>3.6628102840851162E-2</v>
-      </c>
-      <c r="BA119" s="27">
-        <f t="shared" si="27"/>
-        <v>17.967202564471563</v>
-      </c>
-      <c r="BB119" s="15">
-        <f t="shared" si="28"/>
         <v>31.786069290549072</v>
       </c>
       <c r="BC119" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.56525399225168549</v>
       </c>
       <c r="BD119" s="42"/>
@@ -46303,39 +46414,39 @@
       <c r="AS120" s="29"/>
       <c r="AT120" s="29"/>
       <c r="AU120" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4815.7894736842054</v>
       </c>
       <c r="AV120" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>7.3236026999999924</v>
       </c>
       <c r="AW120" s="15">
+        <f t="shared" si="36"/>
+        <v>4.6411858421052576</v>
+      </c>
+      <c r="AX120" s="14">
+        <f t="shared" si="37"/>
+        <v>61.861381593871272</v>
+      </c>
+      <c r="AY120" s="14">
+        <f t="shared" si="38"/>
+        <v>0.60686015343587729</v>
+      </c>
+      <c r="AZ120" s="14">
         <f t="shared" si="31"/>
-        <v>4.6411858421052576</v>
-      </c>
-      <c r="AX120" s="14">
+        <v>3.8839049819896145E-2</v>
+      </c>
+      <c r="BA120" s="27">
         <f t="shared" si="32"/>
-        <v>61.861381593871272</v>
-      </c>
-      <c r="AY120" s="14">
+        <v>19.586900773066635</v>
+      </c>
+      <c r="BB120" s="15">
         <f t="shared" si="33"/>
-        <v>0.60686015343587729</v>
-      </c>
-      <c r="AZ120" s="14">
-        <f t="shared" si="26"/>
-        <v>3.8839049819896145E-2</v>
-      </c>
-      <c r="BA120" s="27">
-        <f t="shared" si="27"/>
-        <v>19.586900773066635</v>
-      </c>
-      <c r="BB120" s="15">
-        <f t="shared" si="28"/>
         <v>33.990201164443803</v>
       </c>
       <c r="BC120" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.57625139310902174</v>
       </c>
       <c r="BD120" s="42"/>
@@ -46419,39 +46530,39 @@
       <c r="AS121" s="29"/>
       <c r="AT121" s="29"/>
       <c r="AU121" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4947.3684210526262</v>
       </c>
       <c r="AV121" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>7.5508526999999921</v>
       </c>
       <c r="AW121" s="15">
+        <f t="shared" si="36"/>
+        <v>4.8031595263157838</v>
+      </c>
+      <c r="AX121" s="14">
+        <f t="shared" si="37"/>
+        <v>65.491902458068864</v>
+      </c>
+      <c r="AY121" s="14">
+        <f t="shared" si="38"/>
+        <v>0.6424755631136555</v>
+      </c>
+      <c r="AZ121" s="14">
         <f t="shared" si="31"/>
-        <v>4.8031595263157838</v>
-      </c>
-      <c r="AX121" s="14">
+        <v>4.1118436039273953E-2</v>
+      </c>
+      <c r="BA121" s="27">
         <f t="shared" si="32"/>
-        <v>65.491902458068864</v>
-      </c>
-      <c r="AY121" s="14">
+        <v>21.302985603741043</v>
+      </c>
+      <c r="BB121" s="15">
         <f t="shared" si="33"/>
-        <v>0.6424755631136555</v>
-      </c>
-      <c r="AZ121" s="14">
-        <f t="shared" si="26"/>
-        <v>4.1118436039273953E-2</v>
-      </c>
-      <c r="BA121" s="27">
-        <f t="shared" si="27"/>
-        <v>21.302985603741043</v>
-      </c>
-      <c r="BB121" s="15">
-        <f t="shared" si="28"/>
         <v>36.267950077812216</v>
       </c>
       <c r="BC121" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.58737771387784199</v>
       </c>
       <c r="BD121" s="42"/>
@@ -46517,39 +46628,39 @@
       <c r="AS122" s="29"/>
       <c r="AT122" s="29"/>
       <c r="AU122" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5078.947368421047</v>
       </c>
       <c r="AV122" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>7.77810269999999</v>
       </c>
       <c r="AW122" s="15">
+        <f t="shared" si="36"/>
+        <v>4.9651332105263091</v>
+      </c>
+      <c r="AX122" s="14">
+        <f t="shared" si="37"/>
+        <v>69.231771315218936</v>
+      </c>
+      <c r="AY122" s="14">
+        <f t="shared" si="38"/>
+        <v>0.67916367660229771</v>
+      </c>
+      <c r="AZ122" s="14">
         <f t="shared" si="31"/>
-        <v>4.9651332105263091</v>
-      </c>
-      <c r="AX122" s="14">
+        <v>4.3466475302547054E-2</v>
+      </c>
+      <c r="BA122" s="27">
         <f t="shared" si="32"/>
-        <v>69.231771315218936</v>
-      </c>
-      <c r="AY122" s="14">
+        <v>23.118399833704352</v>
+      </c>
+      <c r="BB122" s="15">
         <f t="shared" si="33"/>
-        <v>0.67916367660229771</v>
-      </c>
-      <c r="AZ122" s="14">
-        <f t="shared" si="26"/>
-        <v>4.3466475302547054E-2</v>
-      </c>
-      <c r="BA122" s="27">
-        <f t="shared" si="27"/>
-        <v>23.118399833704352</v>
-      </c>
-      <c r="BB122" s="15">
-        <f t="shared" si="28"/>
         <v>38.619316030654304</v>
       </c>
       <c r="BC122" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.59862271551764379</v>
       </c>
       <c r="BD122" s="42"/>
@@ -46615,39 +46726,39 @@
       <c r="AS123" s="29"/>
       <c r="AT123" s="29"/>
       <c r="AU123" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5210.5263157894678</v>
       </c>
       <c r="AV123" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>8.0053526999999889</v>
       </c>
       <c r="AW123" s="15">
+        <f t="shared" si="36"/>
+        <v>5.1271068947368352</v>
+      </c>
+      <c r="AX123" s="14">
+        <f t="shared" si="37"/>
+        <v>73.081320785002077</v>
+      </c>
+      <c r="AY123" s="14">
+        <f t="shared" si="38"/>
+        <v>0.71692775690087052</v>
+      </c>
+      <c r="AZ123" s="14">
         <f t="shared" si="31"/>
-        <v>5.1271068947368352</v>
-      </c>
-      <c r="AX123" s="14">
+        <v>4.5883376441655715E-2</v>
+      </c>
+      <c r="BA123" s="27">
         <f t="shared" si="32"/>
-        <v>73.081320785002077</v>
-      </c>
-      <c r="AY123" s="14">
+        <v>25.036095311370943</v>
+      </c>
+      <c r="BB123" s="15">
         <f t="shared" si="33"/>
-        <v>0.71692775690087052</v>
-      </c>
-      <c r="AZ123" s="14">
-        <f t="shared" si="26"/>
-        <v>4.5883376441655715E-2</v>
-      </c>
-      <c r="BA123" s="27">
-        <f t="shared" si="27"/>
-        <v>25.036095311370943</v>
-      </c>
-      <c r="BB123" s="15">
-        <f t="shared" si="28"/>
         <v>41.04429902297008</v>
       </c>
       <c r="BC123" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.60997741238947001</v>
       </c>
       <c r="BD123" s="42"/>
@@ -46713,39 +46824,39 @@
       <c r="AS124" s="29"/>
       <c r="AT124" s="29"/>
       <c r="AU124" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5342.1052631578887</v>
       </c>
       <c r="AV124" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>8.2326026999999886</v>
       </c>
       <c r="AW124" s="15">
+        <f t="shared" si="36"/>
+        <v>5.2890805789473614</v>
+      </c>
+      <c r="AX124" s="14">
+        <f t="shared" si="37"/>
+        <v>77.040875950854982</v>
+      </c>
+      <c r="AY124" s="14">
+        <f t="shared" si="38"/>
+        <v>0.75577099307788742</v>
+      </c>
+      <c r="AZ124" s="14">
         <f t="shared" si="31"/>
-        <v>5.2890805789473614</v>
-      </c>
-      <c r="AX124" s="14">
+        <v>4.8369343556984794E-2</v>
+      </c>
+      <c r="BA124" s="27">
         <f t="shared" si="32"/>
-        <v>77.040875950854982</v>
-      </c>
-      <c r="AY124" s="14">
+        <v>27.059032748140808</v>
+      </c>
+      <c r="BB124" s="15">
         <f t="shared" si="33"/>
-        <v>0.75577099307788742</v>
-      </c>
-      <c r="AZ124" s="14">
-        <f t="shared" si="26"/>
-        <v>4.8369343556984794E-2</v>
-      </c>
-      <c r="BA124" s="27">
-        <f t="shared" si="27"/>
-        <v>27.059032748140808</v>
-      </c>
-      <c r="BB124" s="15">
-        <f t="shared" si="28"/>
         <v>43.542899054759552</v>
       </c>
       <c r="BC124" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.62143388096670749</v>
       </c>
       <c r="BD124" s="42"/>
@@ -46815,39 +46926,39 @@
       <c r="AS125" s="29"/>
       <c r="AT125" s="29"/>
       <c r="AU125" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5473.6842105263095</v>
       </c>
       <c r="AV125" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>8.4598526999999883</v>
       </c>
       <c r="AW125" s="15">
+        <f t="shared" si="36"/>
+        <v>5.4510542631578875</v>
+      </c>
+      <c r="AX125" s="14">
+        <f t="shared" si="37"/>
+        <v>81.110754714779773</v>
+      </c>
+      <c r="AY125" s="14">
+        <f t="shared" si="38"/>
+        <v>0.79569650375198964</v>
+      </c>
+      <c r="AZ125" s="14">
         <f t="shared" si="31"/>
-        <v>5.4510542631578875</v>
-      </c>
-      <c r="AX125" s="14">
+        <v>5.0924576240127334E-2</v>
+      </c>
+      <c r="BA125" s="27">
         <f t="shared" si="32"/>
-        <v>81.110754714779773</v>
-      </c>
-      <c r="AY125" s="14">
+        <v>29.190181520109334</v>
+      </c>
+      <c r="BB125" s="15">
         <f t="shared" si="33"/>
-        <v>0.79569650375198964</v>
-      </c>
-      <c r="AZ125" s="14">
-        <f t="shared" si="26"/>
-        <v>5.0924576240127334E-2</v>
-      </c>
-      <c r="BA125" s="27">
-        <f t="shared" si="27"/>
-        <v>29.190181520109334</v>
-      </c>
-      <c r="BB125" s="15">
-        <f t="shared" si="28"/>
         <v>46.115116126022698</v>
       </c>
       <c r="BC125" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.63298510276627828</v>
       </c>
       <c r="BD125" s="42"/>
@@ -46907,39 +47018,39 @@
       <c r="AS126" s="29"/>
       <c r="AT126" s="29"/>
       <c r="AU126" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5605.2631578947303</v>
       </c>
       <c r="AV126" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>8.6871026999999881</v>
       </c>
       <c r="AW126" s="15">
+        <f t="shared" si="36"/>
+        <v>5.6130279473684137</v>
+      </c>
+      <c r="AX126" s="14">
+        <f t="shared" si="37"/>
+        <v>85.291268127205981</v>
+      </c>
+      <c r="AY126" s="14">
+        <f t="shared" si="38"/>
+        <v>0.83670734032789074</v>
+      </c>
+      <c r="AZ126" s="14">
         <f t="shared" si="31"/>
-        <v>5.6130279473684137</v>
-      </c>
-      <c r="AX126" s="14">
+        <v>5.3549269780985009E-2</v>
+      </c>
+      <c r="BA126" s="27">
         <f t="shared" si="32"/>
-        <v>85.291268127205981</v>
-      </c>
-      <c r="AY126" s="14">
+        <v>31.432519478999748</v>
+      </c>
+      <c r="BB126" s="15">
         <f t="shared" si="33"/>
-        <v>0.83670734032789074</v>
-      </c>
-      <c r="AZ126" s="14">
-        <f t="shared" si="26"/>
-        <v>5.3549269780985009E-2</v>
-      </c>
-      <c r="BA126" s="27">
-        <f t="shared" si="27"/>
-        <v>31.432519478999748</v>
-      </c>
-      <c r="BB126" s="15">
-        <f t="shared" si="28"/>
         <v>48.760950236759541</v>
       </c>
       <c r="BC126" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.64462483455262187</v>
       </c>
       <c r="BD126" s="42"/>
@@ -46999,39 +47110,39 @@
       <c r="AS127" s="29"/>
       <c r="AT127" s="29"/>
       <c r="AU127" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5736.8421052631511</v>
       </c>
       <c r="AV127" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>8.9143526999999878</v>
       </c>
       <c r="AW127" s="15">
+        <f t="shared" si="36"/>
+        <v>5.7750016315789399</v>
+      </c>
+      <c r="AX127" s="14">
+        <f t="shared" si="37"/>
+        <v>89.58272069420272</v>
+      </c>
+      <c r="AY127" s="14">
+        <f t="shared" si="38"/>
+        <v>0.87880649001012878</v>
+      </c>
+      <c r="AZ127" s="14">
         <f t="shared" si="31"/>
-        <v>5.7750016315789399</v>
-      </c>
-      <c r="AX127" s="14">
+        <v>5.6243615360648244E-2</v>
+      </c>
+      <c r="BA127" s="27">
         <f t="shared" si="32"/>
-        <v>89.58272069420272</v>
-      </c>
-      <c r="AY127" s="14">
+        <v>33.789032771674279</v>
+      </c>
+      <c r="BB127" s="15">
         <f t="shared" si="33"/>
-        <v>0.87880649001012878</v>
-      </c>
-      <c r="AZ127" s="14">
-        <f t="shared" si="26"/>
-        <v>5.6243615360648244E-2</v>
-      </c>
-      <c r="BA127" s="27">
-        <f t="shared" si="27"/>
-        <v>33.789032771674279</v>
-      </c>
-      <c r="BB127" s="15">
-        <f t="shared" si="28"/>
         <v>51.480401386970058</v>
       </c>
       <c r="BC127" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.65634750043395051</v>
       </c>
       <c r="BD127" s="42"/>
@@ -47097,35 +47208,35 @@
         <v>5868.4210526315719</v>
       </c>
       <c r="AV128" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>9.1416026999999875</v>
       </c>
       <c r="AW128" s="15">
+        <f t="shared" si="36"/>
+        <v>5.936975315789466</v>
+      </c>
+      <c r="AX128" s="14">
+        <f t="shared" si="37"/>
+        <v>93.98541066409976</v>
+      </c>
+      <c r="AY128" s="14">
+        <f t="shared" si="38"/>
+        <v>0.92199687861481872</v>
+      </c>
+      <c r="AZ128" s="14">
         <f t="shared" si="31"/>
-        <v>5.936975315789466</v>
-      </c>
-      <c r="AX128" s="14">
+        <v>5.9007800231348398E-2</v>
+      </c>
+      <c r="BA128" s="27">
         <f t="shared" si="32"/>
-        <v>93.98541066409976</v>
-      </c>
-      <c r="AY128" s="14">
+        <v>36.262715667646724</v>
+      </c>
+      <c r="BB128" s="15">
         <f t="shared" si="33"/>
-        <v>0.92199687861481872</v>
-      </c>
-      <c r="AZ128" s="14">
-        <f t="shared" si="26"/>
-        <v>5.9007800231348398E-2</v>
-      </c>
-      <c r="BA128" s="27">
-        <f t="shared" si="27"/>
-        <v>36.262715667646724</v>
-      </c>
-      <c r="BB128" s="15">
-        <f t="shared" si="28"/>
         <v>54.273469576654264</v>
       </c>
       <c r="BC128" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.66814810165085026</v>
       </c>
       <c r="BD128" s="42"/>
@@ -47192,31 +47303,31 @@
         <v>9.3688526999999997</v>
       </c>
       <c r="AW129" s="15">
+        <f t="shared" si="36"/>
+        <v>6.0989490000000011</v>
+      </c>
+      <c r="AX129" s="14">
+        <f t="shared" si="37"/>
+        <v>98.499630295323357</v>
+      </c>
+      <c r="AY129" s="14">
+        <f t="shared" si="38"/>
+        <v>0.96628137319712226</v>
+      </c>
+      <c r="AZ129" s="14">
         <f t="shared" si="31"/>
-        <v>6.0989490000000011</v>
-      </c>
-      <c r="AX129" s="14">
+        <v>6.1842007884615822E-2</v>
+      </c>
+      <c r="BA129" s="27">
         <f t="shared" si="32"/>
-        <v>98.499630295323357</v>
-      </c>
-      <c r="AY129" s="14">
+        <v>38.856570394061812</v>
+      </c>
+      <c r="BB129" s="15">
         <f t="shared" si="33"/>
-        <v>0.96628137319712226</v>
-      </c>
-      <c r="AZ129" s="14">
-        <f t="shared" si="26"/>
-        <v>6.1842007884615822E-2</v>
-      </c>
-      <c r="BA129" s="27">
-        <f t="shared" si="27"/>
-        <v>38.856570394061812</v>
-      </c>
-      <c r="BB129" s="15">
-        <f t="shared" si="28"/>
         <v>57.140154805812308</v>
       </c>
       <c r="BC129" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.68002214075397138</v>
       </c>
       <c r="BD129" s="42"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A2652-1C53-42B1-B3EA-2817980A1A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6176D-D69E-47E4-B0E4-AE152FC59A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3017,7 +3017,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vægt som funktion af omdrejningstal (2:1)</a:t>
+              <a:t> vægt som funktion af omdrejningstal (3:1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -33036,8 +33036,8 @@
   </sheetPr>
   <dimension ref="A1:CA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BU5" sqref="BU5"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BF22" sqref="BF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6176D-D69E-47E4-B0E4-AE152FC59A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618C49F-A1B4-42F1-9F4B-662A38791FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10183,7 +10183,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Løfteevne og elektrisk effekt som funktion af omdrejningstallet (2:1)</a:t>
+              <a:t>Løfteevne og elektrisk effekt som funktion af omdrejningstallet (3:1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11858,7 +11858,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Løfteevne som funktion af elektrisk effekt (2:1)</a:t>
+              <a:t>Løfteevne som funktion af elektrisk effekt (3:1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -14551,7 +14551,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> som funktion af omdrejningstal (2:1)</a:t>
+              <a:t> som funktion af omdrejningstal (3:1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -15105,7 +15105,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> som funktion af omdrejningstal (2:1)</a:t>
+              <a:t> som funktion af omdrejningstal (3:1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -15671,7 +15671,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Vægt som funktion af omdrejningstal (2:1)</a:t>
+              <a:t>Vægt som funktion af omdrejningstal (3:1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -16231,7 +16231,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> som funktion af omdrejningstal (2:1)</a:t>
+              <a:t> som funktion af omdrejningstal (3:1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -33036,7 +33036,7 @@
   </sheetPr>
   <dimension ref="A1:CA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BF22" sqref="BF22"/>
     </sheetView>
   </sheetViews>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618C49F-A1B4-42F1-9F4B-662A38791FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED18DEE-836E-40E0-BD53-10BDBBAEF06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
   <si>
     <t>Volt</t>
   </si>
@@ -253,22 +253,6 @@
     <t>Interpolering for moment</t>
   </si>
   <si>
-    <r>
-      <t>1E-06x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,1157</t>
-    </r>
-  </si>
-  <si>
     <t>M = Fstang*64/1000</t>
   </si>
   <si>
@@ -299,7 +283,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,14 +392,6 @@
     </font>
     <font>
       <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -620,20 +596,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="20 % - Farve1" xfId="4" builtinId="30"/>
-    <cellStyle name="20 % - Farve3" xfId="8" builtinId="38"/>
-    <cellStyle name="40 % - Farve4" xfId="5" builtinId="43"/>
-    <cellStyle name="40 % - Farve5" xfId="6" builtinId="47"/>
-    <cellStyle name="60 % - Farve2" xfId="7" builtinId="36"/>
-    <cellStyle name="60 % - Farve3" xfId="13" builtinId="40"/>
-    <cellStyle name="60 % - Farve4" xfId="12" builtinId="44"/>
-    <cellStyle name="60 % - Farve5" xfId="11" builtinId="48"/>
-    <cellStyle name="Farve1" xfId="9" builtinId="29"/>
-    <cellStyle name="Farve3" xfId="10" builtinId="37"/>
-    <cellStyle name="God" xfId="2" builtinId="26"/>
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
+    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="11" builtinId="48"/>
+    <cellStyle name="Accent1" xfId="9" builtinId="29"/>
+    <cellStyle name="Accent3" xfId="10" builtinId="37"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,7 +627,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1211,7 +1187,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1767,7 +1743,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2372,7 +2348,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2981,7 +2957,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3547,7 +3523,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4213,7 +4189,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4999,7 +4975,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5572,7 +5548,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6178,7 +6154,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6751,7 +6727,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7870,7 +7846,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8465,7 +8441,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9109,7 +9085,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10151,7 +10127,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11193,7 +11169,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11826,7 +11802,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12459,7 +12435,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12945,7 +12921,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13389,7 +13365,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13949,7 +13925,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14515,7 +14491,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15069,7 +15045,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15639,7 +15615,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16195,7 +16171,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16755,7 +16731,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -33036,53 +33012,53 @@
   </sheetPr>
   <dimension ref="A1:CA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF22" sqref="BF22"/>
+    <sheetView tabSelected="1" topLeftCell="K32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE138" sqref="AE138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="11.7109375" customWidth="1"/>
-    <col min="51" max="51" width="13.7109375" customWidth="1"/>
-    <col min="52" max="52" width="18.28515625" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" customWidth="1"/>
-    <col min="54" max="54" width="13.85546875" customWidth="1"/>
-    <col min="55" max="55" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.1328125" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" customWidth="1"/>
+    <col min="18" max="18" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="13.73046875" customWidth="1"/>
+    <col min="50" max="50" width="11.73046875" customWidth="1"/>
+    <col min="51" max="51" width="13.73046875" customWidth="1"/>
+    <col min="52" max="52" width="18.265625" customWidth="1"/>
+    <col min="53" max="53" width="13.73046875" customWidth="1"/>
+    <col min="54" max="54" width="13.86328125" customWidth="1"/>
+    <col min="55" max="55" width="10.265625" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="58" max="58" width="11.28515625" customWidth="1"/>
-    <col min="59" max="60" width="10.7109375" customWidth="1"/>
-    <col min="62" max="62" width="12.7109375" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" customWidth="1"/>
-    <col min="64" max="64" width="11.28515625" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" customWidth="1"/>
-    <col min="67" max="67" width="10.7109375" customWidth="1"/>
-    <col min="69" max="69" width="11.7109375" customWidth="1"/>
-    <col min="71" max="71" width="11.28515625" customWidth="1"/>
-    <col min="72" max="72" width="12.28515625" customWidth="1"/>
-    <col min="73" max="73" width="10.85546875" customWidth="1"/>
-    <col min="74" max="74" width="9.5703125" customWidth="1"/>
-    <col min="75" max="75" width="11.5703125" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" customWidth="1"/>
-    <col min="82" max="82" width="14.7109375" customWidth="1"/>
-    <col min="83" max="83" width="13.7109375" customWidth="1"/>
-    <col min="84" max="84" width="10.7109375" customWidth="1"/>
-    <col min="85" max="85" width="10.85546875" customWidth="1"/>
-    <col min="86" max="86" width="9.28515625" customWidth="1"/>
+    <col min="58" max="58" width="11.265625" customWidth="1"/>
+    <col min="59" max="60" width="10.73046875" customWidth="1"/>
+    <col min="62" max="62" width="12.73046875" customWidth="1"/>
+    <col min="63" max="63" width="10.59765625" customWidth="1"/>
+    <col min="64" max="64" width="11.265625" customWidth="1"/>
+    <col min="65" max="65" width="12.3984375" customWidth="1"/>
+    <col min="67" max="67" width="10.73046875" customWidth="1"/>
+    <col min="69" max="69" width="11.73046875" customWidth="1"/>
+    <col min="71" max="71" width="11.265625" customWidth="1"/>
+    <col min="72" max="72" width="12.265625" customWidth="1"/>
+    <col min="73" max="73" width="10.86328125" customWidth="1"/>
+    <col min="74" max="74" width="9.59765625" customWidth="1"/>
+    <col min="75" max="75" width="11.59765625" customWidth="1"/>
+    <col min="76" max="76" width="12.1328125" customWidth="1"/>
+    <col min="82" max="82" width="14.73046875" customWidth="1"/>
+    <col min="83" max="83" width="13.73046875" customWidth="1"/>
+    <col min="84" max="84" width="10.73046875" customWidth="1"/>
+    <col min="85" max="85" width="10.86328125" customWidth="1"/>
+    <col min="86" max="86" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33161,7 +33137,7 @@
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
     </row>
-    <row r="2" spans="1:79" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:79" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -33266,7 +33242,7 @@
       <c r="BZ2" s="5"/>
       <c r="CA2" s="5"/>
     </row>
-    <row r="3" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" ht="43.15" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -33311,7 +33287,7 @@
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA3" s="17">
         <v>0.5</v>
@@ -33361,7 +33337,7 @@
         <v>47</v>
       </c>
       <c r="BJ3" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BK3" s="22" t="s">
         <v>48</v>
@@ -33390,7 +33366,7 @@
         <v>56</v>
       </c>
       <c r="BU3" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BV3" s="25" t="s">
         <v>52</v>
@@ -33407,7 +33383,7 @@
       <c r="BZ3" s="5"/>
       <c r="CA3" s="5"/>
     </row>
-    <row r="4" spans="1:79" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>5.9</v>
       </c>
@@ -33558,7 +33534,7 @@
       <c r="BZ4" s="5"/>
       <c r="CA4" s="5"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>6.02</v>
       </c>
@@ -33728,7 +33704,7 @@
       <c r="BZ5" s="5"/>
       <c r="CA5" s="5"/>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -33876,7 +33852,7 @@
       <c r="BZ6" s="5"/>
       <c r="CA6" s="5"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -34024,7 +34000,7 @@
       <c r="BZ7" s="5"/>
       <c r="CA7" s="5"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -34172,7 +34148,7 @@
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -34320,7 +34296,7 @@
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -34468,7 +34444,7 @@
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -34616,7 +34592,7 @@
       <c r="BZ11" s="5"/>
       <c r="CA11" s="5"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -34764,7 +34740,7 @@
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -34912,7 +34888,7 @@
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -35048,7 +35024,7 @@
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
     </row>
-    <row r="15" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -35062,14 +35038,14 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="U15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA15" s="18">
         <v>0.75</v>
@@ -35190,7 +35166,7 @@
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -35338,7 +35314,7 @@
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -35486,7 +35462,7 @@
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -35634,7 +35610,7 @@
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -35782,7 +35758,7 @@
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -35930,7 +35906,7 @@
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.45">
       <c r="U21" s="11">
         <v>4.84</v>
       </c>
@@ -36066,7 +36042,7 @@
       <c r="BZ21" s="5"/>
       <c r="CA21" s="5"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.45">
       <c r="U22" s="11">
         <v>4.84</v>
       </c>
@@ -36202,7 +36178,7 @@
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -36219,7 +36195,7 @@
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U23" s="11">
         <v>4.0999999999999996</v>
@@ -36356,7 +36332,7 @@
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -36528,7 +36504,7 @@
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -36700,7 +36676,7 @@
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -36866,7 +36842,7 @@
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -37026,7 +37002,7 @@
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -37162,7 +37138,7 @@
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -37298,7 +37274,7 @@
       <c r="BZ29" s="5"/>
       <c r="CA29" s="5"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -37434,7 +37410,7 @@
       <c r="BZ30" s="5"/>
       <c r="CA30" s="5"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -37570,7 +37546,7 @@
       <c r="BZ31" s="5"/>
       <c r="CA31" s="5"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -37706,7 +37682,7 @@
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -37842,7 +37818,7 @@
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -37978,7 +37954,7 @@
       <c r="BZ34" s="5"/>
       <c r="CA34" s="5"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -38114,7 +38090,7 @@
       <c r="BZ35" s="5"/>
       <c r="CA35" s="5"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -38248,7 +38224,7 @@
       <c r="BZ36" s="5"/>
       <c r="CA36" s="5"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -38320,7 +38296,7 @@
       <c r="BY37" s="5"/>
       <c r="BZ37" s="5"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -38392,7 +38368,7 @@
       <c r="BY38" s="5"/>
       <c r="BZ38" s="5"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -38464,7 +38440,7 @@
       <c r="BY39" s="33"/>
       <c r="BZ39" s="33"/>
     </row>
-    <row r="40" spans="1:79" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:79" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -38540,7 +38516,7 @@
       <c r="BY40" s="33"/>
       <c r="BZ40" s="33"/>
     </row>
-    <row r="41" spans="1:79" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:79" ht="36" x14ac:dyDescent="1.05">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -38554,7 +38530,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="U41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -38582,7 +38558,7 @@
       <c r="AS41" s="7"/>
       <c r="AT41" s="7"/>
       <c r="AU41" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AV41" s="13"/>
       <c r="AW41" s="13"/>
@@ -38618,7 +38594,7 @@
       <c r="BY41" s="33"/>
       <c r="BZ41" s="33"/>
     </row>
-    <row r="42" spans="1:79" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:79" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -38720,7 +38696,7 @@
       <c r="BY42" s="33"/>
       <c r="BZ42" s="33"/>
     </row>
-    <row r="43" spans="1:79" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:79" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U43" s="11">
         <v>4.88</v>
       </c>
@@ -38812,7 +38788,7 @@
       <c r="BY43" s="33"/>
       <c r="BZ43" s="33"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:79" x14ac:dyDescent="0.45">
       <c r="U44" s="11">
         <v>4.82</v>
       </c>
@@ -38913,7 +38889,7 @@
       <c r="BY44" s="33"/>
       <c r="BZ44" s="33"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:79" x14ac:dyDescent="0.45">
       <c r="U45" s="11">
         <v>4.8</v>
       </c>
@@ -39015,7 +38991,7 @@
       <c r="BY45" s="33"/>
       <c r="BZ45" s="33"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -39023,7 +38999,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
@@ -39032,7 +39008,7 @@
         <v>7</v>
       </c>
       <c r="M46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U46" s="11">
         <v>4.5999999999999996</v>
@@ -39135,7 +39111,7 @@
       <c r="BY46" s="33"/>
       <c r="BZ46" s="33"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -39273,7 +39249,7 @@
       <c r="BY47" s="33"/>
       <c r="BZ47" s="33"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -39411,7 +39387,7 @@
       <c r="BY48" s="33"/>
       <c r="BZ48" s="33"/>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>4.84</v>
       </c>
@@ -39549,7 +39525,7 @@
       <c r="BY49" s="33"/>
       <c r="BZ49" s="33"/>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>4.84</v>
       </c>
@@ -39687,7 +39663,7 @@
       <c r="BY50" s="33"/>
       <c r="BZ50" s="33"/>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -39807,7 +39783,7 @@
       <c r="BY51" s="33"/>
       <c r="BZ51" s="33"/>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -39909,7 +39885,7 @@
       <c r="BY52" s="33"/>
       <c r="BZ52" s="33"/>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -40011,7 +39987,7 @@
       <c r="BY53" s="33"/>
       <c r="BZ53" s="33"/>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -40113,7 +40089,7 @@
       <c r="BY54" s="33"/>
       <c r="BZ54" s="33"/>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -40215,7 +40191,7 @@
       <c r="BY55" s="33"/>
       <c r="BZ55" s="33"/>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -40317,7 +40293,7 @@
       <c r="BY56" s="33"/>
       <c r="BZ56" s="33"/>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -40419,7 +40395,7 @@
       <c r="BY57" s="33"/>
       <c r="BZ57" s="33"/>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -40521,7 +40497,7 @@
       <c r="BY58" s="33"/>
       <c r="BZ58" s="33"/>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -40623,7 +40599,7 @@
       <c r="BY59" s="33"/>
       <c r="BZ59" s="33"/>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -40725,7 +40701,7 @@
       <c r="BY60" s="33"/>
       <c r="BZ60" s="33"/>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -40827,7 +40803,7 @@
       <c r="BY61" s="33"/>
       <c r="BZ61" s="33"/>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -40929,7 +40905,7 @@
       <c r="BY62" s="33"/>
       <c r="BZ62" s="33"/>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -41031,7 +41007,7 @@
       <c r="BY63" s="33"/>
       <c r="BZ63" s="33"/>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -41133,7 +41109,7 @@
       <c r="BY64" s="33"/>
       <c r="BZ64" s="33"/>
     </row>
-    <row r="65" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -41235,7 +41211,7 @@
       <c r="BY65" s="33"/>
       <c r="BZ65" s="33"/>
     </row>
-    <row r="66" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -41325,7 +41301,7 @@
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
     </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
@@ -41425,7 +41401,7 @@
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
     </row>
-    <row r="68" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.45">
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -41515,7 +41491,7 @@
       <c r="BY68" s="33"/>
       <c r="BZ68" s="33"/>
     </row>
-    <row r="69" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -41523,7 +41499,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K69" t="s">
         <v>9</v>
@@ -41532,7 +41508,7 @@
         <v>6</v>
       </c>
       <c r="M69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -41623,7 +41599,7 @@
       <c r="BY69" s="33"/>
       <c r="BZ69" s="33"/>
     </row>
-    <row r="70" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -41749,7 +41725,7 @@
       <c r="BY70" s="33"/>
       <c r="BZ70" s="33"/>
     </row>
-    <row r="71" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>4.88</v>
       </c>
@@ -41875,7 +41851,7 @@
       <c r="BY71" s="33"/>
       <c r="BZ71" s="33"/>
     </row>
-    <row r="72" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>4.82</v>
       </c>
@@ -42001,7 +41977,7 @@
       <c r="BY72" s="33"/>
       <c r="BZ72" s="33"/>
     </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>4.8</v>
       </c>
@@ -42127,7 +42103,7 @@
       <c r="BY73" s="33"/>
       <c r="BZ73" s="33"/>
     </row>
-    <row r="74" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -42229,7 +42205,7 @@
       <c r="BY74" s="33"/>
       <c r="BZ74" s="33"/>
     </row>
-    <row r="75" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -42331,7 +42307,7 @@
       <c r="BY75" s="33"/>
       <c r="BZ75" s="33"/>
     </row>
-    <row r="76" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -42433,7 +42409,7 @@
       <c r="BY76" s="33"/>
       <c r="BZ76" s="33"/>
     </row>
-    <row r="77" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -42535,7 +42511,7 @@
       <c r="BY77" s="33"/>
       <c r="BZ77" s="33"/>
     </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -42637,7 +42613,7 @@
       <c r="BY78" s="33"/>
       <c r="BZ78" s="33"/>
     </row>
-    <row r="79" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -42739,7 +42715,7 @@
       <c r="BY79" s="33"/>
       <c r="BZ79" s="33"/>
     </row>
-    <row r="80" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -42841,7 +42817,7 @@
       <c r="BY80" s="33"/>
       <c r="BZ80" s="33"/>
     </row>
-    <row r="81" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -42943,7 +42919,7 @@
       <c r="BY81" s="33"/>
       <c r="BZ81" s="33"/>
     </row>
-    <row r="82" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -43044,7 +43020,7 @@
       <c r="BY82" s="33"/>
       <c r="BZ82" s="33"/>
     </row>
-    <row r="83" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -43116,7 +43092,7 @@
       <c r="BY83" s="33"/>
       <c r="BZ83" s="33"/>
     </row>
-    <row r="84" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -43188,7 +43164,7 @@
       <c r="BY84" s="33"/>
       <c r="BZ84" s="33"/>
     </row>
-    <row r="85" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -43260,7 +43236,7 @@
       <c r="BY85" s="33"/>
       <c r="BZ85" s="33"/>
     </row>
-    <row r="86" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -43327,7 +43303,7 @@
       <c r="BQ86" s="38"/>
       <c r="BR86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:78" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -43396,7 +43372,7 @@
       <c r="BQ87" s="38"/>
       <c r="BR87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:78" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -43465,7 +43441,7 @@
       <c r="BQ88" s="38"/>
       <c r="BR88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:78" ht="28.5" x14ac:dyDescent="0.45">
       <c r="T89" s="29"/>
       <c r="U89" s="11" t="s">
         <v>1</v>
@@ -43519,7 +43495,7 @@
         <v>35</v>
       </c>
       <c r="AZ89" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BA89" s="23" t="s">
         <v>49</v>
@@ -43546,7 +43522,7 @@
       <c r="BQ89" s="38"/>
       <c r="BR89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:78" ht="42.75" x14ac:dyDescent="0.45">
       <c r="T90" s="29"/>
       <c r="U90" s="15">
         <v>35.5</v>
@@ -43629,7 +43605,7 @@
       <c r="BQ90" s="38"/>
       <c r="BR90" s="38"/>
     </row>
-    <row r="91" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.45">
       <c r="T91" s="29"/>
       <c r="U91" s="15">
         <v>31.8</v>
@@ -43720,7 +43696,7 @@
       <c r="BQ91" s="38"/>
       <c r="BR91" s="38"/>
     </row>
-    <row r="92" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -43728,7 +43704,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T92" s="29"/>
       <c r="U92" s="15">
@@ -43821,7 +43797,7 @@
       <c r="BQ92" s="38"/>
       <c r="BR92" s="38"/>
     </row>
-    <row r="93" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -43931,7 +43907,7 @@
       <c r="BQ93" s="38"/>
       <c r="BR93" s="38"/>
     </row>
-    <row r="94" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>3.95</v>
       </c>
@@ -44041,7 +44017,7 @@
       <c r="BQ94" s="38"/>
       <c r="BR94" s="38"/>
     </row>
-    <row r="95" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>3.88</v>
       </c>
@@ -44151,7 +44127,7 @@
       <c r="BQ95" s="38"/>
       <c r="BR95" s="38"/>
     </row>
-    <row r="96" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>3.06</v>
       </c>
@@ -44261,7 +44237,7 @@
       <c r="BQ96" s="38"/>
       <c r="BR96" s="38"/>
     </row>
-    <row r="97" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -44359,7 +44335,7 @@
       <c r="BQ97" s="38"/>
       <c r="BR97" s="38"/>
     </row>
-    <row r="98" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -44457,7 +44433,7 @@
       <c r="BQ98" s="38"/>
       <c r="BR98" s="38"/>
     </row>
-    <row r="99" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -44549,7 +44525,7 @@
       <c r="BQ99" s="38"/>
       <c r="BR99" s="38"/>
     </row>
-    <row r="100" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -44635,7 +44611,7 @@
       <c r="BQ100" s="38"/>
       <c r="BR100" s="38"/>
     </row>
-    <row r="101" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -44726,7 +44702,7 @@
       <c r="BQ101" s="38"/>
       <c r="BR101" s="38"/>
     </row>
-    <row r="102" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -44816,7 +44792,7 @@
       <c r="BQ102" s="38"/>
       <c r="BR102" s="38"/>
     </row>
-    <row r="103" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -44906,7 +44882,7 @@
       <c r="BQ103" s="38"/>
       <c r="BR103" s="38"/>
     </row>
-    <row r="104" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -44998,7 +44974,7 @@
       <c r="BQ104" s="38"/>
       <c r="BR104" s="38"/>
     </row>
-    <row r="105" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -45088,7 +45064,7 @@
       <c r="BQ105" s="38"/>
       <c r="BR105" s="38"/>
     </row>
-    <row r="106" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -45174,7 +45150,7 @@
       <c r="BQ106" s="38"/>
       <c r="BR106" s="38"/>
     </row>
-    <row r="107" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -45260,7 +45236,7 @@
       <c r="BQ107" s="38"/>
       <c r="BR107" s="38"/>
     </row>
-    <row r="108" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -45346,7 +45322,7 @@
       <c r="BQ108" s="38"/>
       <c r="BR108" s="38"/>
     </row>
-    <row r="109" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -45432,7 +45408,7 @@
       <c r="BQ109" s="38"/>
       <c r="BR109" s="38"/>
     </row>
-    <row r="110" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -45518,7 +45494,7 @@
       <c r="BQ110" s="38"/>
       <c r="BR110" s="38"/>
     </row>
-    <row r="111" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -45604,7 +45580,7 @@
       <c r="BQ111" s="38"/>
       <c r="BR111" s="38"/>
     </row>
-    <row r="112" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:70" x14ac:dyDescent="0.45">
       <c r="T112" s="42"/>
       <c r="U112" s="29"/>
       <c r="V112" s="29"/>
@@ -45684,7 +45660,7 @@
       <c r="BQ112" s="38"/>
       <c r="BR112" s="38"/>
     </row>
-    <row r="113" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.45">
       <c r="T113" s="42"/>
       <c r="U113" s="29"/>
       <c r="V113" s="29"/>
@@ -45764,7 +45740,7 @@
       <c r="BQ113" s="38"/>
       <c r="BR113" s="38"/>
     </row>
-    <row r="114" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.45">
       <c r="T114" s="42"/>
       <c r="U114" s="29"/>
       <c r="V114" s="29"/>
@@ -45844,7 +45820,7 @@
       <c r="BQ114" s="38"/>
       <c r="BR114" s="38"/>
     </row>
-    <row r="115" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A115" s="28" t="s">
         <v>40</v>
       </c>
@@ -45939,7 +45915,7 @@
       <c r="BQ115" s="38"/>
       <c r="BR115" s="38"/>
     </row>
-    <row r="116" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.45">
       <c r="T116" s="42"/>
       <c r="U116" s="29"/>
       <c r="V116" s="29"/>
@@ -46019,7 +45995,7 @@
       <c r="BQ116" s="38"/>
       <c r="BR116" s="38"/>
     </row>
-    <row r="117" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="35" t="s">
         <v>8</v>
       </c>
@@ -46117,7 +46093,7 @@
       <c r="BQ117" s="38"/>
       <c r="BR117" s="38"/>
     </row>
-    <row r="118" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -46233,7 +46209,7 @@
       <c r="BQ118" s="38"/>
       <c r="BR118" s="38"/>
     </row>
-    <row r="119" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>35.5</v>
       </c>
@@ -46349,7 +46325,7 @@
       <c r="BQ119" s="38"/>
       <c r="BR119" s="38"/>
     </row>
-    <row r="120" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>31.8</v>
       </c>
@@ -46465,7 +46441,7 @@
       <c r="BQ120" s="38"/>
       <c r="BR120" s="38"/>
     </row>
-    <row r="121" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>29</v>
       </c>
@@ -46581,7 +46557,7 @@
       <c r="BQ121" s="38"/>
       <c r="BR121" s="38"/>
     </row>
-    <row r="122" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -46679,7 +46655,7 @@
       <c r="BQ122" s="38"/>
       <c r="BR122" s="38"/>
     </row>
-    <row r="123" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>32.5</v>
       </c>
@@ -46777,7 +46753,7 @@
       <c r="BQ123" s="38"/>
       <c r="BR123" s="38"/>
     </row>
-    <row r="124" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>29.5</v>
       </c>
@@ -46875,7 +46851,7 @@
       <c r="BQ124" s="38"/>
       <c r="BR124" s="38"/>
     </row>
-    <row r="125" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>27</v>
       </c>
@@ -46977,7 +46953,7 @@
       <c r="BQ125" s="38"/>
       <c r="BR125" s="38"/>
     </row>
-    <row r="126" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -47069,7 +47045,7 @@
       <c r="BQ126" s="38"/>
       <c r="BR126" s="38"/>
     </row>
-    <row r="127" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -47163,7 +47139,7 @@
       <c r="BQ127" s="38"/>
       <c r="BR127" s="38"/>
     </row>
-    <row r="128" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -47255,7 +47231,7 @@
       <c r="BQ128" s="38"/>
       <c r="BR128" s="38"/>
     </row>
-    <row r="129" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -47346,7 +47322,7 @@
       <c r="BQ129" s="38"/>
       <c r="BR129" s="38"/>
     </row>
-    <row r="130" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -47411,7 +47387,7 @@
       <c r="BQ130" s="38"/>
       <c r="BR130" s="38"/>
     </row>
-    <row r="131" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -47476,7 +47452,7 @@
       <c r="BQ131" s="38"/>
       <c r="BR131" s="38"/>
     </row>
-    <row r="132" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -47504,7 +47480,7 @@
       <c r="BQ132" s="38"/>
       <c r="BR132" s="38"/>
     </row>
-    <row r="133" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -47532,7 +47508,7 @@
       <c r="BQ133" s="38"/>
       <c r="BR133" s="38"/>
     </row>
-    <row r="134" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -47560,7 +47536,7 @@
       <c r="BQ134" s="38"/>
       <c r="BR134" s="38"/>
     </row>
-    <row r="135" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -47588,7 +47564,7 @@
       <c r="BQ135" s="38"/>
       <c r="BR135" s="38"/>
     </row>
-    <row r="136" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -47616,7 +47592,7 @@
       <c r="BQ136" s="38"/>
       <c r="BR136" s="38"/>
     </row>
-    <row r="137" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE137" s="38"/>
       <c r="BF137" s="38"/>
       <c r="BG137" s="38"/>
@@ -47632,10 +47608,7 @@
       <c r="BQ137" s="38"/>
       <c r="BR137" s="38"/>
     </row>
-    <row r="138" spans="1:70" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="AC138" t="s">
-        <v>65</v>
-      </c>
+    <row r="138" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE138" s="38"/>
       <c r="BF138" s="38"/>
       <c r="BG138" s="38"/>
@@ -47651,7 +47624,7 @@
       <c r="BQ138" s="38"/>
       <c r="BR138" s="38"/>
     </row>
-    <row r="139" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE139" s="38"/>
       <c r="BF139" s="38"/>
       <c r="BG139" s="38"/>
@@ -47667,7 +47640,7 @@
       <c r="BQ139" s="38"/>
       <c r="BR139" s="38"/>
     </row>
-    <row r="140" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -47692,7 +47665,7 @@
       <c r="BQ140" s="38"/>
       <c r="BR140" s="38"/>
     </row>
-    <row r="141" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -47726,7 +47699,7 @@
       <c r="BQ141" s="38"/>
       <c r="BR141" s="38"/>
     </row>
-    <row r="142" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>22</v>
       </c>
@@ -47760,7 +47733,7 @@
       <c r="BQ142" s="38"/>
       <c r="BR142" s="38"/>
     </row>
-    <row r="143" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>20.5</v>
       </c>
@@ -47794,7 +47767,7 @@
       <c r="BQ143" s="38"/>
       <c r="BR143" s="38"/>
     </row>
-    <row r="144" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>19.5</v>
       </c>
@@ -47828,7 +47801,7 @@
       <c r="BQ144" s="38"/>
       <c r="BR144" s="38"/>
     </row>
-    <row r="145" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -47850,7 +47823,7 @@
       <c r="BQ145" s="38"/>
       <c r="BR145" s="38"/>
     </row>
-    <row r="146" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -47872,7 +47845,7 @@
       <c r="BQ146" s="38"/>
       <c r="BR146" s="38"/>
     </row>
-    <row r="147" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -47894,7 +47867,7 @@
       <c r="BQ147" s="38"/>
       <c r="BR147" s="38"/>
     </row>
-    <row r="148" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -47916,7 +47889,7 @@
       <c r="BQ148" s="38"/>
       <c r="BR148" s="38"/>
     </row>
-    <row r="149" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -47938,7 +47911,7 @@
       <c r="BQ149" s="38"/>
       <c r="BR149" s="38"/>
     </row>
-    <row r="150" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -47960,7 +47933,7 @@
       <c r="BQ150" s="38"/>
       <c r="BR150" s="38"/>
     </row>
-    <row r="151" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -47982,7 +47955,7 @@
       <c r="BQ151" s="38"/>
       <c r="BR151" s="38"/>
     </row>
-    <row r="152" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -48006,7 +47979,7 @@
       <c r="BQ152" s="38"/>
       <c r="BR152" s="38"/>
     </row>
-    <row r="153" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -48028,7 +48001,7 @@
       <c r="BQ153" s="38"/>
       <c r="BR153" s="38"/>
     </row>
-    <row r="154" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -48050,7 +48023,7 @@
       <c r="BQ154" s="38"/>
       <c r="BR154" s="38"/>
     </row>
-    <row r="155" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -48072,7 +48045,7 @@
       <c r="BQ155" s="38"/>
       <c r="BR155" s="38"/>
     </row>
-    <row r="156" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -48094,7 +48067,7 @@
       <c r="BQ156" s="38"/>
       <c r="BR156" s="38"/>
     </row>
-    <row r="157" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -48116,7 +48089,7 @@
       <c r="BQ157" s="38"/>
       <c r="BR157" s="38"/>
     </row>
-    <row r="158" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -48138,7 +48111,7 @@
       <c r="BQ158" s="38"/>
       <c r="BR158" s="38"/>
     </row>
-    <row r="159" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -48160,7 +48133,7 @@
       <c r="BQ159" s="38"/>
       <c r="BR159" s="38"/>
     </row>
-    <row r="160" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:70" x14ac:dyDescent="0.45">
       <c r="BE160" s="38"/>
       <c r="BF160" s="38"/>
       <c r="BG160" s="38"/>
@@ -48176,7 +48149,7 @@
       <c r="BQ160" s="38"/>
       <c r="BR160" s="38"/>
     </row>
-    <row r="161" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="161" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE161" s="38"/>
       <c r="BF161" s="38"/>
       <c r="BG161" s="38"/>
@@ -48192,7 +48165,7 @@
       <c r="BQ161" s="38"/>
       <c r="BR161" s="38"/>
     </row>
-    <row r="162" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="162" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE162" s="38"/>
       <c r="BF162" s="38"/>
       <c r="BG162" s="38"/>
@@ -48208,7 +48181,7 @@
       <c r="BQ162" s="38"/>
       <c r="BR162" s="38"/>
     </row>
-    <row r="163" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="163" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE163" s="38"/>
       <c r="BF163" s="38"/>
       <c r="BG163" s="38"/>
@@ -48224,7 +48197,7 @@
       <c r="BQ163" s="38"/>
       <c r="BR163" s="38"/>
     </row>
-    <row r="164" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="164" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE164" s="38"/>
       <c r="BF164" s="38"/>
       <c r="BG164" s="38"/>
@@ -48240,7 +48213,7 @@
       <c r="BQ164" s="38"/>
       <c r="BR164" s="38"/>
     </row>
-    <row r="165" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="165" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE165" s="38"/>
       <c r="BF165" s="38"/>
       <c r="BG165" s="38"/>
@@ -48256,7 +48229,7 @@
       <c r="BQ165" s="38"/>
       <c r="BR165" s="38"/>
     </row>
-    <row r="166" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="166" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE166" s="38"/>
       <c r="BF166" s="38"/>
       <c r="BG166" s="38"/>
@@ -48272,7 +48245,7 @@
       <c r="BQ166" s="38"/>
       <c r="BR166" s="38"/>
     </row>
-    <row r="167" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="167" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE167" s="38"/>
       <c r="BF167" s="38"/>
       <c r="BG167" s="38"/>
@@ -48288,7 +48261,7 @@
       <c r="BQ167" s="38"/>
       <c r="BR167" s="38"/>
     </row>
-    <row r="168" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="168" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE168" s="38"/>
       <c r="BF168" s="38"/>
       <c r="BG168" s="38"/>
@@ -48304,7 +48277,7 @@
       <c r="BQ168" s="38"/>
       <c r="BR168" s="38"/>
     </row>
-    <row r="169" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="169" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE169" s="38"/>
       <c r="BF169" s="38"/>
       <c r="BG169" s="38"/>
@@ -48320,7 +48293,7 @@
       <c r="BQ169" s="38"/>
       <c r="BR169" s="38"/>
     </row>
-    <row r="170" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="170" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE170" s="38"/>
       <c r="BF170" s="38"/>
       <c r="BG170" s="38"/>
@@ -48336,7 +48309,7 @@
       <c r="BQ170" s="38"/>
       <c r="BR170" s="38"/>
     </row>
-    <row r="171" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="171" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE171" s="38"/>
       <c r="BF171" s="38"/>
       <c r="BG171" s="38"/>
@@ -48352,7 +48325,7 @@
       <c r="BQ171" s="38"/>
       <c r="BR171" s="38"/>
     </row>
-    <row r="172" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="172" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE172" s="38"/>
       <c r="BF172" s="38"/>
       <c r="BG172" s="38"/>
@@ -48368,7 +48341,7 @@
       <c r="BQ172" s="38"/>
       <c r="BR172" s="38"/>
     </row>
-    <row r="173" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="173" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE173" s="38"/>
       <c r="BF173" s="38"/>
       <c r="BG173" s="38"/>
@@ -48384,7 +48357,7 @@
       <c r="BQ173" s="38"/>
       <c r="BR173" s="38"/>
     </row>
-    <row r="174" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="174" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE174" s="38"/>
       <c r="BF174" s="38"/>
       <c r="BG174" s="38"/>
@@ -48400,7 +48373,7 @@
       <c r="BQ174" s="38"/>
       <c r="BR174" s="38"/>
     </row>
-    <row r="175" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="175" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE175" s="38"/>
       <c r="BF175" s="38"/>
       <c r="BG175" s="38"/>
@@ -48416,7 +48389,7 @@
       <c r="BQ175" s="38"/>
       <c r="BR175" s="38"/>
     </row>
-    <row r="176" spans="57:70" x14ac:dyDescent="0.25">
+    <row r="176" spans="57:70" x14ac:dyDescent="0.45">
       <c r="BE176" s="38"/>
       <c r="BF176" s="38"/>
       <c r="BG176" s="38"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618C49F-A1B4-42F1-9F4B-662A38791FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD918E1E-3469-48D1-9757-1404D68323A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$BD$5:$BD$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$BJ$5:$BJ$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$BP$5:$BP$36</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$BU$5:$BU$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="73">
   <si>
     <t>Volt</t>
   </si>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>Interpolering for 1:1</t>
-  </si>
-  <si>
-    <t>Interpolering for 2:1</t>
   </si>
   <si>
     <t>Vægt [g]</t>
@@ -288,6 +291,9 @@
   </si>
   <si>
     <t>Alpha:</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -13342,6 +13348,906 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Løfteevne som funktion af omdrejningstal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vægtstangsforhold 3:1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BP$5:$BP$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1096.7741935483871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1193.5483870967741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1290.3225806451612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1387.0967741935483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1483.8709677419354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580.6451612903224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1677.4193548387095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1774.1935483870966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1870.9677419354837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1967.7419354838707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2064.516129032258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2161.2903225806454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2258.0645161290327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2354.83870967742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2451.6129032258073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2548.3870967741946</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2645.1612903225819</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2741.9354838709692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2838.7096774193565</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2935.4838709677438</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3032.2580645161311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3129.0322580645184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3225.8064516129057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3322.580645161293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3419.3548387096803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3516.1290322580676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3612.9032258064549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3709.6774193548422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3806.4516129032295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3903.2258064516168</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BU$5:$BU$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.46266150900000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.40098825416129036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3393149993225808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27764174448387113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.21596848964516147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15429523480645174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.2621979967742019E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.0948725129032462E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0724529709677262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2397784548386985E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15407103938709654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21574429422580643</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2774175490645161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3390908039032261</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40076405874193588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46243731358064566</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52411056841935544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.585783823258065</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64745707809677544</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.709130332935485</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77080358777419455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83247684261290456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89415009745161456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95582335229032411</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0174966071290337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0791698619677437</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1408431168064541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2025163716451637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2641896264838732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3258628813225832</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3875361361612928</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4492093910000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6E1-4FFC-AFC6-154703A51CD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vægtstangsforhold 1:1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BD$5:$BD$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1096.7741935483871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1193.5483870967741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1290.3225806451612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1387.0967741935483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1483.8709677419354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580.6451612903224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1677.4193548387095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1774.1935483870966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1870.9677419354837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1967.7419354838707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2064.516129032258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2161.2903225806454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2258.0645161290327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2354.83870967742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2451.6129032258073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2548.3870967741946</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2645.1612903225819</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2741.9354838709692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2838.7096774193565</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2935.4838709677438</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3032.2580645161311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3129.0322580645184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3225.8064516129057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3322.580645161293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3419.3548387096803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3516.1290322580676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3612.9032258064549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3709.6774193548422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3806.4516129032295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3903.2258064516168</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BJ$5:$BJ$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.50484300479999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.43989764028387091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37495227576774204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.31000691125161289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.245061546735484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18011618221935494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.11517081770322583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.0225453187096904E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4719911329032172E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9665275845161115E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1446106403612902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20955600487741924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27450136939354863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33944673390967772</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40439209842580676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46933746294193612</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53428282745806521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5992281919741943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66417355649032361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7291189210064527</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79406428552258179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85900965003871121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92395501455484019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98890037907096928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0538457435870987</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1187911081032278</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1837364726193569</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2486818371354862</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3136272016516151</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3785725661677448</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4435179306838739</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5084632952000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6E1-4FFC-AFC6-154703A51CD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1574173040"/>
+        <c:axId val="1574160976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1574173040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Omdrejningstal [Omdr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574160976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1574160976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Løfteevne [N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574173040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -18085,6 +18991,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27654,6 +28600,522 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32765,6 +34227,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>51956</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>637310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>705970</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagram 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A396ED-90B4-9AC3-18F3-CBBAB435BB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -33034,10 +34532,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CA176"/>
+  <dimension ref="A1:CI176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF22" sqref="BF22"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CF24" sqref="CF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33082,7 +34580,7 @@
     <col min="86" max="86" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33161,7 +34659,7 @@
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
     </row>
-    <row r="2" spans="1:79" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:87" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -33199,7 +34697,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -33210,7 +34708,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -33252,7 +34750,7 @@
       <c r="BN2" s="12"/>
       <c r="BO2" s="33"/>
       <c r="BP2" s="30" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="BQ2" s="29"/>
       <c r="BR2" s="29"/>
@@ -33266,7 +34764,7 @@
       <c r="BZ2" s="5"/>
       <c r="CA2" s="5"/>
     </row>
-    <row r="3" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -33311,7 +34809,7 @@
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA3" s="17">
         <v>0.5</v>
@@ -33346,68 +34844,75 @@
       <c r="BC3" s="5"/>
       <c r="BD3" s="24"/>
       <c r="BE3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BF3" s="24" t="s">
+      <c r="BG3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="24" t="s">
-        <v>29</v>
-      </c>
       <c r="BH3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BJ3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK3" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="BL3" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BM3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="BO3" s="33"/>
       <c r="BP3" s="24"/>
       <c r="BQ3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BR3" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="BS3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BT3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="BU3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV3" s="25" t="s">
-        <v>52</v>
-      </c>
       <c r="BW3" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BX3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY3" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="BY3" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="BZ3" s="5"/>
       <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
     </row>
-    <row r="4" spans="1:79" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5.9</v>
       </c>
@@ -33492,73 +34997,80 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BE4" s="19" t="s">
+      <c r="BF4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BF4" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="BG4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ4" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BH4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="BI4" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="BJ4" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL4" s="32" t="s">
+      <c r="BM4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BM4" s="32" t="s">
+      <c r="BN4" s="32" t="s">
         <v>24</v>
-      </c>
-      <c r="BN4" s="32" t="s">
-        <v>25</v>
       </c>
       <c r="BO4" s="34"/>
       <c r="BP4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BQ4" s="19" t="s">
+      <c r="BR4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BR4" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="BS4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BT4" s="32" t="s">
-        <v>19</v>
-      </c>
       <c r="BU4" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BV4" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BW4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BX4" s="32" t="s">
+      <c r="BY4" s="32" t="s">
         <v>24</v>
-      </c>
-      <c r="BY4" s="32" t="s">
-        <v>25</v>
       </c>
       <c r="BZ4" s="5"/>
       <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6.02</v>
       </c>
@@ -33727,8 +35239,18 @@
       </c>
       <c r="BZ5" s="5"/>
       <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -33875,8 +35397,15 @@
       </c>
       <c r="BZ6" s="5"/>
       <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -34023,8 +35552,15 @@
       </c>
       <c r="BZ7" s="5"/>
       <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -34171,8 +35707,15 @@
       </c>
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -34319,8 +35862,15 @@
       </c>
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -34467,8 +36017,15 @@
       </c>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -34615,8 +36172,15 @@
       </c>
       <c r="BZ11" s="5"/>
       <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -34763,8 +36327,15 @@
       </c>
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="5"/>
+      <c r="CD12" s="5"/>
+      <c r="CE12" s="5"/>
+      <c r="CF12" s="5"/>
+      <c r="CG12" s="5"/>
+      <c r="CH12" s="5"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -34911,8 +36482,15 @@
       </c>
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="5"/>
+      <c r="CD13" s="5"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="5"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -35047,8 +36625,15 @@
       </c>
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
+      <c r="CB14" s="5"/>
+      <c r="CC14" s="5"/>
+      <c r="CD14" s="5"/>
+      <c r="CE14" s="5"/>
+      <c r="CF14" s="5"/>
+      <c r="CG14" s="5"/>
+      <c r="CH14" s="5"/>
     </row>
-    <row r="15" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -35062,14 +36647,14 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="U15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA15" s="18">
         <v>0.75</v>
@@ -35189,8 +36774,15 @@
       </c>
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
+      <c r="CB15" s="5"/>
+      <c r="CC15" s="5"/>
+      <c r="CD15" s="5"/>
+      <c r="CE15" s="5"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="5"/>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -35337,8 +36929,15 @@
       </c>
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="5"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -35485,8 +37084,15 @@
       </c>
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
+      <c r="CH17" s="5"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -35633,8 +37239,15 @@
       </c>
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
+      <c r="CB18" s="5"/>
+      <c r="CC18" s="5"/>
+      <c r="CD18" s="5"/>
+      <c r="CE18" s="5"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="5"/>
+      <c r="CH18" s="5"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -35781,8 +37394,15 @@
       </c>
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
+      <c r="CB19" s="5"/>
+      <c r="CC19" s="5"/>
+      <c r="CD19" s="5"/>
+      <c r="CE19" s="5"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="5"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -35929,8 +37549,15 @@
       </c>
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
+      <c r="CB20" s="5"/>
+      <c r="CC20" s="5"/>
+      <c r="CD20" s="5"/>
+      <c r="CE20" s="5"/>
+      <c r="CF20" s="5"/>
+      <c r="CG20" s="5"/>
+      <c r="CH20" s="5"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="U21" s="11">
         <v>4.84</v>
       </c>
@@ -36065,8 +37692,15 @@
       </c>
       <c r="BZ21" s="5"/>
       <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="5"/>
+      <c r="CE21" s="5"/>
+      <c r="CF21" s="5"/>
+      <c r="CG21" s="5"/>
+      <c r="CH21" s="5"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="U22" s="11">
         <v>4.84</v>
       </c>
@@ -36201,8 +37835,15 @@
       </c>
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
+      <c r="CB22" s="5"/>
+      <c r="CC22" s="5"/>
+      <c r="CD22" s="5"/>
+      <c r="CE22" s="5"/>
+      <c r="CF22" s="5"/>
+      <c r="CG22" s="5"/>
+      <c r="CH22" s="5"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -36219,7 +37860,7 @@
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U23" s="11">
         <v>4.0999999999999996</v>
@@ -36355,8 +37996,15 @@
       </c>
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
+      <c r="CB23" s="5"/>
+      <c r="CC23" s="5"/>
+      <c r="CD23" s="5"/>
+      <c r="CE23" s="5"/>
+      <c r="CF23" s="5"/>
+      <c r="CG23" s="5"/>
+      <c r="CH23" s="5"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -36527,8 +38175,15 @@
       </c>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
+      <c r="CB24" s="5"/>
+      <c r="CC24" s="5"/>
+      <c r="CD24" s="5"/>
+      <c r="CE24" s="5"/>
+      <c r="CF24" s="5"/>
+      <c r="CG24" s="5"/>
+      <c r="CH24" s="5"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -36699,8 +38354,15 @@
       </c>
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="5"/>
+      <c r="CD25" s="5"/>
+      <c r="CE25" s="5"/>
+      <c r="CF25" s="5"/>
+      <c r="CG25" s="5"/>
+      <c r="CH25" s="5"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -36865,8 +38527,15 @@
       </c>
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
+      <c r="CB26" s="5"/>
+      <c r="CC26" s="5"/>
+      <c r="CD26" s="5"/>
+      <c r="CE26" s="5"/>
+      <c r="CF26" s="5"/>
+      <c r="CG26" s="5"/>
+      <c r="CH26" s="5"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -37025,8 +38694,15 @@
       </c>
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="5"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="5"/>
+      <c r="CF27" s="5"/>
+      <c r="CG27" s="5"/>
+      <c r="CH27" s="5"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -37161,8 +38837,15 @@
       </c>
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
+      <c r="CB28" s="5"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="5"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
+      <c r="CH28" s="5"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -37297,8 +38980,15 @@
       </c>
       <c r="BZ29" s="5"/>
       <c r="CA29" s="5"/>
+      <c r="CB29" s="5"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="5"/>
+      <c r="CF29" s="5"/>
+      <c r="CG29" s="5"/>
+      <c r="CH29" s="5"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -37433,8 +39123,15 @@
       </c>
       <c r="BZ30" s="5"/>
       <c r="CA30" s="5"/>
+      <c r="CB30" s="5"/>
+      <c r="CC30" s="5"/>
+      <c r="CD30" s="5"/>
+      <c r="CE30" s="5"/>
+      <c r="CF30" s="5"/>
+      <c r="CG30" s="5"/>
+      <c r="CH30" s="5"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -37569,8 +39266,15 @@
       </c>
       <c r="BZ31" s="5"/>
       <c r="CA31" s="5"/>
+      <c r="CB31" s="5"/>
+      <c r="CC31" s="5"/>
+      <c r="CD31" s="5"/>
+      <c r="CE31" s="5"/>
+      <c r="CF31" s="5"/>
+      <c r="CG31" s="5"/>
+      <c r="CH31" s="5"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -37705,8 +39409,15 @@
       </c>
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
+      <c r="CB32" s="5"/>
+      <c r="CC32" s="5"/>
+      <c r="CD32" s="5"/>
+      <c r="CE32" s="5"/>
+      <c r="CF32" s="5"/>
+      <c r="CG32" s="5"/>
+      <c r="CH32" s="5"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -37841,8 +39552,15 @@
       </c>
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
+      <c r="CB33" s="5"/>
+      <c r="CC33" s="5"/>
+      <c r="CD33" s="5"/>
+      <c r="CE33" s="5"/>
+      <c r="CF33" s="5"/>
+      <c r="CG33" s="5"/>
+      <c r="CH33" s="5"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -37977,8 +39695,15 @@
       </c>
       <c r="BZ34" s="5"/>
       <c r="CA34" s="5"/>
+      <c r="CB34" s="5"/>
+      <c r="CC34" s="5"/>
+      <c r="CD34" s="5"/>
+      <c r="CE34" s="5"/>
+      <c r="CF34" s="5"/>
+      <c r="CG34" s="5"/>
+      <c r="CH34" s="5"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -38113,8 +39838,15 @@
       </c>
       <c r="BZ35" s="5"/>
       <c r="CA35" s="5"/>
+      <c r="CB35" s="5"/>
+      <c r="CC35" s="5"/>
+      <c r="CD35" s="5"/>
+      <c r="CE35" s="5"/>
+      <c r="CF35" s="5"/>
+      <c r="CG35" s="5"/>
+      <c r="CH35" s="5"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -38247,8 +39979,15 @@
       </c>
       <c r="BZ36" s="5"/>
       <c r="CA36" s="5"/>
+      <c r="CB36" s="5"/>
+      <c r="CC36" s="5"/>
+      <c r="CD36" s="5"/>
+      <c r="CE36" s="5"/>
+      <c r="CF36" s="5"/>
+      <c r="CG36" s="5"/>
+      <c r="CH36" s="5"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -38319,8 +40058,16 @@
       <c r="BX37" s="5"/>
       <c r="BY37" s="5"/>
       <c r="BZ37" s="5"/>
+      <c r="CA37" s="5"/>
+      <c r="CB37" s="5"/>
+      <c r="CC37" s="5"/>
+      <c r="CD37" s="5"/>
+      <c r="CE37" s="5"/>
+      <c r="CF37" s="5"/>
+      <c r="CG37" s="5"/>
+      <c r="CH37" s="5"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -38391,8 +40138,16 @@
       <c r="BX38" s="5"/>
       <c r="BY38" s="5"/>
       <c r="BZ38" s="5"/>
+      <c r="CA38" s="5"/>
+      <c r="CB38" s="5"/>
+      <c r="CC38" s="5"/>
+      <c r="CD38" s="5"/>
+      <c r="CE38" s="5"/>
+      <c r="CF38" s="5"/>
+      <c r="CG38" s="5"/>
+      <c r="CH38" s="5"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -38464,7 +40219,7 @@
       <c r="BY39" s="33"/>
       <c r="BZ39" s="33"/>
     </row>
-    <row r="40" spans="1:79" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:86" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -38478,7 +40233,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="U40" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -38489,7 +40244,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
@@ -38540,7 +40295,7 @@
       <c r="BY40" s="33"/>
       <c r="BZ40" s="33"/>
     </row>
-    <row r="41" spans="1:79" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:86" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -38554,7 +40309,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="U41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -38582,7 +40337,7 @@
       <c r="AS41" s="7"/>
       <c r="AT41" s="7"/>
       <c r="AU41" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AV41" s="13"/>
       <c r="AW41" s="13"/>
@@ -38596,7 +40351,7 @@
       <c r="BE41" s="7"/>
       <c r="BF41" s="33"/>
       <c r="BG41" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BH41" s="33"/>
       <c r="BI41" s="33"/>
@@ -38618,7 +40373,7 @@
       <c r="BY41" s="33"/>
       <c r="BZ41" s="33"/>
     </row>
-    <row r="42" spans="1:79" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -38671,31 +40426,31 @@
       <c r="AT42" s="7"/>
       <c r="AU42" s="23"/>
       <c r="AV42" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW42" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AW42" s="23" t="s">
+      <c r="AX42" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AX42" s="23" t="s">
+      <c r="AY42" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AY42" s="23" t="s">
+      <c r="AZ42" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AZ42" s="23" t="s">
+      <c r="BA42" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="BA42" s="23" t="s">
+      <c r="BB42" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC42" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="BB42" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC42" s="23" t="s">
+      <c r="BD42" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="BD42" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="BE42" s="7"/>
       <c r="BF42" s="44"/>
@@ -38720,7 +40475,7 @@
       <c r="BY42" s="33"/>
       <c r="BZ42" s="33"/>
     </row>
-    <row r="43" spans="1:79" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U43" s="11">
         <v>4.88</v>
       </c>
@@ -38760,34 +40515,34 @@
       <c r="AS43" s="7"/>
       <c r="AT43" s="7"/>
       <c r="AU43" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AV43" s="19" t="s">
+      <c r="AW43" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AW43" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="AX43" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AY43" s="19" t="s">
+      <c r="AZ43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AZ43" s="19" t="s">
+      <c r="BA43" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BA43" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BB43" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC43" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BC43" s="19" t="s">
+      <c r="BD43" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="BD43" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="BE43" s="7"/>
       <c r="BF43" s="44"/>
@@ -38812,7 +40567,7 @@
       <c r="BY43" s="33"/>
       <c r="BZ43" s="33"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="U44" s="11">
         <v>4.82</v>
       </c>
@@ -38913,7 +40668,7 @@
       <c r="BY44" s="33"/>
       <c r="BZ44" s="33"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
       <c r="U45" s="11">
         <v>4.8</v>
       </c>
@@ -39015,7 +40770,7 @@
       <c r="BY45" s="33"/>
       <c r="BZ45" s="33"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -39023,7 +40778,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
@@ -39032,7 +40787,7 @@
         <v>7</v>
       </c>
       <c r="M46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U46" s="11">
         <v>4.5999999999999996</v>
@@ -39135,7 +40890,7 @@
       <c r="BY46" s="33"/>
       <c r="BZ46" s="33"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -39273,7 +41028,7 @@
       <c r="BY47" s="33"/>
       <c r="BZ47" s="33"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -41523,7 +43278,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K69" t="s">
         <v>9</v>
@@ -41532,7 +43287,7 @@
         <v>6</v>
       </c>
       <c r="M69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -43312,7 +45067,7 @@
       <c r="BD86" s="29"/>
       <c r="BE86" s="38"/>
       <c r="BF86" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BG86" s="45"/>
       <c r="BH86" s="38"/>
@@ -43342,7 +45097,7 @@
       <c r="R87" s="1"/>
       <c r="T87" s="29"/>
       <c r="U87" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V87" s="29"/>
       <c r="W87" s="29"/>
@@ -43352,7 +45107,7 @@
       <c r="AA87" s="29"/>
       <c r="AB87" s="29"/>
       <c r="AC87" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD87" s="29"/>
       <c r="AE87" s="29"/>
@@ -43411,7 +45166,7 @@
       <c r="R88" s="1"/>
       <c r="T88" s="29"/>
       <c r="U88" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
@@ -43439,7 +45194,7 @@
       <c r="AS88" s="29"/>
       <c r="AT88" s="29"/>
       <c r="AU88" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AV88" s="13"/>
       <c r="AW88" s="13"/>
@@ -43507,28 +45262,28 @@
       <c r="AT89" s="29"/>
       <c r="AU89" s="23"/>
       <c r="AV89" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW89" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AW89" s="23" t="s">
+      <c r="AX89" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AX89" s="23" t="s">
-        <v>55</v>
-      </c>
       <c r="AY89" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AZ89" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BA89" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BB89" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC89" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="BC89" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="BD89" s="42"/>
       <c r="BE89" s="38"/>
@@ -43587,31 +45342,31 @@
       <c r="AS90" s="29"/>
       <c r="AT90" s="29"/>
       <c r="AU90" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV90" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AV90" s="19" t="s">
+      <c r="AW90" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AW90" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="AX90" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY90" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AY90" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="AZ90" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB90" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BB90" s="19" t="s">
+      <c r="BC90" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="BC90" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="BD90" s="42"/>
       <c r="BE90" s="38"/>
@@ -43728,7 +45483,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T92" s="29"/>
       <c r="U92" s="15">
@@ -44983,7 +46738,7 @@
       <c r="BD104" s="42"/>
       <c r="BE104" s="38"/>
       <c r="BF104" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG104" s="46"/>
       <c r="BH104" s="38"/>
@@ -45846,7 +47601,7 @@
     </row>
     <row r="115" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
@@ -47148,7 +48903,7 @@
       <c r="BD127" s="42"/>
       <c r="BE127" s="38"/>
       <c r="BF127" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BG127" s="46"/>
       <c r="BH127" s="38"/>
@@ -47634,7 +49389,7 @@
     </row>
     <row r="138" spans="1:70" ht="17.25" x14ac:dyDescent="0.25">
       <c r="AC138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BE138" s="38"/>
       <c r="BF138" s="38"/>
@@ -47991,7 +49746,7 @@
       <c r="G152" s="1"/>
       <c r="BE152" s="38"/>
       <c r="BF152" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG152" s="46"/>
       <c r="BH152" s="38"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD918E1E-3469-48D1-9757-1404D68323A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E591CB-2F7C-4286-BF8B-1F524CCB73F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$BD$5:$BD$36</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$BJ$5:$BJ$36</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$BP$5:$BP$36</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$BU$5:$BU$36</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -13962,7 +13956,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -34534,8 +34527,8 @@
   </sheetPr>
   <dimension ref="A1:CI176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CF24" sqref="CF24"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BU5" sqref="BU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35311,7 +35304,7 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="16">
-        <f t="shared" ref="BD6:BD35" si="11">BD5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f>BD5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
         <v>1096.7741935483871</v>
       </c>
       <c r="BE6" s="15">
@@ -35327,7 +35320,7 @@
         <v>-0.14634505470967754</v>
       </c>
       <c r="BH6" s="5">
-        <f t="shared" ref="BH6:BH36" si="12">0.06841*BD6-119.87208</f>
+        <f t="shared" ref="BH6:BH36" si="11">0.06841*BD6-119.87208</f>
         <v>-44.841757419354835</v>
       </c>
       <c r="BI6" s="5">
@@ -35335,7 +35328,7 @@
         <v>-0.43989764028387096</v>
       </c>
       <c r="BJ6" s="5">
-        <f t="shared" ref="BJ6:BJ36" si="13">BH6/1000*9.81/AA$3 - BH6/1000*9.81</f>
+        <f t="shared" ref="BJ6:BJ36" si="12">BH6/1000*9.81/AA$3 - BH6/1000*9.81</f>
         <v>-0.43989764028387091</v>
       </c>
       <c r="BK6" s="5">
@@ -35351,24 +35344,24 @@
         <v>-0.14634505470967754</v>
       </c>
       <c r="BN6" s="5">
-        <f t="shared" ref="BN6:BN36" si="14">BL6/BM6</f>
+        <f t="shared" ref="BN6:BN36" si="13">BL6/BM6</f>
         <v>44.190651804502558</v>
       </c>
       <c r="BO6" s="33"/>
       <c r="BP6" s="16">
-        <f t="shared" ref="BP6:BP35" si="15">BP5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
+        <f t="shared" ref="BP6:BP35" si="14">BP5+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
         <v>1096.7741935483871</v>
       </c>
       <c r="BQ6" s="15">
-        <f t="shared" ref="BQ6:BQ36" si="16">0.00187*BP6-1.403</f>
+        <f t="shared" ref="BQ6:BQ36" si="15">0.00187*BP6-1.403</f>
         <v>0.64796774193548368</v>
       </c>
       <c r="BR6" s="15">
-        <f t="shared" ref="BR6:BR36" si="17">0.00135*BP6-1.57916</f>
+        <f t="shared" ref="BR6:BR36" si="16">0.00135*BP6-1.57916</f>
         <v>-9.8514838709677255E-2</v>
       </c>
       <c r="BS6" s="11">
-        <f t="shared" ref="BS6:BS36" si="18">0.19489*BP6-336.3767</f>
+        <f t="shared" ref="BS6:BS36" si="17">0.19489*BP6-336.3767</f>
         <v>-122.62637741935487</v>
       </c>
       <c r="BT6" s="11">
@@ -35376,7 +35369,7 @@
         <v>-1.2029647624838713</v>
       </c>
       <c r="BU6" s="11">
-        <f t="shared" ref="BU6:BU36" si="19">BS6/1000*9.81/AA$15 - BS6/1000*9.81</f>
+        <f t="shared" ref="BU6:BU36" si="18">BS6/1000*9.81/AA$15 - BS6/1000*9.81</f>
         <v>-0.40098825416129036</v>
       </c>
       <c r="BV6" s="11">
@@ -35392,7 +35385,7 @@
         <v>-6.3834437585847947E-2</v>
       </c>
       <c r="BY6" s="11">
-        <f t="shared" ref="BY6:BY36" si="20">BW6/BX6</f>
+        <f t="shared" ref="BY6:BY36" si="19">BW6/BX6</f>
         <v>721.47862965242268</v>
       </c>
       <c r="BZ6" s="5"/>
@@ -35466,11 +35459,11 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="BD6:BD35" si="20">BD6+($BD$36-$BD$5)/(ROW($BD$36)-ROW($BD$5))</f>
         <v>1193.5483870967741</v>
       </c>
       <c r="BE7" s="15">
-        <f t="shared" si="0"/>
+        <f>0.00205*BD7-1.9899</f>
         <v>0.4568741935483871</v>
       </c>
       <c r="BF7" s="15">
@@ -35482,7 +35475,7 @@
         <v>-0.19013276438709692</v>
       </c>
       <c r="BH7" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-38.221434838709683</v>
       </c>
       <c r="BI7" s="5">
@@ -35490,7 +35483,7 @@
         <v>-0.37495227576774204</v>
       </c>
       <c r="BJ7" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.37495227576774204</v>
       </c>
       <c r="BK7" s="5">
@@ -35506,24 +35499,24 @@
         <v>-0.19013276438709692</v>
       </c>
       <c r="BN7" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>31.549949232610469</v>
       </c>
       <c r="BO7" s="33"/>
       <c r="BP7" s="16">
+        <f t="shared" si="14"/>
+        <v>1193.5483870967741</v>
+      </c>
+      <c r="BQ7" s="15">
         <f t="shared" si="15"/>
-        <v>1193.5483870967741</v>
-      </c>
-      <c r="BQ7" s="15">
+        <v>0.82893548387096772</v>
+      </c>
+      <c r="BR7" s="15">
         <f t="shared" si="16"/>
-        <v>0.82893548387096772</v>
-      </c>
-      <c r="BR7" s="15">
+        <v>3.2130322580645299E-2</v>
+      </c>
+      <c r="BS7" s="11">
         <f t="shared" si="17"/>
-        <v>3.2130322580645299E-2</v>
-      </c>
-      <c r="BS7" s="11">
-        <f t="shared" si="18"/>
         <v>-103.76605483870969</v>
       </c>
       <c r="BT7" s="11">
@@ -35531,7 +35524,7 @@
         <v>-1.0179449979677422</v>
       </c>
       <c r="BU7" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-0.3393149993225808</v>
       </c>
       <c r="BV7" s="11">
@@ -35547,7 +35540,7 @@
         <v>2.6633964495317491E-2</v>
       </c>
       <c r="BY7" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-1592.3440346452569</v>
       </c>
       <c r="BZ7" s="5"/>
@@ -35621,7 +35614,7 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1290.3225806451612</v>
       </c>
       <c r="BE8" s="15">
@@ -35637,7 +35630,7 @@
         <v>-0.1744043450322583</v>
       </c>
       <c r="BH8" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-31.601112258064518</v>
       </c>
       <c r="BI8" s="5">
@@ -35645,7 +35638,7 @@
         <v>-0.31000691125161295</v>
       </c>
       <c r="BJ8" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.31000691125161289</v>
       </c>
       <c r="BK8" s="5">
@@ -35661,24 +35654,24 @@
         <v>-0.1744043450322583</v>
       </c>
       <c r="BN8" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>30.743405698269203</v>
       </c>
       <c r="BO8" s="33"/>
       <c r="BP8" s="16">
+        <f t="shared" si="14"/>
+        <v>1290.3225806451612</v>
+      </c>
+      <c r="BQ8" s="15">
         <f t="shared" si="15"/>
-        <v>1290.3225806451612</v>
-      </c>
-      <c r="BQ8" s="15">
+        <v>1.0099032258064513</v>
+      </c>
+      <c r="BR8" s="15">
         <f t="shared" si="16"/>
-        <v>1.0099032258064513</v>
-      </c>
-      <c r="BR8" s="15">
+        <v>0.16277548387096785</v>
+      </c>
+      <c r="BS8" s="11">
         <f t="shared" si="17"/>
-        <v>0.16277548387096785</v>
-      </c>
-      <c r="BS8" s="11">
-        <f t="shared" si="18"/>
         <v>-84.905732258064546</v>
       </c>
       <c r="BT8" s="11">
@@ -35686,7 +35679,7 @@
         <v>-0.83292523345161329</v>
       </c>
       <c r="BU8" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-0.27764174448387113</v>
       </c>
       <c r="BV8" s="11">
@@ -35702,7 +35695,7 @@
         <v>0.16438748624349642</v>
       </c>
       <c r="BY8" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-228.21487125799604</v>
       </c>
       <c r="BZ8" s="5"/>
@@ -35776,7 +35769,7 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1387.0967741935483</v>
       </c>
       <c r="BE9" s="15">
@@ -35792,7 +35785,7 @@
         <v>-9.915979664516153E-2</v>
       </c>
       <c r="BH9" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-24.980789677419367</v>
       </c>
       <c r="BI9" s="5">
@@ -35800,7 +35793,7 @@
         <v>-0.245061546735484</v>
       </c>
       <c r="BJ9" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.245061546735484</v>
       </c>
       <c r="BK9" s="5">
@@ -35816,24 +35809,24 @@
         <v>-9.915979664516153E-2</v>
       </c>
       <c r="BN9" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>45.950041479891425</v>
       </c>
       <c r="BO9" s="33"/>
       <c r="BP9" s="16">
+        <f t="shared" si="14"/>
+        <v>1387.0967741935483</v>
+      </c>
+      <c r="BQ9" s="15">
         <f t="shared" si="15"/>
-        <v>1387.0967741935483</v>
-      </c>
-      <c r="BQ9" s="15">
+        <v>1.1908709677419353</v>
+      </c>
+      <c r="BR9" s="15">
         <f t="shared" si="16"/>
-        <v>1.1908709677419353</v>
-      </c>
-      <c r="BR9" s="15">
+        <v>0.29342064516129041</v>
+      </c>
+      <c r="BS9" s="11">
         <f t="shared" si="17"/>
-        <v>0.29342064516129041</v>
-      </c>
-      <c r="BS9" s="11">
-        <f t="shared" si="18"/>
         <v>-66.0454096774194</v>
       </c>
       <c r="BT9" s="11">
@@ -35841,7 +35834,7 @@
         <v>-0.6479054689354844</v>
       </c>
       <c r="BU9" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-0.21596848964516147</v>
       </c>
       <c r="BV9" s="11">
@@ -35857,7 +35850,7 @@
         <v>0.34942612765868891</v>
       </c>
       <c r="BY9" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-89.778306915707347</v>
       </c>
       <c r="BZ9" s="5"/>
@@ -35931,7 +35924,7 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1483.8709677419354</v>
       </c>
       <c r="BE10" s="15">
@@ -35947,7 +35940,7 @@
         <v>3.5600880774193183E-2</v>
       </c>
       <c r="BH10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-18.360467096774201</v>
       </c>
       <c r="BI10" s="5">
@@ -35955,7 +35948,7 @@
         <v>-0.18011618221935494</v>
       </c>
       <c r="BJ10" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.18011618221935494</v>
       </c>
       <c r="BK10" s="5">
@@ -35971,24 +35964,24 @@
         <v>3.5600880774193183E-2</v>
       </c>
       <c r="BN10" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-100.63005993972854</v>
       </c>
       <c r="BO10" s="33"/>
       <c r="BP10" s="16">
+        <f t="shared" si="14"/>
+        <v>1483.8709677419354</v>
+      </c>
+      <c r="BQ10" s="15">
         <f t="shared" si="15"/>
-        <v>1483.8709677419354</v>
-      </c>
-      <c r="BQ10" s="15">
+        <v>1.3718387096774189</v>
+      </c>
+      <c r="BR10" s="15">
         <f t="shared" si="16"/>
-        <v>1.3718387096774189</v>
-      </c>
-      <c r="BR10" s="15">
+        <v>0.42406580645161318</v>
+      </c>
+      <c r="BS10" s="11">
         <f t="shared" si="17"/>
-        <v>0.42406580645161318</v>
-      </c>
-      <c r="BS10" s="11">
-        <f t="shared" si="18"/>
         <v>-47.185087096774225</v>
       </c>
       <c r="BT10" s="11">
@@ -35996,7 +35989,7 @@
         <v>-0.46288570441935517</v>
       </c>
       <c r="BU10" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-0.15429523480645174</v>
       </c>
       <c r="BV10" s="11">
@@ -36012,7 +36005,7 @@
         <v>0.58174988874089506</v>
       </c>
       <c r="BY10" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-41.213735178250083</v>
       </c>
       <c r="BZ10" s="5"/>
@@ -36086,7 +36079,7 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1580.6451612903224</v>
       </c>
       <c r="BE11" s="15">
@@ -36102,7 +36095,7 @@
         <v>0.2298776872258059</v>
       </c>
       <c r="BH11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-11.740144516129035</v>
       </c>
       <c r="BI11" s="5">
@@ -36110,7 +36103,7 @@
         <v>-0.11517081770322585</v>
       </c>
       <c r="BJ11" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.11517081770322583</v>
       </c>
       <c r="BK11" s="5">
@@ -36126,24 +36119,24 @@
         <v>0.2298776872258059</v>
       </c>
       <c r="BN11" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-10.614990763174704</v>
       </c>
       <c r="BO11" s="33"/>
       <c r="BP11" s="16">
+        <f t="shared" si="14"/>
+        <v>1580.6451612903224</v>
+      </c>
+      <c r="BQ11" s="15">
         <f t="shared" si="15"/>
-        <v>1580.6451612903224</v>
-      </c>
-      <c r="BQ11" s="15">
+        <v>1.552806451612903</v>
+      </c>
+      <c r="BR11" s="15">
         <f t="shared" si="16"/>
-        <v>1.552806451612903</v>
-      </c>
-      <c r="BR11" s="15">
+        <v>0.55471096774193551</v>
+      </c>
+      <c r="BS11" s="11">
         <f t="shared" si="17"/>
-        <v>0.55471096774193551</v>
-      </c>
-      <c r="BS11" s="11">
-        <f t="shared" si="18"/>
         <v>-28.324764516129051</v>
       </c>
       <c r="BT11" s="11">
@@ -36151,7 +36144,7 @@
         <v>-0.277865939903226</v>
       </c>
       <c r="BU11" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-9.2621979967742019E-2</v>
       </c>
       <c r="BV11" s="11">
@@ -36167,7 +36160,7 @@
         <v>0.86135876949011436</v>
       </c>
       <c r="BY11" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-17.79893433054027</v>
       </c>
       <c r="BZ11" s="5"/>
@@ -36241,7 +36234,7 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1677.4193548387095</v>
       </c>
       <c r="BE12" s="15">
@@ -36257,7 +36250,7 @@
         <v>0.48367062270967659</v>
       </c>
       <c r="BH12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.1198219354838841</v>
       </c>
       <c r="BI12" s="5">
@@ -36265,7 +36258,7 @@
         <v>-5.0225453187096904E-2</v>
       </c>
       <c r="BJ12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-5.0225453187096904E-2</v>
       </c>
       <c r="BK12" s="5">
@@ -36281,24 +36274,24 @@
         <v>0.48367062270967659</v>
       </c>
       <c r="BN12" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-2.3348307649930291</v>
       </c>
       <c r="BO12" s="33"/>
       <c r="BP12" s="16">
+        <f t="shared" si="14"/>
+        <v>1677.4193548387095</v>
+      </c>
+      <c r="BQ12" s="15">
         <f t="shared" si="15"/>
-        <v>1677.4193548387095</v>
-      </c>
-      <c r="BQ12" s="15">
+        <v>1.7337741935483866</v>
+      </c>
+      <c r="BR12" s="15">
         <f t="shared" si="16"/>
-        <v>1.7337741935483866</v>
-      </c>
-      <c r="BR12" s="15">
+        <v>0.68535612903225829</v>
+      </c>
+      <c r="BS12" s="11">
         <f t="shared" si="17"/>
-        <v>0.68535612903225829</v>
-      </c>
-      <c r="BS12" s="11">
-        <f t="shared" si="18"/>
         <v>-9.4644419354839329</v>
       </c>
       <c r="BT12" s="11">
@@ -36306,7 +36299,7 @@
         <v>-9.2846175387097385E-2</v>
       </c>
       <c r="BU12" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-3.0948725129032462E-2</v>
       </c>
       <c r="BV12" s="11">
@@ -36322,7 +36315,7 @@
         <v>1.1882527699063477</v>
       </c>
       <c r="BY12" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-4.575148677898623</v>
       </c>
       <c r="BZ12" s="5"/>
@@ -36396,7 +36389,7 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1774.1935483870966</v>
       </c>
       <c r="BE13" s="15">
@@ -36412,7 +36405,7 @@
         <v>0.79697968722580548</v>
       </c>
       <c r="BH13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5005006451612815</v>
       </c>
       <c r="BI13" s="5">
@@ -36420,7 +36413,7 @@
         <v>1.4719911329032172E-2</v>
       </c>
       <c r="BJ13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.4719911329032172E-2</v>
       </c>
       <c r="BK13" s="5">
@@ -36436,24 +36429,24 @@
         <v>0.79697968722580548</v>
       </c>
       <c r="BN13" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.43923661920714663</v>
       </c>
       <c r="BO13" s="33"/>
       <c r="BP13" s="16">
+        <f t="shared" si="14"/>
+        <v>1774.1935483870966</v>
+      </c>
+      <c r="BQ13" s="15">
         <f t="shared" si="15"/>
-        <v>1774.1935483870966</v>
-      </c>
-      <c r="BQ13" s="15">
+        <v>1.9147419354838706</v>
+      </c>
+      <c r="BR13" s="15">
         <f t="shared" si="16"/>
-        <v>1.9147419354838706</v>
-      </c>
-      <c r="BR13" s="15">
+        <v>0.81600129032258062</v>
+      </c>
+      <c r="BS13" s="11">
         <f t="shared" si="17"/>
-        <v>0.81600129032258062</v>
-      </c>
-      <c r="BS13" s="11">
-        <f t="shared" si="18"/>
         <v>9.3958806451612418</v>
       </c>
       <c r="BT13" s="11">
@@ -36461,7 +36454,7 @@
         <v>9.2173589129031785E-2</v>
       </c>
       <c r="BU13" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.0724529709677262E-2</v>
       </c>
       <c r="BV13" s="11">
@@ -36477,7 +36470,7 @@
         <v>1.5624318899895939</v>
       </c>
       <c r="BY13" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.6535476738917132</v>
       </c>
       <c r="BZ13" s="5"/>
@@ -36539,7 +36532,7 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1870.9677419354837</v>
       </c>
       <c r="BE14" s="15">
@@ -36555,7 +36548,7 @@
         <v>1.1698048807741923</v>
       </c>
       <c r="BH14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.1208232258064328</v>
       </c>
       <c r="BI14" s="5">
@@ -36563,7 +36556,7 @@
         <v>7.9665275845161101E-2</v>
       </c>
       <c r="BJ14" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7.9665275845161115E-2</v>
       </c>
       <c r="BK14" s="5">
@@ -36579,24 +36572,24 @@
         <v>1.1698048807741923</v>
       </c>
       <c r="BN14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.7078964590872809</v>
       </c>
       <c r="BO14" s="33"/>
       <c r="BP14" s="16">
+        <f t="shared" si="14"/>
+        <v>1870.9677419354837</v>
+      </c>
+      <c r="BQ14" s="15">
         <f t="shared" si="15"/>
-        <v>1870.9677419354837</v>
-      </c>
-      <c r="BQ14" s="15">
+        <v>2.0957096774193542</v>
+      </c>
+      <c r="BR14" s="15">
         <f t="shared" si="16"/>
-        <v>2.0957096774193542</v>
-      </c>
-      <c r="BR14" s="15">
+        <v>0.94664645161290339</v>
+      </c>
+      <c r="BS14" s="11">
         <f t="shared" si="17"/>
-        <v>0.94664645161290339</v>
-      </c>
-      <c r="BS14" s="11">
-        <f t="shared" si="18"/>
         <v>28.256203225806416</v>
       </c>
       <c r="BT14" s="11">
@@ -36604,7 +36597,7 @@
         <v>0.27719335364516096</v>
       </c>
       <c r="BU14" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9.2397784548386985E-2</v>
       </c>
       <c r="BV14" s="11">
@@ -36620,7 +36613,7 @@
         <v>1.9838961297398541</v>
       </c>
       <c r="BY14" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.125119513580918</v>
       </c>
       <c r="BZ14" s="5"/>
@@ -36688,7 +36681,7 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1967.7419354838707</v>
       </c>
       <c r="BE15" s="15">
@@ -36704,7 +36697,7 @@
         <v>1.6021462033548373</v>
       </c>
       <c r="BH15" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>14.741145806451598</v>
       </c>
       <c r="BI15" s="5">
@@ -36712,7 +36705,7 @@
         <v>0.1446106403612902</v>
       </c>
       <c r="BJ15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.1446106403612902</v>
       </c>
       <c r="BK15" s="5">
@@ -36728,24 +36721,24 @@
         <v>1.6021462033548373</v>
       </c>
       <c r="BN15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2.3807064504459872</v>
       </c>
       <c r="BO15" s="33"/>
       <c r="BP15" s="16">
+        <f t="shared" si="14"/>
+        <v>1967.7419354838707</v>
+      </c>
+      <c r="BQ15" s="15">
         <f t="shared" si="15"/>
-        <v>1967.7419354838707</v>
-      </c>
-      <c r="BQ15" s="15">
+        <v>2.2766774193548382</v>
+      </c>
+      <c r="BR15" s="15">
         <f t="shared" si="16"/>
-        <v>2.2766774193548382</v>
-      </c>
-      <c r="BR15" s="15">
+        <v>1.0772916129032257</v>
+      </c>
+      <c r="BS15" s="11">
         <f t="shared" si="17"/>
-        <v>1.0772916129032257</v>
-      </c>
-      <c r="BS15" s="11">
-        <f t="shared" si="18"/>
         <v>47.116525806451534</v>
       </c>
       <c r="BT15" s="11">
@@ -36753,7 +36746,7 @@
         <v>0.46221311816128957</v>
       </c>
       <c r="BU15" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.15407103938709654</v>
       </c>
       <c r="BV15" s="11">
@@ -36769,7 +36762,7 @@
         <v>2.4526454891571272</v>
       </c>
       <c r="BY15" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>12.94446209958674</v>
       </c>
       <c r="BZ15" s="5"/>
@@ -36843,7 +36836,7 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2064.516129032258</v>
       </c>
       <c r="BE16" s="15">
@@ -36859,7 +36852,7 @@
         <v>2.0940036549677412</v>
       </c>
       <c r="BH16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>21.361468387096764</v>
       </c>
       <c r="BI16" s="5">
@@ -36867,7 +36860,7 @@
         <v>0.20955600487741927</v>
       </c>
       <c r="BJ16" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.20955600487741924</v>
       </c>
       <c r="BK16" s="5">
@@ -36883,24 +36876,24 @@
         <v>2.0940036549677412</v>
       </c>
       <c r="BN16" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2.7693672889241467</v>
       </c>
       <c r="BO16" s="33"/>
       <c r="BP16" s="16">
+        <f t="shared" si="14"/>
+        <v>2064.516129032258</v>
+      </c>
+      <c r="BQ16" s="15">
         <f t="shared" si="15"/>
-        <v>2064.516129032258</v>
-      </c>
-      <c r="BQ16" s="15">
+        <v>2.4576451612903223</v>
+      </c>
+      <c r="BR16" s="15">
         <f t="shared" si="16"/>
-        <v>2.4576451612903223</v>
-      </c>
-      <c r="BR16" s="15">
+        <v>1.2079367741935485</v>
+      </c>
+      <c r="BS16" s="11">
         <f t="shared" si="17"/>
-        <v>1.2079367741935485</v>
-      </c>
-      <c r="BS16" s="11">
-        <f t="shared" si="18"/>
         <v>65.976848387096766</v>
       </c>
       <c r="BT16" s="11">
@@ -36908,7 +36901,7 @@
         <v>0.6472328826774193</v>
       </c>
       <c r="BU16" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.21574429422580643</v>
       </c>
       <c r="BV16" s="11">
@@ -36924,7 +36917,7 @@
         <v>2.9686799682414153</v>
       </c>
       <c r="BY16" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>15.711724325760276</v>
       </c>
       <c r="BZ16" s="5"/>
@@ -36998,7 +36991,7 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2161.2903225806454</v>
       </c>
       <c r="BE17" s="15">
@@ -37014,7 +37007,7 @@
         <v>2.6453772356129042</v>
       </c>
       <c r="BH17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>27.981790967741958</v>
       </c>
       <c r="BI17" s="5">
@@ -37022,7 +37015,7 @@
         <v>0.27450136939354858</v>
       </c>
       <c r="BJ17" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.27450136939354863</v>
       </c>
       <c r="BK17" s="5">
@@ -37038,24 +37031,24 @@
         <v>2.6453772356129042</v>
       </c>
       <c r="BN17" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.0061428588907364</v>
       </c>
       <c r="BO17" s="33"/>
       <c r="BP17" s="16">
+        <f t="shared" si="14"/>
+        <v>2161.2903225806454</v>
+      </c>
+      <c r="BQ17" s="15">
         <f t="shared" si="15"/>
-        <v>2161.2903225806454</v>
-      </c>
-      <c r="BQ17" s="15">
+        <v>2.6386129032258068</v>
+      </c>
+      <c r="BR17" s="15">
         <f t="shared" si="16"/>
-        <v>2.6386129032258068</v>
-      </c>
-      <c r="BR17" s="15">
+        <v>1.3385819354838713</v>
+      </c>
+      <c r="BS17" s="11">
         <f t="shared" si="17"/>
-        <v>1.3385819354838713</v>
-      </c>
-      <c r="BS17" s="11">
-        <f t="shared" si="18"/>
         <v>84.83717096774194</v>
       </c>
       <c r="BT17" s="11">
@@ -37063,7 +37056,7 @@
         <v>0.83225264719354841</v>
       </c>
       <c r="BU17" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.2774175490645161</v>
       </c>
       <c r="BV17" s="11">
@@ -37079,7 +37072,7 @@
         <v>3.5319995669927171</v>
       </c>
       <c r="BY17" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>17.776900075546742</v>
       </c>
       <c r="BZ17" s="5"/>
@@ -37153,7 +37146,7 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2258.0645161290327</v>
       </c>
       <c r="BE18" s="15">
@@ -37169,7 +37162,7 @@
         <v>3.2562669452903243</v>
       </c>
       <c r="BH18" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>34.602113548387123</v>
       </c>
       <c r="BI18" s="5">
@@ -37177,7 +37170,7 @@
         <v>0.33944673390967767</v>
       </c>
       <c r="BJ18" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.33944673390967772</v>
       </c>
       <c r="BK18" s="5">
@@ -37193,24 +37186,24 @@
         <v>3.2562669452903243</v>
       </c>
       <c r="BN18" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.1552050112501147</v>
       </c>
       <c r="BO18" s="33"/>
       <c r="BP18" s="16">
+        <f t="shared" si="14"/>
+        <v>2258.0645161290327</v>
+      </c>
+      <c r="BQ18" s="15">
         <f t="shared" si="15"/>
-        <v>2258.0645161290327</v>
-      </c>
-      <c r="BQ18" s="15">
+        <v>2.8195806451612913</v>
+      </c>
+      <c r="BR18" s="15">
         <f t="shared" si="16"/>
-        <v>2.8195806451612913</v>
-      </c>
-      <c r="BR18" s="15">
+        <v>1.4692270967741945</v>
+      </c>
+      <c r="BS18" s="11">
         <f t="shared" si="17"/>
-        <v>1.4692270967741945</v>
-      </c>
-      <c r="BS18" s="11">
-        <f t="shared" si="18"/>
         <v>103.69749354838717</v>
       </c>
       <c r="BT18" s="11">
@@ -37218,7 +37211,7 @@
         <v>1.0172724117096781</v>
       </c>
       <c r="BU18" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.3390908039032261</v>
       </c>
       <c r="BV18" s="11">
@@ -37234,7 +37227,7 @@
         <v>4.1426042854110339</v>
       </c>
       <c r="BY18" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>19.355684816713087</v>
       </c>
       <c r="BZ18" s="5"/>
@@ -37308,7 +37301,7 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2354.83870967742</v>
       </c>
       <c r="BE19" s="15">
@@ -37324,7 +37317,7 @@
         <v>3.926672784000004</v>
       </c>
       <c r="BH19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>41.222436129032289</v>
       </c>
       <c r="BI19" s="5">
@@ -37332,7 +37325,7 @@
         <v>0.40439209842580676</v>
       </c>
       <c r="BJ19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.40439209842580676</v>
       </c>
       <c r="BK19" s="5">
@@ -37348,24 +37341,24 @@
         <v>3.926672784000004</v>
       </c>
       <c r="BN19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.2507136755783526</v>
       </c>
       <c r="BO19" s="33"/>
       <c r="BP19" s="16">
+        <f t="shared" si="14"/>
+        <v>2354.83870967742</v>
+      </c>
+      <c r="BQ19" s="15">
         <f t="shared" si="15"/>
-        <v>2354.83870967742</v>
-      </c>
-      <c r="BQ19" s="15">
+        <v>3.0005483870967748</v>
+      </c>
+      <c r="BR19" s="15">
         <f t="shared" si="16"/>
-        <v>3.0005483870967748</v>
-      </c>
-      <c r="BR19" s="15">
+        <v>1.5998722580645173</v>
+      </c>
+      <c r="BS19" s="11">
         <f t="shared" si="17"/>
-        <v>1.5998722580645173</v>
-      </c>
-      <c r="BS19" s="11">
-        <f t="shared" si="18"/>
         <v>122.55781612903235</v>
       </c>
       <c r="BT19" s="11">
@@ -37373,7 +37366,7 @@
         <v>1.2022921762258074</v>
       </c>
       <c r="BU19" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.40076405874193588</v>
       </c>
       <c r="BV19" s="11">
@@ -37389,7 +37382,7 @@
         <v>4.8004941234963621</v>
       </c>
       <c r="BY19" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>20.587026507776905</v>
       </c>
       <c r="BZ19" s="5"/>
@@ -37463,7 +37456,7 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2451.6129032258073</v>
       </c>
       <c r="BE20" s="15">
@@ -37479,7 +37472,7 @@
         <v>4.6565947517419417</v>
       </c>
       <c r="BH20" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>47.842758709677483</v>
       </c>
       <c r="BI20" s="5">
@@ -37487,7 +37480,7 @@
         <v>0.46933746294193612</v>
       </c>
       <c r="BJ20" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.46933746294193612</v>
       </c>
       <c r="BK20" s="5">
@@ -37503,24 +37496,24 @@
         <v>4.6565947517419417</v>
       </c>
       <c r="BN20" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3121368966681732</v>
       </c>
       <c r="BO20" s="33"/>
       <c r="BP20" s="16">
+        <f t="shared" si="14"/>
+        <v>2451.6129032258073</v>
+      </c>
+      <c r="BQ20" s="15">
         <f t="shared" si="15"/>
-        <v>2451.6129032258073</v>
-      </c>
-      <c r="BQ20" s="15">
+        <v>3.1815161290322593</v>
+      </c>
+      <c r="BR20" s="15">
         <f t="shared" si="16"/>
-        <v>3.1815161290322593</v>
-      </c>
-      <c r="BR20" s="15">
+        <v>1.73051741935484</v>
+      </c>
+      <c r="BS20" s="11">
         <f t="shared" si="17"/>
-        <v>1.73051741935484</v>
-      </c>
-      <c r="BS20" s="11">
-        <f t="shared" si="18"/>
         <v>141.41813870967758</v>
       </c>
       <c r="BT20" s="11">
@@ -37528,7 +37521,7 @@
         <v>1.3873119407419372</v>
       </c>
       <c r="BU20" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.46243731358064566</v>
       </c>
       <c r="BV20" s="11">
@@ -37544,7 +37537,7 @@
         <v>5.5056690812487057</v>
       </c>
       <c r="BY20" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>21.563750440405162</v>
       </c>
       <c r="BZ20" s="5"/>
@@ -37606,7 +37599,7 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2548.3870967741946</v>
       </c>
       <c r="BE21" s="15">
@@ -37622,7 +37615,7 @@
         <v>5.4460328485161371</v>
       </c>
       <c r="BH21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>54.463081290322648</v>
       </c>
       <c r="BI21" s="5">
@@ -37630,7 +37623,7 @@
         <v>0.53428282745806521</v>
       </c>
       <c r="BJ21" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.53428282745806521</v>
       </c>
       <c r="BK21" s="5">
@@ -37646,24 +37639,24 @@
         <v>5.4460328485161371</v>
       </c>
       <c r="BN21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3511661435420752</v>
       </c>
       <c r="BO21" s="33"/>
       <c r="BP21" s="16">
+        <f t="shared" si="14"/>
+        <v>2548.3870967741946</v>
+      </c>
+      <c r="BQ21" s="15">
         <f t="shared" si="15"/>
-        <v>2548.3870967741946</v>
-      </c>
-      <c r="BQ21" s="15">
+        <v>3.3624838709677438</v>
+      </c>
+      <c r="BR21" s="15">
         <f t="shared" si="16"/>
-        <v>3.3624838709677438</v>
-      </c>
-      <c r="BR21" s="15">
+        <v>1.8611625806451628</v>
+      </c>
+      <c r="BS21" s="11">
         <f t="shared" si="17"/>
-        <v>1.8611625806451628</v>
-      </c>
-      <c r="BS21" s="11">
-        <f t="shared" si="18"/>
         <v>160.27846129032275</v>
       </c>
       <c r="BT21" s="11">
@@ -37671,7 +37664,7 @@
         <v>1.5723317052580663</v>
       </c>
       <c r="BU21" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.52411056841935544</v>
       </c>
       <c r="BV21" s="11">
@@ -37687,7 +37680,7 @@
         <v>6.258129158668063</v>
       </c>
       <c r="BY21" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>22.349788928375887</v>
       </c>
       <c r="BZ21" s="5"/>
@@ -37749,7 +37742,7 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2645.1612903225819</v>
       </c>
       <c r="BE22" s="15">
@@ -37765,7 +37758,7 @@
         <v>6.2949870743225906</v>
       </c>
       <c r="BH22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>61.083403870967814</v>
       </c>
       <c r="BI22" s="5">
@@ -37773,7 +37766,7 @@
         <v>0.5992281919741943</v>
       </c>
       <c r="BJ22" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.5992281919741943</v>
       </c>
       <c r="BK22" s="5">
@@ -37789,24 +37782,24 @@
         <v>6.2949870743225906</v>
       </c>
       <c r="BN22" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3751195186091407</v>
       </c>
       <c r="BO22" s="33"/>
       <c r="BP22" s="16">
+        <f t="shared" si="14"/>
+        <v>2645.1612903225819</v>
+      </c>
+      <c r="BQ22" s="15">
         <f t="shared" si="15"/>
-        <v>2645.1612903225819</v>
-      </c>
-      <c r="BQ22" s="15">
+        <v>3.5434516129032274</v>
+      </c>
+      <c r="BR22" s="15">
         <f t="shared" si="16"/>
-        <v>3.5434516129032274</v>
-      </c>
-      <c r="BR22" s="15">
+        <v>1.9918077419354856</v>
+      </c>
+      <c r="BS22" s="11">
         <f t="shared" si="17"/>
-        <v>1.9918077419354856</v>
-      </c>
-      <c r="BS22" s="11">
-        <f t="shared" si="18"/>
         <v>179.13878387096793</v>
       </c>
       <c r="BT22" s="11">
@@ -37814,7 +37807,7 @@
         <v>1.7573514697741954</v>
       </c>
       <c r="BU22" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.585783823258065</v>
       </c>
       <c r="BV22" s="11">
@@ -37830,7 +37823,7 @@
         <v>7.0578743557544321</v>
       </c>
       <c r="BY22" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>22.990332033933463</v>
       </c>
       <c r="BZ22" s="5"/>
@@ -37910,7 +37903,7 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2741.9354838709692</v>
       </c>
       <c r="BE23" s="15">
@@ -37926,7 +37919,7 @@
         <v>7.2034574291613032</v>
       </c>
       <c r="BH23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>67.703726451613008</v>
       </c>
       <c r="BI23" s="5">
@@ -37934,7 +37927,7 @@
         <v>0.66417355649032372</v>
       </c>
       <c r="BJ23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.66417355649032361</v>
       </c>
       <c r="BK23" s="5">
@@ -37950,24 +37943,24 @@
         <v>7.2034574291613032</v>
       </c>
       <c r="BN23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.388733544447061</v>
       </c>
       <c r="BO23" s="33"/>
       <c r="BP23" s="16">
+        <f t="shared" si="14"/>
+        <v>2741.9354838709692</v>
+      </c>
+      <c r="BQ23" s="15">
         <f t="shared" si="15"/>
-        <v>2741.9354838709692</v>
-      </c>
-      <c r="BQ23" s="15">
+        <v>3.7244193548387119</v>
+      </c>
+      <c r="BR23" s="15">
         <f t="shared" si="16"/>
-        <v>3.7244193548387119</v>
-      </c>
-      <c r="BR23" s="15">
+        <v>2.1224529032258088</v>
+      </c>
+      <c r="BS23" s="11">
         <f t="shared" si="17"/>
-        <v>2.1224529032258088</v>
-      </c>
-      <c r="BS23" s="11">
-        <f t="shared" si="18"/>
         <v>197.99910645161322</v>
       </c>
       <c r="BT23" s="11">
@@ -37975,7 +37968,7 @@
         <v>1.9423712342903257</v>
       </c>
       <c r="BU23" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.64745707809677544</v>
       </c>
       <c r="BV23" s="11">
@@ -37991,7 +37984,7 @@
         <v>7.9049046725078176</v>
       </c>
       <c r="BY23" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>23.518044695916821</v>
       </c>
       <c r="BZ23" s="5"/>
@@ -38089,7 +38082,7 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2838.7096774193565</v>
       </c>
       <c r="BE24" s="15">
@@ -38105,7 +38098,7 @@
         <v>8.1714439130322738</v>
       </c>
       <c r="BH24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>74.324049032258173</v>
       </c>
       <c r="BI24" s="5">
@@ -38113,7 +38106,7 @@
         <v>0.7291189210064527</v>
       </c>
       <c r="BJ24" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.7291189210064527</v>
       </c>
       <c r="BK24" s="5">
@@ -38129,24 +38122,24 @@
         <v>8.1714439130322738</v>
       </c>
       <c r="BN24" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3951592204027996</v>
       </c>
       <c r="BO24" s="33"/>
       <c r="BP24" s="16">
+        <f t="shared" si="14"/>
+        <v>2838.7096774193565</v>
+      </c>
+      <c r="BQ24" s="15">
         <f t="shared" si="15"/>
-        <v>2838.7096774193565</v>
-      </c>
-      <c r="BQ24" s="15">
+        <v>3.9053870967741964</v>
+      </c>
+      <c r="BR24" s="15">
         <f t="shared" si="16"/>
-        <v>3.9053870967741964</v>
-      </c>
-      <c r="BR24" s="15">
+        <v>2.2530980645161316</v>
+      </c>
+      <c r="BS24" s="11">
         <f t="shared" si="17"/>
-        <v>2.2530980645161316</v>
-      </c>
-      <c r="BS24" s="11">
-        <f t="shared" si="18"/>
         <v>216.85942903225839</v>
       </c>
       <c r="BT24" s="11">
@@ -38154,7 +38147,7 @@
         <v>2.1273909988064545</v>
       </c>
       <c r="BU24" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.709130332935485</v>
       </c>
       <c r="BV24" s="11">
@@ -38170,7 +38163,7 @@
         <v>8.7992201089282158</v>
       </c>
       <c r="BY24" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>23.957003315114036</v>
       </c>
       <c r="BZ24" s="5"/>
@@ -38268,7 +38261,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2935.4838709677438</v>
       </c>
       <c r="BE25" s="15">
@@ -38284,7 +38277,7 @@
         <v>9.1989465259355043</v>
       </c>
       <c r="BH25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>80.944371612903339</v>
       </c>
       <c r="BI25" s="5">
@@ -38292,7 +38285,7 @@
         <v>0.79406428552258179</v>
       </c>
       <c r="BJ25" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.79406428552258179</v>
       </c>
       <c r="BK25" s="5">
@@ -38308,24 +38301,24 @@
         <v>9.1989465259355043</v>
       </c>
       <c r="BN25" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3965410727488337</v>
       </c>
       <c r="BO25" s="33"/>
       <c r="BP25" s="16">
+        <f t="shared" si="14"/>
+        <v>2935.4838709677438</v>
+      </c>
+      <c r="BQ25" s="15">
         <f t="shared" si="15"/>
-        <v>2935.4838709677438</v>
-      </c>
-      <c r="BQ25" s="15">
+        <v>4.0863548387096813</v>
+      </c>
+      <c r="BR25" s="15">
         <f t="shared" si="16"/>
-        <v>4.0863548387096813</v>
-      </c>
-      <c r="BR25" s="15">
+        <v>2.3837432258064544</v>
+      </c>
+      <c r="BS25" s="11">
         <f t="shared" si="17"/>
-        <v>2.3837432258064544</v>
-      </c>
-      <c r="BS25" s="11">
-        <f t="shared" si="18"/>
         <v>235.71975161290356</v>
       </c>
       <c r="BT25" s="11">
@@ -38333,7 +38326,7 @@
         <v>2.3124107633225841</v>
       </c>
       <c r="BU25" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.77080358777419455</v>
       </c>
       <c r="BV25" s="11">
@@ -38349,7 +38342,7 @@
         <v>9.7408206650156295</v>
       </c>
       <c r="BY25" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>24.325261164966847</v>
       </c>
       <c r="BZ25" s="5"/>
@@ -38441,7 +38434,7 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3032.2580645161311</v>
       </c>
       <c r="BE26" s="15">
@@ -38457,7 +38450,7 @@
         <v>10.285965267870992</v>
       </c>
       <c r="BH26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>87.564694193548533</v>
       </c>
       <c r="BI26" s="5">
@@ -38465,7 +38458,7 @@
         <v>0.8590096500387111</v>
       </c>
       <c r="BJ26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.85900965003871121</v>
       </c>
       <c r="BK26" s="5">
@@ -38481,24 +38474,24 @@
         <v>10.285965267870992</v>
       </c>
       <c r="BN26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3943666525227121</v>
       </c>
       <c r="BO26" s="33"/>
       <c r="BP26" s="16">
+        <f t="shared" si="14"/>
+        <v>3032.2580645161311</v>
+      </c>
+      <c r="BQ26" s="15">
         <f t="shared" si="15"/>
-        <v>3032.2580645161311</v>
-      </c>
-      <c r="BQ26" s="15">
+        <v>4.267322580645164</v>
+      </c>
+      <c r="BR26" s="15">
         <f t="shared" si="16"/>
-        <v>4.267322580645164</v>
-      </c>
-      <c r="BR26" s="15">
+        <v>2.5143883870967771</v>
+      </c>
+      <c r="BS26" s="11">
         <f t="shared" si="17"/>
-        <v>2.5143883870967771</v>
-      </c>
-      <c r="BS26" s="11">
-        <f t="shared" si="18"/>
         <v>254.58007419354874</v>
       </c>
       <c r="BT26" s="11">
@@ -38506,7 +38499,7 @@
         <v>2.4974305278387132</v>
       </c>
       <c r="BU26" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.83247684261290456</v>
       </c>
       <c r="BV26" s="11">
@@ -38522,7 +38515,7 @@
         <v>10.729706340770051</v>
       </c>
       <c r="BY26" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>24.63656291816357</v>
       </c>
       <c r="BZ26" s="5"/>
@@ -38608,7 +38601,7 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3129.0322580645184</v>
       </c>
       <c r="BE27" s="15">
@@ -38624,7 +38617,7 @@
         <v>11.432500138838735</v>
       </c>
       <c r="BH27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>94.185016774193699</v>
       </c>
       <c r="BI27" s="5">
@@ -38632,7 +38625,7 @@
         <v>0.92395501455484019</v>
       </c>
       <c r="BJ27" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.92395501455484019</v>
       </c>
       <c r="BK27" s="5">
@@ -38648,24 +38641,24 @@
         <v>11.432500138838735</v>
       </c>
       <c r="BN27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3896843256890756</v>
       </c>
       <c r="BO27" s="33"/>
       <c r="BP27" s="16">
+        <f t="shared" si="14"/>
+        <v>3129.0322580645184</v>
+      </c>
+      <c r="BQ27" s="15">
         <f t="shared" si="15"/>
-        <v>3129.0322580645184</v>
-      </c>
-      <c r="BQ27" s="15">
+        <v>4.4482903225806485</v>
+      </c>
+      <c r="BR27" s="15">
         <f t="shared" si="16"/>
-        <v>4.4482903225806485</v>
-      </c>
-      <c r="BR27" s="15">
+        <v>2.6450335483870999</v>
+      </c>
+      <c r="BS27" s="11">
         <f t="shared" si="17"/>
-        <v>2.6450335483870999</v>
-      </c>
-      <c r="BS27" s="11">
-        <f t="shared" si="18"/>
         <v>273.44039677419403</v>
       </c>
       <c r="BT27" s="11">
@@ -38673,7 +38666,7 @@
         <v>2.6824502923548432</v>
       </c>
       <c r="BU27" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.89415009745161456</v>
       </c>
       <c r="BV27" s="11">
@@ -38689,7 +38682,7 @@
         <v>11.76587713619149</v>
       </c>
       <c r="BY27" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>24.901516316140579</v>
       </c>
       <c r="BZ27" s="5"/>
@@ -38751,7 +38744,7 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3225.8064516129057</v>
       </c>
       <c r="BE28" s="15">
@@ -38767,7 +38760,7 @@
         <v>12.638551138838739</v>
       </c>
       <c r="BH28" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>100.80533935483886</v>
       </c>
       <c r="BI28" s="5">
@@ -38775,7 +38768,7 @@
         <v>0.98890037907096928</v>
       </c>
       <c r="BJ28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.98890037907096928</v>
       </c>
       <c r="BK28" s="5">
@@ -38791,24 +38784,24 @@
         <v>12.638551138838739</v>
       </c>
       <c r="BN28" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3832427721350418</v>
       </c>
       <c r="BO28" s="33"/>
       <c r="BP28" s="16">
+        <f t="shared" si="14"/>
+        <v>3225.8064516129057</v>
+      </c>
+      <c r="BQ28" s="15">
         <f t="shared" si="15"/>
-        <v>3225.8064516129057</v>
-      </c>
-      <c r="BQ28" s="15">
+        <v>4.629258064516133</v>
+      </c>
+      <c r="BR28" s="15">
         <f t="shared" si="16"/>
-        <v>4.629258064516133</v>
-      </c>
-      <c r="BR28" s="15">
+        <v>2.7756787096774227</v>
+      </c>
+      <c r="BS28" s="11">
         <f t="shared" si="17"/>
-        <v>2.7756787096774227</v>
-      </c>
-      <c r="BS28" s="11">
-        <f t="shared" si="18"/>
         <v>292.3007193548392</v>
       </c>
       <c r="BT28" s="11">
@@ -38816,7 +38809,7 @@
         <v>2.8674700568709728</v>
       </c>
       <c r="BU28" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.95582335229032411</v>
       </c>
       <c r="BV28" s="11">
@@ -38832,7 +38825,7 @@
         <v>12.849333051279944</v>
       </c>
       <c r="BY28" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.128408900085415</v>
       </c>
       <c r="BZ28" s="5"/>
@@ -38894,7 +38887,7 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3322.580645161293</v>
       </c>
       <c r="BE29" s="15">
@@ -38910,7 +38903,7 @@
         <v>13.904118267871002</v>
       </c>
       <c r="BH29" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>107.42566193548406</v>
       </c>
       <c r="BI29" s="5">
@@ -38918,7 +38911,7 @@
         <v>1.0538457435870987</v>
       </c>
       <c r="BJ29" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0538457435870987</v>
       </c>
       <c r="BK29" s="5">
@@ -38934,24 +38927,24 @@
         <v>13.904118267871002</v>
       </c>
       <c r="BN29" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3755824993770727</v>
       </c>
       <c r="BO29" s="33"/>
       <c r="BP29" s="16">
+        <f t="shared" si="14"/>
+        <v>3322.580645161293</v>
+      </c>
+      <c r="BQ29" s="15">
         <f t="shared" si="15"/>
-        <v>3322.580645161293</v>
-      </c>
-      <c r="BQ29" s="15">
+        <v>4.8102258064516175</v>
+      </c>
+      <c r="BR29" s="15">
         <f t="shared" si="16"/>
-        <v>4.8102258064516175</v>
-      </c>
-      <c r="BR29" s="15">
+        <v>2.9063238709677455</v>
+      </c>
+      <c r="BS29" s="11">
         <f t="shared" si="17"/>
-        <v>2.9063238709677455</v>
-      </c>
-      <c r="BS29" s="11">
-        <f t="shared" si="18"/>
         <v>311.16104193548438</v>
       </c>
       <c r="BT29" s="11">
@@ -38959,7 +38952,7 @@
         <v>3.0524898213871019</v>
       </c>
       <c r="BU29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.0174966071290337</v>
       </c>
       <c r="BV29" s="11">
@@ -38975,7 +38968,7 @@
         <v>13.98007408603541</v>
       </c>
       <c r="BY29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.323787538975676</v>
       </c>
       <c r="BZ29" s="5"/>
@@ -39037,7 +39030,7 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3419.3548387096803</v>
       </c>
       <c r="BE30" s="15">
@@ -39053,7 +39046,7 @@
         <v>15.229201525935524</v>
       </c>
       <c r="BH30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>114.04598451612922</v>
       </c>
       <c r="BI30" s="5">
@@ -39061,7 +39054,7 @@
         <v>1.1187911081032278</v>
       </c>
       <c r="BJ30" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1187911081032278</v>
       </c>
       <c r="BK30" s="5">
@@ -39077,24 +39070,24 @@
         <v>15.229201525935524</v>
       </c>
       <c r="BN30" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3670971486856902</v>
       </c>
       <c r="BO30" s="33"/>
       <c r="BP30" s="16">
+        <f t="shared" si="14"/>
+        <v>3419.3548387096803</v>
+      </c>
+      <c r="BQ30" s="15">
         <f t="shared" si="15"/>
-        <v>3419.3548387096803</v>
-      </c>
-      <c r="BQ30" s="15">
+        <v>4.9911935483871019</v>
+      </c>
+      <c r="BR30" s="15">
         <f t="shared" si="16"/>
-        <v>4.9911935483871019</v>
-      </c>
-      <c r="BR30" s="15">
+        <v>3.0369690322580691</v>
+      </c>
+      <c r="BS30" s="11">
         <f t="shared" si="17"/>
-        <v>3.0369690322580691</v>
-      </c>
-      <c r="BS30" s="11">
-        <f t="shared" si="18"/>
         <v>330.02136451612955</v>
       </c>
       <c r="BT30" s="11">
@@ -39102,7 +39095,7 @@
         <v>3.2375095859032315</v>
       </c>
       <c r="BU30" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.0791698619677437</v>
       </c>
       <c r="BV30" s="11">
@@ -39118,7 +39111,7 @@
         <v>15.158100240457895</v>
       </c>
       <c r="BY30" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.492876292838915</v>
       </c>
       <c r="BZ30" s="5"/>
@@ -39180,7 +39173,7 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3516.1290322580676</v>
       </c>
       <c r="BE31" s="15">
@@ -39196,7 +39189,7 @@
         <v>16.613800913032303</v>
       </c>
       <c r="BH31" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>120.66630709677439</v>
       </c>
       <c r="BI31" s="5">
@@ -39204,7 +39197,7 @@
         <v>1.1837364726193569</v>
       </c>
       <c r="BJ31" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1837364726193569</v>
       </c>
       <c r="BK31" s="5">
@@ -39220,24 +39213,24 @@
         <v>16.613800913032303</v>
       </c>
       <c r="BN31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3580753317141516</v>
       </c>
       <c r="BO31" s="33"/>
       <c r="BP31" s="16">
+        <f t="shared" si="14"/>
+        <v>3516.1290322580676</v>
+      </c>
+      <c r="BQ31" s="15">
         <f t="shared" si="15"/>
-        <v>3516.1290322580676</v>
-      </c>
-      <c r="BQ31" s="15">
+        <v>5.1721612903225864</v>
+      </c>
+      <c r="BR31" s="15">
         <f t="shared" si="16"/>
-        <v>5.1721612903225864</v>
-      </c>
-      <c r="BR31" s="15">
+        <v>3.1676141935483919</v>
+      </c>
+      <c r="BS31" s="11">
         <f t="shared" si="17"/>
-        <v>3.1676141935483919</v>
-      </c>
-      <c r="BS31" s="11">
-        <f t="shared" si="18"/>
         <v>348.88168709677484</v>
       </c>
       <c r="BT31" s="11">
@@ -39245,7 +39238,7 @@
         <v>3.4225293504193615</v>
       </c>
       <c r="BU31" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.1408431168064541</v>
       </c>
       <c r="BV31" s="11">
@@ -39261,7 +39254,7 @@
         <v>16.38341151454739</v>
       </c>
       <c r="BY31" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.639882122510645</v>
       </c>
       <c r="BZ31" s="5"/>
@@ -39323,7 +39316,7 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3612.9032258064549</v>
       </c>
       <c r="BE32" s="15">
@@ -39339,7 +39332,7 @@
         <v>18.057916429161338</v>
       </c>
       <c r="BH32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>127.28662967741958</v>
       </c>
       <c r="BI32" s="5">
@@ -39347,7 +39340,7 @@
         <v>1.2486818371354862</v>
       </c>
       <c r="BJ32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.2486818371354862</v>
       </c>
       <c r="BK32" s="5">
@@ -39363,24 +39356,24 @@
         <v>18.057916429161338</v>
       </c>
       <c r="BN32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.348729653473236</v>
       </c>
       <c r="BO32" s="33"/>
       <c r="BP32" s="16">
+        <f t="shared" si="14"/>
+        <v>3612.9032258064549</v>
+      </c>
+      <c r="BQ32" s="15">
         <f t="shared" si="15"/>
-        <v>3612.9032258064549</v>
-      </c>
-      <c r="BQ32" s="15">
+        <v>5.3531290322580709</v>
+      </c>
+      <c r="BR32" s="15">
         <f t="shared" si="16"/>
-        <v>5.3531290322580709</v>
-      </c>
-      <c r="BR32" s="15">
+        <v>3.2982593548387147</v>
+      </c>
+      <c r="BS32" s="11">
         <f t="shared" si="17"/>
-        <v>3.2982593548387147</v>
-      </c>
-      <c r="BS32" s="11">
-        <f t="shared" si="18"/>
         <v>367.74200967742001</v>
       </c>
       <c r="BT32" s="11">
@@ -39388,7 +39381,7 @@
         <v>3.6075491149354906</v>
       </c>
       <c r="BU32" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.2025163716451637</v>
       </c>
       <c r="BV32" s="11">
@@ -39404,7 +39397,7 @@
         <v>17.656007908303899</v>
       </c>
       <c r="BY32" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.768221530945542</v>
       </c>
       <c r="BZ32" s="5"/>
@@ -39466,7 +39459,7 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3709.6774193548422</v>
       </c>
       <c r="BE33" s="15">
@@ -39482,7 +39475,7 @@
         <v>19.561548074322634</v>
       </c>
       <c r="BH33" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>133.90695225806473</v>
       </c>
       <c r="BI33" s="5">
@@ -39490,7 +39483,7 @@
         <v>1.3136272016516153</v>
       </c>
       <c r="BJ33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3136272016516151</v>
       </c>
       <c r="BK33" s="5">
@@ -39506,24 +39499,24 @@
         <v>19.561548074322634</v>
       </c>
       <c r="BN33" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3392171432030171</v>
       </c>
       <c r="BO33" s="33"/>
       <c r="BP33" s="16">
+        <f t="shared" si="14"/>
+        <v>3709.6774193548422</v>
+      </c>
+      <c r="BQ33" s="15">
         <f t="shared" si="15"/>
-        <v>3709.6774193548422</v>
-      </c>
-      <c r="BQ33" s="15">
+        <v>5.5340967741935554</v>
+      </c>
+      <c r="BR33" s="15">
         <f t="shared" si="16"/>
-        <v>5.5340967741935554</v>
-      </c>
-      <c r="BR33" s="15">
+        <v>3.4289045161290375</v>
+      </c>
+      <c r="BS33" s="11">
         <f t="shared" si="17"/>
-        <v>3.4289045161290375</v>
-      </c>
-      <c r="BS33" s="11">
-        <f t="shared" si="18"/>
         <v>386.60233225806519</v>
       </c>
       <c r="BT33" s="11">
@@ -39531,7 +39524,7 @@
         <v>3.7925688794516197</v>
       </c>
       <c r="BU33" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.2641896264838732</v>
       </c>
       <c r="BV33" s="11">
@@ -39547,7 +39540,7 @@
         <v>18.97588942172742</v>
       </c>
       <c r="BY33" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.880690636260365</v>
       </c>
       <c r="BZ33" s="5"/>
@@ -39609,7 +39602,7 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3806.4516129032295</v>
       </c>
       <c r="BE34" s="15">
@@ -39625,7 +39618,7 @@
         <v>21.12469584851619</v>
       </c>
       <c r="BH34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>140.52727483870996</v>
       </c>
       <c r="BI34" s="5">
@@ -39633,7 +39626,7 @@
         <v>1.3785725661677448</v>
       </c>
       <c r="BJ34" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3785725661677448</v>
       </c>
       <c r="BK34" s="5">
@@ -39649,24 +39642,24 @@
         <v>21.12469584851619</v>
       </c>
       <c r="BN34" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3296538264850994</v>
       </c>
       <c r="BO34" s="33"/>
       <c r="BP34" s="16">
+        <f t="shared" si="14"/>
+        <v>3806.4516129032295</v>
+      </c>
+      <c r="BQ34" s="15">
         <f t="shared" si="15"/>
-        <v>3806.4516129032295</v>
-      </c>
-      <c r="BQ34" s="15">
+        <v>5.7150645161290381</v>
+      </c>
+      <c r="BR34" s="15">
         <f t="shared" si="16"/>
-        <v>5.7150645161290381</v>
-      </c>
-      <c r="BR34" s="15">
+        <v>3.5595496774193602</v>
+      </c>
+      <c r="BS34" s="11">
         <f t="shared" si="17"/>
-        <v>3.5595496774193602</v>
-      </c>
-      <c r="BS34" s="11">
-        <f t="shared" si="18"/>
         <v>405.46265483871036</v>
       </c>
       <c r="BT34" s="11">
@@ -39674,7 +39667,7 @@
         <v>3.9775886439677488</v>
       </c>
       <c r="BU34" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.3258628813225832</v>
       </c>
       <c r="BV34" s="11">
@@ -39690,7 +39683,7 @@
         <v>20.34305605481795</v>
       </c>
       <c r="BY34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.97959422558564</v>
       </c>
       <c r="BZ34" s="5"/>
@@ -39752,7 +39745,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3903.2258064516168</v>
       </c>
       <c r="BE35" s="15">
@@ -39768,7 +39761,7 @@
         <v>22.747359751742003</v>
       </c>
       <c r="BH35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>147.14759741935512</v>
       </c>
       <c r="BI35" s="5">
@@ -39776,7 +39769,7 @@
         <v>1.4435179306838739</v>
       </c>
       <c r="BJ35" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.4435179306838739</v>
       </c>
       <c r="BK35" s="5">
@@ -39792,24 +39785,24 @@
         <v>22.747359751742003</v>
       </c>
       <c r="BN35" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.32012524154253</v>
       </c>
       <c r="BO35" s="33"/>
       <c r="BP35" s="16">
+        <f t="shared" si="14"/>
+        <v>3903.2258064516168</v>
+      </c>
+      <c r="BQ35" s="15">
         <f t="shared" si="15"/>
-        <v>3903.2258064516168</v>
-      </c>
-      <c r="BQ35" s="15">
+        <v>5.8960322580645226</v>
+      </c>
+      <c r="BR35" s="15">
         <f t="shared" si="16"/>
-        <v>5.8960322580645226</v>
-      </c>
-      <c r="BR35" s="15">
+        <v>3.690194838709683</v>
+      </c>
+      <c r="BS35" s="11">
         <f t="shared" si="17"/>
-        <v>3.690194838709683</v>
-      </c>
-      <c r="BS35" s="11">
-        <f t="shared" si="18"/>
         <v>424.32297741935565</v>
       </c>
       <c r="BT35" s="11">
@@ -39817,7 +39810,7 @@
         <v>4.1626084084838793</v>
       </c>
       <c r="BU35" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.3875361361612928</v>
       </c>
       <c r="BV35" s="11">
@@ -39833,7 +39826,7 @@
         <v>21.7575078075755</v>
       </c>
       <c r="BY35" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>26.06684469434196</v>
       </c>
       <c r="BZ35" s="5"/>
@@ -39910,7 +39903,7 @@
         <v>24.429539784000003</v>
       </c>
       <c r="BH36" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>153.76792</v>
       </c>
       <c r="BI36" s="5">
@@ -39918,7 +39911,7 @@
         <v>1.5084632952000001</v>
       </c>
       <c r="BJ36" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5084632952000001</v>
       </c>
       <c r="BK36" s="5">
@@ -39934,7 +39927,7 @@
         <v>24.429539784000003</v>
       </c>
       <c r="BN36" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.3106941091425401</v>
       </c>
       <c r="BO36" s="33"/>
@@ -39942,15 +39935,15 @@
         <v>4000</v>
       </c>
       <c r="BQ36" s="15">
+        <f t="shared" si="15"/>
+        <v>6.077</v>
+      </c>
+      <c r="BR36" s="15">
         <f t="shared" si="16"/>
-        <v>6.077</v>
-      </c>
-      <c r="BR36" s="15">
+        <v>3.8208400000000005</v>
+      </c>
+      <c r="BS36" s="11">
         <f t="shared" si="17"/>
-        <v>3.8208400000000005</v>
-      </c>
-      <c r="BS36" s="11">
-        <f t="shared" si="18"/>
         <v>443.18330000000003</v>
       </c>
       <c r="BT36" s="11">
@@ -39958,7 +39951,7 @@
         <v>4.3476281730000013</v>
       </c>
       <c r="BU36" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.4492093910000001</v>
       </c>
       <c r="BV36" s="11">
@@ -39974,7 +39967,7 @@
         <v>23.219244680000003</v>
       </c>
       <c r="BY36" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>26.144038622624134</v>
       </c>
       <c r="BZ36" s="5"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED18DEE-836E-40E0-BD53-10BDBBAEF06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F00BA-5580-4859-9588-306B5F23C2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5007,7 +5007,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Spænding</a:t>
+              <a:t>Strømstyrke</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5412,12 +5412,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="da-DK" sz="1400"/>
-                  <a:t>Spænding</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="da-DK" sz="1400" baseline="0"/>
-                  <a:t> [V]</a:t>
+                  <a:t>Strømstyrke [A]</a:t>
                 </a:r>
                 <a:endParaRPr lang="da-DK" sz="1400"/>
               </a:p>
@@ -5580,7 +5576,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Spænding</a:t>
+              <a:t>Vægt</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -6186,7 +6182,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Spænding</a:t>
+              <a:t>Vægt</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -7260,121 +7256,121 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>-4.1105152187699896E-2</c:v>
+                  <c:v>0.5995078920000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10174961644387916</c:v>
+                  <c:v>0.79657297735654264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31822142454914221</c:v>
+                  <c:v>1.0291678726631319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60831027212808975</c:v>
+                  <c:v>1.2999974374589052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97201615918072137</c:v>
+                  <c:v>1.6118384690367018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4093390857070369</c:v>
+                  <c:v>1.9675397024430599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9202790517070374</c:v>
+                  <c:v>2.3700218104782191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5048360571807216</c:v>
+                  <c:v>2.8222774036961198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1630101021280899</c:v>
+                  <c:v>3.327371030404402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8948011865491412</c:v>
+                  <c:v>3.888439176664404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7002093104438769</c:v>
+                  <c:v>4.5086902662911701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5792344738122965</c:v>
+                  <c:v>5.1914046608534417</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5318766766543988</c:v>
+                  <c:v>5.9399346596736615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5581359189701871</c:v>
+                  <c:v>6.7577044998279714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6580122007596572</c:v>
+                  <c:v>7.6482103561462145</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.8315055220228107</c:v>
+                  <c:v>8.6150203412119328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.078615882759651</c:v>
+                  <c:v>9.6617745053623736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.399343282970175</c:v>
+                  <c:v>10.792184836688483</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.793687722654381</c:v>
+                  <c:v>12.010035261034901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.261649201812272</c:v>
+                  <c:v>13.319181641999977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.803227720443846</c:v>
+                  <c:v>14.723551780935754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.418423278549106</c:v>
+                  <c:v>16.227145416947977</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.107235876128048</c:v>
+                  <c:v>17.834034226896101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.869665513180678</c:v>
+                  <c:v>19.548361825393265</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23.705712189706983</c:v>
+                  <c:v>21.374343764806323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.61537590570698</c:v>
+                  <c:v>23.316267535255822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.598656661180659</c:v>
+                  <c:v>25.378492564616007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.655554456128019</c:v>
+                  <c:v>27.565450218514833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.786069290549072</c:v>
+                  <c:v>29.881643800333951</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.990201164443803</c:v>
+                  <c:v>32.331648551208701</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.267950077812216</c:v>
+                  <c:v>34.920111650028147</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38.619316030654304</c:v>
+                  <c:v>37.651752213435032</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.04429902297008</c:v>
+                  <c:v>40.531361295825796</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.542899054759552</c:v>
+                  <c:v>43.563801889350628</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46.115116126022698</c:v>
+                  <c:v>46.754008923913354</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>48.760950236759541</c:v>
+                  <c:v>50.106989267171521</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.480401386970058</c:v>
+                  <c:v>53.627821724536396</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54.273469576654264</c:v>
+                  <c:v>57.321657039172933</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57.140154805812308</c:v>
+                  <c:v>61.193717891999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8668,106 +8664,106 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.50122960701521024</c:v>
+                  <c:v>0.35902832110731292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46669219526704536</c:v>
+                  <c:v>0.3781312231829832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44629558632285038</c:v>
+                  <c:v>0.3960975895984083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43445563804388809</c:v>
+                  <c:v>0.41299499199291484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42818670813301007</c:v>
+                  <c:v>0.42888727922230563</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42574967597914354</c:v>
+                  <c:v>0.44383456675140853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4260637369725116</c:v>
+                  <c:v>0.45789331494099833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42842220332248931</c:v>
+                  <c:v>0.47111646137144547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43234367151148967</c:v>
+                  <c:v>0.48355358436783119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4374889260616216</c:v>
+                  <c:v>0.49525108269215423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44361205742360715</c:v>
+                  <c:v>0.50625236151010067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45053042855761133</c:v>
+                  <c:v>0.51659801817095541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45810553042667329</c:v>
+                  <c:v>0.52632602364975789</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46623038699768515</c:v>
+                  <c:v>0.53547189706620479</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47482103885892785</c:v>
+                  <c:v>0.54406887175816798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48381064467082857</c:v>
+                  <c:v>0.55214805210961126</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.49314530807194706</c:v>
+                  <c:v>0.5597385608200186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.50278106893378005</c:v>
+                  <c:v>0.56686767662791526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51268169699725497</c:v>
+                  <c:v>0.5735609627142888</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5228170489763988</c:v>
+                  <c:v>0.57984238614676142</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.53316182815097335</c:v>
+                  <c:v>0.58573442880643656</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.54369463594086931</c:v>
+                  <c:v>0.591258190282694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55439723830496868</c:v>
+                  <c:v>0.59643348323899725</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.56525399225168549</c:v>
+                  <c:v>0.60127892175298492</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.57625139310902174</c:v>
+                  <c:v>0.60581200312269223</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.58737771387784199</c:v>
+                  <c:v>0.61004918361204241</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.59862271551764379</c:v>
+                  <c:v>0.61400594858518065</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.60997741238947001</c:v>
+                  <c:v>0.61769687745349267</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.62143388096670749</c:v>
+                  <c:v>0.62113570383202743</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.63298510276627828</c:v>
+                  <c:v>0.624335371275069</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.64462483455262187</c:v>
+                  <c:v>0.62730808493403767</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.65634750043395051</c:v>
+                  <c:v>0.63006535945529085</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.66814810165085026</c:v>
+                  <c:v>0.63261806341127258</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.68002214075397138</c:v>
+                  <c:v>0.63497646053536527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12447,345 +12443,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34718044619422572"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>polynonium trendline</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:forward val="2500"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Ark1'!$V$90:$V$99,'Ark1'!$Z$90:$Z$98)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3412</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3310</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3070</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2682</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3420</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3340</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3220</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3230</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3050</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2670</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2630</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Ark1'!$U$90:$U$99,'Ark1'!$Y$90:$Y$98)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>17.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0EF-49D1-A456-F49F85D1E323}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="83166448"/>
-        <c:axId val="83171024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="83166448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -12797,142 +12461,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aflæst vægt som funktion af omdrejningstal</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="83171024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="83171024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83166448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13176,6 +12711,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -13207,6 +12743,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Omdrejningstal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13269,7 +12860,1156 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Aflæst vægt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146629472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spænding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>som funktion af omdrejningstal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17477874323763776"/>
+          <c:y val="3.2801668346722122E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Volt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="2500"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$V$90:$V$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$W$90:$W$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0309-4FF5-B874-58A636420BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146629472"/>
+        <c:axId val="146634880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146629472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Omdrejningstal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146634880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146634880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Spænding [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146629472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Strømstyrke</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>som funktion af omdrejningstal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13882894231156567"/>
+          <c:y val="4.2173573588642724E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ampere</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="2500"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$Z$90:$Z$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AA$90:$AA$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-444E-4E4E-9274-B70FD2C09B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146629472"/>
+        <c:axId val="146634880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146629472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Omdrejningstal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146634880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146634880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strømstyrke [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -18061,6 +18801,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27630,6 +28410,522 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32671,23 +33967,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>505558</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>38832</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>617657</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>125656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>564173</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28572</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>121259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB05D6E-9852-E231-D674-9A94BC576CD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1C6C5C-20A4-8BBD-6BAC-C437FDD7A47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32707,27 +34003,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>512882</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>82793</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>571497</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>78396</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>387228</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>128953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="34" name="Chart 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1C6C5C-20A4-8BBD-6BAC-C437FDD7A47B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE8573C-498C-468F-8AD2-F86045A27EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -32736,6 +34034,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>96715</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>105140</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Chart 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1215EA-F2E5-4D3F-8B4C-4DEC76B4E90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -33012,8 +34348,8 @@
   </sheetPr>
   <dimension ref="A1:CA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE138" sqref="AE138"/>
+    <sheetView tabSelected="1" topLeftCell="BA152" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="BN162" sqref="BN162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43649,12 +44985,12 @@
         <v>1000</v>
       </c>
       <c r="AV91" s="15">
-        <f>0.0017271*AU91 - 0.9937473</f>
-        <v>0.73335270000000008</v>
+        <f>0.0000001*AU91^2+0.0011*AU91-0.0012</f>
+        <v>1.1988000000000001</v>
       </c>
       <c r="AW91" s="15">
-        <f>0.001231*AU91 - 1.287051</f>
-        <v>-5.6050999999999851E-2</v>
+        <f>0.0000001*AU91^2+0.0004*AU91+0.00009</f>
+        <v>0.50009000000000003</v>
       </c>
       <c r="AX91" s="14">
         <f>0.000001*AU91^2.1157</f>
@@ -43674,11 +45010,11 @@
       </c>
       <c r="BB91" s="15">
         <f t="shared" ref="BB91:BB129" si="33">AV91*AW91</f>
-        <v>-4.1105152187699896E-2</v>
+        <v>0.5995078920000001</v>
       </c>
       <c r="BC91" s="26">
         <f>BA91/BB91</f>
-        <v>-3.556987626491193</v>
+        <v>0.2438842251582668</v>
       </c>
       <c r="BD91" s="42"/>
       <c r="BE91" s="38"/>
@@ -43750,12 +45086,12 @@
         <v>1131.578947368421</v>
       </c>
       <c r="AV92" s="15">
-        <f t="shared" ref="AV92:AV128" si="35">0.0017271*AU92 - 0.9937473</f>
-        <v>0.96060270000000003</v>
+        <f t="shared" ref="AV92:AV129" si="35">0.0000001*AU92^2+0.0011*AU92-0.0012</f>
+        <v>1.3715839335180053</v>
       </c>
       <c r="AW92" s="15">
-        <f t="shared" ref="AW92:AW129" si="36">0.001231*AU92 - 1.287051</f>
-        <v>0.10592268421052653</v>
+        <f t="shared" ref="AW92:AW129" si="36">0.0000001*AU92^2+0.0004*AU92+0.00009</f>
+        <v>0.58076867036011082</v>
       </c>
       <c r="AX92" s="14">
         <f t="shared" ref="AX92:AX129" si="37">0.000001*AU92^2.1157</f>
@@ -43775,11 +45111,11 @@
       </c>
       <c r="BB92" s="15">
         <f t="shared" si="33"/>
-        <v>0.10174961644387916</v>
+        <v>0.79657297735654264</v>
       </c>
       <c r="BC92" s="26">
         <f t="shared" ref="BC92:BC116" si="39">BA92/BB92</f>
-        <v>2.1120867360776892</v>
+        <v>0.26978572133500756</v>
       </c>
       <c r="BD92" s="42"/>
       <c r="BE92" s="38"/>
@@ -43861,11 +45197,11 @@
       </c>
       <c r="AV93" s="15">
         <f t="shared" si="35"/>
-        <v>1.1878527000000001</v>
+        <v>1.5478304709141275</v>
       </c>
       <c r="AW93" s="15">
         <f t="shared" si="36"/>
-        <v>0.26789636842105269</v>
+        <v>0.66490994459833797</v>
       </c>
       <c r="AX93" s="14">
         <f t="shared" si="37"/>
@@ -43885,11 +45221,11 @@
       </c>
       <c r="BB93" s="15">
         <f t="shared" si="33"/>
-        <v>0.31822142454914221</v>
+        <v>1.0291678726631319</v>
       </c>
       <c r="BC93" s="26">
         <f t="shared" si="39"/>
-        <v>0.95139479400853932</v>
+        <v>0.29417378320857557</v>
       </c>
       <c r="BD93" s="42"/>
       <c r="BE93" s="38"/>
@@ -43971,11 +45307,11 @@
       </c>
       <c r="AV94" s="15">
         <f t="shared" si="35"/>
-        <v>1.4151027000000003</v>
+        <v>1.7275396121883655</v>
       </c>
       <c r="AW94" s="15">
         <f t="shared" si="36"/>
-        <v>0.42987005263157907</v>
+        <v>0.75251382271468137</v>
       </c>
       <c r="AX94" s="14">
         <f t="shared" si="37"/>
@@ -43995,11 +45331,11 @@
       </c>
       <c r="BB94" s="15">
         <f t="shared" si="33"/>
-        <v>0.60831027212808975</v>
+        <v>1.2999974374589052</v>
       </c>
       <c r="BC94" s="26">
         <f t="shared" si="39"/>
-        <v>0.67771646937424712</v>
+        <v>0.31712515581306189</v>
       </c>
       <c r="BD94" s="42"/>
       <c r="BE94" s="38"/>
@@ -44081,11 +45417,11 @@
       </c>
       <c r="AV95" s="15">
         <f t="shared" si="35"/>
-        <v>1.6423527</v>
+        <v>1.9107113573407202</v>
       </c>
       <c r="AW95" s="15">
         <f t="shared" si="36"/>
-        <v>0.59184373684210545</v>
+        <v>0.84358030470914136</v>
       </c>
       <c r="AX95" s="14">
         <f t="shared" si="37"/>
@@ -44105,11 +45441,11 @@
       </c>
       <c r="BB95" s="15">
         <f t="shared" si="33"/>
-        <v>0.97201615918072137</v>
+        <v>1.6118384690367018</v>
       </c>
       <c r="BC95" s="26">
         <f t="shared" si="39"/>
-        <v>0.5616761427960606</v>
+        <v>0.33871774220052919</v>
       </c>
       <c r="BD95" s="42"/>
       <c r="BE95" s="38"/>
@@ -44191,11 +45527,11 @@
       </c>
       <c r="AV96" s="15">
         <f t="shared" si="35"/>
-        <v>1.8696027000000002</v>
+        <v>2.0973457063711911</v>
       </c>
       <c r="AW96" s="15">
         <f t="shared" si="36"/>
-        <v>0.75381742105263161</v>
+        <v>0.93810939058171749</v>
       </c>
       <c r="AX96" s="14">
         <f t="shared" si="37"/>
@@ -44215,11 +45551,11 @@
       </c>
       <c r="BB96" s="15">
         <f t="shared" si="33"/>
-        <v>1.4093390857070369</v>
+        <v>1.9675397024430599</v>
       </c>
       <c r="BC96" s="26">
         <f t="shared" si="39"/>
-        <v>0.50122960701521024</v>
+        <v>0.35902832110731292</v>
       </c>
       <c r="BD96" s="42"/>
       <c r="BE96" s="38"/>
@@ -44289,11 +45625,11 @@
       </c>
       <c r="AV97" s="15">
         <f t="shared" si="35"/>
-        <v>2.0968526999999999</v>
+        <v>2.2874426592797787</v>
       </c>
       <c r="AW97" s="15">
         <f t="shared" si="36"/>
-        <v>0.91579110526315821</v>
+        <v>1.0361010803324098</v>
       </c>
       <c r="AX97" s="14">
         <f t="shared" si="37"/>
@@ -44313,11 +45649,11 @@
       </c>
       <c r="BB97" s="15">
         <f t="shared" si="33"/>
-        <v>1.9202790517070374</v>
+        <v>2.3700218104782191</v>
       </c>
       <c r="BC97" s="26">
         <f t="shared" si="39"/>
-        <v>0.46669219526704536</v>
+        <v>0.3781312231829832</v>
       </c>
       <c r="BD97" s="42"/>
       <c r="BE97" s="38"/>
@@ -44387,11 +45723,11 @@
       </c>
       <c r="AV98" s="15">
         <f t="shared" si="35"/>
-        <v>2.3241027000000001</v>
+        <v>2.4810022160664822</v>
       </c>
       <c r="AW98" s="15">
         <f t="shared" si="36"/>
-        <v>1.0777647894736844</v>
+        <v>1.1375553739612188</v>
       </c>
       <c r="AX98" s="14">
         <f t="shared" si="37"/>
@@ -44411,11 +45747,11 @@
       </c>
       <c r="BB98" s="15">
         <f t="shared" si="33"/>
-        <v>2.5048360571807216</v>
+        <v>2.8222774036961198</v>
       </c>
       <c r="BC98" s="26">
         <f t="shared" si="39"/>
-        <v>0.44629558632285038</v>
+        <v>0.3960975895984083</v>
       </c>
       <c r="BD98" s="42"/>
       <c r="BE98" s="38"/>
@@ -44451,9 +45787,15 @@
         <v>0</v>
       </c>
       <c r="X99" s="29"/>
-      <c r="Y99" s="29"/>
-      <c r="Z99" s="29"/>
-      <c r="AA99" s="29"/>
+      <c r="Y99" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="41">
+        <v>0</v>
+      </c>
       <c r="AB99" s="29"/>
       <c r="AC99" s="29"/>
       <c r="AD99" s="29"/>
@@ -44479,11 +45821,11 @@
       </c>
       <c r="AV99" s="15">
         <f t="shared" si="35"/>
-        <v>2.5513527000000003</v>
+        <v>2.6780243767313023</v>
       </c>
       <c r="AW99" s="15">
         <f t="shared" si="36"/>
-        <v>1.2397384736842105</v>
+        <v>1.242472271468144</v>
       </c>
       <c r="AX99" s="14">
         <f t="shared" si="37"/>
@@ -44503,11 +45845,11 @@
       </c>
       <c r="BB99" s="15">
         <f t="shared" si="33"/>
-        <v>3.1630101021280899</v>
+        <v>3.327371030404402</v>
       </c>
       <c r="BC99" s="26">
         <f t="shared" si="39"/>
-        <v>0.43445563804388809</v>
+        <v>0.41299499199291484</v>
       </c>
       <c r="BD99" s="42"/>
       <c r="BE99" s="38"/>
@@ -44565,11 +45907,11 @@
       </c>
       <c r="AV100" s="15">
         <f t="shared" si="35"/>
-        <v>2.7786026999999995</v>
+        <v>2.8785091412742378</v>
       </c>
       <c r="AW100" s="15">
         <f t="shared" si="36"/>
-        <v>1.4017121578947367</v>
+        <v>1.3508517728531853</v>
       </c>
       <c r="AX100" s="14">
         <f t="shared" si="37"/>
@@ -44589,11 +45931,11 @@
       </c>
       <c r="BB100" s="15">
         <f t="shared" si="33"/>
-        <v>3.8948011865491412</v>
+        <v>3.888439176664404</v>
       </c>
       <c r="BC100" s="26">
         <f t="shared" si="39"/>
-        <v>0.42818670813301007</v>
+        <v>0.42888727922230563</v>
       </c>
       <c r="BD100" s="42"/>
       <c r="BE100" s="38"/>
@@ -44656,11 +45998,11 @@
       </c>
       <c r="AV101" s="15">
         <f t="shared" si="35"/>
-        <v>3.0058526999999993</v>
+        <v>3.0824565096952901</v>
       </c>
       <c r="AW101" s="15">
         <f t="shared" si="36"/>
-        <v>1.5636858421052628</v>
+        <v>1.4626938781163428</v>
       </c>
       <c r="AX101" s="14">
         <f t="shared" si="37"/>
@@ -44680,11 +46022,11 @@
       </c>
       <c r="BB101" s="15">
         <f t="shared" si="33"/>
-        <v>4.7002093104438769</v>
+        <v>4.5086902662911701</v>
       </c>
       <c r="BC101" s="26">
         <f t="shared" si="39"/>
-        <v>0.42574967597914354</v>
+        <v>0.44383456675140853</v>
       </c>
       <c r="BD101" s="42"/>
       <c r="BE101" s="38"/>
@@ -44746,11 +46088,11 @@
       </c>
       <c r="AV102" s="15">
         <f t="shared" si="35"/>
-        <v>3.233102699999999</v>
+        <v>3.2898664819944585</v>
       </c>
       <c r="AW102" s="15">
         <f t="shared" si="36"/>
-        <v>1.725659526315789</v>
+        <v>1.577998587257617</v>
       </c>
       <c r="AX102" s="14">
         <f t="shared" si="37"/>
@@ -44770,11 +46112,11 @@
       </c>
       <c r="BB102" s="15">
         <f t="shared" si="33"/>
-        <v>5.5792344738122965</v>
+        <v>5.1914046608534417</v>
       </c>
       <c r="BC102" s="26">
         <f t="shared" si="39"/>
-        <v>0.4260637369725116</v>
+        <v>0.45789331494099833</v>
       </c>
       <c r="BD102" s="42"/>
       <c r="BE102" s="38"/>
@@ -44836,11 +46178,11 @@
       </c>
       <c r="AV103" s="15">
         <f t="shared" si="35"/>
-        <v>3.4603526999999987</v>
+        <v>3.5007390581717437</v>
       </c>
       <c r="AW103" s="15">
         <f t="shared" si="36"/>
-        <v>1.8876332105263147</v>
+        <v>1.6967659002770075</v>
       </c>
       <c r="AX103" s="14">
         <f t="shared" si="37"/>
@@ -44860,11 +46202,11 @@
       </c>
       <c r="BB103" s="15">
         <f t="shared" si="33"/>
-        <v>6.5318766766543988</v>
+        <v>5.9399346596736615</v>
       </c>
       <c r="BC103" s="26">
         <f t="shared" si="39"/>
-        <v>0.42842220332248931</v>
+        <v>0.47111646137144547</v>
       </c>
       <c r="BD103" s="42"/>
       <c r="BE103" s="38"/>
@@ -44926,11 +46268,11 @@
       </c>
       <c r="AV104" s="15">
         <f t="shared" si="35"/>
-        <v>3.6876026999999985</v>
+        <v>3.7150742382271451</v>
       </c>
       <c r="AW104" s="15">
         <f t="shared" si="36"/>
-        <v>2.0496068947368409</v>
+        <v>1.8189958171745142</v>
       </c>
       <c r="AX104" s="14">
         <f t="shared" si="37"/>
@@ -44950,11 +46292,11 @@
       </c>
       <c r="BB104" s="15">
         <f t="shared" si="33"/>
-        <v>7.5581359189701871</v>
+        <v>6.7577044998279714</v>
       </c>
       <c r="BC104" s="26">
         <f t="shared" si="39"/>
-        <v>0.43234367151148967</v>
+        <v>0.48355358436783119</v>
       </c>
       <c r="BD104" s="42"/>
       <c r="BE104" s="38"/>
@@ -45018,11 +46360,11 @@
       </c>
       <c r="AV105" s="15">
         <f t="shared" si="35"/>
-        <v>3.9148526999999973</v>
+        <v>3.9328720221606628</v>
       </c>
       <c r="AW105" s="15">
         <f t="shared" si="36"/>
-        <v>2.211580578947367</v>
+        <v>1.9446883379501372</v>
       </c>
       <c r="AX105" s="14">
         <f t="shared" si="37"/>
@@ -45042,11 +46384,11 @@
       </c>
       <c r="BB105" s="15">
         <f t="shared" si="33"/>
-        <v>8.6580122007596572</v>
+        <v>7.6482103561462145</v>
       </c>
       <c r="BC105" s="26">
         <f t="shared" si="39"/>
-        <v>0.4374889260616216</v>
+        <v>0.49525108269215423</v>
       </c>
       <c r="BD105" s="42"/>
       <c r="BE105" s="38"/>
@@ -45104,11 +46446,11 @@
       </c>
       <c r="AV106" s="15">
         <f t="shared" si="35"/>
-        <v>4.142102699999997</v>
+        <v>4.1541324099722967</v>
       </c>
       <c r="AW106" s="15">
         <f t="shared" si="36"/>
-        <v>2.3735542631578928</v>
+        <v>2.0738434626038762</v>
       </c>
       <c r="AX106" s="14">
         <f t="shared" si="37"/>
@@ -45128,11 +46470,11 @@
       </c>
       <c r="BB106" s="15">
         <f t="shared" si="33"/>
-        <v>9.8315055220228107</v>
+        <v>8.6150203412119328</v>
       </c>
       <c r="BC106" s="26">
         <f t="shared" si="39"/>
-        <v>0.44361205742360715</v>
+        <v>0.50625236151010067</v>
       </c>
       <c r="BD106" s="42"/>
       <c r="BE106" s="38"/>
@@ -45190,11 +46532,11 @@
       </c>
       <c r="AV107" s="15">
         <f t="shared" si="35"/>
-        <v>4.3693526999999968</v>
+        <v>4.3788554016620465</v>
       </c>
       <c r="AW107" s="15">
         <f t="shared" si="36"/>
-        <v>2.5355279473684189</v>
+        <v>2.2064611911357321</v>
       </c>
       <c r="AX107" s="14">
         <f t="shared" si="37"/>
@@ -45214,11 +46556,11 @@
       </c>
       <c r="BB107" s="15">
         <f t="shared" si="33"/>
-        <v>11.078615882759651</v>
+        <v>9.6617745053623736</v>
       </c>
       <c r="BC107" s="26">
         <f t="shared" si="39"/>
-        <v>0.45053042855761133</v>
+        <v>0.51659801817095541</v>
       </c>
       <c r="BD107" s="42"/>
       <c r="BE107" s="38"/>
@@ -45276,11 +46618,11 @@
       </c>
       <c r="AV108" s="15">
         <f t="shared" si="35"/>
-        <v>4.5966026999999965</v>
+        <v>4.6070409972299133</v>
       </c>
       <c r="AW108" s="15">
         <f t="shared" si="36"/>
-        <v>2.6975016315789451</v>
+        <v>2.3425415235457043</v>
       </c>
       <c r="AX108" s="14">
         <f t="shared" si="37"/>
@@ -45300,11 +46642,11 @@
       </c>
       <c r="BB108" s="15">
         <f t="shared" si="33"/>
-        <v>12.399343282970175</v>
+        <v>10.792184836688483</v>
       </c>
       <c r="BC108" s="26">
         <f t="shared" si="39"/>
-        <v>0.45810553042667329</v>
+        <v>0.52632602364975789</v>
       </c>
       <c r="BD108" s="42"/>
       <c r="BE108" s="38"/>
@@ -45362,11 +46704,11 @@
       </c>
       <c r="AV109" s="15">
         <f t="shared" si="35"/>
-        <v>4.8238526999999962</v>
+        <v>4.8386891966758965</v>
       </c>
       <c r="AW109" s="15">
         <f t="shared" si="36"/>
-        <v>2.8594753157894708</v>
+        <v>2.4820844598337928</v>
       </c>
       <c r="AX109" s="14">
         <f t="shared" si="37"/>
@@ -45386,11 +46728,11 @@
       </c>
       <c r="BB109" s="15">
         <f t="shared" si="33"/>
-        <v>13.793687722654381</v>
+        <v>12.010035261034901</v>
       </c>
       <c r="BC109" s="26">
         <f t="shared" si="39"/>
-        <v>0.46623038699768515</v>
+        <v>0.53547189706620479</v>
       </c>
       <c r="BD109" s="42"/>
       <c r="BE109" s="38"/>
@@ -45448,11 +46790,11 @@
       </c>
       <c r="AV110" s="15">
         <f t="shared" si="35"/>
-        <v>5.0511026999999959</v>
+        <v>5.0737999999999959</v>
       </c>
       <c r="AW110" s="15">
         <f t="shared" si="36"/>
-        <v>3.0214489999999969</v>
+        <v>2.6250899999999975</v>
       </c>
       <c r="AX110" s="14">
         <f t="shared" si="37"/>
@@ -45472,11 +46814,11 @@
       </c>
       <c r="BB110" s="15">
         <f t="shared" si="33"/>
-        <v>15.261649201812272</v>
+        <v>13.319181641999977</v>
       </c>
       <c r="BC110" s="26">
         <f t="shared" si="39"/>
-        <v>0.47482103885892785</v>
+        <v>0.54406887175816798</v>
       </c>
       <c r="BD110" s="42"/>
       <c r="BE110" s="38"/>
@@ -45534,11 +46876,11 @@
       </c>
       <c r="AV111" s="15">
         <f t="shared" si="35"/>
-        <v>5.2783526999999957</v>
+        <v>5.3123734072022115</v>
       </c>
       <c r="AW111" s="15">
         <f t="shared" si="36"/>
-        <v>3.1834226842105231</v>
+        <v>2.7715581440443184</v>
       </c>
       <c r="AX111" s="14">
         <f t="shared" si="37"/>
@@ -45558,11 +46900,11 @@
       </c>
       <c r="BB111" s="15">
         <f t="shared" si="33"/>
-        <v>16.803227720443846</v>
+        <v>14.723551780935754</v>
       </c>
       <c r="BC111" s="26">
         <f t="shared" si="39"/>
-        <v>0.48381064467082857</v>
+        <v>0.55214805210961126</v>
       </c>
       <c r="BD111" s="42"/>
       <c r="BE111" s="38"/>
@@ -45614,11 +46956,11 @@
       </c>
       <c r="AV112" s="15">
         <f t="shared" si="35"/>
-        <v>5.5056026999999945</v>
+        <v>5.5544094182825425</v>
       </c>
       <c r="AW112" s="15">
         <f t="shared" si="36"/>
-        <v>3.3453963684210493</v>
+        <v>2.9214888919667557</v>
       </c>
       <c r="AX112" s="14">
         <f t="shared" si="37"/>
@@ -45638,11 +46980,11 @@
       </c>
       <c r="BB112" s="15">
         <f t="shared" si="33"/>
-        <v>18.418423278549106</v>
+        <v>16.227145416947977</v>
       </c>
       <c r="BC112" s="26">
         <f t="shared" si="39"/>
-        <v>0.49314530807194706</v>
+        <v>0.5597385608200186</v>
       </c>
       <c r="BD112" s="42"/>
       <c r="BE112" s="38"/>
@@ -45694,11 +47036,11 @@
       </c>
       <c r="AV113" s="15">
         <f t="shared" si="35"/>
-        <v>5.7328526999999943</v>
+        <v>5.7999080332409916</v>
       </c>
       <c r="AW113" s="15">
         <f t="shared" si="36"/>
-        <v>3.5073700526315754</v>
+        <v>3.0748822437673091</v>
       </c>
       <c r="AX113" s="14">
         <f t="shared" si="37"/>
@@ -45718,11 +47060,11 @@
       </c>
       <c r="BB113" s="15">
         <f t="shared" si="33"/>
-        <v>20.107235876128048</v>
+        <v>17.834034226896101</v>
       </c>
       <c r="BC113" s="26">
         <f t="shared" si="39"/>
-        <v>0.50278106893378005</v>
+        <v>0.56686767662791526</v>
       </c>
       <c r="BD113" s="42"/>
       <c r="BE113" s="38"/>
@@ -45774,11 +47116,11 @@
       </c>
       <c r="AV114" s="15">
         <f t="shared" si="35"/>
-        <v>5.960102699999994</v>
+        <v>6.048869252077556</v>
       </c>
       <c r="AW114" s="15">
         <f t="shared" si="36"/>
-        <v>3.6693437368421016</v>
+        <v>3.2317381994459788</v>
       </c>
       <c r="AX114" s="14">
         <f t="shared" si="37"/>
@@ -45798,11 +47140,11 @@
       </c>
       <c r="BB114" s="15">
         <f t="shared" si="33"/>
-        <v>21.869665513180678</v>
+        <v>19.548361825393265</v>
       </c>
       <c r="BC114" s="26">
         <f t="shared" si="39"/>
-        <v>0.51268169699725497</v>
+        <v>0.5735609627142888</v>
       </c>
       <c r="BD114" s="42"/>
       <c r="BE114" s="38"/>
@@ -45869,11 +47211,11 @@
       </c>
       <c r="AV115" s="15">
         <f t="shared" si="35"/>
-        <v>6.1873526999999937</v>
+        <v>6.3012930747922367</v>
       </c>
       <c r="AW115" s="15">
         <f t="shared" si="36"/>
-        <v>3.8313174210526268</v>
+        <v>3.3920567590027653</v>
       </c>
       <c r="AX115" s="14">
         <f t="shared" si="37"/>
@@ -45893,11 +47235,11 @@
       </c>
       <c r="BB115" s="15">
         <f t="shared" si="33"/>
-        <v>23.705712189706983</v>
+        <v>21.374343764806323</v>
       </c>
       <c r="BC115" s="26">
         <f t="shared" si="39"/>
-        <v>0.5228170489763988</v>
+        <v>0.57984238614676142</v>
       </c>
       <c r="BD115" s="42"/>
       <c r="BE115" s="38"/>
@@ -45949,11 +47291,11 @@
       </c>
       <c r="AV116" s="15">
         <f t="shared" si="35"/>
-        <v>6.4146026999999934</v>
+        <v>6.5571795013850336</v>
       </c>
       <c r="AW116" s="15">
         <f t="shared" si="36"/>
-        <v>3.993291105263153</v>
+        <v>3.5558379224376679</v>
       </c>
       <c r="AX116" s="14">
         <f t="shared" si="37"/>
@@ -45973,11 +47315,11 @@
       </c>
       <c r="BB116" s="15">
         <f t="shared" si="33"/>
-        <v>25.61537590570698</v>
+        <v>23.316267535255822</v>
       </c>
       <c r="BC116" s="26">
         <f t="shared" si="39"/>
-        <v>0.53316182815097335</v>
+        <v>0.58573442880643656</v>
       </c>
       <c r="BD116" s="42"/>
       <c r="BE116" s="38"/>
@@ -46047,11 +47389,11 @@
       </c>
       <c r="AV117" s="15">
         <f t="shared" si="35"/>
-        <v>6.6418526999999932</v>
+        <v>6.8165285318559468</v>
       </c>
       <c r="AW117" s="15">
         <f t="shared" si="36"/>
-        <v>4.1552647894736792</v>
+        <v>3.7230816897506869</v>
       </c>
       <c r="AX117" s="14">
         <f t="shared" si="37"/>
@@ -46071,11 +47413,11 @@
       </c>
       <c r="BB117" s="15">
         <f t="shared" si="33"/>
-        <v>27.598656661180659</v>
+        <v>25.378492564616007</v>
       </c>
       <c r="BC117" s="26">
         <f>BA117/BB117</f>
-        <v>0.54369463594086931</v>
+        <v>0.591258190282694</v>
       </c>
       <c r="BD117" s="42"/>
       <c r="BE117" s="38"/>
@@ -46163,11 +47505,11 @@
       </c>
       <c r="AV118" s="15">
         <f t="shared" si="35"/>
-        <v>6.869102699999992</v>
+        <v>7.0793401662049771</v>
       </c>
       <c r="AW118" s="15">
         <f t="shared" si="36"/>
-        <v>4.3172384736842053</v>
+        <v>3.8937880609418221</v>
       </c>
       <c r="AX118" s="14">
         <f t="shared" si="37"/>
@@ -46187,11 +47529,11 @@
       </c>
       <c r="BB118" s="15">
         <f t="shared" si="33"/>
-        <v>29.655554456128019</v>
+        <v>27.565450218514833</v>
       </c>
       <c r="BC118" s="26">
         <f t="shared" ref="BC118:BC129" si="40">BA118/BB118</f>
-        <v>0.55439723830496868</v>
+        <v>0.59643348323899725</v>
       </c>
       <c r="BD118" s="42"/>
       <c r="BE118" s="38"/>
@@ -46279,11 +47621,11 @@
       </c>
       <c r="AV119" s="15">
         <f t="shared" si="35"/>
-        <v>7.0963526999999926</v>
+        <v>7.3456144044321237</v>
       </c>
       <c r="AW119" s="15">
         <f t="shared" si="36"/>
-        <v>4.4792121578947315</v>
+        <v>4.0679570360110739</v>
       </c>
       <c r="AX119" s="14">
         <f t="shared" si="37"/>
@@ -46303,11 +47645,11 @@
       </c>
       <c r="BB119" s="15">
         <f t="shared" si="33"/>
-        <v>31.786069290549072</v>
+        <v>29.881643800333951</v>
       </c>
       <c r="BC119" s="26">
         <f t="shared" si="40"/>
-        <v>0.56525399225168549</v>
+        <v>0.60127892175298492</v>
       </c>
       <c r="BD119" s="42"/>
       <c r="BE119" s="38"/>
@@ -46395,11 +47737,11 @@
       </c>
       <c r="AV120" s="15">
         <f t="shared" si="35"/>
-        <v>7.3236026999999924</v>
+        <v>7.6153512465373856</v>
       </c>
       <c r="AW120" s="15">
         <f t="shared" si="36"/>
-        <v>4.6411858421052576</v>
+        <v>4.2455886149584421</v>
       </c>
       <c r="AX120" s="14">
         <f t="shared" si="37"/>
@@ -46419,11 +47761,11 @@
       </c>
       <c r="BB120" s="15">
         <f t="shared" si="33"/>
-        <v>33.990201164443803</v>
+        <v>32.331648551208701</v>
       </c>
       <c r="BC120" s="26">
         <f t="shared" si="40"/>
-        <v>0.57625139310902174</v>
+        <v>0.60581200312269223</v>
       </c>
       <c r="BD120" s="42"/>
       <c r="BE120" s="38"/>
@@ -46511,11 +47853,11 @@
       </c>
       <c r="AV121" s="15">
         <f t="shared" si="35"/>
-        <v>7.5508526999999921</v>
+        <v>7.8885506925207647</v>
       </c>
       <c r="AW121" s="15">
         <f t="shared" si="36"/>
-        <v>4.8031595263157838</v>
+        <v>4.4266827977839265</v>
       </c>
       <c r="AX121" s="14">
         <f t="shared" si="37"/>
@@ -46535,11 +47877,11 @@
       </c>
       <c r="BB121" s="15">
         <f t="shared" si="33"/>
-        <v>36.267950077812216</v>
+        <v>34.920111650028147</v>
       </c>
       <c r="BC121" s="26">
         <f t="shared" si="40"/>
-        <v>0.58737771387784199</v>
+        <v>0.61004918361204241</v>
       </c>
       <c r="BD121" s="42"/>
       <c r="BE121" s="38"/>
@@ -46609,11 +47951,11 @@
       </c>
       <c r="AV122" s="15">
         <f t="shared" si="35"/>
-        <v>7.77810269999999</v>
+        <v>8.1652127423822591</v>
       </c>
       <c r="AW122" s="15">
         <f t="shared" si="36"/>
-        <v>4.9651332105263091</v>
+        <v>4.6112395844875271</v>
       </c>
       <c r="AX122" s="14">
         <f t="shared" si="37"/>
@@ -46633,11 +47975,11 @@
       </c>
       <c r="BB122" s="15">
         <f t="shared" si="33"/>
-        <v>38.619316030654304</v>
+        <v>37.651752213435032</v>
       </c>
       <c r="BC122" s="26">
         <f t="shared" si="40"/>
-        <v>0.59862271551764379</v>
+        <v>0.61400594858518065</v>
       </c>
       <c r="BD122" s="42"/>
       <c r="BE122" s="38"/>
@@ -46707,11 +48049,11 @@
       </c>
       <c r="AV123" s="15">
         <f t="shared" si="35"/>
-        <v>8.0053526999999889</v>
+        <v>8.4453373961218698</v>
       </c>
       <c r="AW123" s="15">
         <f t="shared" si="36"/>
-        <v>5.1271068947368352</v>
+        <v>4.7992589750692431</v>
       </c>
       <c r="AX123" s="14">
         <f t="shared" si="37"/>
@@ -46731,11 +48073,11 @@
       </c>
       <c r="BB123" s="15">
         <f t="shared" si="33"/>
-        <v>41.04429902297008</v>
+        <v>40.531361295825796</v>
       </c>
       <c r="BC123" s="26">
         <f t="shared" si="40"/>
-        <v>0.60997741238947001</v>
+        <v>0.61769687745349267</v>
       </c>
       <c r="BD123" s="42"/>
       <c r="BE123" s="38"/>
@@ -46805,11 +48147,11 @@
       </c>
       <c r="AV124" s="15">
         <f t="shared" si="35"/>
-        <v>8.2326026999999886</v>
+        <v>8.7289246537395986</v>
       </c>
       <c r="AW124" s="15">
         <f t="shared" si="36"/>
-        <v>5.2890805789473614</v>
+        <v>4.9907409695290772</v>
       </c>
       <c r="AX124" s="14">
         <f t="shared" si="37"/>
@@ -46829,11 +48171,11 @@
       </c>
       <c r="BB124" s="15">
         <f t="shared" si="33"/>
-        <v>43.542899054759552</v>
+        <v>43.563801889350628</v>
       </c>
       <c r="BC124" s="26">
         <f t="shared" si="40"/>
-        <v>0.62143388096670749</v>
+        <v>0.62113570383202743</v>
       </c>
       <c r="BD124" s="42"/>
       <c r="BE124" s="38"/>
@@ -46907,11 +48249,11 @@
       </c>
       <c r="AV125" s="15">
         <f t="shared" si="35"/>
-        <v>8.4598526999999883</v>
+        <v>9.0159745152354436</v>
       </c>
       <c r="AW125" s="15">
         <f t="shared" si="36"/>
-        <v>5.4510542631578875</v>
+        <v>5.1856855678670266</v>
       </c>
       <c r="AX125" s="14">
         <f t="shared" si="37"/>
@@ -46931,11 +48273,11 @@
       </c>
       <c r="BB125" s="15">
         <f t="shared" si="33"/>
-        <v>46.115116126022698</v>
+        <v>46.754008923913354</v>
       </c>
       <c r="BC125" s="26">
         <f t="shared" si="40"/>
-        <v>0.63298510276627828</v>
+        <v>0.624335371275069</v>
       </c>
       <c r="BD125" s="42"/>
       <c r="BE125" s="38"/>
@@ -46999,11 +48341,11 @@
       </c>
       <c r="AV126" s="15">
         <f t="shared" si="35"/>
-        <v>8.6871026999999881</v>
+        <v>9.306486980609403</v>
       </c>
       <c r="AW126" s="15">
         <f t="shared" si="36"/>
-        <v>5.6130279473684137</v>
+        <v>5.3840927700830932</v>
       </c>
       <c r="AX126" s="14">
         <f t="shared" si="37"/>
@@ -47023,11 +48365,11 @@
       </c>
       <c r="BB126" s="15">
         <f t="shared" si="33"/>
-        <v>48.760950236759541</v>
+        <v>50.106989267171521</v>
       </c>
       <c r="BC126" s="26">
         <f t="shared" si="40"/>
-        <v>0.64462483455262187</v>
+        <v>0.62730808493403767</v>
       </c>
       <c r="BD126" s="42"/>
       <c r="BE126" s="38"/>
@@ -47091,11 +48433,11 @@
       </c>
       <c r="AV127" s="15">
         <f t="shared" si="35"/>
-        <v>8.9143526999999878</v>
+        <v>9.6004620498614806</v>
       </c>
       <c r="AW127" s="15">
         <f t="shared" si="36"/>
-        <v>5.7750016315789399</v>
+        <v>5.5859625761772751</v>
       </c>
       <c r="AX127" s="14">
         <f t="shared" si="37"/>
@@ -47115,11 +48457,11 @@
       </c>
       <c r="BB127" s="15">
         <f t="shared" si="33"/>
-        <v>51.480401386970058</v>
+        <v>53.627821724536396</v>
       </c>
       <c r="BC127" s="26">
         <f t="shared" si="40"/>
-        <v>0.65634750043395051</v>
+        <v>0.63006535945529085</v>
       </c>
       <c r="BD127" s="42"/>
       <c r="BE127" s="38"/>
@@ -47185,11 +48527,11 @@
       </c>
       <c r="AV128" s="15">
         <f t="shared" si="35"/>
-        <v>9.1416026999999875</v>
+        <v>9.8978997229916743</v>
       </c>
       <c r="AW128" s="15">
         <f t="shared" si="36"/>
-        <v>5.936975315789466</v>
+        <v>5.7912949861495733</v>
       </c>
       <c r="AX128" s="14">
         <f t="shared" si="37"/>
@@ -47209,11 +48551,11 @@
       </c>
       <c r="BB128" s="15">
         <f t="shared" si="33"/>
-        <v>54.273469576654264</v>
+        <v>57.321657039172933</v>
       </c>
       <c r="BC128" s="26">
         <f t="shared" si="40"/>
-        <v>0.66814810165085026</v>
+        <v>0.63261806341127258</v>
       </c>
       <c r="BD128" s="42"/>
       <c r="BE128" s="38"/>
@@ -47275,12 +48617,12 @@
         <v>6000</v>
       </c>
       <c r="AV129" s="15">
-        <f>0.0017271*AU129 - 0.9937473</f>
-        <v>9.3688526999999997</v>
+        <f t="shared" si="35"/>
+        <v>10.198799999999999</v>
       </c>
       <c r="AW129" s="15">
         <f t="shared" si="36"/>
-        <v>6.0989490000000011</v>
+        <v>6.0000900000000001</v>
       </c>
       <c r="AX129" s="14">
         <f t="shared" si="37"/>
@@ -47300,11 +48642,11 @@
       </c>
       <c r="BB129" s="15">
         <f t="shared" si="33"/>
-        <v>57.140154805812308</v>
+        <v>61.193717891999995</v>
       </c>
       <c r="BC129" s="26">
         <f t="shared" si="40"/>
-        <v>0.68002214075397138</v>
+        <v>0.63497646053536527</v>
       </c>
       <c r="BD129" s="42"/>
       <c r="BE129" s="38"/>
@@ -47465,6 +48807,43 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
+      <c r="T132" s="42"/>
+      <c r="U132" s="42"/>
+      <c r="V132" s="42"/>
+      <c r="W132" s="42"/>
+      <c r="X132" s="42"/>
+      <c r="Y132" s="42"/>
+      <c r="Z132" s="42"/>
+      <c r="AA132" s="42"/>
+      <c r="AB132" s="42"/>
+      <c r="AC132" s="42"/>
+      <c r="AD132" s="42"/>
+      <c r="AE132" s="42"/>
+      <c r="AF132" s="42"/>
+      <c r="AG132" s="42"/>
+      <c r="AH132" s="42"/>
+      <c r="AI132" s="42"/>
+      <c r="AJ132" s="42"/>
+      <c r="AK132" s="42"/>
+      <c r="AL132" s="42"/>
+      <c r="AM132" s="42"/>
+      <c r="AN132" s="42"/>
+      <c r="AO132" s="42"/>
+      <c r="AP132" s="42"/>
+      <c r="AQ132" s="42"/>
+      <c r="AR132" s="42"/>
+      <c r="AS132" s="42"/>
+      <c r="AT132" s="42"/>
+      <c r="AU132" s="42"/>
+      <c r="AV132" s="42"/>
+      <c r="AW132" s="42"/>
+      <c r="AX132" s="42"/>
+      <c r="AY132" s="42"/>
+      <c r="AZ132" s="42"/>
+      <c r="BA132" s="42"/>
+      <c r="BB132" s="42"/>
+      <c r="BC132" s="42"/>
+      <c r="BD132" s="42"/>
       <c r="BE132" s="38"/>
       <c r="BF132" s="38"/>
       <c r="BG132" s="38"/>
@@ -47493,6 +48872,43 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
+      <c r="T133" s="42"/>
+      <c r="U133" s="42"/>
+      <c r="V133" s="42"/>
+      <c r="W133" s="42"/>
+      <c r="X133" s="42"/>
+      <c r="Y133" s="42"/>
+      <c r="Z133" s="42"/>
+      <c r="AA133" s="42"/>
+      <c r="AB133" s="42"/>
+      <c r="AC133" s="42"/>
+      <c r="AD133" s="42"/>
+      <c r="AE133" s="42"/>
+      <c r="AF133" s="42"/>
+      <c r="AG133" s="42"/>
+      <c r="AH133" s="42"/>
+      <c r="AI133" s="42"/>
+      <c r="AJ133" s="42"/>
+      <c r="AK133" s="42"/>
+      <c r="AL133" s="42"/>
+      <c r="AM133" s="42"/>
+      <c r="AN133" s="42"/>
+      <c r="AO133" s="42"/>
+      <c r="AP133" s="42"/>
+      <c r="AQ133" s="42"/>
+      <c r="AR133" s="42"/>
+      <c r="AS133" s="42"/>
+      <c r="AT133" s="42"/>
+      <c r="AU133" s="42"/>
+      <c r="AV133" s="42"/>
+      <c r="AW133" s="42"/>
+      <c r="AX133" s="42"/>
+      <c r="AY133" s="42"/>
+      <c r="AZ133" s="42"/>
+      <c r="BA133" s="42"/>
+      <c r="BB133" s="42"/>
+      <c r="BC133" s="42"/>
+      <c r="BD133" s="42"/>
       <c r="BE133" s="38"/>
       <c r="BF133" s="38"/>
       <c r="BG133" s="38"/>
@@ -47521,6 +48937,43 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
+      <c r="T134" s="42"/>
+      <c r="U134" s="42"/>
+      <c r="V134" s="42"/>
+      <c r="W134" s="42"/>
+      <c r="X134" s="42"/>
+      <c r="Y134" s="42"/>
+      <c r="Z134" s="42"/>
+      <c r="AA134" s="42"/>
+      <c r="AB134" s="42"/>
+      <c r="AC134" s="42"/>
+      <c r="AD134" s="42"/>
+      <c r="AE134" s="42"/>
+      <c r="AF134" s="42"/>
+      <c r="AG134" s="42"/>
+      <c r="AH134" s="42"/>
+      <c r="AI134" s="42"/>
+      <c r="AJ134" s="42"/>
+      <c r="AK134" s="42"/>
+      <c r="AL134" s="42"/>
+      <c r="AM134" s="42"/>
+      <c r="AN134" s="42"/>
+      <c r="AO134" s="42"/>
+      <c r="AP134" s="42"/>
+      <c r="AQ134" s="42"/>
+      <c r="AR134" s="42"/>
+      <c r="AS134" s="42"/>
+      <c r="AT134" s="42"/>
+      <c r="AU134" s="42"/>
+      <c r="AV134" s="42"/>
+      <c r="AW134" s="42"/>
+      <c r="AX134" s="42"/>
+      <c r="AY134" s="42"/>
+      <c r="AZ134" s="42"/>
+      <c r="BA134" s="42"/>
+      <c r="BB134" s="42"/>
+      <c r="BC134" s="42"/>
+      <c r="BD134" s="42"/>
       <c r="BE134" s="38"/>
       <c r="BF134" s="38"/>
       <c r="BG134" s="38"/>
@@ -47549,6 +49002,43 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
+      <c r="T135" s="42"/>
+      <c r="U135" s="42"/>
+      <c r="V135" s="42"/>
+      <c r="W135" s="42"/>
+      <c r="X135" s="42"/>
+      <c r="Y135" s="42"/>
+      <c r="Z135" s="42"/>
+      <c r="AA135" s="42"/>
+      <c r="AB135" s="42"/>
+      <c r="AC135" s="42"/>
+      <c r="AD135" s="42"/>
+      <c r="AE135" s="42"/>
+      <c r="AF135" s="42"/>
+      <c r="AG135" s="42"/>
+      <c r="AH135" s="42"/>
+      <c r="AI135" s="42"/>
+      <c r="AJ135" s="42"/>
+      <c r="AK135" s="42"/>
+      <c r="AL135" s="42"/>
+      <c r="AM135" s="42"/>
+      <c r="AN135" s="42"/>
+      <c r="AO135" s="42"/>
+      <c r="AP135" s="42"/>
+      <c r="AQ135" s="42"/>
+      <c r="AR135" s="42"/>
+      <c r="AS135" s="42"/>
+      <c r="AT135" s="42"/>
+      <c r="AU135" s="42"/>
+      <c r="AV135" s="42"/>
+      <c r="AW135" s="42"/>
+      <c r="AX135" s="42"/>
+      <c r="AY135" s="42"/>
+      <c r="AZ135" s="42"/>
+      <c r="BA135" s="42"/>
+      <c r="BB135" s="42"/>
+      <c r="BC135" s="42"/>
+      <c r="BD135" s="42"/>
       <c r="BE135" s="38"/>
       <c r="BF135" s="38"/>
       <c r="BG135" s="38"/>
@@ -47577,6 +49067,43 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
+      <c r="T136" s="42"/>
+      <c r="U136" s="42"/>
+      <c r="V136" s="42"/>
+      <c r="W136" s="42"/>
+      <c r="X136" s="42"/>
+      <c r="Y136" s="42"/>
+      <c r="Z136" s="42"/>
+      <c r="AA136" s="42"/>
+      <c r="AB136" s="42"/>
+      <c r="AC136" s="42"/>
+      <c r="AD136" s="42"/>
+      <c r="AE136" s="42"/>
+      <c r="AF136" s="42"/>
+      <c r="AG136" s="42"/>
+      <c r="AH136" s="42"/>
+      <c r="AI136" s="42"/>
+      <c r="AJ136" s="42"/>
+      <c r="AK136" s="42"/>
+      <c r="AL136" s="42"/>
+      <c r="AM136" s="42"/>
+      <c r="AN136" s="42"/>
+      <c r="AO136" s="42"/>
+      <c r="AP136" s="42"/>
+      <c r="AQ136" s="42"/>
+      <c r="AR136" s="42"/>
+      <c r="AS136" s="42"/>
+      <c r="AT136" s="42"/>
+      <c r="AU136" s="42"/>
+      <c r="AV136" s="42"/>
+      <c r="AW136" s="42"/>
+      <c r="AX136" s="42"/>
+      <c r="AY136" s="42"/>
+      <c r="AZ136" s="42"/>
+      <c r="BA136" s="42"/>
+      <c r="BB136" s="42"/>
+      <c r="BC136" s="42"/>
+      <c r="BD136" s="42"/>
       <c r="BE136" s="38"/>
       <c r="BF136" s="38"/>
       <c r="BG136" s="38"/>
@@ -47593,6 +49120,43 @@
       <c r="BR136" s="38"/>
     </row>
     <row r="137" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="T137" s="42"/>
+      <c r="U137" s="42"/>
+      <c r="V137" s="42"/>
+      <c r="W137" s="42"/>
+      <c r="X137" s="42"/>
+      <c r="Y137" s="42"/>
+      <c r="Z137" s="42"/>
+      <c r="AA137" s="42"/>
+      <c r="AB137" s="42"/>
+      <c r="AC137" s="42"/>
+      <c r="AD137" s="42"/>
+      <c r="AE137" s="42"/>
+      <c r="AF137" s="42"/>
+      <c r="AG137" s="42"/>
+      <c r="AH137" s="42"/>
+      <c r="AI137" s="42"/>
+      <c r="AJ137" s="42"/>
+      <c r="AK137" s="42"/>
+      <c r="AL137" s="42"/>
+      <c r="AM137" s="42"/>
+      <c r="AN137" s="42"/>
+      <c r="AO137" s="42"/>
+      <c r="AP137" s="42"/>
+      <c r="AQ137" s="42"/>
+      <c r="AR137" s="42"/>
+      <c r="AS137" s="42"/>
+      <c r="AT137" s="42"/>
+      <c r="AU137" s="42"/>
+      <c r="AV137" s="42"/>
+      <c r="AW137" s="42"/>
+      <c r="AX137" s="42"/>
+      <c r="AY137" s="42"/>
+      <c r="AZ137" s="42"/>
+      <c r="BA137" s="42"/>
+      <c r="BB137" s="42"/>
+      <c r="BC137" s="42"/>
+      <c r="BD137" s="42"/>
       <c r="BE137" s="38"/>
       <c r="BF137" s="38"/>
       <c r="BG137" s="38"/>
@@ -47609,6 +49173,43 @@
       <c r="BR137" s="38"/>
     </row>
     <row r="138" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="T138" s="42"/>
+      <c r="U138" s="42"/>
+      <c r="V138" s="42"/>
+      <c r="W138" s="42"/>
+      <c r="X138" s="42"/>
+      <c r="Y138" s="42"/>
+      <c r="Z138" s="42"/>
+      <c r="AA138" s="42"/>
+      <c r="AB138" s="42"/>
+      <c r="AC138" s="42"/>
+      <c r="AD138" s="42"/>
+      <c r="AE138" s="42"/>
+      <c r="AF138" s="42"/>
+      <c r="AG138" s="42"/>
+      <c r="AH138" s="42"/>
+      <c r="AI138" s="42"/>
+      <c r="AJ138" s="42"/>
+      <c r="AK138" s="42"/>
+      <c r="AL138" s="42"/>
+      <c r="AM138" s="42"/>
+      <c r="AN138" s="42"/>
+      <c r="AO138" s="42"/>
+      <c r="AP138" s="42"/>
+      <c r="AQ138" s="42"/>
+      <c r="AR138" s="42"/>
+      <c r="AS138" s="42"/>
+      <c r="AT138" s="42"/>
+      <c r="AU138" s="42"/>
+      <c r="AV138" s="42"/>
+      <c r="AW138" s="42"/>
+      <c r="AX138" s="42"/>
+      <c r="AY138" s="42"/>
+      <c r="AZ138" s="42"/>
+      <c r="BA138" s="42"/>
+      <c r="BB138" s="42"/>
+      <c r="BC138" s="42"/>
+      <c r="BD138" s="42"/>
       <c r="BE138" s="38"/>
       <c r="BF138" s="38"/>
       <c r="BG138" s="38"/>
@@ -47625,6 +49226,43 @@
       <c r="BR138" s="38"/>
     </row>
     <row r="139" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="T139" s="42"/>
+      <c r="U139" s="42"/>
+      <c r="V139" s="42"/>
+      <c r="W139" s="42"/>
+      <c r="X139" s="42"/>
+      <c r="Y139" s="42"/>
+      <c r="Z139" s="42"/>
+      <c r="AA139" s="42"/>
+      <c r="AB139" s="42"/>
+      <c r="AC139" s="42"/>
+      <c r="AD139" s="42"/>
+      <c r="AE139" s="42"/>
+      <c r="AF139" s="42"/>
+      <c r="AG139" s="42"/>
+      <c r="AH139" s="42"/>
+      <c r="AI139" s="42"/>
+      <c r="AJ139" s="42"/>
+      <c r="AK139" s="42"/>
+      <c r="AL139" s="42"/>
+      <c r="AM139" s="42"/>
+      <c r="AN139" s="42"/>
+      <c r="AO139" s="42"/>
+      <c r="AP139" s="42"/>
+      <c r="AQ139" s="42"/>
+      <c r="AR139" s="42"/>
+      <c r="AS139" s="42"/>
+      <c r="AT139" s="42"/>
+      <c r="AU139" s="42"/>
+      <c r="AV139" s="42"/>
+      <c r="AW139" s="42"/>
+      <c r="AX139" s="42"/>
+      <c r="AY139" s="42"/>
+      <c r="AZ139" s="42"/>
+      <c r="BA139" s="42"/>
+      <c r="BB139" s="42"/>
+      <c r="BC139" s="42"/>
+      <c r="BD139" s="42"/>
       <c r="BE139" s="38"/>
       <c r="BF139" s="38"/>
       <c r="BG139" s="38"/>
@@ -47650,6 +49288,43 @@
       <c r="C140" t="s">
         <v>5</v>
       </c>
+      <c r="T140" s="42"/>
+      <c r="U140" s="42"/>
+      <c r="V140" s="42"/>
+      <c r="W140" s="42"/>
+      <c r="X140" s="42"/>
+      <c r="Y140" s="42"/>
+      <c r="Z140" s="42"/>
+      <c r="AA140" s="42"/>
+      <c r="AB140" s="42"/>
+      <c r="AC140" s="42"/>
+      <c r="AD140" s="42"/>
+      <c r="AE140" s="42"/>
+      <c r="AF140" s="42"/>
+      <c r="AG140" s="42"/>
+      <c r="AH140" s="42"/>
+      <c r="AI140" s="42"/>
+      <c r="AJ140" s="42"/>
+      <c r="AK140" s="42"/>
+      <c r="AL140" s="42"/>
+      <c r="AM140" s="42"/>
+      <c r="AN140" s="42"/>
+      <c r="AO140" s="42"/>
+      <c r="AP140" s="42"/>
+      <c r="AQ140" s="42"/>
+      <c r="AR140" s="42"/>
+      <c r="AS140" s="42"/>
+      <c r="AT140" s="42"/>
+      <c r="AU140" s="42"/>
+      <c r="AV140" s="42"/>
+      <c r="AW140" s="42"/>
+      <c r="AX140" s="42"/>
+      <c r="AY140" s="42"/>
+      <c r="AZ140" s="42"/>
+      <c r="BA140" s="42"/>
+      <c r="BB140" s="42"/>
+      <c r="BC140" s="42"/>
+      <c r="BD140" s="42"/>
       <c r="BE140" s="38"/>
       <c r="BF140" s="38"/>
       <c r="BG140" s="38"/>
@@ -47684,6 +49359,43 @@
       <c r="G141" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="T141" s="42"/>
+      <c r="U141" s="42"/>
+      <c r="V141" s="42"/>
+      <c r="W141" s="42"/>
+      <c r="X141" s="42"/>
+      <c r="Y141" s="42"/>
+      <c r="Z141" s="42"/>
+      <c r="AA141" s="42"/>
+      <c r="AB141" s="42"/>
+      <c r="AC141" s="42"/>
+      <c r="AD141" s="42"/>
+      <c r="AE141" s="42"/>
+      <c r="AF141" s="42"/>
+      <c r="AG141" s="42"/>
+      <c r="AH141" s="42"/>
+      <c r="AI141" s="42"/>
+      <c r="AJ141" s="42"/>
+      <c r="AK141" s="42"/>
+      <c r="AL141" s="42"/>
+      <c r="AM141" s="42"/>
+      <c r="AN141" s="42"/>
+      <c r="AO141" s="42"/>
+      <c r="AP141" s="42"/>
+      <c r="AQ141" s="42"/>
+      <c r="AR141" s="42"/>
+      <c r="AS141" s="42"/>
+      <c r="AT141" s="42"/>
+      <c r="AU141" s="42"/>
+      <c r="AV141" s="42"/>
+      <c r="AW141" s="42"/>
+      <c r="AX141" s="42"/>
+      <c r="AY141" s="42"/>
+      <c r="AZ141" s="42"/>
+      <c r="BA141" s="42"/>
+      <c r="BB141" s="42"/>
+      <c r="BC141" s="42"/>
+      <c r="BD141" s="42"/>
       <c r="BE141" s="38"/>
       <c r="BF141" s="38"/>
       <c r="BG141" s="38"/>
@@ -47718,6 +49430,43 @@
       <c r="G142" s="1">
         <v>2</v>
       </c>
+      <c r="T142" s="42"/>
+      <c r="U142" s="42"/>
+      <c r="V142" s="42"/>
+      <c r="W142" s="42"/>
+      <c r="X142" s="42"/>
+      <c r="Y142" s="42"/>
+      <c r="Z142" s="42"/>
+      <c r="AA142" s="42"/>
+      <c r="AB142" s="42"/>
+      <c r="AC142" s="42"/>
+      <c r="AD142" s="42"/>
+      <c r="AE142" s="42"/>
+      <c r="AF142" s="42"/>
+      <c r="AG142" s="42"/>
+      <c r="AH142" s="42"/>
+      <c r="AI142" s="42"/>
+      <c r="AJ142" s="42"/>
+      <c r="AK142" s="42"/>
+      <c r="AL142" s="42"/>
+      <c r="AM142" s="42"/>
+      <c r="AN142" s="42"/>
+      <c r="AO142" s="42"/>
+      <c r="AP142" s="42"/>
+      <c r="AQ142" s="42"/>
+      <c r="AR142" s="42"/>
+      <c r="AS142" s="42"/>
+      <c r="AT142" s="42"/>
+      <c r="AU142" s="42"/>
+      <c r="AV142" s="42"/>
+      <c r="AW142" s="42"/>
+      <c r="AX142" s="42"/>
+      <c r="AY142" s="42"/>
+      <c r="AZ142" s="42"/>
+      <c r="BA142" s="42"/>
+      <c r="BB142" s="42"/>
+      <c r="BC142" s="42"/>
+      <c r="BD142" s="42"/>
       <c r="BE142" s="38"/>
       <c r="BF142" s="38"/>
       <c r="BG142" s="38"/>
@@ -47752,6 +49501,43 @@
       <c r="G143" s="1">
         <v>1.95</v>
       </c>
+      <c r="T143" s="42"/>
+      <c r="U143" s="42"/>
+      <c r="V143" s="42"/>
+      <c r="W143" s="42"/>
+      <c r="X143" s="42"/>
+      <c r="Y143" s="42"/>
+      <c r="Z143" s="42"/>
+      <c r="AA143" s="42"/>
+      <c r="AB143" s="42"/>
+      <c r="AC143" s="42"/>
+      <c r="AD143" s="42"/>
+      <c r="AE143" s="42"/>
+      <c r="AF143" s="42"/>
+      <c r="AG143" s="42"/>
+      <c r="AH143" s="42"/>
+      <c r="AI143" s="42"/>
+      <c r="AJ143" s="42"/>
+      <c r="AK143" s="42"/>
+      <c r="AL143" s="42"/>
+      <c r="AM143" s="42"/>
+      <c r="AN143" s="42"/>
+      <c r="AO143" s="42"/>
+      <c r="AP143" s="42"/>
+      <c r="AQ143" s="42"/>
+      <c r="AR143" s="42"/>
+      <c r="AS143" s="42"/>
+      <c r="AT143" s="42"/>
+      <c r="AU143" s="42"/>
+      <c r="AV143" s="42"/>
+      <c r="AW143" s="42"/>
+      <c r="AX143" s="42"/>
+      <c r="AY143" s="42"/>
+      <c r="AZ143" s="42"/>
+      <c r="BA143" s="42"/>
+      <c r="BB143" s="42"/>
+      <c r="BC143" s="42"/>
+      <c r="BD143" s="42"/>
       <c r="BE143" s="38"/>
       <c r="BF143" s="38"/>
       <c r="BG143" s="38"/>
@@ -47786,6 +49572,43 @@
       <c r="G144" s="1">
         <v>1.93</v>
       </c>
+      <c r="T144" s="42"/>
+      <c r="U144" s="42"/>
+      <c r="V144" s="42"/>
+      <c r="W144" s="42"/>
+      <c r="X144" s="42"/>
+      <c r="Y144" s="42"/>
+      <c r="Z144" s="42"/>
+      <c r="AA144" s="42"/>
+      <c r="AB144" s="42"/>
+      <c r="AC144" s="42"/>
+      <c r="AD144" s="42"/>
+      <c r="AE144" s="42"/>
+      <c r="AF144" s="42"/>
+      <c r="AG144" s="42"/>
+      <c r="AH144" s="42"/>
+      <c r="AI144" s="42"/>
+      <c r="AJ144" s="42"/>
+      <c r="AK144" s="42"/>
+      <c r="AL144" s="42"/>
+      <c r="AM144" s="42"/>
+      <c r="AN144" s="42"/>
+      <c r="AO144" s="42"/>
+      <c r="AP144" s="42"/>
+      <c r="AQ144" s="42"/>
+      <c r="AR144" s="42"/>
+      <c r="AS144" s="42"/>
+      <c r="AT144" s="42"/>
+      <c r="AU144" s="42"/>
+      <c r="AV144" s="42"/>
+      <c r="AW144" s="42"/>
+      <c r="AX144" s="42"/>
+      <c r="AY144" s="42"/>
+      <c r="AZ144" s="42"/>
+      <c r="BA144" s="42"/>
+      <c r="BB144" s="42"/>
+      <c r="BC144" s="42"/>
+      <c r="BD144" s="42"/>
       <c r="BE144" s="38"/>
       <c r="BF144" s="38"/>
       <c r="BG144" s="38"/>
@@ -47808,6 +49631,43 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
+      <c r="T145" s="42"/>
+      <c r="U145" s="42"/>
+      <c r="V145" s="42"/>
+      <c r="W145" s="42"/>
+      <c r="X145" s="42"/>
+      <c r="Y145" s="42"/>
+      <c r="Z145" s="42"/>
+      <c r="AA145" s="42"/>
+      <c r="AB145" s="42"/>
+      <c r="AC145" s="42"/>
+      <c r="AD145" s="42"/>
+      <c r="AE145" s="42"/>
+      <c r="AF145" s="42"/>
+      <c r="AG145" s="42"/>
+      <c r="AH145" s="42"/>
+      <c r="AI145" s="42"/>
+      <c r="AJ145" s="42"/>
+      <c r="AK145" s="42"/>
+      <c r="AL145" s="42"/>
+      <c r="AM145" s="42"/>
+      <c r="AN145" s="42"/>
+      <c r="AO145" s="42"/>
+      <c r="AP145" s="42"/>
+      <c r="AQ145" s="42"/>
+      <c r="AR145" s="42"/>
+      <c r="AS145" s="42"/>
+      <c r="AT145" s="42"/>
+      <c r="AU145" s="42"/>
+      <c r="AV145" s="42"/>
+      <c r="AW145" s="42"/>
+      <c r="AX145" s="42"/>
+      <c r="AY145" s="42"/>
+      <c r="AZ145" s="42"/>
+      <c r="BA145" s="42"/>
+      <c r="BB145" s="42"/>
+      <c r="BC145" s="42"/>
+      <c r="BD145" s="42"/>
       <c r="BE145" s="38"/>
       <c r="BF145" s="38"/>
       <c r="BG145" s="38"/>
@@ -47830,6 +49690,43 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
+      <c r="T146" s="42"/>
+      <c r="U146" s="42"/>
+      <c r="V146" s="42"/>
+      <c r="W146" s="42"/>
+      <c r="X146" s="42"/>
+      <c r="Y146" s="42"/>
+      <c r="Z146" s="42"/>
+      <c r="AA146" s="42"/>
+      <c r="AB146" s="42"/>
+      <c r="AC146" s="42"/>
+      <c r="AD146" s="42"/>
+      <c r="AE146" s="42"/>
+      <c r="AF146" s="42"/>
+      <c r="AG146" s="42"/>
+      <c r="AH146" s="42"/>
+      <c r="AI146" s="42"/>
+      <c r="AJ146" s="42"/>
+      <c r="AK146" s="42"/>
+      <c r="AL146" s="42"/>
+      <c r="AM146" s="42"/>
+      <c r="AN146" s="42"/>
+      <c r="AO146" s="42"/>
+      <c r="AP146" s="42"/>
+      <c r="AQ146" s="42"/>
+      <c r="AR146" s="42"/>
+      <c r="AS146" s="42"/>
+      <c r="AT146" s="42"/>
+      <c r="AU146" s="42"/>
+      <c r="AV146" s="42"/>
+      <c r="AW146" s="42"/>
+      <c r="AX146" s="42"/>
+      <c r="AY146" s="42"/>
+      <c r="AZ146" s="42"/>
+      <c r="BA146" s="42"/>
+      <c r="BB146" s="42"/>
+      <c r="BC146" s="42"/>
+      <c r="BD146" s="42"/>
       <c r="BE146" s="38"/>
       <c r="BF146" s="38"/>
       <c r="BG146" s="38"/>
@@ -47852,6 +49749,43 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
+      <c r="T147" s="42"/>
+      <c r="U147" s="42"/>
+      <c r="V147" s="42"/>
+      <c r="W147" s="42"/>
+      <c r="X147" s="42"/>
+      <c r="Y147" s="42"/>
+      <c r="Z147" s="42"/>
+      <c r="AA147" s="42"/>
+      <c r="AB147" s="42"/>
+      <c r="AC147" s="42"/>
+      <c r="AD147" s="42"/>
+      <c r="AE147" s="42"/>
+      <c r="AF147" s="42"/>
+      <c r="AG147" s="42"/>
+      <c r="AH147" s="42"/>
+      <c r="AI147" s="42"/>
+      <c r="AJ147" s="42"/>
+      <c r="AK147" s="42"/>
+      <c r="AL147" s="42"/>
+      <c r="AM147" s="42"/>
+      <c r="AN147" s="42"/>
+      <c r="AO147" s="42"/>
+      <c r="AP147" s="42"/>
+      <c r="AQ147" s="42"/>
+      <c r="AR147" s="42"/>
+      <c r="AS147" s="42"/>
+      <c r="AT147" s="42"/>
+      <c r="AU147" s="42"/>
+      <c r="AV147" s="42"/>
+      <c r="AW147" s="42"/>
+      <c r="AX147" s="42"/>
+      <c r="AY147" s="42"/>
+      <c r="AZ147" s="42"/>
+      <c r="BA147" s="42"/>
+      <c r="BB147" s="42"/>
+      <c r="BC147" s="42"/>
+      <c r="BD147" s="42"/>
       <c r="BE147" s="38"/>
       <c r="BF147" s="38"/>
       <c r="BG147" s="38"/>
@@ -47874,6 +49808,43 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
+      <c r="T148" s="42"/>
+      <c r="U148" s="42"/>
+      <c r="V148" s="42"/>
+      <c r="W148" s="42"/>
+      <c r="X148" s="42"/>
+      <c r="Y148" s="42"/>
+      <c r="Z148" s="42"/>
+      <c r="AA148" s="42"/>
+      <c r="AB148" s="42"/>
+      <c r="AC148" s="42"/>
+      <c r="AD148" s="42"/>
+      <c r="AE148" s="42"/>
+      <c r="AF148" s="42"/>
+      <c r="AG148" s="42"/>
+      <c r="AH148" s="42"/>
+      <c r="AI148" s="42"/>
+      <c r="AJ148" s="42"/>
+      <c r="AK148" s="42"/>
+      <c r="AL148" s="42"/>
+      <c r="AM148" s="42"/>
+      <c r="AN148" s="42"/>
+      <c r="AO148" s="42"/>
+      <c r="AP148" s="42"/>
+      <c r="AQ148" s="42"/>
+      <c r="AR148" s="42"/>
+      <c r="AS148" s="42"/>
+      <c r="AT148" s="42"/>
+      <c r="AU148" s="42"/>
+      <c r="AV148" s="42"/>
+      <c r="AW148" s="42"/>
+      <c r="AX148" s="42"/>
+      <c r="AY148" s="42"/>
+      <c r="AZ148" s="42"/>
+      <c r="BA148" s="42"/>
+      <c r="BB148" s="42"/>
+      <c r="BC148" s="42"/>
+      <c r="BD148" s="42"/>
       <c r="BE148" s="38"/>
       <c r="BF148" s="38"/>
       <c r="BG148" s="38"/>
@@ -47896,6 +49867,43 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
+      <c r="T149" s="42"/>
+      <c r="U149" s="42"/>
+      <c r="V149" s="42"/>
+      <c r="W149" s="42"/>
+      <c r="X149" s="42"/>
+      <c r="Y149" s="42"/>
+      <c r="Z149" s="42"/>
+      <c r="AA149" s="42"/>
+      <c r="AB149" s="42"/>
+      <c r="AC149" s="42"/>
+      <c r="AD149" s="42"/>
+      <c r="AE149" s="42"/>
+      <c r="AF149" s="42"/>
+      <c r="AG149" s="42"/>
+      <c r="AH149" s="42"/>
+      <c r="AI149" s="42"/>
+      <c r="AJ149" s="42"/>
+      <c r="AK149" s="42"/>
+      <c r="AL149" s="42"/>
+      <c r="AM149" s="42"/>
+      <c r="AN149" s="42"/>
+      <c r="AO149" s="42"/>
+      <c r="AP149" s="42"/>
+      <c r="AQ149" s="42"/>
+      <c r="AR149" s="42"/>
+      <c r="AS149" s="42"/>
+      <c r="AT149" s="42"/>
+      <c r="AU149" s="42"/>
+      <c r="AV149" s="42"/>
+      <c r="AW149" s="42"/>
+      <c r="AX149" s="42"/>
+      <c r="AY149" s="42"/>
+      <c r="AZ149" s="42"/>
+      <c r="BA149" s="42"/>
+      <c r="BB149" s="42"/>
+      <c r="BC149" s="42"/>
+      <c r="BD149" s="42"/>
       <c r="BE149" s="38"/>
       <c r="BF149" s="38"/>
       <c r="BG149" s="38"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F00BA-5580-4859-9588-306B5F23C2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C11F8-D917-45FD-8D9C-BC8312C004DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12711,7 +12711,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -34348,7 +34347,7 @@
   </sheetPr>
   <dimension ref="A1:CA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA152" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BA101" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="BN162" sqref="BN162"/>
     </sheetView>
   </sheetViews>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C11F8-D917-45FD-8D9C-BC8312C004DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED981710-B528-4C5B-A5C4-91202FED3366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="1668" windowWidth="18336" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34347,53 +34347,53 @@
   </sheetPr>
   <dimension ref="A1:CA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA101" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="BN162" sqref="BN162"/>
+    <sheetView tabSelected="1" topLeftCell="AF130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT140" sqref="AT140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="9.86328125" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.1328125" customWidth="1"/>
-    <col min="16" max="16" width="10.86328125" customWidth="1"/>
-    <col min="18" max="18" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="13.73046875" customWidth="1"/>
-    <col min="50" max="50" width="11.73046875" customWidth="1"/>
-    <col min="51" max="51" width="13.73046875" customWidth="1"/>
-    <col min="52" max="52" width="18.265625" customWidth="1"/>
-    <col min="53" max="53" width="13.73046875" customWidth="1"/>
-    <col min="54" max="54" width="13.86328125" customWidth="1"/>
-    <col min="55" max="55" width="10.265625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="13.77734375" customWidth="1"/>
+    <col min="50" max="50" width="11.77734375" customWidth="1"/>
+    <col min="51" max="51" width="13.77734375" customWidth="1"/>
+    <col min="52" max="52" width="18.21875" customWidth="1"/>
+    <col min="53" max="53" width="13.77734375" customWidth="1"/>
+    <col min="54" max="54" width="13.88671875" customWidth="1"/>
+    <col min="55" max="55" width="10.21875" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="58" max="58" width="11.265625" customWidth="1"/>
-    <col min="59" max="60" width="10.73046875" customWidth="1"/>
-    <col min="62" max="62" width="12.73046875" customWidth="1"/>
-    <col min="63" max="63" width="10.59765625" customWidth="1"/>
-    <col min="64" max="64" width="11.265625" customWidth="1"/>
-    <col min="65" max="65" width="12.3984375" customWidth="1"/>
-    <col min="67" max="67" width="10.73046875" customWidth="1"/>
-    <col min="69" max="69" width="11.73046875" customWidth="1"/>
-    <col min="71" max="71" width="11.265625" customWidth="1"/>
-    <col min="72" max="72" width="12.265625" customWidth="1"/>
-    <col min="73" max="73" width="10.86328125" customWidth="1"/>
-    <col min="74" max="74" width="9.59765625" customWidth="1"/>
-    <col min="75" max="75" width="11.59765625" customWidth="1"/>
-    <col min="76" max="76" width="12.1328125" customWidth="1"/>
-    <col min="82" max="82" width="14.73046875" customWidth="1"/>
-    <col min="83" max="83" width="13.73046875" customWidth="1"/>
-    <col min="84" max="84" width="10.73046875" customWidth="1"/>
-    <col min="85" max="85" width="10.86328125" customWidth="1"/>
-    <col min="86" max="86" width="9.265625" customWidth="1"/>
+    <col min="58" max="58" width="11.21875" customWidth="1"/>
+    <col min="59" max="60" width="10.77734375" customWidth="1"/>
+    <col min="62" max="62" width="12.77734375" customWidth="1"/>
+    <col min="63" max="63" width="10.5546875" customWidth="1"/>
+    <col min="64" max="64" width="11.21875" customWidth="1"/>
+    <col min="65" max="65" width="12.44140625" customWidth="1"/>
+    <col min="67" max="67" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.77734375" customWidth="1"/>
+    <col min="71" max="71" width="11.21875" customWidth="1"/>
+    <col min="72" max="72" width="12.21875" customWidth="1"/>
+    <col min="73" max="73" width="10.88671875" customWidth="1"/>
+    <col min="74" max="74" width="9.5546875" customWidth="1"/>
+    <col min="75" max="75" width="11.5546875" customWidth="1"/>
+    <col min="76" max="76" width="12.109375" customWidth="1"/>
+    <col min="82" max="82" width="14.77734375" customWidth="1"/>
+    <col min="83" max="83" width="13.77734375" customWidth="1"/>
+    <col min="84" max="84" width="10.77734375" customWidth="1"/>
+    <col min="85" max="85" width="10.88671875" customWidth="1"/>
+    <col min="86" max="86" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34472,7 +34472,7 @@
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
     </row>
-    <row r="2" spans="1:79" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:79" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -34577,7 +34577,7 @@
       <c r="BZ2" s="5"/>
       <c r="CA2" s="5"/>
     </row>
-    <row r="3" spans="1:79" ht="43.15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:79" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -34718,7 +34718,7 @@
       <c r="BZ3" s="5"/>
       <c r="CA3" s="5"/>
     </row>
-    <row r="4" spans="1:79" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:79" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5.9</v>
       </c>
@@ -34869,7 +34869,7 @@
       <c r="BZ4" s="5"/>
       <c r="CA4" s="5"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>6.02</v>
       </c>
@@ -35039,7 +35039,7 @@
       <c r="BZ5" s="5"/>
       <c r="CA5" s="5"/>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -35187,7 +35187,7 @@
       <c r="BZ6" s="5"/>
       <c r="CA6" s="5"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -35335,7 +35335,7 @@
       <c r="BZ7" s="5"/>
       <c r="CA7" s="5"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -35483,7 +35483,7 @@
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -35631,7 +35631,7 @@
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -35779,7 +35779,7 @@
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -35927,7 +35927,7 @@
       <c r="BZ11" s="5"/>
       <c r="CA11" s="5"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -36075,7 +36075,7 @@
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -36223,7 +36223,7 @@
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -36359,7 +36359,7 @@
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
     </row>
-    <row r="15" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:79" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -36501,7 +36501,7 @@
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -36649,7 +36649,7 @@
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -36797,7 +36797,7 @@
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -36945,7 +36945,7 @@
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -37093,7 +37093,7 @@
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -37241,7 +37241,7 @@
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
       <c r="U21" s="11">
         <v>4.84</v>
       </c>
@@ -37377,7 +37377,7 @@
       <c r="BZ21" s="5"/>
       <c r="CA21" s="5"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.3">
       <c r="U22" s="11">
         <v>4.84</v>
       </c>
@@ -37513,7 +37513,7 @@
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -37667,7 +37667,7 @@
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -37839,7 +37839,7 @@
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -38011,7 +38011,7 @@
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -38177,7 +38177,7 @@
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -38337,7 +38337,7 @@
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -38473,7 +38473,7 @@
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -38609,7 +38609,7 @@
       <c r="BZ29" s="5"/>
       <c r="CA29" s="5"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -38745,7 +38745,7 @@
       <c r="BZ30" s="5"/>
       <c r="CA30" s="5"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -38881,7 +38881,7 @@
       <c r="BZ31" s="5"/>
       <c r="CA31" s="5"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -39017,7 +39017,7 @@
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -39153,7 +39153,7 @@
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -39289,7 +39289,7 @@
       <c r="BZ34" s="5"/>
       <c r="CA34" s="5"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -39425,7 +39425,7 @@
       <c r="BZ35" s="5"/>
       <c r="CA35" s="5"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -39559,7 +39559,7 @@
       <c r="BZ36" s="5"/>
       <c r="CA36" s="5"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -39631,7 +39631,7 @@
       <c r="BY37" s="5"/>
       <c r="BZ37" s="5"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -39703,7 +39703,7 @@
       <c r="BY38" s="5"/>
       <c r="BZ38" s="5"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -39775,7 +39775,7 @@
       <c r="BY39" s="33"/>
       <c r="BZ39" s="33"/>
     </row>
-    <row r="40" spans="1:79" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:79" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -39851,7 +39851,7 @@
       <c r="BY40" s="33"/>
       <c r="BZ40" s="33"/>
     </row>
-    <row r="41" spans="1:79" ht="36" x14ac:dyDescent="1.05">
+    <row r="41" spans="1:79" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -39929,7 +39929,7 @@
       <c r="BY41" s="33"/>
       <c r="BZ41" s="33"/>
     </row>
-    <row r="42" spans="1:79" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:79" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -40031,7 +40031,7 @@
       <c r="BY42" s="33"/>
       <c r="BZ42" s="33"/>
     </row>
-    <row r="43" spans="1:79" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:79" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U43" s="11">
         <v>4.88</v>
       </c>
@@ -40123,7 +40123,7 @@
       <c r="BY43" s="33"/>
       <c r="BZ43" s="33"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:79" x14ac:dyDescent="0.3">
       <c r="U44" s="11">
         <v>4.82</v>
       </c>
@@ -40224,7 +40224,7 @@
       <c r="BY44" s="33"/>
       <c r="BZ44" s="33"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:79" x14ac:dyDescent="0.3">
       <c r="U45" s="11">
         <v>4.8</v>
       </c>
@@ -40326,7 +40326,7 @@
       <c r="BY45" s="33"/>
       <c r="BZ45" s="33"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -40446,7 +40446,7 @@
       <c r="BY46" s="33"/>
       <c r="BZ46" s="33"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -40584,7 +40584,7 @@
       <c r="BY47" s="33"/>
       <c r="BZ47" s="33"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -40722,7 +40722,7 @@
       <c r="BY48" s="33"/>
       <c r="BZ48" s="33"/>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>4.84</v>
       </c>
@@ -40860,7 +40860,7 @@
       <c r="BY49" s="33"/>
       <c r="BZ49" s="33"/>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>4.84</v>
       </c>
@@ -40998,7 +40998,7 @@
       <c r="BY50" s="33"/>
       <c r="BZ50" s="33"/>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -41118,7 +41118,7 @@
       <c r="BY51" s="33"/>
       <c r="BZ51" s="33"/>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -41220,7 +41220,7 @@
       <c r="BY52" s="33"/>
       <c r="BZ52" s="33"/>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -41322,7 +41322,7 @@
       <c r="BY53" s="33"/>
       <c r="BZ53" s="33"/>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -41424,7 +41424,7 @@
       <c r="BY54" s="33"/>
       <c r="BZ54" s="33"/>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -41526,7 +41526,7 @@
       <c r="BY55" s="33"/>
       <c r="BZ55" s="33"/>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -41628,7 +41628,7 @@
       <c r="BY56" s="33"/>
       <c r="BZ56" s="33"/>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -41730,7 +41730,7 @@
       <c r="BY57" s="33"/>
       <c r="BZ57" s="33"/>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -41832,7 +41832,7 @@
       <c r="BY58" s="33"/>
       <c r="BZ58" s="33"/>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -41934,7 +41934,7 @@
       <c r="BY59" s="33"/>
       <c r="BZ59" s="33"/>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -42036,7 +42036,7 @@
       <c r="BY60" s="33"/>
       <c r="BZ60" s="33"/>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -42138,7 +42138,7 @@
       <c r="BY61" s="33"/>
       <c r="BZ61" s="33"/>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -42240,7 +42240,7 @@
       <c r="BY62" s="33"/>
       <c r="BZ62" s="33"/>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -42342,7 +42342,7 @@
       <c r="BY63" s="33"/>
       <c r="BZ63" s="33"/>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -42444,7 +42444,7 @@
       <c r="BY64" s="33"/>
       <c r="BZ64" s="33"/>
     </row>
-    <row r="65" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -42546,7 +42546,7 @@
       <c r="BY65" s="33"/>
       <c r="BZ65" s="33"/>
     </row>
-    <row r="66" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.3">
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -42636,7 +42636,7 @@
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
     </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
@@ -42736,7 +42736,7 @@
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
     </row>
-    <row r="68" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.3">
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -42826,7 +42826,7 @@
       <c r="BY68" s="33"/>
       <c r="BZ68" s="33"/>
     </row>
-    <row r="69" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -42934,7 +42934,7 @@
       <c r="BY69" s="33"/>
       <c r="BZ69" s="33"/>
     </row>
-    <row r="70" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -43060,7 +43060,7 @@
       <c r="BY70" s="33"/>
       <c r="BZ70" s="33"/>
     </row>
-    <row r="71" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>4.88</v>
       </c>
@@ -43186,7 +43186,7 @@
       <c r="BY71" s="33"/>
       <c r="BZ71" s="33"/>
     </row>
-    <row r="72" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>4.82</v>
       </c>
@@ -43312,7 +43312,7 @@
       <c r="BY72" s="33"/>
       <c r="BZ72" s="33"/>
     </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>4.8</v>
       </c>
@@ -43438,7 +43438,7 @@
       <c r="BY73" s="33"/>
       <c r="BZ73" s="33"/>
     </row>
-    <row r="74" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -43540,7 +43540,7 @@
       <c r="BY74" s="33"/>
       <c r="BZ74" s="33"/>
     </row>
-    <row r="75" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -43642,7 +43642,7 @@
       <c r="BY75" s="33"/>
       <c r="BZ75" s="33"/>
     </row>
-    <row r="76" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -43744,7 +43744,7 @@
       <c r="BY76" s="33"/>
       <c r="BZ76" s="33"/>
     </row>
-    <row r="77" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -43846,7 +43846,7 @@
       <c r="BY77" s="33"/>
       <c r="BZ77" s="33"/>
     </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -43948,7 +43948,7 @@
       <c r="BY78" s="33"/>
       <c r="BZ78" s="33"/>
     </row>
-    <row r="79" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -44050,7 +44050,7 @@
       <c r="BY79" s="33"/>
       <c r="BZ79" s="33"/>
     </row>
-    <row r="80" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -44152,7 +44152,7 @@
       <c r="BY80" s="33"/>
       <c r="BZ80" s="33"/>
     </row>
-    <row r="81" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -44254,7 +44254,7 @@
       <c r="BY81" s="33"/>
       <c r="BZ81" s="33"/>
     </row>
-    <row r="82" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -44355,7 +44355,7 @@
       <c r="BY82" s="33"/>
       <c r="BZ82" s="33"/>
     </row>
-    <row r="83" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -44427,7 +44427,7 @@
       <c r="BY83" s="33"/>
       <c r="BZ83" s="33"/>
     </row>
-    <row r="84" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -44499,7 +44499,7 @@
       <c r="BY84" s="33"/>
       <c r="BZ84" s="33"/>
     </row>
-    <row r="85" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -44571,7 +44571,7 @@
       <c r="BY85" s="33"/>
       <c r="BZ85" s="33"/>
     </row>
-    <row r="86" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -44638,7 +44638,7 @@
       <c r="BQ86" s="38"/>
       <c r="BR86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:78" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -44707,7 +44707,7 @@
       <c r="BQ87" s="38"/>
       <c r="BR87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:78" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -44776,7 +44776,7 @@
       <c r="BQ88" s="38"/>
       <c r="BR88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:78" ht="28.8" x14ac:dyDescent="0.3">
       <c r="T89" s="29"/>
       <c r="U89" s="11" t="s">
         <v>1</v>
@@ -44857,7 +44857,7 @@
       <c r="BQ89" s="38"/>
       <c r="BR89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:78" ht="43.2" x14ac:dyDescent="0.3">
       <c r="T90" s="29"/>
       <c r="U90" s="15">
         <v>35.5</v>
@@ -44940,7 +44940,7 @@
       <c r="BQ90" s="38"/>
       <c r="BR90" s="38"/>
     </row>
-    <row r="91" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.3">
       <c r="T91" s="29"/>
       <c r="U91" s="15">
         <v>31.8</v>
@@ -45031,7 +45031,7 @@
       <c r="BQ91" s="38"/>
       <c r="BR91" s="38"/>
     </row>
-    <row r="92" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -45132,7 +45132,7 @@
       <c r="BQ92" s="38"/>
       <c r="BR92" s="38"/>
     </row>
-    <row r="93" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -45242,7 +45242,7 @@
       <c r="BQ93" s="38"/>
       <c r="BR93" s="38"/>
     </row>
-    <row r="94" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3.95</v>
       </c>
@@ -45352,7 +45352,7 @@
       <c r="BQ94" s="38"/>
       <c r="BR94" s="38"/>
     </row>
-    <row r="95" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3.88</v>
       </c>
@@ -45462,7 +45462,7 @@
       <c r="BQ95" s="38"/>
       <c r="BR95" s="38"/>
     </row>
-    <row r="96" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>3.06</v>
       </c>
@@ -45572,7 +45572,7 @@
       <c r="BQ96" s="38"/>
       <c r="BR96" s="38"/>
     </row>
-    <row r="97" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -45670,7 +45670,7 @@
       <c r="BQ97" s="38"/>
       <c r="BR97" s="38"/>
     </row>
-    <row r="98" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -45768,7 +45768,7 @@
       <c r="BQ98" s="38"/>
       <c r="BR98" s="38"/>
     </row>
-    <row r="99" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -45866,7 +45866,7 @@
       <c r="BQ99" s="38"/>
       <c r="BR99" s="38"/>
     </row>
-    <row r="100" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -45952,7 +45952,7 @@
       <c r="BQ100" s="38"/>
       <c r="BR100" s="38"/>
     </row>
-    <row r="101" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -46043,7 +46043,7 @@
       <c r="BQ101" s="38"/>
       <c r="BR101" s="38"/>
     </row>
-    <row r="102" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -46133,7 +46133,7 @@
       <c r="BQ102" s="38"/>
       <c r="BR102" s="38"/>
     </row>
-    <row r="103" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -46223,7 +46223,7 @@
       <c r="BQ103" s="38"/>
       <c r="BR103" s="38"/>
     </row>
-    <row r="104" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -46315,7 +46315,7 @@
       <c r="BQ104" s="38"/>
       <c r="BR104" s="38"/>
     </row>
-    <row r="105" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -46405,7 +46405,7 @@
       <c r="BQ105" s="38"/>
       <c r="BR105" s="38"/>
     </row>
-    <row r="106" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -46491,7 +46491,7 @@
       <c r="BQ106" s="38"/>
       <c r="BR106" s="38"/>
     </row>
-    <row r="107" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -46577,7 +46577,7 @@
       <c r="BQ107" s="38"/>
       <c r="BR107" s="38"/>
     </row>
-    <row r="108" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -46663,7 +46663,7 @@
       <c r="BQ108" s="38"/>
       <c r="BR108" s="38"/>
     </row>
-    <row r="109" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -46749,7 +46749,7 @@
       <c r="BQ109" s="38"/>
       <c r="BR109" s="38"/>
     </row>
-    <row r="110" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -46835,7 +46835,7 @@
       <c r="BQ110" s="38"/>
       <c r="BR110" s="38"/>
     </row>
-    <row r="111" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -46921,7 +46921,7 @@
       <c r="BQ111" s="38"/>
       <c r="BR111" s="38"/>
     </row>
-    <row r="112" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:70" x14ac:dyDescent="0.3">
       <c r="T112" s="42"/>
       <c r="U112" s="29"/>
       <c r="V112" s="29"/>
@@ -47001,7 +47001,7 @@
       <c r="BQ112" s="38"/>
       <c r="BR112" s="38"/>
     </row>
-    <row r="113" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.3">
       <c r="T113" s="42"/>
       <c r="U113" s="29"/>
       <c r="V113" s="29"/>
@@ -47081,7 +47081,7 @@
       <c r="BQ113" s="38"/>
       <c r="BR113" s="38"/>
     </row>
-    <row r="114" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.3">
       <c r="T114" s="42"/>
       <c r="U114" s="29"/>
       <c r="V114" s="29"/>
@@ -47161,7 +47161,7 @@
       <c r="BQ114" s="38"/>
       <c r="BR114" s="38"/>
     </row>
-    <row r="115" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A115" s="28" t="s">
         <v>40</v>
       </c>
@@ -47256,7 +47256,7 @@
       <c r="BQ115" s="38"/>
       <c r="BR115" s="38"/>
     </row>
-    <row r="116" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.3">
       <c r="T116" s="42"/>
       <c r="U116" s="29"/>
       <c r="V116" s="29"/>
@@ -47336,7 +47336,7 @@
       <c r="BQ116" s="38"/>
       <c r="BR116" s="38"/>
     </row>
-    <row r="117" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="35" t="s">
         <v>8</v>
       </c>
@@ -47434,7 +47434,7 @@
       <c r="BQ117" s="38"/>
       <c r="BR117" s="38"/>
     </row>
-    <row r="118" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -47550,7 +47550,7 @@
       <c r="BQ118" s="38"/>
       <c r="BR118" s="38"/>
     </row>
-    <row r="119" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>35.5</v>
       </c>
@@ -47666,7 +47666,7 @@
       <c r="BQ119" s="38"/>
       <c r="BR119" s="38"/>
     </row>
-    <row r="120" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>31.8</v>
       </c>
@@ -47782,7 +47782,7 @@
       <c r="BQ120" s="38"/>
       <c r="BR120" s="38"/>
     </row>
-    <row r="121" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>29</v>
       </c>
@@ -47898,7 +47898,7 @@
       <c r="BQ121" s="38"/>
       <c r="BR121" s="38"/>
     </row>
-    <row r="122" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -47996,7 +47996,7 @@
       <c r="BQ122" s="38"/>
       <c r="BR122" s="38"/>
     </row>
-    <row r="123" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>32.5</v>
       </c>
@@ -48094,7 +48094,7 @@
       <c r="BQ123" s="38"/>
       <c r="BR123" s="38"/>
     </row>
-    <row r="124" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>29.5</v>
       </c>
@@ -48192,7 +48192,7 @@
       <c r="BQ124" s="38"/>
       <c r="BR124" s="38"/>
     </row>
-    <row r="125" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>27</v>
       </c>
@@ -48294,7 +48294,7 @@
       <c r="BQ125" s="38"/>
       <c r="BR125" s="38"/>
     </row>
-    <row r="126" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -48386,7 +48386,7 @@
       <c r="BQ126" s="38"/>
       <c r="BR126" s="38"/>
     </row>
-    <row r="127" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -48480,7 +48480,7 @@
       <c r="BQ127" s="38"/>
       <c r="BR127" s="38"/>
     </row>
-    <row r="128" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -48572,7 +48572,7 @@
       <c r="BQ128" s="38"/>
       <c r="BR128" s="38"/>
     </row>
-    <row r="129" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -48663,7 +48663,7 @@
       <c r="BQ129" s="38"/>
       <c r="BR129" s="38"/>
     </row>
-    <row r="130" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -48728,7 +48728,7 @@
       <c r="BQ130" s="38"/>
       <c r="BR130" s="38"/>
     </row>
-    <row r="131" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -48793,7 +48793,7 @@
       <c r="BQ131" s="38"/>
       <c r="BR131" s="38"/>
     </row>
-    <row r="132" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -48858,7 +48858,7 @@
       <c r="BQ132" s="38"/>
       <c r="BR132" s="38"/>
     </row>
-    <row r="133" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -48923,7 +48923,7 @@
       <c r="BQ133" s="38"/>
       <c r="BR133" s="38"/>
     </row>
-    <row r="134" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -48988,7 +48988,7 @@
       <c r="BQ134" s="38"/>
       <c r="BR134" s="38"/>
     </row>
-    <row r="135" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -49053,7 +49053,7 @@
       <c r="BQ135" s="38"/>
       <c r="BR135" s="38"/>
     </row>
-    <row r="136" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -49118,7 +49118,7 @@
       <c r="BQ136" s="38"/>
       <c r="BR136" s="38"/>
     </row>
-    <row r="137" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:70" x14ac:dyDescent="0.3">
       <c r="T137" s="42"/>
       <c r="U137" s="42"/>
       <c r="V137" s="42"/>
@@ -49171,7 +49171,7 @@
       <c r="BQ137" s="38"/>
       <c r="BR137" s="38"/>
     </row>
-    <row r="138" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:70" x14ac:dyDescent="0.3">
       <c r="T138" s="42"/>
       <c r="U138" s="42"/>
       <c r="V138" s="42"/>
@@ -49224,7 +49224,7 @@
       <c r="BQ138" s="38"/>
       <c r="BR138" s="38"/>
     </row>
-    <row r="139" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:70" x14ac:dyDescent="0.3">
       <c r="T139" s="42"/>
       <c r="U139" s="42"/>
       <c r="V139" s="42"/>
@@ -49277,7 +49277,7 @@
       <c r="BQ139" s="38"/>
       <c r="BR139" s="38"/>
     </row>
-    <row r="140" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -49339,7 +49339,7 @@
       <c r="BQ140" s="38"/>
       <c r="BR140" s="38"/>
     </row>
-    <row r="141" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -49410,7 +49410,7 @@
       <c r="BQ141" s="38"/>
       <c r="BR141" s="38"/>
     </row>
-    <row r="142" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>22</v>
       </c>
@@ -49481,7 +49481,7 @@
       <c r="BQ142" s="38"/>
       <c r="BR142" s="38"/>
     </row>
-    <row r="143" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>20.5</v>
       </c>
@@ -49552,7 +49552,7 @@
       <c r="BQ143" s="38"/>
       <c r="BR143" s="38"/>
     </row>
-    <row r="144" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>19.5</v>
       </c>
@@ -49623,7 +49623,7 @@
       <c r="BQ144" s="38"/>
       <c r="BR144" s="38"/>
     </row>
-    <row r="145" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -49682,7 +49682,7 @@
       <c r="BQ145" s="38"/>
       <c r="BR145" s="38"/>
     </row>
-    <row r="146" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -49741,7 +49741,7 @@
       <c r="BQ146" s="38"/>
       <c r="BR146" s="38"/>
     </row>
-    <row r="147" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -49800,7 +49800,7 @@
       <c r="BQ147" s="38"/>
       <c r="BR147" s="38"/>
     </row>
-    <row r="148" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -49859,7 +49859,7 @@
       <c r="BQ148" s="38"/>
       <c r="BR148" s="38"/>
     </row>
-    <row r="149" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -49918,7 +49918,7 @@
       <c r="BQ149" s="38"/>
       <c r="BR149" s="38"/>
     </row>
-    <row r="150" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -49940,7 +49940,7 @@
       <c r="BQ150" s="38"/>
       <c r="BR150" s="38"/>
     </row>
-    <row r="151" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -49962,7 +49962,7 @@
       <c r="BQ151" s="38"/>
       <c r="BR151" s="38"/>
     </row>
-    <row r="152" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -49986,7 +49986,7 @@
       <c r="BQ152" s="38"/>
       <c r="BR152" s="38"/>
     </row>
-    <row r="153" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -50008,7 +50008,7 @@
       <c r="BQ153" s="38"/>
       <c r="BR153" s="38"/>
     </row>
-    <row r="154" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -50030,7 +50030,7 @@
       <c r="BQ154" s="38"/>
       <c r="BR154" s="38"/>
     </row>
-    <row r="155" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -50052,7 +50052,7 @@
       <c r="BQ155" s="38"/>
       <c r="BR155" s="38"/>
     </row>
-    <row r="156" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -50074,7 +50074,7 @@
       <c r="BQ156" s="38"/>
       <c r="BR156" s="38"/>
     </row>
-    <row r="157" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -50096,7 +50096,7 @@
       <c r="BQ157" s="38"/>
       <c r="BR157" s="38"/>
     </row>
-    <row r="158" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -50118,7 +50118,7 @@
       <c r="BQ158" s="38"/>
       <c r="BR158" s="38"/>
     </row>
-    <row r="159" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -50140,7 +50140,7 @@
       <c r="BQ159" s="38"/>
       <c r="BR159" s="38"/>
     </row>
-    <row r="160" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:70" x14ac:dyDescent="0.3">
       <c r="BE160" s="38"/>
       <c r="BF160" s="38"/>
       <c r="BG160" s="38"/>
@@ -50156,7 +50156,7 @@
       <c r="BQ160" s="38"/>
       <c r="BR160" s="38"/>
     </row>
-    <row r="161" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="161" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE161" s="38"/>
       <c r="BF161" s="38"/>
       <c r="BG161" s="38"/>
@@ -50172,7 +50172,7 @@
       <c r="BQ161" s="38"/>
       <c r="BR161" s="38"/>
     </row>
-    <row r="162" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="162" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE162" s="38"/>
       <c r="BF162" s="38"/>
       <c r="BG162" s="38"/>
@@ -50188,7 +50188,7 @@
       <c r="BQ162" s="38"/>
       <c r="BR162" s="38"/>
     </row>
-    <row r="163" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="163" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE163" s="38"/>
       <c r="BF163" s="38"/>
       <c r="BG163" s="38"/>
@@ -50204,7 +50204,7 @@
       <c r="BQ163" s="38"/>
       <c r="BR163" s="38"/>
     </row>
-    <row r="164" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="164" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE164" s="38"/>
       <c r="BF164" s="38"/>
       <c r="BG164" s="38"/>
@@ -50220,7 +50220,7 @@
       <c r="BQ164" s="38"/>
       <c r="BR164" s="38"/>
     </row>
-    <row r="165" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="165" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE165" s="38"/>
       <c r="BF165" s="38"/>
       <c r="BG165" s="38"/>
@@ -50236,7 +50236,7 @@
       <c r="BQ165" s="38"/>
       <c r="BR165" s="38"/>
     </row>
-    <row r="166" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="166" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE166" s="38"/>
       <c r="BF166" s="38"/>
       <c r="BG166" s="38"/>
@@ -50252,7 +50252,7 @@
       <c r="BQ166" s="38"/>
       <c r="BR166" s="38"/>
     </row>
-    <row r="167" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="167" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE167" s="38"/>
       <c r="BF167" s="38"/>
       <c r="BG167" s="38"/>
@@ -50268,7 +50268,7 @@
       <c r="BQ167" s="38"/>
       <c r="BR167" s="38"/>
     </row>
-    <row r="168" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="168" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE168" s="38"/>
       <c r="BF168" s="38"/>
       <c r="BG168" s="38"/>
@@ -50284,7 +50284,7 @@
       <c r="BQ168" s="38"/>
       <c r="BR168" s="38"/>
     </row>
-    <row r="169" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="169" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE169" s="38"/>
       <c r="BF169" s="38"/>
       <c r="BG169" s="38"/>
@@ -50300,7 +50300,7 @@
       <c r="BQ169" s="38"/>
       <c r="BR169" s="38"/>
     </row>
-    <row r="170" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="170" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE170" s="38"/>
       <c r="BF170" s="38"/>
       <c r="BG170" s="38"/>
@@ -50316,7 +50316,7 @@
       <c r="BQ170" s="38"/>
       <c r="BR170" s="38"/>
     </row>
-    <row r="171" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="171" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE171" s="38"/>
       <c r="BF171" s="38"/>
       <c r="BG171" s="38"/>
@@ -50332,7 +50332,7 @@
       <c r="BQ171" s="38"/>
       <c r="BR171" s="38"/>
     </row>
-    <row r="172" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="172" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE172" s="38"/>
       <c r="BF172" s="38"/>
       <c r="BG172" s="38"/>
@@ -50348,7 +50348,7 @@
       <c r="BQ172" s="38"/>
       <c r="BR172" s="38"/>
     </row>
-    <row r="173" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="173" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE173" s="38"/>
       <c r="BF173" s="38"/>
       <c r="BG173" s="38"/>
@@ -50364,7 +50364,7 @@
       <c r="BQ173" s="38"/>
       <c r="BR173" s="38"/>
     </row>
-    <row r="174" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="174" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE174" s="38"/>
       <c r="BF174" s="38"/>
       <c r="BG174" s="38"/>
@@ -50380,7 +50380,7 @@
       <c r="BQ174" s="38"/>
       <c r="BR174" s="38"/>
     </row>
-    <row r="175" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="175" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE175" s="38"/>
       <c r="BF175" s="38"/>
       <c r="BG175" s="38"/>
@@ -50396,7 +50396,7 @@
       <c r="BQ175" s="38"/>
       <c r="BR175" s="38"/>
     </row>
-    <row r="176" spans="57:70" x14ac:dyDescent="0.45">
+    <row r="176" spans="57:70" x14ac:dyDescent="0.3">
       <c r="BE176" s="38"/>
       <c r="BF176" s="38"/>
       <c r="BG176" s="38"/>

--- a/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 3/Databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C11F8-D917-45FD-8D9C-BC8312C004DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B46C50-B587-4977-995F-974329917255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="73">
   <si>
     <t>Volt</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Alpha:</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -596,20 +599,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
-    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
-    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
-    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="60% - Accent5" xfId="11" builtinId="48"/>
-    <cellStyle name="Accent1" xfId="9" builtinId="29"/>
-    <cellStyle name="Accent3" xfId="10" builtinId="37"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="20 % - Farve1" xfId="4" builtinId="30"/>
+    <cellStyle name="20 % - Farve3" xfId="8" builtinId="38"/>
+    <cellStyle name="40 % - Farve4" xfId="5" builtinId="43"/>
+    <cellStyle name="40 % - Farve5" xfId="6" builtinId="47"/>
+    <cellStyle name="60 % - Farve2" xfId="7" builtinId="36"/>
+    <cellStyle name="60 % - Farve3" xfId="13" builtinId="40"/>
+    <cellStyle name="60 % - Farve4" xfId="12" builtinId="44"/>
+    <cellStyle name="60 % - Farve5" xfId="11" builtinId="48"/>
+    <cellStyle name="Farve1" xfId="9" builtinId="29"/>
+    <cellStyle name="Farve3" xfId="10" builtinId="37"/>
+    <cellStyle name="God" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,7 +630,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1187,7 +1190,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1743,7 +1746,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2348,7 +2351,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2957,7 +2960,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3523,7 +3526,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4189,7 +4192,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4975,7 +4978,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5544,7 +5547,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6150,7 +6153,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6723,7 +6726,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7842,7 +7845,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8437,7 +8440,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9081,7 +9084,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10123,7 +10126,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11165,7 +11168,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11798,7 +11801,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12431,7 +12434,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13010,7 +13013,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13557,7 +13560,7 @@
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14101,10 +14104,919 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Løfteevne</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> som funktion af omdrejningstal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vægstangsforhold 3:1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BP$5:$BP$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1096.7741935483871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1193.5483870967741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1290.3225806451612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1387.0967741935483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1483.8709677419354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580.6451612903224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1677.4193548387095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1774.1935483870966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1870.9677419354837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1967.7419354838707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2064.516129032258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2161.2903225806454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2258.0645161290327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2354.83870967742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2451.6129032258073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2548.3870967741946</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2645.1612903225819</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2741.9354838709692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2838.7096774193565</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2935.4838709677438</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3032.2580645161311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3129.0322580645184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3225.8064516129057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3322.580645161293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3419.3548387096803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3516.1290322580676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3612.9032258064549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3709.6774193548422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3806.4516129032295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3903.2258064516168</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BU$5:$BU$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.46266150900000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.40098825416129036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3393149993225808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27764174448387113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.21596848964516147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15429523480645174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.2621979967742019E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.0948725129032462E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0724529709677262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2397784548386985E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15407103938709654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21574429422580643</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2774175490645161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3390908039032261</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40076405874193588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46243731358064566</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52411056841935544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.585783823258065</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64745707809677544</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.709130332935485</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77080358777419455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83247684261290456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89415009745161456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95582335229032411</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0174966071290337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0791698619677437</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1408431168064541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2025163716451637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2641896264838732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3258628813225832</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3875361361612928</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4492093910000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3355-43D5-BF10-EA99E9276505}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vægtstangsforhold 1:1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BD$5:$BD$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1096.7741935483871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1193.5483870967741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1290.3225806451612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1387.0967741935483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1483.8709677419354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580.6451612903224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1677.4193548387095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1774.1935483870966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1870.9677419354837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1967.7419354838707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2064.516129032258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2161.2903225806454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2258.0645161290327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2354.83870967742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2451.6129032258073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2548.3870967741946</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2645.1612903225819</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2741.9354838709692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2838.7096774193565</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2935.4838709677438</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3032.2580645161311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3129.0322580645184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3225.8064516129057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3322.580645161293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3419.3548387096803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3516.1290322580676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3612.9032258064549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3709.6774193548422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3806.4516129032295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3903.2258064516168</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$BJ$5:$BJ$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.50484300479999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.43989764028387091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37495227576774204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.31000691125161289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.245061546735484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18011618221935494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.11517081770322583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.0225453187096904E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4719911329032172E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9665275845161115E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1446106403612902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20955600487741924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27450136939354863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33944673390967772</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40439209842580676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46933746294193612</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53428282745806521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5992281919741943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66417355649032361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7291189210064527</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79406428552258179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85900965003871121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92395501455484019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98890037907096928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0538457435870987</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1187911081032278</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1837364726193569</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2486818371354862</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3136272016516151</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3785725661677448</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4435179306838739</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5084632952000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3355-43D5-BF10-EA99E9276505}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209506191"/>
+        <c:axId val="209509935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="209506191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1100"/>
+                  <a:t>Omdrejningstal [omdr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209509935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209509935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Løfteevne</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209506191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14664,7 +15576,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15230,7 +16142,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15784,7 +16696,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16354,7 +17266,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16910,7 +17822,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17470,7 +18382,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18840,6 +19752,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -28925,6 +29877,522 @@
 </file>
 
 <file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34076,6 +35544,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>615042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E75945-E8A5-8D01-F25A-6FA3E7F188E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34345,55 +35849,55 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CA176"/>
+  <dimension ref="A1:CH176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA101" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="BN162" sqref="BN162"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="CD23" sqref="CD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="9.86328125" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.1328125" customWidth="1"/>
-    <col min="16" max="16" width="10.86328125" customWidth="1"/>
-    <col min="18" max="18" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="13.73046875" customWidth="1"/>
-    <col min="50" max="50" width="11.73046875" customWidth="1"/>
-    <col min="51" max="51" width="13.73046875" customWidth="1"/>
-    <col min="52" max="52" width="18.265625" customWidth="1"/>
-    <col min="53" max="53" width="13.73046875" customWidth="1"/>
-    <col min="54" max="54" width="13.86328125" customWidth="1"/>
-    <col min="55" max="55" width="10.265625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="13.7109375" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" customWidth="1"/>
+    <col min="52" max="52" width="18.28515625" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" customWidth="1"/>
+    <col min="55" max="55" width="10.28515625" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="58" max="58" width="11.265625" customWidth="1"/>
-    <col min="59" max="60" width="10.73046875" customWidth="1"/>
-    <col min="62" max="62" width="12.73046875" customWidth="1"/>
-    <col min="63" max="63" width="10.59765625" customWidth="1"/>
-    <col min="64" max="64" width="11.265625" customWidth="1"/>
-    <col min="65" max="65" width="12.3984375" customWidth="1"/>
-    <col min="67" max="67" width="10.73046875" customWidth="1"/>
-    <col min="69" max="69" width="11.73046875" customWidth="1"/>
-    <col min="71" max="71" width="11.265625" customWidth="1"/>
-    <col min="72" max="72" width="12.265625" customWidth="1"/>
-    <col min="73" max="73" width="10.86328125" customWidth="1"/>
-    <col min="74" max="74" width="9.59765625" customWidth="1"/>
-    <col min="75" max="75" width="11.59765625" customWidth="1"/>
-    <col min="76" max="76" width="12.1328125" customWidth="1"/>
-    <col min="82" max="82" width="14.73046875" customWidth="1"/>
-    <col min="83" max="83" width="13.73046875" customWidth="1"/>
-    <col min="84" max="84" width="10.73046875" customWidth="1"/>
-    <col min="85" max="85" width="10.86328125" customWidth="1"/>
-    <col min="86" max="86" width="9.265625" customWidth="1"/>
+    <col min="58" max="58" width="11.28515625" customWidth="1"/>
+    <col min="59" max="60" width="10.7109375" customWidth="1"/>
+    <col min="62" max="62" width="12.7109375" customWidth="1"/>
+    <col min="63" max="63" width="10.5703125" customWidth="1"/>
+    <col min="64" max="64" width="11.28515625" customWidth="1"/>
+    <col min="65" max="65" width="12.42578125" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" customWidth="1"/>
+    <col min="69" max="69" width="11.7109375" customWidth="1"/>
+    <col min="71" max="71" width="11.28515625" customWidth="1"/>
+    <col min="72" max="72" width="12.28515625" customWidth="1"/>
+    <col min="73" max="73" width="10.85546875" customWidth="1"/>
+    <col min="74" max="74" width="9.5703125" customWidth="1"/>
+    <col min="75" max="75" width="11.5703125" customWidth="1"/>
+    <col min="76" max="76" width="12.140625" customWidth="1"/>
+    <col min="82" max="82" width="14.7109375" customWidth="1"/>
+    <col min="83" max="83" width="13.7109375" customWidth="1"/>
+    <col min="84" max="84" width="10.7109375" customWidth="1"/>
+    <col min="85" max="85" width="10.85546875" customWidth="1"/>
+    <col min="86" max="86" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34471,8 +35975,17 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:86" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -34576,8 +36089,14 @@
       <c r="BY2" s="29"/>
       <c r="BZ2" s="5"/>
       <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
     </row>
-    <row r="3" spans="1:79" ht="43.15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:86" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -34717,8 +36236,14 @@
       </c>
       <c r="BZ3" s="5"/>
       <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
     </row>
-    <row r="4" spans="1:79" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:86" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5.9</v>
       </c>
@@ -34868,8 +36393,14 @@
       </c>
       <c r="BZ4" s="5"/>
       <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6.02</v>
       </c>
@@ -35038,8 +36569,14 @@
       </c>
       <c r="BZ5" s="5"/>
       <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -35186,8 +36723,14 @@
       </c>
       <c r="BZ6" s="5"/>
       <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -35334,8 +36877,14 @@
       </c>
       <c r="BZ7" s="5"/>
       <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -35482,8 +37031,14 @@
       </c>
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -35630,8 +37185,14 @@
       </c>
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -35778,8 +37339,14 @@
       </c>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -35926,8 +37493,14 @@
       </c>
       <c r="BZ11" s="5"/>
       <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -36074,8 +37647,14 @@
       </c>
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="5"/>
+      <c r="CD12" s="5"/>
+      <c r="CE12" s="5"/>
+      <c r="CF12" s="5"/>
+      <c r="CG12" s="5"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -36222,8 +37801,14 @@
       </c>
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="5"/>
+      <c r="CD13" s="5"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -36358,8 +37943,14 @@
       </c>
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
+      <c r="CB14" s="5"/>
+      <c r="CC14" s="5"/>
+      <c r="CD14" s="5"/>
+      <c r="CE14" s="5"/>
+      <c r="CF14" s="5"/>
+      <c r="CG14" s="5"/>
     </row>
-    <row r="15" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -36500,8 +38091,14 @@
       </c>
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
+      <c r="CB15" s="5"/>
+      <c r="CC15" s="5"/>
+      <c r="CD15" s="5"/>
+      <c r="CE15" s="5"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -36648,8 +38245,14 @@
       </c>
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -36796,8 +38399,14 @@
       </c>
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -36944,8 +38553,14 @@
       </c>
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
+      <c r="CB18" s="5"/>
+      <c r="CC18" s="5"/>
+      <c r="CD18" s="5"/>
+      <c r="CE18" s="5"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="5"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -37092,8 +38707,14 @@
       </c>
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
+      <c r="CB19" s="5"/>
+      <c r="CC19" s="5"/>
+      <c r="CD19" s="5"/>
+      <c r="CE19" s="5"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -37240,8 +38861,14 @@
       </c>
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
+      <c r="CB20" s="5"/>
+      <c r="CC20" s="5"/>
+      <c r="CD20" s="5"/>
+      <c r="CE20" s="5"/>
+      <c r="CF20" s="5"/>
+      <c r="CG20" s="5"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
       <c r="U21" s="11">
         <v>4.84</v>
       </c>
@@ -37376,8 +39003,14 @@
       </c>
       <c r="BZ21" s="5"/>
       <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="5"/>
+      <c r="CE21" s="5"/>
+      <c r="CF21" s="5"/>
+      <c r="CG21" s="5"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
       <c r="U22" s="11">
         <v>4.84</v>
       </c>
@@ -37512,8 +39145,14 @@
       </c>
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
+      <c r="CB22" s="5"/>
+      <c r="CC22" s="5"/>
+      <c r="CD22" s="5"/>
+      <c r="CE22" s="5"/>
+      <c r="CF22" s="5"/>
+      <c r="CG22" s="5"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -37666,8 +39305,14 @@
       </c>
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
+      <c r="CB23" s="5"/>
+      <c r="CC23" s="5"/>
+      <c r="CD23" s="5"/>
+      <c r="CE23" s="5"/>
+      <c r="CF23" s="5"/>
+      <c r="CG23" s="5"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -37838,8 +39483,14 @@
       </c>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
+      <c r="CB24" s="5"/>
+      <c r="CC24" s="5"/>
+      <c r="CD24" s="5"/>
+      <c r="CE24" s="5"/>
+      <c r="CF24" s="5"/>
+      <c r="CG24" s="5"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4.3</v>
       </c>
@@ -38010,8 +39661,14 @@
       </c>
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="5"/>
+      <c r="CD25" s="5"/>
+      <c r="CE25" s="5"/>
+      <c r="CF25" s="5"/>
+      <c r="CG25" s="5"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4.26</v>
       </c>
@@ -38176,8 +39833,14 @@
       </c>
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
+      <c r="CB26" s="5"/>
+      <c r="CC26" s="5"/>
+      <c r="CD26" s="5"/>
+      <c r="CE26" s="5"/>
+      <c r="CF26" s="5"/>
+      <c r="CG26" s="5"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4.22</v>
       </c>
@@ -38336,8 +39999,14 @@
       </c>
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="5"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="5"/>
+      <c r="CF27" s="5"/>
+      <c r="CG27" s="5"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -38472,8 +40141,14 @@
       </c>
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
+      <c r="CB28" s="5"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="5"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -38608,8 +40283,14 @@
       </c>
       <c r="BZ29" s="5"/>
       <c r="CA29" s="5"/>
+      <c r="CB29" s="5"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="5"/>
+      <c r="CF29" s="5"/>
+      <c r="CG29" s="5"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -38744,8 +40425,14 @@
       </c>
       <c r="BZ30" s="5"/>
       <c r="CA30" s="5"/>
+      <c r="CB30" s="5"/>
+      <c r="CC30" s="5"/>
+      <c r="CD30" s="5"/>
+      <c r="CE30" s="5"/>
+      <c r="CF30" s="5"/>
+      <c r="CG30" s="5"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -38880,8 +40567,14 @@
       </c>
       <c r="BZ31" s="5"/>
       <c r="CA31" s="5"/>
+      <c r="CB31" s="5"/>
+      <c r="CC31" s="5"/>
+      <c r="CD31" s="5"/>
+      <c r="CE31" s="5"/>
+      <c r="CF31" s="5"/>
+      <c r="CG31" s="5"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -39016,8 +40709,14 @@
       </c>
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
+      <c r="CB32" s="5"/>
+      <c r="CC32" s="5"/>
+      <c r="CD32" s="5"/>
+      <c r="CE32" s="5"/>
+      <c r="CF32" s="5"/>
+      <c r="CG32" s="5"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -39152,8 +40851,14 @@
       </c>
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
+      <c r="CB33" s="5"/>
+      <c r="CC33" s="5"/>
+      <c r="CD33" s="5"/>
+      <c r="CE33" s="5"/>
+      <c r="CF33" s="5"/>
+      <c r="CG33" s="5"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -39288,8 +40993,14 @@
       </c>
       <c r="BZ34" s="5"/>
       <c r="CA34" s="5"/>
+      <c r="CB34" s="5"/>
+      <c r="CC34" s="5"/>
+      <c r="CD34" s="5"/>
+      <c r="CE34" s="5"/>
+      <c r="CF34" s="5"/>
+      <c r="CG34" s="5"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -39424,8 +41135,14 @@
       </c>
       <c r="BZ35" s="5"/>
       <c r="CA35" s="5"/>
+      <c r="CB35" s="5"/>
+      <c r="CC35" s="5"/>
+      <c r="CD35" s="5"/>
+      <c r="CE35" s="5"/>
+      <c r="CF35" s="5"/>
+      <c r="CG35" s="5"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -39558,8 +41275,14 @@
       </c>
       <c r="BZ36" s="5"/>
       <c r="CA36" s="5"/>
+      <c r="CB36" s="5"/>
+      <c r="CC36" s="5"/>
+      <c r="CD36" s="5"/>
+      <c r="CE36" s="5"/>
+      <c r="CF36" s="5"/>
+      <c r="CG36" s="5"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -39630,8 +41353,15 @@
       <c r="BX37" s="5"/>
       <c r="BY37" s="5"/>
       <c r="BZ37" s="5"/>
+      <c r="CA37" s="5"/>
+      <c r="CB37" s="5"/>
+      <c r="CC37" s="5"/>
+      <c r="CD37" s="5"/>
+      <c r="CE37" s="5"/>
+      <c r="CF37" s="5"/>
+      <c r="CG37" s="5"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -39702,8 +41432,15 @@
       <c r="BX38" s="5"/>
       <c r="BY38" s="5"/>
       <c r="BZ38" s="5"/>
+      <c r="CA38" s="5"/>
+      <c r="CB38" s="5"/>
+      <c r="CC38" s="5"/>
+      <c r="CD38" s="5"/>
+      <c r="CE38" s="5"/>
+      <c r="CF38" s="5"/>
+      <c r="CG38" s="5"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -39775,7 +41512,7 @@
       <c r="BY39" s="33"/>
       <c r="BZ39" s="33"/>
     </row>
-    <row r="40" spans="1:79" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:85" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -39851,7 +41588,7 @@
       <c r="BY40" s="33"/>
       <c r="BZ40" s="33"/>
     </row>
-    <row r="41" spans="1:79" ht="36" x14ac:dyDescent="1.05">
+    <row r="41" spans="1:85" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -39929,7 +41666,7 @@
       <c r="BY41" s="33"/>
       <c r="BZ41" s="33"/>
     </row>
-    <row r="42" spans="1:79" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:85" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -40031,7 +41768,7 @@
       <c r="BY42" s="33"/>
       <c r="BZ42" s="33"/>
     </row>
-    <row r="43" spans="1:79" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:85" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U43" s="11">
         <v>4.88</v>
       </c>
@@ -40123,7 +41860,7 @@
       <c r="BY43" s="33"/>
       <c r="BZ43" s="33"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
       <c r="U44" s="11">
         <v>4.82</v>
       </c>
@@ -40224,7 +41961,7 @@
       <c r="BY44" s="33"/>
       <c r="BZ44" s="33"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
       <c r="U45" s="11">
         <v>4.8</v>
       </c>
@@ -40326,7 +42063,7 @@
       <c r="BY45" s="33"/>
       <c r="BZ45" s="33"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -40446,7 +42183,7 @@
       <c r="BY46" s="33"/>
       <c r="BZ46" s="33"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -40584,7 +42321,7 @@
       <c r="BY47" s="33"/>
       <c r="BZ47" s="33"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4.88</v>
       </c>
@@ -40722,7 +42459,7 @@
       <c r="BY48" s="33"/>
       <c r="BZ48" s="33"/>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4.84</v>
       </c>
@@ -40860,7 +42597,7 @@
       <c r="BY49" s="33"/>
       <c r="BZ49" s="33"/>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4.84</v>
       </c>
@@ -40998,7 +42735,7 @@
       <c r="BY50" s="33"/>
       <c r="BZ50" s="33"/>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -41118,7 +42855,7 @@
       <c r="BY51" s="33"/>
       <c r="BZ51" s="33"/>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -41220,7 +42957,7 @@
       <c r="BY52" s="33"/>
       <c r="BZ52" s="33"/>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -41322,7 +43059,7 @@
       <c r="BY53" s="33"/>
       <c r="BZ53" s="33"/>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -41424,7 +43161,7 @@
       <c r="BY54" s="33"/>
       <c r="BZ54" s="33"/>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -41526,7 +43263,7 @@
       <c r="BY55" s="33"/>
       <c r="BZ55" s="33"/>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -41628,7 +43365,7 @@
       <c r="BY56" s="33"/>
       <c r="BZ56" s="33"/>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -41730,7 +43467,7 @@
       <c r="BY57" s="33"/>
       <c r="BZ57" s="33"/>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -41832,7 +43569,7 @@
       <c r="BY58" s="33"/>
       <c r="BZ58" s="33"/>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -41934,7 +43671,7 @@
       <c r="BY59" s="33"/>
       <c r="BZ59" s="33"/>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -42036,7 +43773,7 @@
       <c r="BY60" s="33"/>
       <c r="BZ60" s="33"/>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -42138,7 +43875,7 @@
       <c r="BY61" s="33"/>
       <c r="BZ61" s="33"/>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6